--- a/Result.xlsx
+++ b/Result.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\Homi_DFP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_96769ED813E92ACE5A160BC023DFFEEB512DEBA7" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{94EA8890-7C9E-466A-891D-9892AC13D20C}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="441">
   <si>
     <t>medSale1Bed</t>
   </si>
@@ -59,13 +65,1291 @@
   </si>
   <si>
     <t>average_review_count</t>
+  </si>
+  <si>
+    <t>ASSAULT_CRIME</t>
+  </si>
+  <si>
+    <t>SIMP_ASSAULT_CRIME</t>
+  </si>
+  <si>
+    <t>AGGV_ASSAULT_CRIME</t>
+  </si>
+  <si>
+    <t>DRUG_CRIME</t>
+  </si>
+  <si>
+    <t>ROBBERY_CRIME</t>
+  </si>
+  <si>
+    <t>15101</t>
+  </si>
+  <si>
+    <t>15003</t>
+  </si>
+  <si>
+    <t>15005</t>
+  </si>
+  <si>
+    <t>15006</t>
+  </si>
+  <si>
+    <t>15007</t>
+  </si>
+  <si>
+    <t>15102</t>
+  </si>
+  <si>
+    <t>15014</t>
+  </si>
+  <si>
+    <t>15104</t>
+  </si>
+  <si>
+    <t>15015</t>
+  </si>
+  <si>
+    <t>15017</t>
+  </si>
+  <si>
+    <t>15018</t>
+  </si>
+  <si>
+    <t>15020</t>
+  </si>
+  <si>
+    <t>15106</t>
+  </si>
+  <si>
+    <t>15024</t>
+  </si>
+  <si>
+    <t>15025</t>
+  </si>
+  <si>
+    <t>15026</t>
+  </si>
+  <si>
+    <t>15108</t>
+  </si>
+  <si>
+    <t>15028</t>
+  </si>
+  <si>
+    <t>15030</t>
+  </si>
+  <si>
+    <t>15046</t>
+  </si>
+  <si>
+    <t>15031</t>
+  </si>
+  <si>
+    <t>15034</t>
+  </si>
+  <si>
+    <t>15110</t>
+  </si>
+  <si>
+    <t>15035</t>
+  </si>
+  <si>
+    <t>15112</t>
+  </si>
+  <si>
+    <t>15037</t>
+  </si>
+  <si>
+    <t>15332</t>
+  </si>
+  <si>
+    <t>15044</t>
+  </si>
+  <si>
+    <t>15045</t>
+  </si>
+  <si>
+    <t>15116</t>
+  </si>
+  <si>
+    <t>15047</t>
+  </si>
+  <si>
+    <t>15049</t>
+  </si>
+  <si>
+    <t>15120</t>
+  </si>
+  <si>
+    <t>15126</t>
+  </si>
+  <si>
+    <t>15051</t>
+  </si>
+  <si>
+    <t>15642</t>
+  </si>
+  <si>
+    <t>15056</t>
+  </si>
+  <si>
+    <t>16046</t>
+  </si>
+  <si>
+    <t>15057</t>
+  </si>
+  <si>
+    <t>15136</t>
+  </si>
+  <si>
+    <t>15131</t>
+  </si>
+  <si>
+    <t>15132</t>
+  </si>
+  <si>
+    <t>15133</t>
+  </si>
+  <si>
+    <t>15135</t>
+  </si>
+  <si>
+    <t>15063</t>
+  </si>
+  <si>
+    <t>15146</t>
+  </si>
+  <si>
+    <t>15064</t>
+  </si>
+  <si>
+    <t>15668</t>
+  </si>
+  <si>
+    <t>15065</t>
+  </si>
+  <si>
+    <t>15068</t>
+  </si>
+  <si>
+    <t>15137</t>
+  </si>
+  <si>
+    <t>15071</t>
+  </si>
+  <si>
+    <t>15139</t>
+  </si>
+  <si>
+    <t>15140</t>
+  </si>
+  <si>
+    <t>15201</t>
+  </si>
+  <si>
+    <t>15202</t>
+  </si>
+  <si>
+    <t>15203</t>
+  </si>
+  <si>
+    <t>15204</t>
+  </si>
+  <si>
+    <t>15205</t>
+  </si>
+  <si>
+    <t>15206</t>
+  </si>
+  <si>
+    <t>15207</t>
+  </si>
+  <si>
+    <t>15208</t>
+  </si>
+  <si>
+    <t>15209</t>
+  </si>
+  <si>
+    <t>15210</t>
+  </si>
+  <si>
+    <t>15211</t>
+  </si>
+  <si>
+    <t>15212</t>
+  </si>
+  <si>
+    <t>15213</t>
+  </si>
+  <si>
+    <t>15214</t>
+  </si>
+  <si>
+    <t>15215</t>
+  </si>
+  <si>
+    <t>15216</t>
+  </si>
+  <si>
+    <t>15217</t>
+  </si>
+  <si>
+    <t>15218</t>
+  </si>
+  <si>
+    <t>15219</t>
+  </si>
+  <si>
+    <t>15220</t>
+  </si>
+  <si>
+    <t>15221</t>
+  </si>
+  <si>
+    <t>15222</t>
+  </si>
+  <si>
+    <t>15223</t>
+  </si>
+  <si>
+    <t>15224</t>
+  </si>
+  <si>
+    <t>15225</t>
+  </si>
+  <si>
+    <t>15226</t>
+  </si>
+  <si>
+    <t>15227</t>
+  </si>
+  <si>
+    <t>15228</t>
+  </si>
+  <si>
+    <t>15229</t>
+  </si>
+  <si>
+    <t>15232</t>
+  </si>
+  <si>
+    <t>15233</t>
+  </si>
+  <si>
+    <t>15234</t>
+  </si>
+  <si>
+    <t>15235</t>
+  </si>
+  <si>
+    <t>15236</t>
+  </si>
+  <si>
+    <t>15237</t>
+  </si>
+  <si>
+    <t>15238</t>
+  </si>
+  <si>
+    <t>15239</t>
+  </si>
+  <si>
+    <t>15241</t>
+  </si>
+  <si>
+    <t>15243</t>
+  </si>
+  <si>
+    <t>15260</t>
+  </si>
+  <si>
+    <t>15290</t>
+  </si>
+  <si>
+    <t>15142</t>
+  </si>
+  <si>
+    <t>15075</t>
+  </si>
+  <si>
+    <t>15076</t>
+  </si>
+  <si>
+    <t>16055</t>
+  </si>
+  <si>
+    <t>15143</t>
+  </si>
+  <si>
+    <t>15129</t>
+  </si>
+  <si>
+    <t>15144</t>
+  </si>
+  <si>
+    <t>15082</t>
+  </si>
+  <si>
+    <t>15084</t>
+  </si>
+  <si>
+    <t>15085</t>
+  </si>
+  <si>
+    <t>15145</t>
+  </si>
+  <si>
+    <t>16059</t>
+  </si>
+  <si>
+    <t>15147</t>
+  </si>
+  <si>
+    <t>15086</t>
+  </si>
+  <si>
+    <t>15088</t>
+  </si>
+  <si>
+    <t>15122</t>
+  </si>
+  <si>
+    <t>15089</t>
+  </si>
+  <si>
+    <t>15090</t>
+  </si>
+  <si>
+    <t>15148</t>
+  </si>
+  <si>
+    <t>64800</t>
+  </si>
+  <si>
+    <t>54700</t>
+  </si>
+  <si>
+    <t>57400</t>
+  </si>
+  <si>
+    <t>153000</t>
+  </si>
+  <si>
+    <t>92200</t>
+  </si>
+  <si>
+    <t>169900</t>
+  </si>
+  <si>
+    <t>91600</t>
+  </si>
+  <si>
+    <t>137800</t>
+  </si>
+  <si>
+    <t>148100</t>
+  </si>
+  <si>
+    <t>75800</t>
+  </si>
+  <si>
+    <t>128600</t>
+  </si>
+  <si>
+    <t>164600</t>
+  </si>
+  <si>
+    <t>59200</t>
+  </si>
+  <si>
+    <t>79600</t>
+  </si>
+  <si>
+    <t>166000</t>
+  </si>
+  <si>
+    <t>75400</t>
+  </si>
+  <si>
+    <t>97100</t>
+  </si>
+  <si>
+    <t>142000</t>
+  </si>
+  <si>
+    <t>58800</t>
+  </si>
+  <si>
+    <t>123000</t>
+  </si>
+  <si>
+    <t>106600</t>
+  </si>
+  <si>
+    <t>122800</t>
+  </si>
+  <si>
+    <t>109900</t>
+  </si>
+  <si>
+    <t>111600</t>
+  </si>
+  <si>
+    <t>52100</t>
+  </si>
+  <si>
+    <t>91900</t>
+  </si>
+  <si>
+    <t>169600</t>
+  </si>
+  <si>
+    <t>163300</t>
+  </si>
+  <si>
+    <t>113900</t>
+  </si>
+  <si>
+    <t>93900</t>
+  </si>
+  <si>
+    <t>85900</t>
+  </si>
+  <si>
+    <t>54900</t>
+  </si>
+  <si>
+    <t>95000</t>
+  </si>
+  <si>
+    <t>81700</t>
+  </si>
+  <si>
+    <t>111700</t>
+  </si>
+  <si>
+    <t>73700</t>
+  </si>
+  <si>
+    <t>104900</t>
+  </si>
+  <si>
+    <t>66400</t>
+  </si>
+  <si>
+    <t>129600</t>
+  </si>
+  <si>
+    <t>144700</t>
+  </si>
+  <si>
+    <t>114800</t>
+  </si>
+  <si>
+    <t>165500</t>
+  </si>
+  <si>
+    <t>55100</t>
+  </si>
+  <si>
+    <t>119200</t>
+  </si>
+  <si>
+    <t>143500</t>
+  </si>
+  <si>
+    <t>118900</t>
+  </si>
+  <si>
+    <t>73100</t>
+  </si>
+  <si>
+    <t>174300</t>
+  </si>
+  <si>
+    <t>89900</t>
+  </si>
+  <si>
+    <t>119000</t>
+  </si>
+  <si>
+    <t>101600</t>
+  </si>
+  <si>
+    <t>205200</t>
+  </si>
+  <si>
+    <t>79200</t>
+  </si>
+  <si>
+    <t>121900</t>
+  </si>
+  <si>
+    <t>64700</t>
+  </si>
+  <si>
+    <t>488700</t>
+  </si>
+  <si>
+    <t>117100</t>
+  </si>
+  <si>
+    <t>115500</t>
+  </si>
+  <si>
+    <t>107000</t>
+  </si>
+  <si>
+    <t>187000</t>
+  </si>
+  <si>
+    <t>138000</t>
+  </si>
+  <si>
+    <t>288200</t>
+  </si>
+  <si>
+    <t>127700</t>
+  </si>
+  <si>
+    <t>72700</t>
+  </si>
+  <si>
+    <t>139300</t>
+  </si>
+  <si>
+    <t>161600</t>
+  </si>
+  <si>
+    <t>159100</t>
+  </si>
+  <si>
+    <t>115900</t>
+  </si>
+  <si>
+    <t>175600</t>
+  </si>
+  <si>
+    <t>172200</t>
+  </si>
+  <si>
+    <t>126000</t>
+  </si>
+  <si>
+    <t>78200</t>
+  </si>
+  <si>
+    <t>63900</t>
+  </si>
+  <si>
+    <t>77700</t>
+  </si>
+  <si>
+    <t>80500</t>
+  </si>
+  <si>
+    <t>183800</t>
+  </si>
+  <si>
+    <t>218600</t>
+  </si>
+  <si>
+    <t>82100</t>
+  </si>
+  <si>
+    <t>170200</t>
+  </si>
+  <si>
+    <t>187900</t>
+  </si>
+  <si>
+    <t>69700</t>
+  </si>
+  <si>
+    <t>297900</t>
+  </si>
+  <si>
+    <t>176000</t>
+  </si>
+  <si>
+    <t>158200</t>
+  </si>
+  <si>
+    <t>157800</t>
+  </si>
+  <si>
+    <t>89500</t>
+  </si>
+  <si>
+    <t>194500</t>
+  </si>
+  <si>
+    <t>194400</t>
+  </si>
+  <si>
+    <t>154500</t>
+  </si>
+  <si>
+    <t>69300</t>
+  </si>
+  <si>
+    <t>158600</t>
+  </si>
+  <si>
+    <t>223500</t>
+  </si>
+  <si>
+    <t>53500</t>
+  </si>
+  <si>
+    <t>197700</t>
+  </si>
+  <si>
+    <t>94200</t>
+  </si>
+  <si>
+    <t>182200</t>
+  </si>
+  <si>
+    <t>96900</t>
+  </si>
+  <si>
+    <t>311200</t>
+  </si>
+  <si>
+    <t>179900</t>
+  </si>
+  <si>
+    <t>137200</t>
+  </si>
+  <si>
+    <t>113300</t>
+  </si>
+  <si>
+    <t>77300</t>
+  </si>
+  <si>
+    <t>128700</t>
+  </si>
+  <si>
+    <t>118400</t>
+  </si>
+  <si>
+    <t>134300</t>
+  </si>
+  <si>
+    <t>122200</t>
+  </si>
+  <si>
+    <t>168600</t>
+  </si>
+  <si>
+    <t>83900</t>
+  </si>
+  <si>
+    <t>181500</t>
+  </si>
+  <si>
+    <t>219100</t>
+  </si>
+  <si>
+    <t>215100</t>
+  </si>
+  <si>
+    <t>147300</t>
+  </si>
+  <si>
+    <t>187600</t>
+  </si>
+  <si>
+    <t>135000</t>
+  </si>
+  <si>
+    <t>207600</t>
+  </si>
+  <si>
+    <t>111100</t>
+  </si>
+  <si>
+    <t>166400</t>
+  </si>
+  <si>
+    <t>56700</t>
+  </si>
+  <si>
+    <t>145900</t>
+  </si>
+  <si>
+    <t>106900</t>
+  </si>
+  <si>
+    <t>191600</t>
+  </si>
+  <si>
+    <t>128900</t>
+  </si>
+  <si>
+    <t>228700</t>
+  </si>
+  <si>
+    <t>153200</t>
+  </si>
+  <si>
+    <t>280000</t>
+  </si>
+  <si>
+    <t>165600</t>
+  </si>
+  <si>
+    <t>172700</t>
+  </si>
+  <si>
+    <t>90600</t>
+  </si>
+  <si>
+    <t>137000</t>
+  </si>
+  <si>
+    <t>134200</t>
+  </si>
+  <si>
+    <t>133600</t>
+  </si>
+  <si>
+    <t>249500</t>
+  </si>
+  <si>
+    <t>169100</t>
+  </si>
+  <si>
+    <t>434200</t>
+  </si>
+  <si>
+    <t>147600</t>
+  </si>
+  <si>
+    <t>144000</t>
+  </si>
+  <si>
+    <t>98700</t>
+  </si>
+  <si>
+    <t>167200</t>
+  </si>
+  <si>
+    <t>217500</t>
+  </si>
+  <si>
+    <t>272400</t>
+  </si>
+  <si>
+    <t>153600</t>
+  </si>
+  <si>
+    <t>238000</t>
+  </si>
+  <si>
+    <t>213900</t>
+  </si>
+  <si>
+    <t>367600</t>
+  </si>
+  <si>
+    <t>262800</t>
+  </si>
+  <si>
+    <t>179800</t>
+  </si>
+  <si>
+    <t>120200</t>
+  </si>
+  <si>
+    <t>104800</t>
+  </si>
+  <si>
+    <t>54500</t>
+  </si>
+  <si>
+    <t>111000</t>
+  </si>
+  <si>
+    <t>271900</t>
+  </si>
+  <si>
+    <t>326300</t>
+  </si>
+  <si>
+    <t>80700</t>
+  </si>
+  <si>
+    <t>299200</t>
+  </si>
+  <si>
+    <t>259300</t>
+  </si>
+  <si>
+    <t>432900</t>
+  </si>
+  <si>
+    <t>340100</t>
+  </si>
+  <si>
+    <t>236300</t>
+  </si>
+  <si>
+    <t>308000</t>
+  </si>
+  <si>
+    <t>305200</t>
+  </si>
+  <si>
+    <t>297000</t>
+  </si>
+  <si>
+    <t>296300</t>
+  </si>
+  <si>
+    <t>279700</t>
+  </si>
+  <si>
+    <t>184200</t>
+  </si>
+  <si>
+    <t>255400</t>
+  </si>
+  <si>
+    <t>382600</t>
+  </si>
+  <si>
+    <t>95100</t>
+  </si>
+  <si>
+    <t>270500</t>
+  </si>
+  <si>
+    <t>470500</t>
+  </si>
+  <si>
+    <t>306200</t>
+  </si>
+  <si>
+    <t>274400</t>
+  </si>
+  <si>
+    <t>147700</t>
+  </si>
+  <si>
+    <t>81500</t>
+  </si>
+  <si>
+    <t>186200</t>
+  </si>
+  <si>
+    <t>124200</t>
+  </si>
+  <si>
+    <t>204300</t>
+  </si>
+  <si>
+    <t>164900</t>
+  </si>
+  <si>
+    <t>277900</t>
+  </si>
+  <si>
+    <t>95400</t>
+  </si>
+  <si>
+    <t>289600</t>
+  </si>
+  <si>
+    <t>310700</t>
+  </si>
+  <si>
+    <t>274000</t>
+  </si>
+  <si>
+    <t>180900</t>
+  </si>
+  <si>
+    <t>236500</t>
+  </si>
+  <si>
+    <t>194700</t>
+  </si>
+  <si>
+    <t>304300</t>
+  </si>
+  <si>
+    <t>99500</t>
+  </si>
+  <si>
+    <t>254200</t>
+  </si>
+  <si>
+    <t>64000</t>
+  </si>
+  <si>
+    <t>156900</t>
+  </si>
+  <si>
+    <t>147200</t>
+  </si>
+  <si>
+    <t>238400</t>
+  </si>
+  <si>
+    <t>141300</t>
+  </si>
+  <si>
+    <t>411500</t>
+  </si>
+  <si>
+    <t>214200</t>
+  </si>
+  <si>
+    <t>526500</t>
+  </si>
+  <si>
+    <t>233900</t>
+  </si>
+  <si>
+    <t>244300</t>
+  </si>
+  <si>
+    <t>158500</t>
+  </si>
+  <si>
+    <t>236100</t>
+  </si>
+  <si>
+    <t>157600</t>
+  </si>
+  <si>
+    <t>184400</t>
+  </si>
+  <si>
+    <t>400100</t>
+  </si>
+  <si>
+    <t>218700</t>
+  </si>
+  <si>
+    <t>640500</t>
+  </si>
+  <si>
+    <t>199800</t>
+  </si>
+  <si>
+    <t>145800</t>
+  </si>
+  <si>
+    <t>228000</t>
+  </si>
+  <si>
+    <t>320100</t>
+  </si>
+  <si>
+    <t>528400</t>
+  </si>
+  <si>
+    <t>215400</t>
+  </si>
+  <si>
+    <t>334400</t>
+  </si>
+  <si>
+    <t>322900</t>
+  </si>
+  <si>
+    <t>705500</t>
+  </si>
+  <si>
+    <t>466500</t>
+  </si>
+  <si>
+    <t>249300</t>
+  </si>
+  <si>
+    <t>133200</t>
+  </si>
+  <si>
+    <t>144300</t>
+  </si>
+  <si>
+    <t>121400</t>
+  </si>
+  <si>
+    <t>151500</t>
+  </si>
+  <si>
+    <t>416100</t>
+  </si>
+  <si>
+    <t>406600</t>
+  </si>
+  <si>
+    <t>283600</t>
+  </si>
+  <si>
+    <t>630400</t>
+  </si>
+  <si>
+    <t>285400</t>
+  </si>
+  <si>
+    <t>221000</t>
+  </si>
+  <si>
+    <t>192300</t>
+  </si>
+  <si>
+    <t>227200</t>
+  </si>
+  <si>
+    <t>187500</t>
+  </si>
+  <si>
+    <t>585800</t>
+  </si>
+  <si>
+    <t>602300</t>
+  </si>
+  <si>
+    <t>217700</t>
+  </si>
+  <si>
+    <t>668700</t>
+  </si>
+  <si>
+    <t>251800</t>
+  </si>
+  <si>
+    <t>290000</t>
+  </si>
+  <si>
+    <t>556900</t>
+  </si>
+  <si>
+    <t>765300</t>
+  </si>
+  <si>
+    <t>149900</t>
+  </si>
+  <si>
+    <t>253300</t>
+  </si>
+  <si>
+    <t>335200</t>
+  </si>
+  <si>
+    <t>843900</t>
+  </si>
+  <si>
+    <t>536600</t>
+  </si>
+  <si>
+    <t>572200</t>
+  </si>
+  <si>
+    <t>854900</t>
+  </si>
+  <si>
+    <t>636700</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>All Restaurants</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +1412,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -174,7 +1466,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,9 +1498,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,6 +1550,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -415,14 +1743,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:P1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="N12" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:U1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="17" max="21" width="22.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:16">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,6 +1800,5724 @@
       </c>
       <c r="P1" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>1019.045454545455</v>
+      </c>
+      <c r="J2">
+        <v>998.81818181818187</v>
+      </c>
+      <c r="K2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H3">
+        <v>2.137931034482758</v>
+      </c>
+      <c r="I3">
+        <v>727.43243243243239</v>
+      </c>
+      <c r="J3">
+        <v>1335</v>
+      </c>
+      <c r="K3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G4" t="s">
+        <v>381</v>
+      </c>
+      <c r="H4">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="I4">
+        <v>841.25</v>
+      </c>
+      <c r="J4">
+        <v>1042</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>1.75</v>
+      </c>
+      <c r="I5">
+        <v>735</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>975</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H7">
+        <v>1.533333333333333</v>
+      </c>
+      <c r="I7">
+        <v>957.88333333333333</v>
+      </c>
+      <c r="J7">
+        <v>969.54411764705878</v>
+      </c>
+      <c r="K7">
+        <v>120</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G8" t="s">
+        <v>383</v>
+      </c>
+      <c r="H8">
+        <v>2.1621621621621618</v>
+      </c>
+      <c r="I8">
+        <v>671.93023255813955</v>
+      </c>
+      <c r="J8">
+        <v>874.1</v>
+      </c>
+      <c r="K8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9">
+        <v>2.375</v>
+      </c>
+      <c r="I9">
+        <v>755.55555555555554</v>
+      </c>
+      <c r="J9">
+        <v>1140</v>
+      </c>
+      <c r="K9">
+        <v>21</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E10" t="s">
+        <v>289</v>
+      </c>
+      <c r="G10" t="s">
+        <v>384</v>
+      </c>
+      <c r="H10">
+        <v>2.5</v>
+      </c>
+      <c r="I10">
+        <v>1750</v>
+      </c>
+      <c r="J10">
+        <v>1550</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" t="s">
+        <v>290</v>
+      </c>
+      <c r="G11" t="s">
+        <v>385</v>
+      </c>
+      <c r="H11">
+        <v>1.875</v>
+      </c>
+      <c r="I11">
+        <v>936.25</v>
+      </c>
+      <c r="J11">
+        <v>1278.333333333333</v>
+      </c>
+      <c r="K11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>1025</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" t="s">
+        <v>217</v>
+      </c>
+      <c r="E14" t="s">
+        <v>291</v>
+      </c>
+      <c r="G14" t="s">
+        <v>386</v>
+      </c>
+      <c r="H14">
+        <v>2.5566037735849059</v>
+      </c>
+      <c r="I14">
+        <v>651.58771929824559</v>
+      </c>
+      <c r="J14">
+        <v>1113.9411764705881</v>
+      </c>
+      <c r="K14">
+        <v>120</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" t="s">
+        <v>292</v>
+      </c>
+      <c r="G15" t="s">
+        <v>387</v>
+      </c>
+      <c r="H15">
+        <v>2.285714285714286</v>
+      </c>
+      <c r="I15">
+        <v>842.85714285714289</v>
+      </c>
+      <c r="J15">
+        <v>1625</v>
+      </c>
+      <c r="K15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E16" t="s">
+        <v>293</v>
+      </c>
+      <c r="H16">
+        <v>2.0666666666666669</v>
+      </c>
+      <c r="I16">
+        <v>739.84313725490199</v>
+      </c>
+      <c r="J16">
+        <v>917.8</v>
+      </c>
+      <c r="K16">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" t="s">
+        <v>294</v>
+      </c>
+      <c r="G17" t="s">
+        <v>388</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>1437.5</v>
+      </c>
+      <c r="J17">
+        <v>1500</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" t="s">
+        <v>295</v>
+      </c>
+      <c r="F18" t="s">
+        <v>356</v>
+      </c>
+      <c r="G18" t="s">
+        <v>389</v>
+      </c>
+      <c r="H18">
+        <v>1.554545454545454</v>
+      </c>
+      <c r="I18">
+        <v>823.72881355932202</v>
+      </c>
+      <c r="J18">
+        <v>840.90566037735846</v>
+      </c>
+      <c r="K18">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19">
+        <v>2.137931034482758</v>
+      </c>
+      <c r="I19">
+        <v>955.25</v>
+      </c>
+      <c r="J19">
+        <v>1322.75</v>
+      </c>
+      <c r="K19">
+        <v>32</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20">
+        <v>1.538461538461539</v>
+      </c>
+      <c r="I20">
+        <v>520</v>
+      </c>
+      <c r="J20">
+        <v>700</v>
+      </c>
+      <c r="K20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" t="s">
+        <v>222</v>
+      </c>
+      <c r="E21" t="s">
+        <v>296</v>
+      </c>
+      <c r="G21" t="s">
+        <v>390</v>
+      </c>
+      <c r="H21">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="I21">
+        <v>1203.333333333333</v>
+      </c>
+      <c r="J21">
+        <v>1474.4</v>
+      </c>
+      <c r="K21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>900</v>
+      </c>
+      <c r="J22">
+        <v>1100</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>223</v>
+      </c>
+      <c r="G23" t="s">
+        <v>391</v>
+      </c>
+      <c r="H23">
+        <v>2.7777777777777781</v>
+      </c>
+      <c r="I23">
+        <v>909</v>
+      </c>
+      <c r="J23">
+        <v>1063.333333333333</v>
+      </c>
+      <c r="K23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24">
+        <v>1.8235294117647061</v>
+      </c>
+      <c r="I24">
+        <v>514.1</v>
+      </c>
+      <c r="J24">
+        <v>925</v>
+      </c>
+      <c r="K24">
+        <v>24</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" t="s">
+        <v>392</v>
+      </c>
+      <c r="H25">
+        <v>1.5</v>
+      </c>
+      <c r="I25">
+        <v>622</v>
+      </c>
+      <c r="J25">
+        <v>691.40625</v>
+      </c>
+      <c r="K25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26">
+        <v>1.911111111111111</v>
+      </c>
+      <c r="I26">
+        <v>740.936170212766</v>
+      </c>
+      <c r="J26">
+        <v>979.66666666666663</v>
+      </c>
+      <c r="K26">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E27" t="s">
+        <v>297</v>
+      </c>
+      <c r="G27" t="s">
+        <v>393</v>
+      </c>
+      <c r="H27">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="I27">
+        <v>572.22222222222217</v>
+      </c>
+      <c r="J27">
+        <v>1050</v>
+      </c>
+      <c r="K27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>224</v>
+      </c>
+      <c r="E28" t="s">
+        <v>298</v>
+      </c>
+      <c r="G28" t="s">
+        <v>390</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>858.25</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" t="s">
+        <v>225</v>
+      </c>
+      <c r="E29" t="s">
+        <v>299</v>
+      </c>
+      <c r="F29" t="s">
+        <v>357</v>
+      </c>
+      <c r="G29" t="s">
+        <v>394</v>
+      </c>
+      <c r="H29">
+        <v>2.1</v>
+      </c>
+      <c r="I29">
+        <v>1043.636363636364</v>
+      </c>
+      <c r="J29">
+        <v>1098</v>
+      </c>
+      <c r="K29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="s">
+        <v>226</v>
+      </c>
+      <c r="G30" t="s">
+        <v>395</v>
+      </c>
+      <c r="H30">
+        <v>2.1333333333333329</v>
+      </c>
+      <c r="I30">
+        <v>660</v>
+      </c>
+      <c r="J30">
+        <v>1125</v>
+      </c>
+      <c r="K30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" t="s">
+        <v>227</v>
+      </c>
+      <c r="E31" t="s">
+        <v>273</v>
+      </c>
+      <c r="F31" t="s">
+        <v>358</v>
+      </c>
+      <c r="G31" t="s">
+        <v>396</v>
+      </c>
+      <c r="H31">
+        <v>1.9375</v>
+      </c>
+      <c r="I31">
+        <v>870</v>
+      </c>
+      <c r="J31">
+        <v>1025.5714285714289</v>
+      </c>
+      <c r="K31">
+        <v>18</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>975</v>
+      </c>
+      <c r="J32">
+        <v>1968</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33">
+        <v>2.75</v>
+      </c>
+      <c r="I33">
+        <v>1125</v>
+      </c>
+      <c r="J33">
+        <v>1050</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" t="s">
+        <v>228</v>
+      </c>
+      <c r="E34" t="s">
+        <v>300</v>
+      </c>
+      <c r="G34" t="s">
+        <v>397</v>
+      </c>
+      <c r="H34">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I34">
+        <v>824.5454545454545</v>
+      </c>
+      <c r="J34">
+        <v>1269.473684210526</v>
+      </c>
+      <c r="K34">
+        <v>45</v>
+      </c>
+      <c r="Q34">
+        <v>5</v>
+      </c>
+      <c r="R34">
+        <v>4</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>5</v>
+      </c>
+      <c r="U34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" t="s">
+        <v>229</v>
+      </c>
+      <c r="E35" t="s">
+        <v>301</v>
+      </c>
+      <c r="G35" t="s">
+        <v>398</v>
+      </c>
+      <c r="H35">
+        <v>2.0909090909090908</v>
+      </c>
+      <c r="I35">
+        <v>842.27272727272725</v>
+      </c>
+      <c r="J35">
+        <v>1184.2</v>
+      </c>
+      <c r="K35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>875</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" t="s">
+        <v>388</v>
+      </c>
+      <c r="H37">
+        <v>1.645161290322581</v>
+      </c>
+      <c r="I37">
+        <v>611.01428571428573</v>
+      </c>
+      <c r="J37">
+        <v>810.6</v>
+      </c>
+      <c r="K37">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" t="s">
+        <v>230</v>
+      </c>
+      <c r="G38" t="s">
+        <v>399</v>
+      </c>
+      <c r="H38">
+        <v>1.846153846153846</v>
+      </c>
+      <c r="I38">
+        <v>1027.1875</v>
+      </c>
+      <c r="J38">
+        <v>1005</v>
+      </c>
+      <c r="K38">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s">
+        <v>231</v>
+      </c>
+      <c r="E39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G39" t="s">
+        <v>400</v>
+      </c>
+      <c r="H39">
+        <v>2.1111111111111112</v>
+      </c>
+      <c r="I39">
+        <v>1350.5</v>
+      </c>
+      <c r="J39">
+        <v>1766.666666666667</v>
+      </c>
+      <c r="K39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" t="s">
+        <v>232</v>
+      </c>
+      <c r="E40" t="s">
+        <v>303</v>
+      </c>
+      <c r="G40" t="s">
+        <v>401</v>
+      </c>
+      <c r="H40">
+        <v>2.0909090909090908</v>
+      </c>
+      <c r="I40">
+        <v>773.63636363636363</v>
+      </c>
+      <c r="J40">
+        <v>1000</v>
+      </c>
+      <c r="K40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" t="s">
+        <v>233</v>
+      </c>
+      <c r="E41" t="s">
+        <v>304</v>
+      </c>
+      <c r="G41" t="s">
+        <v>399</v>
+      </c>
+      <c r="H41">
+        <v>2.085106382978724</v>
+      </c>
+      <c r="I41">
+        <v>666.63793103448279</v>
+      </c>
+      <c r="J41">
+        <v>1253</v>
+      </c>
+      <c r="K41">
+        <v>60</v>
+      </c>
+      <c r="Q41">
+        <v>12</v>
+      </c>
+      <c r="R41">
+        <v>9</v>
+      </c>
+      <c r="S41">
+        <v>5</v>
+      </c>
+      <c r="T41">
+        <v>8</v>
+      </c>
+      <c r="U41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" t="s">
+        <v>234</v>
+      </c>
+      <c r="E42" t="s">
+        <v>305</v>
+      </c>
+      <c r="G42" t="s">
+        <v>402</v>
+      </c>
+      <c r="H42">
+        <v>2.279069767441861</v>
+      </c>
+      <c r="I42">
+        <v>797.11904761904759</v>
+      </c>
+      <c r="J42">
+        <v>968.31818181818187</v>
+      </c>
+      <c r="K42">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43">
+        <v>1.8795180722891569</v>
+      </c>
+      <c r="I43">
+        <v>681.22619047619048</v>
+      </c>
+      <c r="J43">
+        <v>1015.8064516129029</v>
+      </c>
+      <c r="K43">
+        <v>86</v>
+      </c>
+      <c r="Q43">
+        <v>3</v>
+      </c>
+      <c r="R43">
+        <v>2</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" t="s">
+        <v>235</v>
+      </c>
+      <c r="E44" t="s">
+        <v>306</v>
+      </c>
+      <c r="G44" t="s">
+        <v>403</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>723.33333333333337</v>
+      </c>
+      <c r="J44">
+        <v>1200</v>
+      </c>
+      <c r="K44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" t="s">
+        <v>166</v>
+      </c>
+      <c r="D45" t="s">
+        <v>236</v>
+      </c>
+      <c r="E45" t="s">
+        <v>307</v>
+      </c>
+      <c r="G45" t="s">
+        <v>404</v>
+      </c>
+      <c r="H45">
+        <v>1.846153846153846</v>
+      </c>
+      <c r="I45">
+        <v>735</v>
+      </c>
+      <c r="J45">
+        <v>903.75</v>
+      </c>
+      <c r="K45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" t="s">
+        <v>237</v>
+      </c>
+      <c r="E46" t="s">
+        <v>308</v>
+      </c>
+      <c r="G46" t="s">
+        <v>405</v>
+      </c>
+      <c r="H46">
+        <v>2.1</v>
+      </c>
+      <c r="I46">
+        <v>3051.363636363636</v>
+      </c>
+      <c r="J46">
+        <v>640</v>
+      </c>
+      <c r="K46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" t="s">
+        <v>238</v>
+      </c>
+      <c r="E47" t="s">
+        <v>309</v>
+      </c>
+      <c r="F47" t="s">
+        <v>359</v>
+      </c>
+      <c r="G47" t="s">
+        <v>406</v>
+      </c>
+      <c r="H47">
+        <v>2.0515463917525771</v>
+      </c>
+      <c r="I47">
+        <v>1078.7244897959181</v>
+      </c>
+      <c r="J47">
+        <v>1045.6478873239439</v>
+      </c>
+      <c r="K47">
+        <v>98</v>
+      </c>
+      <c r="Q47">
+        <v>5</v>
+      </c>
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G49" t="s">
+        <v>396</v>
+      </c>
+      <c r="H49">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="I49">
+        <v>1281.4285714285711</v>
+      </c>
+      <c r="J49">
+        <v>1637.5</v>
+      </c>
+      <c r="K49">
+        <v>7</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" t="s">
+        <v>239</v>
+      </c>
+      <c r="E50" t="s">
+        <v>310</v>
+      </c>
+      <c r="G50" t="s">
+        <v>407</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50">
+        <v>743.6</v>
+      </c>
+      <c r="J50">
+        <v>1127.5</v>
+      </c>
+      <c r="K50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" t="s">
+        <v>240</v>
+      </c>
+      <c r="E51" t="s">
+        <v>311</v>
+      </c>
+      <c r="G51" t="s">
+        <v>406</v>
+      </c>
+      <c r="H51">
+        <v>2.0727272727272732</v>
+      </c>
+      <c r="I51">
+        <v>668.09210526315792</v>
+      </c>
+      <c r="J51">
+        <v>1030</v>
+      </c>
+      <c r="K51">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" t="s">
+        <v>241</v>
+      </c>
+      <c r="E52" t="s">
+        <v>312</v>
+      </c>
+      <c r="G52" t="s">
+        <v>408</v>
+      </c>
+      <c r="H52">
+        <v>1.5789473684210531</v>
+      </c>
+      <c r="I52">
+        <v>641.15625</v>
+      </c>
+      <c r="J52">
+        <v>800.8125</v>
+      </c>
+      <c r="K52">
+        <v>98</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" t="s">
+        <v>172</v>
+      </c>
+      <c r="D53" t="s">
+        <v>242</v>
+      </c>
+      <c r="E53" t="s">
+        <v>313</v>
+      </c>
+      <c r="G53" t="s">
+        <v>409</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>671.5</v>
+      </c>
+      <c r="K53">
+        <v>4</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" t="s">
+        <v>173</v>
+      </c>
+      <c r="D54" t="s">
+        <v>243</v>
+      </c>
+      <c r="E54" t="s">
+        <v>314</v>
+      </c>
+      <c r="G54" t="s">
+        <v>388</v>
+      </c>
+      <c r="H54">
+        <v>1.903225806451613</v>
+      </c>
+      <c r="I54">
+        <v>1148.838709677419</v>
+      </c>
+      <c r="J54">
+        <v>1172.6428571428571</v>
+      </c>
+      <c r="K54">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H55">
+        <v>2.064516129032258</v>
+      </c>
+      <c r="I55">
+        <v>653.1351351351351</v>
+      </c>
+      <c r="J55">
+        <v>1100</v>
+      </c>
+      <c r="K55">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" t="s">
+        <v>244</v>
+      </c>
+      <c r="E56" t="s">
+        <v>315</v>
+      </c>
+      <c r="G56" t="s">
+        <v>410</v>
+      </c>
+      <c r="H56">
+        <v>2.043478260869565</v>
+      </c>
+      <c r="I56">
+        <v>1126.0333333333331</v>
+      </c>
+      <c r="J56">
+        <v>1236.516129032258</v>
+      </c>
+      <c r="K56">
+        <v>120</v>
+      </c>
+      <c r="Q56">
+        <v>105</v>
+      </c>
+      <c r="R56">
+        <v>82</v>
+      </c>
+      <c r="S56">
+        <v>25</v>
+      </c>
+      <c r="T56">
+        <v>114</v>
+      </c>
+      <c r="U56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" t="s">
+        <v>174</v>
+      </c>
+      <c r="D57" t="s">
+        <v>245</v>
+      </c>
+      <c r="E57" t="s">
+        <v>316</v>
+      </c>
+      <c r="F57" t="s">
+        <v>360</v>
+      </c>
+      <c r="G57" t="s">
+        <v>411</v>
+      </c>
+      <c r="H57">
+        <v>1.8181818181818179</v>
+      </c>
+      <c r="I57">
+        <v>806.77499999999998</v>
+      </c>
+      <c r="J57">
+        <v>1043.416666666667</v>
+      </c>
+      <c r="K57">
+        <v>120</v>
+      </c>
+      <c r="Q57">
+        <v>2</v>
+      </c>
+      <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="U57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" t="s">
+        <v>246</v>
+      </c>
+      <c r="E58" t="s">
+        <v>317</v>
+      </c>
+      <c r="G58" t="s">
+        <v>412</v>
+      </c>
+      <c r="H58">
+        <v>1.919642857142857</v>
+      </c>
+      <c r="I58">
+        <v>1456.9833333333329</v>
+      </c>
+      <c r="J58">
+        <v>1078.7258064516129</v>
+      </c>
+      <c r="K58">
+        <v>120</v>
+      </c>
+      <c r="Q58">
+        <v>287</v>
+      </c>
+      <c r="R58">
+        <v>181</v>
+      </c>
+      <c r="S58">
+        <v>124</v>
+      </c>
+      <c r="T58">
+        <v>443</v>
+      </c>
+      <c r="U58">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" t="s">
+        <v>176</v>
+      </c>
+      <c r="G59" t="s">
+        <v>413</v>
+      </c>
+      <c r="H59">
+        <v>2.395833333333333</v>
+      </c>
+      <c r="I59">
+        <v>826.68</v>
+      </c>
+      <c r="J59">
+        <v>1322.1111111111111</v>
+      </c>
+      <c r="K59">
+        <v>50</v>
+      </c>
+      <c r="Q59">
+        <v>132</v>
+      </c>
+      <c r="R59">
+        <v>105</v>
+      </c>
+      <c r="S59">
+        <v>34</v>
+      </c>
+      <c r="T59">
+        <v>126</v>
+      </c>
+      <c r="U59">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" t="s">
+        <v>247</v>
+      </c>
+      <c r="E60" t="s">
+        <v>318</v>
+      </c>
+      <c r="F60" t="s">
+        <v>361</v>
+      </c>
+      <c r="G60" t="s">
+        <v>414</v>
+      </c>
+      <c r="H60">
+        <v>1.9909909909909911</v>
+      </c>
+      <c r="I60">
+        <v>1290.5714285714289</v>
+      </c>
+      <c r="J60">
+        <v>949.66666666666663</v>
+      </c>
+      <c r="K60">
+        <v>120</v>
+      </c>
+      <c r="Q60">
+        <v>78</v>
+      </c>
+      <c r="R60">
+        <v>69</v>
+      </c>
+      <c r="S60">
+        <v>10</v>
+      </c>
+      <c r="T60">
+        <v>45</v>
+      </c>
+      <c r="U60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" t="s">
+        <v>248</v>
+      </c>
+      <c r="E61" t="s">
+        <v>319</v>
+      </c>
+      <c r="G61" t="s">
+        <v>415</v>
+      </c>
+      <c r="H61">
+        <v>1.929824561403509</v>
+      </c>
+      <c r="I61">
+        <v>1205.9159663865551</v>
+      </c>
+      <c r="J61">
+        <v>1094.2105263157889</v>
+      </c>
+      <c r="K61">
+        <v>120</v>
+      </c>
+      <c r="Q61">
+        <v>330</v>
+      </c>
+      <c r="R61">
+        <v>257</v>
+      </c>
+      <c r="S61">
+        <v>84</v>
+      </c>
+      <c r="T61">
+        <v>522</v>
+      </c>
+      <c r="U61">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" t="s">
+        <v>249</v>
+      </c>
+      <c r="E62" t="s">
+        <v>320</v>
+      </c>
+      <c r="G62" t="s">
+        <v>402</v>
+      </c>
+      <c r="H62">
+        <v>2.1509433962264151</v>
+      </c>
+      <c r="I62">
+        <v>907.77049180327867</v>
+      </c>
+      <c r="J62">
+        <v>1339.0625</v>
+      </c>
+      <c r="K62">
+        <v>63</v>
+      </c>
+      <c r="Q62">
+        <v>173</v>
+      </c>
+      <c r="R62">
+        <v>151</v>
+      </c>
+      <c r="S62">
+        <v>24</v>
+      </c>
+      <c r="T62">
+        <v>193</v>
+      </c>
+      <c r="U62">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H63">
+        <v>1.974358974358974</v>
+      </c>
+      <c r="I63">
+        <v>1063.5</v>
+      </c>
+      <c r="J63">
+        <v>1329.5686274509801</v>
+      </c>
+      <c r="K63">
+        <v>120</v>
+      </c>
+      <c r="Q63">
+        <v>173</v>
+      </c>
+      <c r="R63">
+        <v>135</v>
+      </c>
+      <c r="S63">
+        <v>48</v>
+      </c>
+      <c r="T63">
+        <v>453</v>
+      </c>
+      <c r="U63">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" t="s">
+        <v>179</v>
+      </c>
+      <c r="D64" t="s">
+        <v>250</v>
+      </c>
+      <c r="E64" t="s">
+        <v>321</v>
+      </c>
+      <c r="G64" t="s">
+        <v>398</v>
+      </c>
+      <c r="H64">
+        <v>1.752212389380531</v>
+      </c>
+      <c r="I64">
+        <v>853.23333333333335</v>
+      </c>
+      <c r="J64">
+        <v>756.2962962962963</v>
+      </c>
+      <c r="K64">
+        <v>120</v>
+      </c>
+      <c r="T64">
+        <v>2</v>
+      </c>
+      <c r="U64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D65" t="s">
+        <v>251</v>
+      </c>
+      <c r="E65" t="s">
+        <v>322</v>
+      </c>
+      <c r="G65" t="s">
+        <v>416</v>
+      </c>
+      <c r="H65">
+        <v>2.4952380952380948</v>
+      </c>
+      <c r="I65">
+        <v>928.42016806722688</v>
+      </c>
+      <c r="J65">
+        <v>1204.6206896551721</v>
+      </c>
+      <c r="K65">
+        <v>120</v>
+      </c>
+      <c r="Q65">
+        <v>529</v>
+      </c>
+      <c r="R65">
+        <v>440</v>
+      </c>
+      <c r="S65">
+        <v>110</v>
+      </c>
+      <c r="T65">
+        <v>656</v>
+      </c>
+      <c r="U65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" t="s">
+        <v>141</v>
+      </c>
+      <c r="D66" t="s">
+        <v>252</v>
+      </c>
+      <c r="E66" t="s">
+        <v>323</v>
+      </c>
+      <c r="G66" t="s">
+        <v>411</v>
+      </c>
+      <c r="H66">
+        <v>2.137614678899082</v>
+      </c>
+      <c r="I66">
+        <v>989.5916666666667</v>
+      </c>
+      <c r="J66">
+        <v>1290.58</v>
+      </c>
+      <c r="K66">
+        <v>120</v>
+      </c>
+      <c r="Q66">
+        <v>136</v>
+      </c>
+      <c r="R66">
+        <v>117</v>
+      </c>
+      <c r="S66">
+        <v>27</v>
+      </c>
+      <c r="T66">
+        <v>179</v>
+      </c>
+      <c r="U66">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" t="s">
+        <v>180</v>
+      </c>
+      <c r="D67" t="s">
+        <v>253</v>
+      </c>
+      <c r="E67" t="s">
+        <v>324</v>
+      </c>
+      <c r="F67" t="s">
+        <v>362</v>
+      </c>
+      <c r="G67" t="s">
+        <v>380</v>
+      </c>
+      <c r="H67">
+        <v>2.2526315789473679</v>
+      </c>
+      <c r="I67">
+        <v>1048.883333333333</v>
+      </c>
+      <c r="J67">
+        <v>915.86746987951813</v>
+      </c>
+      <c r="K67">
+        <v>120</v>
+      </c>
+      <c r="Q67">
+        <v>632</v>
+      </c>
+      <c r="R67">
+        <v>463</v>
+      </c>
+      <c r="S67">
+        <v>202</v>
+      </c>
+      <c r="T67">
+        <v>1266</v>
+      </c>
+      <c r="U67">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" t="s">
+        <v>181</v>
+      </c>
+      <c r="D68" t="s">
+        <v>254</v>
+      </c>
+      <c r="E68" t="s">
+        <v>325</v>
+      </c>
+      <c r="F68" t="s">
+        <v>363</v>
+      </c>
+      <c r="G68" t="s">
+        <v>417</v>
+      </c>
+      <c r="H68">
+        <v>2.8627450980392162</v>
+      </c>
+      <c r="I68">
+        <v>1743.633333333333</v>
+      </c>
+      <c r="J68">
+        <v>1961.394736842105</v>
+      </c>
+      <c r="K68">
+        <v>120</v>
+      </c>
+      <c r="Q68">
+        <v>101</v>
+      </c>
+      <c r="R68">
+        <v>78</v>
+      </c>
+      <c r="S68">
+        <v>26</v>
+      </c>
+      <c r="T68">
+        <v>131</v>
+      </c>
+      <c r="U68">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" t="s">
+        <v>182</v>
+      </c>
+      <c r="D69" t="s">
+        <v>255</v>
+      </c>
+      <c r="E69" t="s">
+        <v>326</v>
+      </c>
+      <c r="G69" t="s">
+        <v>418</v>
+      </c>
+      <c r="H69">
+        <v>2.3272727272727272</v>
+      </c>
+      <c r="I69">
+        <v>1021.589285714286</v>
+      </c>
+      <c r="J69">
+        <v>1169.319587628866</v>
+      </c>
+      <c r="K69">
+        <v>113</v>
+      </c>
+      <c r="Q69">
+        <v>248</v>
+      </c>
+      <c r="R69">
+        <v>195</v>
+      </c>
+      <c r="S69">
+        <v>63</v>
+      </c>
+      <c r="T69">
+        <v>269</v>
+      </c>
+      <c r="U69">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" t="s">
+        <v>256</v>
+      </c>
+      <c r="E70" t="s">
+        <v>327</v>
+      </c>
+      <c r="F70" t="s">
+        <v>364</v>
+      </c>
+      <c r="G70" t="s">
+        <v>419</v>
+      </c>
+      <c r="H70">
+        <v>2.0810810810810811</v>
+      </c>
+      <c r="I70">
+        <v>1035.1298701298699</v>
+      </c>
+      <c r="J70">
+        <v>1203.724137931034</v>
+      </c>
+      <c r="K70">
+        <v>77</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="T70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="s">
+        <v>184</v>
+      </c>
+      <c r="D71" t="s">
+        <v>257</v>
+      </c>
+      <c r="E71" t="s">
+        <v>328</v>
+      </c>
+      <c r="F71" t="s">
+        <v>365</v>
+      </c>
+      <c r="G71" t="s">
+        <v>420</v>
+      </c>
+      <c r="H71">
+        <v>1.8971962616822431</v>
+      </c>
+      <c r="I71">
+        <v>935.55462184873954</v>
+      </c>
+      <c r="J71">
+        <v>1191.4516129032261</v>
+      </c>
+      <c r="K71">
+        <v>120</v>
+      </c>
+      <c r="Q71">
+        <v>116</v>
+      </c>
+      <c r="R71">
+        <v>93</v>
+      </c>
+      <c r="S71">
+        <v>28</v>
+      </c>
+      <c r="T71">
+        <v>87</v>
+      </c>
+      <c r="U71">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" t="s">
+        <v>185</v>
+      </c>
+      <c r="D72" t="s">
+        <v>258</v>
+      </c>
+      <c r="E72" t="s">
+        <v>329</v>
+      </c>
+      <c r="F72" t="s">
+        <v>366</v>
+      </c>
+      <c r="G72" t="s">
+        <v>421</v>
+      </c>
+      <c r="H72">
+        <v>1.663636363636364</v>
+      </c>
+      <c r="I72">
+        <v>1153.55462184874</v>
+      </c>
+      <c r="J72">
+        <v>1021.672727272727</v>
+      </c>
+      <c r="K72">
+        <v>120</v>
+      </c>
+      <c r="Q72">
+        <v>61</v>
+      </c>
+      <c r="R72">
+        <v>47</v>
+      </c>
+      <c r="S72">
+        <v>17</v>
+      </c>
+      <c r="T72">
+        <v>88</v>
+      </c>
+      <c r="U72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" t="s">
+        <v>186</v>
+      </c>
+      <c r="D73" t="s">
+        <v>259</v>
+      </c>
+      <c r="E73" t="s">
+        <v>330</v>
+      </c>
+      <c r="F73" t="s">
+        <v>367</v>
+      </c>
+      <c r="G73" t="s">
+        <v>406</v>
+      </c>
+      <c r="H73">
+        <v>1.5636363636363639</v>
+      </c>
+      <c r="I73">
+        <v>868.72500000000002</v>
+      </c>
+      <c r="J73">
+        <v>790.71764705882356</v>
+      </c>
+      <c r="K73">
+        <v>120</v>
+      </c>
+      <c r="Q73">
+        <v>11</v>
+      </c>
+      <c r="R73">
+        <v>10</v>
+      </c>
+      <c r="S73">
+        <v>5</v>
+      </c>
+      <c r="T73">
+        <v>5</v>
+      </c>
+      <c r="U73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" t="s">
+        <v>144</v>
+      </c>
+      <c r="H74">
+        <v>1.808080808080808</v>
+      </c>
+      <c r="I74">
+        <v>1498.453781512605</v>
+      </c>
+      <c r="J74">
+        <v>1116.1789473684209</v>
+      </c>
+      <c r="K74">
+        <v>120</v>
+      </c>
+      <c r="Q74">
+        <v>2411</v>
+      </c>
+      <c r="R74">
+        <v>1872</v>
+      </c>
+      <c r="S74">
+        <v>640</v>
+      </c>
+      <c r="T74">
+        <v>1539</v>
+      </c>
+      <c r="U74">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" t="s">
+        <v>187</v>
+      </c>
+      <c r="D75" t="s">
+        <v>260</v>
+      </c>
+      <c r="E75" t="s">
+        <v>331</v>
+      </c>
+      <c r="G75" t="s">
+        <v>401</v>
+      </c>
+      <c r="H75">
+        <v>2.258064516129032</v>
+      </c>
+      <c r="I75">
+        <v>1100.2903225806449</v>
+      </c>
+      <c r="J75">
+        <v>1371.7222222222219</v>
+      </c>
+      <c r="K75">
+        <v>31</v>
+      </c>
+      <c r="Q75">
+        <v>134</v>
+      </c>
+      <c r="R75">
+        <v>111</v>
+      </c>
+      <c r="S75">
+        <v>29</v>
+      </c>
+      <c r="T75">
+        <v>120</v>
+      </c>
+      <c r="U75">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" t="s">
+        <v>188</v>
+      </c>
+      <c r="D76" t="s">
+        <v>261</v>
+      </c>
+      <c r="E76" t="s">
+        <v>305</v>
+      </c>
+      <c r="G76" t="s">
+        <v>422</v>
+      </c>
+      <c r="H76">
+        <v>1.8181818181818179</v>
+      </c>
+      <c r="I76">
+        <v>1011.260504201681</v>
+      </c>
+      <c r="J76">
+        <v>1191.666666666667</v>
+      </c>
+      <c r="K76">
+        <v>120</v>
+      </c>
+      <c r="Q76">
+        <v>203</v>
+      </c>
+      <c r="R76">
+        <v>152</v>
+      </c>
+      <c r="S76">
+        <v>61</v>
+      </c>
+      <c r="T76">
+        <v>273</v>
+      </c>
+      <c r="U76">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" t="s">
+        <v>189</v>
+      </c>
+      <c r="G77" t="s">
+        <v>423</v>
+      </c>
+      <c r="H77">
+        <v>1.466666666666667</v>
+      </c>
+      <c r="I77">
+        <v>1446.5333333333331</v>
+      </c>
+      <c r="J77">
+        <v>823.85714285714289</v>
+      </c>
+      <c r="K77">
+        <v>120</v>
+      </c>
+      <c r="Q77">
+        <v>149</v>
+      </c>
+      <c r="R77">
+        <v>96</v>
+      </c>
+      <c r="S77">
+        <v>59</v>
+      </c>
+      <c r="T77">
+        <v>218</v>
+      </c>
+      <c r="U77">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" t="s">
+        <v>190</v>
+      </c>
+      <c r="D78" t="s">
+        <v>262</v>
+      </c>
+      <c r="E78" t="s">
+        <v>332</v>
+      </c>
+      <c r="G78" t="s">
+        <v>424</v>
+      </c>
+      <c r="H78">
+        <v>1.884615384615385</v>
+      </c>
+      <c r="I78">
+        <v>819.15384615384619</v>
+      </c>
+      <c r="J78">
+        <v>1124</v>
+      </c>
+      <c r="K78">
+        <v>26</v>
+      </c>
+      <c r="Q78">
+        <v>2</v>
+      </c>
+      <c r="R78">
+        <v>1</v>
+      </c>
+      <c r="S78">
+        <v>1</v>
+      </c>
+      <c r="U78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E79" t="s">
+        <v>333</v>
+      </c>
+      <c r="F79" t="s">
+        <v>368</v>
+      </c>
+      <c r="H79">
+        <v>2.273584905660377</v>
+      </c>
+      <c r="I79">
+        <v>1543.166666666667</v>
+      </c>
+      <c r="J79">
+        <v>969.98148148148152</v>
+      </c>
+      <c r="K79">
+        <v>120</v>
+      </c>
+      <c r="Q79">
+        <v>103</v>
+      </c>
+      <c r="R79">
+        <v>83</v>
+      </c>
+      <c r="S79">
+        <v>21</v>
+      </c>
+      <c r="T79">
+        <v>134</v>
+      </c>
+      <c r="U79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H80">
+        <v>2.1818181818181821</v>
+      </c>
+      <c r="I80">
+        <v>914.63636363636363</v>
+      </c>
+      <c r="J80">
+        <v>803.55555555555554</v>
+      </c>
+      <c r="K80">
+        <v>12</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>1</v>
+      </c>
+      <c r="T80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C81" t="s">
+        <v>191</v>
+      </c>
+      <c r="D81" t="s">
+        <v>263</v>
+      </c>
+      <c r="E81" t="s">
+        <v>334</v>
+      </c>
+      <c r="G81" t="s">
+        <v>406</v>
+      </c>
+      <c r="H81">
+        <v>1.8818181818181821</v>
+      </c>
+      <c r="I81">
+        <v>1256.3445378151259</v>
+      </c>
+      <c r="J81">
+        <v>1418</v>
+      </c>
+      <c r="K81">
+        <v>120</v>
+      </c>
+      <c r="Q81">
+        <v>99</v>
+      </c>
+      <c r="R81">
+        <v>83</v>
+      </c>
+      <c r="S81">
+        <v>18</v>
+      </c>
+      <c r="T81">
+        <v>131</v>
+      </c>
+      <c r="U81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C82" t="s">
+        <v>192</v>
+      </c>
+      <c r="D82" t="s">
+        <v>264</v>
+      </c>
+      <c r="E82" t="s">
+        <v>335</v>
+      </c>
+      <c r="G82" t="s">
+        <v>420</v>
+      </c>
+      <c r="H82">
+        <v>1.773333333333333</v>
+      </c>
+      <c r="I82">
+        <v>789.98734177215192</v>
+      </c>
+      <c r="J82">
+        <v>919.70270270270271</v>
+      </c>
+      <c r="K82">
+        <v>79</v>
+      </c>
+      <c r="Q82">
+        <v>50</v>
+      </c>
+      <c r="R82">
+        <v>39</v>
+      </c>
+      <c r="S82">
+        <v>15</v>
+      </c>
+      <c r="T82">
+        <v>34</v>
+      </c>
+      <c r="U82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83" t="s">
+        <v>193</v>
+      </c>
+      <c r="D83" t="s">
+        <v>265</v>
+      </c>
+      <c r="E83" t="s">
+        <v>336</v>
+      </c>
+      <c r="F83" t="s">
+        <v>369</v>
+      </c>
+      <c r="G83" t="s">
+        <v>425</v>
+      </c>
+      <c r="H83">
+        <v>1.7739130434782611</v>
+      </c>
+      <c r="I83">
+        <v>1092.175</v>
+      </c>
+      <c r="J83">
+        <v>939.4666666666667</v>
+      </c>
+      <c r="K83">
+        <v>120</v>
+      </c>
+      <c r="U83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C84" t="s">
+        <v>194</v>
+      </c>
+      <c r="D84" t="s">
+        <v>266</v>
+      </c>
+      <c r="E84" t="s">
+        <v>337</v>
+      </c>
+      <c r="G84" t="s">
+        <v>426</v>
+      </c>
+      <c r="H84">
+        <v>1.56140350877193</v>
+      </c>
+      <c r="I84">
+        <v>1073.1311475409841</v>
+      </c>
+      <c r="J84">
+        <v>1330.1</v>
+      </c>
+      <c r="K84">
+        <v>61</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" t="s">
+        <v>195</v>
+      </c>
+      <c r="D85" t="s">
+        <v>267</v>
+      </c>
+      <c r="E85" t="s">
+        <v>338</v>
+      </c>
+      <c r="F85" t="s">
+        <v>370</v>
+      </c>
+      <c r="G85" t="s">
+        <v>427</v>
+      </c>
+      <c r="H85">
+        <v>1.545454545454545</v>
+      </c>
+      <c r="I85">
+        <v>1404.6583333333331</v>
+      </c>
+      <c r="J85">
+        <v>916.87755102040819</v>
+      </c>
+      <c r="K85">
+        <v>120</v>
+      </c>
+      <c r="Q85">
+        <v>32</v>
+      </c>
+      <c r="R85">
+        <v>26</v>
+      </c>
+      <c r="S85">
+        <v>6</v>
+      </c>
+      <c r="T85">
+        <v>33</v>
+      </c>
+      <c r="U85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D86" t="s">
+        <v>268</v>
+      </c>
+      <c r="G86" t="s">
+        <v>428</v>
+      </c>
+      <c r="H86">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="I86">
+        <v>909.32</v>
+      </c>
+      <c r="J86">
+        <v>1151.8780487804879</v>
+      </c>
+      <c r="K86">
+        <v>100</v>
+      </c>
+      <c r="Q86">
+        <v>81</v>
+      </c>
+      <c r="R86">
+        <v>52</v>
+      </c>
+      <c r="S86">
+        <v>34</v>
+      </c>
+      <c r="T86">
+        <v>156</v>
+      </c>
+      <c r="U86">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C87" t="s">
+        <v>196</v>
+      </c>
+      <c r="D87" t="s">
+        <v>269</v>
+      </c>
+      <c r="E87" t="s">
+        <v>339</v>
+      </c>
+      <c r="G87" t="s">
+        <v>429</v>
+      </c>
+      <c r="H87">
+        <v>2.1147540983606561</v>
+      </c>
+      <c r="I87">
+        <v>911.04166666666663</v>
+      </c>
+      <c r="J87">
+        <v>1222.5</v>
+      </c>
+      <c r="K87">
+        <v>72</v>
+      </c>
+      <c r="Q87">
+        <v>9</v>
+      </c>
+      <c r="R87">
+        <v>8</v>
+      </c>
+      <c r="S87">
+        <v>1</v>
+      </c>
+      <c r="T87">
+        <v>3</v>
+      </c>
+      <c r="U87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B88" t="s">
+        <v>146</v>
+      </c>
+      <c r="C88" t="s">
+        <v>197</v>
+      </c>
+      <c r="D88" t="s">
+        <v>270</v>
+      </c>
+      <c r="E88" t="s">
+        <v>340</v>
+      </c>
+      <c r="F88" t="s">
+        <v>371</v>
+      </c>
+      <c r="G88" t="s">
+        <v>430</v>
+      </c>
+      <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
+        <v>812.65517241379314</v>
+      </c>
+      <c r="J88">
+        <v>1029.294117647059</v>
+      </c>
+      <c r="K88">
+        <v>58</v>
+      </c>
+      <c r="Q88">
+        <v>7</v>
+      </c>
+      <c r="R88">
+        <v>4</v>
+      </c>
+      <c r="S88">
+        <v>4</v>
+      </c>
+      <c r="T88">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C89" t="s">
+        <v>198</v>
+      </c>
+      <c r="D89" t="s">
+        <v>271</v>
+      </c>
+      <c r="E89" t="s">
+        <v>341</v>
+      </c>
+      <c r="F89" t="s">
+        <v>372</v>
+      </c>
+      <c r="G89" t="s">
+        <v>385</v>
+      </c>
+      <c r="H89">
+        <v>1.571428571428571</v>
+      </c>
+      <c r="I89">
+        <v>806.9677419354839</v>
+      </c>
+      <c r="J89">
+        <v>1079.3157894736839</v>
+      </c>
+      <c r="K89">
+        <v>62</v>
+      </c>
+      <c r="Q89">
+        <v>1</v>
+      </c>
+      <c r="S89">
+        <v>1</v>
+      </c>
+      <c r="U89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B90" t="s">
+        <v>147</v>
+      </c>
+      <c r="C90" t="s">
+        <v>199</v>
+      </c>
+      <c r="D90" t="s">
+        <v>272</v>
+      </c>
+      <c r="E90" t="s">
+        <v>342</v>
+      </c>
+      <c r="F90" t="s">
+        <v>373</v>
+      </c>
+      <c r="G90" t="s">
+        <v>431</v>
+      </c>
+      <c r="H90">
+        <v>1.4695652173913041</v>
+      </c>
+      <c r="I90">
+        <v>945.9083333333333</v>
+      </c>
+      <c r="J90">
+        <v>833.45</v>
+      </c>
+      <c r="K90">
+        <v>120</v>
+      </c>
+      <c r="Q90">
+        <v>1</v>
+      </c>
+      <c r="S90">
+        <v>1</v>
+      </c>
+      <c r="T90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C91" t="s">
+        <v>200</v>
+      </c>
+      <c r="D91" t="s">
+        <v>273</v>
+      </c>
+      <c r="E91" t="s">
+        <v>343</v>
+      </c>
+      <c r="F91" t="s">
+        <v>374</v>
+      </c>
+      <c r="G91" t="s">
+        <v>400</v>
+      </c>
+      <c r="H91">
+        <v>3.1304347826086958</v>
+      </c>
+      <c r="I91">
+        <v>2166.25</v>
+      </c>
+      <c r="J91">
+        <v>1899.64705882353</v>
+      </c>
+      <c r="K91">
+        <v>48</v>
+      </c>
+      <c r="Q91">
+        <v>2</v>
+      </c>
+      <c r="R91">
+        <v>1</v>
+      </c>
+      <c r="S91">
+        <v>1</v>
+      </c>
+      <c r="T91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C92" t="s">
+        <v>201</v>
+      </c>
+      <c r="D92" t="s">
+        <v>274</v>
+      </c>
+      <c r="E92" t="s">
+        <v>344</v>
+      </c>
+      <c r="G92" t="s">
+        <v>432</v>
+      </c>
+      <c r="H92">
+        <v>2.2352941176470589</v>
+      </c>
+      <c r="I92">
+        <v>908.17647058823525</v>
+      </c>
+      <c r="J92">
+        <v>1870</v>
+      </c>
+      <c r="K92">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C93" t="s">
+        <v>181</v>
+      </c>
+      <c r="D93" t="s">
+        <v>275</v>
+      </c>
+      <c r="E93" t="s">
+        <v>345</v>
+      </c>
+      <c r="F93" t="s">
+        <v>375</v>
+      </c>
+      <c r="G93" t="s">
+        <v>419</v>
+      </c>
+      <c r="H93">
+        <v>1.4416666666666671</v>
+      </c>
+      <c r="I93">
+        <v>1253.208333333333</v>
+      </c>
+      <c r="J93">
+        <v>864.46086956521742</v>
+      </c>
+      <c r="K93">
+        <v>120</v>
+      </c>
+      <c r="Q93">
+        <v>1</v>
+      </c>
+      <c r="S93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C94" t="s">
+        <v>202</v>
+      </c>
+      <c r="D94" t="s">
+        <v>276</v>
+      </c>
+      <c r="E94" t="s">
+        <v>346</v>
+      </c>
+      <c r="F94" t="s">
+        <v>376</v>
+      </c>
+      <c r="G94" t="s">
+        <v>433</v>
+      </c>
+      <c r="H94">
+        <v>2.1764705882352939</v>
+      </c>
+      <c r="I94">
+        <v>1206.578947368421</v>
+      </c>
+      <c r="J94">
+        <v>1860.375</v>
+      </c>
+      <c r="K94">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H95">
+        <v>3.1304347826086958</v>
+      </c>
+      <c r="I95">
+        <v>1745.991666666667</v>
+      </c>
+      <c r="J95">
+        <v>2281.928571428572</v>
+      </c>
+      <c r="K95">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H96">
+        <v>3</v>
+      </c>
+      <c r="I96">
+        <v>1025</v>
+      </c>
+      <c r="J96">
+        <v>1124</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D97" t="s">
+        <v>277</v>
+      </c>
+      <c r="E97" t="s">
+        <v>347</v>
+      </c>
+      <c r="G97" t="s">
+        <v>434</v>
+      </c>
+      <c r="H97">
+        <v>3</v>
+      </c>
+      <c r="I97">
+        <v>2000</v>
+      </c>
+      <c r="J97">
+        <v>1700</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="I98">
+        <v>700</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
+        <v>675</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100">
+        <v>700</v>
+      </c>
+      <c r="J100">
+        <v>850</v>
+      </c>
+      <c r="K100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C101" t="s">
+        <v>203</v>
+      </c>
+      <c r="D101" t="s">
+        <v>278</v>
+      </c>
+      <c r="E101" t="s">
+        <v>348</v>
+      </c>
+      <c r="F101" t="s">
+        <v>377</v>
+      </c>
+      <c r="G101" t="s">
+        <v>435</v>
+      </c>
+      <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101">
+        <v>1202.8571428571429</v>
+      </c>
+      <c r="J101">
+        <v>1227.846153846154</v>
+      </c>
+      <c r="K101">
+        <v>28</v>
+      </c>
+      <c r="Q101">
+        <v>1</v>
+      </c>
+      <c r="R101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C102" t="s">
+        <v>204</v>
+      </c>
+      <c r="D102" t="s">
+        <v>279</v>
+      </c>
+      <c r="E102" t="s">
+        <v>349</v>
+      </c>
+      <c r="G102" t="s">
+        <v>385</v>
+      </c>
+      <c r="H102">
+        <v>1.245614035087719</v>
+      </c>
+      <c r="I102">
+        <v>754.25862068965512</v>
+      </c>
+      <c r="J102">
+        <v>806.33333333333337</v>
+      </c>
+      <c r="K102">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C103" t="s">
+        <v>205</v>
+      </c>
+      <c r="D103" t="s">
+        <v>280</v>
+      </c>
+      <c r="E103" t="s">
+        <v>350</v>
+      </c>
+      <c r="G103" t="s">
+        <v>436</v>
+      </c>
+      <c r="H103">
+        <v>1.714285714285714</v>
+      </c>
+      <c r="I103">
+        <v>735</v>
+      </c>
+      <c r="J103">
+        <v>1377</v>
+      </c>
+      <c r="K103">
+        <v>7</v>
+      </c>
+      <c r="Q103">
+        <v>1</v>
+      </c>
+      <c r="S103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H104">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="I104">
+        <v>1187.5</v>
+      </c>
+      <c r="K104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C105" t="s">
+        <v>206</v>
+      </c>
+      <c r="D105" t="s">
+        <v>281</v>
+      </c>
+      <c r="E105" t="s">
+        <v>351</v>
+      </c>
+      <c r="G105" t="s">
+        <v>408</v>
+      </c>
+      <c r="H105">
+        <v>2.0869565217391299</v>
+      </c>
+      <c r="I105">
+        <v>677.29032258064512</v>
+      </c>
+      <c r="J105">
+        <v>883.33333333333337</v>
+      </c>
+      <c r="K105">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G106" t="s">
+        <v>426</v>
+      </c>
+      <c r="H106">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="I106">
+        <v>730.55555555555554</v>
+      </c>
+      <c r="J106">
+        <v>1200</v>
+      </c>
+      <c r="K106">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D107" t="s">
+        <v>282</v>
+      </c>
+      <c r="H107">
+        <v>1.8</v>
+      </c>
+      <c r="I107">
+        <v>742.5</v>
+      </c>
+      <c r="J107">
+        <v>879.53846153846155</v>
+      </c>
+      <c r="K107">
+        <v>27</v>
+      </c>
+      <c r="T107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G108" t="s">
+        <v>382</v>
+      </c>
+      <c r="I108">
+        <v>635</v>
+      </c>
+      <c r="J108">
+        <v>780</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C109" t="s">
+        <v>207</v>
+      </c>
+      <c r="D109" t="s">
+        <v>170</v>
+      </c>
+      <c r="E109" t="s">
+        <v>352</v>
+      </c>
+      <c r="G109" t="s">
+        <v>437</v>
+      </c>
+      <c r="H109">
+        <v>1.8048780487804881</v>
+      </c>
+      <c r="I109">
+        <v>778.26190476190482</v>
+      </c>
+      <c r="J109">
+        <v>895.3</v>
+      </c>
+      <c r="K109">
+        <v>43</v>
+      </c>
+      <c r="Q109">
+        <v>2</v>
+      </c>
+      <c r="R109">
+        <v>1</v>
+      </c>
+      <c r="S109">
+        <v>1</v>
+      </c>
+      <c r="T109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H110">
+        <v>1.7222222222222221</v>
+      </c>
+      <c r="I110">
+        <v>1517.0270270270271</v>
+      </c>
+      <c r="J110">
+        <v>987.73333333333335</v>
+      </c>
+      <c r="K110">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H111">
+        <v>2.2307692307692308</v>
+      </c>
+      <c r="I111">
+        <v>762.07142857142856</v>
+      </c>
+      <c r="J111">
+        <v>1000</v>
+      </c>
+      <c r="K111">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C112" t="s">
+        <v>208</v>
+      </c>
+      <c r="D112" t="s">
+        <v>283</v>
+      </c>
+      <c r="E112" t="s">
+        <v>353</v>
+      </c>
+      <c r="G112" t="s">
+        <v>438</v>
+      </c>
+      <c r="H112">
+        <v>2.1702127659574471</v>
+      </c>
+      <c r="I112">
+        <v>780.58</v>
+      </c>
+      <c r="J112">
+        <v>967.2</v>
+      </c>
+      <c r="K112">
+        <v>51</v>
+      </c>
+      <c r="Q112">
+        <v>2</v>
+      </c>
+      <c r="S112">
+        <v>2</v>
+      </c>
+      <c r="U112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G113" t="s">
+        <v>420</v>
+      </c>
+      <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113">
+        <v>525</v>
+      </c>
+      <c r="K113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C114" t="s">
+        <v>209</v>
+      </c>
+      <c r="D114" t="s">
+        <v>284</v>
+      </c>
+      <c r="E114" t="s">
+        <v>354</v>
+      </c>
+      <c r="F114" t="s">
+        <v>378</v>
+      </c>
+      <c r="G114" t="s">
+        <v>439</v>
+      </c>
+      <c r="H114">
+        <v>2.06</v>
+      </c>
+      <c r="I114">
+        <v>1621.9622641509429</v>
+      </c>
+      <c r="J114">
+        <v>1090.948717948718</v>
+      </c>
+      <c r="K114">
+        <v>53</v>
+      </c>
+      <c r="Q114">
+        <v>1</v>
+      </c>
+      <c r="S114">
+        <v>1</v>
+      </c>
+      <c r="T114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H115">
+        <v>2.5</v>
+      </c>
+      <c r="I115">
+        <v>786</v>
+      </c>
+      <c r="J115">
+        <v>1000</v>
+      </c>
+      <c r="K115">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>15101</v>
+      </c>
+      <c r="M116" t="s">
+        <v>440</v>
+      </c>
+      <c r="N116">
+        <v>10</v>
+      </c>
+      <c r="O116">
+        <v>3.75</v>
+      </c>
+      <c r="P116">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>15003</v>
+      </c>
+      <c r="M117" t="s">
+        <v>440</v>
+      </c>
+      <c r="N117">
+        <v>8</v>
+      </c>
+      <c r="O117">
+        <v>3.9375</v>
+      </c>
+      <c r="P117">
+        <v>18.875</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>15005</v>
+      </c>
+      <c r="M118" t="s">
+        <v>440</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118">
+        <v>3.25</v>
+      </c>
+      <c r="P118">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>3</v>
+      </c>
+      <c r="L119">
+        <v>15006</v>
+      </c>
+      <c r="M119" t="s">
+        <v>440</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>4</v>
+      </c>
+      <c r="L120">
+        <v>15007</v>
+      </c>
+      <c r="M120" t="s">
+        <v>440</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>5</v>
+      </c>
+      <c r="L121">
+        <v>15102</v>
+      </c>
+      <c r="M121" t="s">
+        <v>440</v>
+      </c>
+      <c r="N121">
+        <v>14</v>
+      </c>
+      <c r="O121">
+        <v>3.3214285714285721</v>
+      </c>
+      <c r="P121">
+        <v>35.785714285714278</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>6</v>
+      </c>
+      <c r="L122">
+        <v>15014</v>
+      </c>
+      <c r="M122" t="s">
+        <v>440</v>
+      </c>
+      <c r="N122">
+        <v>3</v>
+      </c>
+      <c r="O122">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="P122">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>7</v>
+      </c>
+      <c r="L123">
+        <v>15104</v>
+      </c>
+      <c r="M123" t="s">
+        <v>440</v>
+      </c>
+      <c r="N123">
+        <v>4</v>
+      </c>
+      <c r="O123">
+        <v>4.25</v>
+      </c>
+      <c r="P123">
+        <v>85.75</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>8</v>
+      </c>
+      <c r="L124">
+        <v>15015</v>
+      </c>
+      <c r="M124" t="s">
+        <v>440</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>9</v>
+      </c>
+      <c r="L125">
+        <v>15017</v>
+      </c>
+      <c r="M125" t="s">
+        <v>440</v>
+      </c>
+      <c r="N125">
+        <v>20</v>
+      </c>
+      <c r="O125">
+        <v>3.1</v>
+      </c>
+      <c r="P125">
+        <v>49.35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>10</v>
+      </c>
+      <c r="L126">
+        <v>15018</v>
+      </c>
+      <c r="M126" t="s">
+        <v>440</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>11</v>
+      </c>
+      <c r="L127">
+        <v>15020</v>
+      </c>
+      <c r="M127" t="s">
+        <v>440</v>
+      </c>
+      <c r="N127">
+        <v>1</v>
+      </c>
+      <c r="O127">
+        <v>5</v>
+      </c>
+      <c r="P127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>12</v>
+      </c>
+      <c r="L128">
+        <v>15106</v>
+      </c>
+      <c r="M128" t="s">
+        <v>440</v>
+      </c>
+      <c r="N128">
+        <v>11</v>
+      </c>
+      <c r="O128">
+        <v>4.0909090909090908</v>
+      </c>
+      <c r="P128">
+        <v>102.09090909090909</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>13</v>
+      </c>
+      <c r="L129">
+        <v>15024</v>
+      </c>
+      <c r="M129" t="s">
+        <v>440</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129">
+        <v>1.5</v>
+      </c>
+      <c r="P129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>14</v>
+      </c>
+      <c r="L130">
+        <v>15025</v>
+      </c>
+      <c r="M130" t="s">
+        <v>440</v>
+      </c>
+      <c r="N130">
+        <v>5</v>
+      </c>
+      <c r="O130">
+        <v>3.6</v>
+      </c>
+      <c r="P130">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>15</v>
+      </c>
+      <c r="L131">
+        <v>15026</v>
+      </c>
+      <c r="M131" t="s">
+        <v>440</v>
+      </c>
+      <c r="N131">
+        <v>2</v>
+      </c>
+      <c r="O131">
+        <v>4</v>
+      </c>
+      <c r="P131">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>16</v>
+      </c>
+      <c r="L132">
+        <v>15108</v>
+      </c>
+      <c r="M132" t="s">
+        <v>440</v>
+      </c>
+      <c r="N132">
+        <v>22</v>
+      </c>
+      <c r="O132">
+        <v>3.704545454545455</v>
+      </c>
+      <c r="P132">
+        <v>50.363636363636367</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>17</v>
+      </c>
+      <c r="L133">
+        <v>15028</v>
+      </c>
+      <c r="M133" t="s">
+        <v>440</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>18</v>
+      </c>
+      <c r="L134">
+        <v>15030</v>
+      </c>
+      <c r="M134" t="s">
+        <v>440</v>
+      </c>
+      <c r="N134">
+        <v>1</v>
+      </c>
+      <c r="O134">
+        <v>4</v>
+      </c>
+      <c r="P134">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>19</v>
+      </c>
+      <c r="L135">
+        <v>15046</v>
+      </c>
+      <c r="M135" t="s">
+        <v>440</v>
+      </c>
+      <c r="N135">
+        <v>1</v>
+      </c>
+      <c r="O135">
+        <v>3.5</v>
+      </c>
+      <c r="P135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <v>20</v>
+      </c>
+      <c r="L136">
+        <v>15031</v>
+      </c>
+      <c r="M136" t="s">
+        <v>440</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+      <c r="O136">
+        <v>3</v>
+      </c>
+      <c r="P136">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <v>21</v>
+      </c>
+      <c r="L137">
+        <v>15034</v>
+      </c>
+      <c r="M137" t="s">
+        <v>440</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <v>22</v>
+      </c>
+      <c r="L138">
+        <v>15110</v>
+      </c>
+      <c r="M138" t="s">
+        <v>440</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138">
+        <v>1</v>
+      </c>
+      <c r="P138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <v>23</v>
+      </c>
+      <c r="L139">
+        <v>15035</v>
+      </c>
+      <c r="M139" t="s">
+        <v>440</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <v>24</v>
+      </c>
+      <c r="L140">
+        <v>15112</v>
+      </c>
+      <c r="M140" t="s">
+        <v>440</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="O140">
+        <v>4</v>
+      </c>
+      <c r="P140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
+        <v>25</v>
+      </c>
+      <c r="L141">
+        <v>15037</v>
+      </c>
+      <c r="M141" t="s">
+        <v>440</v>
+      </c>
+      <c r="N141">
+        <v>12</v>
+      </c>
+      <c r="O141">
+        <v>3.875</v>
+      </c>
+      <c r="P141">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <v>26</v>
+      </c>
+      <c r="L142">
+        <v>15332</v>
+      </c>
+      <c r="M142" t="s">
+        <v>440</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142">
+        <v>2.75</v>
+      </c>
+      <c r="P142">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <v>27</v>
+      </c>
+      <c r="L143">
+        <v>15044</v>
+      </c>
+      <c r="M143" t="s">
+        <v>440</v>
+      </c>
+      <c r="N143">
+        <v>12</v>
+      </c>
+      <c r="O143">
+        <v>3.083333333333333</v>
+      </c>
+      <c r="P143">
+        <v>30.333333333333329</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <v>28</v>
+      </c>
+      <c r="L144">
+        <v>15045</v>
+      </c>
+      <c r="M144" t="s">
+        <v>440</v>
+      </c>
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144">
+        <v>4</v>
+      </c>
+      <c r="P144">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>29</v>
+      </c>
+      <c r="L145">
+        <v>15116</v>
+      </c>
+      <c r="M145" t="s">
+        <v>440</v>
+      </c>
+      <c r="N145">
+        <v>6</v>
+      </c>
+      <c r="O145">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="P145">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <v>30</v>
+      </c>
+      <c r="L146">
+        <v>15047</v>
+      </c>
+      <c r="M146" t="s">
+        <v>440</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
+        <v>31</v>
+      </c>
+      <c r="L147">
+        <v>15049</v>
+      </c>
+      <c r="M147" t="s">
+        <v>440</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
+        <v>32</v>
+      </c>
+      <c r="L148">
+        <v>15120</v>
+      </c>
+      <c r="M148" t="s">
+        <v>440</v>
+      </c>
+      <c r="N148">
+        <v>21</v>
+      </c>
+      <c r="O148">
+        <v>3.2619047619047619</v>
+      </c>
+      <c r="P148">
+        <v>107.4285714285714</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <v>33</v>
+      </c>
+      <c r="L149">
+        <v>15126</v>
+      </c>
+      <c r="M149" t="s">
+        <v>440</v>
+      </c>
+      <c r="N149">
+        <v>4</v>
+      </c>
+      <c r="O149">
+        <v>4.125</v>
+      </c>
+      <c r="P149">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <v>34</v>
+      </c>
+      <c r="L150">
+        <v>15051</v>
+      </c>
+      <c r="M150" t="s">
+        <v>440</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <v>35</v>
+      </c>
+      <c r="L151">
+        <v>15642</v>
+      </c>
+      <c r="M151" t="s">
+        <v>440</v>
+      </c>
+      <c r="N151">
+        <v>20</v>
+      </c>
+      <c r="O151">
+        <v>3.55</v>
+      </c>
+      <c r="P151">
+        <v>23.05</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <v>36</v>
+      </c>
+      <c r="L152">
+        <v>15056</v>
+      </c>
+      <c r="M152" t="s">
+        <v>440</v>
+      </c>
+      <c r="N152">
+        <v>2</v>
+      </c>
+      <c r="O152">
+        <v>4</v>
+      </c>
+      <c r="P152">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <v>37</v>
+      </c>
+      <c r="L153">
+        <v>16046</v>
+      </c>
+      <c r="M153" t="s">
+        <v>440</v>
+      </c>
+      <c r="N153">
+        <v>12</v>
+      </c>
+      <c r="O153">
+        <v>3.5</v>
+      </c>
+      <c r="P153">
+        <v>80.75</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <v>38</v>
+      </c>
+      <c r="L154">
+        <v>15057</v>
+      </c>
+      <c r="M154" t="s">
+        <v>440</v>
+      </c>
+      <c r="N154">
+        <v>3</v>
+      </c>
+      <c r="O154">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="P154">
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
+        <v>39</v>
+      </c>
+      <c r="L155">
+        <v>15136</v>
+      </c>
+      <c r="M155" t="s">
+        <v>440</v>
+      </c>
+      <c r="N155">
+        <v>10</v>
+      </c>
+      <c r="O155">
+        <v>3.75</v>
+      </c>
+      <c r="P155">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
+        <v>40</v>
+      </c>
+      <c r="L156">
+        <v>15131</v>
+      </c>
+      <c r="M156" t="s">
+        <v>440</v>
+      </c>
+      <c r="N156">
+        <v>3</v>
+      </c>
+      <c r="O156">
+        <v>3</v>
+      </c>
+      <c r="P156">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
+        <v>41</v>
+      </c>
+      <c r="L157">
+        <v>15132</v>
+      </c>
+      <c r="M157" t="s">
+        <v>440</v>
+      </c>
+      <c r="N157">
+        <v>5</v>
+      </c>
+      <c r="O157">
+        <v>2.8</v>
+      </c>
+      <c r="P157">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
+        <v>42</v>
+      </c>
+      <c r="L158">
+        <v>15133</v>
+      </c>
+      <c r="M158" t="s">
+        <v>440</v>
+      </c>
+      <c r="N158">
+        <v>2</v>
+      </c>
+      <c r="O158">
+        <v>4.5</v>
+      </c>
+      <c r="P158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <v>43</v>
+      </c>
+      <c r="L159">
+        <v>15135</v>
+      </c>
+      <c r="M159" t="s">
+        <v>440</v>
+      </c>
+      <c r="N159">
+        <v>2</v>
+      </c>
+      <c r="O159">
+        <v>3.75</v>
+      </c>
+      <c r="P159">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <v>44</v>
+      </c>
+      <c r="L160">
+        <v>15063</v>
+      </c>
+      <c r="M160" t="s">
+        <v>440</v>
+      </c>
+      <c r="N160">
+        <v>5</v>
+      </c>
+      <c r="O160">
+        <v>3.7</v>
+      </c>
+      <c r="P160">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>45</v>
+      </c>
+      <c r="L161">
+        <v>15146</v>
+      </c>
+      <c r="M161" t="s">
+        <v>440</v>
+      </c>
+      <c r="N161">
+        <v>35</v>
+      </c>
+      <c r="O161">
+        <v>3.4</v>
+      </c>
+      <c r="P161">
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <v>46</v>
+      </c>
+      <c r="L162">
+        <v>15064</v>
+      </c>
+      <c r="M162" t="s">
+        <v>440</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>47</v>
+      </c>
+      <c r="L163">
+        <v>15668</v>
+      </c>
+      <c r="M163" t="s">
+        <v>440</v>
+      </c>
+      <c r="N163">
+        <v>15</v>
+      </c>
+      <c r="O163">
+        <v>3.7333333333333329</v>
+      </c>
+      <c r="P163">
+        <v>49.06666666666667</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
+        <v>48</v>
+      </c>
+      <c r="L164">
+        <v>15065</v>
+      </c>
+      <c r="M164" t="s">
+        <v>440</v>
+      </c>
+      <c r="N164">
+        <v>7</v>
+      </c>
+      <c r="O164">
+        <v>3.5714285714285721</v>
+      </c>
+      <c r="P164">
+        <v>9.8571428571428577</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <v>49</v>
+      </c>
+      <c r="L165">
+        <v>15068</v>
+      </c>
+      <c r="M165" t="s">
+        <v>440</v>
+      </c>
+      <c r="N165">
+        <v>19</v>
+      </c>
+      <c r="O165">
+        <v>3.5</v>
+      </c>
+      <c r="P165">
+        <v>11.631578947368419</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
+        <v>50</v>
+      </c>
+      <c r="L166">
+        <v>15137</v>
+      </c>
+      <c r="M166" t="s">
+        <v>440</v>
+      </c>
+      <c r="N166">
+        <v>9</v>
+      </c>
+      <c r="O166">
+        <v>3.1111111111111112</v>
+      </c>
+      <c r="P166">
+        <v>15.666666666666661</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
+        <v>51</v>
+      </c>
+      <c r="L167">
+        <v>15071</v>
+      </c>
+      <c r="M167" t="s">
+        <v>440</v>
+      </c>
+      <c r="N167">
+        <v>8</v>
+      </c>
+      <c r="O167">
+        <v>3.6875</v>
+      </c>
+      <c r="P167">
+        <v>16.375</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
+        <v>52</v>
+      </c>
+      <c r="L168">
+        <v>15139</v>
+      </c>
+      <c r="M168" t="s">
+        <v>440</v>
+      </c>
+      <c r="N168">
+        <v>9</v>
+      </c>
+      <c r="O168">
+        <v>3.6111111111111112</v>
+      </c>
+      <c r="P168">
+        <v>51.444444444444443</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
+        <v>53</v>
+      </c>
+      <c r="L169">
+        <v>15140</v>
+      </c>
+      <c r="M169" t="s">
+        <v>440</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
+        <v>54</v>
+      </c>
+      <c r="L170">
+        <v>15201</v>
+      </c>
+      <c r="M170" t="s">
+        <v>440</v>
+      </c>
+      <c r="N170">
+        <v>25</v>
+      </c>
+      <c r="O170">
+        <v>3.76</v>
+      </c>
+      <c r="P170">
+        <v>188.48</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A171" s="1">
+        <v>55</v>
+      </c>
+      <c r="L171">
+        <v>15202</v>
+      </c>
+      <c r="M171" t="s">
+        <v>440</v>
+      </c>
+      <c r="N171">
+        <v>20</v>
+      </c>
+      <c r="O171">
+        <v>3.65</v>
+      </c>
+      <c r="P171">
+        <v>38.15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A172" s="1">
+        <v>56</v>
+      </c>
+      <c r="L172">
+        <v>15203</v>
+      </c>
+      <c r="M172" t="s">
+        <v>440</v>
+      </c>
+      <c r="N172">
+        <v>42</v>
+      </c>
+      <c r="O172">
+        <v>3.8690476190476191</v>
+      </c>
+      <c r="P172">
+        <v>144.3095238095238</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A173" s="1">
+        <v>57</v>
+      </c>
+      <c r="L173">
+        <v>15204</v>
+      </c>
+      <c r="M173" t="s">
+        <v>440</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
+        <v>58</v>
+      </c>
+      <c r="L174">
+        <v>15205</v>
+      </c>
+      <c r="M174" t="s">
+        <v>440</v>
+      </c>
+      <c r="N174">
+        <v>21</v>
+      </c>
+      <c r="O174">
+        <v>3.6904761904761911</v>
+      </c>
+      <c r="P174">
+        <v>97.571428571428569</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A175" s="1">
+        <v>59</v>
+      </c>
+      <c r="L175">
+        <v>15206</v>
+      </c>
+      <c r="M175" t="s">
+        <v>440</v>
+      </c>
+      <c r="N175">
+        <v>24</v>
+      </c>
+      <c r="O175">
+        <v>3.770833333333333</v>
+      </c>
+      <c r="P175">
+        <v>195.7916666666666</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A176" s="1">
+        <v>60</v>
+      </c>
+      <c r="L176">
+        <v>15207</v>
+      </c>
+      <c r="M176" t="s">
+        <v>440</v>
+      </c>
+      <c r="N176">
+        <v>3</v>
+      </c>
+      <c r="O176">
+        <v>3.833333333333333</v>
+      </c>
+      <c r="P176">
+        <v>65.333333333333329</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A177" s="1">
+        <v>61</v>
+      </c>
+      <c r="L177">
+        <v>15208</v>
+      </c>
+      <c r="M177" t="s">
+        <v>440</v>
+      </c>
+      <c r="N177">
+        <v>3</v>
+      </c>
+      <c r="O177">
+        <v>4</v>
+      </c>
+      <c r="P177">
+        <v>37.333333333333343</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A178" s="1">
+        <v>62</v>
+      </c>
+      <c r="L178">
+        <v>15209</v>
+      </c>
+      <c r="M178" t="s">
+        <v>440</v>
+      </c>
+      <c r="N178">
+        <v>8</v>
+      </c>
+      <c r="O178">
+        <v>3.75</v>
+      </c>
+      <c r="P178">
+        <v>40.875</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A179" s="1">
+        <v>63</v>
+      </c>
+      <c r="L179">
+        <v>15210</v>
+      </c>
+      <c r="M179" t="s">
+        <v>440</v>
+      </c>
+      <c r="N179">
+        <v>6</v>
+      </c>
+      <c r="O179">
+        <v>3.416666666666667</v>
+      </c>
+      <c r="P179">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A180" s="1">
+        <v>64</v>
+      </c>
+      <c r="L180">
+        <v>15211</v>
+      </c>
+      <c r="M180" t="s">
+        <v>440</v>
+      </c>
+      <c r="N180">
+        <v>7</v>
+      </c>
+      <c r="O180">
+        <v>4.0714285714285712</v>
+      </c>
+      <c r="P180">
+        <v>254.1428571428572</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A181" s="1">
+        <v>65</v>
+      </c>
+      <c r="L181">
+        <v>15212</v>
+      </c>
+      <c r="M181" t="s">
+        <v>440</v>
+      </c>
+      <c r="N181">
+        <v>17</v>
+      </c>
+      <c r="O181">
+        <v>3.9117647058823528</v>
+      </c>
+      <c r="P181">
+        <v>48.235294117647072</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <v>66</v>
+      </c>
+      <c r="L182">
+        <v>15213</v>
+      </c>
+      <c r="M182" t="s">
+        <v>440</v>
+      </c>
+      <c r="N182">
+        <v>45</v>
+      </c>
+      <c r="O182">
+        <v>3.655555555555555</v>
+      </c>
+      <c r="P182">
+        <v>131.17777777777781</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A183" s="1">
+        <v>67</v>
+      </c>
+      <c r="L183">
+        <v>15214</v>
+      </c>
+      <c r="M183" t="s">
+        <v>440</v>
+      </c>
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183">
+        <v>5</v>
+      </c>
+      <c r="P183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A184" s="1">
+        <v>68</v>
+      </c>
+      <c r="L184">
+        <v>15215</v>
+      </c>
+      <c r="M184" t="s">
+        <v>440</v>
+      </c>
+      <c r="N184">
+        <v>8</v>
+      </c>
+      <c r="O184">
+        <v>3.0625</v>
+      </c>
+      <c r="P184">
+        <v>42.25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A185" s="1">
+        <v>69</v>
+      </c>
+      <c r="L185">
+        <v>15216</v>
+      </c>
+      <c r="M185" t="s">
+        <v>440</v>
+      </c>
+      <c r="N185">
+        <v>25</v>
+      </c>
+      <c r="O185">
+        <v>3.46</v>
+      </c>
+      <c r="P185">
+        <v>76.72</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <v>70</v>
+      </c>
+      <c r="L186">
+        <v>15217</v>
+      </c>
+      <c r="M186" t="s">
+        <v>440</v>
+      </c>
+      <c r="N186">
+        <v>33</v>
+      </c>
+      <c r="O186">
+        <v>3.7121212121212119</v>
+      </c>
+      <c r="P186">
+        <v>161.030303030303</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
+        <v>71</v>
+      </c>
+      <c r="L187">
+        <v>15218</v>
+      </c>
+      <c r="M187" t="s">
+        <v>440</v>
+      </c>
+      <c r="N187">
+        <v>12</v>
+      </c>
+      <c r="O187">
+        <v>3.791666666666667</v>
+      </c>
+      <c r="P187">
+        <v>100.4166666666667</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
+        <v>72</v>
+      </c>
+      <c r="L188">
+        <v>15219</v>
+      </c>
+      <c r="M188" t="s">
+        <v>440</v>
+      </c>
+      <c r="N188">
+        <v>23</v>
+      </c>
+      <c r="O188">
+        <v>3.847826086956522</v>
+      </c>
+      <c r="P188">
+        <v>79.826086956521735</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A189" s="1">
+        <v>73</v>
+      </c>
+      <c r="L189">
+        <v>15220</v>
+      </c>
+      <c r="M189" t="s">
+        <v>440</v>
+      </c>
+      <c r="N189">
+        <v>12</v>
+      </c>
+      <c r="O189">
+        <v>3.791666666666667</v>
+      </c>
+      <c r="P189">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A190" s="1">
+        <v>74</v>
+      </c>
+      <c r="L190">
+        <v>15221</v>
+      </c>
+      <c r="M190" t="s">
+        <v>440</v>
+      </c>
+      <c r="N190">
+        <v>4</v>
+      </c>
+      <c r="O190">
+        <v>3.875</v>
+      </c>
+      <c r="P190">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A191" s="1">
+        <v>75</v>
+      </c>
+      <c r="L191">
+        <v>15222</v>
+      </c>
+      <c r="M191" t="s">
+        <v>440</v>
+      </c>
+      <c r="N191">
+        <v>57</v>
+      </c>
+      <c r="O191">
+        <v>3.8771929824561409</v>
+      </c>
+      <c r="P191">
+        <v>250.98245614035091</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
+        <v>76</v>
+      </c>
+      <c r="L192">
+        <v>15223</v>
+      </c>
+      <c r="M192" t="s">
+        <v>440</v>
+      </c>
+      <c r="N192">
+        <v>7</v>
+      </c>
+      <c r="O192">
+        <v>3.4285714285714279</v>
+      </c>
+      <c r="P192">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A193" s="1">
+        <v>77</v>
+      </c>
+      <c r="L193">
+        <v>15224</v>
+      </c>
+      <c r="M193" t="s">
+        <v>440</v>
+      </c>
+      <c r="N193">
+        <v>27</v>
+      </c>
+      <c r="O193">
+        <v>3.7962962962962958</v>
+      </c>
+      <c r="P193">
+        <v>118.14814814814819</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A194" s="1">
+        <v>78</v>
+      </c>
+      <c r="L194">
+        <v>15225</v>
+      </c>
+      <c r="M194" t="s">
+        <v>440</v>
+      </c>
+      <c r="N194">
+        <v>2</v>
+      </c>
+      <c r="O194">
+        <v>3.25</v>
+      </c>
+      <c r="P194">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A195" s="1">
+        <v>79</v>
+      </c>
+      <c r="L195">
+        <v>15226</v>
+      </c>
+      <c r="M195" t="s">
+        <v>440</v>
+      </c>
+      <c r="N195">
+        <v>9</v>
+      </c>
+      <c r="O195">
+        <v>3.6111111111111112</v>
+      </c>
+      <c r="P195">
+        <v>42.777777777777779</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A196" s="1">
+        <v>80</v>
+      </c>
+      <c r="L196">
+        <v>15227</v>
+      </c>
+      <c r="M196" t="s">
+        <v>440</v>
+      </c>
+      <c r="N196">
+        <v>7</v>
+      </c>
+      <c r="O196">
+        <v>3.4285714285714279</v>
+      </c>
+      <c r="P196">
+        <v>23.428571428571431</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A197" s="1">
+        <v>81</v>
+      </c>
+      <c r="L197">
+        <v>15228</v>
+      </c>
+      <c r="M197" t="s">
+        <v>440</v>
+      </c>
+      <c r="N197">
+        <v>14</v>
+      </c>
+      <c r="O197">
+        <v>3.9285714285714288</v>
+      </c>
+      <c r="P197">
+        <v>127.78571428571431</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A198" s="1">
+        <v>82</v>
+      </c>
+      <c r="L198">
+        <v>15229</v>
+      </c>
+      <c r="M198" t="s">
+        <v>440</v>
+      </c>
+      <c r="N198">
+        <v>4</v>
+      </c>
+      <c r="O198">
+        <v>4.5</v>
+      </c>
+      <c r="P198">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A199" s="1">
+        <v>83</v>
+      </c>
+      <c r="L199">
+        <v>15232</v>
+      </c>
+      <c r="M199" t="s">
+        <v>440</v>
+      </c>
+      <c r="N199">
+        <v>23</v>
+      </c>
+      <c r="O199">
+        <v>3.7173913043478262</v>
+      </c>
+      <c r="P199">
+        <v>142.47826086956519</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A200" s="1">
+        <v>84</v>
+      </c>
+      <c r="L200">
+        <v>15233</v>
+      </c>
+      <c r="M200" t="s">
+        <v>440</v>
+      </c>
+      <c r="N200">
+        <v>5</v>
+      </c>
+      <c r="O200">
+        <v>4.2</v>
+      </c>
+      <c r="P200">
+        <v>165.2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A201" s="1">
+        <v>85</v>
+      </c>
+      <c r="L201">
+        <v>15234</v>
+      </c>
+      <c r="M201" t="s">
+        <v>440</v>
+      </c>
+      <c r="N201">
+        <v>17</v>
+      </c>
+      <c r="O201">
+        <v>3.4705882352941182</v>
+      </c>
+      <c r="P201">
+        <v>50.647058823529413</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A202" s="1">
+        <v>86</v>
+      </c>
+      <c r="L202">
+        <v>15235</v>
+      </c>
+      <c r="M202" t="s">
+        <v>440</v>
+      </c>
+      <c r="N202">
+        <v>13</v>
+      </c>
+      <c r="O202">
+        <v>3.884615384615385</v>
+      </c>
+      <c r="P202">
+        <v>53.615384615384613</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A203" s="1">
+        <v>87</v>
+      </c>
+      <c r="L203">
+        <v>15236</v>
+      </c>
+      <c r="M203" t="s">
+        <v>440</v>
+      </c>
+      <c r="N203">
+        <v>22</v>
+      </c>
+      <c r="O203">
+        <v>3.5681818181818179</v>
+      </c>
+      <c r="P203">
+        <v>47.409090909090907</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A204" s="1">
+        <v>88</v>
+      </c>
+      <c r="L204">
+        <v>15237</v>
+      </c>
+      <c r="M204" t="s">
+        <v>440</v>
+      </c>
+      <c r="N204">
+        <v>38</v>
+      </c>
+      <c r="O204">
+        <v>3.4078947368421049</v>
+      </c>
+      <c r="P204">
+        <v>76.89473684210526</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A205" s="1">
+        <v>89</v>
+      </c>
+      <c r="L205">
+        <v>15238</v>
+      </c>
+      <c r="M205" t="s">
+        <v>440</v>
+      </c>
+      <c r="N205">
+        <v>21</v>
+      </c>
+      <c r="O205">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="P205">
+        <v>33.809523809523803</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A206" s="1">
+        <v>90</v>
+      </c>
+      <c r="L206">
+        <v>15239</v>
+      </c>
+      <c r="M206" t="s">
+        <v>440</v>
+      </c>
+      <c r="N206">
+        <v>8</v>
+      </c>
+      <c r="O206">
+        <v>3.25</v>
+      </c>
+      <c r="P206">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A207" s="1">
+        <v>91</v>
+      </c>
+      <c r="L207">
+        <v>15241</v>
+      </c>
+      <c r="M207" t="s">
+        <v>440</v>
+      </c>
+      <c r="N207">
+        <v>14</v>
+      </c>
+      <c r="O207">
+        <v>3.035714285714286</v>
+      </c>
+      <c r="P207">
+        <v>52.642857142857139</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A208" s="1">
+        <v>92</v>
+      </c>
+      <c r="L208">
+        <v>15243</v>
+      </c>
+      <c r="M208" t="s">
+        <v>440</v>
+      </c>
+      <c r="N208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A209" s="1">
+        <v>93</v>
+      </c>
+      <c r="L209">
+        <v>15260</v>
+      </c>
+      <c r="M209" t="s">
+        <v>440</v>
+      </c>
+      <c r="N209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A210" s="1">
+        <v>94</v>
+      </c>
+      <c r="L210">
+        <v>15290</v>
+      </c>
+      <c r="M210" t="s">
+        <v>440</v>
+      </c>
+      <c r="N210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A211" s="1">
+        <v>95</v>
+      </c>
+      <c r="L211">
+        <v>15142</v>
+      </c>
+      <c r="M211" t="s">
+        <v>440</v>
+      </c>
+      <c r="N211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A212" s="1">
+        <v>96</v>
+      </c>
+      <c r="L212">
+        <v>15075</v>
+      </c>
+      <c r="M212" t="s">
+        <v>440</v>
+      </c>
+      <c r="N212">
+        <v>1</v>
+      </c>
+      <c r="O212">
+        <v>5</v>
+      </c>
+      <c r="P212">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A213" s="1">
+        <v>97</v>
+      </c>
+      <c r="L213">
+        <v>15076</v>
+      </c>
+      <c r="M213" t="s">
+        <v>440</v>
+      </c>
+      <c r="N213">
+        <v>2</v>
+      </c>
+      <c r="O213">
+        <v>4.75</v>
+      </c>
+      <c r="P213">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A214" s="1">
+        <v>98</v>
+      </c>
+      <c r="L214">
+        <v>16055</v>
+      </c>
+      <c r="M214" t="s">
+        <v>440</v>
+      </c>
+      <c r="N214">
+        <v>8</v>
+      </c>
+      <c r="O214">
+        <v>3.125</v>
+      </c>
+      <c r="P214">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A215" s="1">
+        <v>99</v>
+      </c>
+      <c r="L215">
+        <v>15143</v>
+      </c>
+      <c r="M215" t="s">
+        <v>440</v>
+      </c>
+      <c r="N215">
+        <v>12</v>
+      </c>
+      <c r="O215">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="P215">
+        <v>49.166666666666657</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A216" s="1">
+        <v>100</v>
+      </c>
+      <c r="L216">
+        <v>15129</v>
+      </c>
+      <c r="M216" t="s">
+        <v>440</v>
+      </c>
+      <c r="N216">
+        <v>4</v>
+      </c>
+      <c r="O216">
+        <v>3.375</v>
+      </c>
+      <c r="P216">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A217" s="1">
+        <v>101</v>
+      </c>
+      <c r="L217">
+        <v>15144</v>
+      </c>
+      <c r="M217" t="s">
+        <v>440</v>
+      </c>
+      <c r="N217">
+        <v>4</v>
+      </c>
+      <c r="O217">
+        <v>4.25</v>
+      </c>
+      <c r="P217">
+        <v>45.25</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A218" s="1">
+        <v>102</v>
+      </c>
+      <c r="L218">
+        <v>15082</v>
+      </c>
+      <c r="M218" t="s">
+        <v>440</v>
+      </c>
+      <c r="N218">
+        <v>1</v>
+      </c>
+      <c r="O218">
+        <v>4.5</v>
+      </c>
+      <c r="P218">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A219" s="1">
+        <v>103</v>
+      </c>
+      <c r="L219">
+        <v>15084</v>
+      </c>
+      <c r="M219" t="s">
+        <v>440</v>
+      </c>
+      <c r="N219">
+        <v>14</v>
+      </c>
+      <c r="O219">
+        <v>3.3571428571428572</v>
+      </c>
+      <c r="P219">
+        <v>18.785714285714281</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A220" s="1">
+        <v>104</v>
+      </c>
+      <c r="L220">
+        <v>15085</v>
+      </c>
+      <c r="M220" t="s">
+        <v>440</v>
+      </c>
+      <c r="N220">
+        <v>1</v>
+      </c>
+      <c r="O220">
+        <v>4.5</v>
+      </c>
+      <c r="P220">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A221" s="1">
+        <v>105</v>
+      </c>
+      <c r="L221">
+        <v>15145</v>
+      </c>
+      <c r="M221" t="s">
+        <v>440</v>
+      </c>
+      <c r="N221">
+        <v>4</v>
+      </c>
+      <c r="O221">
+        <v>3.875</v>
+      </c>
+      <c r="P221">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A222" s="1">
+        <v>106</v>
+      </c>
+      <c r="L222">
+        <v>16059</v>
+      </c>
+      <c r="M222" t="s">
+        <v>440</v>
+      </c>
+      <c r="N222">
+        <v>1</v>
+      </c>
+      <c r="O222">
+        <v>2.5</v>
+      </c>
+      <c r="P222">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A223" s="1">
+        <v>107</v>
+      </c>
+      <c r="L223">
+        <v>15147</v>
+      </c>
+      <c r="M223" t="s">
+        <v>440</v>
+      </c>
+      <c r="N223">
+        <v>3</v>
+      </c>
+      <c r="O223">
+        <v>4</v>
+      </c>
+      <c r="P223">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A224" s="1">
+        <v>108</v>
+      </c>
+      <c r="L224">
+        <v>15086</v>
+      </c>
+      <c r="M224" t="s">
+        <v>440</v>
+      </c>
+      <c r="N224">
+        <v>4</v>
+      </c>
+      <c r="O224">
+        <v>3.875</v>
+      </c>
+      <c r="P224">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A225" s="1">
+        <v>109</v>
+      </c>
+      <c r="L225">
+        <v>15088</v>
+      </c>
+      <c r="M225" t="s">
+        <v>440</v>
+      </c>
+      <c r="N225">
+        <v>2</v>
+      </c>
+      <c r="O225">
+        <v>4.5</v>
+      </c>
+      <c r="P225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A226" s="1">
+        <v>110</v>
+      </c>
+      <c r="L226">
+        <v>15122</v>
+      </c>
+      <c r="M226" t="s">
+        <v>440</v>
+      </c>
+      <c r="N226">
+        <v>11</v>
+      </c>
+      <c r="O226">
+        <v>3.3636363636363642</v>
+      </c>
+      <c r="P226">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A227" s="1">
+        <v>111</v>
+      </c>
+      <c r="L227">
+        <v>15089</v>
+      </c>
+      <c r="M227" t="s">
+        <v>440</v>
+      </c>
+      <c r="N227">
+        <v>2</v>
+      </c>
+      <c r="O227">
+        <v>4</v>
+      </c>
+      <c r="P227">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A228" s="1">
+        <v>112</v>
+      </c>
+      <c r="L228">
+        <v>15090</v>
+      </c>
+      <c r="M228" t="s">
+        <v>440</v>
+      </c>
+      <c r="N228">
+        <v>15</v>
+      </c>
+      <c r="O228">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="P228">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A229" s="1">
+        <v>113</v>
+      </c>
+      <c r="L229">
+        <v>15148</v>
+      </c>
+      <c r="M229" t="s">
+        <v>440</v>
+      </c>
+      <c r="N229">
+        <v>2</v>
+      </c>
+      <c r="O229">
+        <v>4.25</v>
+      </c>
+      <c r="P229">
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\Homi_DFP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_96769ED813E92ACE5A160BC023DFFEEB512DEBA7" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{94EA8890-7C9E-466A-891D-9892AC13D20C}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="436">
   <si>
     <t>medSale1Bed</t>
   </si>
@@ -55,18 +49,6 @@
     <t>zipcode</t>
   </si>
   <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>average_rating</t>
-  </si>
-  <si>
-    <t>average_review_count</t>
-  </si>
-  <si>
     <t>ASSAULT_CRIME</t>
   </si>
   <si>
@@ -1340,16 +1322,13 @@
   </si>
   <si>
     <t>154</t>
-  </si>
-  <si>
-    <t>All Restaurants</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1412,14 +1391,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1466,7 +1437,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1498,27 +1469,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1550,24 +1503,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1743,19 +1678,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U229"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N12" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:U1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="17" max="21" width="22.81640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1804,72 +1734,60 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>1019.045454545455</v>
+        <v>1011.380952380952</v>
       </c>
       <c r="J2">
-        <v>998.81818181818187</v>
+        <v>998.8181818181819</v>
       </c>
       <c r="K2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H3">
         <v>2.137931034482758</v>
       </c>
       <c r="I3">
-        <v>727.43243243243239</v>
+        <v>727.4324324324324</v>
       </c>
       <c r="J3">
         <v>1335</v>
@@ -1878,21 +1796,21 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H4">
         <v>2.333333333333333</v>
@@ -1907,9 +1825,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>1.75</v>
@@ -1921,9 +1839,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1935,76 +1853,76 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H7">
-        <v>1.533333333333333</v>
+        <v>1.541666666666667</v>
       </c>
       <c r="I7">
-        <v>957.88333333333333</v>
+        <v>967.3833333333333</v>
       </c>
       <c r="J7">
-        <v>969.54411764705878</v>
+        <v>978.9264705882352</v>
       </c>
       <c r="K7">
         <v>120</v>
       </c>
-      <c r="U7">
+      <c r="Q7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G8" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H8">
-        <v>2.1621621621621618</v>
+        <v>2.157894736842105</v>
       </c>
       <c r="I8">
-        <v>671.93023255813955</v>
+        <v>670.2954545454545</v>
       </c>
       <c r="J8">
         <v>874.1</v>
       </c>
       <c r="K8">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H9">
         <v>2.375</v>
       </c>
       <c r="I9">
-        <v>755.55555555555554</v>
+        <v>755.5555555555555</v>
       </c>
       <c r="J9">
         <v>1140</v>
@@ -2012,31 +1930,31 @@
       <c r="K9">
         <v>21</v>
       </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
       <c r="Q9">
-        <v>3</v>
-      </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
-      <c r="S9">
-        <v>2</v>
-      </c>
-      <c r="U9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E10" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G10" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H10">
         <v>2.5</v>
@@ -2051,24 +1969,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E11" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G11" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H11">
         <v>1.875</v>
@@ -2083,9 +2001,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -2097,73 +2015,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D14" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E14" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G14" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H14">
-        <v>2.5566037735849059</v>
+        <v>2.556603773584906</v>
       </c>
       <c r="I14">
-        <v>651.58771929824559</v>
+        <v>651.5877192982456</v>
       </c>
       <c r="J14">
-        <v>1113.9411764705881</v>
+        <v>1113.941176470588</v>
       </c>
       <c r="K14">
         <v>120</v>
       </c>
-      <c r="Q14">
+      <c r="M14">
         <v>3</v>
       </c>
-      <c r="R14">
+      <c r="N14">
         <v>3</v>
       </c>
-      <c r="T14">
+      <c r="P14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D15" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E15" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G15" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H15">
         <v>2.285714285714286</v>
       </c>
       <c r="I15">
-        <v>842.85714285714289</v>
+        <v>842.8571428571429</v>
       </c>
       <c r="J15">
         <v>1625</v>
@@ -2172,21 +2090,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E16" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H16">
-        <v>2.0666666666666669</v>
+        <v>2.066666666666667</v>
       </c>
       <c r="I16">
-        <v>739.84313725490199</v>
+        <v>739.843137254902</v>
       </c>
       <c r="J16">
         <v>917.8</v>
@@ -2195,90 +2113,90 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E17" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G17" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="I17">
-        <v>1437.5</v>
+        <v>1616.666666666667</v>
       </c>
       <c r="J17">
         <v>1500</v>
       </c>
       <c r="K17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D18" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E18" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F18" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G18" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H18">
-        <v>1.554545454545454</v>
+        <v>1.563636363636364</v>
       </c>
       <c r="I18">
-        <v>823.72881355932202</v>
+        <v>819.8389830508474</v>
       </c>
       <c r="J18">
-        <v>840.90566037735846</v>
+        <v>849.26</v>
       </c>
       <c r="K18">
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H19">
-        <v>2.137931034482758</v>
+        <v>2.193548387096774</v>
       </c>
       <c r="I19">
-        <v>955.25</v>
+        <v>924.6764705882352</v>
       </c>
       <c r="J19">
         <v>1322.75</v>
       </c>
       <c r="K19">
-        <v>32</v>
-      </c>
-      <c r="T19">
+        <v>34</v>
+      </c>
+      <c r="P19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H20">
         <v>1.538461538461539</v>
@@ -2293,21 +2211,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D21" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E21" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G21" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H21">
         <v>2.666666666666667</v>
@@ -2322,9 +2240,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2339,18 +2257,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G23" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H23">
-        <v>2.7777777777777781</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="I23">
         <v>909</v>
@@ -2362,12 +2280,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H24">
-        <v>1.8235294117647061</v>
+        <v>1.823529411764706</v>
       </c>
       <c r="I24">
         <v>514.1</v>
@@ -2378,25 +2296,25 @@
       <c r="K24">
         <v>24</v>
       </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
       <c r="Q24">
         <v>1</v>
       </c>
-      <c r="S24">
-        <v>1</v>
-      </c>
-      <c r="U24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G25" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H25">
         <v>1.5</v>
@@ -2411,9 +2329,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H26">
         <v>1.911111111111111</v>
@@ -2422,33 +2340,33 @@
         <v>740.936170212766</v>
       </c>
       <c r="J26">
-        <v>979.66666666666663</v>
+        <v>979.6666666666666</v>
       </c>
       <c r="K26">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D27" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E27" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G27" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H27">
         <v>2.166666666666667</v>
       </c>
       <c r="I27">
-        <v>572.22222222222217</v>
+        <v>572.2222222222222</v>
       </c>
       <c r="J27">
         <v>1050</v>
@@ -2457,18 +2375,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17">
       <c r="A28" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E28" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G28" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -2480,24 +2398,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D29" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E29" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F29" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G29" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="H29">
         <v>2.1</v>
@@ -2512,18 +2430,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G30" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H30">
-        <v>2.1333333333333329</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="I30">
         <v>660</v>
@@ -2535,24 +2453,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D31" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E31" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F31" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G31" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H31">
         <v>1.9375</v>
@@ -2561,21 +2479,21 @@
         <v>870</v>
       </c>
       <c r="J31">
-        <v>1025.5714285714289</v>
+        <v>1025.571428571429</v>
       </c>
       <c r="K31">
         <v>18</v>
       </c>
-      <c r="Q31">
+      <c r="M31">
         <v>1</v>
       </c>
-      <c r="S31">
+      <c r="O31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H32">
         <v>5</v>
@@ -2590,9 +2508,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17">
       <c r="A33" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H33">
         <v>2.75</v>
@@ -2607,21 +2525,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E34" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G34" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H34">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="I34">
         <v>824.5454545454545</v>
@@ -2632,43 +2550,43 @@
       <c r="K34">
         <v>45</v>
       </c>
+      <c r="M34">
+        <v>5</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>5</v>
+      </c>
       <c r="Q34">
-        <v>5</v>
-      </c>
-      <c r="R34">
         <v>4</v>
       </c>
-      <c r="S34">
-        <v>1</v>
-      </c>
-      <c r="T34">
-        <v>5</v>
-      </c>
-      <c r="U34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D35" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E35" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G35" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H35">
-        <v>2.0909090909090908</v>
+        <v>2.090909090909091</v>
       </c>
       <c r="I35">
-        <v>842.27272727272725</v>
+        <v>842.2727272727273</v>
       </c>
       <c r="J35">
         <v>1184.2</v>
@@ -2677,9 +2595,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -2691,38 +2609,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G37" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H37">
-        <v>1.645161290322581</v>
+        <v>1.650793650793651</v>
       </c>
       <c r="I37">
-        <v>611.01428571428573</v>
+        <v>610.7183098591549</v>
       </c>
       <c r="J37">
-        <v>810.6</v>
+        <v>804.0652173913044</v>
       </c>
       <c r="K37">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D38" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G38" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H38">
         <v>1.846153846153846</v>
@@ -2737,21 +2655,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E39" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G39" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H39">
-        <v>2.1111111111111112</v>
+        <v>2.111111111111111</v>
       </c>
       <c r="I39">
         <v>1350.5</v>
@@ -2763,27 +2681,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17">
       <c r="A40" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D40" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E40" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G40" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H40">
-        <v>2.0909090909090908</v>
+        <v>2.090909090909091</v>
       </c>
       <c r="I40">
-        <v>773.63636363636363</v>
+        <v>773.6363636363636</v>
       </c>
       <c r="J40">
         <v>1000</v>
@@ -2792,24 +2710,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E41" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G41" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H41">
         <v>2.085106382978724</v>
       </c>
       <c r="I41">
-        <v>666.63793103448279</v>
+        <v>666.6379310344828</v>
       </c>
       <c r="J41">
         <v>1253</v>
@@ -2817,98 +2735,98 @@
       <c r="K41">
         <v>60</v>
       </c>
+      <c r="M41">
+        <v>12</v>
+      </c>
+      <c r="N41">
+        <v>9</v>
+      </c>
+      <c r="O41">
+        <v>5</v>
+      </c>
+      <c r="P41">
+        <v>8</v>
+      </c>
       <c r="Q41">
-        <v>12</v>
-      </c>
-      <c r="R41">
-        <v>9</v>
-      </c>
-      <c r="S41">
-        <v>5</v>
-      </c>
-      <c r="T41">
-        <v>8</v>
-      </c>
-      <c r="U41">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D42" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E42" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G42" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H42">
         <v>2.279069767441861</v>
       </c>
       <c r="I42">
-        <v>797.11904761904759</v>
+        <v>797.1190476190476</v>
       </c>
       <c r="J42">
-        <v>968.31818181818187</v>
+        <v>968.3181818181819</v>
       </c>
       <c r="K42">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H43">
-        <v>1.8795180722891569</v>
+        <v>1.878048780487805</v>
       </c>
       <c r="I43">
-        <v>681.22619047619048</v>
+        <v>683.1084337349398</v>
       </c>
       <c r="J43">
-        <v>1015.8064516129029</v>
+        <v>1015.806451612903</v>
       </c>
       <c r="K43">
-        <v>86</v>
-      </c>
-      <c r="Q43">
+        <v>85</v>
+      </c>
+      <c r="M43">
         <v>3</v>
       </c>
-      <c r="R43">
+      <c r="N43">
         <v>2</v>
       </c>
-      <c r="S43">
+      <c r="O43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D44" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E44" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G44" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H44">
         <v>2</v>
       </c>
       <c r="I44">
-        <v>723.33333333333337</v>
+        <v>723.3333333333334</v>
       </c>
       <c r="J44">
         <v>1200</v>
@@ -2917,21 +2835,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D45" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E45" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G45" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H45">
         <v>1.846153846153846</v>
@@ -2946,21 +2864,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D46" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E46" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G46" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H46">
         <v>2.1</v>
@@ -2975,67 +2893,67 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D47" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E47" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F47" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G47" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H47">
-        <v>2.0515463917525771</v>
+        <v>2.051546391752577</v>
       </c>
       <c r="I47">
-        <v>1078.7244897959181</v>
+        <v>1078.724489795918</v>
       </c>
       <c r="J47">
-        <v>1045.6478873239439</v>
+        <v>1045.647887323944</v>
       </c>
       <c r="K47">
         <v>98</v>
       </c>
-      <c r="Q47">
+      <c r="M47">
         <v>5</v>
       </c>
-      <c r="R47">
+      <c r="N47">
         <v>2</v>
       </c>
-      <c r="S47">
+      <c r="O47">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17">
       <c r="A49" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G49" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H49">
         <v>2.666666666666667</v>
       </c>
       <c r="I49">
-        <v>1281.4285714285711</v>
+        <v>1281.428571428571</v>
       </c>
       <c r="J49">
         <v>1637.5</v>
@@ -3043,63 +2961,63 @@
       <c r="K49">
         <v>7</v>
       </c>
-      <c r="Q49">
+      <c r="M49">
         <v>1</v>
       </c>
-      <c r="S49">
+      <c r="O49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17">
       <c r="A50" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D50" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E50" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G50" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>2.115384615384615</v>
       </c>
       <c r="I50">
-        <v>743.6</v>
+        <v>784.8148148148148</v>
       </c>
       <c r="J50">
         <v>1127.5</v>
       </c>
       <c r="K50">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C51" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D51" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E51" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G51" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H51">
-        <v>2.0727272727272732</v>
+        <v>2.072727272727273</v>
       </c>
       <c r="I51">
-        <v>668.09210526315792</v>
+        <v>668.0921052631579</v>
       </c>
       <c r="J51">
         <v>1030</v>
@@ -3108,24 +3026,24 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17">
       <c r="A52" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D52" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E52" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G52" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H52">
-        <v>1.5789473684210531</v>
+        <v>1.578947368421053</v>
       </c>
       <c r="I52">
         <v>641.15625</v>
@@ -3136,31 +3054,31 @@
       <c r="K52">
         <v>98</v>
       </c>
-      <c r="Q52">
+      <c r="M52">
         <v>1</v>
       </c>
-      <c r="R52">
+      <c r="N52">
         <v>1</v>
       </c>
-      <c r="T52">
+      <c r="P52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17">
       <c r="A53" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D53" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E53" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G53" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -3171,45 +3089,45 @@
       <c r="K53">
         <v>4</v>
       </c>
-      <c r="Q53">
+      <c r="M53">
         <v>1</v>
       </c>
-      <c r="R53">
+      <c r="N53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17">
       <c r="A54" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D54" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E54" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G54" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H54">
-        <v>1.903225806451613</v>
+        <v>1.90625</v>
       </c>
       <c r="I54">
-        <v>1148.838709677419</v>
+        <v>1135.75</v>
       </c>
       <c r="J54">
-        <v>1172.6428571428571</v>
+        <v>1172.642857142857</v>
       </c>
       <c r="K54">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H55">
         <v>2.064516129032258</v>
@@ -3224,74 +3142,74 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17">
       <c r="A56" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D56" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E56" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G56" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H56">
-        <v>2.043478260869565</v>
+        <v>2.032608695652174</v>
       </c>
       <c r="I56">
-        <v>1126.0333333333331</v>
+        <v>1117.241666666667</v>
       </c>
       <c r="J56">
-        <v>1236.516129032258</v>
+        <v>1221.433333333333</v>
       </c>
       <c r="K56">
         <v>120</v>
       </c>
+      <c r="M56">
+        <v>105</v>
+      </c>
+      <c r="N56">
+        <v>82</v>
+      </c>
+      <c r="O56">
+        <v>25</v>
+      </c>
+      <c r="P56">
+        <v>114</v>
+      </c>
       <c r="Q56">
-        <v>105</v>
-      </c>
-      <c r="R56">
-        <v>82</v>
-      </c>
-      <c r="S56">
-        <v>25</v>
-      </c>
-      <c r="T56">
-        <v>114</v>
-      </c>
-      <c r="U56">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17">
       <c r="A57" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C57" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D57" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E57" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F57" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G57" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H57">
-        <v>1.8181818181818179</v>
+        <v>1.803738317757009</v>
       </c>
       <c r="I57">
-        <v>806.77499999999998</v>
+        <v>794.775</v>
       </c>
       <c r="J57">
         <v>1043.416666666667</v>
@@ -3299,295 +3217,295 @@
       <c r="K57">
         <v>120</v>
       </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
       <c r="Q57">
         <v>2</v>
       </c>
-      <c r="R57">
-        <v>2</v>
-      </c>
-      <c r="U57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C58" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D58" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E58" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G58" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H58">
         <v>1.919642857142857</v>
       </c>
       <c r="I58">
-        <v>1456.9833333333329</v>
+        <v>1430.408333333333</v>
       </c>
       <c r="J58">
-        <v>1078.7258064516129</v>
+        <v>1069.683333333333</v>
       </c>
       <c r="K58">
         <v>120</v>
       </c>
+      <c r="M58">
+        <v>287</v>
+      </c>
+      <c r="N58">
+        <v>181</v>
+      </c>
+      <c r="O58">
+        <v>124</v>
+      </c>
+      <c r="P58">
+        <v>443</v>
+      </c>
       <c r="Q58">
-        <v>287</v>
-      </c>
-      <c r="R58">
-        <v>181</v>
-      </c>
-      <c r="S58">
-        <v>124</v>
-      </c>
-      <c r="T58">
-        <v>443</v>
-      </c>
-      <c r="U58">
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17">
       <c r="A59" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C59" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G59" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H59">
         <v>2.395833333333333</v>
       </c>
       <c r="I59">
-        <v>826.68</v>
+        <v>826.6799999999999</v>
       </c>
       <c r="J59">
-        <v>1322.1111111111111</v>
+        <v>1322.111111111111</v>
       </c>
       <c r="K59">
         <v>50</v>
       </c>
+      <c r="M59">
+        <v>132</v>
+      </c>
+      <c r="N59">
+        <v>105</v>
+      </c>
+      <c r="O59">
+        <v>34</v>
+      </c>
+      <c r="P59">
+        <v>126</v>
+      </c>
       <c r="Q59">
-        <v>132</v>
-      </c>
-      <c r="R59">
-        <v>105</v>
-      </c>
-      <c r="S59">
-        <v>34</v>
-      </c>
-      <c r="T59">
-        <v>126</v>
-      </c>
-      <c r="U59">
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17">
       <c r="A60" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C60" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D60" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E60" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F60" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G60" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H60">
-        <v>1.9909909909909911</v>
+        <v>1.990990990990991</v>
       </c>
       <c r="I60">
-        <v>1290.5714285714289</v>
+        <v>1290.571428571429</v>
       </c>
       <c r="J60">
-        <v>949.66666666666663</v>
+        <v>949.6666666666666</v>
       </c>
       <c r="K60">
         <v>120</v>
       </c>
+      <c r="M60">
+        <v>78</v>
+      </c>
+      <c r="N60">
+        <v>69</v>
+      </c>
+      <c r="O60">
+        <v>10</v>
+      </c>
+      <c r="P60">
+        <v>45</v>
+      </c>
       <c r="Q60">
-        <v>78</v>
-      </c>
-      <c r="R60">
-        <v>69</v>
-      </c>
-      <c r="S60">
-        <v>10</v>
-      </c>
-      <c r="T60">
-        <v>45</v>
-      </c>
-      <c r="U60">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17">
       <c r="A61" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C61" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D61" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E61" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G61" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H61">
-        <v>1.929824561403509</v>
+        <v>1.991304347826087</v>
       </c>
       <c r="I61">
-        <v>1205.9159663865551</v>
+        <v>1229.294117647059</v>
       </c>
       <c r="J61">
-        <v>1094.2105263157889</v>
+        <v>1103.833333333333</v>
       </c>
       <c r="K61">
         <v>120</v>
       </c>
+      <c r="M61">
+        <v>330</v>
+      </c>
+      <c r="N61">
+        <v>257</v>
+      </c>
+      <c r="O61">
+        <v>84</v>
+      </c>
+      <c r="P61">
+        <v>522</v>
+      </c>
       <c r="Q61">
-        <v>330</v>
-      </c>
-      <c r="R61">
-        <v>257</v>
-      </c>
-      <c r="S61">
-        <v>84</v>
-      </c>
-      <c r="T61">
-        <v>522</v>
-      </c>
-      <c r="U61">
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17">
       <c r="A62" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D62" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E62" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G62" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H62">
-        <v>2.1509433962264151</v>
+        <v>2.125</v>
       </c>
       <c r="I62">
-        <v>907.77049180327867</v>
+        <v>887.2678571428571</v>
       </c>
       <c r="J62">
         <v>1339.0625</v>
       </c>
       <c r="K62">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="M62">
+        <v>173</v>
+      </c>
+      <c r="N62">
+        <v>151</v>
+      </c>
+      <c r="O62">
+        <v>24</v>
+      </c>
+      <c r="P62">
+        <v>193</v>
       </c>
       <c r="Q62">
-        <v>173</v>
-      </c>
-      <c r="R62">
-        <v>151</v>
-      </c>
-      <c r="S62">
-        <v>24</v>
-      </c>
-      <c r="T62">
-        <v>193</v>
-      </c>
-      <c r="U62">
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17">
       <c r="A63" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H63">
-        <v>1.974358974358974</v>
+        <v>1.941176470588235</v>
       </c>
       <c r="I63">
-        <v>1063.5</v>
+        <v>1059.908333333333</v>
       </c>
       <c r="J63">
-        <v>1329.5686274509801</v>
+        <v>1341.511111111111</v>
       </c>
       <c r="K63">
         <v>120</v>
       </c>
+      <c r="M63">
+        <v>173</v>
+      </c>
+      <c r="N63">
+        <v>135</v>
+      </c>
+      <c r="O63">
+        <v>48</v>
+      </c>
+      <c r="P63">
+        <v>453</v>
+      </c>
       <c r="Q63">
-        <v>173</v>
-      </c>
-      <c r="R63">
-        <v>135</v>
-      </c>
-      <c r="S63">
-        <v>48</v>
-      </c>
-      <c r="T63">
-        <v>453</v>
-      </c>
-      <c r="U63">
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17">
       <c r="A64" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C64" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D64" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E64" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G64" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H64">
         <v>1.752212389380531</v>
       </c>
       <c r="I64">
-        <v>853.23333333333335</v>
+        <v>853.2333333333333</v>
       </c>
       <c r="J64">
         <v>756.2962962962963</v>
@@ -3595,213 +3513,213 @@
       <c r="K64">
         <v>120</v>
       </c>
-      <c r="T64">
+      <c r="P64">
         <v>2</v>
       </c>
-      <c r="U64">
+      <c r="Q64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17">
       <c r="A65" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D65" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E65" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G65" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H65">
-        <v>2.4952380952380948</v>
+        <v>2.495238095238095</v>
       </c>
       <c r="I65">
-        <v>928.42016806722688</v>
+        <v>928.4201680672269</v>
       </c>
       <c r="J65">
-        <v>1204.6206896551721</v>
+        <v>1204.620689655172</v>
       </c>
       <c r="K65">
         <v>120</v>
       </c>
+      <c r="M65">
+        <v>529</v>
+      </c>
+      <c r="N65">
+        <v>440</v>
+      </c>
+      <c r="O65">
+        <v>110</v>
+      </c>
+      <c r="P65">
+        <v>656</v>
+      </c>
       <c r="Q65">
-        <v>529</v>
-      </c>
-      <c r="R65">
-        <v>440</v>
-      </c>
-      <c r="S65">
-        <v>110</v>
-      </c>
-      <c r="T65">
-        <v>656</v>
-      </c>
-      <c r="U65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17">
       <c r="A66" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D66" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E66" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G66" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H66">
-        <v>2.137614678899082</v>
+        <v>2.128440366972477</v>
       </c>
       <c r="I66">
-        <v>989.5916666666667</v>
+        <v>980.4416666666667</v>
       </c>
       <c r="J66">
-        <v>1290.58</v>
+        <v>1289.78431372549</v>
       </c>
       <c r="K66">
         <v>120</v>
       </c>
+      <c r="M66">
+        <v>136</v>
+      </c>
+      <c r="N66">
+        <v>117</v>
+      </c>
+      <c r="O66">
+        <v>27</v>
+      </c>
+      <c r="P66">
+        <v>179</v>
+      </c>
       <c r="Q66">
-        <v>136</v>
-      </c>
-      <c r="R66">
-        <v>117</v>
-      </c>
-      <c r="S66">
-        <v>27</v>
-      </c>
-      <c r="T66">
-        <v>179</v>
-      </c>
-      <c r="U66">
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17">
       <c r="A67" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C67" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D67" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E67" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F67" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G67" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H67">
-        <v>2.2526315789473679</v>
+        <v>2.257731958762887</v>
       </c>
       <c r="I67">
-        <v>1048.883333333333</v>
+        <v>1043.825</v>
       </c>
       <c r="J67">
-        <v>915.86746987951813</v>
+        <v>930.5060240963855</v>
       </c>
       <c r="K67">
         <v>120</v>
       </c>
+      <c r="M67">
+        <v>632</v>
+      </c>
+      <c r="N67">
+        <v>463</v>
+      </c>
+      <c r="O67">
+        <v>202</v>
+      </c>
+      <c r="P67">
+        <v>1266</v>
+      </c>
       <c r="Q67">
-        <v>632</v>
-      </c>
-      <c r="R67">
-        <v>463</v>
-      </c>
-      <c r="S67">
-        <v>202</v>
-      </c>
-      <c r="T67">
-        <v>1266</v>
-      </c>
-      <c r="U67">
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17">
       <c r="A68" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D68" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E68" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F68" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G68" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H68">
-        <v>2.8627450980392162</v>
+        <v>2.9</v>
       </c>
       <c r="I68">
-        <v>1743.633333333333</v>
+        <v>1701.675</v>
       </c>
       <c r="J68">
-        <v>1961.394736842105</v>
+        <v>1924.682926829268</v>
       </c>
       <c r="K68">
         <v>120</v>
       </c>
+      <c r="M68">
+        <v>101</v>
+      </c>
+      <c r="N68">
+        <v>78</v>
+      </c>
+      <c r="O68">
+        <v>26</v>
+      </c>
+      <c r="P68">
+        <v>131</v>
+      </c>
       <c r="Q68">
-        <v>101</v>
-      </c>
-      <c r="R68">
-        <v>78</v>
-      </c>
-      <c r="S68">
-        <v>26</v>
-      </c>
-      <c r="T68">
-        <v>131</v>
-      </c>
-      <c r="U68">
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17">
       <c r="A69" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C69" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D69" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E69" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G69" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H69">
-        <v>2.3272727272727272</v>
+        <v>2.327272727272727</v>
       </c>
       <c r="I69">
         <v>1021.589285714286</v>
@@ -3812,389 +3730,389 @@
       <c r="K69">
         <v>113</v>
       </c>
+      <c r="M69">
+        <v>248</v>
+      </c>
+      <c r="N69">
+        <v>195</v>
+      </c>
+      <c r="O69">
+        <v>63</v>
+      </c>
+      <c r="P69">
+        <v>269</v>
+      </c>
       <c r="Q69">
-        <v>248</v>
-      </c>
-      <c r="R69">
-        <v>195</v>
-      </c>
-      <c r="S69">
-        <v>63</v>
-      </c>
-      <c r="T69">
-        <v>269</v>
-      </c>
-      <c r="U69">
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17">
       <c r="A70" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C70" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D70" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E70" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F70" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G70" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H70">
-        <v>2.0810810810810811</v>
+        <v>2.081081081081081</v>
       </c>
       <c r="I70">
-        <v>1035.1298701298699</v>
+        <v>1042.171052631579</v>
       </c>
       <c r="J70">
         <v>1203.724137931034</v>
       </c>
       <c r="K70">
-        <v>77</v>
-      </c>
-      <c r="Q70">
+        <v>76</v>
+      </c>
+      <c r="M70">
         <v>1</v>
       </c>
-      <c r="R70">
+      <c r="N70">
         <v>1</v>
       </c>
-      <c r="T70">
+      <c r="P70">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17">
       <c r="A71" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C71" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D71" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E71" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F71" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G71" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H71">
-        <v>1.8971962616822431</v>
+        <v>1.842592592592593</v>
       </c>
       <c r="I71">
-        <v>935.55462184873954</v>
+        <v>923.4957983193277</v>
       </c>
       <c r="J71">
-        <v>1191.4516129032261</v>
+        <v>1134.354838709677</v>
       </c>
       <c r="K71">
         <v>120</v>
       </c>
+      <c r="M71">
+        <v>116</v>
+      </c>
+      <c r="N71">
+        <v>93</v>
+      </c>
+      <c r="O71">
+        <v>28</v>
+      </c>
+      <c r="P71">
+        <v>87</v>
+      </c>
       <c r="Q71">
-        <v>116</v>
-      </c>
-      <c r="R71">
-        <v>93</v>
-      </c>
-      <c r="S71">
-        <v>28</v>
-      </c>
-      <c r="T71">
-        <v>87</v>
-      </c>
-      <c r="U71">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17">
       <c r="A72" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C72" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D72" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E72" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F72" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G72" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H72">
-        <v>1.663636363636364</v>
+        <v>1.589285714285714</v>
       </c>
       <c r="I72">
-        <v>1153.55462184874</v>
+        <v>1130.991596638655</v>
       </c>
       <c r="J72">
-        <v>1021.672727272727</v>
+        <v>986.7321428571429</v>
       </c>
       <c r="K72">
         <v>120</v>
       </c>
+      <c r="M72">
+        <v>61</v>
+      </c>
+      <c r="N72">
+        <v>47</v>
+      </c>
+      <c r="O72">
+        <v>17</v>
+      </c>
+      <c r="P72">
+        <v>88</v>
+      </c>
       <c r="Q72">
-        <v>61</v>
-      </c>
-      <c r="R72">
-        <v>47</v>
-      </c>
-      <c r="S72">
-        <v>17</v>
-      </c>
-      <c r="T72">
-        <v>88</v>
-      </c>
-      <c r="U72">
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17">
       <c r="A73" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C73" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D73" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E73" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F73" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G73" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H73">
-        <v>1.5636363636363639</v>
+        <v>1.532110091743119</v>
       </c>
       <c r="I73">
-        <v>868.72500000000002</v>
+        <v>865.2</v>
       </c>
       <c r="J73">
-        <v>790.71764705882356</v>
+        <v>787.7701149425287</v>
       </c>
       <c r="K73">
         <v>120</v>
       </c>
+      <c r="M73">
+        <v>11</v>
+      </c>
+      <c r="N73">
+        <v>10</v>
+      </c>
+      <c r="O73">
+        <v>5</v>
+      </c>
+      <c r="P73">
+        <v>5</v>
+      </c>
       <c r="Q73">
-        <v>11</v>
-      </c>
-      <c r="R73">
-        <v>10</v>
-      </c>
-      <c r="S73">
-        <v>5</v>
-      </c>
-      <c r="T73">
-        <v>5</v>
-      </c>
-      <c r="U73">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17">
       <c r="A74" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H74">
-        <v>1.808080808080808</v>
+        <v>1.841584158415842</v>
       </c>
       <c r="I74">
-        <v>1498.453781512605</v>
+        <v>1528.714285714286</v>
       </c>
       <c r="J74">
-        <v>1116.1789473684209</v>
+        <v>1151.5</v>
       </c>
       <c r="K74">
         <v>120</v>
       </c>
+      <c r="M74">
+        <v>2411</v>
+      </c>
+      <c r="N74">
+        <v>1872</v>
+      </c>
+      <c r="O74">
+        <v>640</v>
+      </c>
+      <c r="P74">
+        <v>1539</v>
+      </c>
       <c r="Q74">
-        <v>2411</v>
-      </c>
-      <c r="R74">
-        <v>1872</v>
-      </c>
-      <c r="S74">
-        <v>640</v>
-      </c>
-      <c r="T74">
-        <v>1539</v>
-      </c>
-      <c r="U74">
         <v>300</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17">
       <c r="A75" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C75" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D75" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E75" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G75" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H75">
         <v>2.258064516129032</v>
       </c>
       <c r="I75">
-        <v>1100.2903225806449</v>
+        <v>1100.290322580645</v>
       </c>
       <c r="J75">
-        <v>1371.7222222222219</v>
+        <v>1371.722222222222</v>
       </c>
       <c r="K75">
         <v>31</v>
       </c>
+      <c r="M75">
+        <v>134</v>
+      </c>
+      <c r="N75">
+        <v>111</v>
+      </c>
+      <c r="O75">
+        <v>29</v>
+      </c>
+      <c r="P75">
+        <v>120</v>
+      </c>
       <c r="Q75">
-        <v>134</v>
-      </c>
-      <c r="R75">
-        <v>111</v>
-      </c>
-      <c r="S75">
-        <v>29</v>
-      </c>
-      <c r="T75">
-        <v>120</v>
-      </c>
-      <c r="U75">
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17">
       <c r="A76" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C76" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D76" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E76" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G76" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H76">
-        <v>1.8181818181818179</v>
+        <v>1.8125</v>
       </c>
       <c r="I76">
-        <v>1011.260504201681</v>
+        <v>1006.458333333333</v>
       </c>
       <c r="J76">
-        <v>1191.666666666667</v>
+        <v>1188.566037735849</v>
       </c>
       <c r="K76">
         <v>120</v>
       </c>
+      <c r="M76">
+        <v>203</v>
+      </c>
+      <c r="N76">
+        <v>152</v>
+      </c>
+      <c r="O76">
+        <v>61</v>
+      </c>
+      <c r="P76">
+        <v>273</v>
+      </c>
       <c r="Q76">
-        <v>203</v>
-      </c>
-      <c r="R76">
-        <v>152</v>
-      </c>
-      <c r="S76">
-        <v>61</v>
-      </c>
-      <c r="T76">
-        <v>273</v>
-      </c>
-      <c r="U76">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17">
       <c r="A77" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C77" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G77" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H77">
-        <v>1.466666666666667</v>
+        <v>1.407407407407407</v>
       </c>
       <c r="I77">
-        <v>1446.5333333333331</v>
+        <v>1445.008333333333</v>
       </c>
       <c r="J77">
-        <v>823.85714285714289</v>
+        <v>814.2391304347826</v>
       </c>
       <c r="K77">
         <v>120</v>
       </c>
+      <c r="M77">
+        <v>149</v>
+      </c>
+      <c r="N77">
+        <v>96</v>
+      </c>
+      <c r="O77">
+        <v>59</v>
+      </c>
+      <c r="P77">
+        <v>218</v>
+      </c>
       <c r="Q77">
-        <v>149</v>
-      </c>
-      <c r="R77">
-        <v>96</v>
-      </c>
-      <c r="S77">
-        <v>59</v>
-      </c>
-      <c r="T77">
-        <v>218</v>
-      </c>
-      <c r="U77">
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17">
       <c r="A78" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C78" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D78" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E78" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G78" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H78">
         <v>1.884615384615385</v>
       </c>
       <c r="I78">
-        <v>819.15384615384619</v>
+        <v>819.1538461538462</v>
       </c>
       <c r="J78">
         <v>1124</v>
@@ -4202,227 +4120,227 @@
       <c r="K78">
         <v>26</v>
       </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
       <c r="Q78">
         <v>2</v>
       </c>
-      <c r="R78">
-        <v>1</v>
-      </c>
-      <c r="S78">
-        <v>1</v>
-      </c>
-      <c r="U78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E79" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F79" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H79">
-        <v>2.273584905660377</v>
+        <v>2.314285714285715</v>
       </c>
       <c r="I79">
-        <v>1543.166666666667</v>
+        <v>1509.733333333333</v>
       </c>
       <c r="J79">
-        <v>969.98148148148152</v>
+        <v>957.2156862745098</v>
       </c>
       <c r="K79">
         <v>120</v>
       </c>
+      <c r="M79">
+        <v>103</v>
+      </c>
+      <c r="N79">
+        <v>83</v>
+      </c>
+      <c r="O79">
+        <v>21</v>
+      </c>
+      <c r="P79">
+        <v>134</v>
+      </c>
       <c r="Q79">
-        <v>103</v>
-      </c>
-      <c r="R79">
-        <v>83</v>
-      </c>
-      <c r="S79">
-        <v>21</v>
-      </c>
-      <c r="T79">
-        <v>134</v>
-      </c>
-      <c r="U79">
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H80">
-        <v>2.1818181818181821</v>
+        <v>2.181818181818182</v>
       </c>
       <c r="I80">
-        <v>914.63636363636363</v>
+        <v>914.6363636363636</v>
       </c>
       <c r="J80">
-        <v>803.55555555555554</v>
+        <v>803.5555555555555</v>
       </c>
       <c r="K80">
         <v>12</v>
       </c>
-      <c r="Q80">
+      <c r="M80">
         <v>1</v>
       </c>
-      <c r="R80">
+      <c r="N80">
         <v>1</v>
       </c>
-      <c r="T80">
+      <c r="P80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17">
       <c r="A81" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C81" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D81" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E81" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G81" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H81">
-        <v>1.8818181818181821</v>
+        <v>1.9</v>
       </c>
       <c r="I81">
-        <v>1256.3445378151259</v>
+        <v>1254.411764705882</v>
       </c>
       <c r="J81">
-        <v>1418</v>
+        <v>1423.333333333333</v>
       </c>
       <c r="K81">
         <v>120</v>
       </c>
+      <c r="M81">
+        <v>99</v>
+      </c>
+      <c r="N81">
+        <v>83</v>
+      </c>
+      <c r="O81">
+        <v>18</v>
+      </c>
+      <c r="P81">
+        <v>131</v>
+      </c>
       <c r="Q81">
-        <v>99</v>
-      </c>
-      <c r="R81">
-        <v>83</v>
-      </c>
-      <c r="S81">
-        <v>18</v>
-      </c>
-      <c r="T81">
-        <v>131</v>
-      </c>
-      <c r="U81">
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17">
       <c r="A82" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C82" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D82" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E82" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G82" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H82">
         <v>1.773333333333333</v>
       </c>
       <c r="I82">
-        <v>789.98734177215192</v>
+        <v>789.9873417721519</v>
       </c>
       <c r="J82">
-        <v>919.70270270270271</v>
+        <v>919.7027027027027</v>
       </c>
       <c r="K82">
         <v>79</v>
       </c>
+      <c r="M82">
+        <v>50</v>
+      </c>
+      <c r="N82">
+        <v>39</v>
+      </c>
+      <c r="O82">
+        <v>15</v>
+      </c>
+      <c r="P82">
+        <v>34</v>
+      </c>
       <c r="Q82">
-        <v>50</v>
-      </c>
-      <c r="R82">
-        <v>39</v>
-      </c>
-      <c r="S82">
-        <v>15</v>
-      </c>
-      <c r="T82">
-        <v>34</v>
-      </c>
-      <c r="U82">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17">
       <c r="A83" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C83" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D83" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E83" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F83" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G83" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="H83">
-        <v>1.7739130434782611</v>
+        <v>1.747826086956522</v>
       </c>
       <c r="I83">
-        <v>1092.175</v>
+        <v>1091.858333333333</v>
       </c>
       <c r="J83">
-        <v>939.4666666666667</v>
+        <v>941.2631578947369</v>
       </c>
       <c r="K83">
         <v>120</v>
       </c>
-      <c r="U83">
+      <c r="Q83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17">
       <c r="A84" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C84" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D84" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E84" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G84" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H84">
         <v>1.56140350877193</v>
       </c>
       <c r="I84">
-        <v>1073.1311475409841</v>
+        <v>1073.131147540984</v>
       </c>
       <c r="J84">
         <v>1330.1</v>
@@ -4430,298 +4348,298 @@
       <c r="K84">
         <v>61</v>
       </c>
-      <c r="Q84">
+      <c r="M84">
         <v>1</v>
       </c>
-      <c r="R84">
+      <c r="N84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17">
       <c r="A85" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B85" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C85" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D85" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E85" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F85" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G85" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H85">
-        <v>1.545454545454545</v>
+        <v>1.473214285714286</v>
       </c>
       <c r="I85">
-        <v>1404.6583333333331</v>
+        <v>1359.408333333333</v>
       </c>
       <c r="J85">
-        <v>916.87755102040819</v>
+        <v>867.9183673469388</v>
       </c>
       <c r="K85">
         <v>120</v>
       </c>
+      <c r="M85">
+        <v>32</v>
+      </c>
+      <c r="N85">
+        <v>26</v>
+      </c>
+      <c r="O85">
+        <v>6</v>
+      </c>
+      <c r="P85">
+        <v>33</v>
+      </c>
       <c r="Q85">
-        <v>32</v>
-      </c>
-      <c r="R85">
-        <v>26</v>
-      </c>
-      <c r="S85">
-        <v>6</v>
-      </c>
-      <c r="T85">
-        <v>33</v>
-      </c>
-      <c r="U85">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17">
       <c r="A86" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D86" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G86" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H86">
-        <v>1.666666666666667</v>
+        <v>1.662921348314607</v>
       </c>
       <c r="I86">
-        <v>909.32</v>
+        <v>906.3838383838383</v>
       </c>
       <c r="J86">
-        <v>1151.8780487804879</v>
+        <v>1150.675</v>
       </c>
       <c r="K86">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="M86">
+        <v>81</v>
+      </c>
+      <c r="N86">
+        <v>52</v>
+      </c>
+      <c r="O86">
+        <v>34</v>
+      </c>
+      <c r="P86">
+        <v>156</v>
       </c>
       <c r="Q86">
-        <v>81</v>
-      </c>
-      <c r="R86">
-        <v>52</v>
-      </c>
-      <c r="S86">
-        <v>34</v>
-      </c>
-      <c r="T86">
-        <v>156</v>
-      </c>
-      <c r="U86">
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17">
       <c r="A87" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C87" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D87" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E87" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G87" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H87">
-        <v>2.1147540983606561</v>
+        <v>2.111111111111111</v>
       </c>
       <c r="I87">
-        <v>911.04166666666663</v>
+        <v>911.4594594594595</v>
       </c>
       <c r="J87">
         <v>1222.5</v>
       </c>
       <c r="K87">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="M87">
+        <v>9</v>
+      </c>
+      <c r="N87">
+        <v>8</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="P87">
+        <v>3</v>
       </c>
       <c r="Q87">
-        <v>9</v>
-      </c>
-      <c r="R87">
-        <v>8</v>
-      </c>
-      <c r="S87">
         <v>1</v>
       </c>
-      <c r="T87">
-        <v>3</v>
-      </c>
-      <c r="U87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B88" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C88" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D88" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E88" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F88" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G88" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>2.018181818181818</v>
       </c>
       <c r="I88">
-        <v>812.65517241379314</v>
+        <v>819.6440677966102</v>
       </c>
       <c r="J88">
         <v>1029.294117647059</v>
       </c>
       <c r="K88">
-        <v>58</v>
-      </c>
-      <c r="Q88">
+        <v>59</v>
+      </c>
+      <c r="M88">
         <v>7</v>
       </c>
-      <c r="R88">
+      <c r="N88">
         <v>4</v>
       </c>
-      <c r="S88">
+      <c r="O88">
         <v>4</v>
       </c>
-      <c r="T88">
+      <c r="P88">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17">
       <c r="A89" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C89" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D89" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E89" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F89" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G89" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H89">
-        <v>1.571428571428571</v>
+        <v>1.56</v>
       </c>
       <c r="I89">
-        <v>806.9677419354839</v>
+        <v>810.6666666666666</v>
       </c>
       <c r="J89">
-        <v>1079.3157894736839</v>
+        <v>1062.1</v>
       </c>
       <c r="K89">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>1</v>
-      </c>
-      <c r="S89">
-        <v>1</v>
-      </c>
-      <c r="U89">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17">
       <c r="A90" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C90" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D90" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E90" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F90" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G90" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H90">
-        <v>1.4695652173913041</v>
+        <v>1.460869565217391</v>
       </c>
       <c r="I90">
-        <v>945.9083333333333</v>
+        <v>946.2416666666667</v>
       </c>
       <c r="J90">
-        <v>833.45</v>
+        <v>833.075</v>
       </c>
       <c r="K90">
         <v>120</v>
       </c>
-      <c r="Q90">
+      <c r="M90">
         <v>1</v>
       </c>
-      <c r="S90">
+      <c r="O90">
         <v>1</v>
       </c>
-      <c r="T90">
+      <c r="P90">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17">
       <c r="A91" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C91" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D91" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E91" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F91" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G91" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H91">
-        <v>3.1304347826086958</v>
+        <v>3.130434782608696</v>
       </c>
       <c r="I91">
         <v>2166.25</v>
@@ -4732,40 +4650,40 @@
       <c r="K91">
         <v>48</v>
       </c>
-      <c r="Q91">
+      <c r="M91">
         <v>2</v>
       </c>
-      <c r="R91">
+      <c r="N91">
         <v>1</v>
       </c>
-      <c r="S91">
+      <c r="O91">
         <v>1</v>
       </c>
-      <c r="T91">
+      <c r="P91">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17">
       <c r="A92" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C92" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D92" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E92" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G92" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H92">
-        <v>2.2352941176470589</v>
+        <v>2.235294117647059</v>
       </c>
       <c r="I92">
-        <v>908.17647058823525</v>
+        <v>908.1764705882352</v>
       </c>
       <c r="J92">
         <v>1870</v>
@@ -4774,65 +4692,65 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17">
       <c r="A93" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C93" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D93" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E93" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F93" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G93" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H93">
-        <v>1.4416666666666671</v>
+        <v>1.45</v>
       </c>
       <c r="I93">
-        <v>1253.208333333333</v>
+        <v>1257.583333333333</v>
       </c>
       <c r="J93">
-        <v>864.46086956521742</v>
+        <v>867.1304347826087</v>
       </c>
       <c r="K93">
         <v>120</v>
       </c>
-      <c r="Q93">
+      <c r="M93">
         <v>1</v>
       </c>
-      <c r="S93">
+      <c r="O93">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17">
       <c r="A94" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C94" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D94" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E94" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F94" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G94" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H94">
-        <v>2.1764705882352939</v>
+        <v>2.176470588235294</v>
       </c>
       <c r="I94">
         <v>1206.578947368421</v>
@@ -4844,26 +4762,26 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17">
       <c r="A95" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H95">
-        <v>3.1304347826086958</v>
+        <v>3.114035087719298</v>
       </c>
       <c r="I95">
-        <v>1745.991666666667</v>
+        <v>1784.85</v>
       </c>
       <c r="J95">
-        <v>2281.928571428572</v>
+        <v>2234.275862068966</v>
       </c>
       <c r="K95">
         <v>120</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17">
       <c r="A96" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -4878,18 +4796,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17">
       <c r="A97" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D97" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E97" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G97" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H97">
         <v>3</v>
@@ -4904,9 +4822,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17">
       <c r="A98" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -4918,9 +4836,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17">
       <c r="A99" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -4932,9 +4850,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17">
       <c r="A100" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -4949,88 +4867,88 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17">
       <c r="A101" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C101" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D101" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E101" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F101" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G101" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="I101">
-        <v>1202.8571428571429</v>
+        <v>1225.172413793103</v>
       </c>
       <c r="J101">
-        <v>1227.846153846154</v>
+        <v>1247.285714285714</v>
       </c>
       <c r="K101">
-        <v>28</v>
-      </c>
-      <c r="Q101">
+        <v>29</v>
+      </c>
+      <c r="M101">
         <v>1</v>
       </c>
-      <c r="R101">
+      <c r="N101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17">
       <c r="A102" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C102" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D102" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E102" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G102" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H102">
         <v>1.245614035087719</v>
       </c>
       <c r="I102">
-        <v>754.25862068965512</v>
+        <v>754</v>
       </c>
       <c r="J102">
-        <v>806.33333333333337</v>
+        <v>806.3333333333334</v>
       </c>
       <c r="K102">
         <v>58</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17">
       <c r="A103" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C103" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D103" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E103" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G103" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H103">
         <v>1.714285714285714</v>
@@ -5044,16 +4962,16 @@
       <c r="K103">
         <v>7</v>
       </c>
-      <c r="Q103">
+      <c r="M103">
         <v>1</v>
       </c>
-      <c r="S103">
+      <c r="O103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17">
       <c r="A104" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H104">
         <v>2.333333333333333</v>
@@ -5065,61 +4983,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17">
       <c r="A105" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C105" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D105" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E105" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G105" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H105">
-        <v>2.0869565217391299</v>
+        <v>2.08695652173913</v>
       </c>
       <c r="I105">
-        <v>677.29032258064512</v>
+        <v>677.2903225806451</v>
       </c>
       <c r="J105">
-        <v>883.33333333333337</v>
+        <v>883.3333333333334</v>
       </c>
       <c r="K105">
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17">
       <c r="A106" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G106" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H106">
-        <v>2.333333333333333</v>
+        <v>2.375</v>
       </c>
       <c r="I106">
-        <v>730.55555555555554</v>
+        <v>743.75</v>
       </c>
       <c r="J106">
         <v>1200</v>
       </c>
       <c r="K106">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
       <c r="A107" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D107" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H107">
         <v>1.8</v>
@@ -5128,21 +5046,21 @@
         <v>742.5</v>
       </c>
       <c r="J107">
-        <v>879.53846153846155</v>
+        <v>879.5384615384615</v>
       </c>
       <c r="K107">
         <v>27</v>
       </c>
-      <c r="T107">
+      <c r="P107">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17">
       <c r="A108" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G108" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I108">
         <v>635</v>
@@ -5154,27 +5072,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17">
       <c r="A109" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C109" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D109" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E109" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G109" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H109">
-        <v>1.8048780487804881</v>
+        <v>1.804878048780488</v>
       </c>
       <c r="I109">
-        <v>778.26190476190482</v>
+        <v>778.2619047619048</v>
       </c>
       <c r="J109">
         <v>895.3</v>
@@ -5182,45 +5100,45 @@
       <c r="K109">
         <v>43</v>
       </c>
-      <c r="Q109">
+      <c r="M109">
         <v>2</v>
       </c>
-      <c r="R109">
+      <c r="N109">
         <v>1</v>
       </c>
-      <c r="S109">
+      <c r="O109">
         <v>1</v>
       </c>
-      <c r="T109">
+      <c r="P109">
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17">
       <c r="A110" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H110">
-        <v>1.7222222222222221</v>
+        <v>1.742857142857143</v>
       </c>
       <c r="I110">
-        <v>1517.0270270270271</v>
+        <v>1534.305555555556</v>
       </c>
       <c r="J110">
-        <v>987.73333333333335</v>
+        <v>997.6551724137931</v>
       </c>
       <c r="K110">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
       <c r="A111" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H111">
-        <v>2.2307692307692308</v>
+        <v>2.230769230769231</v>
       </c>
       <c r="I111">
-        <v>762.07142857142856</v>
+        <v>762.0714285714286</v>
       </c>
       <c r="J111">
         <v>1000</v>
@@ -5229,24 +5147,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17">
       <c r="A112" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C112" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D112" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E112" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G112" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="H112">
-        <v>2.1702127659574471</v>
+        <v>2.170212765957447</v>
       </c>
       <c r="I112">
         <v>780.58</v>
@@ -5257,22 +5175,22 @@
       <c r="K112">
         <v>51</v>
       </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="O112">
+        <v>2</v>
+      </c>
       <c r="Q112">
-        <v>2</v>
-      </c>
-      <c r="S112">
-        <v>2</v>
-      </c>
-      <c r="U112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16">
       <c r="A113" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G113" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -5284,30 +5202,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:16">
       <c r="A114" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C114" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D114" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E114" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F114" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G114" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H114">
         <v>2.06</v>
       </c>
       <c r="I114">
-        <v>1621.9622641509429</v>
+        <v>1621.962264150943</v>
       </c>
       <c r="J114">
         <v>1090.948717948718</v>
@@ -5315,19 +5233,19 @@
       <c r="K114">
         <v>53</v>
       </c>
-      <c r="Q114">
+      <c r="M114">
         <v>1</v>
       </c>
-      <c r="S114">
+      <c r="O114">
         <v>1</v>
       </c>
-      <c r="T114">
+      <c r="P114">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:16">
       <c r="A115" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H115">
         <v>2.5</v>
@@ -5342,2182 +5260,916 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:16">
       <c r="A116" s="1">
         <v>0</v>
       </c>
-      <c r="L116">
-        <v>15101</v>
-      </c>
-      <c r="M116" t="s">
-        <v>440</v>
-      </c>
-      <c r="N116">
-        <v>10</v>
-      </c>
-      <c r="O116">
-        <v>3.75</v>
-      </c>
-      <c r="P116">
-        <v>28.9</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L116" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
       <c r="A117" s="1">
         <v>1</v>
       </c>
-      <c r="L117">
-        <v>15003</v>
-      </c>
-      <c r="M117" t="s">
-        <v>440</v>
-      </c>
-      <c r="N117">
-        <v>8</v>
-      </c>
-      <c r="O117">
-        <v>3.9375</v>
-      </c>
-      <c r="P117">
-        <v>18.875</v>
-      </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L117" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
       <c r="A118" s="1">
         <v>2</v>
       </c>
-      <c r="L118">
-        <v>15005</v>
-      </c>
-      <c r="M118" t="s">
-        <v>440</v>
-      </c>
-      <c r="N118">
-        <v>2</v>
-      </c>
-      <c r="O118">
-        <v>3.25</v>
-      </c>
-      <c r="P118">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L118" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
       <c r="A119" s="1">
         <v>3</v>
       </c>
-      <c r="L119">
-        <v>15006</v>
-      </c>
-      <c r="M119" t="s">
-        <v>440</v>
-      </c>
-      <c r="N119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L119" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
       <c r="A120" s="1">
         <v>4</v>
       </c>
-      <c r="L120">
-        <v>15007</v>
-      </c>
-      <c r="M120" t="s">
-        <v>440</v>
-      </c>
-      <c r="N120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L120" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
       <c r="A121" s="1">
         <v>5</v>
       </c>
-      <c r="L121">
-        <v>15102</v>
-      </c>
-      <c r="M121" t="s">
-        <v>440</v>
-      </c>
-      <c r="N121">
-        <v>14</v>
-      </c>
-      <c r="O121">
-        <v>3.3214285714285721</v>
-      </c>
-      <c r="P121">
-        <v>35.785714285714278</v>
-      </c>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L121" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
       <c r="A122" s="1">
         <v>6</v>
       </c>
-      <c r="L122">
-        <v>15014</v>
-      </c>
-      <c r="M122" t="s">
-        <v>440</v>
-      </c>
-      <c r="N122">
-        <v>3</v>
-      </c>
-      <c r="O122">
-        <v>4.166666666666667</v>
-      </c>
-      <c r="P122">
-        <v>1.333333333333333</v>
-      </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L122" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
       <c r="A123" s="1">
         <v>7</v>
       </c>
-      <c r="L123">
-        <v>15104</v>
-      </c>
-      <c r="M123" t="s">
-        <v>440</v>
-      </c>
-      <c r="N123">
-        <v>4</v>
-      </c>
-      <c r="O123">
-        <v>4.25</v>
-      </c>
-      <c r="P123">
-        <v>85.75</v>
-      </c>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L123" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
       <c r="A124" s="1">
         <v>8</v>
       </c>
-      <c r="L124">
-        <v>15015</v>
-      </c>
-      <c r="M124" t="s">
-        <v>440</v>
-      </c>
-      <c r="N124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L124" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
       <c r="A125" s="1">
         <v>9</v>
       </c>
-      <c r="L125">
-        <v>15017</v>
-      </c>
-      <c r="M125" t="s">
-        <v>440</v>
-      </c>
-      <c r="N125">
-        <v>20</v>
-      </c>
-      <c r="O125">
-        <v>3.1</v>
-      </c>
-      <c r="P125">
-        <v>49.35</v>
-      </c>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L125" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
       <c r="A126" s="1">
         <v>10</v>
       </c>
-      <c r="L126">
-        <v>15018</v>
-      </c>
-      <c r="M126" t="s">
-        <v>440</v>
-      </c>
-      <c r="N126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L126" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
       <c r="A127" s="1">
         <v>11</v>
       </c>
-      <c r="L127">
-        <v>15020</v>
-      </c>
-      <c r="M127" t="s">
-        <v>440</v>
-      </c>
-      <c r="N127">
-        <v>1</v>
-      </c>
-      <c r="O127">
-        <v>5</v>
-      </c>
-      <c r="P127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="L127" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16">
       <c r="A128" s="1">
         <v>12</v>
       </c>
-      <c r="L128">
-        <v>15106</v>
-      </c>
-      <c r="M128" t="s">
-        <v>440</v>
-      </c>
-      <c r="N128">
-        <v>11</v>
-      </c>
-      <c r="O128">
-        <v>4.0909090909090908</v>
-      </c>
-      <c r="P128">
-        <v>102.09090909090909</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L128" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129" s="1">
         <v>13</v>
       </c>
-      <c r="L129">
-        <v>15024</v>
-      </c>
-      <c r="M129" t="s">
-        <v>440</v>
-      </c>
-      <c r="N129">
-        <v>1</v>
-      </c>
-      <c r="O129">
-        <v>1.5</v>
-      </c>
-      <c r="P129">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L129" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" s="1">
         <v>14</v>
       </c>
-      <c r="L130">
-        <v>15025</v>
-      </c>
-      <c r="M130" t="s">
-        <v>440</v>
-      </c>
-      <c r="N130">
-        <v>5</v>
-      </c>
-      <c r="O130">
-        <v>3.6</v>
-      </c>
-      <c r="P130">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L130" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" s="1">
         <v>15</v>
       </c>
-      <c r="L131">
-        <v>15026</v>
-      </c>
-      <c r="M131" t="s">
-        <v>440</v>
-      </c>
-      <c r="N131">
-        <v>2</v>
-      </c>
-      <c r="O131">
-        <v>4</v>
-      </c>
-      <c r="P131">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L131" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" s="1">
         <v>16</v>
       </c>
-      <c r="L132">
-        <v>15108</v>
-      </c>
-      <c r="M132" t="s">
-        <v>440</v>
-      </c>
-      <c r="N132">
-        <v>22</v>
-      </c>
-      <c r="O132">
-        <v>3.704545454545455</v>
-      </c>
-      <c r="P132">
-        <v>50.363636363636367</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L132" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133" s="1">
         <v>17</v>
       </c>
-      <c r="L133">
-        <v>15028</v>
-      </c>
-      <c r="M133" t="s">
-        <v>440</v>
-      </c>
-      <c r="N133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L133" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134" s="1">
         <v>18</v>
       </c>
-      <c r="L134">
-        <v>15030</v>
-      </c>
-      <c r="M134" t="s">
-        <v>440</v>
-      </c>
-      <c r="N134">
-        <v>1</v>
-      </c>
-      <c r="O134">
-        <v>4</v>
-      </c>
-      <c r="P134">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L134" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" s="1">
         <v>19</v>
       </c>
-      <c r="L135">
-        <v>15046</v>
-      </c>
-      <c r="M135" t="s">
-        <v>440</v>
-      </c>
-      <c r="N135">
-        <v>1</v>
-      </c>
-      <c r="O135">
-        <v>3.5</v>
-      </c>
-      <c r="P135">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L135" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" s="1">
         <v>20</v>
       </c>
-      <c r="L136">
-        <v>15031</v>
-      </c>
-      <c r="M136" t="s">
-        <v>440</v>
-      </c>
-      <c r="N136">
-        <v>1</v>
-      </c>
-      <c r="O136">
-        <v>3</v>
-      </c>
-      <c r="P136">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L136" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" s="1">
         <v>21</v>
       </c>
-      <c r="L137">
-        <v>15034</v>
-      </c>
-      <c r="M137" t="s">
-        <v>440</v>
-      </c>
-      <c r="N137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L137" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138" s="1">
         <v>22</v>
       </c>
-      <c r="L138">
-        <v>15110</v>
-      </c>
-      <c r="M138" t="s">
-        <v>440</v>
-      </c>
-      <c r="N138">
-        <v>1</v>
-      </c>
-      <c r="O138">
-        <v>1</v>
-      </c>
-      <c r="P138">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L138" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139" s="1">
         <v>23</v>
       </c>
-      <c r="L139">
-        <v>15035</v>
-      </c>
-      <c r="M139" t="s">
-        <v>440</v>
-      </c>
-      <c r="N139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L139" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140" s="1">
         <v>24</v>
       </c>
-      <c r="L140">
-        <v>15112</v>
-      </c>
-      <c r="M140" t="s">
-        <v>440</v>
-      </c>
-      <c r="N140">
-        <v>1</v>
-      </c>
-      <c r="O140">
-        <v>4</v>
-      </c>
-      <c r="P140">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L140" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141" s="1">
         <v>25</v>
       </c>
-      <c r="L141">
-        <v>15037</v>
-      </c>
-      <c r="M141" t="s">
-        <v>440</v>
-      </c>
-      <c r="N141">
-        <v>12</v>
-      </c>
-      <c r="O141">
-        <v>3.875</v>
-      </c>
-      <c r="P141">
-        <v>11.75</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L141" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142" s="1">
         <v>26</v>
       </c>
-      <c r="L142">
-        <v>15332</v>
-      </c>
-      <c r="M142" t="s">
-        <v>440</v>
-      </c>
-      <c r="N142">
-        <v>2</v>
-      </c>
-      <c r="O142">
-        <v>2.75</v>
-      </c>
-      <c r="P142">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L142" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
       <c r="A143" s="1">
         <v>27</v>
       </c>
-      <c r="L143">
-        <v>15044</v>
-      </c>
-      <c r="M143" t="s">
-        <v>440</v>
-      </c>
-      <c r="N143">
-        <v>12</v>
-      </c>
-      <c r="O143">
-        <v>3.083333333333333</v>
-      </c>
-      <c r="P143">
-        <v>30.333333333333329</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L143" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
       <c r="A144" s="1">
         <v>28</v>
       </c>
-      <c r="L144">
-        <v>15045</v>
-      </c>
-      <c r="M144" t="s">
-        <v>440</v>
-      </c>
-      <c r="N144">
-        <v>1</v>
-      </c>
-      <c r="O144">
-        <v>4</v>
-      </c>
-      <c r="P144">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L144" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
       <c r="A145" s="1">
         <v>29</v>
       </c>
-      <c r="L145">
-        <v>15116</v>
-      </c>
-      <c r="M145" t="s">
-        <v>440</v>
-      </c>
-      <c r="N145">
-        <v>6</v>
-      </c>
-      <c r="O145">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="P145">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L145" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
       <c r="A146" s="1">
         <v>30</v>
       </c>
-      <c r="L146">
-        <v>15047</v>
-      </c>
-      <c r="M146" t="s">
-        <v>440</v>
-      </c>
-      <c r="N146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L146" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
       <c r="A147" s="1">
         <v>31</v>
       </c>
-      <c r="L147">
-        <v>15049</v>
-      </c>
-      <c r="M147" t="s">
-        <v>440</v>
-      </c>
-      <c r="N147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L147" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
       <c r="A148" s="1">
         <v>32</v>
       </c>
-      <c r="L148">
-        <v>15120</v>
-      </c>
-      <c r="M148" t="s">
-        <v>440</v>
-      </c>
-      <c r="N148">
-        <v>21</v>
-      </c>
-      <c r="O148">
-        <v>3.2619047619047619</v>
-      </c>
-      <c r="P148">
-        <v>107.4285714285714</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L148" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
       <c r="A149" s="1">
         <v>33</v>
       </c>
-      <c r="L149">
-        <v>15126</v>
-      </c>
-      <c r="M149" t="s">
-        <v>440</v>
-      </c>
-      <c r="N149">
-        <v>4</v>
-      </c>
-      <c r="O149">
-        <v>4.125</v>
-      </c>
-      <c r="P149">
-        <v>16.25</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L149" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
       <c r="A150" s="1">
         <v>34</v>
       </c>
-      <c r="L150">
-        <v>15051</v>
-      </c>
-      <c r="M150" t="s">
-        <v>440</v>
-      </c>
-      <c r="N150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L150" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
       <c r="A151" s="1">
         <v>35</v>
       </c>
-      <c r="L151">
-        <v>15642</v>
-      </c>
-      <c r="M151" t="s">
-        <v>440</v>
-      </c>
-      <c r="N151">
-        <v>20</v>
-      </c>
-      <c r="O151">
-        <v>3.55</v>
-      </c>
-      <c r="P151">
-        <v>23.05</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L151" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
       <c r="A152" s="1">
         <v>36</v>
       </c>
-      <c r="L152">
-        <v>15056</v>
-      </c>
-      <c r="M152" t="s">
-        <v>440</v>
-      </c>
-      <c r="N152">
-        <v>2</v>
-      </c>
-      <c r="O152">
-        <v>4</v>
-      </c>
-      <c r="P152">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L152" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
       <c r="A153" s="1">
         <v>37</v>
       </c>
-      <c r="L153">
-        <v>16046</v>
-      </c>
-      <c r="M153" t="s">
-        <v>440</v>
-      </c>
-      <c r="N153">
-        <v>12</v>
-      </c>
-      <c r="O153">
-        <v>3.5</v>
-      </c>
-      <c r="P153">
-        <v>80.75</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L153" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
       <c r="A154" s="1">
         <v>38</v>
       </c>
-      <c r="L154">
-        <v>15057</v>
-      </c>
-      <c r="M154" t="s">
-        <v>440</v>
-      </c>
-      <c r="N154">
-        <v>3</v>
-      </c>
-      <c r="O154">
-        <v>3.166666666666667</v>
-      </c>
-      <c r="P154">
-        <v>4.666666666666667</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L154" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
       <c r="A155" s="1">
         <v>39</v>
       </c>
-      <c r="L155">
-        <v>15136</v>
-      </c>
-      <c r="M155" t="s">
-        <v>440</v>
-      </c>
-      <c r="N155">
-        <v>10</v>
-      </c>
-      <c r="O155">
-        <v>3.75</v>
-      </c>
-      <c r="P155">
-        <v>28.9</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L155" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
       <c r="A156" s="1">
         <v>40</v>
       </c>
-      <c r="L156">
-        <v>15131</v>
-      </c>
-      <c r="M156" t="s">
-        <v>440</v>
-      </c>
-      <c r="N156">
-        <v>3</v>
-      </c>
-      <c r="O156">
-        <v>3</v>
-      </c>
-      <c r="P156">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L156" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
       <c r="A157" s="1">
         <v>41</v>
       </c>
-      <c r="L157">
-        <v>15132</v>
-      </c>
-      <c r="M157" t="s">
-        <v>440</v>
-      </c>
-      <c r="N157">
-        <v>5</v>
-      </c>
-      <c r="O157">
-        <v>2.8</v>
-      </c>
-      <c r="P157">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L157" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
       <c r="A158" s="1">
         <v>42</v>
       </c>
-      <c r="L158">
-        <v>15133</v>
-      </c>
-      <c r="M158" t="s">
-        <v>440</v>
-      </c>
-      <c r="N158">
-        <v>2</v>
-      </c>
-      <c r="O158">
-        <v>4.5</v>
-      </c>
-      <c r="P158">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L158" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
       <c r="A159" s="1">
         <v>43</v>
       </c>
-      <c r="L159">
-        <v>15135</v>
-      </c>
-      <c r="M159" t="s">
-        <v>440</v>
-      </c>
-      <c r="N159">
-        <v>2</v>
-      </c>
-      <c r="O159">
-        <v>3.75</v>
-      </c>
-      <c r="P159">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L159" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
       <c r="A160" s="1">
         <v>44</v>
       </c>
-      <c r="L160">
-        <v>15063</v>
-      </c>
-      <c r="M160" t="s">
-        <v>440</v>
-      </c>
-      <c r="N160">
-        <v>5</v>
-      </c>
-      <c r="O160">
-        <v>3.7</v>
-      </c>
-      <c r="P160">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L160" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
       <c r="A161" s="1">
         <v>45</v>
       </c>
-      <c r="L161">
-        <v>15146</v>
-      </c>
-      <c r="M161" t="s">
-        <v>440</v>
-      </c>
-      <c r="N161">
-        <v>35</v>
-      </c>
-      <c r="O161">
-        <v>3.4</v>
-      </c>
-      <c r="P161">
-        <v>54.2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L161" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
       <c r="A162" s="1">
         <v>46</v>
       </c>
-      <c r="L162">
-        <v>15064</v>
-      </c>
-      <c r="M162" t="s">
-        <v>440</v>
-      </c>
-      <c r="N162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L162" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
       <c r="A163" s="1">
         <v>47</v>
       </c>
-      <c r="L163">
-        <v>15668</v>
-      </c>
-      <c r="M163" t="s">
-        <v>440</v>
-      </c>
-      <c r="N163">
-        <v>15</v>
-      </c>
-      <c r="O163">
-        <v>3.7333333333333329</v>
-      </c>
-      <c r="P163">
-        <v>49.06666666666667</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L163" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
       <c r="A164" s="1">
         <v>48</v>
       </c>
-      <c r="L164">
-        <v>15065</v>
-      </c>
-      <c r="M164" t="s">
-        <v>440</v>
-      </c>
-      <c r="N164">
-        <v>7</v>
-      </c>
-      <c r="O164">
-        <v>3.5714285714285721</v>
-      </c>
-      <c r="P164">
-        <v>9.8571428571428577</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L164" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
       <c r="A165" s="1">
         <v>49</v>
       </c>
-      <c r="L165">
-        <v>15068</v>
-      </c>
-      <c r="M165" t="s">
-        <v>440</v>
-      </c>
-      <c r="N165">
-        <v>19</v>
-      </c>
-      <c r="O165">
-        <v>3.5</v>
-      </c>
-      <c r="P165">
-        <v>11.631578947368419</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L165" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
       <c r="A166" s="1">
         <v>50</v>
       </c>
-      <c r="L166">
-        <v>15137</v>
-      </c>
-      <c r="M166" t="s">
-        <v>440</v>
-      </c>
-      <c r="N166">
-        <v>9</v>
-      </c>
-      <c r="O166">
-        <v>3.1111111111111112</v>
-      </c>
-      <c r="P166">
-        <v>15.666666666666661</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L166" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
       <c r="A167" s="1">
         <v>51</v>
       </c>
-      <c r="L167">
-        <v>15071</v>
-      </c>
-      <c r="M167" t="s">
-        <v>440</v>
-      </c>
-      <c r="N167">
-        <v>8</v>
-      </c>
-      <c r="O167">
-        <v>3.6875</v>
-      </c>
-      <c r="P167">
-        <v>16.375</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L167" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
       <c r="A168" s="1">
         <v>52</v>
       </c>
-      <c r="L168">
-        <v>15139</v>
-      </c>
-      <c r="M168" t="s">
-        <v>440</v>
-      </c>
-      <c r="N168">
-        <v>9</v>
-      </c>
-      <c r="O168">
-        <v>3.6111111111111112</v>
-      </c>
-      <c r="P168">
-        <v>51.444444444444443</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L168" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
       <c r="A169" s="1">
         <v>53</v>
       </c>
-      <c r="L169">
-        <v>15140</v>
-      </c>
-      <c r="M169" t="s">
-        <v>440</v>
-      </c>
-      <c r="N169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L169" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
       <c r="A170" s="1">
         <v>54</v>
       </c>
-      <c r="L170">
-        <v>15201</v>
-      </c>
-      <c r="M170" t="s">
-        <v>440</v>
-      </c>
-      <c r="N170">
-        <v>25</v>
-      </c>
-      <c r="O170">
-        <v>3.76</v>
-      </c>
-      <c r="P170">
-        <v>188.48</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L170" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
       <c r="A171" s="1">
         <v>55</v>
       </c>
-      <c r="L171">
-        <v>15202</v>
-      </c>
-      <c r="M171" t="s">
-        <v>440</v>
-      </c>
-      <c r="N171">
-        <v>20</v>
-      </c>
-      <c r="O171">
-        <v>3.65</v>
-      </c>
-      <c r="P171">
-        <v>38.15</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L171" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
       <c r="A172" s="1">
         <v>56</v>
       </c>
-      <c r="L172">
-        <v>15203</v>
-      </c>
-      <c r="M172" t="s">
-        <v>440</v>
-      </c>
-      <c r="N172">
-        <v>42</v>
-      </c>
-      <c r="O172">
-        <v>3.8690476190476191</v>
-      </c>
-      <c r="P172">
-        <v>144.3095238095238</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L172" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
       <c r="A173" s="1">
         <v>57</v>
       </c>
-      <c r="L173">
-        <v>15204</v>
-      </c>
-      <c r="M173" t="s">
-        <v>440</v>
-      </c>
-      <c r="N173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L173" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
       <c r="A174" s="1">
         <v>58</v>
       </c>
-      <c r="L174">
-        <v>15205</v>
-      </c>
-      <c r="M174" t="s">
-        <v>440</v>
-      </c>
-      <c r="N174">
-        <v>21</v>
-      </c>
-      <c r="O174">
-        <v>3.6904761904761911</v>
-      </c>
-      <c r="P174">
-        <v>97.571428571428569</v>
-      </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L174" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
       <c r="A175" s="1">
         <v>59</v>
       </c>
-      <c r="L175">
-        <v>15206</v>
-      </c>
-      <c r="M175" t="s">
-        <v>440</v>
-      </c>
-      <c r="N175">
-        <v>24</v>
-      </c>
-      <c r="O175">
-        <v>3.770833333333333</v>
-      </c>
-      <c r="P175">
-        <v>195.7916666666666</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L175" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
       <c r="A176" s="1">
         <v>60</v>
       </c>
-      <c r="L176">
-        <v>15207</v>
-      </c>
-      <c r="M176" t="s">
-        <v>440</v>
-      </c>
-      <c r="N176">
-        <v>3</v>
-      </c>
-      <c r="O176">
-        <v>3.833333333333333</v>
-      </c>
-      <c r="P176">
-        <v>65.333333333333329</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L176" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
       <c r="A177" s="1">
         <v>61</v>
       </c>
-      <c r="L177">
-        <v>15208</v>
-      </c>
-      <c r="M177" t="s">
-        <v>440</v>
-      </c>
-      <c r="N177">
-        <v>3</v>
-      </c>
-      <c r="O177">
-        <v>4</v>
-      </c>
-      <c r="P177">
-        <v>37.333333333333343</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L177" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
       <c r="A178" s="1">
         <v>62</v>
       </c>
-      <c r="L178">
-        <v>15209</v>
-      </c>
-      <c r="M178" t="s">
-        <v>440</v>
-      </c>
-      <c r="N178">
-        <v>8</v>
-      </c>
-      <c r="O178">
-        <v>3.75</v>
-      </c>
-      <c r="P178">
-        <v>40.875</v>
-      </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L178" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
       <c r="A179" s="1">
         <v>63</v>
       </c>
-      <c r="L179">
-        <v>15210</v>
-      </c>
-      <c r="M179" t="s">
-        <v>440</v>
-      </c>
-      <c r="N179">
-        <v>6</v>
-      </c>
-      <c r="O179">
-        <v>3.416666666666667</v>
-      </c>
-      <c r="P179">
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L179" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
       <c r="A180" s="1">
         <v>64</v>
       </c>
-      <c r="L180">
-        <v>15211</v>
-      </c>
-      <c r="M180" t="s">
-        <v>440</v>
-      </c>
-      <c r="N180">
-        <v>7</v>
-      </c>
-      <c r="O180">
-        <v>4.0714285714285712</v>
-      </c>
-      <c r="P180">
-        <v>254.1428571428572</v>
-      </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L180" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
       <c r="A181" s="1">
         <v>65</v>
       </c>
-      <c r="L181">
-        <v>15212</v>
-      </c>
-      <c r="M181" t="s">
-        <v>440</v>
-      </c>
-      <c r="N181">
-        <v>17</v>
-      </c>
-      <c r="O181">
-        <v>3.9117647058823528</v>
-      </c>
-      <c r="P181">
-        <v>48.235294117647072</v>
-      </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L181" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
       <c r="A182" s="1">
         <v>66</v>
       </c>
-      <c r="L182">
-        <v>15213</v>
-      </c>
-      <c r="M182" t="s">
-        <v>440</v>
-      </c>
-      <c r="N182">
-        <v>45</v>
-      </c>
-      <c r="O182">
-        <v>3.655555555555555</v>
-      </c>
-      <c r="P182">
-        <v>131.17777777777781</v>
-      </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L182" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
       <c r="A183" s="1">
         <v>67</v>
       </c>
-      <c r="L183">
-        <v>15214</v>
-      </c>
-      <c r="M183" t="s">
-        <v>440</v>
-      </c>
-      <c r="N183">
-        <v>1</v>
-      </c>
-      <c r="O183">
-        <v>5</v>
-      </c>
-      <c r="P183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L183" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
       <c r="A184" s="1">
         <v>68</v>
       </c>
-      <c r="L184">
-        <v>15215</v>
-      </c>
-      <c r="M184" t="s">
-        <v>440</v>
-      </c>
-      <c r="N184">
-        <v>8</v>
-      </c>
-      <c r="O184">
-        <v>3.0625</v>
-      </c>
-      <c r="P184">
-        <v>42.25</v>
-      </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L184" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
       <c r="A185" s="1">
         <v>69</v>
       </c>
-      <c r="L185">
-        <v>15216</v>
-      </c>
-      <c r="M185" t="s">
-        <v>440</v>
-      </c>
-      <c r="N185">
-        <v>25</v>
-      </c>
-      <c r="O185">
-        <v>3.46</v>
-      </c>
-      <c r="P185">
-        <v>76.72</v>
-      </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L185" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
       <c r="A186" s="1">
         <v>70</v>
       </c>
-      <c r="L186">
-        <v>15217</v>
-      </c>
-      <c r="M186" t="s">
-        <v>440</v>
-      </c>
-      <c r="N186">
-        <v>33</v>
-      </c>
-      <c r="O186">
-        <v>3.7121212121212119</v>
-      </c>
-      <c r="P186">
-        <v>161.030303030303</v>
-      </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L186" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
       <c r="A187" s="1">
         <v>71</v>
       </c>
-      <c r="L187">
-        <v>15218</v>
-      </c>
-      <c r="M187" t="s">
-        <v>440</v>
-      </c>
-      <c r="N187">
-        <v>12</v>
-      </c>
-      <c r="O187">
-        <v>3.791666666666667</v>
-      </c>
-      <c r="P187">
-        <v>100.4166666666667</v>
-      </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L187" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
       <c r="A188" s="1">
         <v>72</v>
       </c>
-      <c r="L188">
-        <v>15219</v>
-      </c>
-      <c r="M188" t="s">
-        <v>440</v>
-      </c>
-      <c r="N188">
-        <v>23</v>
-      </c>
-      <c r="O188">
-        <v>3.847826086956522</v>
-      </c>
-      <c r="P188">
-        <v>79.826086956521735</v>
-      </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L188" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
       <c r="A189" s="1">
         <v>73</v>
       </c>
-      <c r="L189">
-        <v>15220</v>
-      </c>
-      <c r="M189" t="s">
-        <v>440</v>
-      </c>
-      <c r="N189">
-        <v>12</v>
-      </c>
-      <c r="O189">
-        <v>3.791666666666667</v>
-      </c>
-      <c r="P189">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L189" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
       <c r="A190" s="1">
         <v>74</v>
       </c>
-      <c r="L190">
-        <v>15221</v>
-      </c>
-      <c r="M190" t="s">
-        <v>440</v>
-      </c>
-      <c r="N190">
-        <v>4</v>
-      </c>
-      <c r="O190">
-        <v>3.875</v>
-      </c>
-      <c r="P190">
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L190" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
       <c r="A191" s="1">
         <v>75</v>
       </c>
-      <c r="L191">
-        <v>15222</v>
-      </c>
-      <c r="M191" t="s">
-        <v>440</v>
-      </c>
-      <c r="N191">
-        <v>57</v>
-      </c>
-      <c r="O191">
-        <v>3.8771929824561409</v>
-      </c>
-      <c r="P191">
-        <v>250.98245614035091</v>
-      </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L191" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
       <c r="A192" s="1">
         <v>76</v>
       </c>
-      <c r="L192">
-        <v>15223</v>
-      </c>
-      <c r="M192" t="s">
-        <v>440</v>
-      </c>
-      <c r="N192">
-        <v>7</v>
-      </c>
-      <c r="O192">
-        <v>3.4285714285714279</v>
-      </c>
-      <c r="P192">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L192" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
       <c r="A193" s="1">
         <v>77</v>
       </c>
-      <c r="L193">
-        <v>15224</v>
-      </c>
-      <c r="M193" t="s">
-        <v>440</v>
-      </c>
-      <c r="N193">
-        <v>27</v>
-      </c>
-      <c r="O193">
-        <v>3.7962962962962958</v>
-      </c>
-      <c r="P193">
-        <v>118.14814814814819</v>
-      </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L193" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
       <c r="A194" s="1">
         <v>78</v>
       </c>
-      <c r="L194">
-        <v>15225</v>
-      </c>
-      <c r="M194" t="s">
-        <v>440</v>
-      </c>
-      <c r="N194">
-        <v>2</v>
-      </c>
-      <c r="O194">
-        <v>3.25</v>
-      </c>
-      <c r="P194">
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L194" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
       <c r="A195" s="1">
         <v>79</v>
       </c>
-      <c r="L195">
-        <v>15226</v>
-      </c>
-      <c r="M195" t="s">
-        <v>440</v>
-      </c>
-      <c r="N195">
-        <v>9</v>
-      </c>
-      <c r="O195">
-        <v>3.6111111111111112</v>
-      </c>
-      <c r="P195">
-        <v>42.777777777777779</v>
-      </c>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L195" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
       <c r="A196" s="1">
         <v>80</v>
       </c>
-      <c r="L196">
-        <v>15227</v>
-      </c>
-      <c r="M196" t="s">
-        <v>440</v>
-      </c>
-      <c r="N196">
-        <v>7</v>
-      </c>
-      <c r="O196">
-        <v>3.4285714285714279</v>
-      </c>
-      <c r="P196">
-        <v>23.428571428571431</v>
-      </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L196" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
       <c r="A197" s="1">
         <v>81</v>
       </c>
-      <c r="L197">
-        <v>15228</v>
-      </c>
-      <c r="M197" t="s">
-        <v>440</v>
-      </c>
-      <c r="N197">
-        <v>14</v>
-      </c>
-      <c r="O197">
-        <v>3.9285714285714288</v>
-      </c>
-      <c r="P197">
-        <v>127.78571428571431</v>
-      </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L197" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
       <c r="A198" s="1">
         <v>82</v>
       </c>
-      <c r="L198">
-        <v>15229</v>
-      </c>
-      <c r="M198" t="s">
-        <v>440</v>
-      </c>
-      <c r="N198">
-        <v>4</v>
-      </c>
-      <c r="O198">
-        <v>4.5</v>
-      </c>
-      <c r="P198">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L198" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
       <c r="A199" s="1">
         <v>83</v>
       </c>
-      <c r="L199">
-        <v>15232</v>
-      </c>
-      <c r="M199" t="s">
-        <v>440</v>
-      </c>
-      <c r="N199">
-        <v>23</v>
-      </c>
-      <c r="O199">
-        <v>3.7173913043478262</v>
-      </c>
-      <c r="P199">
-        <v>142.47826086956519</v>
-      </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L199" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
       <c r="A200" s="1">
         <v>84</v>
       </c>
-      <c r="L200">
-        <v>15233</v>
-      </c>
-      <c r="M200" t="s">
-        <v>440</v>
-      </c>
-      <c r="N200">
-        <v>5</v>
-      </c>
-      <c r="O200">
-        <v>4.2</v>
-      </c>
-      <c r="P200">
-        <v>165.2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L200" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
       <c r="A201" s="1">
         <v>85</v>
       </c>
-      <c r="L201">
-        <v>15234</v>
-      </c>
-      <c r="M201" t="s">
-        <v>440</v>
-      </c>
-      <c r="N201">
-        <v>17</v>
-      </c>
-      <c r="O201">
-        <v>3.4705882352941182</v>
-      </c>
-      <c r="P201">
-        <v>50.647058823529413</v>
-      </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L201" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
       <c r="A202" s="1">
         <v>86</v>
       </c>
-      <c r="L202">
-        <v>15235</v>
-      </c>
-      <c r="M202" t="s">
-        <v>440</v>
-      </c>
-      <c r="N202">
-        <v>13</v>
-      </c>
-      <c r="O202">
-        <v>3.884615384615385</v>
-      </c>
-      <c r="P202">
-        <v>53.615384615384613</v>
-      </c>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L202" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12">
       <c r="A203" s="1">
         <v>87</v>
       </c>
-      <c r="L203">
-        <v>15236</v>
-      </c>
-      <c r="M203" t="s">
-        <v>440</v>
-      </c>
-      <c r="N203">
-        <v>22</v>
-      </c>
-      <c r="O203">
-        <v>3.5681818181818179</v>
-      </c>
-      <c r="P203">
-        <v>47.409090909090907</v>
-      </c>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L203" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12">
       <c r="A204" s="1">
         <v>88</v>
       </c>
-      <c r="L204">
-        <v>15237</v>
-      </c>
-      <c r="M204" t="s">
-        <v>440</v>
-      </c>
-      <c r="N204">
-        <v>38</v>
-      </c>
-      <c r="O204">
-        <v>3.4078947368421049</v>
-      </c>
-      <c r="P204">
-        <v>76.89473684210526</v>
-      </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L204" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
       <c r="A205" s="1">
         <v>89</v>
       </c>
-      <c r="L205">
-        <v>15238</v>
-      </c>
-      <c r="M205" t="s">
-        <v>440</v>
-      </c>
-      <c r="N205">
-        <v>21</v>
-      </c>
-      <c r="O205">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="P205">
-        <v>33.809523809523803</v>
-      </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L205" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
       <c r="A206" s="1">
         <v>90</v>
       </c>
-      <c r="L206">
-        <v>15239</v>
-      </c>
-      <c r="M206" t="s">
-        <v>440</v>
-      </c>
-      <c r="N206">
-        <v>8</v>
-      </c>
-      <c r="O206">
-        <v>3.25</v>
-      </c>
-      <c r="P206">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L206" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
       <c r="A207" s="1">
         <v>91</v>
       </c>
-      <c r="L207">
-        <v>15241</v>
-      </c>
-      <c r="M207" t="s">
-        <v>440</v>
-      </c>
-      <c r="N207">
-        <v>14</v>
-      </c>
-      <c r="O207">
-        <v>3.035714285714286</v>
-      </c>
-      <c r="P207">
-        <v>52.642857142857139</v>
-      </c>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L207" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
       <c r="A208" s="1">
         <v>92</v>
       </c>
-      <c r="L208">
-        <v>15243</v>
-      </c>
-      <c r="M208" t="s">
-        <v>440</v>
-      </c>
-      <c r="N208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L208" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12">
       <c r="A209" s="1">
         <v>93</v>
       </c>
-      <c r="L209">
-        <v>15260</v>
-      </c>
-      <c r="M209" t="s">
-        <v>440</v>
-      </c>
-      <c r="N209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L209" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12">
       <c r="A210" s="1">
         <v>94</v>
       </c>
-      <c r="L210">
-        <v>15290</v>
-      </c>
-      <c r="M210" t="s">
-        <v>440</v>
-      </c>
-      <c r="N210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L210" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12">
       <c r="A211" s="1">
         <v>95</v>
       </c>
-      <c r="L211">
-        <v>15142</v>
-      </c>
-      <c r="M211" t="s">
-        <v>440</v>
-      </c>
-      <c r="N211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L211" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12">
       <c r="A212" s="1">
         <v>96</v>
       </c>
-      <c r="L212">
-        <v>15075</v>
-      </c>
-      <c r="M212" t="s">
-        <v>440</v>
-      </c>
-      <c r="N212">
-        <v>1</v>
-      </c>
-      <c r="O212">
-        <v>5</v>
-      </c>
-      <c r="P212">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L212" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12">
       <c r="A213" s="1">
         <v>97</v>
       </c>
-      <c r="L213">
-        <v>15076</v>
-      </c>
-      <c r="M213" t="s">
-        <v>440</v>
-      </c>
-      <c r="N213">
-        <v>2</v>
-      </c>
-      <c r="O213">
-        <v>4.75</v>
-      </c>
-      <c r="P213">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L213" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12">
       <c r="A214" s="1">
         <v>98</v>
       </c>
-      <c r="L214">
-        <v>16055</v>
-      </c>
-      <c r="M214" t="s">
-        <v>440</v>
-      </c>
-      <c r="N214">
-        <v>8</v>
-      </c>
-      <c r="O214">
-        <v>3.125</v>
-      </c>
-      <c r="P214">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L214" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12">
       <c r="A215" s="1">
         <v>99</v>
       </c>
-      <c r="L215">
-        <v>15143</v>
-      </c>
-      <c r="M215" t="s">
-        <v>440</v>
-      </c>
-      <c r="N215">
-        <v>12</v>
-      </c>
-      <c r="O215">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="P215">
-        <v>49.166666666666657</v>
-      </c>
-    </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L215" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12">
       <c r="A216" s="1">
         <v>100</v>
       </c>
-      <c r="L216">
-        <v>15129</v>
-      </c>
-      <c r="M216" t="s">
-        <v>440</v>
-      </c>
-      <c r="N216">
-        <v>4</v>
-      </c>
-      <c r="O216">
-        <v>3.375</v>
-      </c>
-      <c r="P216">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L216" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12">
       <c r="A217" s="1">
         <v>101</v>
       </c>
-      <c r="L217">
-        <v>15144</v>
-      </c>
-      <c r="M217" t="s">
-        <v>440</v>
-      </c>
-      <c r="N217">
-        <v>4</v>
-      </c>
-      <c r="O217">
-        <v>4.25</v>
-      </c>
-      <c r="P217">
-        <v>45.25</v>
-      </c>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L217" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12">
       <c r="A218" s="1">
         <v>102</v>
       </c>
-      <c r="L218">
-        <v>15082</v>
-      </c>
-      <c r="M218" t="s">
-        <v>440</v>
-      </c>
-      <c r="N218">
-        <v>1</v>
-      </c>
-      <c r="O218">
-        <v>4.5</v>
-      </c>
-      <c r="P218">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L218" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12">
       <c r="A219" s="1">
         <v>103</v>
       </c>
-      <c r="L219">
-        <v>15084</v>
-      </c>
-      <c r="M219" t="s">
-        <v>440</v>
-      </c>
-      <c r="N219">
-        <v>14</v>
-      </c>
-      <c r="O219">
-        <v>3.3571428571428572</v>
-      </c>
-      <c r="P219">
-        <v>18.785714285714281</v>
-      </c>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L219" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12">
       <c r="A220" s="1">
         <v>104</v>
       </c>
-      <c r="L220">
-        <v>15085</v>
-      </c>
-      <c r="M220" t="s">
-        <v>440</v>
-      </c>
-      <c r="N220">
-        <v>1</v>
-      </c>
-      <c r="O220">
-        <v>4.5</v>
-      </c>
-      <c r="P220">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L220" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12">
       <c r="A221" s="1">
         <v>105</v>
       </c>
-      <c r="L221">
-        <v>15145</v>
-      </c>
-      <c r="M221" t="s">
-        <v>440</v>
-      </c>
-      <c r="N221">
-        <v>4</v>
-      </c>
-      <c r="O221">
-        <v>3.875</v>
-      </c>
-      <c r="P221">
-        <v>31.5</v>
-      </c>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L221" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12">
       <c r="A222" s="1">
         <v>106</v>
       </c>
-      <c r="L222">
-        <v>16059</v>
-      </c>
-      <c r="M222" t="s">
-        <v>440</v>
-      </c>
-      <c r="N222">
-        <v>1</v>
-      </c>
-      <c r="O222">
-        <v>2.5</v>
-      </c>
-      <c r="P222">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L222" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12">
       <c r="A223" s="1">
         <v>107</v>
       </c>
-      <c r="L223">
-        <v>15147</v>
-      </c>
-      <c r="M223" t="s">
-        <v>440</v>
-      </c>
-      <c r="N223">
-        <v>3</v>
-      </c>
-      <c r="O223">
-        <v>4</v>
-      </c>
-      <c r="P223">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L223" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12">
       <c r="A224" s="1">
         <v>108</v>
       </c>
-      <c r="L224">
-        <v>15086</v>
-      </c>
-      <c r="M224" t="s">
-        <v>440</v>
-      </c>
-      <c r="N224">
-        <v>4</v>
-      </c>
-      <c r="O224">
-        <v>3.875</v>
-      </c>
-      <c r="P224">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L224" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12">
       <c r="A225" s="1">
         <v>109</v>
       </c>
-      <c r="L225">
-        <v>15088</v>
-      </c>
-      <c r="M225" t="s">
-        <v>440</v>
-      </c>
-      <c r="N225">
-        <v>2</v>
-      </c>
-      <c r="O225">
-        <v>4.5</v>
-      </c>
-      <c r="P225">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L225" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12">
       <c r="A226" s="1">
         <v>110</v>
       </c>
-      <c r="L226">
-        <v>15122</v>
-      </c>
-      <c r="M226" t="s">
-        <v>440</v>
-      </c>
-      <c r="N226">
-        <v>11</v>
-      </c>
-      <c r="O226">
-        <v>3.3636363636363642</v>
-      </c>
-      <c r="P226">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L226" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12">
       <c r="A227" s="1">
         <v>111</v>
       </c>
-      <c r="L227">
-        <v>15089</v>
-      </c>
-      <c r="M227" t="s">
-        <v>440</v>
-      </c>
-      <c r="N227">
-        <v>2</v>
-      </c>
-      <c r="O227">
-        <v>4</v>
-      </c>
-      <c r="P227">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L227" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12">
       <c r="A228" s="1">
         <v>112</v>
       </c>
-      <c r="L228">
-        <v>15090</v>
-      </c>
-      <c r="M228" t="s">
-        <v>440</v>
-      </c>
-      <c r="N228">
-        <v>15</v>
-      </c>
-      <c r="O228">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="P228">
-        <v>68.2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="L228" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12">
       <c r="A229" s="1">
         <v>113</v>
       </c>
-      <c r="L229">
-        <v>15148</v>
-      </c>
-      <c r="M229" t="s">
-        <v>440</v>
-      </c>
-      <c r="N229">
-        <v>2</v>
-      </c>
-      <c r="O229">
-        <v>4.25</v>
-      </c>
-      <c r="P229">
-        <v>9.5</v>
+      <c r="L229" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajcai\OneDrive\Carnegie Mellon\95-888 Python\Final Project\Homi_clone2\Homi_DFP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_890EFFC55701AFDB30170B7F9B1EECD9502D3C5B" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{258B9E7B-FABF-4D23-B459-FEB34A6F2BED}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="440">
   <si>
     <t>medSale1Bed</t>
   </si>
@@ -46,7 +52,16 @@
     <t>NumApartments</t>
   </si>
   <si>
-    <t>zipcode</t>
+    <t>category</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>average_rating</t>
+  </si>
+  <si>
+    <t>average_review_count</t>
   </si>
   <si>
     <t>ASSAULT_CRIME</t>
@@ -1322,13 +1337,16 @@
   </si>
   <si>
     <t>154</t>
+  </si>
+  <si>
+    <t>All Restaurants</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1391,6 +1409,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1437,7 +1463,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1469,9 +1495,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1503,6 +1547,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1678,14 +1740,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q229"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116:XFD229"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1734,83 +1798,116 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>1011.380952380952</v>
+        <v>1010.181818181818</v>
       </c>
       <c r="J2">
-        <v>998.8181818181819</v>
+        <v>985.58333333333337</v>
       </c>
       <c r="K2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>439</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>3.75</v>
+      </c>
+      <c r="O2">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G3" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H3">
-        <v>2.137931034482758</v>
+        <v>2.0384615384615379</v>
       </c>
       <c r="I3">
-        <v>727.4324324324324</v>
+        <v>746.61764705882354</v>
       </c>
       <c r="J3">
         <v>1335</v>
       </c>
       <c r="K3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>439</v>
+      </c>
+      <c r="M3">
+        <v>8</v>
+      </c>
+      <c r="N3">
+        <v>3.9375</v>
+      </c>
+      <c r="O3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E4" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G4" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H4">
         <v>2.333333333333333</v>
@@ -1824,10 +1921,22 @@
       <c r="K4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="L4" t="s">
+        <v>439</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>3.25</v>
+      </c>
+      <c r="O4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>1.75</v>
@@ -1838,10 +1947,16 @@
       <c r="K5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="L5" t="s">
+        <v>439</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1852,57 +1967,75 @@
       <c r="K6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="L6" t="s">
+        <v>439</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H7">
-        <v>1.541666666666667</v>
+        <v>1.5166666666666671</v>
       </c>
       <c r="I7">
-        <v>967.3833333333333</v>
+        <v>964.8</v>
       </c>
       <c r="J7">
-        <v>978.9264705882352</v>
+        <v>967</v>
       </c>
       <c r="K7">
         <v>120</v>
       </c>
-      <c r="Q7">
+      <c r="L7" t="s">
+        <v>439</v>
+      </c>
+      <c r="M7">
+        <v>12</v>
+      </c>
+      <c r="N7">
+        <v>3.5</v>
+      </c>
+      <c r="O7">
+        <v>37.416666666666657</v>
+      </c>
+      <c r="T7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G8" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H8">
-        <v>2.157894736842105</v>
+        <v>2.1578947368421049</v>
       </c>
       <c r="I8">
         <v>670.2954545454545</v>
@@ -1913,16 +2046,28 @@
       <c r="K8">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="L8" t="s">
+        <v>439</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="O8">
+        <v>1.333333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H9">
         <v>2.375</v>
       </c>
       <c r="I9">
-        <v>755.5555555555555</v>
+        <v>755.55555555555554</v>
       </c>
       <c r="J9">
         <v>1140</v>
@@ -1930,31 +2075,43 @@
       <c r="K9">
         <v>21</v>
       </c>
+      <c r="L9" t="s">
+        <v>439</v>
+      </c>
       <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>4.25</v>
+      </c>
+      <c r="O9">
+        <v>85.75</v>
+      </c>
+      <c r="P9">
         <v>3</v>
       </c>
-      <c r="N9">
+      <c r="Q9">
         <v>2</v>
       </c>
-      <c r="O9">
+      <c r="R9">
         <v>2</v>
       </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="T9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E10" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G10" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H10">
         <v>2.5</v>
@@ -1968,42 +2125,60 @@
       <c r="K10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="L10" t="s">
+        <v>439</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E11" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G11" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H11">
-        <v>1.875</v>
+        <v>1.8235294117647061</v>
       </c>
       <c r="I11">
-        <v>936.25</v>
+        <v>925.29411764705878</v>
       </c>
       <c r="J11">
-        <v>1278.333333333333</v>
+        <v>1178</v>
       </c>
       <c r="K11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
+        <v>439</v>
+      </c>
+      <c r="M11">
+        <v>20</v>
+      </c>
+      <c r="N11">
+        <v>3.1</v>
+      </c>
+      <c r="O11">
+        <v>49.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -2014,74 +2189,104 @@
       <c r="K12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="L12" t="s">
+        <v>439</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="L13" t="s">
+        <v>439</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D14" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E14" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G14" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H14">
-        <v>2.556603773584906</v>
+        <v>2.5566037735849059</v>
       </c>
       <c r="I14">
-        <v>651.5877192982456</v>
+        <v>651.58771929824559</v>
       </c>
       <c r="J14">
-        <v>1113.941176470588</v>
+        <v>1113.9411764705881</v>
       </c>
       <c r="K14">
         <v>120</v>
       </c>
+      <c r="L14" t="s">
+        <v>439</v>
+      </c>
       <c r="M14">
+        <v>11</v>
+      </c>
+      <c r="N14">
+        <v>4.0909090909090908</v>
+      </c>
+      <c r="O14">
+        <v>102.09090909090909</v>
+      </c>
+      <c r="P14">
         <v>3</v>
       </c>
-      <c r="N14">
+      <c r="Q14">
         <v>3</v>
       </c>
-      <c r="P14">
+      <c r="S14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D15" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E15" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G15" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H15">
         <v>2.285714285714286</v>
       </c>
       <c r="I15">
-        <v>842.8571428571429</v>
+        <v>842.85714285714289</v>
       </c>
       <c r="J15">
         <v>1625</v>
@@ -2089,22 +2294,34 @@
       <c r="K15">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="L15" t="s">
+        <v>439</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1.5</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E16" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H16">
-        <v>2.066666666666667</v>
+        <v>2.0666666666666669</v>
       </c>
       <c r="I16">
-        <v>739.843137254902</v>
+        <v>739.84313725490199</v>
       </c>
       <c r="J16">
         <v>917.8</v>
@@ -2112,19 +2329,31 @@
       <c r="K16">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="L16" t="s">
+        <v>439</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>3.6</v>
+      </c>
+      <c r="O16">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E17" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G17" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H17">
         <v>3.666666666666667</v>
@@ -2138,51 +2367,75 @@
       <c r="K17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="L17" t="s">
+        <v>439</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D18" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E18" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F18" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G18" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H18">
-        <v>1.563636363636364</v>
+        <v>1.554545454545454</v>
       </c>
       <c r="I18">
-        <v>819.8389830508474</v>
+        <v>816.02542372881351</v>
       </c>
       <c r="J18">
-        <v>849.26</v>
+        <v>845.16326530612241</v>
       </c>
       <c r="K18">
         <v>120</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="L18" t="s">
+        <v>439</v>
+      </c>
+      <c r="M18">
+        <v>21</v>
+      </c>
+      <c r="N18">
+        <v>3.714285714285714</v>
+      </c>
+      <c r="O18">
+        <v>50.571428571428569</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H19">
         <v>2.193548387096774</v>
       </c>
       <c r="I19">
-        <v>924.6764705882352</v>
+        <v>924.67647058823525</v>
       </c>
       <c r="J19">
         <v>1322.75</v>
@@ -2190,13 +2443,19 @@
       <c r="K19">
         <v>34</v>
       </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="L19" t="s">
+        <v>439</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H20">
         <v>1.538461538461539</v>
@@ -2210,22 +2469,34 @@
       <c r="K20">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="L20" t="s">
+        <v>439</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D21" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E21" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G21" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H21">
         <v>2.666666666666667</v>
@@ -2239,10 +2510,22 @@
       <c r="K21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="L21" t="s">
+        <v>439</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>3.5</v>
+      </c>
+      <c r="O21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2256,19 +2539,31 @@
       <c r="K22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="L22" t="s">
+        <v>439</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G23" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="H23">
-        <v>2.777777777777778</v>
+        <v>2.7777777777777781</v>
       </c>
       <c r="I23">
         <v>909</v>
@@ -2279,13 +2574,19 @@
       <c r="K23">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="L23" t="s">
+        <v>439</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H24">
-        <v>1.823529411764706</v>
+        <v>1.8235294117647061</v>
       </c>
       <c r="I24">
         <v>514.1</v>
@@ -2296,25 +2597,37 @@
       <c r="K24">
         <v>24</v>
       </c>
+      <c r="L24" t="s">
+        <v>439</v>
+      </c>
       <c r="M24">
         <v>1</v>
       </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
       <c r="O24">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G25" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H25">
         <v>1.5</v>
@@ -2328,10 +2641,16 @@
       <c r="K25">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="L25" t="s">
+        <v>439</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H26">
         <v>1.911111111111111</v>
@@ -2340,33 +2659,45 @@
         <v>740.936170212766</v>
       </c>
       <c r="J26">
-        <v>979.6666666666666</v>
+        <v>979.66666666666663</v>
       </c>
       <c r="K26">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="L26" t="s">
+        <v>439</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D27" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E27" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G27" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="H27">
         <v>2.166666666666667</v>
       </c>
       <c r="I27">
-        <v>572.2222222222222</v>
+        <v>572.22222222222217</v>
       </c>
       <c r="J27">
         <v>1050</v>
@@ -2374,19 +2705,31 @@
       <c r="K27">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="L27" t="s">
+        <v>439</v>
+      </c>
+      <c r="M27">
+        <v>12</v>
+      </c>
+      <c r="N27">
+        <v>3.875</v>
+      </c>
+      <c r="O27">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E28" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G28" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -2397,25 +2740,37 @@
       <c r="K28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="L28" t="s">
+        <v>439</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>2.75</v>
+      </c>
+      <c r="O28">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D29" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F29" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G29" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="H29">
         <v>2.1</v>
@@ -2429,19 +2784,31 @@
       <c r="K29">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="L29" t="s">
+        <v>439</v>
+      </c>
+      <c r="M29">
+        <v>13</v>
+      </c>
+      <c r="N29">
+        <v>3.115384615384615</v>
+      </c>
+      <c r="O29">
+        <v>29.23076923076923</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G30" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H30">
-        <v>2.133333333333333</v>
+        <v>2.1333333333333329</v>
       </c>
       <c r="I30">
         <v>660</v>
@@ -2452,25 +2819,37 @@
       <c r="K30">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="L30" t="s">
+        <v>439</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D31" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E31" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F31" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G31" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="H31">
         <v>1.9375</v>
@@ -2479,21 +2858,33 @@
         <v>870</v>
       </c>
       <c r="J31">
-        <v>1025.571428571429</v>
+        <v>1025.5714285714289</v>
       </c>
       <c r="K31">
         <v>18</v>
       </c>
+      <c r="L31" t="s">
+        <v>439</v>
+      </c>
       <c r="M31">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="N31">
+        <v>3.666666666666667</v>
       </c>
       <c r="O31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>47</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H32">
         <v>5</v>
@@ -2507,10 +2898,16 @@
       <c r="K32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="L32" t="s">
+        <v>439</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H33">
         <v>2.75</v>
@@ -2524,40 +2921,49 @@
       <c r="K33">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="L33" t="s">
+        <v>439</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E34" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G34" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="H34">
-        <v>2.3</v>
+        <v>2.2564102564102559</v>
       </c>
       <c r="I34">
-        <v>824.5454545454545</v>
+        <v>824.53488372093022</v>
       </c>
       <c r="J34">
-        <v>1269.473684210526</v>
+        <v>1256</v>
       </c>
       <c r="K34">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="L34" t="s">
+        <v>439</v>
       </c>
       <c r="M34">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="N34">
-        <v>4</v>
+        <v>3.2619047619047619</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>107.4761904761905</v>
       </c>
       <c r="P34">
         <v>5</v>
@@ -2565,28 +2971,37 @@
       <c r="Q34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>5</v>
+      </c>
+      <c r="T34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D35" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E35" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G35" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H35">
-        <v>2.090909090909091</v>
+        <v>2.0909090909090908</v>
       </c>
       <c r="I35">
-        <v>842.2727272727273</v>
+        <v>842.27272727272725</v>
       </c>
       <c r="J35">
         <v>1184.2</v>
@@ -2594,10 +3009,22 @@
       <c r="K35">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="L35" t="s">
+        <v>439</v>
+      </c>
+      <c r="M35">
+        <v>4</v>
+      </c>
+      <c r="N35">
+        <v>4.125</v>
+      </c>
+      <c r="O35">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -2608,39 +3035,57 @@
       <c r="K36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="L36" t="s">
+        <v>439</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G37" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H37">
-        <v>1.650793650793651</v>
+        <v>1.65625</v>
       </c>
       <c r="I37">
-        <v>610.7183098591549</v>
+        <v>610.43055555555554</v>
       </c>
       <c r="J37">
-        <v>804.0652173913044</v>
+        <v>797.80851063829789</v>
       </c>
       <c r="K37">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+        <v>72</v>
+      </c>
+      <c r="L37" t="s">
+        <v>439</v>
+      </c>
+      <c r="M37">
+        <v>20</v>
+      </c>
+      <c r="N37">
+        <v>3.55</v>
+      </c>
+      <c r="O37">
+        <v>23.05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D38" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G38" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H38">
         <v>1.846153846153846</v>
@@ -2654,22 +3099,34 @@
       <c r="K38">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="L38" t="s">
+        <v>439</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>4</v>
+      </c>
+      <c r="O38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E39" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G39" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H39">
-        <v>2.111111111111111</v>
+        <v>2.1111111111111112</v>
       </c>
       <c r="I39">
         <v>1350.5</v>
@@ -2680,28 +3137,40 @@
       <c r="K39">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="L39" t="s">
+        <v>439</v>
+      </c>
+      <c r="M39">
+        <v>12</v>
+      </c>
+      <c r="N39">
+        <v>3.5</v>
+      </c>
+      <c r="O39">
+        <v>80.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D40" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E40" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G40" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="H40">
-        <v>2.090909090909091</v>
+        <v>2.0909090909090908</v>
       </c>
       <c r="I40">
-        <v>773.6363636363636</v>
+        <v>773.63636363636363</v>
       </c>
       <c r="J40">
         <v>1000</v>
@@ -2709,25 +3178,37 @@
       <c r="K40">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="L40" t="s">
+        <v>439</v>
+      </c>
+      <c r="M40">
+        <v>3</v>
+      </c>
+      <c r="N40">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="O40">
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E41" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G41" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H41">
         <v>2.085106382978724</v>
       </c>
       <c r="I41">
-        <v>666.6379310344828</v>
+        <v>666.63793103448279</v>
       </c>
       <c r="J41">
         <v>1253</v>
@@ -2735,98 +3216,134 @@
       <c r="K41">
         <v>60</v>
       </c>
+      <c r="L41" t="s">
+        <v>439</v>
+      </c>
       <c r="M41">
+        <v>10</v>
+      </c>
+      <c r="N41">
+        <v>3.75</v>
+      </c>
+      <c r="O41">
+        <v>28.9</v>
+      </c>
+      <c r="P41">
         <v>12</v>
       </c>
-      <c r="N41">
+      <c r="Q41">
         <v>9</v>
       </c>
-      <c r="O41">
+      <c r="R41">
         <v>5</v>
       </c>
-      <c r="P41">
+      <c r="S41">
         <v>8</v>
       </c>
-      <c r="Q41">
+      <c r="T41">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D42" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E42" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G42" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H42">
         <v>2.279069767441861</v>
       </c>
       <c r="I42">
-        <v>797.1190476190476</v>
+        <v>797.11904761904759</v>
       </c>
       <c r="J42">
-        <v>968.3181818181819</v>
+        <v>968.31818181818187</v>
       </c>
       <c r="K42">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="L42" t="s">
+        <v>439</v>
+      </c>
+      <c r="M42">
+        <v>3</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="O42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H43">
         <v>1.878048780487805</v>
       </c>
       <c r="I43">
-        <v>683.1084337349398</v>
+        <v>683.10843373493981</v>
       </c>
       <c r="J43">
-        <v>1015.806451612903</v>
+        <v>1015.8064516129029</v>
       </c>
       <c r="K43">
         <v>85</v>
       </c>
+      <c r="L43" t="s">
+        <v>439</v>
+      </c>
       <c r="M43">
+        <v>5</v>
+      </c>
+      <c r="N43">
+        <v>2.8</v>
+      </c>
+      <c r="O43">
+        <v>3.2</v>
+      </c>
+      <c r="P43">
         <v>3</v>
       </c>
-      <c r="N43">
+      <c r="Q43">
         <v>2</v>
       </c>
-      <c r="O43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="R43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D44" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E44" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G44" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H44">
         <v>2</v>
       </c>
       <c r="I44">
-        <v>723.3333333333334</v>
+        <v>723.33333333333337</v>
       </c>
       <c r="J44">
         <v>1200</v>
@@ -2834,22 +3351,34 @@
       <c r="K44">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="L44" t="s">
+        <v>439</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>4.5</v>
+      </c>
+      <c r="O44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D45" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E45" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G45" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H45">
         <v>1.846153846153846</v>
@@ -2863,22 +3392,34 @@
       <c r="K45">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="L45" t="s">
+        <v>439</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>3.75</v>
+      </c>
+      <c r="O45">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D46" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E46" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G46" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H46">
         <v>2.1</v>
@@ -2892,68 +3433,107 @@
       <c r="K46">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="L46" t="s">
+        <v>439</v>
+      </c>
+      <c r="M46">
+        <v>5</v>
+      </c>
+      <c r="N46">
+        <v>3.7</v>
+      </c>
+      <c r="O46">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D47" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E47" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F47" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="G47" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H47">
-        <v>2.051546391752577</v>
+        <v>2.0510204081632648</v>
       </c>
       <c r="I47">
-        <v>1078.724489795918</v>
+        <v>1080.7070707070709</v>
       </c>
       <c r="J47">
-        <v>1045.647887323944</v>
+        <v>1045.625</v>
       </c>
       <c r="K47">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="L47" t="s">
+        <v>439</v>
       </c>
       <c r="M47">
+        <v>34</v>
+      </c>
+      <c r="N47">
+        <v>3.4264705882352939</v>
+      </c>
+      <c r="O47">
+        <v>54.941176470588232</v>
+      </c>
+      <c r="P47">
         <v>5</v>
       </c>
-      <c r="N47">
+      <c r="Q47">
         <v>2</v>
       </c>
-      <c r="O47">
+      <c r="R47">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>750</v>
+      </c>
+      <c r="J48">
+        <v>576</v>
       </c>
       <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
+        <v>439</v>
+      </c>
+      <c r="M48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G49" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="H49">
         <v>2.666666666666667</v>
       </c>
       <c r="I49">
-        <v>1281.428571428571</v>
+        <v>1281.4285714285711</v>
       </c>
       <c r="J49">
         <v>1637.5</v>
@@ -2961,34 +3541,46 @@
       <c r="K49">
         <v>7</v>
       </c>
+      <c r="L49" t="s">
+        <v>439</v>
+      </c>
       <c r="M49">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="N49">
+        <v>3.7333333333333329</v>
       </c>
       <c r="O49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
+        <v>49.06666666666667</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D50" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E50" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G50" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H50">
         <v>2.115384615384615</v>
       </c>
       <c r="I50">
-        <v>784.8148148148148</v>
+        <v>784.81481481481478</v>
       </c>
       <c r="J50">
         <v>1127.5</v>
@@ -2996,28 +3588,40 @@
       <c r="K50">
         <v>27</v>
       </c>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="L50" t="s">
+        <v>439</v>
+      </c>
+      <c r="M50">
+        <v>7</v>
+      </c>
+      <c r="N50">
+        <v>3.5714285714285721</v>
+      </c>
+      <c r="O50">
+        <v>9.8571428571428577</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D51" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E51" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G51" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H51">
-        <v>2.072727272727273</v>
+        <v>2.0727272727272732</v>
       </c>
       <c r="I51">
-        <v>668.0921052631579</v>
+        <v>668.09210526315792</v>
       </c>
       <c r="J51">
         <v>1030</v>
@@ -3025,25 +3629,37 @@
       <c r="K51">
         <v>78</v>
       </c>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="L51" t="s">
+        <v>439</v>
+      </c>
+      <c r="M51">
+        <v>19</v>
+      </c>
+      <c r="N51">
+        <v>3.5</v>
+      </c>
+      <c r="O51">
+        <v>11.631578947368419</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C52" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D52" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E52" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G52" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H52">
-        <v>1.578947368421053</v>
+        <v>1.5789473684210531</v>
       </c>
       <c r="I52">
         <v>641.15625</v>
@@ -3054,31 +3670,43 @@
       <c r="K52">
         <v>98</v>
       </c>
+      <c r="L52" t="s">
+        <v>439</v>
+      </c>
       <c r="M52">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>3.1111111111111112</v>
+      </c>
+      <c r="O52">
+        <v>15.66666666666667</v>
       </c>
       <c r="P52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:17">
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D53" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E53" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G53" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -3089,28 +3717,40 @@
       <c r="K53">
         <v>4</v>
       </c>
+      <c r="L53" t="s">
+        <v>439</v>
+      </c>
       <c r="M53">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
+        <v>3.6875</v>
+      </c>
+      <c r="O53">
+        <v>16.375</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C54" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D54" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E54" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G54" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H54">
         <v>1.90625</v>
@@ -3119,15 +3759,27 @@
         <v>1135.75</v>
       </c>
       <c r="J54">
-        <v>1172.642857142857</v>
+        <v>1172.6428571428571</v>
       </c>
       <c r="K54">
         <v>32</v>
       </c>
-    </row>
-    <row r="55" spans="1:17">
+      <c r="L54" t="s">
+        <v>439</v>
+      </c>
+      <c r="M54">
+        <v>9</v>
+      </c>
+      <c r="N54">
+        <v>3.6111111111111112</v>
+      </c>
+      <c r="O54">
+        <v>51.444444444444443</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H55">
         <v>2.064516129032258</v>
@@ -3141,75 +3793,93 @@
       <c r="K55">
         <v>38</v>
       </c>
-    </row>
-    <row r="56" spans="1:17">
+      <c r="L55" t="s">
+        <v>439</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D56" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E56" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G56" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="H56">
-        <v>2.032608695652174</v>
+        <v>2.043478260869565</v>
       </c>
       <c r="I56">
-        <v>1117.241666666667</v>
+        <v>1123.075</v>
       </c>
       <c r="J56">
-        <v>1221.433333333333</v>
+        <v>1233.2903225806449</v>
       </c>
       <c r="K56">
         <v>120</v>
       </c>
+      <c r="L56" t="s">
+        <v>439</v>
+      </c>
       <c r="M56">
+        <v>24</v>
+      </c>
+      <c r="N56">
+        <v>3.770833333333333</v>
+      </c>
+      <c r="O56">
+        <v>153.58333333333329</v>
+      </c>
+      <c r="P56">
         <v>105</v>
       </c>
-      <c r="N56">
+      <c r="Q56">
         <v>82</v>
       </c>
-      <c r="O56">
+      <c r="R56">
         <v>25</v>
       </c>
-      <c r="P56">
+      <c r="S56">
         <v>114</v>
       </c>
-      <c r="Q56">
+      <c r="T56">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C57" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D57" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E57" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F57" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G57" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H57">
-        <v>1.803738317757009</v>
+        <v>1.8504672897196259</v>
       </c>
       <c r="I57">
-        <v>794.775</v>
+        <v>801.23333333333335</v>
       </c>
       <c r="J57">
         <v>1043.416666666667</v>
@@ -3217,509 +3887,647 @@
       <c r="K57">
         <v>120</v>
       </c>
+      <c r="L57" t="s">
+        <v>439</v>
+      </c>
       <c r="M57">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="N57">
+        <v>3.65</v>
+      </c>
+      <c r="O57">
+        <v>38.15</v>
+      </c>
+      <c r="P57">
         <v>2</v>
       </c>
       <c r="Q57">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:17">
+      <c r="T57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C58" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D58" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E58" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G58" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="H58">
-        <v>1.919642857142857</v>
+        <v>1.929203539823009</v>
       </c>
       <c r="I58">
-        <v>1430.408333333333</v>
+        <v>1461.0166666666671</v>
       </c>
       <c r="J58">
-        <v>1069.683333333333</v>
+        <v>1077.5333333333331</v>
       </c>
       <c r="K58">
         <v>120</v>
       </c>
+      <c r="L58" t="s">
+        <v>439</v>
+      </c>
       <c r="M58">
+        <v>38</v>
+      </c>
+      <c r="N58">
+        <v>3.9078947368421049</v>
+      </c>
+      <c r="O58">
+        <v>143.63157894736841</v>
+      </c>
+      <c r="P58">
         <v>287</v>
       </c>
-      <c r="N58">
+      <c r="Q58">
         <v>181</v>
       </c>
-      <c r="O58">
+      <c r="R58">
         <v>124</v>
       </c>
-      <c r="P58">
+      <c r="S58">
         <v>443</v>
       </c>
-      <c r="Q58">
+      <c r="T58">
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C59" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G59" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H59">
-        <v>2.395833333333333</v>
+        <v>2.408163265306122</v>
       </c>
       <c r="I59">
-        <v>826.6799999999999</v>
+        <v>818.66666666666663</v>
       </c>
       <c r="J59">
-        <v>1322.111111111111</v>
+        <v>1322.1111111111111</v>
       </c>
       <c r="K59">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="L59" t="s">
+        <v>439</v>
       </c>
       <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="P59">
         <v>132</v>
       </c>
-      <c r="N59">
+      <c r="Q59">
         <v>105</v>
       </c>
-      <c r="O59">
+      <c r="R59">
         <v>34</v>
       </c>
-      <c r="P59">
+      <c r="S59">
         <v>126</v>
       </c>
-      <c r="Q59">
+      <c r="T59">
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B60" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C60" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D60" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E60" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F60" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G60" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H60">
-        <v>1.990990990990991</v>
+        <v>1.9909909909909911</v>
       </c>
       <c r="I60">
-        <v>1290.571428571429</v>
+        <v>1291.613445378151</v>
       </c>
       <c r="J60">
-        <v>949.6666666666666</v>
+        <v>946.70588235294122</v>
       </c>
       <c r="K60">
         <v>120</v>
       </c>
+      <c r="L60" t="s">
+        <v>439</v>
+      </c>
       <c r="M60">
+        <v>21</v>
+      </c>
+      <c r="N60">
+        <v>3.6904761904761911</v>
+      </c>
+      <c r="O60">
+        <v>97.61904761904762</v>
+      </c>
+      <c r="P60">
         <v>78</v>
       </c>
-      <c r="N60">
+      <c r="Q60">
         <v>69</v>
       </c>
-      <c r="O60">
+      <c r="R60">
         <v>10</v>
       </c>
-      <c r="P60">
+      <c r="S60">
         <v>45</v>
       </c>
-      <c r="Q60">
+      <c r="T60">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B61" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C61" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D61" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E61" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G61" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H61">
-        <v>1.991304347826087</v>
+        <v>2.008620689655173</v>
       </c>
       <c r="I61">
-        <v>1229.294117647059</v>
+        <v>1242.873949579832</v>
       </c>
       <c r="J61">
-        <v>1103.833333333333</v>
+        <v>1096.2903225806449</v>
       </c>
       <c r="K61">
         <v>120</v>
       </c>
+      <c r="L61" t="s">
+        <v>439</v>
+      </c>
       <c r="M61">
+        <v>22</v>
+      </c>
+      <c r="N61">
+        <v>3.8181818181818179</v>
+      </c>
+      <c r="O61">
+        <v>195.4545454545455</v>
+      </c>
+      <c r="P61">
         <v>330</v>
       </c>
-      <c r="N61">
+      <c r="Q61">
         <v>257</v>
       </c>
-      <c r="O61">
+      <c r="R61">
         <v>84</v>
       </c>
-      <c r="P61">
+      <c r="S61">
         <v>522</v>
       </c>
-      <c r="Q61">
+      <c r="T61">
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D62" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E62" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G62" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H62">
-        <v>2.125</v>
+        <v>2.1224489795918369</v>
       </c>
       <c r="I62">
-        <v>887.2678571428571</v>
+        <v>884.10526315789468</v>
       </c>
       <c r="J62">
         <v>1339.0625</v>
       </c>
       <c r="K62">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="L62" t="s">
+        <v>439</v>
       </c>
       <c r="M62">
+        <v>3</v>
+      </c>
+      <c r="N62">
+        <v>3.833333333333333</v>
+      </c>
+      <c r="O62">
+        <v>65.333333333333329</v>
+      </c>
+      <c r="P62">
         <v>173</v>
       </c>
-      <c r="N62">
+      <c r="Q62">
         <v>151</v>
       </c>
-      <c r="O62">
+      <c r="R62">
         <v>24</v>
       </c>
-      <c r="P62">
+      <c r="S62">
         <v>193</v>
       </c>
-      <c r="Q62">
+      <c r="T62">
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H63">
-        <v>1.941176470588235</v>
+        <v>1.9579831932773111</v>
       </c>
       <c r="I63">
-        <v>1059.908333333333</v>
+        <v>1067.075</v>
       </c>
       <c r="J63">
-        <v>1341.511111111111</v>
+        <v>1345.2127659574469</v>
       </c>
       <c r="K63">
         <v>120</v>
       </c>
+      <c r="L63" t="s">
+        <v>439</v>
+      </c>
       <c r="M63">
+        <v>3</v>
+      </c>
+      <c r="N63">
+        <v>4</v>
+      </c>
+      <c r="O63">
+        <v>37.333333333333343</v>
+      </c>
+      <c r="P63">
         <v>173</v>
       </c>
-      <c r="N63">
+      <c r="Q63">
         <v>135</v>
       </c>
-      <c r="O63">
+      <c r="R63">
         <v>48</v>
       </c>
-      <c r="P63">
+      <c r="S63">
         <v>453</v>
       </c>
-      <c r="Q63">
+      <c r="T63">
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B64" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C64" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D64" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E64" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G64" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H64">
         <v>1.752212389380531</v>
       </c>
       <c r="I64">
-        <v>853.2333333333333</v>
+        <v>853.94166666666672</v>
       </c>
       <c r="J64">
-        <v>756.2962962962963</v>
+        <v>756.85185185185185</v>
       </c>
       <c r="K64">
         <v>120</v>
       </c>
-      <c r="P64">
+      <c r="L64" t="s">
+        <v>439</v>
+      </c>
+      <c r="M64">
+        <v>7</v>
+      </c>
+      <c r="N64">
+        <v>3.714285714285714</v>
+      </c>
+      <c r="O64">
+        <v>34.857142857142847</v>
+      </c>
+      <c r="S64">
         <v>2</v>
       </c>
-      <c r="Q64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="T64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D65" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E65" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G65" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H65">
-        <v>2.495238095238095</v>
+        <v>2.4952380952380948</v>
       </c>
       <c r="I65">
-        <v>928.4201680672269</v>
+        <v>928.42016806722688</v>
       </c>
       <c r="J65">
-        <v>1204.620689655172</v>
+        <v>1204.6206896551721</v>
       </c>
       <c r="K65">
         <v>120</v>
       </c>
+      <c r="L65" t="s">
+        <v>439</v>
+      </c>
       <c r="M65">
+        <v>6</v>
+      </c>
+      <c r="N65">
+        <v>3.416666666666667</v>
+      </c>
+      <c r="O65">
+        <v>29.5</v>
+      </c>
+      <c r="P65">
         <v>529</v>
       </c>
-      <c r="N65">
+      <c r="Q65">
         <v>440</v>
       </c>
-      <c r="O65">
+      <c r="R65">
         <v>110</v>
       </c>
-      <c r="P65">
+      <c r="S65">
         <v>656</v>
       </c>
-      <c r="Q65">
+      <c r="T65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D66" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E66" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G66" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H66">
-        <v>2.128440366972477</v>
+        <v>2.1284403669724772</v>
       </c>
       <c r="I66">
-        <v>980.4416666666667</v>
+        <v>980.44166666666672</v>
       </c>
       <c r="J66">
-        <v>1289.78431372549</v>
+        <v>1289.7843137254899</v>
       </c>
       <c r="K66">
         <v>120</v>
       </c>
+      <c r="L66" t="s">
+        <v>439</v>
+      </c>
       <c r="M66">
+        <v>7</v>
+      </c>
+      <c r="N66">
+        <v>4.0714285714285712</v>
+      </c>
+      <c r="O66">
+        <v>254.14285714285711</v>
+      </c>
+      <c r="P66">
         <v>136</v>
       </c>
-      <c r="N66">
+      <c r="Q66">
         <v>117</v>
       </c>
-      <c r="O66">
+      <c r="R66">
         <v>27</v>
       </c>
-      <c r="P66">
+      <c r="S66">
         <v>179</v>
       </c>
-      <c r="Q66">
+      <c r="T66">
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D67" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E67" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F67" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G67" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H67">
-        <v>2.257731958762887</v>
+        <v>2.2551020408163271</v>
       </c>
       <c r="I67">
-        <v>1043.825</v>
+        <v>1045.1500000000001</v>
       </c>
       <c r="J67">
-        <v>930.5060240963855</v>
+        <v>927.20481927710841</v>
       </c>
       <c r="K67">
         <v>120</v>
       </c>
+      <c r="L67" t="s">
+        <v>439</v>
+      </c>
       <c r="M67">
+        <v>15</v>
+      </c>
+      <c r="N67">
+        <v>4</v>
+      </c>
+      <c r="O67">
+        <v>48.266666666666673</v>
+      </c>
+      <c r="P67">
         <v>632</v>
       </c>
-      <c r="N67">
+      <c r="Q67">
         <v>463</v>
       </c>
-      <c r="O67">
+      <c r="R67">
         <v>202</v>
       </c>
-      <c r="P67">
+      <c r="S67">
         <v>1266</v>
       </c>
-      <c r="Q67">
+      <c r="T67">
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B68" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C68" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D68" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E68" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F68" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G68" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="H68">
-        <v>2.9</v>
+        <v>2.9292929292929299</v>
       </c>
       <c r="I68">
-        <v>1701.675</v>
+        <v>1715.3083333333329</v>
       </c>
       <c r="J68">
-        <v>1924.682926829268</v>
+        <v>1298.787878787879</v>
       </c>
       <c r="K68">
         <v>120</v>
       </c>
+      <c r="L68" t="s">
+        <v>439</v>
+      </c>
       <c r="M68">
+        <v>44</v>
+      </c>
+      <c r="N68">
+        <v>3.6590909090909092</v>
+      </c>
+      <c r="O68">
+        <v>127.47727272727271</v>
+      </c>
+      <c r="P68">
         <v>101</v>
       </c>
-      <c r="N68">
+      <c r="Q68">
         <v>78</v>
       </c>
-      <c r="O68">
+      <c r="R68">
         <v>26</v>
       </c>
-      <c r="P68">
+      <c r="S68">
         <v>131</v>
       </c>
-      <c r="Q68">
+      <c r="T68">
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C69" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D69" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E69" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G69" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="H69">
-        <v>2.327272727272727</v>
+        <v>2.3272727272727272</v>
       </c>
       <c r="I69">
         <v>1021.589285714286</v>
@@ -3730,43 +4538,55 @@
       <c r="K69">
         <v>113</v>
       </c>
+      <c r="L69" t="s">
+        <v>439</v>
+      </c>
       <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>5</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
         <v>248</v>
       </c>
-      <c r="N69">
+      <c r="Q69">
         <v>195</v>
       </c>
-      <c r="O69">
+      <c r="R69">
         <v>63</v>
       </c>
-      <c r="P69">
+      <c r="S69">
         <v>269</v>
       </c>
-      <c r="Q69">
+      <c r="T69">
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C70" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D70" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E70" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F70" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G70" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H70">
-        <v>2.081081081081081</v>
+        <v>2.0810810810810811</v>
       </c>
       <c r="I70">
         <v>1042.171052631579</v>
@@ -3777,342 +4597,438 @@
       <c r="K70">
         <v>76</v>
       </c>
+      <c r="L70" t="s">
+        <v>439</v>
+      </c>
       <c r="M70">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>3.0625</v>
+      </c>
+      <c r="O70">
+        <v>42.25</v>
       </c>
       <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="S70">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C71" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D71" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E71" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F71" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="G71" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="H71">
-        <v>1.842592592592593</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="I71">
-        <v>923.4957983193277</v>
+        <v>924.11764705882354</v>
       </c>
       <c r="J71">
-        <v>1134.354838709677</v>
+        <v>1140.5</v>
       </c>
       <c r="K71">
         <v>120</v>
       </c>
+      <c r="L71" t="s">
+        <v>439</v>
+      </c>
       <c r="M71">
+        <v>23</v>
+      </c>
+      <c r="N71">
+        <v>3.456521739130435</v>
+      </c>
+      <c r="O71">
+        <v>71.304347826086953</v>
+      </c>
+      <c r="P71">
         <v>116</v>
       </c>
-      <c r="N71">
+      <c r="Q71">
         <v>93</v>
       </c>
-      <c r="O71">
+      <c r="R71">
         <v>28</v>
       </c>
-      <c r="P71">
+      <c r="S71">
         <v>87</v>
       </c>
-      <c r="Q71">
+      <c r="T71">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C72" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D72" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E72" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F72" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G72" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="H72">
-        <v>1.589285714285714</v>
+        <v>1.567567567567568</v>
       </c>
       <c r="I72">
-        <v>1130.991596638655</v>
+        <v>1117.7563025210079</v>
       </c>
       <c r="J72">
-        <v>986.7321428571429</v>
+        <v>990.05660377358492</v>
       </c>
       <c r="K72">
         <v>120</v>
       </c>
+      <c r="L72" t="s">
+        <v>439</v>
+      </c>
       <c r="M72">
+        <v>32</v>
+      </c>
+      <c r="N72">
+        <v>3.71875</v>
+      </c>
+      <c r="O72">
+        <v>160.34375</v>
+      </c>
+      <c r="P72">
         <v>61</v>
       </c>
-      <c r="N72">
+      <c r="Q72">
         <v>47</v>
       </c>
-      <c r="O72">
+      <c r="R72">
         <v>17</v>
       </c>
-      <c r="P72">
+      <c r="S72">
         <v>88</v>
       </c>
-      <c r="Q72">
+      <c r="T72">
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C73" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D73" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E73" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F73" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G73" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H73">
-        <v>1.532110091743119</v>
+        <v>1.522935779816514</v>
       </c>
       <c r="I73">
-        <v>865.2</v>
+        <v>864.2</v>
       </c>
       <c r="J73">
-        <v>787.7701149425287</v>
+        <v>786.81395348837214</v>
       </c>
       <c r="K73">
         <v>120</v>
       </c>
+      <c r="L73" t="s">
+        <v>439</v>
+      </c>
       <c r="M73">
+        <v>12</v>
+      </c>
+      <c r="N73">
+        <v>3.791666666666667</v>
+      </c>
+      <c r="O73">
+        <v>100.4166666666667</v>
+      </c>
+      <c r="P73">
         <v>11</v>
       </c>
-      <c r="N73">
+      <c r="Q73">
         <v>10</v>
       </c>
-      <c r="O73">
+      <c r="R73">
         <v>5</v>
       </c>
-      <c r="P73">
+      <c r="S73">
         <v>5</v>
       </c>
-      <c r="Q73">
+      <c r="T73">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B74" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H74">
-        <v>1.841584158415842</v>
+        <v>1.8217821782178221</v>
       </c>
       <c r="I74">
-        <v>1528.714285714286</v>
+        <v>1520.5630252100841</v>
       </c>
       <c r="J74">
-        <v>1151.5</v>
+        <v>1147.589473684211</v>
       </c>
       <c r="K74">
         <v>120</v>
       </c>
+      <c r="L74" t="s">
+        <v>439</v>
+      </c>
       <c r="M74">
+        <v>21</v>
+      </c>
+      <c r="N74">
+        <v>3.8095238095238089</v>
+      </c>
+      <c r="O74">
+        <v>80.476190476190482</v>
+      </c>
+      <c r="P74">
         <v>2411</v>
       </c>
-      <c r="N74">
+      <c r="Q74">
         <v>1872</v>
       </c>
-      <c r="O74">
+      <c r="R74">
         <v>640</v>
       </c>
-      <c r="P74">
+      <c r="S74">
         <v>1539</v>
       </c>
-      <c r="Q74">
+      <c r="T74">
         <v>300</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C75" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D75" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E75" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G75" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="H75">
         <v>2.258064516129032</v>
       </c>
       <c r="I75">
-        <v>1100.290322580645</v>
+        <v>1100.2903225806449</v>
       </c>
       <c r="J75">
-        <v>1371.722222222222</v>
+        <v>1371.7222222222219</v>
       </c>
       <c r="K75">
         <v>31</v>
       </c>
+      <c r="L75" t="s">
+        <v>439</v>
+      </c>
       <c r="M75">
+        <v>11</v>
+      </c>
+      <c r="N75">
+        <v>3.8181818181818179</v>
+      </c>
+      <c r="O75">
+        <v>46.727272727272727</v>
+      </c>
+      <c r="P75">
         <v>134</v>
       </c>
-      <c r="N75">
+      <c r="Q75">
         <v>111</v>
       </c>
-      <c r="O75">
+      <c r="R75">
         <v>29</v>
       </c>
-      <c r="P75">
+      <c r="S75">
         <v>120</v>
       </c>
-      <c r="Q75">
+      <c r="T75">
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C76" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D76" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E76" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G76" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="H76">
-        <v>1.8125</v>
+        <v>1.831858407079646</v>
       </c>
       <c r="I76">
-        <v>1006.458333333333</v>
+        <v>1010.15</v>
       </c>
       <c r="J76">
-        <v>1188.566037735849</v>
+        <v>1183.3818181818181</v>
       </c>
       <c r="K76">
         <v>120</v>
       </c>
+      <c r="L76" t="s">
+        <v>439</v>
+      </c>
       <c r="M76">
+        <v>4</v>
+      </c>
+      <c r="N76">
+        <v>3.875</v>
+      </c>
+      <c r="O76">
+        <v>29.5</v>
+      </c>
+      <c r="P76">
         <v>203</v>
       </c>
-      <c r="N76">
+      <c r="Q76">
         <v>152</v>
       </c>
-      <c r="O76">
+      <c r="R76">
         <v>61</v>
       </c>
-      <c r="P76">
+      <c r="S76">
         <v>273</v>
       </c>
-      <c r="Q76">
+      <c r="T76">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C77" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G77" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="H77">
-        <v>1.407407407407407</v>
+        <v>1.445454545454546</v>
       </c>
       <c r="I77">
-        <v>1445.008333333333</v>
+        <v>1467.7166666666669</v>
       </c>
       <c r="J77">
-        <v>814.2391304347826</v>
+        <v>839.54347826086962</v>
       </c>
       <c r="K77">
         <v>120</v>
       </c>
+      <c r="L77" t="s">
+        <v>439</v>
+      </c>
       <c r="M77">
+        <v>55</v>
+      </c>
+      <c r="N77">
+        <v>3.9090909090909092</v>
+      </c>
+      <c r="O77">
+        <v>247.21818181818179</v>
+      </c>
+      <c r="P77">
         <v>149</v>
       </c>
-      <c r="N77">
+      <c r="Q77">
         <v>96</v>
       </c>
-      <c r="O77">
+      <c r="R77">
         <v>59</v>
       </c>
-      <c r="P77">
+      <c r="S77">
         <v>218</v>
       </c>
-      <c r="Q77">
+      <c r="T77">
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C78" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D78" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E78" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G78" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H78">
         <v>1.884615384615385</v>
       </c>
       <c r="I78">
-        <v>819.1538461538462</v>
+        <v>819.15384615384619</v>
       </c>
       <c r="J78">
         <v>1124</v>
@@ -4120,104 +5036,140 @@
       <c r="K78">
         <v>26</v>
       </c>
+      <c r="L78" t="s">
+        <v>439</v>
+      </c>
       <c r="M78">
+        <v>7</v>
+      </c>
+      <c r="N78">
+        <v>3.4285714285714279</v>
+      </c>
+      <c r="O78">
+        <v>23</v>
+      </c>
+      <c r="P78">
         <v>2</v>
       </c>
-      <c r="N78">
-        <v>1</v>
-      </c>
-      <c r="O78">
-        <v>1</v>
-      </c>
       <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="R78">
+        <v>1</v>
+      </c>
+      <c r="T78">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E79" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F79" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H79">
-        <v>2.314285714285715</v>
+        <v>2.3557692307692308</v>
       </c>
       <c r="I79">
-        <v>1509.733333333333</v>
+        <v>1463.7666666666671</v>
       </c>
       <c r="J79">
-        <v>957.2156862745098</v>
+        <v>961.91111111111115</v>
       </c>
       <c r="K79">
         <v>120</v>
       </c>
+      <c r="L79" t="s">
+        <v>439</v>
+      </c>
       <c r="M79">
+        <v>27</v>
+      </c>
+      <c r="N79">
+        <v>3.7962962962962958</v>
+      </c>
+      <c r="O79">
+        <v>118.1851851851852</v>
+      </c>
+      <c r="P79">
         <v>103</v>
       </c>
-      <c r="N79">
+      <c r="Q79">
         <v>83</v>
       </c>
-      <c r="O79">
+      <c r="R79">
         <v>21</v>
       </c>
-      <c r="P79">
+      <c r="S79">
         <v>134</v>
       </c>
-      <c r="Q79">
+      <c r="T79">
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H80">
-        <v>2.181818181818182</v>
+        <v>2.1818181818181821</v>
       </c>
       <c r="I80">
-        <v>914.6363636363636</v>
+        <v>914.63636363636363</v>
       </c>
       <c r="J80">
-        <v>803.5555555555555</v>
+        <v>803.55555555555554</v>
       </c>
       <c r="K80">
         <v>12</v>
       </c>
+      <c r="L80" t="s">
+        <v>439</v>
+      </c>
       <c r="M80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>3.25</v>
+      </c>
+      <c r="O80">
+        <v>34.5</v>
       </c>
       <c r="P80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:17">
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="S80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C81" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D81" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E81" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G81" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H81">
-        <v>1.9</v>
+        <v>1.9090909090909089</v>
       </c>
       <c r="I81">
-        <v>1254.411764705882</v>
+        <v>1267.2689075630251</v>
       </c>
       <c r="J81">
         <v>1423.333333333333</v>
@@ -4225,122 +5177,158 @@
       <c r="K81">
         <v>120</v>
       </c>
+      <c r="L81" t="s">
+        <v>439</v>
+      </c>
       <c r="M81">
+        <v>9</v>
+      </c>
+      <c r="N81">
+        <v>3.6111111111111112</v>
+      </c>
+      <c r="O81">
+        <v>42.777777777777779</v>
+      </c>
+      <c r="P81">
         <v>99</v>
       </c>
-      <c r="N81">
+      <c r="Q81">
         <v>83</v>
       </c>
-      <c r="O81">
+      <c r="R81">
         <v>18</v>
       </c>
-      <c r="P81">
+      <c r="S81">
         <v>131</v>
       </c>
-      <c r="Q81">
+      <c r="T81">
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C82" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D82" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E82" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G82" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="H82">
         <v>1.773333333333333</v>
       </c>
       <c r="I82">
-        <v>789.9873417721519</v>
+        <v>789.98734177215192</v>
       </c>
       <c r="J82">
-        <v>919.7027027027027</v>
+        <v>919.70270270270271</v>
       </c>
       <c r="K82">
         <v>79</v>
       </c>
+      <c r="L82" t="s">
+        <v>439</v>
+      </c>
       <c r="M82">
+        <v>7</v>
+      </c>
+      <c r="N82">
+        <v>3.4285714285714279</v>
+      </c>
+      <c r="O82">
+        <v>23.428571428571431</v>
+      </c>
+      <c r="P82">
         <v>50</v>
       </c>
-      <c r="N82">
+      <c r="Q82">
         <v>39</v>
       </c>
-      <c r="O82">
+      <c r="R82">
         <v>15</v>
       </c>
-      <c r="P82">
+      <c r="S82">
         <v>34</v>
       </c>
-      <c r="Q82">
+      <c r="T82">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D83" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E83" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F83" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G83" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="H83">
-        <v>1.747826086956522</v>
+        <v>1.7565217391304351</v>
       </c>
       <c r="I83">
-        <v>1091.858333333333</v>
+        <v>1072.1500000000001</v>
       </c>
       <c r="J83">
-        <v>941.2631578947369</v>
+        <v>938.2962962962963</v>
       </c>
       <c r="K83">
         <v>120</v>
       </c>
-      <c r="Q83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17">
+      <c r="L83" t="s">
+        <v>439</v>
+      </c>
+      <c r="M83">
+        <v>14</v>
+      </c>
+      <c r="N83">
+        <v>3.9285714285714279</v>
+      </c>
+      <c r="O83">
+        <v>127.78571428571431</v>
+      </c>
+      <c r="T83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C84" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D84" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E84" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G84" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="H84">
         <v>1.56140350877193</v>
       </c>
       <c r="I84">
-        <v>1073.131147540984</v>
+        <v>1073.1311475409841</v>
       </c>
       <c r="J84">
         <v>1330.1</v>
@@ -4348,78 +5336,102 @@
       <c r="K84">
         <v>61</v>
       </c>
+      <c r="L84" t="s">
+        <v>439</v>
+      </c>
       <c r="M84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17">
+        <v>4.5</v>
+      </c>
+      <c r="O84">
+        <v>54</v>
+      </c>
+      <c r="P84">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B85" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C85" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D85" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E85" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F85" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G85" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="H85">
-        <v>1.473214285714286</v>
+        <v>1.4818181818181819</v>
       </c>
       <c r="I85">
-        <v>1359.408333333333</v>
+        <v>1380.866666666667</v>
       </c>
       <c r="J85">
-        <v>867.9183673469388</v>
+        <v>887.8039215686274</v>
       </c>
       <c r="K85">
         <v>120</v>
       </c>
+      <c r="L85" t="s">
+        <v>439</v>
+      </c>
       <c r="M85">
+        <v>21</v>
+      </c>
+      <c r="N85">
+        <v>3.6904761904761911</v>
+      </c>
+      <c r="O85">
+        <v>140.14285714285711</v>
+      </c>
+      <c r="P85">
         <v>32</v>
       </c>
-      <c r="N85">
+      <c r="Q85">
         <v>26</v>
       </c>
-      <c r="O85">
+      <c r="R85">
         <v>6</v>
       </c>
-      <c r="P85">
+      <c r="S85">
         <v>33</v>
       </c>
-      <c r="Q85">
+      <c r="T85">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D86" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G86" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="H86">
         <v>1.662921348314607</v>
       </c>
       <c r="I86">
-        <v>906.3838383838383</v>
+        <v>906.38383838383834</v>
       </c>
       <c r="J86">
         <v>1150.675</v>
@@ -4427,93 +5439,117 @@
       <c r="K86">
         <v>99</v>
       </c>
+      <c r="L86" t="s">
+        <v>439</v>
+      </c>
       <c r="M86">
+        <v>4</v>
+      </c>
+      <c r="N86">
+        <v>4.25</v>
+      </c>
+      <c r="O86">
+        <v>153.25</v>
+      </c>
+      <c r="P86">
         <v>81</v>
       </c>
-      <c r="N86">
+      <c r="Q86">
         <v>52</v>
       </c>
-      <c r="O86">
+      <c r="R86">
         <v>34</v>
       </c>
-      <c r="P86">
+      <c r="S86">
         <v>156</v>
       </c>
-      <c r="Q86">
+      <c r="T86">
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C87" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D87" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E87" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G87" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="H87">
-        <v>2.111111111111111</v>
+        <v>2.0714285714285721</v>
       </c>
       <c r="I87">
-        <v>911.4594594594595</v>
+        <v>904.40740740740739</v>
       </c>
       <c r="J87">
         <v>1222.5</v>
       </c>
       <c r="K87">
-        <v>74</v>
+        <v>81</v>
+      </c>
+      <c r="L87" t="s">
+        <v>439</v>
       </c>
       <c r="M87">
+        <v>17</v>
+      </c>
+      <c r="N87">
+        <v>3.4705882352941182</v>
+      </c>
+      <c r="O87">
+        <v>50.647058823529413</v>
+      </c>
+      <c r="P87">
         <v>9</v>
       </c>
-      <c r="N87">
+      <c r="Q87">
         <v>8</v>
       </c>
-      <c r="O87">
-        <v>1</v>
-      </c>
-      <c r="P87">
+      <c r="R87">
+        <v>1</v>
+      </c>
+      <c r="S87">
         <v>3</v>
       </c>
-      <c r="Q87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17">
+      <c r="T87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B88" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C88" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D88" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E88" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F88" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G88" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H88">
-        <v>2.018181818181818</v>
+        <v>2.0181818181818181</v>
       </c>
       <c r="I88">
-        <v>819.6440677966102</v>
+        <v>819.64406779661022</v>
       </c>
       <c r="J88">
         <v>1029.294117647059</v>
@@ -4521,125 +5557,161 @@
       <c r="K88">
         <v>59</v>
       </c>
+      <c r="L88" t="s">
+        <v>439</v>
+      </c>
       <c r="M88">
+        <v>12</v>
+      </c>
+      <c r="N88">
+        <v>3.875</v>
+      </c>
+      <c r="O88">
+        <v>56.083333333333343</v>
+      </c>
+      <c r="P88">
         <v>7</v>
       </c>
-      <c r="N88">
+      <c r="Q88">
         <v>4</v>
       </c>
-      <c r="O88">
+      <c r="R88">
         <v>4</v>
       </c>
-      <c r="P88">
+      <c r="S88">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C89" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D89" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E89" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F89" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G89" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H89">
-        <v>1.56</v>
+        <v>1.588235294117647</v>
       </c>
       <c r="I89">
-        <v>810.6666666666666</v>
+        <v>812.6875</v>
       </c>
       <c r="J89">
-        <v>1062.1</v>
+        <v>1047.8571428571429</v>
       </c>
       <c r="K89">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="L89" t="s">
+        <v>439</v>
       </c>
       <c r="M89">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="N89">
+        <v>3.5681818181818179</v>
       </c>
       <c r="O89">
-        <v>1</v>
-      </c>
-      <c r="Q89">
+        <v>47.409090909090907</v>
+      </c>
+      <c r="P89">
+        <v>1</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
+      <c r="T89">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B90" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C90" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D90" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E90" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F90" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G90" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="H90">
-        <v>1.460869565217391</v>
+        <v>1.4608695652173911</v>
       </c>
       <c r="I90">
-        <v>946.2416666666667</v>
+        <v>944.36666666666667</v>
       </c>
       <c r="J90">
-        <v>833.075</v>
+        <v>831.13750000000005</v>
       </c>
       <c r="K90">
         <v>120</v>
       </c>
+      <c r="L90" t="s">
+        <v>439</v>
+      </c>
       <c r="M90">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="N90">
+        <v>3.4571428571428569</v>
       </c>
       <c r="O90">
-        <v>1</v>
+        <v>78.171428571428578</v>
       </c>
       <c r="P90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:17">
+      <c r="R90">
+        <v>1</v>
+      </c>
+      <c r="S90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C91" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D91" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E91" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F91" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="G91" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H91">
-        <v>3.130434782608696</v>
+        <v>3.1304347826086958</v>
       </c>
       <c r="I91">
         <v>2166.25</v>
@@ -4650,40 +5722,52 @@
       <c r="K91">
         <v>48</v>
       </c>
+      <c r="L91" t="s">
+        <v>439</v>
+      </c>
       <c r="M91">
+        <v>19</v>
+      </c>
+      <c r="N91">
+        <v>3.4736842105263159</v>
+      </c>
+      <c r="O91">
+        <v>35.789473684210527</v>
+      </c>
+      <c r="P91">
         <v>2</v>
       </c>
-      <c r="N91">
-        <v>1</v>
-      </c>
-      <c r="O91">
-        <v>1</v>
-      </c>
-      <c r="P91">
+      <c r="Q91">
+        <v>1</v>
+      </c>
+      <c r="R91">
+        <v>1</v>
+      </c>
+      <c r="S91">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C92" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D92" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E92" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G92" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="H92">
-        <v>2.235294117647059</v>
+        <v>2.2352941176470589</v>
       </c>
       <c r="I92">
-        <v>908.1764705882352</v>
+        <v>908.17647058823525</v>
       </c>
       <c r="J92">
         <v>1870</v>
@@ -4691,66 +5775,90 @@
       <c r="K92">
         <v>17</v>
       </c>
-    </row>
-    <row r="93" spans="1:17">
+      <c r="L92" t="s">
+        <v>439</v>
+      </c>
+      <c r="M92">
+        <v>8</v>
+      </c>
+      <c r="N92">
+        <v>3.25</v>
+      </c>
+      <c r="O92">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C93" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D93" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E93" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F93" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G93" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H93">
-        <v>1.45</v>
+        <v>1.425</v>
       </c>
       <c r="I93">
-        <v>1257.583333333333</v>
+        <v>1235.375</v>
       </c>
       <c r="J93">
-        <v>867.1304347826087</v>
+        <v>857.43478260869563</v>
       </c>
       <c r="K93">
         <v>120</v>
       </c>
+      <c r="L93" t="s">
+        <v>439</v>
+      </c>
       <c r="M93">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="N93">
+        <v>3.035714285714286</v>
       </c>
       <c r="O93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17">
+        <v>52.642857142857153</v>
+      </c>
+      <c r="P93">
+        <v>1</v>
+      </c>
+      <c r="R93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C94" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D94" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E94" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F94" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G94" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="H94">
-        <v>2.176470588235294</v>
+        <v>2.1764705882352939</v>
       </c>
       <c r="I94">
         <v>1206.578947368421</v>
@@ -4761,16 +5869,22 @@
       <c r="K94">
         <v>19</v>
       </c>
-    </row>
-    <row r="95" spans="1:17">
+      <c r="L94" t="s">
+        <v>439</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H95">
-        <v>3.114035087719298</v>
+        <v>3.1052631578947372</v>
       </c>
       <c r="I95">
-        <v>1784.85</v>
+        <v>1774.8083333333329</v>
       </c>
       <c r="J95">
         <v>2234.275862068966</v>
@@ -4778,10 +5892,16 @@
       <c r="K95">
         <v>120</v>
       </c>
-    </row>
-    <row r="96" spans="1:17">
+      <c r="L95" t="s">
+        <v>439</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -4795,19 +5915,25 @@
       <c r="K96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:17">
+      <c r="L96" t="s">
+        <v>439</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D97" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E97" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G97" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="H97">
         <v>3</v>
@@ -4821,10 +5947,16 @@
       <c r="K97">
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:17">
+      <c r="L97" t="s">
+        <v>439</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -4835,10 +5967,22 @@
       <c r="K98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:17">
+      <c r="L98" t="s">
+        <v>439</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>5</v>
+      </c>
+      <c r="O98">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -4849,10 +5993,22 @@
       <c r="K99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:17">
+      <c r="L99" t="s">
+        <v>439</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="N99">
+        <v>4.75</v>
+      </c>
+      <c r="O99">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -4866,25 +6022,37 @@
       <c r="K100">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:17">
+      <c r="L100" t="s">
+        <v>439</v>
+      </c>
+      <c r="M100">
+        <v>8</v>
+      </c>
+      <c r="N100">
+        <v>3.125</v>
+      </c>
+      <c r="O100">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C101" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D101" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E101" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F101" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="G101" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="H101">
         <v>2.04</v>
@@ -4898,28 +6066,40 @@
       <c r="K101">
         <v>29</v>
       </c>
+      <c r="L101" t="s">
+        <v>439</v>
+      </c>
       <c r="M101">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17">
+        <v>3.6818181818181821</v>
+      </c>
+      <c r="O101">
+        <v>51.545454545454547</v>
+      </c>
+      <c r="P101">
+        <v>1</v>
+      </c>
+      <c r="Q101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C102" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D102" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E102" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G102" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H102">
         <v>1.245614035087719</v>
@@ -4928,27 +6108,39 @@
         <v>754</v>
       </c>
       <c r="J102">
-        <v>806.3333333333334</v>
+        <v>806.33333333333337</v>
       </c>
       <c r="K102">
         <v>58</v>
       </c>
-    </row>
-    <row r="103" spans="1:17">
+      <c r="L102" t="s">
+        <v>439</v>
+      </c>
+      <c r="M102">
+        <v>4</v>
+      </c>
+      <c r="N102">
+        <v>3.375</v>
+      </c>
+      <c r="O102">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C103" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D103" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E103" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G103" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="H103">
         <v>1.714285714285714</v>
@@ -4962,16 +6154,28 @@
       <c r="K103">
         <v>7</v>
       </c>
+      <c r="L103" t="s">
+        <v>439</v>
+      </c>
       <c r="M103">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="N103">
+        <v>4.25</v>
       </c>
       <c r="O103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17">
+        <v>45.25</v>
+      </c>
+      <c r="P103">
+        <v>1</v>
+      </c>
+      <c r="R103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H104">
         <v>2.333333333333333</v>
@@ -4982,62 +6186,98 @@
       <c r="K104">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:17">
+      <c r="L104" t="s">
+        <v>439</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>4.5</v>
+      </c>
+      <c r="O104">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C105" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D105" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E105" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G105" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H105">
-        <v>2.08695652173913</v>
+        <v>2.0869565217391299</v>
       </c>
       <c r="I105">
-        <v>677.2903225806451</v>
+        <v>677.29032258064512</v>
       </c>
       <c r="J105">
-        <v>883.3333333333334</v>
+        <v>883.33333333333337</v>
       </c>
       <c r="K105">
         <v>31</v>
       </c>
-    </row>
-    <row r="106" spans="1:17">
+      <c r="L105" t="s">
+        <v>439</v>
+      </c>
+      <c r="M105">
+        <v>12</v>
+      </c>
+      <c r="N105">
+        <v>3.5</v>
+      </c>
+      <c r="O105">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G106" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="H106">
-        <v>2.375</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="I106">
-        <v>743.75</v>
+        <v>730.55555555555554</v>
       </c>
       <c r="J106">
         <v>1200</v>
       </c>
       <c r="K106">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17">
+        <v>9</v>
+      </c>
+      <c r="L106" t="s">
+        <v>439</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>4.5</v>
+      </c>
+      <c r="O106">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D107" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H107">
         <v>1.8</v>
@@ -5046,21 +6286,33 @@
         <v>742.5</v>
       </c>
       <c r="J107">
-        <v>879.5384615384615</v>
+        <v>879.53846153846155</v>
       </c>
       <c r="K107">
         <v>27</v>
       </c>
-      <c r="P107">
+      <c r="L107" t="s">
+        <v>439</v>
+      </c>
+      <c r="M107">
+        <v>4</v>
+      </c>
+      <c r="N107">
+        <v>3.875</v>
+      </c>
+      <c r="O107">
+        <v>31.5</v>
+      </c>
+      <c r="S107">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G108" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I108">
         <v>635</v>
@@ -5071,28 +6323,40 @@
       <c r="K108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:17">
+      <c r="L108" t="s">
+        <v>439</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>2.5</v>
+      </c>
+      <c r="O108">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C109" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D109" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E109" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G109" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="H109">
-        <v>1.804878048780488</v>
+        <v>1.8048780487804881</v>
       </c>
       <c r="I109">
-        <v>778.2619047619048</v>
+        <v>778.26190476190482</v>
       </c>
       <c r="J109">
         <v>895.3</v>
@@ -5100,45 +6364,69 @@
       <c r="K109">
         <v>43</v>
       </c>
+      <c r="L109" t="s">
+        <v>439</v>
+      </c>
       <c r="M109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N109">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O109">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="P109">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:17">
+      <c r="Q109">
+        <v>1</v>
+      </c>
+      <c r="R109">
+        <v>1</v>
+      </c>
+      <c r="S109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H110">
-        <v>1.742857142857143</v>
+        <v>1.7428571428571431</v>
       </c>
       <c r="I110">
-        <v>1534.305555555556</v>
+        <v>1534.3055555555561</v>
       </c>
       <c r="J110">
-        <v>997.6551724137931</v>
+        <v>997.65517241379314</v>
       </c>
       <c r="K110">
         <v>36</v>
       </c>
-    </row>
-    <row r="111" spans="1:17">
+      <c r="L110" t="s">
+        <v>439</v>
+      </c>
+      <c r="M110">
+        <v>4</v>
+      </c>
+      <c r="N110">
+        <v>3.875</v>
+      </c>
+      <c r="O110">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H111">
-        <v>2.230769230769231</v>
+        <v>2.2307692307692308</v>
       </c>
       <c r="I111">
-        <v>762.0714285714286</v>
+        <v>762.07142857142856</v>
       </c>
       <c r="J111">
         <v>1000</v>
@@ -5146,25 +6434,37 @@
       <c r="K111">
         <v>14</v>
       </c>
-    </row>
-    <row r="112" spans="1:17">
+      <c r="L111" t="s">
+        <v>439</v>
+      </c>
+      <c r="M111">
+        <v>2</v>
+      </c>
+      <c r="N111">
+        <v>4.5</v>
+      </c>
+      <c r="O111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C112" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D112" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E112" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G112" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H112">
-        <v>2.170212765957447</v>
+        <v>2.1702127659574471</v>
       </c>
       <c r="I112">
         <v>780.58</v>
@@ -5175,22 +6475,34 @@
       <c r="K112">
         <v>51</v>
       </c>
+      <c r="L112" t="s">
+        <v>439</v>
+      </c>
       <c r="M112">
+        <v>8</v>
+      </c>
+      <c r="N112">
+        <v>3.5</v>
+      </c>
+      <c r="O112">
+        <v>24.375</v>
+      </c>
+      <c r="P112">
         <v>2</v>
       </c>
-      <c r="O112">
+      <c r="R112">
         <v>2</v>
       </c>
-      <c r="Q112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16">
+      <c r="T112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G113" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -5201,31 +6513,43 @@
       <c r="K113">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:16">
+      <c r="L113" t="s">
+        <v>439</v>
+      </c>
+      <c r="M113">
+        <v>2</v>
+      </c>
+      <c r="N113">
+        <v>4</v>
+      </c>
+      <c r="O113">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C114" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D114" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E114" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F114" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="G114" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H114">
         <v>2.06</v>
       </c>
       <c r="I114">
-        <v>1621.962264150943</v>
+        <v>1621.9622641509429</v>
       </c>
       <c r="J114">
         <v>1090.948717948718</v>
@@ -5233,19 +6557,31 @@
       <c r="K114">
         <v>53</v>
       </c>
+      <c r="L114" t="s">
+        <v>439</v>
+      </c>
       <c r="M114">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="N114">
+        <v>3.333333333333333</v>
       </c>
       <c r="O114">
-        <v>1</v>
+        <v>68.2</v>
       </c>
       <c r="P114">
+        <v>1</v>
+      </c>
+      <c r="R114">
+        <v>1</v>
+      </c>
+      <c r="S114">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H115">
         <v>2.5</v>
@@ -5259,917 +6595,17 @@
       <c r="K115">
         <v>10</v>
       </c>
-    </row>
-    <row r="116" spans="1:16">
-      <c r="A116" s="1">
-        <v>0</v>
-      </c>
-      <c r="L116" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16">
-      <c r="A117" s="1">
-        <v>1</v>
-      </c>
-      <c r="L117" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16">
-      <c r="A118" s="1">
+      <c r="L115" t="s">
+        <v>439</v>
+      </c>
+      <c r="M115">
         <v>2</v>
       </c>
-      <c r="L118" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16">
-      <c r="A119" s="1">
-        <v>3</v>
-      </c>
-      <c r="L119" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16">
-      <c r="A120" s="1">
-        <v>4</v>
-      </c>
-      <c r="L120" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16">
-      <c r="A121" s="1">
-        <v>5</v>
-      </c>
-      <c r="L121" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16">
-      <c r="A122" s="1">
-        <v>6</v>
-      </c>
-      <c r="L122" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16">
-      <c r="A123" s="1">
-        <v>7</v>
-      </c>
-      <c r="L123" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16">
-      <c r="A124" s="1">
-        <v>8</v>
-      </c>
-      <c r="L124" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16">
-      <c r="A125" s="1">
-        <v>9</v>
-      </c>
-      <c r="L125" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16">
-      <c r="A126" s="1">
-        <v>10</v>
-      </c>
-      <c r="L126" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16">
-      <c r="A127" s="1">
-        <v>11</v>
-      </c>
-      <c r="L127" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16">
-      <c r="A128" s="1">
-        <v>12</v>
-      </c>
-      <c r="L128" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12">
-      <c r="A129" s="1">
-        <v>13</v>
-      </c>
-      <c r="L129" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12">
-      <c r="A130" s="1">
-        <v>14</v>
-      </c>
-      <c r="L130" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12">
-      <c r="A131" s="1">
-        <v>15</v>
-      </c>
-      <c r="L131" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12">
-      <c r="A132" s="1">
-        <v>16</v>
-      </c>
-      <c r="L132" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12">
-      <c r="A133" s="1">
-        <v>17</v>
-      </c>
-      <c r="L133" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12">
-      <c r="A134" s="1">
-        <v>18</v>
-      </c>
-      <c r="L134" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12">
-      <c r="A135" s="1">
-        <v>19</v>
-      </c>
-      <c r="L135" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12">
-      <c r="A136" s="1">
-        <v>20</v>
-      </c>
-      <c r="L136" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12">
-      <c r="A137" s="1">
-        <v>21</v>
-      </c>
-      <c r="L137" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12">
-      <c r="A138" s="1">
-        <v>22</v>
-      </c>
-      <c r="L138" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12">
-      <c r="A139" s="1">
-        <v>23</v>
-      </c>
-      <c r="L139" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12">
-      <c r="A140" s="1">
-        <v>24</v>
-      </c>
-      <c r="L140" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12">
-      <c r="A141" s="1">
-        <v>25</v>
-      </c>
-      <c r="L141" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12">
-      <c r="A142" s="1">
-        <v>26</v>
-      </c>
-      <c r="L142" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12">
-      <c r="A143" s="1">
-        <v>27</v>
-      </c>
-      <c r="L143" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12">
-      <c r="A144" s="1">
-        <v>28</v>
-      </c>
-      <c r="L144" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12">
-      <c r="A145" s="1">
-        <v>29</v>
-      </c>
-      <c r="L145" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12">
-      <c r="A146" s="1">
-        <v>30</v>
-      </c>
-      <c r="L146" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12">
-      <c r="A147" s="1">
-        <v>31</v>
-      </c>
-      <c r="L147" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12">
-      <c r="A148" s="1">
-        <v>32</v>
-      </c>
-      <c r="L148" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12">
-      <c r="A149" s="1">
-        <v>33</v>
-      </c>
-      <c r="L149" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12">
-      <c r="A150" s="1">
-        <v>34</v>
-      </c>
-      <c r="L150" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12">
-      <c r="A151" s="1">
-        <v>35</v>
-      </c>
-      <c r="L151" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12">
-      <c r="A152" s="1">
-        <v>36</v>
-      </c>
-      <c r="L152" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12">
-      <c r="A153" s="1">
-        <v>37</v>
-      </c>
-      <c r="L153" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12">
-      <c r="A154" s="1">
-        <v>38</v>
-      </c>
-      <c r="L154" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12">
-      <c r="A155" s="1">
-        <v>39</v>
-      </c>
-      <c r="L155" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12">
-      <c r="A156" s="1">
-        <v>40</v>
-      </c>
-      <c r="L156" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12">
-      <c r="A157" s="1">
-        <v>41</v>
-      </c>
-      <c r="L157" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12">
-      <c r="A158" s="1">
-        <v>42</v>
-      </c>
-      <c r="L158" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12">
-      <c r="A159" s="1">
-        <v>43</v>
-      </c>
-      <c r="L159" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12">
-      <c r="A160" s="1">
-        <v>44</v>
-      </c>
-      <c r="L160" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12">
-      <c r="A161" s="1">
-        <v>45</v>
-      </c>
-      <c r="L161" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12">
-      <c r="A162" s="1">
-        <v>46</v>
-      </c>
-      <c r="L162" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12">
-      <c r="A163" s="1">
-        <v>47</v>
-      </c>
-      <c r="L163" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12">
-      <c r="A164" s="1">
-        <v>48</v>
-      </c>
-      <c r="L164" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12">
-      <c r="A165" s="1">
-        <v>49</v>
-      </c>
-      <c r="L165" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12">
-      <c r="A166" s="1">
-        <v>50</v>
-      </c>
-      <c r="L166" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12">
-      <c r="A167" s="1">
-        <v>51</v>
-      </c>
-      <c r="L167" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12">
-      <c r="A168" s="1">
-        <v>52</v>
-      </c>
-      <c r="L168" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12">
-      <c r="A169" s="1">
-        <v>53</v>
-      </c>
-      <c r="L169" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12">
-      <c r="A170" s="1">
-        <v>54</v>
-      </c>
-      <c r="L170" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12">
-      <c r="A171" s="1">
-        <v>55</v>
-      </c>
-      <c r="L171" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12">
-      <c r="A172" s="1">
-        <v>56</v>
-      </c>
-      <c r="L172" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12">
-      <c r="A173" s="1">
-        <v>57</v>
-      </c>
-      <c r="L173" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12">
-      <c r="A174" s="1">
-        <v>58</v>
-      </c>
-      <c r="L174" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12">
-      <c r="A175" s="1">
-        <v>59</v>
-      </c>
-      <c r="L175" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12">
-      <c r="A176" s="1">
-        <v>60</v>
-      </c>
-      <c r="L176" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12">
-      <c r="A177" s="1">
-        <v>61</v>
-      </c>
-      <c r="L177" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12">
-      <c r="A178" s="1">
-        <v>62</v>
-      </c>
-      <c r="L178" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12">
-      <c r="A179" s="1">
-        <v>63</v>
-      </c>
-      <c r="L179" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12">
-      <c r="A180" s="1">
-        <v>64</v>
-      </c>
-      <c r="L180" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12">
-      <c r="A181" s="1">
-        <v>65</v>
-      </c>
-      <c r="L181" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12">
-      <c r="A182" s="1">
-        <v>66</v>
-      </c>
-      <c r="L182" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12">
-      <c r="A183" s="1">
-        <v>67</v>
-      </c>
-      <c r="L183" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12">
-      <c r="A184" s="1">
-        <v>68</v>
-      </c>
-      <c r="L184" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12">
-      <c r="A185" s="1">
-        <v>69</v>
-      </c>
-      <c r="L185" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12">
-      <c r="A186" s="1">
-        <v>70</v>
-      </c>
-      <c r="L186" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12">
-      <c r="A187" s="1">
-        <v>71</v>
-      </c>
-      <c r="L187" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12">
-      <c r="A188" s="1">
-        <v>72</v>
-      </c>
-      <c r="L188" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12">
-      <c r="A189" s="1">
-        <v>73</v>
-      </c>
-      <c r="L189" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12">
-      <c r="A190" s="1">
-        <v>74</v>
-      </c>
-      <c r="L190" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12">
-      <c r="A191" s="1">
-        <v>75</v>
-      </c>
-      <c r="L191" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12">
-      <c r="A192" s="1">
-        <v>76</v>
-      </c>
-      <c r="L192" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12">
-      <c r="A193" s="1">
-        <v>77</v>
-      </c>
-      <c r="L193" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12">
-      <c r="A194" s="1">
-        <v>78</v>
-      </c>
-      <c r="L194" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12">
-      <c r="A195" s="1">
-        <v>79</v>
-      </c>
-      <c r="L195" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12">
-      <c r="A196" s="1">
-        <v>80</v>
-      </c>
-      <c r="L196" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12">
-      <c r="A197" s="1">
-        <v>81</v>
-      </c>
-      <c r="L197" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12">
-      <c r="A198" s="1">
-        <v>82</v>
-      </c>
-      <c r="L198" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12">
-      <c r="A199" s="1">
-        <v>83</v>
-      </c>
-      <c r="L199" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12">
-      <c r="A200" s="1">
-        <v>84</v>
-      </c>
-      <c r="L200" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12">
-      <c r="A201" s="1">
-        <v>85</v>
-      </c>
-      <c r="L201" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12">
-      <c r="A202" s="1">
-        <v>86</v>
-      </c>
-      <c r="L202" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12">
-      <c r="A203" s="1">
-        <v>87</v>
-      </c>
-      <c r="L203" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12">
-      <c r="A204" s="1">
-        <v>88</v>
-      </c>
-      <c r="L204" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12">
-      <c r="A205" s="1">
-        <v>89</v>
-      </c>
-      <c r="L205" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12">
-      <c r="A206" s="1">
-        <v>90</v>
-      </c>
-      <c r="L206" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12">
-      <c r="A207" s="1">
-        <v>91</v>
-      </c>
-      <c r="L207" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12">
-      <c r="A208" s="1">
-        <v>92</v>
-      </c>
-      <c r="L208" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12">
-      <c r="A209" s="1">
-        <v>93</v>
-      </c>
-      <c r="L209" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12">
-      <c r="A210" s="1">
-        <v>94</v>
-      </c>
-      <c r="L210" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12">
-      <c r="A211" s="1">
-        <v>95</v>
-      </c>
-      <c r="L211" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12">
-      <c r="A212" s="1">
-        <v>96</v>
-      </c>
-      <c r="L212" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12">
-      <c r="A213" s="1">
-        <v>97</v>
-      </c>
-      <c r="L213" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12">
-      <c r="A214" s="1">
-        <v>98</v>
-      </c>
-      <c r="L214" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12">
-      <c r="A215" s="1">
-        <v>99</v>
-      </c>
-      <c r="L215" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12">
-      <c r="A216" s="1">
-        <v>100</v>
-      </c>
-      <c r="L216" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12">
-      <c r="A217" s="1">
-        <v>101</v>
-      </c>
-      <c r="L217" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12">
-      <c r="A218" s="1">
-        <v>102</v>
-      </c>
-      <c r="L218" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12">
-      <c r="A219" s="1">
-        <v>103</v>
-      </c>
-      <c r="L219" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12">
-      <c r="A220" s="1">
-        <v>104</v>
-      </c>
-      <c r="L220" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="221" spans="1:12">
-      <c r="A221" s="1">
-        <v>105</v>
-      </c>
-      <c r="L221" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12">
-      <c r="A222" s="1">
-        <v>106</v>
-      </c>
-      <c r="L222" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12">
-      <c r="A223" s="1">
-        <v>107</v>
-      </c>
-      <c r="L223" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12">
-      <c r="A224" s="1">
-        <v>108</v>
-      </c>
-      <c r="L224" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="225" spans="1:12">
-      <c r="A225" s="1">
-        <v>109</v>
-      </c>
-      <c r="L225" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="226" spans="1:12">
-      <c r="A226" s="1">
-        <v>110</v>
-      </c>
-      <c r="L226" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="227" spans="1:12">
-      <c r="A227" s="1">
-        <v>111</v>
-      </c>
-      <c r="L227" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="228" spans="1:12">
-      <c r="A228" s="1">
-        <v>112</v>
-      </c>
-      <c r="L228" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="229" spans="1:12">
-      <c r="A229" s="1">
-        <v>113</v>
-      </c>
-      <c r="L229" t="s">
-        <v>129</v>
+      <c r="N115">
+        <v>4.25</v>
+      </c>
+      <c r="O115">
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajcai\OneDrive\Carnegie Mellon\95-888 Python\Final Project\Homi_clone2\Homi_DFP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_A966FDDDC201E8C9A0160B5D935CC68D502C42EE" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{7951E0FD-4302-4369-AEE8-6A0E2BA1665F}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1345,8 +1339,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1409,14 +1403,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1463,7 +1449,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1495,27 +1481,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1547,24 +1515,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1740,19 +1690,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L90" sqref="L90"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="12" max="12" width="13.21875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1811,7 +1756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1828,19 +1773,19 @@
         <v>377</v>
       </c>
       <c r="H2">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="I2">
-        <v>666.969696969697</v>
+        <v>649.375</v>
       </c>
       <c r="J2">
-        <v>1343.75</v>
+        <v>1550</v>
       </c>
       <c r="K2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,33 +1802,33 @@
         <v>378</v>
       </c>
       <c r="H3">
-        <v>2.333333333333333</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="I3">
-        <v>1020</v>
+        <v>887.1428571428571</v>
       </c>
       <c r="J3">
-        <v>1042</v>
+        <v>1094.666666666667</v>
       </c>
       <c r="K3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H4">
-        <v>1.833333333333333</v>
+        <v>1.6</v>
       </c>
       <c r="I4">
-        <v>780</v>
+        <v>746</v>
       </c>
       <c r="K4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1897,7 +1842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1911,19 +1856,19 @@
         <v>379</v>
       </c>
       <c r="H6">
-        <v>2.1714285714285708</v>
+        <v>2.179487179487179</v>
       </c>
       <c r="I6">
-        <v>662</v>
+        <v>667.5714285714286</v>
       </c>
       <c r="J6">
-        <v>889.77777777777783</v>
+        <v>874.1</v>
       </c>
       <c r="K6">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,19 +1882,19 @@
         <v>380</v>
       </c>
       <c r="H7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>1750</v>
+        <v>2000</v>
       </c>
       <c r="J7">
-        <v>1550</v>
+        <v>2000</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1969,10 +1914,10 @@
         <v>381</v>
       </c>
       <c r="H8">
-        <v>1.8888888888888891</v>
+        <v>1.888888888888889</v>
       </c>
       <c r="I8">
-        <v>887.5</v>
+        <v>887.2222222222222</v>
       </c>
       <c r="J8">
         <v>1178</v>
@@ -1981,7 +1926,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1995,7 +1940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -2003,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -2023,16 +1968,16 @@
         <v>2.333333333333333</v>
       </c>
       <c r="I11">
-        <v>858.88888888888891</v>
+        <v>867.5</v>
       </c>
       <c r="J11">
-        <v>1650</v>
+        <v>1600</v>
       </c>
       <c r="K11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -2043,19 +1988,19 @@
         <v>289</v>
       </c>
       <c r="H12">
-        <v>2.0612244897959182</v>
+        <v>2.071428571428572</v>
       </c>
       <c r="I12">
-        <v>727.85454545454547</v>
+        <v>736.1020408163265</v>
       </c>
       <c r="J12">
-        <v>897.9375</v>
+        <v>889.1538461538462</v>
       </c>
       <c r="K12">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -2072,56 +2017,56 @@
         <v>383</v>
       </c>
       <c r="H13">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>1448.75</v>
+        <v>1279</v>
       </c>
       <c r="J13">
-        <v>1500</v>
+        <v>1240</v>
       </c>
       <c r="K13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H14">
-        <v>2.486486486486486</v>
+        <v>2.543478260869565</v>
       </c>
       <c r="I14">
-        <v>754.15</v>
+        <v>688.0943396226415</v>
       </c>
       <c r="J14">
-        <v>1368.8571428571429</v>
+        <v>1368.857142857143</v>
       </c>
       <c r="K14">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="S14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H15">
-        <v>1.571428571428571</v>
+        <v>1.538461538461539</v>
       </c>
       <c r="I15">
-        <v>531.07142857142856</v>
+        <v>518.0769230769231</v>
       </c>
       <c r="J15">
         <v>700</v>
       </c>
       <c r="K15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,7 +2083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -2149,19 +2094,19 @@
         <v>384</v>
       </c>
       <c r="H17">
-        <v>2.7692307692307692</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="I17">
-        <v>871.42857142857144</v>
+        <v>856.6666666666666</v>
       </c>
       <c r="J17">
         <v>1047</v>
       </c>
       <c r="K17">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -2172,19 +2117,19 @@
         <v>385</v>
       </c>
       <c r="H18">
-        <v>1.77027027027027</v>
+        <v>1.794871794871795</v>
       </c>
       <c r="I18">
-        <v>649.80769230769226</v>
+        <v>647.1927710843373</v>
       </c>
       <c r="J18">
-        <v>707.89473684210532</v>
+        <v>754.7619047619048</v>
       </c>
       <c r="K18">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -2201,19 +2146,19 @@
         <v>386</v>
       </c>
       <c r="H19">
-        <v>2.2000000000000002</v>
+        <v>2.25</v>
       </c>
       <c r="I19">
-        <v>556.25</v>
+        <v>535.7142857142857</v>
       </c>
       <c r="J19">
         <v>1050</v>
       </c>
       <c r="K19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -2236,16 +2181,16 @@
         <v>2</v>
       </c>
       <c r="I20">
-        <v>1024.545454545455</v>
+        <v>988</v>
       </c>
       <c r="J20">
         <v>1101</v>
       </c>
       <c r="K20">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -2256,19 +2201,19 @@
         <v>388</v>
       </c>
       <c r="H21">
-        <v>1.928571428571429</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>644</v>
+        <v>645.3846153846154</v>
       </c>
       <c r="J21">
-        <v>1125</v>
+        <v>1075</v>
       </c>
       <c r="K21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -2285,19 +2230,19 @@
         <v>389</v>
       </c>
       <c r="H22">
-        <v>2.666666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="I22">
-        <v>1203.333333333333</v>
+        <v>891.6666666666666</v>
       </c>
       <c r="J22">
-        <v>1474.4</v>
+        <v>1270</v>
       </c>
       <c r="K22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -2314,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -2331,7 +2276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -2345,7 +2290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -2359,19 +2304,19 @@
         <v>390</v>
       </c>
       <c r="H26">
-        <v>1.9090909090909089</v>
+        <v>1.692307692307692</v>
       </c>
       <c r="I26">
-        <v>1245.3571428571429</v>
+        <v>1275.625</v>
       </c>
       <c r="J26">
-        <v>1150</v>
+        <v>976.6666666666666</v>
       </c>
       <c r="K26">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
@@ -2388,19 +2333,19 @@
         <v>391</v>
       </c>
       <c r="H27">
-        <v>1.8888888888888891</v>
+        <v>1.888888888888889</v>
       </c>
       <c r="I27">
-        <v>663.33333333333337</v>
+        <v>663.3333333333334</v>
       </c>
       <c r="J27">
-        <v>833.33333333333337</v>
+        <v>833.3333333333334</v>
       </c>
       <c r="K27">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
@@ -2417,19 +2362,19 @@
         <v>392</v>
       </c>
       <c r="H28">
-        <v>2.0909090909090908</v>
+        <v>2.3</v>
       </c>
       <c r="I28">
-        <v>3022.727272727273</v>
+        <v>3282.5</v>
       </c>
       <c r="J28">
-        <v>640</v>
+        <v>683.3333333333334</v>
       </c>
       <c r="K28">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2446,7 +2391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
@@ -2463,19 +2408,19 @@
         <v>393</v>
       </c>
       <c r="H30">
-        <v>2.1071428571428572</v>
+        <v>2.103448275862069</v>
       </c>
       <c r="I30">
-        <v>807.41379310344826</v>
+        <v>806</v>
       </c>
       <c r="J30">
-        <v>1074.285714285714</v>
+        <v>1085.555555555556</v>
       </c>
       <c r="K30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
@@ -2492,19 +2437,19 @@
         <v>394</v>
       </c>
       <c r="H31">
-        <v>2.083333333333333</v>
+        <v>2.125</v>
       </c>
       <c r="I31">
-        <v>661.2</v>
+        <v>1032.164556962025</v>
       </c>
       <c r="J31">
-        <v>1085.5</v>
+        <v>1035.642857142857</v>
       </c>
       <c r="K31">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
@@ -2521,13 +2466,16 @@
         <v>395</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="I32">
-        <v>671.5</v>
+        <v>846</v>
+      </c>
+      <c r="J32">
+        <v>1406</v>
       </c>
       <c r="K32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P32">
         <v>1</v>
@@ -2536,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20">
       <c r="A33" s="1" t="s">
         <v>50</v>
       </c>
@@ -2550,7 +2498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20">
       <c r="A34" s="1" t="s">
         <v>51</v>
       </c>
@@ -2564,7 +2512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20">
       <c r="A35" s="1" t="s">
         <v>52</v>
       </c>
@@ -2575,10 +2523,10 @@
         <v>1200</v>
       </c>
       <c r="K35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="1" t="s">
         <v>53</v>
       </c>
@@ -2595,19 +2543,19 @@
         <v>396</v>
       </c>
       <c r="H36">
-        <v>1.9523809523809521</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>682</v>
+        <v>706.7692307692307</v>
       </c>
       <c r="J36">
         <v>855</v>
       </c>
       <c r="K36">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="1" t="s">
         <v>54</v>
       </c>
@@ -2615,53 +2563,53 @@
         <v>397</v>
       </c>
       <c r="H37">
-        <v>2.333333333333333</v>
+        <v>2.4</v>
       </c>
       <c r="I37">
-        <v>730.55555555555554</v>
+        <v>732.5</v>
       </c>
       <c r="J37">
         <v>1200</v>
       </c>
       <c r="K37">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H38">
-        <v>1.6216216216216219</v>
+        <v>1.560975609756098</v>
       </c>
       <c r="I38">
-        <v>1565.2631578947371</v>
+        <v>1568.095238095238</v>
       </c>
       <c r="J38">
-        <v>978.51612903225805</v>
+        <v>973.8857142857142</v>
       </c>
       <c r="K38">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
       <c r="H39">
-        <v>2.1875</v>
+        <v>2.3</v>
       </c>
       <c r="I39">
-        <v>733.17647058823525</v>
+        <v>752.5833333333334</v>
       </c>
       <c r="J39">
         <v>900</v>
       </c>
       <c r="K39">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="1" t="s">
         <v>57</v>
       </c>
@@ -2669,19 +2617,19 @@
         <v>398</v>
       </c>
       <c r="H40">
-        <v>2.333333333333333</v>
+        <v>2.25</v>
       </c>
       <c r="I40">
-        <v>575</v>
+        <v>522.5</v>
       </c>
       <c r="J40">
         <v>1700</v>
       </c>
       <c r="K40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="1" t="s">
         <v>58</v>
       </c>
@@ -2701,16 +2649,16 @@
         <v>399</v>
       </c>
       <c r="H41">
-        <v>1.925925925925926</v>
+        <v>1.796875</v>
       </c>
       <c r="I41">
-        <v>1643.0701754385959</v>
+        <v>1633.731343283582</v>
       </c>
       <c r="J41">
-        <v>1102.068181818182</v>
+        <v>1079.5</v>
       </c>
       <c r="K41">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="P41">
         <v>1</v>
@@ -2722,7 +2670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20">
       <c r="A42" s="1" t="s">
         <v>59</v>
       </c>
@@ -2742,19 +2690,19 @@
         <v>400</v>
       </c>
       <c r="H42">
-        <v>2.0555555555555549</v>
+        <v>2.105263157894737</v>
       </c>
       <c r="I42">
-        <v>1028.6315789473681</v>
+        <v>1025.2</v>
       </c>
       <c r="J42">
-        <v>1006.8</v>
+        <v>1006.6</v>
       </c>
       <c r="K42">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
@@ -2774,13 +2722,13 @@
         <v>401</v>
       </c>
       <c r="H43">
-        <v>1.5249999999999999</v>
+        <v>1.508333333333333</v>
       </c>
       <c r="I43">
-        <v>907.76666666666665</v>
+        <v>865.325</v>
       </c>
       <c r="J43">
-        <v>878.23214285714289</v>
+        <v>880.625</v>
       </c>
       <c r="K43">
         <v>120</v>
@@ -2789,18 +2737,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20">
       <c r="A44" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H44">
-        <v>2.2666666666666671</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="I44">
-        <v>709.6875</v>
+        <v>717.5</v>
       </c>
       <c r="J44">
-        <v>1100</v>
+        <v>1130</v>
       </c>
       <c r="K44">
         <v>19</v>
@@ -2818,7 +2766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20">
       <c r="A45" s="1" t="s">
         <v>62</v>
       </c>
@@ -2835,13 +2783,13 @@
         <v>402</v>
       </c>
       <c r="H45">
-        <v>2.6428571428571428</v>
+        <v>2.734513274336283</v>
       </c>
       <c r="I45">
-        <v>575.84347826086957</v>
+        <v>569.1769911504425</v>
       </c>
       <c r="J45">
-        <v>1164.818181818182</v>
+        <v>1328</v>
       </c>
       <c r="K45">
         <v>120</v>
@@ -2856,7 +2804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20">
       <c r="A46" s="1" t="s">
         <v>63</v>
       </c>
@@ -2879,33 +2827,33 @@
         <v>383</v>
       </c>
       <c r="H46">
-        <v>1.5648148148148151</v>
+        <v>1.555555555555556</v>
       </c>
       <c r="I46">
-        <v>826.88983050847457</v>
+        <v>824.8559322033898</v>
       </c>
       <c r="J46">
-        <v>914.9795918367347</v>
+        <v>902.8367346938776</v>
       </c>
       <c r="K46">
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20">
       <c r="A47" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H47">
-        <v>1.705882352941176</v>
+        <v>1.764705882352941</v>
       </c>
       <c r="I47">
-        <v>495.10526315789468</v>
+        <v>511.7777777777778</v>
       </c>
       <c r="J47">
-        <v>983.33333333333337</v>
+        <v>983.3333333333334</v>
       </c>
       <c r="K47">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P47">
         <v>1</v>
@@ -2917,24 +2865,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20">
       <c r="A48" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H48">
-        <v>1.957446808510638</v>
+        <v>1.914893617021277</v>
       </c>
       <c r="I48">
-        <v>743.48</v>
+        <v>739.48</v>
       </c>
       <c r="J48">
-        <v>971.85714285714289</v>
+        <v>903.5</v>
       </c>
       <c r="K48">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20">
       <c r="A49" s="1" t="s">
         <v>66</v>
       </c>
@@ -2954,13 +2902,13 @@
         <v>403</v>
       </c>
       <c r="H49">
-        <v>1.9333333333333329</v>
+        <v>1.733333333333333</v>
       </c>
       <c r="I49">
-        <v>863.82352941176475</v>
+        <v>829.4117647058823</v>
       </c>
       <c r="J49">
-        <v>1063.166666666667</v>
+        <v>1006.4</v>
       </c>
       <c r="K49">
         <v>17</v>
@@ -2972,7 +2920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20">
       <c r="A50" s="1" t="s">
         <v>67</v>
       </c>
@@ -2986,16 +2934,16 @@
         <v>404</v>
       </c>
       <c r="H50">
-        <v>2.2820512820512819</v>
+        <v>2.317073170731707</v>
       </c>
       <c r="I50">
-        <v>826</v>
+        <v>824.8936170212766</v>
       </c>
       <c r="J50">
-        <v>1269.5238095238101</v>
+        <v>1251.304347826087</v>
       </c>
       <c r="K50">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P50">
         <v>5</v>
@@ -3013,7 +2961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20">
       <c r="A51" s="1" t="s">
         <v>68</v>
       </c>
@@ -3030,16 +2978,16 @@
         <v>405</v>
       </c>
       <c r="H51">
-        <v>2.2173913043478262</v>
+        <v>2.275</v>
       </c>
       <c r="I51">
-        <v>781.72549019607845</v>
+        <v>786.1111111111111</v>
       </c>
       <c r="J51">
-        <v>992.19047619047615</v>
+        <v>994.8421052631579</v>
       </c>
       <c r="K51">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P51">
         <v>2</v>
@@ -3051,7 +2999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20">
       <c r="A52" s="1" t="s">
         <v>69</v>
       </c>
@@ -3068,19 +3016,19 @@
         <v>406</v>
       </c>
       <c r="H52">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>851.5</v>
+        <v>820.625</v>
       </c>
       <c r="J52">
-        <v>1184.2</v>
+        <v>1025</v>
       </c>
       <c r="K52">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" s="1" t="s">
         <v>70</v>
       </c>
@@ -3097,19 +3045,19 @@
         <v>407</v>
       </c>
       <c r="H53">
-        <v>1.265625</v>
+        <v>1.25</v>
       </c>
       <c r="I53">
-        <v>749.10769230769233</v>
+        <v>748.5507246376811</v>
       </c>
       <c r="J53">
-        <v>800.46153846153845</v>
+        <v>776.0666666666667</v>
       </c>
       <c r="K53">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" s="1" t="s">
         <v>71</v>
       </c>
@@ -3126,33 +3074,33 @@
         <v>392</v>
       </c>
       <c r="H54">
-        <v>2.416666666666667</v>
+        <v>2.390243902439024</v>
       </c>
       <c r="I54">
-        <v>812.08571428571429</v>
+        <v>813.025</v>
       </c>
       <c r="J54">
-        <v>969.14285714285711</v>
+        <v>961.9411764705883</v>
       </c>
       <c r="K54">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" s="1" t="s">
         <v>72</v>
       </c>
       <c r="H55">
-        <v>1.8961038961038961</v>
+        <v>1.9125</v>
       </c>
       <c r="I55">
-        <v>683.81012658227849</v>
+        <v>685.8915662650602</v>
       </c>
       <c r="J55">
-        <v>1034.666666666667</v>
+        <v>989.8709677419355</v>
       </c>
       <c r="K55">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P55">
         <v>3</v>
@@ -3164,7 +3112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20">
       <c r="A56" s="1" t="s">
         <v>73</v>
       </c>
@@ -3190,7 +3138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20">
       <c r="A57" s="1" t="s">
         <v>74</v>
       </c>
@@ -3207,19 +3155,19 @@
         <v>409</v>
       </c>
       <c r="H57">
-        <v>1.9090909090909089</v>
+        <v>1.846153846153846</v>
       </c>
       <c r="I57">
-        <v>733.57142857142856</v>
+        <v>729.6875</v>
       </c>
       <c r="J57">
-        <v>930</v>
+        <v>903.75</v>
       </c>
       <c r="K57">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" s="1" t="s">
         <v>75</v>
       </c>
@@ -3233,16 +3181,16 @@
         <v>390</v>
       </c>
       <c r="H58">
-        <v>2.1111111111111112</v>
+        <v>2.048780487804878</v>
       </c>
       <c r="I58">
-        <v>642.41379310344826</v>
+        <v>615.7142857142857</v>
       </c>
       <c r="J58">
-        <v>1211.5</v>
+        <v>1218.090909090909</v>
       </c>
       <c r="K58">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P58">
         <v>12</v>
@@ -3260,7 +3208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20">
       <c r="A59" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,16 +3225,16 @@
         <v>396</v>
       </c>
       <c r="H59">
-        <v>1.825</v>
+        <v>1.814814814814815</v>
       </c>
       <c r="I59">
-        <v>665.08641975308637</v>
+        <v>654.1084337349398</v>
       </c>
       <c r="J59">
-        <v>764.56</v>
+        <v>746.96</v>
       </c>
       <c r="K59">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P59">
         <v>1</v>
@@ -3298,7 +3246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20">
       <c r="A60" s="1" t="s">
         <v>77</v>
       </c>
@@ -3315,36 +3263,36 @@
         <v>410</v>
       </c>
       <c r="H60">
-        <v>2.035714285714286</v>
+        <v>1.962962962962963</v>
       </c>
       <c r="I60">
-        <v>1131</v>
+        <v>1124.964285714286</v>
       </c>
       <c r="J60">
-        <v>1236.416666666667</v>
+        <v>1173.7</v>
       </c>
       <c r="K60">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>2.03125</v>
       </c>
       <c r="I61">
-        <v>675.54054054054052</v>
+        <v>684.078947368421</v>
       </c>
       <c r="J61">
         <v>1100</v>
       </c>
       <c r="K61">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" s="1" t="s">
         <v>79</v>
       </c>
@@ -3370,7 +3318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20">
       <c r="A63" s="1" t="s">
         <v>80</v>
       </c>
@@ -3390,16 +3338,16 @@
         <v>412</v>
       </c>
       <c r="H63">
-        <v>2.16</v>
+        <v>2.038461538461538</v>
       </c>
       <c r="I63">
-        <v>1276.5517241379309</v>
+        <v>1286.166666666667</v>
       </c>
       <c r="J63">
-        <v>1250.333333333333</v>
+        <v>1165.285714285714</v>
       </c>
       <c r="K63">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P63">
         <v>1</v>
@@ -3408,7 +3356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20">
       <c r="A64" s="1" t="s">
         <v>81</v>
       </c>
@@ -3443,7 +3391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20">
       <c r="A65" s="1" t="s">
         <v>82</v>
       </c>
@@ -3451,22 +3399,22 @@
         <v>134</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="I65">
-        <v>785.35714285714289</v>
+        <v>768.125</v>
       </c>
       <c r="J65">
-        <v>1052</v>
+        <v>950</v>
       </c>
       <c r="K65">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S65">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20">
       <c r="A66" s="1" t="s">
         <v>83</v>
       </c>
@@ -3486,16 +3434,16 @@
         <v>414</v>
       </c>
       <c r="H66">
-        <v>2.009345794392523</v>
+        <v>1.981651376146789</v>
       </c>
       <c r="I66">
-        <v>1086.018518518518</v>
+        <v>1108.518181818182</v>
       </c>
       <c r="J66">
-        <v>1033.876543209876</v>
+        <v>1027.714285714286</v>
       </c>
       <c r="K66">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P66">
         <v>5</v>
@@ -3507,7 +3455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20">
       <c r="A67" s="1" t="s">
         <v>84</v>
       </c>
@@ -3524,16 +3472,16 @@
         <v>415</v>
       </c>
       <c r="H67">
-        <v>1.8292682926829269</v>
+        <v>1.86046511627907</v>
       </c>
       <c r="I67">
-        <v>797.90476190476193</v>
+        <v>794.8139534883721</v>
       </c>
       <c r="J67">
-        <v>950.25</v>
+        <v>1029.153846153846</v>
       </c>
       <c r="K67">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P67">
         <v>2</v>
@@ -3548,24 +3496,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20">
       <c r="A68" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H68">
-        <v>2.2222222222222219</v>
+        <v>2.25</v>
       </c>
       <c r="I68">
-        <v>751.81818181818187</v>
+        <v>765.7142857142857</v>
       </c>
       <c r="J68">
-        <v>933.33333333333337</v>
+        <v>1040</v>
       </c>
       <c r="K68">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69" s="1" t="s">
         <v>86</v>
       </c>
@@ -3579,22 +3527,22 @@
         <v>416</v>
       </c>
       <c r="H69">
-        <v>2.1341463414634152</v>
+        <v>2.051020408163265</v>
       </c>
       <c r="I69">
-        <v>1036.1833333333329</v>
+        <v>1205.083333333333</v>
       </c>
       <c r="J69">
-        <v>1257.172413793103</v>
+        <v>1306.054054054054</v>
       </c>
       <c r="K69">
         <v>120</v>
       </c>
       <c r="P69">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q69">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R69">
         <v>25</v>
@@ -3606,7 +3554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20">
       <c r="A70" s="1" t="s">
         <v>87</v>
       </c>
@@ -3629,13 +3577,13 @@
         <v>417</v>
       </c>
       <c r="H70">
-        <v>1.9684210526315791</v>
+        <v>1.940594059405941</v>
       </c>
       <c r="I70">
-        <v>763.32500000000005</v>
+        <v>778.8833333333333</v>
       </c>
       <c r="J70">
-        <v>1047.125</v>
+        <v>1053.25</v>
       </c>
       <c r="K70">
         <v>120</v>
@@ -3650,7 +3598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20">
       <c r="A71" s="1" t="s">
         <v>88</v>
       </c>
@@ -3670,34 +3618,34 @@
         <v>418</v>
       </c>
       <c r="H71">
-        <v>2.034782608695652</v>
+        <v>1.830508474576271</v>
       </c>
       <c r="I71">
-        <v>1519.75</v>
+        <v>1662.266666666667</v>
       </c>
       <c r="J71">
-        <v>1113.882352941177</v>
+        <v>1113.218181818182</v>
       </c>
       <c r="K71">
         <v>120</v>
       </c>
       <c r="P71">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q71">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="R71">
         <v>124</v>
       </c>
       <c r="S71">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="T71">
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20">
       <c r="A72" s="1" t="s">
         <v>89</v>
       </c>
@@ -3708,34 +3656,34 @@
         <v>419</v>
       </c>
       <c r="H72">
-        <v>2.375</v>
+        <v>2.383333333333333</v>
       </c>
       <c r="I72">
-        <v>803.12068965517244</v>
+        <v>791.7903225806451</v>
       </c>
       <c r="J72">
-        <v>1224.545454545455</v>
+        <v>1116.923076923077</v>
       </c>
       <c r="K72">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P72">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q72">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="R72">
         <v>34</v>
       </c>
       <c r="S72">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="T72">
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20">
       <c r="A73" s="1" t="s">
         <v>90</v>
       </c>
@@ -3758,22 +3706,22 @@
         <v>420</v>
       </c>
       <c r="H73">
-        <v>1.9716981132075471</v>
+        <v>1.972222222222222</v>
       </c>
       <c r="I73">
-        <v>1253.705882352941</v>
+        <v>1275.294117647059</v>
       </c>
       <c r="J73">
-        <v>812.5</v>
+        <v>870.8333333333334</v>
       </c>
       <c r="K73">
         <v>120</v>
       </c>
       <c r="P73">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q73">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R73">
         <v>10</v>
@@ -3785,7 +3733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20">
       <c r="A74" s="1" t="s">
         <v>91</v>
       </c>
@@ -3805,34 +3753,34 @@
         <v>421</v>
       </c>
       <c r="H74">
-        <v>1.844036697247706</v>
+        <v>1.767241379310345</v>
       </c>
       <c r="I74">
-        <v>1174.0762711864411</v>
+        <v>1137.216666666667</v>
       </c>
       <c r="J74">
-        <v>1016.125</v>
+        <v>1016.842105263158</v>
       </c>
       <c r="K74">
         <v>120</v>
       </c>
       <c r="P74">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q74">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="R74">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S74">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="T74">
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20">
       <c r="A75" s="1" t="s">
         <v>92</v>
       </c>
@@ -3846,22 +3794,22 @@
         <v>392</v>
       </c>
       <c r="H75">
-        <v>2.347826086956522</v>
+        <v>2.421052631578947</v>
       </c>
       <c r="I75">
-        <v>887.81034482758616</v>
+        <v>889.3061224489796</v>
       </c>
       <c r="J75">
-        <v>1292.0588235294119</v>
+        <v>1160.8125</v>
       </c>
       <c r="K75">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="P75">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q75">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="R75">
         <v>25</v>
@@ -3873,39 +3821,39 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20">
       <c r="A76" s="1" t="s">
         <v>93</v>
       </c>
       <c r="H76">
-        <v>1.9396551724137929</v>
+        <v>2.067226890756303</v>
       </c>
       <c r="I76">
-        <v>1090.741666666667</v>
+        <v>1155.775</v>
       </c>
       <c r="J76">
-        <v>1298.8867924528299</v>
+        <v>1345.896551724138</v>
       </c>
       <c r="K76">
         <v>120</v>
       </c>
       <c r="P76">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q76">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="R76">
         <v>48</v>
       </c>
       <c r="S76">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="T76">
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20">
       <c r="A77" s="1" t="s">
         <v>94</v>
       </c>
@@ -3925,13 +3873,13 @@
         <v>406</v>
       </c>
       <c r="H77">
-        <v>1.752212389380531</v>
+        <v>1.787610619469026</v>
       </c>
       <c r="I77">
-        <v>846.58333333333337</v>
+        <v>848.0333333333333</v>
       </c>
       <c r="J77">
-        <v>750.28571428571433</v>
+        <v>752.7884615384615</v>
       </c>
       <c r="K77">
         <v>120</v>
@@ -3943,7 +3891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20">
       <c r="A78" s="1" t="s">
         <v>95</v>
       </c>
@@ -3957,34 +3905,34 @@
         <v>422</v>
       </c>
       <c r="H78">
-        <v>2.456521739130435</v>
+        <v>2.523255813953488</v>
       </c>
       <c r="I78">
-        <v>914.56310679611647</v>
+        <v>907.6041666666666</v>
       </c>
       <c r="J78">
-        <v>1207.2592592592589</v>
+        <v>1205.214285714286</v>
       </c>
       <c r="K78">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P78">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="Q78">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="R78">
         <v>110</v>
       </c>
       <c r="S78">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="T78">
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20">
       <c r="A79" s="1" t="s">
         <v>96</v>
       </c>
@@ -4001,34 +3949,34 @@
         <v>423</v>
       </c>
       <c r="H79">
-        <v>2.1944444444444451</v>
+        <v>2.203703703703704</v>
       </c>
       <c r="I79">
-        <v>991.45</v>
+        <v>993.8083333333333</v>
       </c>
       <c r="J79">
-        <v>1258.943396226415</v>
+        <v>1274.833333333333</v>
       </c>
       <c r="K79">
         <v>120</v>
       </c>
       <c r="P79">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q79">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R79">
         <v>27</v>
       </c>
       <c r="S79">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="T79">
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20">
       <c r="A80" s="1" t="s">
         <v>97</v>
       </c>
@@ -4045,34 +3993,34 @@
         <v>377</v>
       </c>
       <c r="H80">
-        <v>2.3137254901960791</v>
+        <v>2.297029702970297</v>
       </c>
       <c r="I80">
-        <v>1012.966666666667</v>
+        <v>1030.226890756303</v>
       </c>
       <c r="J80">
-        <v>959.34939759036149</v>
+        <v>967</v>
       </c>
       <c r="K80">
         <v>120</v>
       </c>
       <c r="P80">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="Q80">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="R80">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="S80">
-        <v>1271</v>
+        <v>1284</v>
       </c>
       <c r="T80">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20">
       <c r="A81" s="1" t="s">
         <v>98</v>
       </c>
@@ -4095,22 +4043,22 @@
         <v>424</v>
       </c>
       <c r="H81">
-        <v>3.168316831683168</v>
+        <v>2.373626373626374</v>
       </c>
       <c r="I81">
-        <v>1805.666666666667</v>
+        <v>1613.358333333333</v>
       </c>
       <c r="J81">
-        <v>1058.727272727273</v>
+        <v>1271.25</v>
       </c>
       <c r="K81">
         <v>120</v>
       </c>
       <c r="P81">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q81">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="R81">
         <v>26</v>
@@ -4119,10 +4067,10 @@
         <v>134</v>
       </c>
       <c r="T81">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" s="1" t="s">
         <v>99</v>
       </c>
@@ -4139,34 +4087,34 @@
         <v>425</v>
       </c>
       <c r="H82">
-        <v>2.4854368932038828</v>
+        <v>2.531914893617021</v>
       </c>
       <c r="I82">
-        <v>1049.7924528301889</v>
+        <v>1042.969072164949</v>
       </c>
       <c r="J82">
-        <v>1217.031578947368</v>
+        <v>1238.344827586207</v>
       </c>
       <c r="K82">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="P82">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q82">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="R82">
         <v>63</v>
       </c>
       <c r="S82">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="T82">
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20">
       <c r="A83" s="1" t="s">
         <v>100</v>
       </c>
@@ -4186,16 +4134,16 @@
         <v>387</v>
       </c>
       <c r="H83">
-        <v>2.0625</v>
+        <v>2.052631578947369</v>
       </c>
       <c r="I83">
-        <v>1047.25</v>
+        <v>1051.649122807018</v>
       </c>
       <c r="J83">
-        <v>1206.826086956522</v>
+        <v>1264.277777777778</v>
       </c>
       <c r="K83">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="P83">
         <v>1</v>
@@ -4207,7 +4155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20">
       <c r="A84" s="1" t="s">
         <v>101</v>
       </c>
@@ -4230,22 +4178,22 @@
         <v>398</v>
       </c>
       <c r="H84">
-        <v>1.8532110091743119</v>
+        <v>1.805555555555556</v>
       </c>
       <c r="I84">
-        <v>931.02521008403357</v>
+        <v>913.3193277310925</v>
       </c>
       <c r="J84">
-        <v>1208.2592592592589</v>
+        <v>1166.48</v>
       </c>
       <c r="K84">
         <v>120</v>
       </c>
       <c r="P84">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q84">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R84">
         <v>28</v>
@@ -4257,7 +4205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20">
       <c r="A85" s="1" t="s">
         <v>102</v>
       </c>
@@ -4277,13 +4225,13 @@
         <v>426</v>
       </c>
       <c r="H85">
-        <v>1.7666666666666671</v>
+        <v>1.636363636363636</v>
       </c>
       <c r="I85">
-        <v>1243.083333333333</v>
+        <v>1074.791666666667</v>
       </c>
       <c r="J85">
-        <v>952.9636363636364</v>
+        <v>957.265625</v>
       </c>
       <c r="K85">
         <v>120</v>
@@ -4304,7 +4252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20">
       <c r="A86" s="1" t="s">
         <v>103</v>
       </c>
@@ -4324,13 +4272,13 @@
         <v>394</v>
       </c>
       <c r="H86">
-        <v>1.5486725663716809</v>
+        <v>1.473684210526316</v>
       </c>
       <c r="I86">
-        <v>846.76666666666665</v>
+        <v>806.3666666666667</v>
       </c>
       <c r="J86">
-        <v>788.05</v>
+        <v>826.4625</v>
       </c>
       <c r="K86">
         <v>120</v>
@@ -4351,7 +4299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20">
       <c r="A87" s="1" t="s">
         <v>104</v>
       </c>
@@ -4359,34 +4307,34 @@
         <v>143</v>
       </c>
       <c r="H87">
-        <v>1.833333333333333</v>
+        <v>1.80188679245283</v>
       </c>
       <c r="I87">
-        <v>1510.991666666667</v>
+        <v>1474.15</v>
       </c>
       <c r="J87">
-        <v>1168.397959183673</v>
+        <v>1001.959183673469</v>
       </c>
       <c r="K87">
         <v>120</v>
       </c>
       <c r="P87">
-        <v>2421</v>
+        <v>2440</v>
       </c>
       <c r="Q87">
-        <v>1881</v>
+        <v>1895</v>
       </c>
       <c r="R87">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="S87">
-        <v>1544</v>
+        <v>1557</v>
       </c>
       <c r="T87">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20">
       <c r="A88" s="1" t="s">
         <v>105</v>
       </c>
@@ -4403,16 +4351,16 @@
         <v>391</v>
       </c>
       <c r="H88">
-        <v>2.2758620689655169</v>
+        <v>2.241379310344827</v>
       </c>
       <c r="I88">
-        <v>1105.4666666666669</v>
+        <v>1073.40625</v>
       </c>
       <c r="J88">
-        <v>1348.411764705882</v>
+        <v>1345.722222222222</v>
       </c>
       <c r="K88">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P88">
         <v>134</v>
@@ -4430,7 +4378,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20">
       <c r="A89" s="1" t="s">
         <v>106</v>
       </c>
@@ -4447,34 +4395,34 @@
         <v>427</v>
       </c>
       <c r="H89">
-        <v>1.821428571428571</v>
+        <v>1.848214285714286</v>
       </c>
       <c r="I89">
-        <v>970.97478991596643</v>
+        <v>1034.066666666667</v>
       </c>
       <c r="J89">
-        <v>1139.5</v>
+        <v>1196.845070422535</v>
       </c>
       <c r="K89">
         <v>120</v>
       </c>
       <c r="P89">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q89">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="R89">
         <v>61</v>
       </c>
       <c r="S89">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="T89">
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20">
       <c r="A90" s="1" t="s">
         <v>107</v>
       </c>
@@ -4485,13 +4433,13 @@
         <v>428</v>
       </c>
       <c r="H90">
-        <v>1.514285714285714</v>
+        <v>1.28695652173913</v>
       </c>
       <c r="I90">
-        <v>1416.6416666666671</v>
+        <v>1492.441666666667</v>
       </c>
       <c r="J90">
-        <v>777.78431372549016</v>
+        <v>842.7831325301205</v>
       </c>
       <c r="K90">
         <v>120</v>
@@ -4500,7 +4448,13 @@
         <v>439</v>
       </c>
       <c r="M90">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="N90">
+        <v>3.942857142857143</v>
+      </c>
+      <c r="O90">
+        <v>232.2857142857143</v>
       </c>
       <c r="P90">
         <v>150</v>
@@ -4512,13 +4466,13 @@
         <v>60</v>
       </c>
       <c r="S90">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="T90">
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20">
       <c r="A91" s="1" t="s">
         <v>108</v>
       </c>
@@ -4535,16 +4489,16 @@
         <v>429</v>
       </c>
       <c r="H91">
-        <v>1.884615384615385</v>
+        <v>1.92</v>
       </c>
       <c r="I91">
-        <v>798</v>
+        <v>808.72</v>
       </c>
       <c r="J91">
-        <v>1124</v>
+        <v>1244</v>
       </c>
       <c r="K91">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P91">
         <v>2</v>
@@ -4559,7 +4513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20">
       <c r="A92" s="1" t="s">
         <v>109</v>
       </c>
@@ -4573,22 +4527,22 @@
         <v>410</v>
       </c>
       <c r="H92">
-        <v>2.26605504587156</v>
+        <v>2.345132743362832</v>
       </c>
       <c r="I92">
-        <v>1524.7249999999999</v>
+        <v>1527.091666666667</v>
       </c>
       <c r="J92">
-        <v>975.0204081632653</v>
+        <v>974.3720930232558</v>
       </c>
       <c r="K92">
         <v>120</v>
       </c>
       <c r="P92">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q92">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R92">
         <v>21</v>
@@ -4597,24 +4551,24 @@
         <v>134</v>
       </c>
       <c r="T92">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
       <c r="A93" s="1" t="s">
         <v>110</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>1.909090909090909</v>
       </c>
       <c r="I93">
-        <v>876.6</v>
+        <v>856</v>
       </c>
       <c r="J93">
         <v>664.75</v>
       </c>
       <c r="K93">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P93">
         <v>1</v>
@@ -4626,7 +4580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20">
       <c r="A94" s="1" t="s">
         <v>111</v>
       </c>
@@ -4643,34 +4597,34 @@
         <v>394</v>
       </c>
       <c r="H94">
-        <v>1.927272727272727</v>
+        <v>1.963636363636364</v>
       </c>
       <c r="I94">
-        <v>1275.739495798319</v>
+        <v>1278.655462184874</v>
       </c>
       <c r="J94">
-        <v>1452.272727272727</v>
+        <v>1443.181818181818</v>
       </c>
       <c r="K94">
         <v>120</v>
       </c>
       <c r="P94">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q94">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R94">
         <v>19</v>
       </c>
       <c r="S94">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="T94">
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20">
       <c r="A95" s="1" t="s">
         <v>112</v>
       </c>
@@ -4687,16 +4641,16 @@
         <v>398</v>
       </c>
       <c r="H95">
-        <v>1.816901408450704</v>
+        <v>1.852941176470588</v>
       </c>
       <c r="I95">
-        <v>773.5</v>
+        <v>785.5</v>
       </c>
       <c r="J95">
-        <v>866.55555555555554</v>
+        <v>873.6666666666666</v>
       </c>
       <c r="K95">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P95">
         <v>50</v>
@@ -4714,7 +4668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20">
       <c r="A96" s="1" t="s">
         <v>113</v>
       </c>
@@ -4734,22 +4688,22 @@
         <v>430</v>
       </c>
       <c r="H96">
-        <v>1.732758620689655</v>
+        <v>1.827272727272727</v>
       </c>
       <c r="I96">
-        <v>1037.3083333333329</v>
+        <v>996.6521739130435</v>
       </c>
       <c r="J96">
-        <v>925.29166666666663</v>
+        <v>1025.911764705882</v>
       </c>
       <c r="K96">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="T96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20">
       <c r="A97" s="1" t="s">
         <v>114</v>
       </c>
@@ -4766,16 +4720,16 @@
         <v>431</v>
       </c>
       <c r="H97">
-        <v>1.5666666666666671</v>
+        <v>1.590163934426229</v>
       </c>
       <c r="I97">
-        <v>1062.515625</v>
+        <v>1061.938461538462</v>
       </c>
       <c r="J97">
-        <v>1303.9230769230769</v>
+        <v>1282.214285714286</v>
       </c>
       <c r="K97">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P97">
         <v>1</v>
@@ -4784,7 +4738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20">
       <c r="A98" s="1" t="s">
         <v>115</v>
       </c>
@@ -4807,13 +4761,13 @@
         <v>432</v>
       </c>
       <c r="H98">
-        <v>1.6936936936936939</v>
+        <v>1.536363636363636</v>
       </c>
       <c r="I98">
-        <v>1405.116666666667</v>
+        <v>1359.633333333333</v>
       </c>
       <c r="J98">
-        <v>917.42222222222222</v>
+        <v>969.7021276595744</v>
       </c>
       <c r="K98">
         <v>120</v>
@@ -4822,13 +4776,19 @@
         <v>439</v>
       </c>
       <c r="M98">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="N98">
+        <v>3.675</v>
+      </c>
+      <c r="O98">
+        <v>143.15</v>
       </c>
       <c r="P98">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q98">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R98">
         <v>6</v>
@@ -4840,7 +4800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20">
       <c r="A99" s="1" t="s">
         <v>116</v>
       </c>
@@ -4851,16 +4811,16 @@
         <v>433</v>
       </c>
       <c r="H99">
-        <v>1.7173913043478259</v>
+        <v>1.717171717171717</v>
       </c>
       <c r="I99">
-        <v>872.54368932038835</v>
+        <v>850.8660714285714</v>
       </c>
       <c r="J99">
-        <v>1187.6944444444439</v>
+        <v>1231.878787878788</v>
       </c>
       <c r="K99">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P99">
         <v>81</v>
@@ -4878,7 +4838,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20">
       <c r="A100" s="1" t="s">
         <v>117</v>
       </c>
@@ -4895,16 +4855,16 @@
         <v>397</v>
       </c>
       <c r="H100">
-        <v>2.0506329113924049</v>
+        <v>1.976744186046512</v>
       </c>
       <c r="I100">
-        <v>877.38202247191009</v>
+        <v>856.1354166666666</v>
       </c>
       <c r="J100">
-        <v>1189.166666666667</v>
+        <v>1036.333333333333</v>
       </c>
       <c r="K100">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="P100">
         <v>9</v>
@@ -4922,7 +4882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20">
       <c r="A101" s="1" t="s">
         <v>118</v>
       </c>
@@ -4945,16 +4905,16 @@
         <v>434</v>
       </c>
       <c r="H101">
-        <v>2.0188679245283021</v>
+        <v>2.017241379310345</v>
       </c>
       <c r="I101">
-        <v>779.68965517241384</v>
+        <v>779.9047619047619</v>
       </c>
       <c r="J101">
-        <v>962.35714285714289</v>
+        <v>933.6470588235294</v>
       </c>
       <c r="K101">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="P101">
         <v>7</v>
@@ -4969,7 +4929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20">
       <c r="A102" s="1" t="s">
         <v>119</v>
       </c>
@@ -4989,16 +4949,16 @@
         <v>381</v>
       </c>
       <c r="H102">
-        <v>1.795454545454545</v>
+        <v>2.060606060606061</v>
       </c>
       <c r="I102">
-        <v>872.08620689655174</v>
+        <v>950.5106382978723</v>
       </c>
       <c r="J102">
-        <v>1049.625</v>
+        <v>1085.727272727273</v>
       </c>
       <c r="K102">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="P102">
         <v>1</v>
@@ -5010,7 +4970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20">
       <c r="A103" s="1" t="s">
         <v>120</v>
       </c>
@@ -5033,13 +4993,13 @@
         <v>435</v>
       </c>
       <c r="H103">
-        <v>1.482758620689655</v>
+        <v>1.594827586206897</v>
       </c>
       <c r="I103">
-        <v>3124.1166666666668</v>
+        <v>980.2083333333334</v>
       </c>
       <c r="J103">
-        <v>887.75641025641028</v>
+        <v>871.9111111111112</v>
       </c>
       <c r="K103">
         <v>120</v>
@@ -5054,7 +5014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20">
       <c r="A104" s="1" t="s">
         <v>121</v>
       </c>
@@ -5074,16 +5034,16 @@
         <v>430</v>
       </c>
       <c r="H104">
-        <v>3.2407407407407409</v>
+        <v>3.298245614035088</v>
       </c>
       <c r="I104">
-        <v>2227.363636363636</v>
+        <v>2285.948275862069</v>
       </c>
       <c r="J104">
-        <v>1910</v>
+        <v>1820.555555555556</v>
       </c>
       <c r="K104">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="P104">
         <v>2</v>
@@ -5098,7 +5058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20">
       <c r="A105" s="1" t="s">
         <v>122</v>
       </c>
@@ -5115,19 +5075,19 @@
         <v>436</v>
       </c>
       <c r="H105">
-        <v>2.333333333333333</v>
+        <v>2.4</v>
       </c>
       <c r="I105">
-        <v>878.27777777777783</v>
+        <v>829.7619047619048</v>
       </c>
       <c r="J105">
         <v>1870</v>
       </c>
       <c r="K105">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20">
       <c r="A106" s="1" t="s">
         <v>123</v>
       </c>
@@ -5147,13 +5107,13 @@
         <v>437</v>
       </c>
       <c r="H106">
-        <v>1.3916666666666671</v>
+        <v>1.408333333333333</v>
       </c>
       <c r="I106">
-        <v>1226.083333333333</v>
+        <v>1198.75</v>
       </c>
       <c r="J106">
-        <v>839.22222222222217</v>
+        <v>835.771186440678</v>
       </c>
       <c r="K106">
         <v>120</v>
@@ -5165,7 +5125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20">
       <c r="A107" s="1" t="s">
         <v>124</v>
       </c>
@@ -5185,36 +5145,36 @@
         <v>399</v>
       </c>
       <c r="H107">
-        <v>2.1333333333333329</v>
+        <v>2.411764705882353</v>
       </c>
       <c r="I107">
-        <v>1273.6111111111111</v>
+        <v>1386.764705882353</v>
       </c>
       <c r="J107">
-        <v>1840.333333333333</v>
+        <v>1805.727272727273</v>
       </c>
       <c r="K107">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20">
       <c r="A108" s="1" t="s">
         <v>125</v>
       </c>
       <c r="H108">
-        <v>3.1304347826086958</v>
+        <v>3.160714285714286</v>
       </c>
       <c r="I108">
-        <v>1783.9416666666671</v>
+        <v>1832.35</v>
       </c>
       <c r="J108">
-        <v>2449.125</v>
+        <v>2457.222222222222</v>
       </c>
       <c r="K108">
         <v>120</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20">
       <c r="A109" s="1" t="s">
         <v>126</v>
       </c>
@@ -5231,7 +5191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20">
       <c r="A110" s="1" t="s">
         <v>127</v>
       </c>
@@ -5248,13 +5208,13 @@
         <v>2</v>
       </c>
       <c r="I110">
-        <v>894.33333333333337</v>
+        <v>975</v>
       </c>
       <c r="K110">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20">
       <c r="A111" s="1" t="s">
         <v>128</v>
       </c>
@@ -5262,19 +5222,19 @@
         <v>410</v>
       </c>
       <c r="H111">
-        <v>1.716417910447761</v>
+        <v>1.757142857142857</v>
       </c>
       <c r="I111">
-        <v>617.97368421052636</v>
+        <v>628.2625</v>
       </c>
       <c r="J111">
-        <v>814.12</v>
+        <v>824.6666666666666</v>
       </c>
       <c r="K111">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20">
       <c r="A112" s="1" t="s">
         <v>129</v>
       </c>
@@ -5285,13 +5245,13 @@
         <v>2.666666666666667</v>
       </c>
       <c r="I112">
-        <v>1281.4285714285711</v>
+        <v>1411.666666666667</v>
       </c>
       <c r="J112">
         <v>1637.5</v>
       </c>
       <c r="K112">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P112">
         <v>1</v>
@@ -5300,7 +5260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11">
       <c r="A113" s="1" t="s">
         <v>130</v>
       </c>
@@ -5314,19 +5274,19 @@
         <v>430</v>
       </c>
       <c r="H113">
-        <v>2.1111111111111112</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>1355.5</v>
+        <v>1302.727272727273</v>
       </c>
       <c r="J113">
         <v>1766.666666666667</v>
       </c>
       <c r="K113">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="1" t="s">
         <v>131</v>
       </c>
@@ -5343,21 +5303,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11">
       <c r="A115" s="1" t="s">
         <v>132</v>
       </c>
       <c r="G115" t="s">
         <v>383</v>
       </c>
+      <c r="H115">
+        <v>3</v>
+      </c>
       <c r="I115">
-        <v>635</v>
+        <v>1242.5</v>
       </c>
       <c r="J115">
-        <v>780</v>
+        <v>1564</v>
       </c>
       <c r="K115">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -1,15 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajcai\OneDrive\Carnegie Mellon\95-888 Python\Final Project\Homi_clone2\Homi_DFP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_A966FDDD7A616BE7A8160B6CD39EE1B7502C42B1" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{F9C4C776-5469-4BDD-98A0-C83EC3E5D66F}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$115</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1339,8 +1356,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1403,6 +1420,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1449,7 +1474,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1481,9 +1506,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1515,6 +1558,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1690,14 +1751,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:K89"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1756,7 +1820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1785,7 +1849,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,7 +1869,7 @@
         <v>2.166666666666667</v>
       </c>
       <c r="I3">
-        <v>887.1428571428571</v>
+        <v>887.14285714285711</v>
       </c>
       <c r="J3">
         <v>1094.666666666667</v>
@@ -1814,7 +1878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1828,7 +1892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1842,7 +1906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1856,10 +1920,10 @@
         <v>379</v>
       </c>
       <c r="H6">
-        <v>2.179487179487179</v>
+        <v>2.1794871794871788</v>
       </c>
       <c r="I6">
-        <v>667.5714285714286</v>
+        <v>667.57142857142856</v>
       </c>
       <c r="J6">
         <v>874.1</v>
@@ -1868,7 +1932,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1894,7 +1958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1914,10 +1978,10 @@
         <v>381</v>
       </c>
       <c r="H8">
-        <v>1.888888888888889</v>
+        <v>1.8888888888888891</v>
       </c>
       <c r="I8">
-        <v>887.2222222222222</v>
+        <v>887.22222222222217</v>
       </c>
       <c r="J8">
         <v>1178</v>
@@ -1926,7 +1990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1940,7 +2004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1948,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1977,7 +2041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -1988,19 +2052,19 @@
         <v>289</v>
       </c>
       <c r="H12">
-        <v>2.071428571428572</v>
+        <v>2.0714285714285721</v>
       </c>
       <c r="I12">
-        <v>736.1020408163265</v>
+        <v>736.10204081632651</v>
       </c>
       <c r="J12">
-        <v>889.1538461538462</v>
+        <v>889.15384615384619</v>
       </c>
       <c r="K12">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -2029,7 +2093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -2037,10 +2101,10 @@
         <v>2.543478260869565</v>
       </c>
       <c r="I14">
-        <v>688.0943396226415</v>
+        <v>688.09433962264154</v>
       </c>
       <c r="J14">
-        <v>1368.857142857143</v>
+        <v>1368.8571428571429</v>
       </c>
       <c r="K14">
         <v>53</v>
@@ -2049,7 +2113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -2057,7 +2121,7 @@
         <v>1.538461538461539</v>
       </c>
       <c r="I15">
-        <v>518.0769230769231</v>
+        <v>518.07692307692309</v>
       </c>
       <c r="J15">
         <v>700</v>
@@ -2066,7 +2130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -2083,7 +2147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -2097,7 +2161,7 @@
         <v>2.714285714285714</v>
       </c>
       <c r="I17">
-        <v>856.6666666666666</v>
+        <v>856.66666666666663</v>
       </c>
       <c r="J17">
         <v>1047</v>
@@ -2106,7 +2170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -2117,19 +2181,19 @@
         <v>385</v>
       </c>
       <c r="H18">
-        <v>1.794871794871795</v>
+        <v>1.7948717948717949</v>
       </c>
       <c r="I18">
-        <v>647.1927710843373</v>
+        <v>647.19277108433732</v>
       </c>
       <c r="J18">
-        <v>754.7619047619048</v>
+        <v>754.76190476190482</v>
       </c>
       <c r="K18">
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -2149,7 +2213,7 @@
         <v>2.25</v>
       </c>
       <c r="I19">
-        <v>535.7142857142857</v>
+        <v>535.71428571428567</v>
       </c>
       <c r="J19">
         <v>1050</v>
@@ -2158,7 +2222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -2190,7 +2254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -2204,7 +2268,7 @@
         <v>2</v>
       </c>
       <c r="I21">
-        <v>645.3846153846154</v>
+        <v>645.38461538461536</v>
       </c>
       <c r="J21">
         <v>1075</v>
@@ -2213,7 +2277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -2233,7 +2297,7 @@
         <v>2.333333333333333</v>
       </c>
       <c r="I22">
-        <v>891.6666666666666</v>
+        <v>891.66666666666663</v>
       </c>
       <c r="J22">
         <v>1270</v>
@@ -2242,7 +2306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -2259,7 +2323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -2276,7 +2340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -2290,7 +2354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -2304,19 +2368,19 @@
         <v>390</v>
       </c>
       <c r="H26">
-        <v>1.692307692307692</v>
+        <v>1.6923076923076921</v>
       </c>
       <c r="I26">
         <v>1275.625</v>
       </c>
       <c r="J26">
-        <v>976.6666666666666</v>
+        <v>976.66666666666663</v>
       </c>
       <c r="K26">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
@@ -2333,19 +2397,19 @@
         <v>391</v>
       </c>
       <c r="H27">
-        <v>1.888888888888889</v>
+        <v>1.8888888888888891</v>
       </c>
       <c r="I27">
-        <v>663.3333333333334</v>
+        <v>663.33333333333337</v>
       </c>
       <c r="J27">
-        <v>833.3333333333334</v>
+        <v>833.33333333333337</v>
       </c>
       <c r="K27">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
@@ -2362,19 +2426,19 @@
         <v>392</v>
       </c>
       <c r="H28">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I28">
         <v>3282.5</v>
       </c>
       <c r="J28">
-        <v>683.3333333333334</v>
+        <v>683.33333333333337</v>
       </c>
       <c r="K28">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2391,7 +2455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
@@ -2414,13 +2478,13 @@
         <v>806</v>
       </c>
       <c r="J30">
-        <v>1085.555555555556</v>
+        <v>1085.5555555555561</v>
       </c>
       <c r="K30">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
@@ -2443,13 +2507,13 @@
         <v>1032.164556962025</v>
       </c>
       <c r="J31">
-        <v>1035.642857142857</v>
+        <v>1035.6428571428571</v>
       </c>
       <c r="K31">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
@@ -2484,7 +2548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>50</v>
       </c>
@@ -2498,7 +2562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>51</v>
       </c>
@@ -2512,7 +2576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>52</v>
       </c>
@@ -2526,7 +2590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>53</v>
       </c>
@@ -2546,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="I36">
-        <v>706.7692307692307</v>
+        <v>706.76923076923072</v>
       </c>
       <c r="J36">
         <v>855</v>
@@ -2555,7 +2619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>54</v>
       </c>
@@ -2575,32 +2639,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H38">
-        <v>1.560975609756098</v>
+        <v>1.5609756097560981</v>
       </c>
       <c r="I38">
-        <v>1568.095238095238</v>
+        <v>1568.0952380952381</v>
       </c>
       <c r="J38">
-        <v>973.8857142857142</v>
+        <v>973.88571428571424</v>
       </c>
       <c r="K38">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
       <c r="H39">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I39">
-        <v>752.5833333333334</v>
+        <v>752.58333333333337</v>
       </c>
       <c r="J39">
         <v>900</v>
@@ -2609,7 +2673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>57</v>
       </c>
@@ -2629,7 +2693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>58</v>
       </c>
@@ -2670,7 +2734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>59</v>
       </c>
@@ -2690,7 +2754,7 @@
         <v>400</v>
       </c>
       <c r="H42">
-        <v>2.105263157894737</v>
+        <v>2.1052631578947372</v>
       </c>
       <c r="I42">
         <v>1025.2</v>
@@ -2702,7 +2766,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
@@ -2722,10 +2786,10 @@
         <v>401</v>
       </c>
       <c r="H43">
-        <v>1.508333333333333</v>
+        <v>1.5083333333333331</v>
       </c>
       <c r="I43">
-        <v>865.325</v>
+        <v>865.32500000000005</v>
       </c>
       <c r="J43">
         <v>880.625</v>
@@ -2737,12 +2801,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H44">
-        <v>2.266666666666667</v>
+        <v>2.2666666666666671</v>
       </c>
       <c r="I44">
         <v>717.5</v>
@@ -2766,7 +2830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>62</v>
       </c>
@@ -2783,10 +2847,10 @@
         <v>402</v>
       </c>
       <c r="H45">
-        <v>2.734513274336283</v>
+        <v>2.7345132743362832</v>
       </c>
       <c r="I45">
-        <v>569.1769911504425</v>
+        <v>569.17699115044252</v>
       </c>
       <c r="J45">
         <v>1328</v>
@@ -2804,7 +2868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>63</v>
       </c>
@@ -2830,27 +2894,27 @@
         <v>1.555555555555556</v>
       </c>
       <c r="I46">
-        <v>824.8559322033898</v>
+        <v>824.85593220338978</v>
       </c>
       <c r="J46">
-        <v>902.8367346938776</v>
+        <v>902.83673469387759</v>
       </c>
       <c r="K46">
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H47">
-        <v>1.764705882352941</v>
+        <v>1.7647058823529409</v>
       </c>
       <c r="I47">
-        <v>511.7777777777778</v>
+        <v>511.77777777777783</v>
       </c>
       <c r="J47">
-        <v>983.3333333333334</v>
+        <v>983.33333333333337</v>
       </c>
       <c r="K47">
         <v>22</v>
@@ -2865,12 +2929,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H48">
-        <v>1.914893617021277</v>
+        <v>1.9148936170212769</v>
       </c>
       <c r="I48">
         <v>739.48</v>
@@ -2882,7 +2946,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>66</v>
       </c>
@@ -2902,10 +2966,10 @@
         <v>403</v>
       </c>
       <c r="H49">
-        <v>1.733333333333333</v>
+        <v>1.7333333333333329</v>
       </c>
       <c r="I49">
-        <v>829.4117647058823</v>
+        <v>829.41176470588232</v>
       </c>
       <c r="J49">
         <v>1006.4</v>
@@ -2920,7 +2984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>67</v>
       </c>
@@ -2934,10 +2998,10 @@
         <v>404</v>
       </c>
       <c r="H50">
-        <v>2.317073170731707</v>
+        <v>2.3170731707317072</v>
       </c>
       <c r="I50">
-        <v>824.8936170212766</v>
+        <v>824.89361702127655</v>
       </c>
       <c r="J50">
         <v>1251.304347826087</v>
@@ -2961,7 +3025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>68</v>
       </c>
@@ -2978,13 +3042,13 @@
         <v>405</v>
       </c>
       <c r="H51">
-        <v>2.275</v>
+        <v>2.2749999999999999</v>
       </c>
       <c r="I51">
-        <v>786.1111111111111</v>
+        <v>786.11111111111109</v>
       </c>
       <c r="J51">
-        <v>994.8421052631579</v>
+        <v>994.84210526315792</v>
       </c>
       <c r="K51">
         <v>45</v>
@@ -2999,7 +3063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>69</v>
       </c>
@@ -3028,7 +3092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>70</v>
       </c>
@@ -3048,16 +3112,16 @@
         <v>1.25</v>
       </c>
       <c r="I53">
-        <v>748.5507246376811</v>
+        <v>748.55072463768113</v>
       </c>
       <c r="J53">
-        <v>776.0666666666667</v>
+        <v>776.06666666666672</v>
       </c>
       <c r="K53">
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>71</v>
       </c>
@@ -3074,30 +3138,30 @@
         <v>392</v>
       </c>
       <c r="H54">
-        <v>2.390243902439024</v>
+        <v>2.3902439024390238</v>
       </c>
       <c r="I54">
-        <v>813.025</v>
+        <v>813.02499999999998</v>
       </c>
       <c r="J54">
-        <v>961.9411764705883</v>
+        <v>961.94117647058829</v>
       </c>
       <c r="K54">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>72</v>
       </c>
       <c r="H55">
-        <v>1.9125</v>
+        <v>1.9125000000000001</v>
       </c>
       <c r="I55">
-        <v>685.8915662650602</v>
+        <v>685.89156626506019</v>
       </c>
       <c r="J55">
-        <v>989.8709677419355</v>
+        <v>989.87096774193549</v>
       </c>
       <c r="K55">
         <v>84</v>
@@ -3112,7 +3176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>73</v>
       </c>
@@ -3138,7 +3202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>74</v>
       </c>
@@ -3167,7 +3231,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>75</v>
       </c>
@@ -3181,10 +3245,10 @@
         <v>390</v>
       </c>
       <c r="H58">
-        <v>2.048780487804878</v>
+        <v>2.0487804878048781</v>
       </c>
       <c r="I58">
-        <v>615.7142857142857</v>
+        <v>615.71428571428567</v>
       </c>
       <c r="J58">
         <v>1218.090909090909</v>
@@ -3208,7 +3272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>76</v>
       </c>
@@ -3225,10 +3289,10 @@
         <v>396</v>
       </c>
       <c r="H59">
-        <v>1.814814814814815</v>
+        <v>1.8148148148148151</v>
       </c>
       <c r="I59">
-        <v>654.1084337349398</v>
+        <v>654.10843373493981</v>
       </c>
       <c r="J59">
         <v>746.96</v>
@@ -3246,7 +3310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>77</v>
       </c>
@@ -3275,7 +3339,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>78</v>
       </c>
@@ -3283,7 +3347,7 @@
         <v>2.03125</v>
       </c>
       <c r="I61">
-        <v>684.078947368421</v>
+        <v>684.07894736842104</v>
       </c>
       <c r="J61">
         <v>1100</v>
@@ -3292,7 +3356,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>79</v>
       </c>
@@ -3318,7 +3382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>80</v>
       </c>
@@ -3338,7 +3402,7 @@
         <v>412</v>
       </c>
       <c r="H63">
-        <v>2.038461538461538</v>
+        <v>2.0384615384615379</v>
       </c>
       <c r="I63">
         <v>1286.166666666667</v>
@@ -3356,7 +3420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>81</v>
       </c>
@@ -3391,7 +3455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>82</v>
       </c>
@@ -3414,7 +3478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>83</v>
       </c>
@@ -3434,7 +3498,7 @@
         <v>414</v>
       </c>
       <c r="H66">
-        <v>1.981651376146789</v>
+        <v>1.9816513761467891</v>
       </c>
       <c r="I66">
         <v>1108.518181818182</v>
@@ -3455,7 +3519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>84</v>
       </c>
@@ -3475,7 +3539,7 @@
         <v>1.86046511627907</v>
       </c>
       <c r="I67">
-        <v>794.8139534883721</v>
+        <v>794.81395348837214</v>
       </c>
       <c r="J67">
         <v>1029.153846153846</v>
@@ -3496,7 +3560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>85</v>
       </c>
@@ -3504,7 +3568,7 @@
         <v>2.25</v>
       </c>
       <c r="I68">
-        <v>765.7142857142857</v>
+        <v>765.71428571428567</v>
       </c>
       <c r="J68">
         <v>1040</v>
@@ -3513,7 +3577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>86</v>
       </c>
@@ -3527,13 +3591,13 @@
         <v>416</v>
       </c>
       <c r="H69">
-        <v>2.051020408163265</v>
+        <v>2.0510204081632648</v>
       </c>
       <c r="I69">
         <v>1205.083333333333</v>
       </c>
       <c r="J69">
-        <v>1306.054054054054</v>
+        <v>1306.0540540540539</v>
       </c>
       <c r="K69">
         <v>120</v>
@@ -3554,7 +3618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>87</v>
       </c>
@@ -3580,7 +3644,7 @@
         <v>1.940594059405941</v>
       </c>
       <c r="I70">
-        <v>778.8833333333333</v>
+        <v>778.88333333333333</v>
       </c>
       <c r="J70">
         <v>1053.25</v>
@@ -3598,7 +3662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>88</v>
       </c>
@@ -3621,10 +3685,10 @@
         <v>1.830508474576271</v>
       </c>
       <c r="I71">
-        <v>1662.266666666667</v>
+        <v>1662.2666666666671</v>
       </c>
       <c r="J71">
-        <v>1113.218181818182</v>
+        <v>1113.2181818181821</v>
       </c>
       <c r="K71">
         <v>120</v>
@@ -3645,7 +3709,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>89</v>
       </c>
@@ -3656,13 +3720,13 @@
         <v>419</v>
       </c>
       <c r="H72">
-        <v>2.383333333333333</v>
+        <v>2.3833333333333329</v>
       </c>
       <c r="I72">
-        <v>791.7903225806451</v>
+        <v>791.79032258064512</v>
       </c>
       <c r="J72">
-        <v>1116.923076923077</v>
+        <v>1116.9230769230769</v>
       </c>
       <c r="K72">
         <v>62</v>
@@ -3683,7 +3747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>90</v>
       </c>
@@ -3706,13 +3770,13 @@
         <v>420</v>
       </c>
       <c r="H73">
-        <v>1.972222222222222</v>
+        <v>1.9722222222222221</v>
       </c>
       <c r="I73">
         <v>1275.294117647059</v>
       </c>
       <c r="J73">
-        <v>870.8333333333334</v>
+        <v>870.83333333333337</v>
       </c>
       <c r="K73">
         <v>120</v>
@@ -3733,7 +3797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>91</v>
       </c>
@@ -3756,7 +3820,7 @@
         <v>1.767241379310345</v>
       </c>
       <c r="I74">
-        <v>1137.216666666667</v>
+        <v>1137.2166666666669</v>
       </c>
       <c r="J74">
         <v>1016.842105263158</v>
@@ -3780,7 +3844,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>92</v>
       </c>
@@ -3794,10 +3858,10 @@
         <v>392</v>
       </c>
       <c r="H75">
-        <v>2.421052631578947</v>
+        <v>2.4210526315789469</v>
       </c>
       <c r="I75">
-        <v>889.3061224489796</v>
+        <v>889.30612244897964</v>
       </c>
       <c r="J75">
         <v>1160.8125</v>
@@ -3821,18 +3885,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>93</v>
       </c>
       <c r="H76">
-        <v>2.067226890756303</v>
+        <v>2.0672268907563032</v>
       </c>
       <c r="I76">
-        <v>1155.775</v>
+        <v>1155.7750000000001</v>
       </c>
       <c r="J76">
-        <v>1345.896551724138</v>
+        <v>1345.8965517241379</v>
       </c>
       <c r="K76">
         <v>120</v>
@@ -3853,7 +3917,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>94</v>
       </c>
@@ -3879,7 +3943,7 @@
         <v>848.0333333333333</v>
       </c>
       <c r="J77">
-        <v>752.7884615384615</v>
+        <v>752.78846153846155</v>
       </c>
       <c r="K77">
         <v>120</v>
@@ -3891,7 +3955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>95</v>
       </c>
@@ -3908,7 +3972,7 @@
         <v>2.523255813953488</v>
       </c>
       <c r="I78">
-        <v>907.6041666666666</v>
+        <v>907.60416666666663</v>
       </c>
       <c r="J78">
         <v>1205.214285714286</v>
@@ -3932,7 +3996,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>96</v>
       </c>
@@ -3949,10 +4013,10 @@
         <v>423</v>
       </c>
       <c r="H79">
-        <v>2.203703703703704</v>
+        <v>2.2037037037037042</v>
       </c>
       <c r="I79">
-        <v>993.8083333333333</v>
+        <v>993.80833333333328</v>
       </c>
       <c r="J79">
         <v>1274.833333333333</v>
@@ -3976,7 +4040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>97</v>
       </c>
@@ -3993,7 +4057,7 @@
         <v>377</v>
       </c>
       <c r="H80">
-        <v>2.297029702970297</v>
+        <v>2.2970297029702968</v>
       </c>
       <c r="I80">
         <v>1030.226890756303</v>
@@ -4020,7 +4084,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>98</v>
       </c>
@@ -4043,10 +4107,10 @@
         <v>424</v>
       </c>
       <c r="H81">
-        <v>2.373626373626374</v>
+        <v>2.3736263736263741</v>
       </c>
       <c r="I81">
-        <v>1613.358333333333</v>
+        <v>1613.3583333333329</v>
       </c>
       <c r="J81">
         <v>1271.25</v>
@@ -4070,7 +4134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>99</v>
       </c>
@@ -4087,7 +4151,7 @@
         <v>425</v>
       </c>
       <c r="H82">
-        <v>2.531914893617021</v>
+        <v>2.5319148936170208</v>
       </c>
       <c r="I82">
         <v>1042.969072164949</v>
@@ -4114,7 +4178,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>100</v>
       </c>
@@ -4137,10 +4201,10 @@
         <v>2.052631578947369</v>
       </c>
       <c r="I83">
-        <v>1051.649122807018</v>
+        <v>1051.6491228070181</v>
       </c>
       <c r="J83">
-        <v>1264.277777777778</v>
+        <v>1264.2777777777781</v>
       </c>
       <c r="K83">
         <v>57</v>
@@ -4155,7 +4219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>101</v>
       </c>
@@ -4181,7 +4245,7 @@
         <v>1.805555555555556</v>
       </c>
       <c r="I84">
-        <v>913.3193277310925</v>
+        <v>913.31932773109247</v>
       </c>
       <c r="J84">
         <v>1166.48</v>
@@ -4205,7 +4269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>102</v>
       </c>
@@ -4252,7 +4316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>103</v>
       </c>
@@ -4272,13 +4336,13 @@
         <v>394</v>
       </c>
       <c r="H86">
-        <v>1.473684210526316</v>
+        <v>1.4736842105263159</v>
       </c>
       <c r="I86">
-        <v>806.3666666666667</v>
+        <v>806.36666666666667</v>
       </c>
       <c r="J86">
-        <v>826.4625</v>
+        <v>826.46249999999998</v>
       </c>
       <c r="K86">
         <v>120</v>
@@ -4299,7 +4363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>104</v>
       </c>
@@ -4307,13 +4371,13 @@
         <v>143</v>
       </c>
       <c r="H87">
-        <v>1.80188679245283</v>
+        <v>1.8018867924528299</v>
       </c>
       <c r="I87">
         <v>1474.15</v>
       </c>
       <c r="J87">
-        <v>1001.959183673469</v>
+        <v>1001.9591836734691</v>
       </c>
       <c r="K87">
         <v>120</v>
@@ -4334,7 +4398,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>105</v>
       </c>
@@ -4357,7 +4421,7 @@
         <v>1073.40625</v>
       </c>
       <c r="J88">
-        <v>1345.722222222222</v>
+        <v>1345.7222222222219</v>
       </c>
       <c r="K88">
         <v>32</v>
@@ -4378,7 +4442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>106</v>
       </c>
@@ -4398,10 +4462,10 @@
         <v>1.848214285714286</v>
       </c>
       <c r="I89">
-        <v>1034.066666666667</v>
+        <v>1034.0666666666671</v>
       </c>
       <c r="J89">
-        <v>1196.845070422535</v>
+        <v>1196.8450704225349</v>
       </c>
       <c r="K89">
         <v>120</v>
@@ -4422,7 +4486,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>107</v>
       </c>
@@ -4433,10 +4497,10 @@
         <v>428</v>
       </c>
       <c r="H90">
-        <v>1.28695652173913</v>
+        <v>1.2869565217391301</v>
       </c>
       <c r="I90">
-        <v>1492.441666666667</v>
+        <v>1492.4416666666671</v>
       </c>
       <c r="J90">
         <v>842.7831325301205</v>
@@ -4451,10 +4515,10 @@
         <v>35</v>
       </c>
       <c r="N90">
-        <v>3.942857142857143</v>
+        <v>3.9428571428571431</v>
       </c>
       <c r="O90">
-        <v>232.2857142857143</v>
+        <v>232.28571428571431</v>
       </c>
       <c r="P90">
         <v>150</v>
@@ -4472,7 +4536,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>108</v>
       </c>
@@ -4513,7 +4577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>109</v>
       </c>
@@ -4527,13 +4591,13 @@
         <v>410</v>
       </c>
       <c r="H92">
-        <v>2.345132743362832</v>
+        <v>2.3451327433628322</v>
       </c>
       <c r="I92">
-        <v>1527.091666666667</v>
+        <v>1527.0916666666669</v>
       </c>
       <c r="J92">
-        <v>974.3720930232558</v>
+        <v>974.37209302325584</v>
       </c>
       <c r="K92">
         <v>120</v>
@@ -4554,12 +4618,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>110</v>
       </c>
       <c r="H93">
-        <v>1.909090909090909</v>
+        <v>1.9090909090909089</v>
       </c>
       <c r="I93">
         <v>856</v>
@@ -4580,7 +4644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>111</v>
       </c>
@@ -4597,10 +4661,10 @@
         <v>394</v>
       </c>
       <c r="H94">
-        <v>1.963636363636364</v>
+        <v>1.9636363636363641</v>
       </c>
       <c r="I94">
-        <v>1278.655462184874</v>
+        <v>1278.6554621848741</v>
       </c>
       <c r="J94">
         <v>1443.181818181818</v>
@@ -4624,7 +4688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>112</v>
       </c>
@@ -4641,13 +4705,13 @@
         <v>398</v>
       </c>
       <c r="H95">
-        <v>1.852941176470588</v>
+        <v>1.8529411764705881</v>
       </c>
       <c r="I95">
         <v>785.5</v>
       </c>
       <c r="J95">
-        <v>873.6666666666666</v>
+        <v>873.66666666666663</v>
       </c>
       <c r="K95">
         <v>74</v>
@@ -4668,7 +4732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>113</v>
       </c>
@@ -4688,7 +4752,7 @@
         <v>430</v>
       </c>
       <c r="H96">
-        <v>1.827272727272727</v>
+        <v>1.8272727272727269</v>
       </c>
       <c r="I96">
         <v>996.6521739130435</v>
@@ -4703,7 +4767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>114</v>
       </c>
@@ -4720,7 +4784,7 @@
         <v>431</v>
       </c>
       <c r="H97">
-        <v>1.590163934426229</v>
+        <v>1.5901639344262291</v>
       </c>
       <c r="I97">
         <v>1061.938461538462</v>
@@ -4738,7 +4802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>115</v>
       </c>
@@ -4761,13 +4825,13 @@
         <v>432</v>
       </c>
       <c r="H98">
-        <v>1.536363636363636</v>
+        <v>1.5363636363636359</v>
       </c>
       <c r="I98">
         <v>1359.633333333333</v>
       </c>
       <c r="J98">
-        <v>969.7021276595744</v>
+        <v>969.70212765957444</v>
       </c>
       <c r="K98">
         <v>120</v>
@@ -4779,7 +4843,7 @@
         <v>20</v>
       </c>
       <c r="N98">
-        <v>3.675</v>
+        <v>3.6749999999999998</v>
       </c>
       <c r="O98">
         <v>143.15</v>
@@ -4800,7 +4864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>116</v>
       </c>
@@ -4811,10 +4875,10 @@
         <v>433</v>
       </c>
       <c r="H99">
-        <v>1.717171717171717</v>
+        <v>1.7171717171717169</v>
       </c>
       <c r="I99">
-        <v>850.8660714285714</v>
+        <v>850.86607142857144</v>
       </c>
       <c r="J99">
         <v>1231.878787878788</v>
@@ -4838,7 +4902,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>117</v>
       </c>
@@ -4858,7 +4922,7 @@
         <v>1.976744186046512</v>
       </c>
       <c r="I100">
-        <v>856.1354166666666</v>
+        <v>856.13541666666663</v>
       </c>
       <c r="J100">
         <v>1036.333333333333</v>
@@ -4882,7 +4946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>118</v>
       </c>
@@ -4905,13 +4969,13 @@
         <v>434</v>
       </c>
       <c r="H101">
-        <v>2.017241379310345</v>
+        <v>2.0172413793103452</v>
       </c>
       <c r="I101">
-        <v>779.9047619047619</v>
+        <v>779.90476190476193</v>
       </c>
       <c r="J101">
-        <v>933.6470588235294</v>
+        <v>933.64705882352939</v>
       </c>
       <c r="K101">
         <v>64</v>
@@ -4929,7 +4993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>119</v>
       </c>
@@ -4952,7 +5016,7 @@
         <v>2.060606060606061</v>
       </c>
       <c r="I102">
-        <v>950.5106382978723</v>
+        <v>950.51063829787233</v>
       </c>
       <c r="J102">
         <v>1085.727272727273</v>
@@ -4970,7 +5034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>120</v>
       </c>
@@ -4996,10 +5060,10 @@
         <v>1.594827586206897</v>
       </c>
       <c r="I103">
-        <v>980.2083333333334</v>
+        <v>980.20833333333337</v>
       </c>
       <c r="J103">
-        <v>871.9111111111112</v>
+        <v>871.91111111111115</v>
       </c>
       <c r="K103">
         <v>120</v>
@@ -5014,7 +5078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>121</v>
       </c>
@@ -5034,13 +5098,13 @@
         <v>430</v>
       </c>
       <c r="H104">
-        <v>3.298245614035088</v>
+        <v>3.2982456140350882</v>
       </c>
       <c r="I104">
-        <v>2285.948275862069</v>
+        <v>2285.9482758620688</v>
       </c>
       <c r="J104">
-        <v>1820.555555555556</v>
+        <v>1820.5555555555561</v>
       </c>
       <c r="K104">
         <v>58</v>
@@ -5058,7 +5122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>122</v>
       </c>
@@ -5078,7 +5142,7 @@
         <v>2.4</v>
       </c>
       <c r="I105">
-        <v>829.7619047619048</v>
+        <v>829.76190476190482</v>
       </c>
       <c r="J105">
         <v>1870</v>
@@ -5087,7 +5151,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>123</v>
       </c>
@@ -5113,7 +5177,7 @@
         <v>1198.75</v>
       </c>
       <c r="J106">
-        <v>835.771186440678</v>
+        <v>835.77118644067798</v>
       </c>
       <c r="K106">
         <v>120</v>
@@ -5125,7 +5189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>124</v>
       </c>
@@ -5145,10 +5209,10 @@
         <v>399</v>
       </c>
       <c r="H107">
-        <v>2.411764705882353</v>
+        <v>2.4117647058823528</v>
       </c>
       <c r="I107">
-        <v>1386.764705882353</v>
+        <v>1386.7647058823529</v>
       </c>
       <c r="J107">
         <v>1805.727272727273</v>
@@ -5157,7 +5221,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>125</v>
       </c>
@@ -5168,13 +5232,13 @@
         <v>1832.35</v>
       </c>
       <c r="J108">
-        <v>2457.222222222222</v>
+        <v>2457.2222222222222</v>
       </c>
       <c r="K108">
         <v>120</v>
       </c>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>126</v>
       </c>
@@ -5191,7 +5255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>127</v>
       </c>
@@ -5214,7 +5278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>128</v>
       </c>
@@ -5222,19 +5286,19 @@
         <v>410</v>
       </c>
       <c r="H111">
-        <v>1.757142857142857</v>
+        <v>1.7571428571428569</v>
       </c>
       <c r="I111">
-        <v>628.2625</v>
+        <v>628.26250000000005</v>
       </c>
       <c r="J111">
-        <v>824.6666666666666</v>
+        <v>824.66666666666663</v>
       </c>
       <c r="K111">
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>129</v>
       </c>
@@ -5260,7 +5324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>130</v>
       </c>
@@ -5286,7 +5350,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>131</v>
       </c>
@@ -5303,7 +5367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>132</v>
       </c>
@@ -5324,6 +5388,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T115" xr:uid="{634EDDA0-3597-4C58-93EB-34CE1EC7567C}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="15221"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Result.xlsx
+++ b/Result.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\OneDrive\Documents\GitHub\Homi_DFP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_FFC65FC03B516BD468160B909B2BD8784C69B900" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{1C86D6E1-D4B8-4034-ADBA-7AA50E7B4E90}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="133">
   <si>
     <t>LAT</t>
   </si>
@@ -68,6 +62,15 @@
   </si>
   <si>
     <t>ROBBERY_CRIME</t>
+  </si>
+  <si>
+    <t>restaurantScore</t>
+  </si>
+  <si>
+    <t>barScore</t>
+  </si>
+  <si>
+    <t>groceryScore</t>
   </si>
   <si>
     <t>15003</t>
@@ -415,8 +418,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,14 +482,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -533,7 +528,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -565,27 +560,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -617,24 +594,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -810,19 +769,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="M1:Q1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="12" width="19.7265625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -871,16 +825,25 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>40.603639999999999</v>
+        <v>40.60364</v>
       </c>
       <c r="C2">
-        <v>-80.216424000000004</v>
+        <v>-80.216424</v>
       </c>
       <c r="D2">
         <v>1.2</v>
@@ -898,30 +861,39 @@
         <v>1.826086956521739</v>
       </c>
       <c r="I2">
-        <v>635.86206896551721</v>
+        <v>635.8620689655172</v>
       </c>
       <c r="J2">
         <v>1666.666666666667</v>
       </c>
       <c r="K2">
-        <v>439.04761904761898</v>
+        <v>439.047619047619</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="R2">
+        <v>2.724673202614379</v>
+      </c>
+      <c r="S2">
+        <v>2.705555555555556</v>
+      </c>
+      <c r="T2">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>40.64508</v>
       </c>
       <c r="C3">
-        <v>-80.186648000000005</v>
+        <v>-80.18664800000001</v>
       </c>
       <c r="D3">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="E3">
         <v>118</v>
@@ -936,27 +908,36 @@
         <v>2.166666666666667</v>
       </c>
       <c r="I3">
-        <v>904.28571428571433</v>
+        <v>904.2857142857143</v>
       </c>
       <c r="J3">
         <v>1042</v>
       </c>
       <c r="K3">
-        <v>486.92307692307691</v>
+        <v>486.9230769230769</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="R3">
+        <v>2.318181818181818</v>
+      </c>
+      <c r="S3">
+        <v>1.85</v>
+      </c>
+      <c r="T3">
+        <v>2.025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <v>40.633589999999998</v>
+        <v>40.63359</v>
       </c>
       <c r="C4">
-        <v>-79.876889000000006</v>
+        <v>-79.87688900000001</v>
       </c>
       <c r="D4">
         <v>0.6</v>
@@ -965,18 +946,27 @@
         <v>33</v>
       </c>
       <c r="F4">
-        <v>17666.669999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+        <v>17666.67</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>40.652282</v>
       </c>
       <c r="C5">
-        <v>-79.931687999999994</v>
+        <v>-79.93168799999999</v>
       </c>
       <c r="D5">
         <v>0.6</v>
@@ -985,7 +975,7 @@
         <v>33</v>
       </c>
       <c r="F5">
-        <v>17666.669999999998</v>
+        <v>17666.67</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -1000,18 +990,27 @@
         <v>731.25</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>40.608072</v>
       </c>
       <c r="C6">
-        <v>-79.740427999999994</v>
+        <v>-79.74042799999999</v>
       </c>
       <c r="D6">
         <v>0.9</v>
@@ -1026,30 +1025,39 @@
         <v>45</v>
       </c>
       <c r="H6">
-        <v>2.1749999999999998</v>
+        <v>2.175</v>
       </c>
       <c r="I6">
-        <v>663.06666666666672</v>
+        <v>663.0666666666667</v>
       </c>
       <c r="J6">
-        <v>889.77777777777783</v>
+        <v>889.7777777777778</v>
       </c>
       <c r="K6">
         <v>342.9655172413793</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="R6">
+        <v>2.291666666666667</v>
+      </c>
+      <c r="S6">
+        <v>2.075</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>40.637248</v>
       </c>
       <c r="C7">
-        <v>-80.081101000000004</v>
+        <v>-80.081101</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1073,21 +1081,30 @@
         <v>2000</v>
       </c>
       <c r="K7">
-        <v>666.66666666666663</v>
+        <v>666.6666666666666</v>
       </c>
       <c r="L7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B8">
-        <v>40.342274000000003</v>
+        <v>40.342274</v>
       </c>
       <c r="C8">
-        <v>-80.122354000000001</v>
+        <v>-80.122354</v>
       </c>
       <c r="D8">
         <v>2.4</v>
@@ -1096,13 +1113,13 @@
         <v>125</v>
       </c>
       <c r="F8">
-        <v>67602.080000000002</v>
+        <v>67602.08</v>
       </c>
       <c r="G8">
         <v>18</v>
       </c>
       <c r="H8">
-        <v>1.7777777777777779</v>
+        <v>1.777777777777778</v>
       </c>
       <c r="I8">
         <v>852.5</v>
@@ -1114,18 +1131,27 @@
         <v>479.53125</v>
       </c>
       <c r="L8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R8">
+        <v>2.649</v>
+      </c>
+      <c r="S8">
+        <v>2.566666666666667</v>
+      </c>
+      <c r="T8">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9">
-        <v>40.265884999999997</v>
+        <v>40.265885</v>
       </c>
       <c r="C9">
-        <v>-79.797066999999998</v>
+        <v>-79.797067</v>
       </c>
       <c r="D9">
         <v>0.6</v>
@@ -1134,7 +1160,7 @@
         <v>33</v>
       </c>
       <c r="F9">
-        <v>17666.669999999998</v>
+        <v>17666.67</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1146,21 +1172,30 @@
         <v>1025</v>
       </c>
       <c r="K9">
-        <v>341.66666666666669</v>
+        <v>341.6666666666667</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B10">
-        <v>40.233410999999997</v>
+        <v>40.233411</v>
       </c>
       <c r="C10">
-        <v>-79.950295999999994</v>
+        <v>-79.95029599999999</v>
       </c>
       <c r="D10">
         <v>0.6</v>
@@ -1169,21 +1204,30 @@
         <v>33</v>
       </c>
       <c r="F10">
-        <v>17666.669999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+        <v>17666.67</v>
+      </c>
+      <c r="R10">
+        <v>3.125</v>
+      </c>
+      <c r="S10">
+        <v>2.6</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B11">
-        <v>40.584969999999998</v>
+        <v>40.58497</v>
       </c>
       <c r="C11">
-        <v>-79.847314999999995</v>
+        <v>-79.84731499999999</v>
       </c>
       <c r="D11">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="E11">
         <v>114</v>
@@ -1204,21 +1248,30 @@
         <v>1600</v>
       </c>
       <c r="K11">
-        <v>367.08333333333331</v>
+        <v>367.0833333333333</v>
       </c>
       <c r="L11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>2.05</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B12">
         <v>40.297812</v>
       </c>
       <c r="C12">
-        <v>-79.923272999999995</v>
+        <v>-79.92327299999999</v>
       </c>
       <c r="D12">
         <v>0.6</v>
@@ -1236,27 +1289,36 @@
         <v>2</v>
       </c>
       <c r="I12">
-        <v>718.22222222222217</v>
+        <v>718.2222222222222</v>
       </c>
       <c r="J12">
-        <v>881.05555555555554</v>
+        <v>881.0555555555555</v>
       </c>
       <c r="K12">
-        <v>412.59574468085111</v>
+        <v>412.5957446808511</v>
       </c>
       <c r="L12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="R12">
+        <v>2.23155737704918</v>
+      </c>
+      <c r="S12">
+        <v>1.95</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B13">
-        <v>40.504990999999997</v>
+        <v>40.504991</v>
       </c>
       <c r="C13">
-        <v>-80.353945999999993</v>
+        <v>-80.35394599999999</v>
       </c>
       <c r="D13">
         <v>2.5</v>
@@ -1280,21 +1342,30 @@
         <v>1240</v>
       </c>
       <c r="K13">
-        <v>426.33333333333331</v>
+        <v>426.3333333333333</v>
       </c>
       <c r="L13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="R13">
+        <v>2.193965517241379</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B14">
-        <v>40.311312999999998</v>
+        <v>40.311313</v>
       </c>
       <c r="C14">
-        <v>-79.789559999999994</v>
+        <v>-79.78955999999999</v>
       </c>
       <c r="D14">
         <v>0.6</v>
@@ -1303,39 +1374,48 @@
         <v>33</v>
       </c>
       <c r="F14">
-        <v>17666.669999999998</v>
+        <v>17666.67</v>
       </c>
       <c r="G14">
         <v>51</v>
       </c>
       <c r="H14">
-        <v>2.4772727272727271</v>
+        <v>2.477272727272727</v>
       </c>
       <c r="I14">
-        <v>687.52941176470586</v>
+        <v>687.5294117647059</v>
       </c>
       <c r="J14">
-        <v>1368.8571428571429</v>
+        <v>1368.857142857143</v>
       </c>
       <c r="K14">
         <v>321.6880733944954</v>
       </c>
       <c r="L14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B15">
-        <v>40.591655000000003</v>
+        <v>40.591655</v>
       </c>
       <c r="C15">
-        <v>-79.782503000000005</v>
+        <v>-79.78250300000001</v>
       </c>
       <c r="D15">
         <v>0.6</v>
@@ -1344,7 +1424,7 @@
         <v>33</v>
       </c>
       <c r="F15">
-        <v>17666.669999999998</v>
+        <v>17666.67</v>
       </c>
       <c r="G15">
         <v>13</v>
@@ -1353,27 +1433,36 @@
         <v>1.615384615384615</v>
       </c>
       <c r="I15">
-        <v>504.61538461538458</v>
+        <v>504.6153846153846</v>
       </c>
       <c r="J15">
         <v>700</v>
       </c>
       <c r="K15">
-        <v>312.38095238095241</v>
+        <v>312.3809523809524</v>
       </c>
       <c r="L15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="R15">
+        <v>2.625</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B16">
-        <v>40.348224000000002</v>
+        <v>40.348224</v>
       </c>
       <c r="C16">
-        <v>-80.161151000000004</v>
+        <v>-80.161151</v>
       </c>
       <c r="D16">
         <v>0.6</v>
@@ -1382,27 +1471,36 @@
         <v>33</v>
       </c>
       <c r="F16">
-        <v>17666.669999999998</v>
+        <v>17666.67</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="R16">
+        <v>2.125</v>
+      </c>
+      <c r="S16">
+        <v>1.45</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B17">
-        <v>40.350816000000002</v>
+        <v>40.350816</v>
       </c>
       <c r="C17">
-        <v>-79.890602000000001</v>
+        <v>-79.890602</v>
       </c>
       <c r="D17">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="E17">
         <v>55</v>
@@ -1414,30 +1512,39 @@
         <v>12</v>
       </c>
       <c r="H17">
-        <v>2.7272727272727271</v>
+        <v>2.727272727272727</v>
       </c>
       <c r="I17">
-        <v>850.83333333333337</v>
+        <v>850.8333333333334</v>
       </c>
       <c r="J17">
         <v>1030.666666666667</v>
       </c>
       <c r="K17">
-        <v>340.33333333333331</v>
+        <v>340.3333333333333</v>
       </c>
       <c r="L17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.35</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>40.384822</v>
       </c>
       <c r="C18">
-        <v>-79.807400999999999</v>
+        <v>-79.807401</v>
       </c>
       <c r="D18">
         <v>0.9</v>
@@ -1452,30 +1559,39 @@
         <v>87</v>
       </c>
       <c r="H18">
-        <v>1.7654320987654319</v>
+        <v>1.765432098765432</v>
       </c>
       <c r="I18">
-        <v>646.34482758620686</v>
+        <v>646.3448275862069</v>
       </c>
       <c r="J18">
-        <v>754.76190476190482</v>
+        <v>754.7619047619048</v>
       </c>
       <c r="K18">
-        <v>393.23076923076923</v>
+        <v>393.2307692307692</v>
       </c>
       <c r="L18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="R18">
+        <v>2.875</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B19">
-        <v>40.258035999999997</v>
+        <v>40.258036</v>
       </c>
       <c r="C19">
-        <v>-79.852590000000006</v>
+        <v>-79.85259000000001</v>
       </c>
       <c r="D19">
         <v>1.8</v>
@@ -1499,21 +1615,30 @@
         <v>1050</v>
       </c>
       <c r="K19">
-        <v>266.66666666666669</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="L19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="R19">
+        <v>2.427816901408451</v>
+      </c>
+      <c r="S19">
+        <v>2.15</v>
+      </c>
+      <c r="T19">
+        <v>2.525</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B20">
-        <v>40.637985999999998</v>
+        <v>40.637986</v>
       </c>
       <c r="C20">
-        <v>-79.947903999999994</v>
+        <v>-79.94790399999999</v>
       </c>
       <c r="D20">
         <v>2.8</v>
@@ -1537,21 +1662,30 @@
         <v>1101</v>
       </c>
       <c r="K20">
-        <v>548.88888888888891</v>
+        <v>548.8888888888889</v>
       </c>
       <c r="L20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="R20">
+        <v>2.520063597819503</v>
+      </c>
+      <c r="S20">
+        <v>2.775</v>
+      </c>
+      <c r="T20">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B21">
-        <v>40.325814000000001</v>
+        <v>40.325814</v>
       </c>
       <c r="C21">
-        <v>-79.885985000000005</v>
+        <v>-79.88598500000001</v>
       </c>
       <c r="D21">
         <v>0.6</v>
@@ -1575,24 +1709,33 @@
         <v>850</v>
       </c>
       <c r="K21">
-        <v>348.80769230769232</v>
+        <v>348.8076923076923</v>
       </c>
       <c r="L21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="R21">
+        <v>2.625</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B22">
-        <v>40.555697000000002</v>
+        <v>40.555697</v>
       </c>
       <c r="C22">
-        <v>-80.228606999999997</v>
+        <v>-80.228607</v>
       </c>
       <c r="D22">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="E22">
         <v>113</v>
@@ -1613,21 +1756,30 @@
         <v>1624</v>
       </c>
       <c r="K22">
-        <v>456.81818181818181</v>
+        <v>456.8181818181818</v>
       </c>
       <c r="L22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="R22">
+        <v>2.375</v>
+      </c>
+      <c r="S22">
+        <v>1.85</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B23">
         <v>40.315621</v>
       </c>
       <c r="C23">
-        <v>-79.793844000000007</v>
+        <v>-79.79384400000001</v>
       </c>
       <c r="D23">
         <v>0.6</v>
@@ -1636,7 +1788,7 @@
         <v>33</v>
       </c>
       <c r="F23">
-        <v>17666.669999999998</v>
+        <v>17666.67</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1654,18 +1806,27 @@
         <v>195</v>
       </c>
       <c r="L23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B24">
-        <v>40.556113000000003</v>
+        <v>40.556113</v>
       </c>
       <c r="C24">
-        <v>-79.805573999999993</v>
+        <v>-79.80557399999999</v>
       </c>
       <c r="D24">
         <v>0.6</v>
@@ -1674,7 +1835,7 @@
         <v>33</v>
       </c>
       <c r="F24">
-        <v>17666.669999999998</v>
+        <v>17666.67</v>
       </c>
       <c r="G24">
         <v>4</v>
@@ -1689,21 +1850,30 @@
         <v>1375</v>
       </c>
       <c r="K24">
-        <v>376.15384615384608</v>
+        <v>376.1538461538461</v>
       </c>
       <c r="L24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B25">
-        <v>40.562601999999998</v>
+        <v>40.562602</v>
       </c>
       <c r="C25">
-        <v>-79.866912999999997</v>
+        <v>-79.866913</v>
       </c>
       <c r="D25">
         <v>0.6</v>
@@ -1712,7 +1882,7 @@
         <v>33</v>
       </c>
       <c r="F25">
-        <v>17666.669999999998</v>
+        <v>17666.67</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1727,18 +1897,27 @@
         <v>437.5</v>
       </c>
       <c r="L25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B26">
-        <v>40.563890000000001</v>
+        <v>40.56389</v>
       </c>
       <c r="C26">
-        <v>-80.216014999999999</v>
+        <v>-80.216015</v>
       </c>
       <c r="D26">
         <v>1.8</v>
@@ -1759,27 +1938,36 @@
         <v>1244.705882352941</v>
       </c>
       <c r="J26">
-        <v>924.28571428571433</v>
+        <v>924.2857142857143</v>
       </c>
       <c r="K26">
         <v>920</v>
       </c>
       <c r="L26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="R26">
+        <v>3.875</v>
+      </c>
+      <c r="S26">
+        <v>2.45</v>
+      </c>
+      <c r="T26">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B27">
-        <v>40.358656000000003</v>
+        <v>40.358656</v>
       </c>
       <c r="C27">
-        <v>-80.243904000000001</v>
+        <v>-80.243904</v>
       </c>
       <c r="D27">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="E27">
         <v>121</v>
@@ -1791,30 +1979,39 @@
         <v>9</v>
       </c>
       <c r="H27">
-        <v>1.8888888888888891</v>
+        <v>1.888888888888889</v>
       </c>
       <c r="I27">
-        <v>663.33333333333337</v>
+        <v>663.3333333333334</v>
       </c>
       <c r="J27">
-        <v>833.33333333333337</v>
+        <v>833.3333333333334</v>
       </c>
       <c r="K27">
         <v>351.1764705882353</v>
       </c>
       <c r="L27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="R27">
+        <v>2.553571428571429</v>
+      </c>
+      <c r="S27">
+        <v>2.075</v>
+      </c>
+      <c r="T27">
+        <v>2.516666666666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B28">
-        <v>40.191166000000003</v>
+        <v>40.191166</v>
       </c>
       <c r="C28">
-        <v>-79.922476000000003</v>
+        <v>-79.922476</v>
       </c>
       <c r="D28">
         <v>1.5</v>
@@ -1829,27 +2026,36 @@
         <v>9</v>
       </c>
       <c r="H28">
-        <v>2.2222222222222219</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="I28">
-        <v>3561.1111111111109</v>
+        <v>3561.111111111111</v>
       </c>
       <c r="J28">
-        <v>683.33333333333337</v>
+        <v>683.3333333333334</v>
       </c>
       <c r="K28">
         <v>1602.5</v>
       </c>
       <c r="L28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="R28">
+        <v>2.408333333333333</v>
+      </c>
+      <c r="S28">
+        <v>2.95</v>
+      </c>
+      <c r="T28">
+        <v>1.766666666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B29">
-        <v>40.356338999999998</v>
+        <v>40.356339</v>
       </c>
       <c r="C29">
         <v>-80.149929</v>
@@ -1861,7 +2067,7 @@
         <v>33</v>
       </c>
       <c r="F29">
-        <v>17666.669999999998</v>
+        <v>17666.67</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1879,18 +2085,27 @@
         <v>750</v>
       </c>
       <c r="L29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B30">
-        <v>40.644035000000002</v>
+        <v>40.644035</v>
       </c>
       <c r="C30">
-        <v>-79.725378000000006</v>
+        <v>-79.72537800000001</v>
       </c>
       <c r="D30">
         <v>1.4</v>
@@ -1905,30 +2120,39 @@
         <v>28</v>
       </c>
       <c r="H30">
-        <v>2.1111111111111112</v>
+        <v>2.111111111111111</v>
       </c>
       <c r="I30">
-        <v>812.85714285714289</v>
+        <v>812.8571428571429</v>
       </c>
       <c r="J30">
-        <v>1085.5555555555561</v>
+        <v>1085.555555555556</v>
       </c>
       <c r="K30">
-        <v>399.29824561403512</v>
+        <v>399.2982456140351</v>
       </c>
       <c r="L30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="R30">
+        <v>2.323529411764706</v>
+      </c>
+      <c r="S30">
+        <v>2.075</v>
+      </c>
+      <c r="T30">
+        <v>2.3625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B31">
-        <v>40.557191000000003</v>
+        <v>40.557191</v>
       </c>
       <c r="C31">
-        <v>-79.725802000000002</v>
+        <v>-79.725802</v>
       </c>
       <c r="D31">
         <v>1.9</v>
@@ -1943,30 +2167,39 @@
         <v>82</v>
       </c>
       <c r="H31">
-        <v>2.1515151515151509</v>
+        <v>2.151515151515151</v>
       </c>
       <c r="I31">
         <v>1033.325</v>
       </c>
       <c r="J31">
-        <v>1035.6428571428571</v>
+        <v>1035.642857142857</v>
       </c>
       <c r="K31">
-        <v>582.15492957746483</v>
+        <v>582.1549295774648</v>
       </c>
       <c r="L31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+      <c r="R31">
+        <v>2.761688668866887</v>
+      </c>
+      <c r="S31">
+        <v>2.391666666666667</v>
+      </c>
+      <c r="T31">
+        <v>3.383333333333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B32">
-        <v>40.412104999999997</v>
+        <v>40.412105</v>
       </c>
       <c r="C32">
-        <v>-80.187798999999998</v>
+        <v>-80.187799</v>
       </c>
       <c r="D32">
         <v>2.4</v>
@@ -1981,10 +2214,10 @@
         <v>9</v>
       </c>
       <c r="H32">
-        <v>2.2222222222222219</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="I32">
-        <v>741.77777777777783</v>
+        <v>741.7777777777778</v>
       </c>
       <c r="J32">
         <v>1104</v>
@@ -1993,7 +2226,7 @@
         <v>333.8</v>
       </c>
       <c r="L32" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -2001,16 +2234,25 @@
       <c r="N32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R32">
+        <v>2.588740458015267</v>
+      </c>
+      <c r="S32">
+        <v>1.883333333333333</v>
+      </c>
+      <c r="T32">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B33">
-        <v>40.586036999999997</v>
+        <v>40.586037</v>
       </c>
       <c r="C33">
-        <v>-79.826914000000002</v>
+        <v>-79.826914</v>
       </c>
       <c r="D33">
         <v>0.6</v>
@@ -2019,7 +2261,7 @@
         <v>33</v>
       </c>
       <c r="F33">
-        <v>17666.669999999998</v>
+        <v>17666.67</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -2034,18 +2276,27 @@
         <v>350</v>
       </c>
       <c r="L33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="R33">
+        <v>2.875</v>
+      </c>
+      <c r="S33">
+        <v>2.35</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B34">
         <v>40.607346</v>
       </c>
       <c r="C34">
-        <v>-79.834667999999994</v>
+        <v>-79.83466799999999</v>
       </c>
       <c r="D34">
         <v>0.6</v>
@@ -2054,7 +2305,7 @@
         <v>33</v>
       </c>
       <c r="F34">
-        <v>17666.669999999998</v>
+        <v>17666.67</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -2069,18 +2320,27 @@
         <v>406.25</v>
       </c>
       <c r="L34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="R34">
+        <v>2.909883720930233</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>2.266666666666667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B35">
-        <v>40.377840999999997</v>
+        <v>40.377841</v>
       </c>
       <c r="C35">
-        <v>-80.212916000000007</v>
+        <v>-80.21291600000001</v>
       </c>
       <c r="D35">
         <v>0.6</v>
@@ -2089,7 +2349,7 @@
         <v>33</v>
       </c>
       <c r="F35">
-        <v>17666.669999999998</v>
+        <v>17666.67</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -2104,18 +2364,27 @@
         <v>600</v>
       </c>
       <c r="L35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="R35">
+        <v>2.875</v>
+      </c>
+      <c r="S35">
+        <v>2.1</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B36">
-        <v>40.628590000000003</v>
+        <v>40.62859</v>
       </c>
       <c r="C36">
-        <v>-79.803263999999999</v>
+        <v>-79.803264</v>
       </c>
       <c r="D36">
         <v>1.3</v>
@@ -2142,27 +2411,36 @@
         <v>425</v>
       </c>
       <c r="L36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="R36">
+        <v>2.344938335046248</v>
+      </c>
+      <c r="S36">
+        <v>2.51875</v>
+      </c>
+      <c r="T36">
+        <v>2.433333333333333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B37">
-        <v>40.385734999999997</v>
+        <v>40.385735</v>
       </c>
       <c r="C37">
         <v>-79.722251</v>
       </c>
       <c r="D37">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="E37">
         <v>122</v>
       </c>
       <c r="F37">
-        <v>17666.669999999998</v>
+        <v>17666.67</v>
       </c>
       <c r="G37">
         <v>10</v>
@@ -2177,21 +2455,30 @@
         <v>1200</v>
       </c>
       <c r="K37">
-        <v>305.20833333333331</v>
+        <v>305.2083333333333</v>
       </c>
       <c r="L37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="R37">
+        <v>2.875</v>
+      </c>
+      <c r="S37">
+        <v>2.325</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B38">
-        <v>40.674947000000003</v>
+        <v>40.674947</v>
       </c>
       <c r="C38">
-        <v>-80.106363999999999</v>
+        <v>-80.106364</v>
       </c>
       <c r="D38">
         <v>0.6</v>
@@ -2200,36 +2487,45 @@
         <v>33</v>
       </c>
       <c r="F38">
-        <v>17666.669999999998</v>
+        <v>17666.67</v>
       </c>
       <c r="G38">
         <v>42</v>
       </c>
       <c r="H38">
-        <v>1.5609756097560981</v>
+        <v>1.560975609756098</v>
       </c>
       <c r="I38">
-        <v>1568.0952380952381</v>
+        <v>1568.095238095238</v>
       </c>
       <c r="J38">
-        <v>973.88571428571424</v>
+        <v>973.8857142857142</v>
       </c>
       <c r="K38">
         <v>1029.0625</v>
       </c>
       <c r="L38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="R38">
+        <v>2.684065934065934</v>
+      </c>
+      <c r="S38">
+        <v>2.2</v>
+      </c>
+      <c r="T38">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B39">
-        <v>40.272146999999997</v>
+        <v>40.272147</v>
       </c>
       <c r="C39">
-        <v>-79.896180000000001</v>
+        <v>-79.89618</v>
       </c>
       <c r="D39">
         <v>0.6</v>
@@ -2238,36 +2534,45 @@
         <v>33</v>
       </c>
       <c r="F39">
-        <v>17666.669999999998</v>
+        <v>17666.67</v>
       </c>
       <c r="G39">
         <v>13</v>
       </c>
       <c r="H39">
-        <v>2.1818181818181821</v>
+        <v>2.181818181818182</v>
       </c>
       <c r="I39">
-        <v>718.92307692307691</v>
+        <v>718.9230769230769</v>
       </c>
       <c r="J39">
-        <v>933.33333333333337</v>
+        <v>933.3333333333334</v>
       </c>
       <c r="K39">
-        <v>389.41666666666669</v>
+        <v>389.4166666666667</v>
       </c>
       <c r="L39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="R39">
+        <v>2.875</v>
+      </c>
+      <c r="S39">
+        <v>2.325</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B40">
-        <v>40.225233000000003</v>
+        <v>40.225233</v>
       </c>
       <c r="C40">
-        <v>-79.748806000000002</v>
+        <v>-79.748806</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -2276,7 +2581,7 @@
         <v>104</v>
       </c>
       <c r="F40">
-        <v>17666.669999999998</v>
+        <v>17666.67</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -2294,18 +2599,27 @@
         <v>232.2222222222222</v>
       </c>
       <c r="L40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="R40">
+        <v>2.435240963855422</v>
+      </c>
+      <c r="S40">
+        <v>2.075</v>
+      </c>
+      <c r="T40">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B41">
-        <v>40.625014999999998</v>
+        <v>40.625015</v>
       </c>
       <c r="C41">
-        <v>-80.067058000000003</v>
+        <v>-80.067058</v>
       </c>
       <c r="D41">
         <v>2.9</v>
@@ -2326,13 +2640,13 @@
         <v>1598.866666666667</v>
       </c>
       <c r="J41">
-        <v>1071.9482758620691</v>
+        <v>1071.948275862069</v>
       </c>
       <c r="K41">
         <v>944.2125984251968</v>
       </c>
       <c r="L41" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -2343,16 +2657,25 @@
       <c r="P41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R41">
+        <v>2.876947419668939</v>
+      </c>
+      <c r="S41">
+        <v>2.872727272727273</v>
+      </c>
+      <c r="T41">
+        <v>4.316666666666666</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B42">
-        <v>40.580328000000002</v>
+        <v>40.580328</v>
       </c>
       <c r="C42">
-        <v>-79.955241000000001</v>
+        <v>-79.955241</v>
       </c>
       <c r="D42">
         <v>2.8</v>
@@ -2361,13 +2684,13 @@
         <v>144</v>
       </c>
       <c r="F42">
-        <v>79922.080000000002</v>
+        <v>79922.08</v>
       </c>
       <c r="G42">
         <v>21</v>
       </c>
       <c r="H42">
-        <v>2.0555555555555549</v>
+        <v>2.055555555555555</v>
       </c>
       <c r="I42">
         <v>1001.2</v>
@@ -2376,21 +2699,30 @@
         <v>1006.6</v>
       </c>
       <c r="K42">
-        <v>541.18918918918916</v>
+        <v>541.1891891891892</v>
       </c>
       <c r="L42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+      <c r="R42">
+        <v>3.603668941979522</v>
+      </c>
+      <c r="S42">
+        <v>2.1</v>
+      </c>
+      <c r="T42">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B43">
-        <v>40.321350000000002</v>
+        <v>40.32135</v>
       </c>
       <c r="C43">
-        <v>-80.036546000000001</v>
+        <v>-80.036546</v>
       </c>
       <c r="D43">
         <v>2.5</v>
@@ -2408,30 +2740,39 @@
         <v>1.550847457627119</v>
       </c>
       <c r="I43">
-        <v>884.92499999999995</v>
+        <v>884.925</v>
       </c>
       <c r="J43">
-        <v>915.40476190476193</v>
+        <v>915.4047619047619</v>
       </c>
       <c r="K43">
-        <v>580.27868852459017</v>
+        <v>580.2786885245902</v>
       </c>
       <c r="L43" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R43">
+        <v>2.823051948051948</v>
+      </c>
+      <c r="S43">
+        <v>1.9625</v>
+      </c>
+      <c r="T43">
+        <v>3.383333333333333</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B44">
         <v>40.403883</v>
       </c>
       <c r="C44">
-        <v>-79.862605000000002</v>
+        <v>-79.862605</v>
       </c>
       <c r="D44">
         <v>0.6</v>
@@ -2440,25 +2781,25 @@
         <v>33</v>
       </c>
       <c r="F44">
-        <v>17666.669999999998</v>
+        <v>17666.67</v>
       </c>
       <c r="G44">
         <v>18</v>
       </c>
       <c r="H44">
-        <v>2.3571428571428572</v>
+        <v>2.357142857142857</v>
       </c>
       <c r="I44">
         <v>710</v>
       </c>
       <c r="J44">
-        <v>1278.4000000000001</v>
+        <v>1278.4</v>
       </c>
       <c r="K44">
-        <v>322.72727272727269</v>
+        <v>322.7272727272727</v>
       </c>
       <c r="L44" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M44">
         <v>3</v>
@@ -2472,16 +2813,25 @@
       <c r="Q44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R44">
+        <v>2.740994236311239</v>
+      </c>
+      <c r="S44">
+        <v>2.55</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B45">
-        <v>40.410119999999999</v>
+        <v>40.41012</v>
       </c>
       <c r="C45">
-        <v>-80.114202000000006</v>
+        <v>-80.11420200000001</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -2496,19 +2846,19 @@
         <v>120</v>
       </c>
       <c r="H45">
-        <v>2.714285714285714</v>
+        <v>2.705357142857143</v>
       </c>
       <c r="I45">
-        <v>578.49557522123894</v>
+        <v>585</v>
       </c>
       <c r="J45">
-        <v>1384</v>
+        <v>1331.625</v>
       </c>
       <c r="K45">
-        <v>215.03289473684211</v>
+        <v>218.1683168316832</v>
       </c>
       <c r="L45" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M45">
         <v>3</v>
@@ -2519,16 +2869,25 @@
       <c r="P45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R45">
+        <v>3.184674502712477</v>
+      </c>
+      <c r="S45">
+        <v>2.705555555555556</v>
+      </c>
+      <c r="T45">
+        <v>3.292857142857143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B46">
-        <v>40.500472000000002</v>
+        <v>40.500472</v>
       </c>
       <c r="C46">
-        <v>-80.201802000000001</v>
+        <v>-80.201802</v>
       </c>
       <c r="D46">
         <v>2.5</v>
@@ -2543,30 +2902,39 @@
         <v>120</v>
       </c>
       <c r="H46">
-        <v>1.6111111111111109</v>
+        <v>1.611111111111111</v>
       </c>
       <c r="I46">
-        <v>855.95762711864404</v>
+        <v>855.957627118644</v>
       </c>
       <c r="J46">
-        <v>975.77551020408168</v>
+        <v>975.7755102040817</v>
       </c>
       <c r="K46">
-        <v>580.47701149425291</v>
+        <v>580.4770114942529</v>
       </c>
       <c r="L46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="R46">
+        <v>2.891315519013361</v>
+      </c>
+      <c r="S46">
+        <v>3.216666666666667</v>
+      </c>
+      <c r="T46">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B47">
-        <v>40.373460999999999</v>
+        <v>40.373461</v>
       </c>
       <c r="C47">
-        <v>-79.850161999999997</v>
+        <v>-79.850162</v>
       </c>
       <c r="D47">
         <v>0.6</v>
@@ -2575,7 +2943,7 @@
         <v>33</v>
       </c>
       <c r="F47">
-        <v>17666.669999999998</v>
+        <v>17666.67</v>
       </c>
       <c r="G47">
         <v>26</v>
@@ -2584,7 +2952,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="I47">
-        <v>525.31818181818187</v>
+        <v>525.3181818181819</v>
       </c>
       <c r="J47">
         <v>993.5</v>
@@ -2593,7 +2961,7 @@
         <v>330.2</v>
       </c>
       <c r="L47" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -2604,16 +2972,25 @@
       <c r="Q47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R47">
+        <v>1.125</v>
+      </c>
+      <c r="S47">
+        <v>0.6</v>
+      </c>
+      <c r="T47">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B48">
-        <v>40.404483999999997</v>
+        <v>40.404484</v>
       </c>
       <c r="C48">
-        <v>-79.837705999999997</v>
+        <v>-79.837706</v>
       </c>
       <c r="D48">
         <v>0.6</v>
@@ -2622,36 +2999,45 @@
         <v>33</v>
       </c>
       <c r="F48">
-        <v>17666.669999999998</v>
+        <v>17666.67</v>
       </c>
       <c r="G48">
         <v>51</v>
       </c>
       <c r="H48">
-        <v>1.9130434782608701</v>
+        <v>1.91304347826087</v>
       </c>
       <c r="I48">
-        <v>736.15686274509801</v>
+        <v>736.156862745098</v>
       </c>
       <c r="J48">
         <v>884.75</v>
       </c>
       <c r="K48">
-        <v>426.63636363636363</v>
+        <v>426.6363636363636</v>
       </c>
       <c r="L48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+      <c r="R48">
+        <v>2.625</v>
+      </c>
+      <c r="S48">
+        <v>1.825</v>
+      </c>
+      <c r="T48">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B49">
-        <v>40.526032000000001</v>
+        <v>40.526032</v>
       </c>
       <c r="C49">
-        <v>-79.932225000000003</v>
+        <v>-79.932225</v>
       </c>
       <c r="D49">
         <v>2.6</v>
@@ -2666,19 +3052,19 @@
         <v>17</v>
       </c>
       <c r="H49">
-        <v>1.8666666666666669</v>
+        <v>1.866666666666667</v>
       </c>
       <c r="I49">
         <v>870</v>
       </c>
       <c r="J49">
-        <v>980.33333333333337</v>
+        <v>980.3333333333334</v>
       </c>
       <c r="K49">
-        <v>528.21428571428567</v>
+        <v>528.2142857142857</v>
       </c>
       <c r="L49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -2686,13 +3072,22 @@
       <c r="O49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R49">
+        <v>3.002934272300469</v>
+      </c>
+      <c r="S49">
+        <v>2.075</v>
+      </c>
+      <c r="T49">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B50">
-        <v>40.395871999999997</v>
+        <v>40.395872</v>
       </c>
       <c r="C50">
         <v>-79.907511</v>
@@ -2710,7 +3105,7 @@
         <v>45</v>
       </c>
       <c r="H50">
-        <v>2.2105263157894739</v>
+        <v>2.210526315789474</v>
       </c>
       <c r="I50">
         <v>806.7045454545455</v>
@@ -2722,7 +3117,7 @@
         <v>422.5595238095238</v>
       </c>
       <c r="L50" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M50">
         <v>5</v>
@@ -2739,16 +3134,25 @@
       <c r="Q50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R50">
+        <v>2.582759325658929</v>
+      </c>
+      <c r="S50">
+        <v>3.921428571428572</v>
+      </c>
+      <c r="T50">
+        <v>2.516666666666667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B51">
-        <v>40.361206000000003</v>
+        <v>40.361206</v>
       </c>
       <c r="C51">
-        <v>-79.895640999999998</v>
+        <v>-79.895641</v>
       </c>
       <c r="D51">
         <v>1.6</v>
@@ -2763,19 +3167,19 @@
         <v>43</v>
       </c>
       <c r="H51">
-        <v>2.2894736842105261</v>
+        <v>2.289473684210526</v>
       </c>
       <c r="I51">
-        <v>774.32558139534888</v>
+        <v>774.3255813953489</v>
       </c>
       <c r="J51">
-        <v>995.66666666666663</v>
+        <v>995.6666666666666</v>
       </c>
       <c r="K51">
-        <v>382.71264367816087</v>
+        <v>382.7126436781609</v>
       </c>
       <c r="L51" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M51">
         <v>2</v>
@@ -2786,19 +3190,28 @@
       <c r="Q51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R51">
+        <v>2.565662582255503</v>
+      </c>
+      <c r="S51">
+        <v>2.308333333333333</v>
+      </c>
+      <c r="T51">
+        <v>2.575</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B52">
-        <v>40.462479000000002</v>
+        <v>40.462479</v>
       </c>
       <c r="C52">
-        <v>-80.284445000000005</v>
+        <v>-80.28444500000001</v>
       </c>
       <c r="D52">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="E52">
         <v>119</v>
@@ -2822,18 +3235,27 @@
         <v>409.0625</v>
       </c>
       <c r="L52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="R52">
+        <v>2.625</v>
+      </c>
+      <c r="S52">
+        <v>2.1</v>
+      </c>
+      <c r="T52">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B53">
-        <v>40.293247999999998</v>
+        <v>40.293248</v>
       </c>
       <c r="C53">
-        <v>-79.996037000000001</v>
+        <v>-79.996037</v>
       </c>
       <c r="D53">
         <v>2.4</v>
@@ -2842,36 +3264,45 @@
         <v>124</v>
       </c>
       <c r="F53">
-        <v>61930.559999999998</v>
+        <v>61930.56</v>
       </c>
       <c r="G53">
         <v>74</v>
       </c>
       <c r="H53">
-        <v>1.2328767123287669</v>
+        <v>1.232876712328767</v>
       </c>
       <c r="I53">
-        <v>752.41891891891896</v>
+        <v>752.418918918919</v>
       </c>
       <c r="J53">
-        <v>749.52631578947364</v>
+        <v>749.5263157894736</v>
       </c>
       <c r="K53">
-        <v>618.65555555555557</v>
+        <v>618.6555555555556</v>
       </c>
       <c r="L53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="R53">
+        <v>2.381993006993007</v>
+      </c>
+      <c r="S53">
+        <v>2.05</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B54">
-        <v>40.338791000000001</v>
+        <v>40.338791</v>
       </c>
       <c r="C54">
-        <v>-79.796070999999998</v>
+        <v>-79.796071</v>
       </c>
       <c r="D54">
         <v>1.5</v>
@@ -2886,27 +3317,36 @@
         <v>38</v>
       </c>
       <c r="H54">
-        <v>2.4210526315789469</v>
+        <v>2.421052631578947</v>
       </c>
       <c r="I54">
-        <v>822.18918918918916</v>
+        <v>822.1891891891892</v>
       </c>
       <c r="J54">
-        <v>961.94117647058829</v>
+        <v>961.9411764705883</v>
       </c>
       <c r="K54">
-        <v>330.66304347826087</v>
+        <v>330.6630434782609</v>
       </c>
       <c r="L54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+      <c r="R54">
+        <v>2.341981132075472</v>
+      </c>
+      <c r="S54">
+        <v>1.575</v>
+      </c>
+      <c r="T54">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B55">
-        <v>40.339767000000002</v>
+        <v>40.339767</v>
       </c>
       <c r="C55">
         <v>-79.842782</v>
@@ -2918,7 +3358,7 @@
         <v>33</v>
       </c>
       <c r="F55">
-        <v>17666.669999999998</v>
+        <v>17666.67</v>
       </c>
       <c r="G55">
         <v>82</v>
@@ -2927,16 +3367,16 @@
         <v>1.884615384615385</v>
       </c>
       <c r="I55">
-        <v>683.71604938271605</v>
+        <v>683.7160493827161</v>
       </c>
       <c r="J55">
-        <v>979.68965517241384</v>
+        <v>979.6896551724138</v>
       </c>
       <c r="K55">
-        <v>376.74149659863951</v>
+        <v>376.7414965986395</v>
       </c>
       <c r="L55" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M55">
         <v>3</v>
@@ -2947,16 +3387,25 @@
       <c r="O55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R55">
+        <v>2.196428571428571</v>
+      </c>
+      <c r="S55">
+        <v>2.2125</v>
+      </c>
+      <c r="T55">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B56">
-        <v>40.326746999999997</v>
+        <v>40.326747</v>
       </c>
       <c r="C56">
-        <v>-79.866546999999997</v>
+        <v>-79.866547</v>
       </c>
       <c r="D56">
         <v>1.2</v>
@@ -2980,18 +3429,27 @@
         <v>240</v>
       </c>
       <c r="L56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+      <c r="R56">
+        <v>2.75</v>
+      </c>
+      <c r="S56">
+        <v>2.45</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B57">
-        <v>40.310836000000002</v>
+        <v>40.310836</v>
       </c>
       <c r="C57">
-        <v>-79.812893000000003</v>
+        <v>-79.812893</v>
       </c>
       <c r="D57">
         <v>1.7</v>
@@ -3009,27 +3467,36 @@
         <v>1.916666666666667</v>
       </c>
       <c r="I57">
-        <v>734.66666666666663</v>
+        <v>734.6666666666666</v>
       </c>
       <c r="J57">
-        <v>925.71428571428567</v>
+        <v>925.7142857142857</v>
       </c>
       <c r="K57">
-        <v>479.13043478260869</v>
+        <v>479.1304347826087</v>
       </c>
       <c r="L57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+      <c r="R57">
+        <v>2.329545454545455</v>
+      </c>
+      <c r="S57">
+        <v>1.35</v>
+      </c>
+      <c r="T57">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B58">
-        <v>40.463479999999997</v>
+        <v>40.46348</v>
       </c>
       <c r="C58">
-        <v>-80.106172000000001</v>
+        <v>-80.106172</v>
       </c>
       <c r="D58">
         <v>1.8</v>
@@ -3047,16 +3514,16 @@
         <v>1.953488372093023</v>
       </c>
       <c r="I58">
-        <v>623.81355932203394</v>
+        <v>623.8135593220339</v>
       </c>
       <c r="J58">
         <v>1228.5</v>
       </c>
       <c r="K58">
-        <v>438.15476190476193</v>
+        <v>438.1547619047619</v>
       </c>
       <c r="L58" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M58">
         <v>12</v>
@@ -3073,16 +3540,25 @@
       <c r="Q58">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R58">
+        <v>3.007459564974902</v>
+      </c>
+      <c r="S58">
+        <v>2.842857142857143</v>
+      </c>
+      <c r="T58">
+        <v>1.933333333333333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B59">
-        <v>40.375736000000003</v>
+        <v>40.375736</v>
       </c>
       <c r="C59">
-        <v>-79.808764999999994</v>
+        <v>-79.80876499999999</v>
       </c>
       <c r="D59">
         <v>1.3</v>
@@ -3097,19 +3573,19 @@
         <v>89</v>
       </c>
       <c r="H59">
-        <v>1.7882352941176469</v>
+        <v>1.788235294117647</v>
       </c>
       <c r="I59">
-        <v>649.42528735632186</v>
+        <v>649.4252873563219</v>
       </c>
       <c r="J59">
         <v>707.25</v>
       </c>
       <c r="K59">
-        <v>371.71052631578948</v>
+        <v>371.7105263157895</v>
       </c>
       <c r="L59" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M59">
         <v>1</v>
@@ -3120,16 +3596,25 @@
       <c r="P59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R59">
+        <v>2.229895104895105</v>
+      </c>
+      <c r="S59">
+        <v>2.05</v>
+      </c>
+      <c r="T59">
+        <v>1.933333333333333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B60">
-        <v>40.522823000000002</v>
+        <v>40.522823</v>
       </c>
       <c r="C60">
-        <v>-79.836254999999994</v>
+        <v>-79.83625499999999</v>
       </c>
       <c r="D60">
         <v>2.5</v>
@@ -3144,7 +3629,7 @@
         <v>31</v>
       </c>
       <c r="H60">
-        <v>1.9333333333333329</v>
+        <v>1.933333333333333</v>
       </c>
       <c r="I60">
         <v>1074.322580645161</v>
@@ -3153,21 +3638,30 @@
         <v>1148.7</v>
       </c>
       <c r="K60">
-        <v>574.20689655172418</v>
+        <v>574.2068965517242</v>
       </c>
       <c r="L60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+      <c r="R60">
+        <v>2.705579501915709</v>
+      </c>
+      <c r="S60">
+        <v>2.266666666666667</v>
+      </c>
+      <c r="T60">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B61">
-        <v>40.407778999999998</v>
+        <v>40.407779</v>
       </c>
       <c r="C61">
-        <v>-79.776343999999995</v>
+        <v>-79.77634399999999</v>
       </c>
       <c r="D61">
         <v>0.6</v>
@@ -3176,7 +3670,7 @@
         <v>33</v>
       </c>
       <c r="F61">
-        <v>17666.669999999998</v>
+        <v>17666.67</v>
       </c>
       <c r="G61">
         <v>37</v>
@@ -3185,27 +3679,36 @@
         <v>2.1</v>
       </c>
       <c r="I61">
-        <v>683.41666666666663</v>
+        <v>683.4166666666666</v>
       </c>
       <c r="J61">
         <v>1100</v>
       </c>
       <c r="K61">
-        <v>390.52380952380952</v>
+        <v>390.5238095238095</v>
       </c>
       <c r="L61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>2.6</v>
+      </c>
+      <c r="T61">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B62">
-        <v>40.382058999999998</v>
+        <v>40.382059</v>
       </c>
       <c r="C62">
-        <v>-80.118682000000007</v>
+        <v>-80.11868200000001</v>
       </c>
       <c r="D62">
         <v>3.3</v>
@@ -3214,7 +3717,7 @@
         <v>170</v>
       </c>
       <c r="F62">
-        <v>149816.67000000001</v>
+        <v>149816.67</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -3232,15 +3735,24 @@
         <v>1333.333333333333</v>
       </c>
       <c r="L62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>2.6</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B63">
-        <v>40.565935000000003</v>
+        <v>40.565935</v>
       </c>
       <c r="C63">
         <v>-80.1464</v>
@@ -3258,19 +3770,19 @@
         <v>30</v>
       </c>
       <c r="H63">
-        <v>2.0384615384615379</v>
+        <v>2.038461538461538</v>
       </c>
       <c r="I63">
         <v>1283.833333333333</v>
       </c>
       <c r="J63">
-        <v>1168.1428571428571</v>
+        <v>1168.142857142857</v>
       </c>
       <c r="K63">
-        <v>726.69811320754718</v>
+        <v>726.6981132075472</v>
       </c>
       <c r="L63" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -3278,16 +3790,25 @@
       <c r="N63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R63">
+        <v>2.847222222222222</v>
+      </c>
+      <c r="S63">
+        <v>1.95</v>
+      </c>
+      <c r="T63">
+        <v>2.683333333333334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B64">
-        <v>40.548048999999999</v>
+        <v>40.548049</v>
       </c>
       <c r="C64">
-        <v>-79.777951999999999</v>
+        <v>-79.777952</v>
       </c>
       <c r="D64">
         <v>1.5</v>
@@ -3305,7 +3826,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="I64">
-        <v>702.85714285714289</v>
+        <v>702.8571428571429</v>
       </c>
       <c r="J64">
         <v>1377</v>
@@ -3314,7 +3835,7 @@
         <v>492</v>
       </c>
       <c r="L64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M64">
         <v>1</v>
@@ -3322,16 +3843,25 @@
       <c r="O64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R64">
+        <v>3.411111111111111</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B65">
-        <v>40.415280000000003</v>
+        <v>40.41528</v>
       </c>
       <c r="C65">
-        <v>-79.824085999999994</v>
+        <v>-79.82408599999999</v>
       </c>
       <c r="D65">
         <v>0.6</v>
@@ -3349,30 +3879,39 @@
         <v>1.833333333333333</v>
       </c>
       <c r="I65">
-        <v>783.21428571428567</v>
+        <v>783.2142857142857</v>
       </c>
       <c r="J65">
         <v>950</v>
       </c>
       <c r="K65">
-        <v>498.40909090909088</v>
+        <v>498.4090909090909</v>
       </c>
       <c r="L65" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P65">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R65">
+        <v>2.75492125984252</v>
+      </c>
+      <c r="S65">
+        <v>2.216666666666667</v>
+      </c>
+      <c r="T65">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B66">
-        <v>40.426327999999998</v>
+        <v>40.426328</v>
       </c>
       <c r="C66">
-        <v>-79.761358000000001</v>
+        <v>-79.761358</v>
       </c>
       <c r="D66">
         <v>1.9</v>
@@ -3387,7 +3926,7 @@
         <v>107</v>
       </c>
       <c r="H66">
-        <v>1.9716981132075471</v>
+        <v>1.971698113207547</v>
       </c>
       <c r="I66">
         <v>1114.448598130841</v>
@@ -3396,10 +3935,10 @@
         <v>1025.619565217391</v>
       </c>
       <c r="K66">
-        <v>570.55502392344499</v>
+        <v>570.555023923445</v>
       </c>
       <c r="L66" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M66">
         <v>5</v>
@@ -3410,16 +3949,25 @@
       <c r="O66">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R66">
+        <v>3.333283470456245</v>
+      </c>
+      <c r="S66">
+        <v>2.95</v>
+      </c>
+      <c r="T66">
+        <v>4.275</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B67">
-        <v>40.497284000000001</v>
+        <v>40.497284</v>
       </c>
       <c r="C67">
-        <v>-79.830770000000001</v>
+        <v>-79.83077</v>
       </c>
       <c r="D67">
         <v>1.5</v>
@@ -3437,16 +3985,16 @@
         <v>1.911111111111111</v>
       </c>
       <c r="I67">
-        <v>818.88888888888891</v>
+        <v>818.8888888888889</v>
       </c>
       <c r="J67">
-        <v>1102.5999999999999</v>
+        <v>1102.6</v>
       </c>
       <c r="K67">
-        <v>428.48837209302332</v>
+        <v>428.4883720930233</v>
       </c>
       <c r="L67" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M67">
         <v>2</v>
@@ -3460,16 +4008,25 @@
       <c r="P67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R67">
+        <v>3.458333333333333</v>
+      </c>
+      <c r="S67">
+        <v>2.0875</v>
+      </c>
+      <c r="T67">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
       <c r="A68" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B68">
-        <v>40.393450999999999</v>
+        <v>40.393451</v>
       </c>
       <c r="C68">
-        <v>-79.795119999999997</v>
+        <v>-79.79512</v>
       </c>
       <c r="D68">
         <v>0.6</v>
@@ -3478,36 +4035,45 @@
         <v>33</v>
       </c>
       <c r="F68">
-        <v>17666.669999999998</v>
+        <v>17666.67</v>
       </c>
       <c r="G68">
         <v>12</v>
       </c>
       <c r="H68">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="I68">
-        <v>777.91666666666663</v>
+        <v>777.9166666666666</v>
       </c>
       <c r="J68">
         <v>1100</v>
       </c>
       <c r="K68">
-        <v>424.31818181818181</v>
+        <v>424.3181818181818</v>
       </c>
       <c r="L68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+      <c r="R68">
+        <v>2.664473684210526</v>
+      </c>
+      <c r="S68">
+        <v>1.35</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B69">
-        <v>40.474409999999999</v>
+        <v>40.47441</v>
       </c>
       <c r="C69">
-        <v>-79.950968000000003</v>
+        <v>-79.950968</v>
       </c>
       <c r="D69">
         <v>2.9</v>
@@ -3522,19 +4088,19 @@
         <v>120</v>
       </c>
       <c r="H69">
-        <v>1.9898989898989901</v>
+        <v>1.98989898989899</v>
       </c>
       <c r="I69">
         <v>1227.491666666667</v>
       </c>
       <c r="J69">
-        <v>1226.2105263157889</v>
+        <v>1226.210526315789</v>
       </c>
       <c r="K69">
-        <v>747.71065989847716</v>
+        <v>747.7106598984772</v>
       </c>
       <c r="L69" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M69">
         <v>108</v>
@@ -3551,16 +4117,25 @@
       <c r="Q69">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R69">
+        <v>3.21947341878029</v>
+      </c>
+      <c r="S69">
+        <v>4.04047619047619</v>
+      </c>
+      <c r="T69">
+        <v>3.435714285714285</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B70">
-        <v>40.504967999999998</v>
+        <v>40.504968</v>
       </c>
       <c r="C70">
-        <v>-80.067820999999995</v>
+        <v>-80.067821</v>
       </c>
       <c r="D70">
         <v>1.8</v>
@@ -3578,16 +4153,16 @@
         <v>1.91</v>
       </c>
       <c r="I70">
-        <v>770.25833333333333</v>
+        <v>770.2583333333333</v>
       </c>
       <c r="J70">
         <v>1045.590909090909</v>
       </c>
       <c r="K70">
-        <v>483.93193717277489</v>
+        <v>483.9319371727749</v>
       </c>
       <c r="L70" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M70">
         <v>2</v>
@@ -3598,16 +4173,25 @@
       <c r="Q70">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R70">
+        <v>2.798772609819121</v>
+      </c>
+      <c r="S70">
+        <v>2.55</v>
+      </c>
+      <c r="T70">
+        <v>2.275</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B71">
-        <v>40.426206999999998</v>
+        <v>40.426207</v>
       </c>
       <c r="C71">
-        <v>-79.975672000000003</v>
+        <v>-79.975672</v>
       </c>
       <c r="D71">
         <v>2.4</v>
@@ -3622,19 +4206,19 @@
         <v>120</v>
       </c>
       <c r="H71">
-        <v>2.068376068376069</v>
+        <v>2.102564102564103</v>
       </c>
       <c r="I71">
-        <v>1609.9666666666669</v>
+        <v>1599.975</v>
       </c>
       <c r="J71">
         <v>1189.87037037037</v>
       </c>
       <c r="K71">
-        <v>798.33057851239664</v>
+        <v>780.4756097560976</v>
       </c>
       <c r="L71" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M71">
         <v>290</v>
@@ -3651,16 +4235,25 @@
       <c r="Q71">
         <v>30</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R71">
+        <v>3.468730947319854</v>
+      </c>
+      <c r="S71">
+        <v>4.773214285714285</v>
+      </c>
+      <c r="T71">
+        <v>2.741666666666667</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B72">
-        <v>40.456867000000003</v>
+        <v>40.456867</v>
       </c>
       <c r="C72">
-        <v>-80.060630000000003</v>
+        <v>-80.06063</v>
       </c>
       <c r="D72">
         <v>0.8</v>
@@ -3675,7 +4268,7 @@
         <v>64</v>
       </c>
       <c r="H72">
-        <v>2.4406779661016951</v>
+        <v>2.440677966101695</v>
       </c>
       <c r="I72">
         <v>799.1875</v>
@@ -3684,10 +4277,10 @@
         <v>1110</v>
       </c>
       <c r="K72">
-        <v>355.19444444444451</v>
+        <v>355.1944444444445</v>
       </c>
       <c r="L72" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M72">
         <v>134</v>
@@ -3704,16 +4297,25 @@
       <c r="Q72">
         <v>14</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B73">
-        <v>40.438093000000002</v>
+        <v>40.438093</v>
       </c>
       <c r="C73">
-        <v>-80.099090000000004</v>
+        <v>-80.09909</v>
       </c>
       <c r="D73">
         <v>1.9</v>
@@ -3734,13 +4336,13 @@
         <v>1343.873949579832</v>
       </c>
       <c r="J73">
-        <v>911.66666666666663</v>
+        <v>911.6666666666666</v>
       </c>
       <c r="K73">
         <v>733.5825688073395</v>
       </c>
       <c r="L73" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M73">
         <v>80</v>
@@ -3757,16 +4359,25 @@
       <c r="Q73">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R73">
+        <v>3.402582417582417</v>
+      </c>
+      <c r="S73">
+        <v>2.75</v>
+      </c>
+      <c r="T73">
+        <v>3.185714285714286</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
       <c r="A74" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B74">
-        <v>40.472271999999997</v>
+        <v>40.472272</v>
       </c>
       <c r="C74">
-        <v>-79.913156000000001</v>
+        <v>-79.913156</v>
       </c>
       <c r="D74">
         <v>2.7</v>
@@ -3790,10 +4401,10 @@
         <v>1036.95652173913</v>
       </c>
       <c r="K74">
-        <v>663.51960784313724</v>
+        <v>663.5196078431372</v>
       </c>
       <c r="L74" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M74">
         <v>333</v>
@@ -3810,16 +4421,25 @@
       <c r="Q74">
         <v>77</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R74">
+        <v>3.489397587747842</v>
+      </c>
+      <c r="S74">
+        <v>3.292857142857143</v>
+      </c>
+      <c r="T74">
+        <v>4.311538461538461</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B75">
-        <v>40.403792000000003</v>
+        <v>40.403792</v>
       </c>
       <c r="C75">
-        <v>-79.928872999999996</v>
+        <v>-79.928873</v>
       </c>
       <c r="D75">
         <v>1.5</v>
@@ -3837,16 +4457,16 @@
         <v>2.452380952380953</v>
       </c>
       <c r="I75">
-        <v>906.62264150943395</v>
+        <v>906.6226415094339</v>
       </c>
       <c r="J75">
         <v>1191.117647058823</v>
       </c>
       <c r="K75">
-        <v>466.51456310679612</v>
+        <v>466.5145631067961</v>
       </c>
       <c r="L75" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M75">
         <v>176</v>
@@ -3863,16 +4483,25 @@
       <c r="Q75">
         <v>15</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R75">
+        <v>2.613520408163265</v>
+      </c>
+      <c r="S75">
+        <v>2.383333333333333</v>
+      </c>
+      <c r="T75">
+        <v>2.275</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B76">
-        <v>40.453190999999997</v>
+        <v>40.453191</v>
       </c>
       <c r="C76">
-        <v>-79.899496999999997</v>
+        <v>-79.899497</v>
       </c>
       <c r="D76">
         <v>0.6</v>
@@ -3881,25 +4510,25 @@
         <v>33</v>
       </c>
       <c r="F76">
-        <v>17666.669999999998</v>
+        <v>17666.67</v>
       </c>
       <c r="G76">
         <v>120</v>
       </c>
       <c r="H76">
-        <v>2.1271186440677972</v>
+        <v>2.127118644067797</v>
       </c>
       <c r="I76">
         <v>1162.008333333333</v>
       </c>
       <c r="J76">
-        <v>1421.1428571428571</v>
+        <v>1421.142857142857</v>
       </c>
       <c r="K76">
-        <v>555.54183266932273</v>
+        <v>555.5418326693227</v>
       </c>
       <c r="L76" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M76">
         <v>177</v>
@@ -3916,19 +4545,28 @@
       <c r="Q76">
         <v>29</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R76">
+        <v>3.701636904761905</v>
+      </c>
+      <c r="S76">
+        <v>2.45</v>
+      </c>
+      <c r="T76">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B77">
-        <v>40.498846999999998</v>
+        <v>40.498847</v>
       </c>
       <c r="C77">
-        <v>-79.969725999999994</v>
+        <v>-79.96972599999999</v>
       </c>
       <c r="D77">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="E77">
         <v>119</v>
@@ -3946,13 +4584,13 @@
         <v>852.2833333333333</v>
       </c>
       <c r="J77">
-        <v>751.06796116504859</v>
+        <v>751.0679611650486</v>
       </c>
       <c r="K77">
-        <v>508.82587064676619</v>
+        <v>508.8258706467662</v>
       </c>
       <c r="L77" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P77">
         <v>2</v>
@@ -3960,16 +4598,25 @@
       <c r="Q77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R77">
+        <v>2.561234817813765</v>
+      </c>
+      <c r="S77">
+        <v>3.031818181818182</v>
+      </c>
+      <c r="T77">
+        <v>2.275</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B78">
-        <v>40.406950999999999</v>
+        <v>40.406951</v>
       </c>
       <c r="C78">
-        <v>-79.984987000000004</v>
+        <v>-79.984987</v>
       </c>
       <c r="D78">
         <v>0.7</v>
@@ -3978,25 +4625,25 @@
         <v>37</v>
       </c>
       <c r="F78">
-        <v>17666.669999999998</v>
+        <v>17666.67</v>
       </c>
       <c r="G78">
         <v>94</v>
       </c>
       <c r="H78">
-        <v>2.4819277108433742</v>
+        <v>2.481927710843374</v>
       </c>
       <c r="I78">
-        <v>905.97849462365593</v>
+        <v>905.9784946236559</v>
       </c>
       <c r="J78">
         <v>1166.714285714286</v>
       </c>
       <c r="K78">
-        <v>409.00970873786412</v>
+        <v>409.0097087378641</v>
       </c>
       <c r="L78" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M78">
         <v>534</v>
@@ -4013,16 +4660,25 @@
       <c r="Q78">
         <v>64</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R78">
+        <v>3.721368715083799</v>
+      </c>
+      <c r="S78">
+        <v>1.35</v>
+      </c>
+      <c r="T78">
+        <v>2.525</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
       <c r="A79" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B79">
-        <v>40.430321999999997</v>
+        <v>40.430322</v>
       </c>
       <c r="C79">
-        <v>-80.015632999999994</v>
+        <v>-80.01563299999999</v>
       </c>
       <c r="D79">
         <v>1.8</v>
@@ -4037,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="H79">
-        <v>2.1941747572815529</v>
+        <v>2.194174757281553</v>
       </c>
       <c r="I79">
         <v>1000.669565217391</v>
@@ -4046,10 +4702,10 @@
         <v>1235.788461538461</v>
       </c>
       <c r="K79">
-        <v>509.19026548672571</v>
+        <v>509.1902654867257</v>
       </c>
       <c r="L79" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M79">
         <v>139</v>
@@ -4066,16 +4722,25 @@
       <c r="Q79">
         <v>15</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R79">
+        <v>2.685690423162583</v>
+      </c>
+      <c r="S79">
+        <v>2.9</v>
+      </c>
+      <c r="T79">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
       <c r="A80" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B80">
-        <v>40.456938999999998</v>
+        <v>40.456939</v>
       </c>
       <c r="C80">
-        <v>-79.990054000000001</v>
+        <v>-79.990054</v>
       </c>
       <c r="D80">
         <v>1.2</v>
@@ -4090,19 +4755,19 @@
         <v>120</v>
       </c>
       <c r="H80">
-        <v>2.2574257425742572</v>
+        <v>2.257425742574257</v>
       </c>
       <c r="I80">
         <v>1062.55462184874</v>
       </c>
       <c r="J80">
-        <v>981.50505050505046</v>
+        <v>981.5050505050505</v>
       </c>
       <c r="K80">
-        <v>554.57894736842104</v>
+        <v>554.578947368421</v>
       </c>
       <c r="L80" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M80">
         <v>636</v>
@@ -4119,13 +4784,22 @@
       <c r="Q80">
         <v>72</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R80">
+        <v>2.898297648297648</v>
+      </c>
+      <c r="S80">
+        <v>3.9</v>
+      </c>
+      <c r="T80">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20">
       <c r="A81" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B81">
-        <v>40.444042000000003</v>
+        <v>40.444042</v>
       </c>
       <c r="C81">
         <v>-79.955247</v>
@@ -4152,10 +4826,10 @@
         <v>2202.416666666667</v>
       </c>
       <c r="K81">
-        <v>708.48421052631579</v>
+        <v>708.4842105263158</v>
       </c>
       <c r="L81" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M81">
         <v>105</v>
@@ -4172,16 +4846,25 @@
       <c r="Q81">
         <v>15</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R81">
+        <v>3.940534892457969</v>
+      </c>
+      <c r="S81">
+        <v>3.054166666666667</v>
+      </c>
+      <c r="T81">
+        <v>4.040909090909091</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B82">
-        <v>40.486556999999998</v>
+        <v>40.486557</v>
       </c>
       <c r="C82">
-        <v>-80.013953000000001</v>
+        <v>-80.013953</v>
       </c>
       <c r="D82">
         <v>1.5</v>
@@ -4196,7 +4879,7 @@
         <v>87</v>
       </c>
       <c r="H82">
-        <v>2.5180722891566258</v>
+        <v>2.518072289156626</v>
       </c>
       <c r="I82">
         <v>1046.720930232558</v>
@@ -4205,10 +4888,10 @@
         <v>1119.76</v>
       </c>
       <c r="K82">
-        <v>430.70813397129189</v>
+        <v>430.7081339712919</v>
       </c>
       <c r="L82" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M82">
         <v>251</v>
@@ -4225,16 +4908,25 @@
       <c r="Q82">
         <v>18</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R82">
+        <v>3.125</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
       <c r="A83" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B83">
-        <v>40.501294999999999</v>
+        <v>40.501295</v>
       </c>
       <c r="C83">
-        <v>-79.912677000000002</v>
+        <v>-79.912677</v>
       </c>
       <c r="D83">
         <v>2.8</v>
@@ -4249,10 +4941,10 @@
         <v>54</v>
       </c>
       <c r="H83">
-        <v>2.0370370370370372</v>
+        <v>2.037037037037037</v>
       </c>
       <c r="I83">
-        <v>1064.2407407407411</v>
+        <v>1064.240740740741</v>
       </c>
       <c r="J83">
         <v>1338.461538461539</v>
@@ -4261,7 +4953,7 @@
         <v>522.4454545454546</v>
       </c>
       <c r="L83" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M83">
         <v>1</v>
@@ -4272,16 +4964,25 @@
       <c r="P83">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R83">
+        <v>2.743204804045512</v>
+      </c>
+      <c r="S83">
+        <v>2.225</v>
+      </c>
+      <c r="T83">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20">
       <c r="A84" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B84">
-        <v>40.402625999999998</v>
+        <v>40.402626</v>
       </c>
       <c r="C84">
-        <v>-80.034848999999994</v>
+        <v>-80.03484899999999</v>
       </c>
       <c r="D84">
         <v>2</v>
@@ -4296,19 +4997,19 @@
         <v>120</v>
       </c>
       <c r="H84">
-        <v>1.8224299065420559</v>
+        <v>1.822429906542056</v>
       </c>
       <c r="I84">
-        <v>914.03361344537814</v>
+        <v>914.0336134453781</v>
       </c>
       <c r="J84">
         <v>1157.2</v>
       </c>
       <c r="K84">
-        <v>557.79487179487182</v>
+        <v>557.7948717948718</v>
       </c>
       <c r="L84" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M84">
         <v>117</v>
@@ -4325,16 +5026,25 @@
       <c r="Q84">
         <v>11</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R84">
+        <v>3.582539466521502</v>
+      </c>
+      <c r="S84">
+        <v>3.132142857142857</v>
+      </c>
+      <c r="T84">
+        <v>3.56875</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20">
       <c r="A85" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B85">
-        <v>40.430821000000002</v>
+        <v>40.430821</v>
       </c>
       <c r="C85">
-        <v>-79.920089000000004</v>
+        <v>-79.920089</v>
       </c>
       <c r="D85">
         <v>3.5</v>
@@ -4355,13 +5065,13 @@
         <v>1189.2</v>
       </c>
       <c r="J85">
-        <v>958.91803278688519</v>
+        <v>958.9180327868852</v>
       </c>
       <c r="K85">
-        <v>728.08163265306121</v>
+        <v>728.0816326530612</v>
       </c>
       <c r="L85" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M85">
         <v>61</v>
@@ -4378,16 +5088,25 @@
       <c r="Q85">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R85">
+        <v>3.426171134873794</v>
+      </c>
+      <c r="S85">
+        <v>3.168181818181818</v>
+      </c>
+      <c r="T85">
+        <v>3.875</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20">
       <c r="A86" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B86">
-        <v>40.423609999999996</v>
+        <v>40.42361</v>
       </c>
       <c r="C86">
-        <v>-79.889803000000001</v>
+        <v>-79.889803</v>
       </c>
       <c r="D86">
         <v>1.9</v>
@@ -4405,16 +5124,16 @@
         <v>1.477477477477477</v>
       </c>
       <c r="I86">
-        <v>816.51666666666665</v>
+        <v>816.5166666666667</v>
       </c>
       <c r="J86">
-        <v>772.21917808219177</v>
+        <v>772.2191780821918</v>
       </c>
       <c r="K86">
-        <v>597.45121951219517</v>
+        <v>597.4512195121952</v>
       </c>
       <c r="L86" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M86">
         <v>11</v>
@@ -4431,16 +5150,25 @@
       <c r="Q86">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R86">
+        <v>3.104114971050455</v>
+      </c>
+      <c r="S86">
+        <v>2.9</v>
+      </c>
+      <c r="T86">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20">
       <c r="A87" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B87">
-        <v>40.443184000000002</v>
+        <v>40.443184</v>
       </c>
       <c r="C87">
-        <v>-79.983063999999999</v>
+        <v>-79.983064</v>
       </c>
       <c r="D87">
         <v>0.6</v>
@@ -4461,13 +5189,13 @@
         <v>1455.85</v>
       </c>
       <c r="J87">
-        <v>973.16666666666663</v>
+        <v>973.1666666666666</v>
       </c>
       <c r="K87">
-        <v>934.23529411764707</v>
+        <v>934.2352941176471</v>
       </c>
       <c r="L87" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M87">
         <v>2440</v>
@@ -4484,19 +5212,28 @@
       <c r="Q87">
         <v>301</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R87">
+        <v>3.580013192612137</v>
+      </c>
+      <c r="S87">
+        <v>2.970833333333333</v>
+      </c>
+      <c r="T87">
+        <v>2.275</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20">
       <c r="A88" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B88">
-        <v>40.419505999999998</v>
+        <v>40.419506</v>
       </c>
       <c r="C88">
-        <v>-80.047768000000005</v>
+        <v>-80.047768</v>
       </c>
       <c r="D88">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="E88">
         <v>121</v>
@@ -4514,13 +5251,13 @@
         <v>1025.117647058823</v>
       </c>
       <c r="J88">
-        <v>1297.7222222222219</v>
+        <v>1297.722222222222</v>
       </c>
       <c r="K88">
-        <v>512.55882352941171</v>
+        <v>512.5588235294117</v>
       </c>
       <c r="L88" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M88">
         <v>134</v>
@@ -4537,16 +5274,25 @@
       <c r="Q88">
         <v>18</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R88">
+        <v>3.250457875457876</v>
+      </c>
+      <c r="S88">
+        <v>2.575</v>
+      </c>
+      <c r="T88">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20">
       <c r="A89" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B89">
-        <v>40.435791000000002</v>
+        <v>40.435791</v>
       </c>
       <c r="C89">
-        <v>-79.864270000000005</v>
+        <v>-79.86427</v>
       </c>
       <c r="D89">
         <v>1.3</v>
@@ -4561,7 +5307,7 @@
         <v>120</v>
       </c>
       <c r="H89">
-        <v>1.9736842105263159</v>
+        <v>1.973684210526316</v>
       </c>
       <c r="I89">
         <v>1019.596638655462</v>
@@ -4570,10 +5316,10 @@
         <v>1271.457627118644</v>
       </c>
       <c r="K89">
-        <v>539.25333333333333</v>
+        <v>539.2533333333333</v>
       </c>
       <c r="L89" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M89">
         <v>206</v>
@@ -4590,16 +5336,25 @@
       <c r="Q89">
         <v>28</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R89">
+        <v>3.252118644067797</v>
+      </c>
+      <c r="S89">
+        <v>2.3</v>
+      </c>
+      <c r="T89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20">
       <c r="A90" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B90">
-        <v>40.447690999999999</v>
+        <v>40.447691</v>
       </c>
       <c r="C90">
-        <v>-79.993444999999994</v>
+        <v>-79.99344499999999</v>
       </c>
       <c r="D90">
         <v>5</v>
@@ -4614,19 +5369,19 @@
         <v>120</v>
       </c>
       <c r="H90">
-        <v>1.386554621848739</v>
+        <v>1.394957983193277</v>
       </c>
       <c r="I90">
-        <v>1484.258333333333</v>
+        <v>1491.55</v>
       </c>
       <c r="J90">
-        <v>854.11578947368423</v>
+        <v>863.8947368421053</v>
       </c>
       <c r="K90">
-        <v>1079.4606060606061</v>
+        <v>1078.228915662651</v>
       </c>
       <c r="L90" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M90">
         <v>151</v>
@@ -4643,16 +5398,25 @@
       <c r="Q90">
         <v>27</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R90">
+        <v>4.175610566023892</v>
+      </c>
+      <c r="S90">
+        <v>4.358333333333333</v>
+      </c>
+      <c r="T90">
+        <v>5.309375</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
       <c r="A91" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B91">
         <v>40.505181</v>
       </c>
       <c r="C91">
-        <v>-79.952225999999996</v>
+        <v>-79.952226</v>
       </c>
       <c r="D91">
         <v>2</v>
@@ -4667,19 +5431,19 @@
         <v>23</v>
       </c>
       <c r="H91">
-        <v>2.0909090909090908</v>
+        <v>2.090909090909091</v>
       </c>
       <c r="I91">
-        <v>834.21739130434787</v>
+        <v>834.2173913043479</v>
       </c>
       <c r="J91">
         <v>1174.166666666667</v>
       </c>
       <c r="K91">
-        <v>417.10869565217388</v>
+        <v>417.1086956521739</v>
       </c>
       <c r="L91" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M91">
         <v>2</v>
@@ -4693,16 +5457,25 @@
       <c r="Q91">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R91">
+        <v>3.345496894409938</v>
+      </c>
+      <c r="S91">
+        <v>2.016666666666667</v>
+      </c>
+      <c r="T91">
+        <v>2.516666666666667</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
       <c r="A92" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B92">
-        <v>40.464233999999998</v>
+        <v>40.464234</v>
       </c>
       <c r="C92">
-        <v>-79.944805000000002</v>
+        <v>-79.944805</v>
       </c>
       <c r="D92">
         <v>2.5</v>
@@ -4717,19 +5490,19 @@
         <v>120</v>
       </c>
       <c r="H92">
-        <v>2.1491228070175441</v>
+        <v>2.131578947368421</v>
       </c>
       <c r="I92">
-        <v>1439.133333333333</v>
+        <v>1450.016666666667</v>
       </c>
       <c r="J92">
-        <v>954.46</v>
+        <v>936.0392156862745</v>
       </c>
       <c r="K92">
-        <v>704.88163265306127</v>
+        <v>716.0576131687243</v>
       </c>
       <c r="L92" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M92">
         <v>104</v>
@@ -4746,13 +5519,22 @@
       <c r="Q92">
         <v>12</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R92">
+        <v>3.680377506690974</v>
+      </c>
+      <c r="S92">
+        <v>3.758333333333333</v>
+      </c>
+      <c r="T92">
+        <v>3.366666666666666</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
       <c r="A93" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B93">
-        <v>40.506680000000003</v>
+        <v>40.50668</v>
       </c>
       <c r="C93">
         <v>-80.113844</v>
@@ -4764,25 +5546,25 @@
         <v>33</v>
       </c>
       <c r="F93">
-        <v>17666.669999999998</v>
+        <v>17666.67</v>
       </c>
       <c r="G93">
         <v>10</v>
       </c>
       <c r="H93">
-        <v>2.1111111111111112</v>
+        <v>2.111111111111111</v>
       </c>
       <c r="I93">
-        <v>904.44444444444446</v>
+        <v>904.4444444444445</v>
       </c>
       <c r="J93">
-        <v>694.66666666666663</v>
+        <v>694.6666666666666</v>
       </c>
       <c r="K93">
-        <v>428.42105263157902</v>
+        <v>428.421052631579</v>
       </c>
       <c r="L93" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M93">
         <v>1</v>
@@ -4793,16 +5575,25 @@
       <c r="P93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R93">
+        <v>2.464285714285714</v>
+      </c>
+      <c r="S93">
+        <v>1.85</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
       <c r="A94" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B94">
-        <v>40.395052999999997</v>
+        <v>40.395053</v>
       </c>
       <c r="C94">
-        <v>-80.013952000000003</v>
+        <v>-80.013952</v>
       </c>
       <c r="D94">
         <v>1.9</v>
@@ -4826,10 +5617,10 @@
         <v>1470.761904761905</v>
       </c>
       <c r="K94">
-        <v>698.01826484018261</v>
+        <v>698.0182648401826</v>
       </c>
       <c r="L94" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M94">
         <v>102</v>
@@ -4846,16 +5637,25 @@
       <c r="Q94">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R94">
+        <v>3.056869369369369</v>
+      </c>
+      <c r="S94">
+        <v>2.2</v>
+      </c>
+      <c r="T94">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
       <c r="A95" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B95">
-        <v>40.375703000000001</v>
+        <v>40.375703</v>
       </c>
       <c r="C95">
-        <v>-79.970572000000004</v>
+        <v>-79.970572</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -4873,16 +5673,16 @@
         <v>1.870967741935484</v>
       </c>
       <c r="I95">
-        <v>799.57352941176475</v>
+        <v>799.5735294117648</v>
       </c>
       <c r="J95">
-        <v>871.87878787878788</v>
+        <v>871.8787878787879</v>
       </c>
       <c r="K95">
         <v>468.7155172413793</v>
       </c>
       <c r="L95" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M95">
         <v>50</v>
@@ -4899,16 +5699,25 @@
       <c r="Q95">
         <v>6</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R95">
+        <v>3.186224489795919</v>
+      </c>
+      <c r="S95">
+        <v>2.65</v>
+      </c>
+      <c r="T95">
+        <v>2.991666666666667</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20">
       <c r="A96" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B96">
-        <v>40.370666999999997</v>
+        <v>40.370667</v>
       </c>
       <c r="C96">
-        <v>-80.044134999999997</v>
+        <v>-80.044135</v>
       </c>
       <c r="D96">
         <v>3.1</v>
@@ -4932,18 +5741,27 @@
         <v>1012</v>
       </c>
       <c r="K96">
-        <v>567.53521126760563</v>
+        <v>567.5352112676056</v>
       </c>
       <c r="L96" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R96">
+        <v>3.567300404244568</v>
+      </c>
+      <c r="S96">
+        <v>2.557142857142857</v>
+      </c>
+      <c r="T96">
+        <v>2.433333333333333</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20">
       <c r="A97" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B97">
         <v>40.520353</v>
@@ -4952,7 +5770,7 @@
         <v>-80.037053</v>
       </c>
       <c r="D97">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="E97">
         <v>120</v>
@@ -4964,7 +5782,7 @@
         <v>62</v>
       </c>
       <c r="H97">
-        <v>1.5344827586206899</v>
+        <v>1.53448275862069</v>
       </c>
       <c r="I97">
         <v>1073.483870967742</v>
@@ -4973,10 +5791,10 @@
         <v>1022.818181818182</v>
       </c>
       <c r="K97">
-        <v>747.82022471910113</v>
+        <v>747.8202247191011</v>
       </c>
       <c r="L97" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M97">
         <v>1</v>
@@ -4984,10 +5802,19 @@
       <c r="N97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R97">
+        <v>4.125</v>
+      </c>
+      <c r="S97">
+        <v>2.35</v>
+      </c>
+      <c r="T97">
+        <v>2.025</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20">
       <c r="A98" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B98">
         <v>40.452517</v>
@@ -5002,25 +5829,25 @@
         <v>219</v>
       </c>
       <c r="F98">
-        <v>153656.67000000001</v>
+        <v>153656.67</v>
       </c>
       <c r="G98">
         <v>120</v>
       </c>
       <c r="H98">
-        <v>1.736842105263158</v>
+        <v>1.719298245614035</v>
       </c>
       <c r="I98">
-        <v>1514.35</v>
+        <v>1510.058333333333</v>
       </c>
       <c r="J98">
-        <v>1043.8793103448279</v>
+        <v>1032.081967213115</v>
       </c>
       <c r="K98">
-        <v>917.78787878787875</v>
+        <v>924.5255102040817</v>
       </c>
       <c r="L98" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M98">
         <v>33</v>
@@ -5037,16 +5864,25 @@
       <c r="Q98">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R98">
+        <v>3.456980010315458</v>
+      </c>
+      <c r="S98">
+        <v>2.940909090909091</v>
+      </c>
+      <c r="T98">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20">
       <c r="A99" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B99">
-        <v>40.460861999999999</v>
+        <v>40.460862</v>
       </c>
       <c r="C99">
-        <v>-80.034916999999993</v>
+        <v>-80.03491699999999</v>
       </c>
       <c r="D99">
         <v>1.7</v>
@@ -5061,19 +5897,19 @@
         <v>118</v>
       </c>
       <c r="H99">
-        <v>1.7619047619047621</v>
+        <v>1.761904761904762</v>
       </c>
       <c r="I99">
-        <v>850.19491525423734</v>
+        <v>850.1949152542373</v>
       </c>
       <c r="J99">
-        <v>1210.9142857142861</v>
+        <v>1210.914285714286</v>
       </c>
       <c r="K99">
-        <v>542.28648648648652</v>
+        <v>542.2864864864865</v>
       </c>
       <c r="L99" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M99">
         <v>81</v>
@@ -5090,19 +5926,28 @@
       <c r="Q99">
         <v>47</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R99">
+        <v>3.176212121212121</v>
+      </c>
+      <c r="S99">
+        <v>2.383333333333333</v>
+      </c>
+      <c r="T99">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20">
       <c r="A100" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B100">
-        <v>40.368139999999997</v>
+        <v>40.36814</v>
       </c>
       <c r="C100">
-        <v>-80.017795000000007</v>
+        <v>-80.01779500000001</v>
       </c>
       <c r="D100">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="E100">
         <v>122</v>
@@ -5114,19 +5959,19 @@
         <v>99</v>
       </c>
       <c r="H100">
-        <v>1.9647058823529411</v>
+        <v>1.964705882352941</v>
       </c>
       <c r="I100">
-        <v>845.11111111111109</v>
+        <v>845.1111111111111</v>
       </c>
       <c r="J100">
         <v>957.5</v>
       </c>
       <c r="K100">
-        <v>500.99401197604789</v>
+        <v>500.9940119760479</v>
       </c>
       <c r="L100" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M100">
         <v>9</v>
@@ -5143,16 +5988,25 @@
       <c r="Q100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R100">
+        <v>3.336693548387097</v>
+      </c>
+      <c r="S100">
+        <v>2.483333333333333</v>
+      </c>
+      <c r="T100">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20">
       <c r="A101" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B101">
-        <v>40.459800999999999</v>
+        <v>40.459801</v>
       </c>
       <c r="C101">
-        <v>-79.822419999999994</v>
+        <v>-79.82241999999999</v>
       </c>
       <c r="D101">
         <v>1.4</v>
@@ -5167,7 +6021,7 @@
         <v>65</v>
       </c>
       <c r="H101">
-        <v>2.1186440677966099</v>
+        <v>2.11864406779661</v>
       </c>
       <c r="I101">
         <v>790.453125</v>
@@ -5176,10 +6030,10 @@
         <v>2285.333333333333</v>
       </c>
       <c r="K101">
-        <v>404.71199999999999</v>
+        <v>404.712</v>
       </c>
       <c r="L101" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M101">
         <v>7</v>
@@ -5193,16 +6047,25 @@
       <c r="P101">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R101">
+        <v>3.311318456441239</v>
+      </c>
+      <c r="S101">
+        <v>2.844444444444445</v>
+      </c>
+      <c r="T101">
+        <v>3.185714285714286</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20">
       <c r="A102" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B102">
-        <v>40.347403999999997</v>
+        <v>40.347404</v>
       </c>
       <c r="C102">
-        <v>-79.975481000000002</v>
+        <v>-79.975481</v>
       </c>
       <c r="D102">
         <v>2.4</v>
@@ -5214,22 +6077,22 @@
         <v>58405.42</v>
       </c>
       <c r="G102">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H102">
-        <v>2.0188679245283021</v>
+        <v>2</v>
       </c>
       <c r="I102">
-        <v>913.77272727272725</v>
+        <v>910.6567164179105</v>
       </c>
       <c r="J102">
-        <v>921.07500000000005</v>
+        <v>911.4146341463414</v>
       </c>
       <c r="K102">
-        <v>563.63551401869154</v>
+        <v>564.9444444444445</v>
       </c>
       <c r="L102" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M102">
         <v>1</v>
@@ -5240,16 +6103,25 @@
       <c r="Q102">
         <v>2</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R102">
+        <v>2.752597672485453</v>
+      </c>
+      <c r="S102">
+        <v>2.95</v>
+      </c>
+      <c r="T102">
+        <v>3.116666666666667</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20">
       <c r="A103" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B103">
-        <v>40.549607000000002</v>
+        <v>40.549607</v>
       </c>
       <c r="C103">
-        <v>-80.043513000000004</v>
+        <v>-80.043513</v>
       </c>
       <c r="D103">
         <v>2.8</v>
@@ -5264,19 +6136,19 @@
         <v>120</v>
       </c>
       <c r="H103">
-        <v>1.6293103448275861</v>
+        <v>1.629310344827586</v>
       </c>
       <c r="I103">
-        <v>990.35833333333335</v>
+        <v>990.3583333333333</v>
       </c>
       <c r="J103">
-        <v>861.57894736842104</v>
+        <v>861.578947368421</v>
       </c>
       <c r="K103">
-        <v>628.79894179894177</v>
+        <v>628.7989417989418</v>
       </c>
       <c r="L103" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M103">
         <v>1</v>
@@ -5287,16 +6159,25 @@
       <c r="P103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R103">
+        <v>3.083983073437292</v>
+      </c>
+      <c r="S103">
+        <v>3.167857142857143</v>
+      </c>
+      <c r="T103">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20">
       <c r="A104" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B104">
-        <v>40.537201000000003</v>
+        <v>40.537201</v>
       </c>
       <c r="C104">
-        <v>-79.879442999999995</v>
+        <v>-79.87944299999999</v>
       </c>
       <c r="D104">
         <v>3.1</v>
@@ -5311,19 +6192,19 @@
         <v>61</v>
       </c>
       <c r="H104">
-        <v>3.2666666666666671</v>
+        <v>3.266666666666667</v>
       </c>
       <c r="I104">
-        <v>2256.2295081967209</v>
+        <v>2256.229508196721</v>
       </c>
       <c r="J104">
-        <v>1820.5555555555561</v>
+        <v>1820.555555555556</v>
       </c>
       <c r="K104">
-        <v>702.19387755102036</v>
+        <v>702.1938775510204</v>
       </c>
       <c r="L104" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M104">
         <v>2</v>
@@ -5337,16 +6218,25 @@
       <c r="P104">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R104">
+        <v>3.334432507180087</v>
+      </c>
+      <c r="S104">
+        <v>2.4875</v>
+      </c>
+      <c r="T104">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20">
       <c r="A105" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B105">
-        <v>40.483674000000001</v>
+        <v>40.483674</v>
       </c>
       <c r="C105">
-        <v>-79.738073999999997</v>
+        <v>-79.738074</v>
       </c>
       <c r="D105">
         <v>2.1</v>
@@ -5361,27 +6251,36 @@
         <v>21</v>
       </c>
       <c r="H105">
-        <v>2.5789473684210531</v>
+        <v>2.578947368421053</v>
       </c>
       <c r="I105">
-        <v>816.19047619047615</v>
+        <v>816.1904761904761</v>
       </c>
       <c r="J105">
         <v>1721.25</v>
       </c>
       <c r="K105">
-        <v>349.79591836734693</v>
+        <v>349.7959183673469</v>
       </c>
       <c r="L105" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+      <c r="R105">
+        <v>3.145953757225433</v>
+      </c>
+      <c r="S105">
+        <v>2.25</v>
+      </c>
+      <c r="T105">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20">
       <c r="A106" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B106">
-        <v>40.333517999999998</v>
+        <v>40.333518</v>
       </c>
       <c r="C106">
         <v>-80.081412</v>
@@ -5399,19 +6298,19 @@
         <v>120</v>
       </c>
       <c r="H106">
-        <v>1.4416666666666671</v>
+        <v>1.433333333333333</v>
       </c>
       <c r="I106">
-        <v>1208.75</v>
+        <v>1211.5</v>
       </c>
       <c r="J106">
-        <v>849.92307692307691</v>
+        <v>849.1196581196581</v>
       </c>
       <c r="K106">
-        <v>838.43930635838149</v>
+        <v>845.2325581395348</v>
       </c>
       <c r="L106" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M106">
         <v>1</v>
@@ -5419,16 +6318,25 @@
       <c r="O106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R106">
+        <v>2.573648382004736</v>
+      </c>
+      <c r="S106">
+        <v>1.8375</v>
+      </c>
+      <c r="T106">
+        <v>3.283333333333333</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20">
       <c r="A107" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B107">
-        <v>40.375511000000003</v>
+        <v>40.375511</v>
       </c>
       <c r="C107">
-        <v>-80.072372000000001</v>
+        <v>-80.072372</v>
       </c>
       <c r="D107">
         <v>2.9</v>
@@ -5443,7 +6351,7 @@
         <v>17</v>
       </c>
       <c r="H107">
-        <v>2.4705882352941182</v>
+        <v>2.470588235294118</v>
       </c>
       <c r="I107">
         <v>1404.411764705882</v>
@@ -5452,21 +6360,30 @@
         <v>1805.727272727273</v>
       </c>
       <c r="K107">
-        <v>568.45238095238096</v>
+        <v>568.452380952381</v>
       </c>
       <c r="L107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="R107">
+        <v>0</v>
+      </c>
+      <c r="S107">
+        <v>0</v>
+      </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20">
       <c r="A108" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B108">
-        <v>40.443914999999997</v>
+        <v>40.443915</v>
       </c>
       <c r="C108">
-        <v>-79.953255999999996</v>
+        <v>-79.953256</v>
       </c>
       <c r="D108">
         <v>0.6</v>
@@ -5475,13 +6392,13 @@
         <v>33</v>
       </c>
       <c r="F108">
-        <v>17666.669999999998</v>
+        <v>17666.67</v>
       </c>
       <c r="G108">
         <v>120</v>
       </c>
       <c r="H108">
-        <v>3.0353982300884961</v>
+        <v>3.035398230088496</v>
       </c>
       <c r="I108">
         <v>1686.55</v>
@@ -5490,21 +6407,30 @@
         <v>2249</v>
       </c>
       <c r="K108">
-        <v>590.04664723032067</v>
+        <v>590.0466472303207</v>
       </c>
       <c r="L108" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+      <c r="R108">
+        <v>0</v>
+      </c>
+      <c r="S108">
+        <v>0</v>
+      </c>
+      <c r="T108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20">
       <c r="A109" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B109">
-        <v>40.457329000000001</v>
+        <v>40.457329</v>
       </c>
       <c r="C109">
-        <v>-80.019294000000002</v>
+        <v>-80.019294</v>
       </c>
       <c r="D109">
         <v>0.6</v>
@@ -5513,7 +6439,7 @@
         <v>33</v>
       </c>
       <c r="F109">
-        <v>17666.669999999998</v>
+        <v>17666.67</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -5528,24 +6454,33 @@
         <v>1124</v>
       </c>
       <c r="K109">
-        <v>341.66666666666669</v>
+        <v>341.6666666666667</v>
       </c>
       <c r="L109" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+      <c r="R109">
+        <v>0</v>
+      </c>
+      <c r="S109">
+        <v>0</v>
+      </c>
+      <c r="T109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20">
       <c r="A110" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B110">
-        <v>40.240215999999997</v>
+        <v>40.240216</v>
       </c>
       <c r="C110">
-        <v>-79.993472999999994</v>
+        <v>-79.99347299999999</v>
       </c>
       <c r="D110">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="E110">
         <v>112</v>
@@ -5554,33 +6489,42 @@
         <v>58208.33</v>
       </c>
       <c r="G110">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H110">
         <v>2</v>
       </c>
       <c r="I110">
-        <v>824</v>
+        <v>786.6666666666666</v>
       </c>
       <c r="J110">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="K110">
-        <v>412</v>
+        <v>393.3333333333333</v>
       </c>
       <c r="L110" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+      <c r="R110">
+        <v>2.208333333333333</v>
+      </c>
+      <c r="S110">
+        <v>1.466666666666667</v>
+      </c>
+      <c r="T110">
+        <v>2.275</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20">
       <c r="A111" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B111">
         <v>40.318382</v>
       </c>
       <c r="C111">
-        <v>-79.723736000000002</v>
+        <v>-79.723736</v>
       </c>
       <c r="D111">
         <v>2.5</v>
@@ -5589,7 +6533,7 @@
         <v>130</v>
       </c>
       <c r="F111">
-        <v>17666.669999999998</v>
+        <v>17666.67</v>
       </c>
       <c r="G111">
         <v>78</v>
@@ -5598,27 +6542,36 @@
         <v>1.75</v>
       </c>
       <c r="I111">
-        <v>623.15384615384619</v>
+        <v>623.1538461538462</v>
       </c>
       <c r="J111">
         <v>826.88</v>
       </c>
       <c r="K111">
-        <v>408.45378151260502</v>
+        <v>408.453781512605</v>
       </c>
       <c r="L111" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+      <c r="R111">
+        <v>2.615820734341253</v>
+      </c>
+      <c r="S111">
+        <v>2.485714285714286</v>
+      </c>
+      <c r="T111">
+        <v>3.257142857142857</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20">
       <c r="A112" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B112">
-        <v>40.460563999999998</v>
+        <v>40.460564</v>
       </c>
       <c r="C112">
-        <v>-79.670008999999993</v>
+        <v>-79.67000899999999</v>
       </c>
       <c r="D112">
         <v>2.6</v>
@@ -5627,7 +6580,7 @@
         <v>136</v>
       </c>
       <c r="F112">
-        <v>17666.669999999998</v>
+        <v>17666.67</v>
       </c>
       <c r="G112">
         <v>7</v>
@@ -5636,16 +6589,16 @@
         <v>2.714285714285714</v>
       </c>
       <c r="I112">
-        <v>1402.8571428571429</v>
+        <v>1402.857142857143</v>
       </c>
       <c r="J112">
         <v>1710</v>
       </c>
       <c r="K112">
-        <v>516.84210526315792</v>
+        <v>516.8421052631579</v>
       </c>
       <c r="L112" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M112">
         <v>1</v>
@@ -5653,16 +6606,25 @@
       <c r="O112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="R112">
+        <v>3.175135501355014</v>
+      </c>
+      <c r="S112">
+        <v>2.45</v>
+      </c>
+      <c r="T112">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20">
       <c r="A113" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B113">
         <v>40.702748</v>
       </c>
       <c r="C113">
-        <v>-80.023905999999997</v>
+        <v>-80.023906</v>
       </c>
       <c r="D113">
         <v>3.1</v>
@@ -5686,21 +6648,30 @@
         <v>2300</v>
       </c>
       <c r="K113">
-        <v>701.19047619047615</v>
+        <v>701.1904761904761</v>
       </c>
       <c r="L113" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+      <c r="R113">
+        <v>2.89248549982941</v>
+      </c>
+      <c r="S113">
+        <v>2.2</v>
+      </c>
+      <c r="T113">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20">
       <c r="A114" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B114">
-        <v>40.716858999999999</v>
+        <v>40.716859</v>
       </c>
       <c r="C114">
-        <v>-79.749717000000004</v>
+        <v>-79.749717</v>
       </c>
       <c r="D114">
         <v>0.6</v>
@@ -5709,7 +6680,7 @@
         <v>33</v>
       </c>
       <c r="F114">
-        <v>17666.669999999998</v>
+        <v>17666.67</v>
       </c>
       <c r="G114">
         <v>3</v>
@@ -5727,18 +6698,27 @@
         <v>350</v>
       </c>
       <c r="L114" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+      <c r="R114">
+        <v>2.7125</v>
+      </c>
+      <c r="S114">
+        <v>2.133333333333333</v>
+      </c>
+      <c r="T114">
+        <v>1.775</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20">
       <c r="A115" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B115">
         <v>40.707082</v>
       </c>
       <c r="C115">
-        <v>-79.927087999999998</v>
+        <v>-79.927088</v>
       </c>
       <c r="D115">
         <v>2.5</v>
@@ -5747,7 +6727,7 @@
         <v>128</v>
       </c>
       <c r="F115">
-        <v>17666.669999999998</v>
+        <v>17666.67</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -5762,10 +6742,19 @@
         <v>1564</v>
       </c>
       <c r="K115">
-        <v>828.33333333333337</v>
+        <v>828.3333333333334</v>
       </c>
       <c r="L115" t="s">
-        <v>129</v>
+        <v>132</v>
+      </c>
+      <c r="R115">
+        <v>1.875</v>
+      </c>
+      <c r="S115">
+        <v>1.35</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="147">
   <si>
     <t>LAT</t>
   </si>
@@ -71,6 +71,48 @@
   </si>
   <si>
     <t>groceryScore</t>
+  </si>
+  <si>
+    <t>AttendanceRate</t>
+  </si>
+  <si>
+    <t>Avg_Enroll</t>
+  </si>
+  <si>
+    <t>BlendedScore</t>
+  </si>
+  <si>
+    <t>Calc_Score</t>
+  </si>
+  <si>
+    <t>Dropout_Rate</t>
+  </si>
+  <si>
+    <t>Economically_Disadvantage</t>
+  </si>
+  <si>
+    <t>Final_Academic_Score</t>
+  </si>
+  <si>
+    <t>Grad_Rate</t>
+  </si>
+  <si>
+    <t>Lit_PSSA</t>
+  </si>
+  <si>
+    <t>Math_PSSA</t>
+  </si>
+  <si>
+    <t>Num_AP</t>
+  </si>
+  <si>
+    <t>Num_Gifted</t>
+  </si>
+  <si>
+    <t>School_Count</t>
+  </si>
+  <si>
+    <t>Science_PSSA</t>
   </si>
   <si>
     <t>15003</t>
@@ -770,13 +812,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T115"/>
+  <dimension ref="A1:AH115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:34">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,10 +876,52 @@
       <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>40.60364</v>
@@ -870,7 +954,7 @@
         <v>439.047619047619</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="R2">
         <v>2.724673202614379</v>
@@ -881,10 +965,52 @@
       <c r="T2">
         <v>2.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2">
+        <v>92.52500000000001</v>
+      </c>
+      <c r="V2">
+        <v>606</v>
+      </c>
+      <c r="W2">
+        <v>84.63098349834983</v>
+      </c>
+      <c r="X2">
+        <v>68.25999999999999</v>
+      </c>
+      <c r="Y2">
+        <v>2.03</v>
+      </c>
+      <c r="Z2">
+        <v>0.0891089108910891</v>
+      </c>
+      <c r="AA2">
+        <v>69</v>
+      </c>
+      <c r="AB2">
+        <v>83.98</v>
+      </c>
+      <c r="AC2">
+        <v>57.76</v>
+      </c>
+      <c r="AD2">
+        <v>37.72499999999999</v>
+      </c>
+      <c r="AE2">
+        <v>9</v>
+      </c>
+      <c r="AF2">
+        <v>0.003052805280528053</v>
+      </c>
+      <c r="AG2">
+        <v>2</v>
+      </c>
+      <c r="AH2">
+        <v>49.55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>40.64508</v>
@@ -917,7 +1043,7 @@
         <v>486.9230769230769</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="R3">
         <v>2.318181818181818</v>
@@ -928,10 +1054,52 @@
       <c r="T3">
         <v>2.025</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3">
+        <v>95.20500000000001</v>
+      </c>
+      <c r="V3">
+        <v>427.5</v>
+      </c>
+      <c r="W3">
+        <v>75.68152280701754</v>
+      </c>
+      <c r="X3">
+        <v>72.16</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0.09005847953216374</v>
+      </c>
+      <c r="AA3">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>65.61</v>
+      </c>
+      <c r="AD3">
+        <v>49.37</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0.005345029239766082</v>
+      </c>
+      <c r="AG3">
+        <v>2</v>
+      </c>
+      <c r="AH3">
+        <v>68.80500000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>40.63359</v>
@@ -958,9 +1126,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:34">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>40.652282</v>
@@ -990,7 +1158,7 @@
         <v>731.25</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1002,9 +1170,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:34">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>40.608072</v>
@@ -1037,7 +1205,7 @@
         <v>342.9655172413793</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="R6">
         <v>2.291666666666667</v>
@@ -1048,10 +1216,52 @@
       <c r="T6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="U6">
+        <v>94.16</v>
+      </c>
+      <c r="V6">
+        <v>285</v>
+      </c>
+      <c r="W6">
+        <v>63.04461403508773</v>
+      </c>
+      <c r="X6">
+        <v>63.91</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0.2175438596491228</v>
+      </c>
+      <c r="AA6">
+        <v>64.3</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>55.67</v>
+      </c>
+      <c r="AD6">
+        <v>52.33</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0.001228070175438596</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>40.637248</v>
@@ -1084,7 +1294,7 @@
         <v>666.6666666666666</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1095,10 +1305,52 @@
       <c r="T7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7">
+        <v>96.68000000000001</v>
+      </c>
+      <c r="V7">
+        <v>463</v>
+      </c>
+      <c r="W7">
+        <v>99.18087041036718</v>
+      </c>
+      <c r="X7">
+        <v>88.19</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0.006479481641468682</v>
+      </c>
+      <c r="AA7">
+        <v>90.5</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>93.94</v>
+      </c>
+      <c r="AD7">
+        <v>82.25</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0.01166306695464363</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>94.87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>40.342274</v>
@@ -1131,7 +1383,7 @@
         <v>479.53125</v>
       </c>
       <c r="L8" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="R8">
         <v>2.649</v>
@@ -1142,10 +1394,52 @@
       <c r="T8">
         <v>2.55</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8">
+        <v>95.38666666666666</v>
+      </c>
+      <c r="V8">
+        <v>850.6666666666666</v>
+      </c>
+      <c r="W8">
+        <v>114.5126900470219</v>
+      </c>
+      <c r="X8">
+        <v>77.09666666666668</v>
+      </c>
+      <c r="Y8">
+        <v>0.465</v>
+      </c>
+      <c r="Z8">
+        <v>0.03565830721003135</v>
+      </c>
+      <c r="AA8">
+        <v>78.76666666666667</v>
+      </c>
+      <c r="AB8">
+        <v>96.97</v>
+      </c>
+      <c r="AC8">
+        <v>76.53333333333332</v>
+      </c>
+      <c r="AD8">
+        <v>63.39666666666667</v>
+      </c>
+      <c r="AE8">
+        <v>21</v>
+      </c>
+      <c r="AF8">
+        <v>0.003217084639498433</v>
+      </c>
+      <c r="AG8">
+        <v>3</v>
+      </c>
+      <c r="AH8">
+        <v>73.41500000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>40.265885</v>
@@ -1175,7 +1469,7 @@
         <v>341.6666666666667</v>
       </c>
       <c r="L9" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1187,9 +1481,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:34">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>40.233411</v>
@@ -1216,9 +1510,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:34">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>40.58497</v>
@@ -1251,7 +1545,7 @@
         <v>367.0833333333333</v>
       </c>
       <c r="L11" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1262,10 +1556,52 @@
       <c r="T11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11">
+        <v>95.09500000000001</v>
+      </c>
+      <c r="V11">
+        <v>444.75</v>
+      </c>
+      <c r="W11">
+        <v>98.4062498594716</v>
+      </c>
+      <c r="X11">
+        <v>73.5175</v>
+      </c>
+      <c r="Y11">
+        <v>0.24</v>
+      </c>
+      <c r="Z11">
+        <v>0.07588532883642496</v>
+      </c>
+      <c r="AA11">
+        <v>74.72499999999999</v>
+      </c>
+      <c r="AB11">
+        <v>96.55</v>
+      </c>
+      <c r="AC11">
+        <v>68.03999999999999</v>
+      </c>
+      <c r="AD11">
+        <v>53.43</v>
+      </c>
+      <c r="AE11">
+        <v>11</v>
+      </c>
+      <c r="AF11">
+        <v>0.009269252388982576</v>
+      </c>
+      <c r="AG11">
+        <v>4</v>
+      </c>
+      <c r="AH11">
+        <v>68.89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>40.297812</v>
@@ -1298,7 +1634,7 @@
         <v>412.5957446808511</v>
       </c>
       <c r="L12" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="R12">
         <v>2.23155737704918</v>
@@ -1309,10 +1645,52 @@
       <c r="T12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12">
+        <v>92.69200000000001</v>
+      </c>
+      <c r="V12">
+        <v>514.2</v>
+      </c>
+      <c r="W12">
+        <v>89.15684177362895</v>
+      </c>
+      <c r="X12">
+        <v>66.824</v>
+      </c>
+      <c r="Y12">
+        <v>2.225</v>
+      </c>
+      <c r="Z12">
+        <v>0.08401400233372229</v>
+      </c>
+      <c r="AA12">
+        <v>68.02000000000001</v>
+      </c>
+      <c r="AB12">
+        <v>91.58000000000001</v>
+      </c>
+      <c r="AC12">
+        <v>67.146</v>
+      </c>
+      <c r="AD12">
+        <v>51.23200000000001</v>
+      </c>
+      <c r="AE12">
+        <v>7.5</v>
+      </c>
+      <c r="AF12">
+        <v>0.004445740956826138</v>
+      </c>
+      <c r="AG12">
+        <v>5</v>
+      </c>
+      <c r="AH12">
+        <v>62.44599999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>40.504991</v>
@@ -1345,7 +1723,7 @@
         <v>426.3333333333333</v>
       </c>
       <c r="L13" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="R13">
         <v>2.193965517241379</v>
@@ -1357,9 +1735,9 @@
         <v>2.2</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:34">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>40.311313</v>
@@ -1392,7 +1770,7 @@
         <v>321.6880733944954</v>
       </c>
       <c r="L14" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -1407,9 +1785,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:34">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>40.591655</v>
@@ -1442,7 +1820,7 @@
         <v>312.3809523809524</v>
       </c>
       <c r="L15" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="R15">
         <v>2.625</v>
@@ -1454,9 +1832,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:34">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B16">
         <v>40.348224</v>
@@ -1477,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="R16">
         <v>2.125</v>
@@ -1489,9 +1867,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:34">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B17">
         <v>40.350816</v>
@@ -1524,7 +1902,7 @@
         <v>340.3333333333333</v>
       </c>
       <c r="L17" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -1536,9 +1914,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:34">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <v>40.384822</v>
@@ -1571,7 +1949,7 @@
         <v>393.2307692307692</v>
       </c>
       <c r="L18" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="R18">
         <v>2.875</v>
@@ -1583,9 +1961,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:34">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B19">
         <v>40.258036</v>
@@ -1618,7 +1996,7 @@
         <v>266.6666666666667</v>
       </c>
       <c r="L19" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="R19">
         <v>2.427816901408451</v>
@@ -1629,10 +2007,52 @@
       <c r="T19">
         <v>2.525</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19">
+        <v>94.44333333333333</v>
+      </c>
+      <c r="V19">
+        <v>523</v>
+      </c>
+      <c r="W19">
+        <v>103.9658425748885</v>
+      </c>
+      <c r="X19">
+        <v>76.73333333333333</v>
+      </c>
+      <c r="Y19">
+        <v>0.72</v>
+      </c>
+      <c r="Z19">
+        <v>0.05417463352453792</v>
+      </c>
+      <c r="AA19">
+        <v>77.76666666666667</v>
+      </c>
+      <c r="AB19">
+        <v>94.2</v>
+      </c>
+      <c r="AC19">
+        <v>74.31999999999999</v>
+      </c>
+      <c r="AD19">
+        <v>61.75333333333333</v>
+      </c>
+      <c r="AE19">
+        <v>12</v>
+      </c>
+      <c r="AF19">
+        <v>0.01010834926704907</v>
+      </c>
+      <c r="AG19">
+        <v>3</v>
+      </c>
+      <c r="AH19">
+        <v>73.64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B20">
         <v>40.637986</v>
@@ -1665,7 +2085,7 @@
         <v>548.8888888888889</v>
       </c>
       <c r="L20" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="R20">
         <v>2.520063597819503</v>
@@ -1676,10 +2096,52 @@
       <c r="T20">
         <v>3.35</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="U20">
+        <v>96.36833333333333</v>
+      </c>
+      <c r="V20">
+        <v>739.1666666666666</v>
+      </c>
+      <c r="W20">
+        <v>123.7165774896655</v>
+      </c>
+      <c r="X20">
+        <v>85.19000000000001</v>
+      </c>
+      <c r="Y20">
+        <v>0.1</v>
+      </c>
+      <c r="Z20">
+        <v>0.01149943630214205</v>
+      </c>
+      <c r="AA20">
+        <v>87.01666666666667</v>
+      </c>
+      <c r="AB20">
+        <v>98.39</v>
+      </c>
+      <c r="AC20">
+        <v>90.12166666666667</v>
+      </c>
+      <c r="AD20">
+        <v>81.955</v>
+      </c>
+      <c r="AE20">
+        <v>18</v>
+      </c>
+      <c r="AF20">
+        <v>0.007107102593010147</v>
+      </c>
+      <c r="AG20">
+        <v>6</v>
+      </c>
+      <c r="AH20">
+        <v>87.04000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B21">
         <v>40.325814</v>
@@ -1712,7 +2174,7 @@
         <v>348.8076923076923</v>
       </c>
       <c r="L21" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="R21">
         <v>2.625</v>
@@ -1724,9 +2186,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:34">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>40.555697</v>
@@ -1759,7 +2221,7 @@
         <v>456.8181818181818</v>
       </c>
       <c r="L22" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="R22">
         <v>2.375</v>
@@ -1771,9 +2233,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:34">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B23">
         <v>40.315621</v>
@@ -1806,7 +2268,7 @@
         <v>195</v>
       </c>
       <c r="L23" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -1818,9 +2280,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:34">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B24">
         <v>40.556113</v>
@@ -1853,7 +2315,7 @@
         <v>376.1538461538461</v>
       </c>
       <c r="L24" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -1865,9 +2327,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:34">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B25">
         <v>40.562602</v>
@@ -1897,7 +2359,7 @@
         <v>437.5</v>
       </c>
       <c r="L25" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -1909,9 +2371,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:34">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B26">
         <v>40.56389</v>
@@ -1944,7 +2406,7 @@
         <v>920</v>
       </c>
       <c r="L26" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="R26">
         <v>3.875</v>
@@ -1955,10 +2417,52 @@
       <c r="T26">
         <v>1.025</v>
       </c>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="U26">
+        <v>96</v>
+      </c>
+      <c r="V26">
+        <v>632</v>
+      </c>
+      <c r="W26">
+        <v>124.6798860759494</v>
+      </c>
+      <c r="X26">
+        <v>76.13</v>
+      </c>
+      <c r="Y26">
+        <v>0.32</v>
+      </c>
+      <c r="Z26">
+        <v>0.02056962025316456</v>
+      </c>
+      <c r="AA26">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="AB26">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="AC26">
+        <v>87.06999999999999</v>
+      </c>
+      <c r="AD26">
+        <v>78.17</v>
+      </c>
+      <c r="AE26">
+        <v>25</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AH26">
+        <v>82.64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B27">
         <v>40.358656</v>
@@ -1991,7 +2495,7 @@
         <v>351.1764705882353</v>
       </c>
       <c r="L27" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="R27">
         <v>2.553571428571429</v>
@@ -2002,10 +2506,52 @@
       <c r="T27">
         <v>2.516666666666667</v>
       </c>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="U27">
+        <v>95.46714285714287</v>
+      </c>
+      <c r="V27">
+        <v>644.4285714285714</v>
+      </c>
+      <c r="W27">
+        <v>112.9461083320138</v>
+      </c>
+      <c r="X27">
+        <v>77.80857142857143</v>
+      </c>
+      <c r="Y27">
+        <v>0.3800000000000001</v>
+      </c>
+      <c r="Z27">
+        <v>0.03524717357570384</v>
+      </c>
+      <c r="AA27">
+        <v>79.58571428571427</v>
+      </c>
+      <c r="AB27">
+        <v>94.94</v>
+      </c>
+      <c r="AC27">
+        <v>84.51571428571428</v>
+      </c>
+      <c r="AD27">
+        <v>70.00571428571429</v>
+      </c>
+      <c r="AE27">
+        <v>15.5</v>
+      </c>
+      <c r="AF27">
+        <v>0.003291953003768566</v>
+      </c>
+      <c r="AG27">
+        <v>7</v>
+      </c>
+      <c r="AH27">
+        <v>81.464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B28">
         <v>40.191166</v>
@@ -2038,7 +2584,7 @@
         <v>1602.5</v>
       </c>
       <c r="L28" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="R28">
         <v>2.408333333333333</v>
@@ -2049,10 +2595,52 @@
       <c r="T28">
         <v>1.766666666666667</v>
       </c>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="U28">
+        <v>93.13333333333333</v>
+      </c>
+      <c r="V28">
+        <v>663.6666666666666</v>
+      </c>
+      <c r="W28">
+        <v>96.69710781851664</v>
+      </c>
+      <c r="X28">
+        <v>65.94666666666666</v>
+      </c>
+      <c r="Y28">
+        <v>1.89</v>
+      </c>
+      <c r="Z28">
+        <v>0.07282772476142642</v>
+      </c>
+      <c r="AA28">
+        <v>67.03333333333333</v>
+      </c>
+      <c r="AB28">
+        <v>93.33</v>
+      </c>
+      <c r="AC28">
+        <v>62.82666666666668</v>
+      </c>
+      <c r="AD28">
+        <v>53.57666666666666</v>
+      </c>
+      <c r="AE28">
+        <v>15</v>
+      </c>
+      <c r="AF28">
+        <v>0.003400301356102461</v>
+      </c>
+      <c r="AG28">
+        <v>3</v>
+      </c>
+      <c r="AH28">
+        <v>68.63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B29">
         <v>40.356339</v>
@@ -2085,7 +2673,7 @@
         <v>750</v>
       </c>
       <c r="L29" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -2097,9 +2685,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:34">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B30">
         <v>40.644035</v>
@@ -2132,7 +2720,7 @@
         <v>399.2982456140351</v>
       </c>
       <c r="L30" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="R30">
         <v>2.323529411764706</v>
@@ -2143,10 +2731,52 @@
       <c r="T30">
         <v>2.3625</v>
       </c>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="U30">
+        <v>92.42666666666666</v>
+      </c>
+      <c r="V30">
+        <v>545.3333333333334</v>
+      </c>
+      <c r="W30">
+        <v>70.48764425427873</v>
+      </c>
+      <c r="X30">
+        <v>54.08000000000001</v>
+      </c>
+      <c r="Y30">
+        <v>1.295</v>
+      </c>
+      <c r="Z30">
+        <v>0.1118581907090465</v>
+      </c>
+      <c r="AA30">
+        <v>54.4</v>
+      </c>
+      <c r="AB30">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="AC30">
+        <v>52.38666666666666</v>
+      </c>
+      <c r="AD30">
+        <v>44.09</v>
+      </c>
+      <c r="AE30">
+        <v>2</v>
+      </c>
+      <c r="AF30">
+        <v>0.005158924205378973</v>
+      </c>
+      <c r="AG30">
+        <v>3</v>
+      </c>
+      <c r="AH30">
+        <v>42.345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B31">
         <v>40.557191</v>
@@ -2179,7 +2809,7 @@
         <v>582.1549295774648</v>
       </c>
       <c r="L31" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="R31">
         <v>2.761688668866887</v>
@@ -2190,10 +2820,52 @@
       <c r="T31">
         <v>3.383333333333333</v>
       </c>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="U31">
+        <v>94.56571428571429</v>
+      </c>
+      <c r="V31">
+        <v>515.5714285714286</v>
+      </c>
+      <c r="W31">
+        <v>89.98486773542335</v>
+      </c>
+      <c r="X31">
+        <v>68.02714285714285</v>
+      </c>
+      <c r="Y31">
+        <v>1.443333333333333</v>
+      </c>
+      <c r="Z31">
+        <v>0.09060681629260182</v>
+      </c>
+      <c r="AA31">
+        <v>68.88571428571429</v>
+      </c>
+      <c r="AB31">
+        <v>86.12</v>
+      </c>
+      <c r="AC31">
+        <v>61.14571428571428</v>
+      </c>
+      <c r="AD31">
+        <v>43.83428571428571</v>
+      </c>
+      <c r="AE31">
+        <v>11</v>
+      </c>
+      <c r="AF31">
+        <v>0.00741479634247714</v>
+      </c>
+      <c r="AG31">
+        <v>7</v>
+      </c>
+      <c r="AH31">
+        <v>59.552</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B32">
         <v>40.412105</v>
@@ -2226,7 +2898,7 @@
         <v>333.8</v>
       </c>
       <c r="L32" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -2243,10 +2915,52 @@
       <c r="T32">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="U32">
+        <v>95.23500000000001</v>
+      </c>
+      <c r="V32">
+        <v>478.5</v>
+      </c>
+      <c r="W32">
+        <v>88.66751671891326</v>
+      </c>
+      <c r="X32">
+        <v>80.35499999999999</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0.04597701149425287</v>
+      </c>
+      <c r="AA32">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>78.035</v>
+      </c>
+      <c r="AD32">
+        <v>70.035</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0.002121212121212121</v>
+      </c>
+      <c r="AG32">
+        <v>2</v>
+      </c>
+      <c r="AH32">
+        <v>89.88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B33">
         <v>40.586037</v>
@@ -2276,7 +2990,7 @@
         <v>350</v>
       </c>
       <c r="L33" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="R33">
         <v>2.875</v>
@@ -2288,9 +3002,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:34">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B34">
         <v>40.607346</v>
@@ -2320,7 +3034,7 @@
         <v>406.25</v>
       </c>
       <c r="L34" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="R34">
         <v>2.909883720930233</v>
@@ -2332,9 +3046,9 @@
         <v>2.266666666666667</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:34">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B35">
         <v>40.377841</v>
@@ -2364,7 +3078,7 @@
         <v>600</v>
       </c>
       <c r="L35" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="R35">
         <v>2.875</v>
@@ -2376,9 +3090,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:34">
       <c r="A36" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B36">
         <v>40.62859</v>
@@ -2411,7 +3125,7 @@
         <v>425</v>
       </c>
       <c r="L36" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="R36">
         <v>2.344938335046248</v>
@@ -2422,10 +3136,52 @@
       <c r="T36">
         <v>2.433333333333333</v>
       </c>
-    </row>
-    <row r="37" spans="1:20">
+      <c r="U36">
+        <v>94.80500000000001</v>
+      </c>
+      <c r="V36">
+        <v>545</v>
+      </c>
+      <c r="W36">
+        <v>69.31999541284404</v>
+      </c>
+      <c r="X36">
+        <v>64.985</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0.09357798165137615</v>
+      </c>
+      <c r="AA36">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>60.16</v>
+      </c>
+      <c r="AD36">
+        <v>43.69</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0.002110091743119266</v>
+      </c>
+      <c r="AG36">
+        <v>2</v>
+      </c>
+      <c r="AH36">
+        <v>64.70999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34">
       <c r="A37" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B37">
         <v>40.385735</v>
@@ -2458,7 +3214,7 @@
         <v>305.2083333333333</v>
       </c>
       <c r="L37" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="R37">
         <v>2.875</v>
@@ -2469,10 +3225,52 @@
       <c r="T37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="U37">
+        <v>95.75999999999999</v>
+      </c>
+      <c r="V37">
+        <v>264.3333333333333</v>
+      </c>
+      <c r="W37">
+        <v>81.44781084489281</v>
+      </c>
+      <c r="X37">
+        <v>72.23666666666666</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0.1008827238335435</v>
+      </c>
+      <c r="AA37">
+        <v>73.43333333333334</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>74.12</v>
+      </c>
+      <c r="AD37">
+        <v>61.41333333333333</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0.01987389659520807</v>
+      </c>
+      <c r="AG37">
+        <v>3</v>
+      </c>
+      <c r="AH37">
+        <v>83.06</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34">
       <c r="A38" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B38">
         <v>40.674947</v>
@@ -2505,7 +3303,7 @@
         <v>1029.0625</v>
       </c>
       <c r="L38" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="R38">
         <v>2.684065934065934</v>
@@ -2517,9 +3315,9 @@
         <v>2.45</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:34">
       <c r="A39" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B39">
         <v>40.272147</v>
@@ -2552,7 +3350,7 @@
         <v>389.4166666666667</v>
       </c>
       <c r="L39" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="R39">
         <v>2.875</v>
@@ -2564,9 +3362,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:34">
       <c r="A40" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B40">
         <v>40.225233</v>
@@ -2599,7 +3397,7 @@
         <v>232.2222222222222</v>
       </c>
       <c r="L40" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="R40">
         <v>2.435240963855422</v>
@@ -2610,10 +3408,52 @@
       <c r="T40">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="U40">
+        <v>95.97</v>
+      </c>
+      <c r="V40">
+        <v>198</v>
+      </c>
+      <c r="W40">
+        <v>79.65996464646466</v>
+      </c>
+      <c r="X40">
+        <v>74.20999999999999</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0.2828282828282828</v>
+      </c>
+      <c r="AA40">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>71.01000000000001</v>
+      </c>
+      <c r="AD40">
+        <v>51.47</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>0.0153030303030303</v>
+      </c>
+      <c r="AG40">
+        <v>1</v>
+      </c>
+      <c r="AH40">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34">
       <c r="A41" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B41">
         <v>40.625015</v>
@@ -2646,7 +3486,7 @@
         <v>944.2125984251968</v>
       </c>
       <c r="L41" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -2666,10 +3506,52 @@
       <c r="T41">
         <v>4.316666666666666</v>
       </c>
-    </row>
-    <row r="42" spans="1:20">
+      <c r="U41">
+        <v>95.218</v>
+      </c>
+      <c r="V41">
+        <v>1071.8</v>
+      </c>
+      <c r="W41">
+        <v>107.7284534987871</v>
+      </c>
+      <c r="X41">
+        <v>76.608</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0.00988990483299123</v>
+      </c>
+      <c r="AA41">
+        <v>78.52000000000001</v>
+      </c>
+      <c r="AB41">
+        <v>74.36</v>
+      </c>
+      <c r="AC41">
+        <v>79.65599999999999</v>
+      </c>
+      <c r="AD41">
+        <v>65.518</v>
+      </c>
+      <c r="AE41">
+        <v>15.5</v>
+      </c>
+      <c r="AF41">
+        <v>0.007314797536853891</v>
+      </c>
+      <c r="AG41">
+        <v>5</v>
+      </c>
+      <c r="AH41">
+        <v>73.595</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34">
       <c r="A42" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B42">
         <v>40.580328</v>
@@ -2702,7 +3584,7 @@
         <v>541.1891891891892</v>
       </c>
       <c r="L42" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="R42">
         <v>3.603668941979522</v>
@@ -2713,10 +3595,52 @@
       <c r="T42">
         <v>2.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:20">
+      <c r="U42">
+        <v>96.26000000000001</v>
+      </c>
+      <c r="V42">
+        <v>502.4285714285714</v>
+      </c>
+      <c r="W42">
+        <v>122.0982324302368</v>
+      </c>
+      <c r="X42">
+        <v>82.17142857142856</v>
+      </c>
+      <c r="Y42">
+        <v>0.095</v>
+      </c>
+      <c r="Z42">
+        <v>0.030992323002559</v>
+      </c>
+      <c r="AA42">
+        <v>84.05714285714285</v>
+      </c>
+      <c r="AB42">
+        <v>98.48999999999999</v>
+      </c>
+      <c r="AC42">
+        <v>87.97714285714285</v>
+      </c>
+      <c r="AD42">
+        <v>78.32714285714285</v>
+      </c>
+      <c r="AE42">
+        <v>19</v>
+      </c>
+      <c r="AF42">
+        <v>0.003451805516064828</v>
+      </c>
+      <c r="AG42">
+        <v>7</v>
+      </c>
+      <c r="AH42">
+        <v>87.35799999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34">
       <c r="A43" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="B43">
         <v>40.32135</v>
@@ -2740,16 +3664,16 @@
         <v>1.550847457627119</v>
       </c>
       <c r="I43">
-        <v>884.925</v>
+        <v>890.6416666666667</v>
       </c>
       <c r="J43">
-        <v>915.4047619047619</v>
+        <v>919.0697674418604</v>
       </c>
       <c r="K43">
-        <v>580.2786885245902</v>
+        <v>584.0273224043716</v>
       </c>
       <c r="L43" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -2763,10 +3687,52 @@
       <c r="T43">
         <v>3.383333333333333</v>
       </c>
-    </row>
-    <row r="44" spans="1:20">
+      <c r="U43">
+        <v>96.05999999999999</v>
+      </c>
+      <c r="V43">
+        <v>564.5714285714286</v>
+      </c>
+      <c r="W43">
+        <v>117.1080024098708</v>
+      </c>
+      <c r="X43">
+        <v>79.60857142857142</v>
+      </c>
+      <c r="Y43">
+        <v>0.13</v>
+      </c>
+      <c r="Z43">
+        <v>0.02555668016194332</v>
+      </c>
+      <c r="AA43">
+        <v>80.97142857142858</v>
+      </c>
+      <c r="AB43">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="AC43">
+        <v>83.46000000000001</v>
+      </c>
+      <c r="AD43">
+        <v>67.52285714285715</v>
+      </c>
+      <c r="AE43">
+        <v>19</v>
+      </c>
+      <c r="AF43">
+        <v>0.007327935222672066</v>
+      </c>
+      <c r="AG43">
+        <v>7</v>
+      </c>
+      <c r="AH43">
+        <v>85.62666666666668</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34">
       <c r="A44" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B44">
         <v>40.403883</v>
@@ -2799,7 +3765,7 @@
         <v>322.7272727272727</v>
       </c>
       <c r="L44" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="M44">
         <v>3</v>
@@ -2823,9 +3789,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:34">
       <c r="A45" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B45">
         <v>40.41012</v>
@@ -2858,7 +3824,7 @@
         <v>218.1683168316832</v>
       </c>
       <c r="L45" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="M45">
         <v>3</v>
@@ -2878,10 +3844,52 @@
       <c r="T45">
         <v>3.292857142857143</v>
       </c>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="U45">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="V45">
+        <v>515.5</v>
+      </c>
+      <c r="W45">
+        <v>85.04896023278368</v>
+      </c>
+      <c r="X45">
+        <v>66.2</v>
+      </c>
+      <c r="Y45">
+        <v>1.43</v>
+      </c>
+      <c r="Z45">
+        <v>0.1037827352085354</v>
+      </c>
+      <c r="AA45">
+        <v>67.34999999999999</v>
+      </c>
+      <c r="AB45">
+        <v>93.94</v>
+      </c>
+      <c r="AC45">
+        <v>63.59</v>
+      </c>
+      <c r="AD45">
+        <v>42.36</v>
+      </c>
+      <c r="AE45">
+        <v>5</v>
+      </c>
+      <c r="AF45">
+        <v>0.007167798254122212</v>
+      </c>
+      <c r="AG45">
+        <v>2</v>
+      </c>
+      <c r="AH45">
+        <v>69.16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34">
       <c r="A46" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B46">
         <v>40.500472</v>
@@ -2914,7 +3922,7 @@
         <v>580.4770114942529</v>
       </c>
       <c r="L46" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="R46">
         <v>2.891315519013361</v>
@@ -2925,10 +3933,52 @@
       <c r="T46">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="47" spans="1:20">
+      <c r="U46">
+        <v>95.37909090909092</v>
+      </c>
+      <c r="V46">
+        <v>485.0833333333333</v>
+      </c>
+      <c r="W46">
+        <v>100.0659484312286</v>
+      </c>
+      <c r="X46">
+        <v>78.43083333333334</v>
+      </c>
+      <c r="Y46">
+        <v>0.2275</v>
+      </c>
+      <c r="Z46">
+        <v>0.07782168012369009</v>
+      </c>
+      <c r="AA46">
+        <v>79.66666666666667</v>
+      </c>
+      <c r="AB46">
+        <v>90.80000000000001</v>
+      </c>
+      <c r="AC46">
+        <v>76.71416666666666</v>
+      </c>
+      <c r="AD46">
+        <v>65.2325</v>
+      </c>
+      <c r="AE46">
+        <v>5.5</v>
+      </c>
+      <c r="AF46">
+        <v>0.006036763442707439</v>
+      </c>
+      <c r="AG46">
+        <v>12</v>
+      </c>
+      <c r="AH46">
+        <v>80.33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34">
       <c r="A47" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B47">
         <v>40.373461</v>
@@ -2961,7 +4011,7 @@
         <v>330.2</v>
       </c>
       <c r="L47" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -2981,10 +4031,52 @@
       <c r="T47">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="48" spans="1:20">
+      <c r="U47">
+        <v>92</v>
+      </c>
+      <c r="V47">
+        <v>325</v>
+      </c>
+      <c r="W47">
+        <v>39.74276923076924</v>
+      </c>
+      <c r="X47">
+        <v>44.84</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0.2461538461538462</v>
+      </c>
+      <c r="AA47">
+        <v>44.9</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>16.78</v>
+      </c>
+      <c r="AD47">
+        <v>7.95</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>1</v>
+      </c>
+      <c r="AH47">
+        <v>32.08</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34">
       <c r="A48" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B48">
         <v>40.404484</v>
@@ -3017,7 +4109,7 @@
         <v>426.6363636363636</v>
       </c>
       <c r="L48" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="R48">
         <v>2.625</v>
@@ -3029,9 +4121,9 @@
         <v>2.2</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:34">
       <c r="A49" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B49">
         <v>40.526032</v>
@@ -3064,7 +4156,7 @@
         <v>528.2142857142857</v>
       </c>
       <c r="L49" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -3081,10 +4173,52 @@
       <c r="T49">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="50" spans="1:20">
+      <c r="U49">
+        <v>95.65333333333332</v>
+      </c>
+      <c r="V49">
+        <v>602.6666666666666</v>
+      </c>
+      <c r="W49">
+        <v>73.8939063421829</v>
+      </c>
+      <c r="X49">
+        <v>66.02000000000001</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0.06803097345132743</v>
+      </c>
+      <c r="AA49">
+        <v>66.76666666666667</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>71.55666666666667</v>
+      </c>
+      <c r="AD49">
+        <v>49.40333333333334</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0.01179203539823009</v>
+      </c>
+      <c r="AG49">
+        <v>3</v>
+      </c>
+      <c r="AH49">
+        <v>69.15000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34">
       <c r="A50" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B50">
         <v>40.395872</v>
@@ -3102,22 +4236,22 @@
         <v>27695.83</v>
       </c>
       <c r="G50">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H50">
-        <v>2.210526315789474</v>
+        <v>2.243243243243243</v>
       </c>
       <c r="I50">
-        <v>806.7045454545455</v>
+        <v>811.5116279069767</v>
       </c>
       <c r="J50">
-        <v>1211.739130434783</v>
+        <v>1228.181818181818</v>
       </c>
       <c r="K50">
-        <v>422.5595238095238</v>
+        <v>420.421686746988</v>
       </c>
       <c r="L50" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="M50">
         <v>5</v>
@@ -3143,10 +4277,52 @@
       <c r="T50">
         <v>2.516666666666667</v>
       </c>
-    </row>
-    <row r="51" spans="1:20">
+      <c r="U50">
+        <v>91.65599999999999</v>
+      </c>
+      <c r="V50">
+        <v>404.8</v>
+      </c>
+      <c r="W50">
+        <v>75.97235780632411</v>
+      </c>
+      <c r="X50">
+        <v>56.79199999999999</v>
+      </c>
+      <c r="Y50">
+        <v>0.59</v>
+      </c>
+      <c r="Z50">
+        <v>0.1734189723320158</v>
+      </c>
+      <c r="AA50">
+        <v>57.28000000000001</v>
+      </c>
+      <c r="AB50">
+        <v>85.83500000000001</v>
+      </c>
+      <c r="AC50">
+        <v>46.068</v>
+      </c>
+      <c r="AD50">
+        <v>34.15599999999999</v>
+      </c>
+      <c r="AE50">
+        <v>9</v>
+      </c>
+      <c r="AF50">
+        <v>0.00741600790513834</v>
+      </c>
+      <c r="AG50">
+        <v>5</v>
+      </c>
+      <c r="AH50">
+        <v>47.88000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34">
       <c r="A51" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B51">
         <v>40.361206</v>
@@ -3179,7 +4355,7 @@
         <v>382.7126436781609</v>
       </c>
       <c r="L51" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="M51">
         <v>2</v>
@@ -3199,10 +4375,52 @@
       <c r="T51">
         <v>2.575</v>
       </c>
-    </row>
-    <row r="52" spans="1:20">
+      <c r="U51">
+        <v>92.63800000000001</v>
+      </c>
+      <c r="V51">
+        <v>566.4</v>
+      </c>
+      <c r="W51">
+        <v>94.57665247175142</v>
+      </c>
+      <c r="X51">
+        <v>63.38199999999999</v>
+      </c>
+      <c r="Y51">
+        <v>0.595</v>
+      </c>
+      <c r="Z51">
+        <v>0.09569209039548023</v>
+      </c>
+      <c r="AA51">
+        <v>64.17999999999999</v>
+      </c>
+      <c r="AB51">
+        <v>95.04000000000001</v>
+      </c>
+      <c r="AC51">
+        <v>64.65799999999999</v>
+      </c>
+      <c r="AD51">
+        <v>57.318</v>
+      </c>
+      <c r="AE51">
+        <v>14</v>
+      </c>
+      <c r="AF51">
+        <v>0.003908898305084746</v>
+      </c>
+      <c r="AG51">
+        <v>5</v>
+      </c>
+      <c r="AH51">
+        <v>56.21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34">
       <c r="A52" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B52">
         <v>40.462479</v>
@@ -3220,22 +4438,22 @@
         <v>61794.44</v>
       </c>
       <c r="G52">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H52">
         <v>2</v>
       </c>
       <c r="I52">
-        <v>818.125</v>
+        <v>815.5555555555555</v>
       </c>
       <c r="J52">
-        <v>1025</v>
+        <v>1008</v>
       </c>
       <c r="K52">
-        <v>409.0625</v>
+        <v>407.7777777777778</v>
       </c>
       <c r="L52" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="R52">
         <v>2.625</v>
@@ -3246,10 +4464,52 @@
       <c r="T52">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="53" spans="1:20">
+      <c r="U52">
+        <v>94.45</v>
+      </c>
+      <c r="V52">
+        <v>798</v>
+      </c>
+      <c r="W52">
+        <v>113.1937568922306</v>
+      </c>
+      <c r="X52">
+        <v>75.82000000000001</v>
+      </c>
+      <c r="Y52">
+        <v>0.415</v>
+      </c>
+      <c r="Z52">
+        <v>0.03216374269005848</v>
+      </c>
+      <c r="AA52">
+        <v>77.33333333333333</v>
+      </c>
+      <c r="AB52">
+        <v>93.05</v>
+      </c>
+      <c r="AC52">
+        <v>78.61666666666666</v>
+      </c>
+      <c r="AD52">
+        <v>62.77</v>
+      </c>
+      <c r="AE52">
+        <v>20</v>
+      </c>
+      <c r="AF52">
+        <v>0.00189640768588137</v>
+      </c>
+      <c r="AG52">
+        <v>3</v>
+      </c>
+      <c r="AH52">
+        <v>78.91666666666667</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34">
       <c r="A53" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B53">
         <v>40.293248</v>
@@ -3282,7 +4542,7 @@
         <v>618.6555555555556</v>
       </c>
       <c r="L53" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="R53">
         <v>2.381993006993007</v>
@@ -3293,10 +4553,52 @@
       <c r="T53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:20">
+      <c r="U53">
+        <v>95.39666666666666</v>
+      </c>
+      <c r="V53">
+        <v>605.6666666666666</v>
+      </c>
+      <c r="W53">
+        <v>90.56655934690885</v>
+      </c>
+      <c r="X53">
+        <v>73.56666666666666</v>
+      </c>
+      <c r="Y53">
+        <v>0.235</v>
+      </c>
+      <c r="Z53">
+        <v>0.0379746835443038</v>
+      </c>
+      <c r="AA53">
+        <v>74.83333333333333</v>
+      </c>
+      <c r="AB53">
+        <v>93.70999999999999</v>
+      </c>
+      <c r="AC53">
+        <v>72.88333333333334</v>
+      </c>
+      <c r="AD53">
+        <v>64.51333333333334</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>0.004876169510181618</v>
+      </c>
+      <c r="AG53">
+        <v>3</v>
+      </c>
+      <c r="AH53">
+        <v>70.67333333333333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34">
       <c r="A54" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B54">
         <v>40.338791</v>
@@ -3329,7 +4631,7 @@
         <v>330.6630434782609</v>
       </c>
       <c r="L54" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="R54">
         <v>2.341981132075472</v>
@@ -3340,10 +4642,52 @@
       <c r="T54">
         <v>2.15</v>
       </c>
-    </row>
-    <row r="55" spans="1:20">
+      <c r="U54">
+        <v>91.15000000000001</v>
+      </c>
+      <c r="V54">
+        <v>357</v>
+      </c>
+      <c r="W54">
+        <v>52.87110924369748</v>
+      </c>
+      <c r="X54">
+        <v>50.84</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0.1694677871148459</v>
+      </c>
+      <c r="AA54">
+        <v>51.05</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>39.895</v>
+      </c>
+      <c r="AD54">
+        <v>31.045</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <v>0.01002801120448179</v>
+      </c>
+      <c r="AG54">
+        <v>2</v>
+      </c>
+      <c r="AH54">
+        <v>41.18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34">
       <c r="A55" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B55">
         <v>40.339767</v>
@@ -3376,7 +4720,7 @@
         <v>376.7414965986395</v>
       </c>
       <c r="L55" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="M55">
         <v>3</v>
@@ -3396,10 +4740,52 @@
       <c r="T55">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="56" spans="1:20">
+      <c r="U55">
+        <v>91.02333333333333</v>
+      </c>
+      <c r="V55">
+        <v>533.8333333333334</v>
+      </c>
+      <c r="W55">
+        <v>72.84449819960453</v>
+      </c>
+      <c r="X55">
+        <v>56.19333333333334</v>
+      </c>
+      <c r="Y55">
+        <v>0.9833333333333334</v>
+      </c>
+      <c r="Z55">
+        <v>0.1364345925694661</v>
+      </c>
+      <c r="AA55">
+        <v>56.53333333333333</v>
+      </c>
+      <c r="AB55">
+        <v>87.55</v>
+      </c>
+      <c r="AC55">
+        <v>40.26666666666666</v>
+      </c>
+      <c r="AD55">
+        <v>26.41</v>
+      </c>
+      <c r="AE55">
+        <v>9</v>
+      </c>
+      <c r="AF55">
+        <v>0.003184514517639713</v>
+      </c>
+      <c r="AG55">
+        <v>6</v>
+      </c>
+      <c r="AH55">
+        <v>46.76799999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34">
       <c r="A56" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B56">
         <v>40.326747</v>
@@ -3429,7 +4815,7 @@
         <v>240</v>
       </c>
       <c r="L56" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="R56">
         <v>2.75</v>
@@ -3440,10 +4826,52 @@
       <c r="T56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:20">
+      <c r="U56">
+        <v>94.38666666666666</v>
+      </c>
+      <c r="V56">
+        <v>495.3333333333333</v>
+      </c>
+      <c r="W56">
+        <v>85.43456325706595</v>
+      </c>
+      <c r="X56">
+        <v>64.98</v>
+      </c>
+      <c r="Y56">
+        <v>0.58</v>
+      </c>
+      <c r="Z56">
+        <v>0.1022880215343203</v>
+      </c>
+      <c r="AA56">
+        <v>65.8</v>
+      </c>
+      <c r="AB56">
+        <v>92.06</v>
+      </c>
+      <c r="AC56">
+        <v>64.30666666666667</v>
+      </c>
+      <c r="AD56">
+        <v>39.53</v>
+      </c>
+      <c r="AE56">
+        <v>7</v>
+      </c>
+      <c r="AF56">
+        <v>0.005208613728129206</v>
+      </c>
+      <c r="AG56">
+        <v>3</v>
+      </c>
+      <c r="AH56">
+        <v>64.22499999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34">
       <c r="A57" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B57">
         <v>40.310836</v>
@@ -3476,7 +4904,7 @@
         <v>479.1304347826087</v>
       </c>
       <c r="L57" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="R57">
         <v>2.329545454545455</v>
@@ -3487,10 +4915,52 @@
       <c r="T57">
         <v>2.2</v>
       </c>
-    </row>
-    <row r="58" spans="1:20">
+      <c r="U57">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="V57">
+        <v>199.5</v>
+      </c>
+      <c r="W57">
+        <v>82.63601503759399</v>
+      </c>
+      <c r="X57">
+        <v>76.27</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0.2255639097744361</v>
+      </c>
+      <c r="AA57">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <v>72.03999999999999</v>
+      </c>
+      <c r="AD57">
+        <v>63.66</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AF57">
+        <v>0.001278195488721805</v>
+      </c>
+      <c r="AG57">
+        <v>2</v>
+      </c>
+      <c r="AH57">
+        <v>76.67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34">
       <c r="A58" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B58">
         <v>40.46348</v>
@@ -3523,7 +4993,7 @@
         <v>438.1547619047619</v>
       </c>
       <c r="L58" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="M58">
         <v>12</v>
@@ -3549,10 +5019,52 @@
       <c r="T58">
         <v>1.933333333333333</v>
       </c>
-    </row>
-    <row r="59" spans="1:20">
+      <c r="U58">
+        <v>92.38500000000001</v>
+      </c>
+      <c r="V58">
+        <v>530.8</v>
+      </c>
+      <c r="W58">
+        <v>71.66149837980409</v>
+      </c>
+      <c r="X58">
+        <v>53.01000000000001</v>
+      </c>
+      <c r="Y58">
+        <v>2.385</v>
+      </c>
+      <c r="Z58">
+        <v>0.1088922381311228</v>
+      </c>
+      <c r="AA58">
+        <v>53.73999999999999</v>
+      </c>
+      <c r="AB58">
+        <v>92.14500000000001</v>
+      </c>
+      <c r="AC58">
+        <v>46.044</v>
+      </c>
+      <c r="AD58">
+        <v>36</v>
+      </c>
+      <c r="AE58">
+        <v>5.5</v>
+      </c>
+      <c r="AF58">
+        <v>0.00226827430293896</v>
+      </c>
+      <c r="AG58">
+        <v>5</v>
+      </c>
+      <c r="AH58">
+        <v>50.7425</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34">
       <c r="A59" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B59">
         <v>40.375736</v>
@@ -3585,7 +5097,7 @@
         <v>371.7105263157895</v>
       </c>
       <c r="L59" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="M59">
         <v>1</v>
@@ -3605,10 +5117,52 @@
       <c r="T59">
         <v>1.933333333333333</v>
       </c>
-    </row>
-    <row r="60" spans="1:20">
+      <c r="U59">
+        <v>91.66500000000001</v>
+      </c>
+      <c r="V59">
+        <v>836.5</v>
+      </c>
+      <c r="W59">
+        <v>71.07152958756724</v>
+      </c>
+      <c r="X59">
+        <v>58.845</v>
+      </c>
+      <c r="Y59">
+        <v>1.54</v>
+      </c>
+      <c r="Z59">
+        <v>0.06276150627615062</v>
+      </c>
+      <c r="AA59">
+        <v>59.35</v>
+      </c>
+      <c r="AB59">
+        <v>88.33</v>
+      </c>
+      <c r="AC59">
+        <v>45.01000000000001</v>
+      </c>
+      <c r="AD59">
+        <v>26.045</v>
+      </c>
+      <c r="AE59">
+        <v>5</v>
+      </c>
+      <c r="AF59">
+        <v>0.0008188882247459654</v>
+      </c>
+      <c r="AG59">
+        <v>2</v>
+      </c>
+      <c r="AH59">
+        <v>46.075</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34">
       <c r="A60" s="1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B60">
         <v>40.522823</v>
@@ -3641,7 +5195,7 @@
         <v>574.2068965517242</v>
       </c>
       <c r="L60" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="R60">
         <v>2.705579501915709</v>
@@ -3652,10 +5206,52 @@
       <c r="T60">
         <v>2.65</v>
       </c>
-    </row>
-    <row r="61" spans="1:20">
+      <c r="U60">
+        <v>95.03999999999999</v>
+      </c>
+      <c r="V60">
+        <v>379</v>
+      </c>
+      <c r="W60">
+        <v>106.2821715039578</v>
+      </c>
+      <c r="X60">
+        <v>70.325</v>
+      </c>
+      <c r="Y60">
+        <v>0.22</v>
+      </c>
+      <c r="Z60">
+        <v>0.1029023746701847</v>
+      </c>
+      <c r="AA60">
+        <v>72.5</v>
+      </c>
+      <c r="AB60">
+        <v>82.67</v>
+      </c>
+      <c r="AC60">
+        <v>80.965</v>
+      </c>
+      <c r="AD60">
+        <v>64.205</v>
+      </c>
+      <c r="AE60">
+        <v>16</v>
+      </c>
+      <c r="AF60">
+        <v>0.01251978891820581</v>
+      </c>
+      <c r="AG60">
+        <v>2</v>
+      </c>
+      <c r="AH60">
+        <v>77.255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34">
       <c r="A61" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B61">
         <v>40.407779</v>
@@ -3688,7 +5284,7 @@
         <v>390.5238095238095</v>
       </c>
       <c r="L61" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -3699,10 +5295,52 @@
       <c r="T61">
         <v>2.2</v>
       </c>
-    </row>
-    <row r="62" spans="1:20">
+      <c r="U61">
+        <v>97.09</v>
+      </c>
+      <c r="V61">
+        <v>338</v>
+      </c>
+      <c r="W61">
+        <v>57.32425443786983</v>
+      </c>
+      <c r="X61">
+        <v>61.24</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0.2337278106508876</v>
+      </c>
+      <c r="AA61">
+        <v>61.6</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <v>41.46</v>
+      </c>
+      <c r="AD61">
+        <v>21.67</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
+      </c>
+      <c r="AF61">
+        <v>0</v>
+      </c>
+      <c r="AG61">
+        <v>1</v>
+      </c>
+      <c r="AH61">
+        <v>43.08</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34">
       <c r="A62" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B62">
         <v>40.382059</v>
@@ -3735,7 +5373,7 @@
         <v>1333.333333333333</v>
       </c>
       <c r="L62" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="R62">
         <v>0</v>
@@ -3747,9 +5385,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:34">
       <c r="A63" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B63">
         <v>40.565935</v>
@@ -3782,7 +5420,7 @@
         <v>726.6981132075472</v>
       </c>
       <c r="L63" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -3799,10 +5437,52 @@
       <c r="T63">
         <v>2.683333333333334</v>
       </c>
-    </row>
-    <row r="64" spans="1:20">
+      <c r="U63">
+        <v>96.5275</v>
+      </c>
+      <c r="V63">
+        <v>403.25</v>
+      </c>
+      <c r="W63">
+        <v>88.86287631742097</v>
+      </c>
+      <c r="X63">
+        <v>77.3125</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0.03533787972721637</v>
+      </c>
+      <c r="AA63">
+        <v>79.05</v>
+      </c>
+      <c r="AB63">
+        <v>0</v>
+      </c>
+      <c r="AC63">
+        <v>85.19000000000001</v>
+      </c>
+      <c r="AD63">
+        <v>71.845</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
+      </c>
+      <c r="AF63">
+        <v>0.004438933663980162</v>
+      </c>
+      <c r="AG63">
+        <v>4</v>
+      </c>
+      <c r="AH63">
+        <v>86.32250000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34">
       <c r="A64" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B64">
         <v>40.548049</v>
@@ -3835,7 +5515,7 @@
         <v>492</v>
       </c>
       <c r="L64" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="M64">
         <v>1</v>
@@ -3852,10 +5532,52 @@
       <c r="T64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:20">
+      <c r="U64">
+        <v>93.78999999999999</v>
+      </c>
+      <c r="V64">
+        <v>329.5</v>
+      </c>
+      <c r="W64">
+        <v>87.11061456752657</v>
+      </c>
+      <c r="X64">
+        <v>63.305</v>
+      </c>
+      <c r="Y64">
+        <v>0.22</v>
+      </c>
+      <c r="Z64">
+        <v>0.1547799696509863</v>
+      </c>
+      <c r="AA64">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="AB64">
+        <v>94.37</v>
+      </c>
+      <c r="AC64">
+        <v>66.23999999999999</v>
+      </c>
+      <c r="AD64">
+        <v>38</v>
+      </c>
+      <c r="AE64">
+        <v>8</v>
+      </c>
+      <c r="AF64">
+        <v>0.01570561456752655</v>
+      </c>
+      <c r="AG64">
+        <v>2</v>
+      </c>
+      <c r="AH64">
+        <v>74.78999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34">
       <c r="A65" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B65">
         <v>40.41528</v>
@@ -3888,7 +5610,7 @@
         <v>498.4090909090909</v>
       </c>
       <c r="L65" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="P65">
         <v>2</v>
@@ -3902,10 +5624,52 @@
       <c r="T65">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="66" spans="1:20">
+      <c r="U65">
+        <v>96.41499999999999</v>
+      </c>
+      <c r="V65">
+        <v>444</v>
+      </c>
+      <c r="W65">
+        <v>66.19821734234236</v>
+      </c>
+      <c r="X65">
+        <v>61.88</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0.1137387387387387</v>
+      </c>
+      <c r="AA65">
+        <v>62.45</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <v>56.105</v>
+      </c>
+      <c r="AD65">
+        <v>39.445</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
+      </c>
+      <c r="AF65">
+        <v>0.0146509009009009</v>
+      </c>
+      <c r="AG65">
+        <v>2</v>
+      </c>
+      <c r="AH65">
+        <v>63.57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34">
       <c r="A66" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B66">
         <v>40.426328</v>
@@ -3938,7 +5702,7 @@
         <v>570.555023923445</v>
       </c>
       <c r="L66" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="M66">
         <v>5</v>
@@ -3958,10 +5722,52 @@
       <c r="T66">
         <v>4.275</v>
       </c>
-    </row>
-    <row r="67" spans="1:20">
+      <c r="U66">
+        <v>93.74499999999999</v>
+      </c>
+      <c r="V66">
+        <v>420.75</v>
+      </c>
+      <c r="W66">
+        <v>106.6557238349885</v>
+      </c>
+      <c r="X66">
+        <v>75.32375</v>
+      </c>
+      <c r="Y66">
+        <v>1.47</v>
+      </c>
+      <c r="Z66">
+        <v>0.1203208556149733</v>
+      </c>
+      <c r="AA66">
+        <v>76.35000000000001</v>
+      </c>
+      <c r="AB66">
+        <v>93.92</v>
+      </c>
+      <c r="AC66">
+        <v>67.13875</v>
+      </c>
+      <c r="AD66">
+        <v>57.3675</v>
+      </c>
+      <c r="AE66">
+        <v>18</v>
+      </c>
+      <c r="AF66">
+        <v>0.007165775401069518</v>
+      </c>
+      <c r="AG66">
+        <v>8</v>
+      </c>
+      <c r="AH66">
+        <v>73.35571428571428</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34">
       <c r="A67" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B67">
         <v>40.497284</v>
@@ -3994,7 +5800,7 @@
         <v>428.4883720930233</v>
       </c>
       <c r="L67" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="M67">
         <v>2</v>
@@ -4017,10 +5823,52 @@
       <c r="T67">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="68" spans="1:20">
+      <c r="U67">
+        <v>95.20999999999999</v>
+      </c>
+      <c r="V67">
+        <v>188</v>
+      </c>
+      <c r="W67">
+        <v>77.46915957446808</v>
+      </c>
+      <c r="X67">
+        <v>67.56</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0.3670212765957447</v>
+      </c>
+      <c r="AA67">
+        <v>68.3</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <v>73</v>
+      </c>
+      <c r="AD67">
+        <v>60</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
+      </c>
+      <c r="AF67">
+        <v>0.005638297872340426</v>
+      </c>
+      <c r="AG67">
+        <v>1</v>
+      </c>
+      <c r="AH67">
+        <v>74.19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34">
       <c r="A68" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B68">
         <v>40.393451</v>
@@ -4053,7 +5901,7 @@
         <v>424.3181818181818</v>
       </c>
       <c r="L68" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="R68">
         <v>2.664473684210526</v>
@@ -4065,9 +5913,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:34">
       <c r="A69" s="1" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B69">
         <v>40.47441</v>
@@ -4100,7 +5948,7 @@
         <v>747.7106598984772</v>
       </c>
       <c r="L69" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="M69">
         <v>108</v>
@@ -4126,10 +5974,52 @@
       <c r="T69">
         <v>3.435714285714285</v>
       </c>
-    </row>
-    <row r="70" spans="1:20">
+      <c r="U69">
+        <v>94.28333333333335</v>
+      </c>
+      <c r="V69">
+        <v>241.3333333333333</v>
+      </c>
+      <c r="W69">
+        <v>53.6601187845304</v>
+      </c>
+      <c r="X69">
+        <v>56.66</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0.3411602209944751</v>
+      </c>
+      <c r="AA69">
+        <v>56.86666666666667</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <v>38.02</v>
+      </c>
+      <c r="AD69">
+        <v>22.65333333333334</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
+      </c>
+      <c r="AF69">
+        <v>0.00350828729281768</v>
+      </c>
+      <c r="AG69">
+        <v>3</v>
+      </c>
+      <c r="AH69">
+        <v>37.73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34">
       <c r="A70" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B70">
         <v>40.504968</v>
@@ -4162,7 +6052,7 @@
         <v>483.9319371727749</v>
       </c>
       <c r="L70" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="M70">
         <v>2</v>
@@ -4182,10 +6072,52 @@
       <c r="T70">
         <v>2.275</v>
       </c>
-    </row>
-    <row r="71" spans="1:20">
+      <c r="U70">
+        <v>93.31333333333335</v>
+      </c>
+      <c r="V70">
+        <v>383.6666666666667</v>
+      </c>
+      <c r="W70">
+        <v>83.67528323197219</v>
+      </c>
+      <c r="X70">
+        <v>62.46</v>
+      </c>
+      <c r="Y70">
+        <v>2.86</v>
+      </c>
+      <c r="Z70">
+        <v>0.1442224152910513</v>
+      </c>
+      <c r="AA70">
+        <v>63.36666666666667</v>
+      </c>
+      <c r="AB70">
+        <v>87.06</v>
+      </c>
+      <c r="AC70">
+        <v>59.96</v>
+      </c>
+      <c r="AD70">
+        <v>37.56333333333333</v>
+      </c>
+      <c r="AE70">
+        <v>9</v>
+      </c>
+      <c r="AF70">
+        <v>0.01127715030408341</v>
+      </c>
+      <c r="AG70">
+        <v>3</v>
+      </c>
+      <c r="AH70">
+        <v>62.31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34">
       <c r="A71" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B71">
         <v>40.426207</v>
@@ -4218,7 +6150,7 @@
         <v>780.4756097560976</v>
       </c>
       <c r="L71" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="M71">
         <v>290</v>
@@ -4244,10 +6176,52 @@
       <c r="T71">
         <v>2.741666666666667</v>
       </c>
-    </row>
-    <row r="72" spans="1:20">
+      <c r="U71">
+        <v>95.2</v>
+      </c>
+      <c r="V71">
+        <v>272</v>
+      </c>
+      <c r="W71">
+        <v>60.2646286764706</v>
+      </c>
+      <c r="X71">
+        <v>53.54</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0.2279411764705882</v>
+      </c>
+      <c r="AA71">
+        <v>54</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <v>54.2</v>
+      </c>
+      <c r="AD71">
+        <v>38.46</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
+        <v>0.01216911764705882</v>
+      </c>
+      <c r="AG71">
+        <v>1</v>
+      </c>
+      <c r="AH71">
+        <v>53.49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34">
       <c r="A72" s="1" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B72">
         <v>40.456867</v>
@@ -4280,7 +6254,7 @@
         <v>355.1944444444445</v>
       </c>
       <c r="L72" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="M72">
         <v>134</v>
@@ -4306,10 +6280,52 @@
       <c r="T72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:20">
+      <c r="U72">
+        <v>91.56</v>
+      </c>
+      <c r="V72">
+        <v>654</v>
+      </c>
+      <c r="W72">
+        <v>40.71779357798165</v>
+      </c>
+      <c r="X72">
+        <v>43.96</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0.1314984709480122</v>
+      </c>
+      <c r="AA72">
+        <v>44.1</v>
+      </c>
+      <c r="AB72">
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <v>24.67</v>
+      </c>
+      <c r="AD72">
+        <v>10.76</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>0.0009327217125382263</v>
+      </c>
+      <c r="AG72">
+        <v>1</v>
+      </c>
+      <c r="AH72">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34">
       <c r="A73" s="1" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B73">
         <v>40.438093</v>
@@ -4342,7 +6358,7 @@
         <v>733.5825688073395</v>
       </c>
       <c r="L73" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="M73">
         <v>80</v>
@@ -4368,10 +6384,52 @@
       <c r="T73">
         <v>3.185714285714286</v>
       </c>
-    </row>
-    <row r="74" spans="1:20">
+      <c r="U73">
+        <v>94.90666666666668</v>
+      </c>
+      <c r="V73">
+        <v>330.3333333333333</v>
+      </c>
+      <c r="W73">
+        <v>65.1545361587622</v>
+      </c>
+      <c r="X73">
+        <v>60.80666666666666</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0.1856710393541877</v>
+      </c>
+      <c r="AA73">
+        <v>61.43333333333334</v>
+      </c>
+      <c r="AB73">
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <v>56.85333333333333</v>
+      </c>
+      <c r="AD73">
+        <v>36.78333333333334</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+      <c r="AF73">
+        <v>0.003370332996972755</v>
+      </c>
+      <c r="AG73">
+        <v>3</v>
+      </c>
+      <c r="AH73">
+        <v>63.81999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34">
       <c r="A74" s="1" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B74">
         <v>40.472272</v>
@@ -4392,19 +6450,19 @@
         <v>120</v>
       </c>
       <c r="H74">
-        <v>1.805309734513274</v>
+        <v>1.79646017699115</v>
       </c>
       <c r="I74">
-        <v>1137.46218487395</v>
+        <v>1138.294117647059</v>
       </c>
       <c r="J74">
         <v>1036.95652173913</v>
       </c>
       <c r="K74">
-        <v>663.5196078431372</v>
+        <v>667.2758620689655</v>
       </c>
       <c r="L74" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="M74">
         <v>333</v>
@@ -4430,10 +6488,52 @@
       <c r="T74">
         <v>4.311538461538461</v>
       </c>
-    </row>
-    <row r="75" spans="1:20">
+      <c r="U74">
+        <v>94.06499999999998</v>
+      </c>
+      <c r="V74">
+        <v>418.1666666666667</v>
+      </c>
+      <c r="W74">
+        <v>74.70161286036935</v>
+      </c>
+      <c r="X74">
+        <v>63.65333333333334</v>
+      </c>
+      <c r="Y74">
+        <v>0.13</v>
+      </c>
+      <c r="Z74">
+        <v>0.1430848943802312</v>
+      </c>
+      <c r="AA74">
+        <v>64.24999999999999</v>
+      </c>
+      <c r="AB74">
+        <v>90.34999999999999</v>
+      </c>
+      <c r="AC74">
+        <v>55.80166666666667</v>
+      </c>
+      <c r="AD74">
+        <v>36.33333333333334</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AF74">
+        <v>0.005631725787166201</v>
+      </c>
+      <c r="AG74">
+        <v>6</v>
+      </c>
+      <c r="AH74">
+        <v>58.815</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34">
       <c r="A75" s="1" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B75">
         <v>40.403792</v>
@@ -4466,7 +6566,7 @@
         <v>466.5145631067961</v>
       </c>
       <c r="L75" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="M75">
         <v>176</v>
@@ -4492,10 +6592,52 @@
       <c r="T75">
         <v>2.275</v>
       </c>
-    </row>
-    <row r="76" spans="1:20">
+      <c r="U75">
+        <v>93.935</v>
+      </c>
+      <c r="V75">
+        <v>324</v>
+      </c>
+      <c r="W75">
+        <v>66.21446141975309</v>
+      </c>
+      <c r="X75">
+        <v>65.485</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0.1682098765432099</v>
+      </c>
+      <c r="AA75">
+        <v>66.15000000000001</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <v>54.125</v>
+      </c>
+      <c r="AD75">
+        <v>37.72</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>0.006033950617283951</v>
+      </c>
+      <c r="AG75">
+        <v>2</v>
+      </c>
+      <c r="AH75">
+        <v>55.42999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34">
       <c r="A76" s="1" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B76">
         <v>40.453191</v>
@@ -4528,7 +6670,7 @@
         <v>555.5418326693227</v>
       </c>
       <c r="L76" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="M76">
         <v>177</v>
@@ -4554,10 +6696,52 @@
       <c r="T76">
         <v>2.65</v>
       </c>
-    </row>
-    <row r="77" spans="1:20">
+      <c r="U76">
+        <v>92.336</v>
+      </c>
+      <c r="V76">
+        <v>458.4</v>
+      </c>
+      <c r="W76">
+        <v>57.7485512216405</v>
+      </c>
+      <c r="X76">
+        <v>50.892</v>
+      </c>
+      <c r="Y76">
+        <v>0.57</v>
+      </c>
+      <c r="Z76">
+        <v>0.1596858638743456</v>
+      </c>
+      <c r="AA76">
+        <v>51.1</v>
+      </c>
+      <c r="AB76">
+        <v>76.70999999999999</v>
+      </c>
+      <c r="AC76">
+        <v>32.134</v>
+      </c>
+      <c r="AD76">
+        <v>14.898</v>
+      </c>
+      <c r="AE76">
+        <v>3</v>
+      </c>
+      <c r="AF76">
+        <v>0.002883944153577662</v>
+      </c>
+      <c r="AG76">
+        <v>5</v>
+      </c>
+      <c r="AH76">
+        <v>30.748</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34">
       <c r="A77" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B77">
         <v>40.498847</v>
@@ -4590,7 +6774,7 @@
         <v>508.8258706467662</v>
       </c>
       <c r="L77" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="P77">
         <v>2</v>
@@ -4607,10 +6791,52 @@
       <c r="T77">
         <v>2.275</v>
       </c>
-    </row>
-    <row r="78" spans="1:20">
+      <c r="U77">
+        <v>95.27500000000001</v>
+      </c>
+      <c r="V77">
+        <v>900.5</v>
+      </c>
+      <c r="W77">
+        <v>105.6135072182121</v>
+      </c>
+      <c r="X77">
+        <v>73.535</v>
+      </c>
+      <c r="Y77">
+        <v>0.87</v>
+      </c>
+      <c r="Z77">
+        <v>0.04775124930594114</v>
+      </c>
+      <c r="AA77">
+        <v>74.8</v>
+      </c>
+      <c r="AB77">
+        <v>96.39</v>
+      </c>
+      <c r="AC77">
+        <v>75.685</v>
+      </c>
+      <c r="AD77">
+        <v>72.985</v>
+      </c>
+      <c r="AE77">
+        <v>13</v>
+      </c>
+      <c r="AF77">
+        <v>0.005574680732926152</v>
+      </c>
+      <c r="AG77">
+        <v>2</v>
+      </c>
+      <c r="AH77">
+        <v>67.48999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34">
       <c r="A78" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B78">
         <v>40.406951</v>
@@ -4643,7 +6869,7 @@
         <v>409.0097087378641</v>
       </c>
       <c r="L78" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="M78">
         <v>534</v>
@@ -4669,10 +6895,52 @@
       <c r="T78">
         <v>2.525</v>
       </c>
-    </row>
-    <row r="79" spans="1:20">
+      <c r="U78">
+        <v>91.506</v>
+      </c>
+      <c r="V78">
+        <v>456.6</v>
+      </c>
+      <c r="W78">
+        <v>74.67489732807709</v>
+      </c>
+      <c r="X78">
+        <v>56.162</v>
+      </c>
+      <c r="Y78">
+        <v>0.71</v>
+      </c>
+      <c r="Z78">
+        <v>0.1681997371879106</v>
+      </c>
+      <c r="AA78">
+        <v>56.67999999999999</v>
+      </c>
+      <c r="AB78">
+        <v>85.56999999999999</v>
+      </c>
+      <c r="AC78">
+        <v>43.594</v>
+      </c>
+      <c r="AD78">
+        <v>29.222</v>
+      </c>
+      <c r="AE78">
+        <v>10</v>
+      </c>
+      <c r="AF78">
+        <v>0.00337275514673675</v>
+      </c>
+      <c r="AG78">
+        <v>5</v>
+      </c>
+      <c r="AH78">
+        <v>43.43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34">
       <c r="A79" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B79">
         <v>40.430322</v>
@@ -4705,7 +6973,7 @@
         <v>509.1902654867257</v>
       </c>
       <c r="L79" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="M79">
         <v>139</v>
@@ -4731,10 +6999,52 @@
       <c r="T79">
         <v>1.15</v>
       </c>
-    </row>
-    <row r="80" spans="1:20">
+      <c r="U79">
+        <v>92.38</v>
+      </c>
+      <c r="V79">
+        <v>218</v>
+      </c>
+      <c r="W79">
+        <v>65.29825229357799</v>
+      </c>
+      <c r="X79">
+        <v>57.84</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0.3211009174311927</v>
+      </c>
+      <c r="AA79">
+        <v>58.4</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+      <c r="AC79">
+        <v>56.47</v>
+      </c>
+      <c r="AD79">
+        <v>47.67</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
+      </c>
+      <c r="AF79">
+        <v>0.01472477064220183</v>
+      </c>
+      <c r="AG79">
+        <v>1</v>
+      </c>
+      <c r="AH79">
+        <v>62.07</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34">
       <c r="A80" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B80">
         <v>40.456939</v>
@@ -4767,7 +7077,7 @@
         <v>554.578947368421</v>
       </c>
       <c r="L80" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="M80">
         <v>636</v>
@@ -4793,10 +7103,52 @@
       <c r="T80">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="81" spans="1:20">
+      <c r="U80">
+        <v>92.745</v>
+      </c>
+      <c r="V80">
+        <v>312.8888888888889</v>
+      </c>
+      <c r="W80">
+        <v>54.6842653488005</v>
+      </c>
+      <c r="X80">
+        <v>57.17555555555555</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0.2215909090909091</v>
+      </c>
+      <c r="AA80">
+        <v>57.46666666666667</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <v>39.02777777777778</v>
+      </c>
+      <c r="AD80">
+        <v>27.39555555555556</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>0.003057528409090909</v>
+      </c>
+      <c r="AG80">
+        <v>9</v>
+      </c>
+      <c r="AH80">
+        <v>34.94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:34">
       <c r="A81" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B81">
         <v>40.444042</v>
@@ -4829,7 +7181,7 @@
         <v>708.4842105263158</v>
       </c>
       <c r="L81" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="M81">
         <v>105</v>
@@ -4855,10 +7207,52 @@
       <c r="T81">
         <v>4.040909090909091</v>
       </c>
-    </row>
-    <row r="82" spans="1:20">
+      <c r="U81">
+        <v>96.94499999999999</v>
+      </c>
+      <c r="V81">
+        <v>327</v>
+      </c>
+      <c r="W81">
+        <v>78.34846941896025</v>
+      </c>
+      <c r="X81">
+        <v>60.765</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0.1483180428134556</v>
+      </c>
+      <c r="AA81">
+        <v>62.05</v>
+      </c>
+      <c r="AB81">
+        <v>81.34999999999999</v>
+      </c>
+      <c r="AC81">
+        <v>59.325</v>
+      </c>
+      <c r="AD81">
+        <v>36.575</v>
+      </c>
+      <c r="AE81">
+        <v>4.5</v>
+      </c>
+      <c r="AF81">
+        <v>0.0213302752293578</v>
+      </c>
+      <c r="AG81">
+        <v>2</v>
+      </c>
+      <c r="AH81">
+        <v>60.985</v>
+      </c>
+    </row>
+    <row r="82" spans="1:34">
       <c r="A82" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B82">
         <v>40.486557</v>
@@ -4891,7 +7285,7 @@
         <v>430.7081339712919</v>
       </c>
       <c r="L82" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="M82">
         <v>251</v>
@@ -4917,10 +7311,52 @@
       <c r="T82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:20">
+      <c r="U82">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="V82">
+        <v>433</v>
+      </c>
+      <c r="W82">
+        <v>59.79319630484987</v>
+      </c>
+      <c r="X82">
+        <v>45.59</v>
+      </c>
+      <c r="Y82">
+        <v>3.18</v>
+      </c>
+      <c r="Z82">
+        <v>0.1916859122401847</v>
+      </c>
+      <c r="AA82">
+        <v>45.6</v>
+      </c>
+      <c r="AB82">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="AC82">
+        <v>44.16</v>
+      </c>
+      <c r="AD82">
+        <v>28.95</v>
+      </c>
+      <c r="AE82">
+        <v>4</v>
+      </c>
+      <c r="AF82">
+        <v>0.00533487297921478</v>
+      </c>
+      <c r="AG82">
+        <v>1</v>
+      </c>
+      <c r="AH82">
+        <v>21.05</v>
+      </c>
+    </row>
+    <row r="83" spans="1:34">
       <c r="A83" s="1" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B83">
         <v>40.501295</v>
@@ -4953,7 +7389,7 @@
         <v>522.4454545454546</v>
       </c>
       <c r="L83" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="M83">
         <v>1</v>
@@ -4973,10 +7409,52 @@
       <c r="T83">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="84" spans="1:20">
+      <c r="U83">
+        <v>94.97</v>
+      </c>
+      <c r="V83">
+        <v>387</v>
+      </c>
+      <c r="W83">
+        <v>91.1869276485788</v>
+      </c>
+      <c r="X83">
+        <v>83.97</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0.1136950904392765</v>
+      </c>
+      <c r="AA83">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+      <c r="AC83">
+        <v>79.8</v>
+      </c>
+      <c r="AD83">
+        <v>68.97</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83">
+        <v>0.006666666666666667</v>
+      </c>
+      <c r="AG83">
+        <v>1</v>
+      </c>
+      <c r="AH83">
+        <v>93.94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:34">
       <c r="A84" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B84">
         <v>40.402626</v>
@@ -4997,19 +7475,19 @@
         <v>120</v>
       </c>
       <c r="H84">
-        <v>1.822429906542056</v>
+        <v>1.803738317757009</v>
       </c>
       <c r="I84">
-        <v>914.0336134453781</v>
+        <v>918.109243697479</v>
       </c>
       <c r="J84">
-        <v>1157.2</v>
+        <v>1163.193548387097</v>
       </c>
       <c r="K84">
-        <v>557.7948717948718</v>
+        <v>566.0880829015545</v>
       </c>
       <c r="L84" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="M84">
         <v>117</v>
@@ -5035,10 +7513,52 @@
       <c r="T84">
         <v>3.56875</v>
       </c>
-    </row>
-    <row r="85" spans="1:20">
+      <c r="U84">
+        <v>93.22749999999999</v>
+      </c>
+      <c r="V84">
+        <v>517.625</v>
+      </c>
+      <c r="W84">
+        <v>94.82155095387589</v>
+      </c>
+      <c r="X84">
+        <v>67.90124999999999</v>
+      </c>
+      <c r="Y84">
+        <v>1.105</v>
+      </c>
+      <c r="Z84">
+        <v>0.0924897367785559</v>
+      </c>
+      <c r="AA84">
+        <v>68.96250000000001</v>
+      </c>
+      <c r="AB84">
+        <v>85.06</v>
+      </c>
+      <c r="AC84">
+        <v>65.98124999999999</v>
+      </c>
+      <c r="AD84">
+        <v>50.53999999999999</v>
+      </c>
+      <c r="AE84">
+        <v>13.5</v>
+      </c>
+      <c r="AF84">
+        <v>0.005489012315865733</v>
+      </c>
+      <c r="AG84">
+        <v>8</v>
+      </c>
+      <c r="AH84">
+        <v>61.58500000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:34">
       <c r="A85" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B85">
         <v>40.430821</v>
@@ -5059,19 +7579,19 @@
         <v>120</v>
       </c>
       <c r="H85">
-        <v>1.75</v>
+        <v>1.758928571428571</v>
       </c>
       <c r="I85">
-        <v>1189.2</v>
+        <v>1193.075</v>
       </c>
       <c r="J85">
-        <v>958.9180327868852</v>
+        <v>964.4193548387096</v>
       </c>
       <c r="K85">
-        <v>728.0816326530612</v>
+        <v>726.746192893401</v>
       </c>
       <c r="L85" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="M85">
         <v>61</v>
@@ -5097,10 +7617,52 @@
       <c r="T85">
         <v>3.875</v>
       </c>
-    </row>
-    <row r="86" spans="1:20">
+      <c r="U85">
+        <v>93.25666666666666</v>
+      </c>
+      <c r="V85">
+        <v>879</v>
+      </c>
+      <c r="W85">
+        <v>100.4893985589685</v>
+      </c>
+      <c r="X85">
+        <v>63.4</v>
+      </c>
+      <c r="Y85">
+        <v>0.315</v>
+      </c>
+      <c r="Z85">
+        <v>0.05271141448615851</v>
+      </c>
+      <c r="AA85">
+        <v>64.83333333333333</v>
+      </c>
+      <c r="AB85">
+        <v>88.05</v>
+      </c>
+      <c r="AC85">
+        <v>62.75</v>
+      </c>
+      <c r="AD85">
+        <v>53.80666666666666</v>
+      </c>
+      <c r="AE85">
+        <v>21</v>
+      </c>
+      <c r="AF85">
+        <v>0.002741751990898749</v>
+      </c>
+      <c r="AG85">
+        <v>3</v>
+      </c>
+      <c r="AH85">
+        <v>59.90666666666666</v>
+      </c>
+    </row>
+    <row r="86" spans="1:34">
       <c r="A86" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="B86">
         <v>40.42361</v>
@@ -5133,7 +7695,7 @@
         <v>597.4512195121952</v>
       </c>
       <c r="L86" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="M86">
         <v>11</v>
@@ -5159,10 +7721,52 @@
       <c r="T86">
         <v>1.65</v>
       </c>
-    </row>
-    <row r="87" spans="1:20">
+      <c r="U86">
+        <v>92.56</v>
+      </c>
+      <c r="V86">
+        <v>537.6666666666666</v>
+      </c>
+      <c r="W86">
+        <v>63.09137673072949</v>
+      </c>
+      <c r="X86">
+        <v>61.73666666666667</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>0.1140731556106634</v>
+      </c>
+      <c r="AA86">
+        <v>62.26666666666667</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>50.79</v>
+      </c>
+      <c r="AD86">
+        <v>37.07</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
+      </c>
+      <c r="AF86">
+        <v>0.008580285182889027</v>
+      </c>
+      <c r="AG86">
+        <v>3</v>
+      </c>
+      <c r="AH86">
+        <v>52.58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:34">
       <c r="A87" s="1" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B87">
         <v>40.443184</v>
@@ -5195,7 +7799,7 @@
         <v>934.2352941176471</v>
       </c>
       <c r="L87" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="M87">
         <v>2440</v>
@@ -5221,10 +7825,52 @@
       <c r="T87">
         <v>2.275</v>
       </c>
-    </row>
-    <row r="88" spans="1:20">
+      <c r="U87">
+        <v>85.76000000000001</v>
+      </c>
+      <c r="V87">
+        <v>235.5</v>
+      </c>
+      <c r="W87">
+        <v>47.97418524416137</v>
+      </c>
+      <c r="X87">
+        <v>46.6425</v>
+      </c>
+      <c r="Y87">
+        <v>1.485</v>
+      </c>
+      <c r="Z87">
+        <v>0.3014861995753715</v>
+      </c>
+      <c r="AA87">
+        <v>46.62500000000001</v>
+      </c>
+      <c r="AB87">
+        <v>40.55</v>
+      </c>
+      <c r="AC87">
+        <v>23.395</v>
+      </c>
+      <c r="AD87">
+        <v>9.379999999999999</v>
+      </c>
+      <c r="AE87">
+        <v>4</v>
+      </c>
+      <c r="AF87">
+        <v>0.00232484076433121</v>
+      </c>
+      <c r="AG87">
+        <v>4</v>
+      </c>
+      <c r="AH87">
+        <v>18.2925</v>
+      </c>
+    </row>
+    <row r="88" spans="1:34">
       <c r="A88" s="1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B88">
         <v>40.419506</v>
@@ -5257,7 +7903,7 @@
         <v>512.5588235294117</v>
       </c>
       <c r="L88" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="M88">
         <v>134</v>
@@ -5283,10 +7929,52 @@
       <c r="T88">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="89" spans="1:20">
+      <c r="U88">
+        <v>94.92</v>
+      </c>
+      <c r="V88">
+        <v>414.3333333333333</v>
+      </c>
+      <c r="W88">
+        <v>70.48194958433898</v>
+      </c>
+      <c r="X88">
+        <v>61.88333333333333</v>
+      </c>
+      <c r="Y88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <v>0.09975864843121481</v>
+      </c>
+      <c r="AA88">
+        <v>62.7</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
+        <v>62.52</v>
+      </c>
+      <c r="AD88">
+        <v>51.74333333333333</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
+      </c>
+      <c r="AF88">
+        <v>0.005679806918744972</v>
+      </c>
+      <c r="AG88">
+        <v>3</v>
+      </c>
+      <c r="AH88">
+        <v>69.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:34">
       <c r="A89" s="1" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="B89">
         <v>40.435791</v>
@@ -5319,7 +8007,7 @@
         <v>539.2533333333333</v>
       </c>
       <c r="L89" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="M89">
         <v>206</v>
@@ -5345,10 +8033,52 @@
       <c r="T89">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:20">
+      <c r="U89">
+        <v>90.78</v>
+      </c>
+      <c r="V89">
+        <v>748.75</v>
+      </c>
+      <c r="W89">
+        <v>69.46322938230382</v>
+      </c>
+      <c r="X89">
+        <v>55.2775</v>
+      </c>
+      <c r="Y89">
+        <v>1.505</v>
+      </c>
+      <c r="Z89">
+        <v>0.1005008347245409</v>
+      </c>
+      <c r="AA89">
+        <v>55.75</v>
+      </c>
+      <c r="AB89">
+        <v>87.87</v>
+      </c>
+      <c r="AC89">
+        <v>38.05249999999999</v>
+      </c>
+      <c r="AD89">
+        <v>22.1625</v>
+      </c>
+      <c r="AE89">
+        <v>8</v>
+      </c>
+      <c r="AF89">
+        <v>0.003295492487479132</v>
+      </c>
+      <c r="AG89">
+        <v>4</v>
+      </c>
+      <c r="AH89">
+        <v>40.955</v>
+      </c>
+    </row>
+    <row r="90" spans="1:34">
       <c r="A90" s="1" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B90">
         <v>40.447691</v>
@@ -5369,19 +8099,19 @@
         <v>120</v>
       </c>
       <c r="H90">
-        <v>1.394957983193277</v>
+        <v>1.403361344537815</v>
       </c>
       <c r="I90">
-        <v>1491.55</v>
+        <v>1490.716666666667</v>
       </c>
       <c r="J90">
-        <v>863.8947368421053</v>
+        <v>866.3684210526316</v>
       </c>
       <c r="K90">
-        <v>1078.228915662651</v>
+        <v>1071.173652694611</v>
       </c>
       <c r="L90" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="M90">
         <v>151</v>
@@ -5407,10 +8137,52 @@
       <c r="T90">
         <v>5.309375</v>
       </c>
-    </row>
-    <row r="91" spans="1:20">
+      <c r="U90">
+        <v>93.3725</v>
+      </c>
+      <c r="V90">
+        <v>537.5</v>
+      </c>
+      <c r="W90">
+        <v>82.46161325581396</v>
+      </c>
+      <c r="X90">
+        <v>66.325</v>
+      </c>
+      <c r="Y90">
+        <v>0.3366666666666667</v>
+      </c>
+      <c r="Z90">
+        <v>0.112093023255814</v>
+      </c>
+      <c r="AA90">
+        <v>67.22499999999999</v>
+      </c>
+      <c r="AB90">
+        <v>94.98333333333333</v>
+      </c>
+      <c r="AC90">
+        <v>57.435</v>
+      </c>
+      <c r="AD90">
+        <v>41.545</v>
+      </c>
+      <c r="AE90">
+        <v>5.5</v>
+      </c>
+      <c r="AF90">
+        <v>0.002818604651162791</v>
+      </c>
+      <c r="AG90">
+        <v>4</v>
+      </c>
+      <c r="AH90">
+        <v>49.87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:34">
       <c r="A91" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B91">
         <v>40.505181</v>
@@ -5443,7 +8215,7 @@
         <v>417.1086956521739</v>
       </c>
       <c r="L91" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="M91">
         <v>2</v>
@@ -5467,9 +8239,9 @@
         <v>2.516666666666667</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:34">
       <c r="A92" s="1" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B92">
         <v>40.464234</v>
@@ -5490,19 +8262,19 @@
         <v>120</v>
       </c>
       <c r="H92">
-        <v>2.131578947368421</v>
+        <v>2.114035087719298</v>
       </c>
       <c r="I92">
-        <v>1450.016666666667</v>
+        <v>1454.141666666667</v>
       </c>
       <c r="J92">
         <v>936.0392156862745</v>
       </c>
       <c r="K92">
-        <v>716.0576131687243</v>
+        <v>724.0539419087137</v>
       </c>
       <c r="L92" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="M92">
         <v>104</v>
@@ -5528,10 +8300,52 @@
       <c r="T92">
         <v>3.366666666666666</v>
       </c>
-    </row>
-    <row r="93" spans="1:20">
+      <c r="U92">
+        <v>91.56999999999999</v>
+      </c>
+      <c r="V92">
+        <v>185</v>
+      </c>
+      <c r="W92">
+        <v>66.01158378378378</v>
+      </c>
+      <c r="X92">
+        <v>68.54000000000001</v>
+      </c>
+      <c r="Y92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>0.4</v>
+      </c>
+      <c r="AA92">
+        <v>68.8</v>
+      </c>
+      <c r="AB92">
+        <v>0</v>
+      </c>
+      <c r="AC92">
+        <v>50</v>
+      </c>
+      <c r="AD92">
+        <v>37.93</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
+      </c>
+      <c r="AF92">
+        <v>0.005837837837837838</v>
+      </c>
+      <c r="AG92">
+        <v>1</v>
+      </c>
+      <c r="AH92">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:34">
       <c r="A93" s="1" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B93">
         <v>40.50668</v>
@@ -5564,7 +8378,7 @@
         <v>428.421052631579</v>
       </c>
       <c r="L93" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="M93">
         <v>1</v>
@@ -5585,9 +8399,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:34">
       <c r="A94" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B94">
         <v>40.395053</v>
@@ -5620,7 +8434,7 @@
         <v>698.0182648401826</v>
       </c>
       <c r="L94" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="M94">
         <v>102</v>
@@ -5646,10 +8460,52 @@
       <c r="T94">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="95" spans="1:20">
+      <c r="U94">
+        <v>93.375</v>
+      </c>
+      <c r="V94">
+        <v>413.25</v>
+      </c>
+      <c r="W94">
+        <v>65.21161675741078</v>
+      </c>
+      <c r="X94">
+        <v>63.9425</v>
+      </c>
+      <c r="Y94">
+        <v>0</v>
+      </c>
+      <c r="Z94">
+        <v>0.1427707199032063</v>
+      </c>
+      <c r="AA94">
+        <v>64.52499999999999</v>
+      </c>
+      <c r="AB94">
+        <v>0</v>
+      </c>
+      <c r="AC94">
+        <v>58.48999999999999</v>
+      </c>
+      <c r="AD94">
+        <v>36.135</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
+      </c>
+      <c r="AF94">
+        <v>0.006709013914095584</v>
+      </c>
+      <c r="AG94">
+        <v>4</v>
+      </c>
+      <c r="AH94">
+        <v>48.31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:34">
       <c r="A95" s="1" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B95">
         <v>40.375703</v>
@@ -5682,7 +8538,7 @@
         <v>468.7155172413793</v>
       </c>
       <c r="L95" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="M95">
         <v>50</v>
@@ -5708,10 +8564,52 @@
       <c r="T95">
         <v>2.991666666666667</v>
       </c>
-    </row>
-    <row r="96" spans="1:20">
+      <c r="U95">
+        <v>89.47666666666667</v>
+      </c>
+      <c r="V95">
+        <v>349.1666666666667</v>
+      </c>
+      <c r="W95">
+        <v>78.64683579952269</v>
+      </c>
+      <c r="X95">
+        <v>61.30666666666666</v>
+      </c>
+      <c r="Y95">
+        <v>9.663333333333332</v>
+      </c>
+      <c r="Z95">
+        <v>0.1279236276849642</v>
+      </c>
+      <c r="AA95">
+        <v>62.06666666666667</v>
+      </c>
+      <c r="AB95">
+        <v>67.7</v>
+      </c>
+      <c r="AC95">
+        <v>61.78666666666666</v>
+      </c>
+      <c r="AD95">
+        <v>41.93333333333333</v>
+      </c>
+      <c r="AE95">
+        <v>7</v>
+      </c>
+      <c r="AF95">
+        <v>0.004205250596658711</v>
+      </c>
+      <c r="AG95">
+        <v>6</v>
+      </c>
+      <c r="AH95">
+        <v>62.61666666666667</v>
+      </c>
+    </row>
+    <row r="96" spans="1:34">
       <c r="A96" s="1" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="B96">
         <v>40.370667</v>
@@ -5735,16 +8633,16 @@
         <v>1.852173913043478</v>
       </c>
       <c r="I96">
-        <v>1007.375</v>
+        <v>1011.625</v>
       </c>
       <c r="J96">
-        <v>1012</v>
+        <v>1013.871794871795</v>
       </c>
       <c r="K96">
-        <v>567.5352112676056</v>
+        <v>569.9295774647887</v>
       </c>
       <c r="L96" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="Q96">
         <v>1</v>
@@ -5758,10 +8656,52 @@
       <c r="T96">
         <v>2.433333333333333</v>
       </c>
-    </row>
-    <row r="97" spans="1:20">
+      <c r="U96">
+        <v>96.27</v>
+      </c>
+      <c r="V96">
+        <v>710.4</v>
+      </c>
+      <c r="W96">
+        <v>128.639677927928</v>
+      </c>
+      <c r="X96">
+        <v>90.474</v>
+      </c>
+      <c r="Y96">
+        <v>0.03</v>
+      </c>
+      <c r="Z96">
+        <v>0.01463963963963964</v>
+      </c>
+      <c r="AA96">
+        <v>92.72</v>
+      </c>
+      <c r="AB96">
+        <v>98.94</v>
+      </c>
+      <c r="AC96">
+        <v>92.60799999999999</v>
+      </c>
+      <c r="AD96">
+        <v>82.03400000000001</v>
+      </c>
+      <c r="AE96">
+        <v>19</v>
+      </c>
+      <c r="AF96">
+        <v>0.006058558558558558</v>
+      </c>
+      <c r="AG96">
+        <v>5</v>
+      </c>
+      <c r="AH96">
+        <v>92.87800000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:34">
       <c r="A97" s="1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B97">
         <v>40.520353</v>
@@ -5794,7 +8734,7 @@
         <v>747.8202247191011</v>
       </c>
       <c r="L97" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="M97">
         <v>1</v>
@@ -5811,10 +8751,52 @@
       <c r="T97">
         <v>2.025</v>
       </c>
-    </row>
-    <row r="98" spans="1:20">
+      <c r="U97">
+        <v>95.71000000000001</v>
+      </c>
+      <c r="V97">
+        <v>787.25</v>
+      </c>
+      <c r="W97">
+        <v>116.601440457288</v>
+      </c>
+      <c r="X97">
+        <v>77.1525</v>
+      </c>
+      <c r="Y97">
+        <v>0.485</v>
+      </c>
+      <c r="Z97">
+        <v>0.03778977453159733</v>
+      </c>
+      <c r="AA97">
+        <v>79</v>
+      </c>
+      <c r="AB97">
+        <v>96.48999999999999</v>
+      </c>
+      <c r="AC97">
+        <v>80.0575</v>
+      </c>
+      <c r="AD97">
+        <v>68.02000000000001</v>
+      </c>
+      <c r="AE97">
+        <v>20</v>
+      </c>
+      <c r="AF97">
+        <v>0.009984121943474119</v>
+      </c>
+      <c r="AG97">
+        <v>4</v>
+      </c>
+      <c r="AH97">
+        <v>87.38999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:34">
       <c r="A98" s="1" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B98">
         <v>40.452517</v>
@@ -5835,19 +8817,19 @@
         <v>120</v>
       </c>
       <c r="H98">
-        <v>1.719298245614035</v>
+        <v>1.736842105263158</v>
       </c>
       <c r="I98">
-        <v>1510.058333333333</v>
+        <v>1509.766666666667</v>
       </c>
       <c r="J98">
-        <v>1032.081967213115</v>
+        <v>1033.338709677419</v>
       </c>
       <c r="K98">
-        <v>924.5255102040817</v>
+        <v>915.010101010101</v>
       </c>
       <c r="L98" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="M98">
         <v>33</v>
@@ -5873,10 +8855,52 @@
       <c r="T98">
         <v>2.85</v>
       </c>
-    </row>
-    <row r="99" spans="1:20">
+      <c r="U98">
+        <v>96.23999999999999</v>
+      </c>
+      <c r="V98">
+        <v>425</v>
+      </c>
+      <c r="W98">
+        <v>57.68724470588236</v>
+      </c>
+      <c r="X98">
+        <v>52.95</v>
+      </c>
+      <c r="Y98">
+        <v>0</v>
+      </c>
+      <c r="Z98">
+        <v>0.1576470588235294</v>
+      </c>
+      <c r="AA98">
+        <v>53.4</v>
+      </c>
+      <c r="AB98">
+        <v>0</v>
+      </c>
+      <c r="AC98">
+        <v>50</v>
+      </c>
+      <c r="AD98">
+        <v>26.6</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
+      </c>
+      <c r="AF98">
+        <v>0.007741176470588236</v>
+      </c>
+      <c r="AG98">
+        <v>1</v>
+      </c>
+      <c r="AH98">
+        <v>61.64</v>
+      </c>
+    </row>
+    <row r="99" spans="1:34">
       <c r="A99" s="1" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="B99">
         <v>40.460862</v>
@@ -5894,22 +8918,22 @@
         <v>49533.33</v>
       </c>
       <c r="G99">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H99">
-        <v>1.761904761904762</v>
+        <v>1.769230769230769</v>
       </c>
       <c r="I99">
-        <v>850.1949152542373</v>
+        <v>851.0512820512821</v>
       </c>
       <c r="J99">
-        <v>1210.914285714286</v>
+        <v>1214.176470588235</v>
       </c>
       <c r="K99">
-        <v>542.2864864864865</v>
+        <v>541.1576086956521</v>
       </c>
       <c r="L99" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="M99">
         <v>81</v>
@@ -5935,10 +8959,52 @@
       <c r="T99">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="100" spans="1:20">
+      <c r="U99">
+        <v>94.18000000000001</v>
+      </c>
+      <c r="V99">
+        <v>263.5</v>
+      </c>
+      <c r="W99">
+        <v>51.54600189753321</v>
+      </c>
+      <c r="X99">
+        <v>54.08</v>
+      </c>
+      <c r="Y99">
+        <v>1.85</v>
+      </c>
+      <c r="Z99">
+        <v>0.3149905123339659</v>
+      </c>
+      <c r="AA99">
+        <v>54.3</v>
+      </c>
+      <c r="AB99">
+        <v>0</v>
+      </c>
+      <c r="AC99">
+        <v>39.165</v>
+      </c>
+      <c r="AD99">
+        <v>20.05</v>
+      </c>
+      <c r="AE99">
+        <v>0</v>
+      </c>
+      <c r="AF99">
+        <v>0</v>
+      </c>
+      <c r="AG99">
+        <v>2</v>
+      </c>
+      <c r="AH99">
+        <v>36.12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:34">
       <c r="A100" s="1" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B100">
         <v>40.36814</v>
@@ -5971,7 +9037,7 @@
         <v>500.9940119760479</v>
       </c>
       <c r="L100" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M100">
         <v>9</v>
@@ -5997,10 +9063,52 @@
       <c r="T100">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="101" spans="1:20">
+      <c r="U100">
+        <v>96.18666666666667</v>
+      </c>
+      <c r="V100">
+        <v>273</v>
+      </c>
+      <c r="W100">
+        <v>90.889905982906</v>
+      </c>
+      <c r="X100">
+        <v>83.00666666666667</v>
+      </c>
+      <c r="Y100">
+        <v>0</v>
+      </c>
+      <c r="Z100">
+        <v>0.08791208791208792</v>
+      </c>
+      <c r="AA100">
+        <v>84.53333333333335</v>
+      </c>
+      <c r="AB100">
+        <v>0</v>
+      </c>
+      <c r="AC100">
+        <v>82.61666666666666</v>
+      </c>
+      <c r="AD100">
+        <v>68.34666666666666</v>
+      </c>
+      <c r="AE100">
+        <v>0</v>
+      </c>
+      <c r="AF100">
+        <v>0.004884004884004884</v>
+      </c>
+      <c r="AG100">
+        <v>3</v>
+      </c>
+      <c r="AH100">
+        <v>91.34333333333332</v>
+      </c>
+    </row>
+    <row r="101" spans="1:34">
       <c r="A101" s="1" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="B101">
         <v>40.459801</v>
@@ -6033,7 +9141,7 @@
         <v>404.712</v>
       </c>
       <c r="L101" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="M101">
         <v>7</v>
@@ -6056,10 +9164,52 @@
       <c r="T101">
         <v>3.185714285714286</v>
       </c>
-    </row>
-    <row r="102" spans="1:20">
+      <c r="U101">
+        <v>92.724</v>
+      </c>
+      <c r="V101">
+        <v>888.4</v>
+      </c>
+      <c r="W101">
+        <v>76.28837489869429</v>
+      </c>
+      <c r="X101">
+        <v>54.266</v>
+      </c>
+      <c r="Y101">
+        <v>0.96</v>
+      </c>
+      <c r="Z101">
+        <v>0.08014407924358397</v>
+      </c>
+      <c r="AA101">
+        <v>54.78000000000001</v>
+      </c>
+      <c r="AB101">
+        <v>85.13</v>
+      </c>
+      <c r="AC101">
+        <v>44.336</v>
+      </c>
+      <c r="AD101">
+        <v>30.088</v>
+      </c>
+      <c r="AE101">
+        <v>12</v>
+      </c>
+      <c r="AF101">
+        <v>0.002537145429986492</v>
+      </c>
+      <c r="AG101">
+        <v>5</v>
+      </c>
+      <c r="AH101">
+        <v>45.3875</v>
+      </c>
+    </row>
+    <row r="102" spans="1:34">
       <c r="A102" s="1" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B102">
         <v>40.347404</v>
@@ -6092,7 +9242,7 @@
         <v>564.9444444444445</v>
       </c>
       <c r="L102" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="M102">
         <v>1</v>
@@ -6112,10 +9262,52 @@
       <c r="T102">
         <v>3.116666666666667</v>
       </c>
-    </row>
-    <row r="103" spans="1:20">
+      <c r="U102">
+        <v>94.61833333333333</v>
+      </c>
+      <c r="V102">
+        <v>764.1666666666666</v>
+      </c>
+      <c r="W102">
+        <v>106.3585876045075</v>
+      </c>
+      <c r="X102">
+        <v>75.87</v>
+      </c>
+      <c r="Y102">
+        <v>0.53</v>
+      </c>
+      <c r="Z102">
+        <v>0.04165757906215922</v>
+      </c>
+      <c r="AA102">
+        <v>77.08333333333333</v>
+      </c>
+      <c r="AB102">
+        <v>95.15000000000001</v>
+      </c>
+      <c r="AC102">
+        <v>77.66500000000001</v>
+      </c>
+      <c r="AD102">
+        <v>59.78666666666667</v>
+      </c>
+      <c r="AE102">
+        <v>14</v>
+      </c>
+      <c r="AF102">
+        <v>0.00352453653217012</v>
+      </c>
+      <c r="AG102">
+        <v>6</v>
+      </c>
+      <c r="AH102">
+        <v>77.06399999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:34">
       <c r="A103" s="1" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B103">
         <v>40.549607</v>
@@ -6148,7 +9340,7 @@
         <v>628.7989417989418</v>
       </c>
       <c r="L103" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="M103">
         <v>1</v>
@@ -6168,10 +9360,52 @@
       <c r="T103">
         <v>4.6</v>
       </c>
-    </row>
-    <row r="104" spans="1:20">
+      <c r="U103">
+        <v>96.26272727272728</v>
+      </c>
+      <c r="V103">
+        <v>522.4545454545455</v>
+      </c>
+      <c r="W103">
+        <v>112.0407116566746</v>
+      </c>
+      <c r="X103">
+        <v>78.95909090909092</v>
+      </c>
+      <c r="Y103">
+        <v>0.1125</v>
+      </c>
+      <c r="Z103">
+        <v>0.02610057421263268</v>
+      </c>
+      <c r="AA103">
+        <v>80.64545454545454</v>
+      </c>
+      <c r="AB103">
+        <v>97.84999999999999</v>
+      </c>
+      <c r="AC103">
+        <v>85.64636363636363</v>
+      </c>
+      <c r="AD103">
+        <v>69.38909090909091</v>
+      </c>
+      <c r="AE103">
+        <v>13</v>
+      </c>
+      <c r="AF103">
+        <v>0.01713589698973378</v>
+      </c>
+      <c r="AG103">
+        <v>11</v>
+      </c>
+      <c r="AH103">
+        <v>86.62899999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:34">
       <c r="A104" s="1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B104">
         <v>40.537201</v>
@@ -6204,7 +9438,7 @@
         <v>702.1938775510204</v>
       </c>
       <c r="L104" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="M104">
         <v>2</v>
@@ -6227,10 +9461,52 @@
       <c r="T104">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="105" spans="1:20">
+      <c r="U104">
+        <v>95.15600000000001</v>
+      </c>
+      <c r="V104">
+        <v>740.2</v>
+      </c>
+      <c r="W104">
+        <v>137.8767581194272</v>
+      </c>
+      <c r="X104">
+        <v>86.18600000000001</v>
+      </c>
+      <c r="Y104">
+        <v>0.035</v>
+      </c>
+      <c r="Z104">
+        <v>0.02026479329910835</v>
+      </c>
+      <c r="AA104">
+        <v>88.66</v>
+      </c>
+      <c r="AB104">
+        <v>97.83</v>
+      </c>
+      <c r="AC104">
+        <v>90.07399999999998</v>
+      </c>
+      <c r="AD104">
+        <v>83.38200000000001</v>
+      </c>
+      <c r="AE104">
+        <v>31</v>
+      </c>
+      <c r="AF104">
+        <v>0.01011078087003512</v>
+      </c>
+      <c r="AG104">
+        <v>5</v>
+      </c>
+      <c r="AH104">
+        <v>90.61800000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:34">
       <c r="A105" s="1" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B105">
         <v>40.483674</v>
@@ -6263,7 +9539,7 @@
         <v>349.7959183673469</v>
       </c>
       <c r="L105" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="R105">
         <v>3.145953757225433</v>
@@ -6274,10 +9550,52 @@
       <c r="T105">
         <v>2.2</v>
       </c>
-    </row>
-    <row r="106" spans="1:20">
+      <c r="U105">
+        <v>95.36833333333334</v>
+      </c>
+      <c r="V105">
+        <v>627</v>
+      </c>
+      <c r="W105">
+        <v>119.8651092503987</v>
+      </c>
+      <c r="X105">
+        <v>75.88666666666667</v>
+      </c>
+      <c r="Y105">
+        <v>0.36</v>
+      </c>
+      <c r="Z105">
+        <v>0.0417331206804891</v>
+      </c>
+      <c r="AA105">
+        <v>77.34999999999999</v>
+      </c>
+      <c r="AB105">
+        <v>96.83</v>
+      </c>
+      <c r="AC105">
+        <v>79.90666666666665</v>
+      </c>
+      <c r="AD105">
+        <v>64.63666666666667</v>
+      </c>
+      <c r="AE105">
+        <v>25</v>
+      </c>
+      <c r="AF105">
+        <v>0.006225412014885698</v>
+      </c>
+      <c r="AG105">
+        <v>6</v>
+      </c>
+      <c r="AH105">
+        <v>84.34</v>
+      </c>
+    </row>
+    <row r="106" spans="1:34">
       <c r="A106" s="1" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B106">
         <v>40.333518</v>
@@ -6310,7 +9628,7 @@
         <v>845.2325581395348</v>
       </c>
       <c r="L106" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="M106">
         <v>1</v>
@@ -6327,10 +9645,52 @@
       <c r="T106">
         <v>3.283333333333333</v>
       </c>
-    </row>
-    <row r="107" spans="1:20">
+      <c r="U106">
+        <v>96.53666666666668</v>
+      </c>
+      <c r="V106">
+        <v>680</v>
+      </c>
+      <c r="W106">
+        <v>123.8112323529412</v>
+      </c>
+      <c r="X106">
+        <v>83.20166666666667</v>
+      </c>
+      <c r="Y106">
+        <v>0</v>
+      </c>
+      <c r="Z106">
+        <v>0.01323529411764706</v>
+      </c>
+      <c r="AA106">
+        <v>85.35000000000001</v>
+      </c>
+      <c r="AB106">
+        <v>99.67</v>
+      </c>
+      <c r="AC106">
+        <v>89.70166666666667</v>
+      </c>
+      <c r="AD106">
+        <v>79.59166666666667</v>
+      </c>
+      <c r="AE106">
+        <v>19</v>
+      </c>
+      <c r="AF106">
+        <v>0.01012745098039216</v>
+      </c>
+      <c r="AG106">
+        <v>6</v>
+      </c>
+      <c r="AH106">
+        <v>90.88200000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:34">
       <c r="A107" s="1" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="B107">
         <v>40.375511</v>
@@ -6363,7 +9723,7 @@
         <v>568.452380952381</v>
       </c>
       <c r="L107" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="R107">
         <v>0</v>
@@ -6374,10 +9734,52 @@
       <c r="T107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:20">
+      <c r="U107">
+        <v>96.20333333333333</v>
+      </c>
+      <c r="V107">
+        <v>408.3333333333333</v>
+      </c>
+      <c r="W107">
+        <v>98.48481578231292</v>
+      </c>
+      <c r="X107">
+        <v>90.73</v>
+      </c>
+      <c r="Y107">
+        <v>0</v>
+      </c>
+      <c r="Z107">
+        <v>0.01959183673469388</v>
+      </c>
+      <c r="AA107">
+        <v>92.76666666666667</v>
+      </c>
+      <c r="AB107">
+        <v>0</v>
+      </c>
+      <c r="AC107">
+        <v>90.41333333333334</v>
+      </c>
+      <c r="AD107">
+        <v>76.50999999999999</v>
+      </c>
+      <c r="AE107">
+        <v>0</v>
+      </c>
+      <c r="AF107">
+        <v>0.01400816326530612</v>
+      </c>
+      <c r="AG107">
+        <v>3</v>
+      </c>
+      <c r="AH107">
+        <v>95.06333333333333</v>
+      </c>
+    </row>
+    <row r="108" spans="1:34">
       <c r="A108" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="B108">
         <v>40.443915</v>
@@ -6410,7 +9812,7 @@
         <v>590.0466472303207</v>
       </c>
       <c r="L108" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="R108">
         <v>0</v>
@@ -6422,9 +9824,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:34">
       <c r="A109" s="1" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B109">
         <v>40.457329</v>
@@ -6457,7 +9859,7 @@
         <v>341.6666666666667</v>
       </c>
       <c r="L109" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="R109">
         <v>0</v>
@@ -6469,9 +9871,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:34">
       <c r="A110" s="1" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B110">
         <v>40.240216</v>
@@ -6504,7 +9906,7 @@
         <v>393.3333333333333</v>
       </c>
       <c r="L110" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="R110">
         <v>2.208333333333333</v>
@@ -6515,10 +9917,52 @@
       <c r="T110">
         <v>2.275</v>
       </c>
-    </row>
-    <row r="111" spans="1:20">
+      <c r="U110">
+        <v>94.02500000000001</v>
+      </c>
+      <c r="V110">
+        <v>584.5</v>
+      </c>
+      <c r="W110">
+        <v>67.00508511548333</v>
+      </c>
+      <c r="X110">
+        <v>64.155</v>
+      </c>
+      <c r="Y110">
+        <v>0</v>
+      </c>
+      <c r="Z110">
+        <v>0.07442258340461934</v>
+      </c>
+      <c r="AA110">
+        <v>64.84999999999999</v>
+      </c>
+      <c r="AB110">
+        <v>0</v>
+      </c>
+      <c r="AC110">
+        <v>55.395</v>
+      </c>
+      <c r="AD110">
+        <v>43.545</v>
+      </c>
+      <c r="AE110">
+        <v>0</v>
+      </c>
+      <c r="AF110">
+        <v>0.004696321642429427</v>
+      </c>
+      <c r="AG110">
+        <v>2</v>
+      </c>
+      <c r="AH110">
+        <v>55.43</v>
+      </c>
+    </row>
+    <row r="111" spans="1:34">
       <c r="A111" s="1" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B111">
         <v>40.318382</v>
@@ -6551,7 +9995,7 @@
         <v>408.453781512605</v>
       </c>
       <c r="L111" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="R111">
         <v>2.615820734341253</v>
@@ -6562,10 +10006,52 @@
       <c r="T111">
         <v>3.257142857142857</v>
       </c>
-    </row>
-    <row r="112" spans="1:20">
+      <c r="U111">
+        <v>96.17699999999999</v>
+      </c>
+      <c r="V111">
+        <v>650.5</v>
+      </c>
+      <c r="W111">
+        <v>112.8838313690324</v>
+      </c>
+      <c r="X111">
+        <v>81.03299999999999</v>
+      </c>
+      <c r="Y111">
+        <v>0.2266666666666667</v>
+      </c>
+      <c r="Z111">
+        <v>0.04181398923904689</v>
+      </c>
+      <c r="AA111">
+        <v>82.57000000000001</v>
+      </c>
+      <c r="AB111">
+        <v>96.84999999999999</v>
+      </c>
+      <c r="AC111">
+        <v>82.14500000000001</v>
+      </c>
+      <c r="AD111">
+        <v>68.495</v>
+      </c>
+      <c r="AE111">
+        <v>14</v>
+      </c>
+      <c r="AF111">
+        <v>0.006719446579554189</v>
+      </c>
+      <c r="AG111">
+        <v>10</v>
+      </c>
+      <c r="AH111">
+        <v>85.28555555555556</v>
+      </c>
+    </row>
+    <row r="112" spans="1:34">
       <c r="A112" s="1" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B112">
         <v>40.460564</v>
@@ -6598,7 +10084,7 @@
         <v>516.8421052631579</v>
       </c>
       <c r="L112" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="M112">
         <v>1</v>
@@ -6615,10 +10101,52 @@
       <c r="T112">
         <v>2.05</v>
       </c>
-    </row>
-    <row r="113" spans="1:20">
+      <c r="U112">
+        <v>95.952</v>
+      </c>
+      <c r="V112">
+        <v>696.4</v>
+      </c>
+      <c r="W112">
+        <v>116.5057684663986</v>
+      </c>
+      <c r="X112">
+        <v>79.926</v>
+      </c>
+      <c r="Y112">
+        <v>0.04</v>
+      </c>
+      <c r="Z112">
+        <v>0.02268811028144744</v>
+      </c>
+      <c r="AA112">
+        <v>81.78</v>
+      </c>
+      <c r="AB112">
+        <v>98.97</v>
+      </c>
+      <c r="AC112">
+        <v>85.08000000000001</v>
+      </c>
+      <c r="AD112">
+        <v>74.26799999999999</v>
+      </c>
+      <c r="AE112">
+        <v>16</v>
+      </c>
+      <c r="AF112">
+        <v>0.009060884549109707</v>
+      </c>
+      <c r="AG112">
+        <v>5</v>
+      </c>
+      <c r="AH112">
+        <v>86.364</v>
+      </c>
+    </row>
+    <row r="113" spans="1:34">
       <c r="A113" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B113">
         <v>40.702748</v>
@@ -6651,7 +10179,7 @@
         <v>701.1904761904761</v>
       </c>
       <c r="L113" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="R113">
         <v>2.89248549982941</v>
@@ -6662,10 +10190,52 @@
       <c r="T113">
         <v>1.65</v>
       </c>
-    </row>
-    <row r="114" spans="1:20">
+      <c r="U113">
+        <v>95.886</v>
+      </c>
+      <c r="V113">
+        <v>662.2</v>
+      </c>
+      <c r="W113">
+        <v>110.1966987818383</v>
+      </c>
+      <c r="X113">
+        <v>80.31800000000001</v>
+      </c>
+      <c r="Y113">
+        <v>0</v>
+      </c>
+      <c r="Z113">
+        <v>0.01087284808215041</v>
+      </c>
+      <c r="AA113">
+        <v>81.78</v>
+      </c>
+      <c r="AB113">
+        <v>93.94</v>
+      </c>
+      <c r="AC113">
+        <v>86.248</v>
+      </c>
+      <c r="AD113">
+        <v>74.82599999999999</v>
+      </c>
+      <c r="AE113">
+        <v>10</v>
+      </c>
+      <c r="AF113">
+        <v>0.005400181214134703</v>
+      </c>
+      <c r="AG113">
+        <v>5</v>
+      </c>
+      <c r="AH113">
+        <v>84.03333333333333</v>
+      </c>
+    </row>
+    <row r="114" spans="1:34">
       <c r="A114" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B114">
         <v>40.716859</v>
@@ -6698,7 +10268,7 @@
         <v>350</v>
       </c>
       <c r="L114" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="R114">
         <v>2.7125</v>
@@ -6709,10 +10279,52 @@
       <c r="T114">
         <v>1.775</v>
       </c>
-    </row>
-    <row r="115" spans="1:20">
+      <c r="U114">
+        <v>95.63</v>
+      </c>
+      <c r="V114">
+        <v>532.6666666666666</v>
+      </c>
+      <c r="W114">
+        <v>100.7222261159783</v>
+      </c>
+      <c r="X114">
+        <v>75.67</v>
+      </c>
+      <c r="Y114">
+        <v>0.08</v>
+      </c>
+      <c r="Z114">
+        <v>0.04630788485607009</v>
+      </c>
+      <c r="AA114">
+        <v>76.96666666666665</v>
+      </c>
+      <c r="AB114">
+        <v>96.31999999999999</v>
+      </c>
+      <c r="AC114">
+        <v>81.2</v>
+      </c>
+      <c r="AD114">
+        <v>67.60666666666667</v>
+      </c>
+      <c r="AE114">
+        <v>6</v>
+      </c>
+      <c r="AF114">
+        <v>0.008210262828535668</v>
+      </c>
+      <c r="AG114">
+        <v>3</v>
+      </c>
+      <c r="AH114">
+        <v>75.66333333333334</v>
+      </c>
+    </row>
+    <row r="115" spans="1:34">
       <c r="A115" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B115">
         <v>40.707082</v>
@@ -6745,7 +10357,7 @@
         <v>828.3333333333334</v>
       </c>
       <c r="L115" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="R115">
         <v>1.875</v>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="151">
   <si>
     <t>LAT</t>
   </si>
@@ -64,6 +64,60 @@
     <t>ROBBERY_CRIME</t>
   </si>
   <si>
+    <t>ALL_CRIME</t>
+  </si>
+  <si>
+    <t>CrimeScoreP</t>
+  </si>
+  <si>
+    <t>CrimeScore</t>
+  </si>
+  <si>
+    <t>AttendanceRate</t>
+  </si>
+  <si>
+    <t>Avg_Enroll</t>
+  </si>
+  <si>
+    <t>BlendedScore</t>
+  </si>
+  <si>
+    <t>Calc_Score</t>
+  </si>
+  <si>
+    <t>Dropout_Rate</t>
+  </si>
+  <si>
+    <t>Economically_Disadvantage</t>
+  </si>
+  <si>
+    <t>Final_Academic_Score</t>
+  </si>
+  <si>
+    <t>Grad_Rate</t>
+  </si>
+  <si>
+    <t>Lit_PSSA</t>
+  </si>
+  <si>
+    <t>Math_PSSA</t>
+  </si>
+  <si>
+    <t>Num_AP</t>
+  </si>
+  <si>
+    <t>Num_Gifted</t>
+  </si>
+  <si>
+    <t>School_Count</t>
+  </si>
+  <si>
+    <t>Science_PSSA</t>
+  </si>
+  <si>
+    <t>BlendedScore_rebase</t>
+  </si>
+  <si>
     <t>restaurantScore</t>
   </si>
   <si>
@@ -71,48 +125,6 @@
   </si>
   <si>
     <t>groceryScore</t>
-  </si>
-  <si>
-    <t>AttendanceRate</t>
-  </si>
-  <si>
-    <t>Avg_Enroll</t>
-  </si>
-  <si>
-    <t>BlendedScore</t>
-  </si>
-  <si>
-    <t>Calc_Score</t>
-  </si>
-  <si>
-    <t>Dropout_Rate</t>
-  </si>
-  <si>
-    <t>Economically_Disadvantage</t>
-  </si>
-  <si>
-    <t>Final_Academic_Score</t>
-  </si>
-  <si>
-    <t>Grad_Rate</t>
-  </si>
-  <si>
-    <t>Lit_PSSA</t>
-  </si>
-  <si>
-    <t>Math_PSSA</t>
-  </si>
-  <si>
-    <t>Num_AP</t>
-  </si>
-  <si>
-    <t>Num_Gifted</t>
-  </si>
-  <si>
-    <t>School_Count</t>
-  </si>
-  <si>
-    <t>Science_PSSA</t>
   </si>
   <si>
     <t>15003</t>
@@ -812,13 +824,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH115"/>
+  <dimension ref="A1:AL115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:38">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -918,10 +930,22 @@
       <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:38">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>40.60364</v>
@@ -939,31 +963,46 @@
         <v>28272.22</v>
       </c>
       <c r="G2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2">
-        <v>1.826086956521739</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="I2">
-        <v>635.8620689655172</v>
+        <v>633.5</v>
       </c>
       <c r="J2">
         <v>1666.666666666667</v>
       </c>
       <c r="K2">
-        <v>439.047619047619</v>
+        <v>431.9318181818182</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>2.724673202614379</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>2.705555555555556</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <v>92.52500000000001</v>
@@ -1007,10 +1046,22 @@
       <c r="AH2">
         <v>49.55</v>
       </c>
+      <c r="AI2">
+        <v>3.069080846281703</v>
+      </c>
+      <c r="AJ2">
+        <v>2.724673202614379</v>
+      </c>
+      <c r="AK2">
+        <v>2.705555555555556</v>
+      </c>
+      <c r="AL2">
+        <v>2.2</v>
+      </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:38">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>40.64508</v>
@@ -1043,16 +1094,31 @@
         <v>486.9230769230769</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>2.318181818181818</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>2.025</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>95.20500000000001</v>
@@ -1096,10 +1162,22 @@
       <c r="AH3">
         <v>68.80500000000001</v>
       </c>
+      <c r="AI3">
+        <v>2.744535186324266</v>
+      </c>
+      <c r="AJ3">
+        <v>2.318181818181818</v>
+      </c>
+      <c r="AK3">
+        <v>1.85</v>
+      </c>
+      <c r="AL3">
+        <v>2.025</v>
+      </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:38">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>40.63359</v>
@@ -1116,6 +1194,39 @@
       <c r="F4">
         <v>17666.67</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
       <c r="R4">
         <v>0</v>
       </c>
@@ -1125,10 +1236,64 @@
       <c r="T4">
         <v>0</v>
       </c>
+      <c r="U4">
+        <v>94.2943036745001</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>85.8380742469101</v>
+      </c>
+      <c r="X4">
+        <v>5699.499194083693</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0.1150350893039983</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>64.25376443860371</v>
+      </c>
+      <c r="AD4">
+        <v>50.07596206108703</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>64.44804289493577</v>
+      </c>
+      <c r="AI4">
+        <v>3.11285511124936</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:38">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>40.652282</v>
@@ -1154,11 +1319,29 @@
       <c r="I5">
         <v>975</v>
       </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
       <c r="K5">
         <v>731.25</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1169,10 +1352,64 @@
       <c r="T5">
         <v>0</v>
       </c>
+      <c r="U5">
+        <v>94.2943036745001</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>85.8380742469101</v>
+      </c>
+      <c r="X5">
+        <v>5699.499194083693</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0.1150350893039983</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>64.25376443860371</v>
+      </c>
+      <c r="AD5">
+        <v>50.07596206108703</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>64.44804289493577</v>
+      </c>
+      <c r="AI5">
+        <v>3.11285511124936</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:38">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>40.608072</v>
@@ -1205,13 +1442,28 @@
         <v>342.9655172413793</v>
       </c>
       <c r="L6" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>2.291666666666667</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>2.075</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1258,10 +1510,22 @@
       <c r="AH6">
         <v>0</v>
       </c>
+      <c r="AI6">
+        <v>2.286266913110883</v>
+      </c>
+      <c r="AJ6">
+        <v>2.291666666666667</v>
+      </c>
+      <c r="AK6">
+        <v>2.075</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:38">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>40.637248</v>
@@ -1294,7 +1558,22 @@
         <v>666.6666666666666</v>
       </c>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1347,10 +1626,22 @@
       <c r="AH7">
         <v>94.87</v>
       </c>
+      <c r="AI7">
+        <v>3.596721875504859</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:38">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>40.342274</v>
@@ -1383,16 +1674,31 @@
         <v>479.53125</v>
       </c>
       <c r="L8" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>2.649</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>2.566666666666667</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <v>95.38666666666666</v>
@@ -1436,10 +1742,22 @@
       <c r="AH8">
         <v>73.41500000000001</v>
       </c>
+      <c r="AI8">
+        <v>4.152719124271563</v>
+      </c>
+      <c r="AJ8">
+        <v>2.649</v>
+      </c>
+      <c r="AK8">
+        <v>2.566666666666667</v>
+      </c>
+      <c r="AL8">
+        <v>2.55</v>
+      </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:38">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>40.265885</v>
@@ -1465,11 +1783,29 @@
       <c r="I9">
         <v>1025</v>
       </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
       <c r="K9">
         <v>341.6666666666667</v>
       </c>
       <c r="L9" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1480,10 +1816,64 @@
       <c r="T9">
         <v>0</v>
       </c>
+      <c r="U9">
+        <v>94.2943036745001</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>85.8380742469101</v>
+      </c>
+      <c r="X9">
+        <v>5699.499194083693</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0.1150350893039983</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>64.25376443860371</v>
+      </c>
+      <c r="AD9">
+        <v>50.07596206108703</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>64.44804289493577</v>
+      </c>
+      <c r="AI9">
+        <v>3.11285511124936</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:38">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>40.233411</v>
@@ -1500,19 +1890,106 @@
       <c r="F10">
         <v>17666.67</v>
       </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
       <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>94.2943036745001</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>85.8380742469101</v>
+      </c>
+      <c r="X10">
+        <v>5699.499194083693</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0.1150350893039983</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>64.25376443860371</v>
+      </c>
+      <c r="AD10">
+        <v>50.07596206108703</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>64.44804289493577</v>
+      </c>
+      <c r="AI10">
+        <v>3.11285511124936</v>
+      </c>
+      <c r="AJ10">
         <v>3.125</v>
       </c>
-      <c r="S10">
+      <c r="AK10">
         <v>2.6</v>
       </c>
-      <c r="T10">
+      <c r="AL10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:38">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>40.58497</v>
@@ -1545,13 +2022,28 @@
         <v>367.0833333333333</v>
       </c>
       <c r="L11" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -1598,10 +2090,22 @@
       <c r="AH11">
         <v>68.89</v>
       </c>
+      <c r="AI11">
+        <v>3.568630826605065</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>2.05</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:38">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>40.297812</v>
@@ -1634,13 +2138,28 @@
         <v>412.5957446808511</v>
       </c>
       <c r="L12" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>2.23155737704918</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -1687,10 +2206,22 @@
       <c r="AH12">
         <v>62.44599999999999</v>
       </c>
+      <c r="AI12">
+        <v>3.233207793310689</v>
+      </c>
+      <c r="AJ12">
+        <v>2.23155737704918</v>
+      </c>
+      <c r="AK12">
+        <v>1.95</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:38">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B13">
         <v>40.504991</v>
@@ -1723,21 +2254,90 @@
         <v>426.3333333333333</v>
       </c>
       <c r="L13" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
       </c>
       <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>94.2943036745001</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>85.8380742469101</v>
+      </c>
+      <c r="X13">
+        <v>5699.499194083693</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0.1150350893039983</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>64.25376443860371</v>
+      </c>
+      <c r="AD13">
+        <v>50.07596206108703</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>64.44804289493577</v>
+      </c>
+      <c r="AI13">
+        <v>3.11285511124936</v>
+      </c>
+      <c r="AJ13">
         <v>2.193965517241379</v>
       </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
         <v>2.2</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:38">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B14">
         <v>40.311313</v>
@@ -1755,39 +2355,105 @@
         <v>17666.67</v>
       </c>
       <c r="G14">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H14">
-        <v>2.477272727272727</v>
+        <v>2.488888888888889</v>
       </c>
       <c r="I14">
-        <v>687.5294117647059</v>
+        <v>683.5769230769231</v>
       </c>
       <c r="J14">
         <v>1368.857142857143</v>
       </c>
       <c r="K14">
-        <v>321.6880733944954</v>
+        <v>317.375</v>
       </c>
       <c r="L14" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
       </c>
       <c r="P14">
+        <v>0.25</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>1</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
       <c r="S14">
-        <v>0</v>
+        <v>0.0125</v>
       </c>
       <c r="T14">
+        <v>5.219424610630924e-05</v>
+      </c>
+      <c r="U14">
+        <v>94.2943036745001</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>85.8380742469101</v>
+      </c>
+      <c r="X14">
+        <v>5699.499194083693</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0.1150350893039983</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>64.25376443860371</v>
+      </c>
+      <c r="AD14">
+        <v>50.07596206108703</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>64.44804289493577</v>
+      </c>
+      <c r="AI14">
+        <v>3.11285511124936</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:38">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B15">
         <v>40.591655</v>
@@ -1820,21 +2486,90 @@
         <v>312.3809523809524</v>
       </c>
       <c r="L15" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
       </c>
       <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>94.2943036745001</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>85.8380742469101</v>
+      </c>
+      <c r="X15">
+        <v>5699.499194083693</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0.1150350893039983</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>64.25376443860371</v>
+      </c>
+      <c r="AD15">
+        <v>50.07596206108703</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>64.44804289493577</v>
+      </c>
+      <c r="AI15">
+        <v>3.11285511124936</v>
+      </c>
+      <c r="AJ15">
         <v>2.625</v>
       </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:38">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>40.348224</v>
@@ -1854,22 +2589,103 @@
       <c r="G16">
         <v>0</v>
       </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
       <c r="L16" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
       </c>
       <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>94.2943036745001</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>85.8380742469101</v>
+      </c>
+      <c r="X16">
+        <v>5699.499194083693</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0.1150350893039983</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>64.25376443860371</v>
+      </c>
+      <c r="AD16">
+        <v>50.07596206108703</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>64.44804289493577</v>
+      </c>
+      <c r="AI16">
+        <v>3.11285511124936</v>
+      </c>
+      <c r="AJ16">
         <v>2.125</v>
       </c>
-      <c r="S16">
+      <c r="AK16">
         <v>1.45</v>
       </c>
-      <c r="T16">
+      <c r="AL16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:38">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B17">
         <v>40.350816</v>
@@ -1902,21 +2718,90 @@
         <v>340.3333333333333</v>
       </c>
       <c r="L17" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>94.2943036745001</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>85.8380742469101</v>
+      </c>
+      <c r="X17">
+        <v>5699.499194083693</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0.1150350893039983</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>64.25376443860371</v>
+      </c>
+      <c r="AD17">
+        <v>50.07596206108703</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>64.44804289493577</v>
+      </c>
+      <c r="AI17">
+        <v>3.11285511124936</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
         <v>1.35</v>
       </c>
-      <c r="T17">
+      <c r="AL17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:38">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>40.384822</v>
@@ -1934,36 +2819,105 @@
         <v>26000</v>
       </c>
       <c r="G18">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H18">
-        <v>1.765432098765432</v>
+        <v>1.780487804878049</v>
       </c>
       <c r="I18">
-        <v>646.3448275862069</v>
+        <v>648.0340909090909</v>
       </c>
       <c r="J18">
         <v>754.7619047619048</v>
       </c>
       <c r="K18">
-        <v>393.2307692307692</v>
+        <v>390.5958904109589</v>
       </c>
       <c r="L18" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
       </c>
       <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>94.2943036745001</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>85.8380742469101</v>
+      </c>
+      <c r="X18">
+        <v>5699.499194083693</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0.1150350893039983</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>64.25376443860371</v>
+      </c>
+      <c r="AD18">
+        <v>50.07596206108703</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>64.44804289493577</v>
+      </c>
+      <c r="AI18">
+        <v>3.11285511124936</v>
+      </c>
+      <c r="AJ18">
         <v>2.875</v>
       </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:38">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B19">
         <v>40.258036</v>
@@ -1996,16 +2950,31 @@
         <v>266.6666666666667</v>
       </c>
       <c r="L19" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>2.427816901408451</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>2.525</v>
+        <v>0</v>
       </c>
       <c r="U19">
         <v>94.44333333333333</v>
@@ -2049,10 +3018,22 @@
       <c r="AH19">
         <v>73.64</v>
       </c>
+      <c r="AI19">
+        <v>3.770245398605707</v>
+      </c>
+      <c r="AJ19">
+        <v>2.427816901408451</v>
+      </c>
+      <c r="AK19">
+        <v>2.15</v>
+      </c>
+      <c r="AL19">
+        <v>2.525</v>
+      </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:38">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>40.637986</v>
@@ -2085,16 +3066,31 @@
         <v>548.8888888888889</v>
       </c>
       <c r="L20" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>2.520063597819503</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>2.775</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="U20">
         <v>96.36833333333333</v>
@@ -2138,10 +3134,22 @@
       <c r="AH20">
         <v>87.04000000000001</v>
       </c>
+      <c r="AI20">
+        <v>4.486491384664838</v>
+      </c>
+      <c r="AJ20">
+        <v>2.520063597819503</v>
+      </c>
+      <c r="AK20">
+        <v>2.775</v>
+      </c>
+      <c r="AL20">
+        <v>3.35</v>
+      </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:38">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B21">
         <v>40.325814</v>
@@ -2174,21 +3182,90 @@
         <v>348.8076923076923</v>
       </c>
       <c r="L21" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
       </c>
       <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>94.2943036745001</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>85.8380742469101</v>
+      </c>
+      <c r="X21">
+        <v>5699.499194083693</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0.1150350893039983</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>64.25376443860371</v>
+      </c>
+      <c r="AD21">
+        <v>50.07596206108703</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>64.44804289493577</v>
+      </c>
+      <c r="AI21">
+        <v>3.11285511124936</v>
+      </c>
+      <c r="AJ21">
         <v>2.625</v>
       </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:38">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B22">
         <v>40.555697</v>
@@ -2221,21 +3298,90 @@
         <v>456.8181818181818</v>
       </c>
       <c r="L22" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
       </c>
       <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>94.2943036745001</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>85.8380742469101</v>
+      </c>
+      <c r="X22">
+        <v>5699.499194083693</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0.1150350893039983</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>64.25376443860371</v>
+      </c>
+      <c r="AD22">
+        <v>50.07596206108703</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>64.44804289493577</v>
+      </c>
+      <c r="AI22">
+        <v>3.11285511124936</v>
+      </c>
+      <c r="AJ22">
         <v>2.375</v>
       </c>
-      <c r="S22">
+      <c r="AK22">
         <v>1.85</v>
       </c>
-      <c r="T22">
+      <c r="AL22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:38">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B23">
         <v>40.315621</v>
@@ -2268,7 +3414,22 @@
         <v>195</v>
       </c>
       <c r="L23" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -2279,10 +3440,64 @@
       <c r="T23">
         <v>0</v>
       </c>
+      <c r="U23">
+        <v>94.2943036745001</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>85.8380742469101</v>
+      </c>
+      <c r="X23">
+        <v>5699.499194083693</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0.1150350893039983</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>64.25376443860371</v>
+      </c>
+      <c r="AD23">
+        <v>50.07596206108703</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>64.44804289493577</v>
+      </c>
+      <c r="AI23">
+        <v>3.11285511124936</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:38">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B24">
         <v>40.556113</v>
@@ -2315,7 +3530,22 @@
         <v>376.1538461538461</v>
       </c>
       <c r="L24" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -2326,10 +3556,64 @@
       <c r="T24">
         <v>0</v>
       </c>
+      <c r="U24">
+        <v>94.2943036745001</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>85.8380742469101</v>
+      </c>
+      <c r="X24">
+        <v>5699.499194083693</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0.1150350893039983</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>64.25376443860371</v>
+      </c>
+      <c r="AD24">
+        <v>50.07596206108703</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>64.44804289493577</v>
+      </c>
+      <c r="AI24">
+        <v>3.11285511124936</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:38">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B25">
         <v>40.562602</v>
@@ -2355,11 +3639,29 @@
       <c r="I25">
         <v>875</v>
       </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
       <c r="K25">
         <v>437.5</v>
       </c>
       <c r="L25" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -2370,10 +3672,64 @@
       <c r="T25">
         <v>0</v>
       </c>
+      <c r="U25">
+        <v>94.2943036745001</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>85.8380742469101</v>
+      </c>
+      <c r="X25">
+        <v>5699.499194083693</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0.1150350893039983</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>64.25376443860371</v>
+      </c>
+      <c r="AD25">
+        <v>50.07596206108703</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>64.44804289493577</v>
+      </c>
+      <c r="AI25">
+        <v>3.11285511124936</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:38">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B26">
         <v>40.56389</v>
@@ -2406,16 +3762,31 @@
         <v>920</v>
       </c>
       <c r="L26" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>3.875</v>
+        <v>1</v>
       </c>
       <c r="S26">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="U26">
         <v>96</v>
@@ -2459,10 +3830,22 @@
       <c r="AH26">
         <v>82.64</v>
       </c>
+      <c r="AI26">
+        <v>4.521425067448757</v>
+      </c>
+      <c r="AJ26">
+        <v>3.875</v>
+      </c>
+      <c r="AK26">
+        <v>2.45</v>
+      </c>
+      <c r="AL26">
+        <v>1.025</v>
+      </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:38">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B27">
         <v>40.358656</v>
@@ -2495,16 +3878,31 @@
         <v>351.1764705882353</v>
       </c>
       <c r="L27" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>2.553571428571429</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>2.075</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>2.516666666666667</v>
+        <v>0</v>
       </c>
       <c r="U27">
         <v>95.46714285714287</v>
@@ -2548,10 +3946,22 @@
       <c r="AH27">
         <v>81.464</v>
       </c>
+      <c r="AI27">
+        <v>4.095908181790192</v>
+      </c>
+      <c r="AJ27">
+        <v>2.553571428571429</v>
+      </c>
+      <c r="AK27">
+        <v>2.075</v>
+      </c>
+      <c r="AL27">
+        <v>2.516666666666667</v>
+      </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:38">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B28">
         <v>40.191166</v>
@@ -2584,16 +3994,31 @@
         <v>1602.5</v>
       </c>
       <c r="L28" t="s">
-        <v>59</v>
+        <v>63</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>2.408333333333333</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>1.766666666666667</v>
+        <v>0</v>
       </c>
       <c r="U28">
         <v>93.13333333333333</v>
@@ -2637,10 +4062,22 @@
       <c r="AH28">
         <v>68.63</v>
       </c>
+      <c r="AI28">
+        <v>3.506650037954866</v>
+      </c>
+      <c r="AJ28">
+        <v>2.408333333333333</v>
+      </c>
+      <c r="AK28">
+        <v>2.95</v>
+      </c>
+      <c r="AL28">
+        <v>1.766666666666667</v>
+      </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:38">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B29">
         <v>40.356339</v>
@@ -2673,7 +4110,22 @@
         <v>750</v>
       </c>
       <c r="L29" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -2684,10 +4136,64 @@
       <c r="T29">
         <v>0</v>
       </c>
+      <c r="U29">
+        <v>94.2943036745001</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>85.8380742469101</v>
+      </c>
+      <c r="X29">
+        <v>5699.499194083693</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0.1150350893039983</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>64.25376443860371</v>
+      </c>
+      <c r="AD29">
+        <v>50.07596206108703</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>64.44804289493577</v>
+      </c>
+      <c r="AI29">
+        <v>3.11285511124936</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:38">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B30">
         <v>40.644035</v>
@@ -2720,16 +4226,31 @@
         <v>399.2982456140351</v>
       </c>
       <c r="L30" t="s">
-        <v>61</v>
+        <v>65</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>2.323529411764706</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>2.075</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>2.3625</v>
+        <v>0</v>
       </c>
       <c r="U30">
         <v>92.42666666666666</v>
@@ -2773,10 +4294,22 @@
       <c r="AH30">
         <v>42.345</v>
       </c>
+      <c r="AI30">
+        <v>2.556182971506452</v>
+      </c>
+      <c r="AJ30">
+        <v>2.323529411764706</v>
+      </c>
+      <c r="AK30">
+        <v>2.075</v>
+      </c>
+      <c r="AL30">
+        <v>2.3625</v>
+      </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:38">
       <c r="A31" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B31">
         <v>40.557191</v>
@@ -2809,16 +4342,31 @@
         <v>582.1549295774648</v>
       </c>
       <c r="L31" t="s">
-        <v>62</v>
+        <v>66</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>2.761688668866887</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>2.391666666666667</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>3.383333333333333</v>
+        <v>0</v>
       </c>
       <c r="U31">
         <v>94.56571428571429</v>
@@ -2862,10 +4410,22 @@
       <c r="AH31">
         <v>59.552</v>
       </c>
+      <c r="AI31">
+        <v>3.263235550457299</v>
+      </c>
+      <c r="AJ31">
+        <v>2.761688668866887</v>
+      </c>
+      <c r="AK31">
+        <v>2.391666666666667</v>
+      </c>
+      <c r="AL31">
+        <v>3.383333333333333</v>
+      </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:38">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B32">
         <v>40.412105</v>
@@ -2898,7 +4458,7 @@
         <v>333.8</v>
       </c>
       <c r="L32" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -2906,14 +4466,23 @@
       <c r="N32">
         <v>1</v>
       </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
       <c r="R32">
-        <v>2.588740458015267</v>
+        <v>1</v>
       </c>
       <c r="S32">
-        <v>1.883333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="T32">
-        <v>2.35</v>
+        <v>0.0008351079377009478</v>
       </c>
       <c r="U32">
         <v>95.23500000000001</v>
@@ -2957,10 +4526,22 @@
       <c r="AH32">
         <v>89.88</v>
       </c>
+      <c r="AI32">
+        <v>3.215462777348977</v>
+      </c>
+      <c r="AJ32">
+        <v>2.588740458015267</v>
+      </c>
+      <c r="AK32">
+        <v>1.883333333333333</v>
+      </c>
+      <c r="AL32">
+        <v>2.35</v>
+      </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:38">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B33">
         <v>40.586037</v>
@@ -2986,25 +4567,97 @@
       <c r="I33">
         <v>700</v>
       </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
       <c r="K33">
         <v>350</v>
       </c>
       <c r="L33" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
       </c>
       <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>94.2943036745001</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>85.8380742469101</v>
+      </c>
+      <c r="X33">
+        <v>5699.499194083693</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0.1150350893039983</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>64.25376443860371</v>
+      </c>
+      <c r="AD33">
+        <v>50.07596206108703</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>64.44804289493577</v>
+      </c>
+      <c r="AI33">
+        <v>3.11285511124936</v>
+      </c>
+      <c r="AJ33">
         <v>2.875</v>
       </c>
-      <c r="S33">
+      <c r="AK33">
         <v>2.35</v>
       </c>
-      <c r="T33">
+      <c r="AL33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:38">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B34">
         <v>40.607346</v>
@@ -3030,25 +4683,97 @@
       <c r="I34">
         <v>812.5</v>
       </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
       <c r="K34">
         <v>406.25</v>
       </c>
       <c r="L34" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
       </c>
       <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>94.2943036745001</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>85.8380742469101</v>
+      </c>
+      <c r="X34">
+        <v>5699.499194083693</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0.1150350893039983</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>64.25376443860371</v>
+      </c>
+      <c r="AD34">
+        <v>50.07596206108703</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>64.44804289493577</v>
+      </c>
+      <c r="AI34">
+        <v>3.11285511124936</v>
+      </c>
+      <c r="AJ34">
         <v>2.909883720930233</v>
       </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
         <v>2.266666666666667</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:38">
       <c r="A35" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B35">
         <v>40.377841</v>
@@ -3074,25 +4799,97 @@
       <c r="I35">
         <v>1200</v>
       </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
       <c r="K35">
         <v>600</v>
       </c>
       <c r="L35" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
       </c>
       <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>94.2943036745001</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>85.8380742469101</v>
+      </c>
+      <c r="X35">
+        <v>5699.499194083693</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0.1150350893039983</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>64.25376443860371</v>
+      </c>
+      <c r="AD35">
+        <v>50.07596206108703</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>64.44804289493577</v>
+      </c>
+      <c r="AI35">
+        <v>3.11285511124936</v>
+      </c>
+      <c r="AJ35">
         <v>2.875</v>
       </c>
-      <c r="S35">
+      <c r="AK35">
         <v>2.1</v>
       </c>
-      <c r="T35">
+      <c r="AL35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:38">
       <c r="A36" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B36">
         <v>40.62859</v>
@@ -3125,16 +4922,31 @@
         <v>425</v>
       </c>
       <c r="L36" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>2.344938335046248</v>
+        <v>0</v>
       </c>
       <c r="S36">
-        <v>2.51875</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>2.433333333333333</v>
+        <v>0</v>
       </c>
       <c r="U36">
         <v>94.80500000000001</v>
@@ -3178,10 +4990,22 @@
       <c r="AH36">
         <v>64.70999999999999</v>
       </c>
+      <c r="AI36">
+        <v>2.513839038512927</v>
+      </c>
+      <c r="AJ36">
+        <v>2.344938335046248</v>
+      </c>
+      <c r="AK36">
+        <v>2.51875</v>
+      </c>
+      <c r="AL36">
+        <v>2.433333333333333</v>
+      </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:38">
       <c r="A37" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B37">
         <v>40.385735</v>
@@ -3199,28 +5023,43 @@
         <v>17666.67</v>
       </c>
       <c r="G37">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H37">
-        <v>2.4</v>
+        <v>2.363636363636364</v>
       </c>
       <c r="I37">
-        <v>732.5</v>
+        <v>711.3636363636364</v>
       </c>
       <c r="J37">
         <v>1200</v>
       </c>
       <c r="K37">
-        <v>305.2083333333333</v>
+        <v>300.9615384615385</v>
       </c>
       <c r="L37" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>2.875</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>2.325</v>
+        <v>0</v>
       </c>
       <c r="T37">
         <v>0</v>
@@ -3267,10 +5106,22 @@
       <c r="AH37">
         <v>83.06</v>
       </c>
+      <c r="AI37">
+        <v>2.95364541333151</v>
+      </c>
+      <c r="AJ37">
+        <v>2.875</v>
+      </c>
+      <c r="AK37">
+        <v>2.325</v>
+      </c>
+      <c r="AL37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:38">
       <c r="A38" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B38">
         <v>40.674947</v>
@@ -3303,21 +5154,90 @@
         <v>1029.0625</v>
       </c>
       <c r="L38" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
       </c>
       <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>94.2943036745001</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>85.8380742469101</v>
+      </c>
+      <c r="X38">
+        <v>5699.499194083693</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0.1150350893039983</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>64.25376443860371</v>
+      </c>
+      <c r="AD38">
+        <v>50.07596206108703</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>64.44804289493577</v>
+      </c>
+      <c r="AI38">
+        <v>3.11285511124936</v>
+      </c>
+      <c r="AJ38">
         <v>2.684065934065934</v>
       </c>
-      <c r="S38">
+      <c r="AK38">
         <v>2.2</v>
       </c>
-      <c r="T38">
+      <c r="AL38">
         <v>2.45</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:38">
       <c r="A39" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B39">
         <v>40.272147</v>
@@ -3350,21 +5270,90 @@
         <v>389.4166666666667</v>
       </c>
       <c r="L39" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
       </c>
       <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>94.2943036745001</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>85.8380742469101</v>
+      </c>
+      <c r="X39">
+        <v>5699.499194083693</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0.1150350893039983</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>64.25376443860371</v>
+      </c>
+      <c r="AD39">
+        <v>50.07596206108703</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>64.44804289493577</v>
+      </c>
+      <c r="AI39">
+        <v>3.11285511124936</v>
+      </c>
+      <c r="AJ39">
         <v>2.875</v>
       </c>
-      <c r="S39">
+      <c r="AK39">
         <v>2.325</v>
       </c>
-      <c r="T39">
+      <c r="AL39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:38">
       <c r="A40" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B40">
         <v>40.225233</v>
@@ -3397,16 +5386,31 @@
         <v>232.2222222222222</v>
       </c>
       <c r="L40" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>2.435240963855422</v>
+        <v>0</v>
       </c>
       <c r="S40">
-        <v>2.075</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="U40">
         <v>95.97</v>
@@ -3450,10 +5454,22 @@
       <c r="AH40">
         <v>82.5</v>
       </c>
+      <c r="AI40">
+        <v>2.888810475854972</v>
+      </c>
+      <c r="AJ40">
+        <v>2.435240963855422</v>
+      </c>
+      <c r="AK40">
+        <v>2.075</v>
+      </c>
+      <c r="AL40">
+        <v>1.7</v>
+      </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:38">
       <c r="A41" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B41">
         <v>40.625015</v>
@@ -3486,25 +5502,31 @@
         <v>944.2125984251968</v>
       </c>
       <c r="L41" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M41">
         <v>1</v>
       </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
       <c r="O41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P41">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>2.876947419668939</v>
+        <v>3</v>
       </c>
       <c r="S41">
-        <v>2.872727272727273</v>
+        <v>1.225</v>
       </c>
       <c r="T41">
-        <v>4.316666666666666</v>
+        <v>0.005115036118418305</v>
       </c>
       <c r="U41">
         <v>95.218</v>
@@ -3548,10 +5570,22 @@
       <c r="AH41">
         <v>73.595</v>
       </c>
+      <c r="AI41">
+        <v>3.906693737514266</v>
+      </c>
+      <c r="AJ41">
+        <v>2.876947419668939</v>
+      </c>
+      <c r="AK41">
+        <v>2.872727272727273</v>
+      </c>
+      <c r="AL41">
+        <v>4.316666666666666</v>
+      </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:38">
       <c r="A42" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B42">
         <v>40.580328</v>
@@ -3584,16 +5618,31 @@
         <v>541.1891891891892</v>
       </c>
       <c r="L42" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>3.603668941979522</v>
+        <v>0</v>
       </c>
       <c r="S42">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="T42">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="U42">
         <v>96.26000000000001</v>
@@ -3637,10 +5686,22 @@
       <c r="AH42">
         <v>87.35799999999999</v>
       </c>
+      <c r="AI42">
+        <v>4.427803282278976</v>
+      </c>
+      <c r="AJ42">
+        <v>3.603668941979522</v>
+      </c>
+      <c r="AK42">
+        <v>2.1</v>
+      </c>
+      <c r="AL42">
+        <v>2.2</v>
+      </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:38">
       <c r="A43" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B43">
         <v>40.32135</v>
@@ -3673,19 +5734,31 @@
         <v>584.0273224043716</v>
       </c>
       <c r="L43" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
       </c>
       <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
         <v>2</v>
       </c>
-      <c r="R43">
-        <v>2.823051948051948</v>
-      </c>
       <c r="S43">
-        <v>1.9625</v>
+        <v>0.15</v>
       </c>
       <c r="T43">
-        <v>3.383333333333333</v>
+        <v>0.0006263309532757108</v>
       </c>
       <c r="U43">
         <v>96.05999999999999</v>
@@ -3729,10 +5802,22 @@
       <c r="AH43">
         <v>85.62666666666668</v>
       </c>
+      <c r="AI43">
+        <v>4.246836232849097</v>
+      </c>
+      <c r="AJ43">
+        <v>2.823051948051948</v>
+      </c>
+      <c r="AK43">
+        <v>1.9625</v>
+      </c>
+      <c r="AL43">
+        <v>3.383333333333333</v>
+      </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:38">
       <c r="A44" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B44">
         <v>40.403883</v>
@@ -3765,7 +5850,7 @@
         <v>322.7272727272727</v>
       </c>
       <c r="L44" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M44">
         <v>3</v>
@@ -3774,24 +5859,81 @@
         <v>2</v>
       </c>
       <c r="O44">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R44">
+        <v>9</v>
+      </c>
+      <c r="S44">
+        <v>2.875</v>
+      </c>
+      <c r="T44">
+        <v>0.01200467660445112</v>
+      </c>
+      <c r="U44">
+        <v>94.2943036745001</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>85.8380742469101</v>
+      </c>
+      <c r="X44">
+        <v>5699.499194083693</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0.1150350893039983</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>64.25376443860371</v>
+      </c>
+      <c r="AD44">
+        <v>50.07596206108703</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <v>64.44804289493577</v>
+      </c>
+      <c r="AI44">
+        <v>3.11285511124936</v>
+      </c>
+      <c r="AJ44">
         <v>2.740994236311239</v>
       </c>
-      <c r="S44">
+      <c r="AK44">
         <v>2.55</v>
       </c>
-      <c r="T44">
+      <c r="AL44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:38">
       <c r="A45" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B45">
         <v>40.41012</v>
@@ -3812,19 +5954,19 @@
         <v>120</v>
       </c>
       <c r="H45">
-        <v>2.705357142857143</v>
+        <v>2.723214285714286</v>
       </c>
       <c r="I45">
-        <v>585</v>
+        <v>594.6902654867257</v>
       </c>
       <c r="J45">
         <v>1331.625</v>
       </c>
       <c r="K45">
-        <v>218.1683168316832</v>
+        <v>220.327868852459</v>
       </c>
       <c r="L45" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M45">
         <v>3</v>
@@ -3832,17 +5974,23 @@
       <c r="N45">
         <v>3</v>
       </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
       <c r="P45">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>3.184674502712477</v>
+        <v>10</v>
       </c>
       <c r="S45">
-        <v>2.705555555555556</v>
+        <v>0.6250000000000001</v>
       </c>
       <c r="T45">
-        <v>3.292857142857143</v>
+        <v>0.002609712305315462</v>
       </c>
       <c r="U45">
         <v>94.09999999999999</v>
@@ -3886,10 +6034,22 @@
       <c r="AH45">
         <v>69.16</v>
       </c>
+      <c r="AI45">
+        <v>3.084238467483958</v>
+      </c>
+      <c r="AJ45">
+        <v>3.184674502712477</v>
+      </c>
+      <c r="AK45">
+        <v>2.705555555555556</v>
+      </c>
+      <c r="AL45">
+        <v>3.292857142857143</v>
+      </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:38">
       <c r="A46" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B46">
         <v>40.500472</v>
@@ -3910,28 +6070,43 @@
         <v>120</v>
       </c>
       <c r="H46">
-        <v>1.611111111111111</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="I46">
-        <v>855.957627118644</v>
+        <v>849.8559322033898</v>
       </c>
       <c r="J46">
-        <v>975.7755102040817</v>
+        <v>944.9574468085107</v>
       </c>
       <c r="K46">
-        <v>580.4770114942529</v>
+        <v>586.4502923976609</v>
       </c>
       <c r="L46" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>2.891315519013361</v>
+        <v>3</v>
       </c>
       <c r="S46">
-        <v>3.216666666666667</v>
+        <v>0</v>
       </c>
       <c r="T46">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="U46">
         <v>95.37909090909092</v>
@@ -3975,10 +6150,22 @@
       <c r="AH46">
         <v>80.33</v>
       </c>
+      <c r="AI46">
+        <v>3.628818583932497</v>
+      </c>
+      <c r="AJ46">
+        <v>2.891315519013361</v>
+      </c>
+      <c r="AK46">
+        <v>3.216666666666667</v>
+      </c>
+      <c r="AL46">
+        <v>3.15</v>
+      </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:38">
       <c r="A47" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B47">
         <v>40.373461</v>
@@ -4011,25 +6198,31 @@
         <v>330.2</v>
       </c>
       <c r="L47" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M47">
         <v>1</v>
       </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
       <c r="O47">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R47">
-        <v>1.125</v>
+        <v>2</v>
       </c>
       <c r="S47">
-        <v>0.6</v>
+        <v>1.275</v>
       </c>
       <c r="T47">
-        <v>0.7</v>
+        <v>0.005323813102843541</v>
       </c>
       <c r="U47">
         <v>92</v>
@@ -4073,10 +6266,22 @@
       <c r="AH47">
         <v>32.08</v>
       </c>
+      <c r="AI47">
+        <v>1.441242518784223</v>
+      </c>
+      <c r="AJ47">
+        <v>1.125</v>
+      </c>
+      <c r="AK47">
+        <v>0.6</v>
+      </c>
+      <c r="AL47">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:38">
       <c r="A48" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B48">
         <v>40.404484</v>
@@ -4109,21 +6314,90 @@
         <v>426.6363636363636</v>
       </c>
       <c r="L48" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
       </c>
       <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>94.2943036745001</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>85.8380742469101</v>
+      </c>
+      <c r="X48">
+        <v>5699.499194083693</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0.1150350893039983</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>64.25376443860371</v>
+      </c>
+      <c r="AD48">
+        <v>50.07596206108703</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>64.44804289493577</v>
+      </c>
+      <c r="AI48">
+        <v>3.11285511124936</v>
+      </c>
+      <c r="AJ48">
         <v>2.625</v>
       </c>
-      <c r="S48">
+      <c r="AK48">
         <v>1.825</v>
       </c>
-      <c r="T48">
+      <c r="AL48">
         <v>2.2</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:38">
       <c r="A49" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B49">
         <v>40.526032</v>
@@ -4156,22 +6430,31 @@
         <v>528.2142857142857</v>
       </c>
       <c r="L49" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M49">
         <v>1</v>
       </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
       <c r="O49">
+        <v>2</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
         <v>1</v>
       </c>
-      <c r="R49">
-        <v>3.002934272300469</v>
-      </c>
       <c r="S49">
-        <v>2.075</v>
+        <v>1.2</v>
       </c>
       <c r="T49">
-        <v>1.95</v>
+        <v>0.005010647626205686</v>
       </c>
       <c r="U49">
         <v>95.65333333333332</v>
@@ -4215,10 +6498,22 @@
       <c r="AH49">
         <v>69.15000000000001</v>
       </c>
+      <c r="AI49">
+        <v>2.679708579968819</v>
+      </c>
+      <c r="AJ49">
+        <v>3.002934272300469</v>
+      </c>
+      <c r="AK49">
+        <v>2.075</v>
+      </c>
+      <c r="AL49">
+        <v>1.95</v>
+      </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:38">
       <c r="A50" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B50">
         <v>40.395872</v>
@@ -4236,22 +6531,22 @@
         <v>27695.83</v>
       </c>
       <c r="G50">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H50">
-        <v>2.243243243243243</v>
+        <v>2.205128205128205</v>
       </c>
       <c r="I50">
-        <v>811.5116279069767</v>
+        <v>803.5555555555555</v>
       </c>
       <c r="J50">
-        <v>1228.181818181818</v>
+        <v>1211.739130434783</v>
       </c>
       <c r="K50">
-        <v>420.421686746988</v>
+        <v>420.4651162790698</v>
       </c>
       <c r="L50" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M50">
         <v>5</v>
@@ -4260,22 +6555,22 @@
         <v>4</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P50">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="Q50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R50">
-        <v>2.582759325658929</v>
+        <v>18</v>
       </c>
       <c r="S50">
-        <v>3.921428571428572</v>
+        <v>2.3625</v>
       </c>
       <c r="T50">
-        <v>2.516666666666667</v>
+        <v>0.009864712514092447</v>
       </c>
       <c r="U50">
         <v>91.65599999999999</v>
@@ -4319,10 +6614,22 @@
       <c r="AH50">
         <v>47.88000000000001</v>
       </c>
+      <c r="AI50">
+        <v>2.755082105300075</v>
+      </c>
+      <c r="AJ50">
+        <v>2.582759325658929</v>
+      </c>
+      <c r="AK50">
+        <v>3.921428571428572</v>
+      </c>
+      <c r="AL50">
+        <v>2.516666666666667</v>
+      </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:38">
       <c r="A51" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B51">
         <v>40.361206</v>
@@ -4340,40 +6647,46 @@
         <v>38525</v>
       </c>
       <c r="G51">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H51">
-        <v>2.289473684210526</v>
+        <v>2.282051282051282</v>
       </c>
       <c r="I51">
-        <v>774.3255813953489</v>
+        <v>771.8409090909091</v>
       </c>
       <c r="J51">
         <v>995.6666666666666</v>
       </c>
       <c r="K51">
-        <v>382.7126436781609</v>
+        <v>381.5842696629214</v>
       </c>
       <c r="L51" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M51">
         <v>2</v>
       </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
       <c r="O51">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R51">
-        <v>2.565662582255503</v>
+        <v>9</v>
       </c>
       <c r="S51">
-        <v>2.308333333333333</v>
+        <v>2.475</v>
       </c>
       <c r="T51">
-        <v>2.575</v>
+        <v>0.01033446072904923</v>
       </c>
       <c r="U51">
         <v>92.63800000000001</v>
@@ -4417,10 +6730,22 @@
       <c r="AH51">
         <v>56.21</v>
       </c>
+      <c r="AI51">
+        <v>3.429753272477957</v>
+      </c>
+      <c r="AJ51">
+        <v>2.565662582255503</v>
+      </c>
+      <c r="AK51">
+        <v>2.308333333333333</v>
+      </c>
+      <c r="AL51">
+        <v>2.575</v>
+      </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:38">
       <c r="A52" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B52">
         <v>40.462479</v>
@@ -4453,16 +6778,31 @@
         <v>407.7777777777778</v>
       </c>
       <c r="L52" t="s">
-        <v>83</v>
+        <v>87</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>2.625</v>
+        <v>0</v>
       </c>
       <c r="S52">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="T52">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="U52">
         <v>94.45</v>
@@ -4506,10 +6846,22 @@
       <c r="AH52">
         <v>78.91666666666667</v>
       </c>
+      <c r="AI52">
+        <v>4.104888976073238</v>
+      </c>
+      <c r="AJ52">
+        <v>2.625</v>
+      </c>
+      <c r="AK52">
+        <v>2.1</v>
+      </c>
+      <c r="AL52">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:38">
       <c r="A53" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B53">
         <v>40.293248</v>
@@ -4542,13 +6894,28 @@
         <v>618.6555555555556</v>
       </c>
       <c r="L53" t="s">
-        <v>84</v>
+        <v>88</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
       </c>
       <c r="R53">
-        <v>2.381993006993007</v>
+        <v>1</v>
       </c>
       <c r="S53">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -4595,10 +6962,22 @@
       <c r="AH53">
         <v>70.67333333333333</v>
       </c>
+      <c r="AI53">
+        <v>3.284330172183959</v>
+      </c>
+      <c r="AJ53">
+        <v>2.381993006993007</v>
+      </c>
+      <c r="AK53">
+        <v>2.05</v>
+      </c>
+      <c r="AL53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:38">
       <c r="A54" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B54">
         <v>40.338791</v>
@@ -4616,31 +6995,46 @@
         <v>39241.67</v>
       </c>
       <c r="G54">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H54">
-        <v>2.421052631578947</v>
+        <v>2.435897435897436</v>
       </c>
       <c r="I54">
-        <v>822.1891891891892</v>
+        <v>822.2631578947369</v>
       </c>
       <c r="J54">
         <v>961.9411764705883</v>
       </c>
       <c r="K54">
-        <v>330.6630434782609</v>
+        <v>328.9052631578948</v>
       </c>
       <c r="L54" t="s">
-        <v>85</v>
+        <v>89</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>2.341981132075472</v>
+        <v>1</v>
       </c>
       <c r="S54">
-        <v>1.575</v>
+        <v>0</v>
       </c>
       <c r="T54">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="U54">
         <v>91.15000000000001</v>
@@ -4684,10 +7078,22 @@
       <c r="AH54">
         <v>41.18</v>
       </c>
+      <c r="AI54">
+        <v>1.917332187267602</v>
+      </c>
+      <c r="AJ54">
+        <v>2.341981132075472</v>
+      </c>
+      <c r="AK54">
+        <v>1.575</v>
+      </c>
+      <c r="AL54">
+        <v>2.15</v>
+      </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:38">
       <c r="A55" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B55">
         <v>40.339767</v>
@@ -4720,7 +7126,7 @@
         <v>376.7414965986395</v>
       </c>
       <c r="L55" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M55">
         <v>3</v>
@@ -4729,16 +7135,22 @@
         <v>2</v>
       </c>
       <c r="O55">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
       </c>
       <c r="R55">
-        <v>2.196428571428571</v>
+        <v>7</v>
       </c>
       <c r="S55">
-        <v>2.2125</v>
+        <v>1.6</v>
       </c>
       <c r="T55">
-        <v>0.7</v>
+        <v>0.006680863501607582</v>
       </c>
       <c r="U55">
         <v>91.02333333333333</v>
@@ -4782,10 +7194,22 @@
       <c r="AH55">
         <v>46.76799999999999</v>
       </c>
+      <c r="AI55">
+        <v>2.641652559618044</v>
+      </c>
+      <c r="AJ55">
+        <v>2.196428571428571</v>
+      </c>
+      <c r="AK55">
+        <v>2.2125</v>
+      </c>
+      <c r="AL55">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:38">
       <c r="A56" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B56">
         <v>40.326747</v>
@@ -4811,17 +7235,35 @@
       <c r="I56">
         <v>600</v>
       </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
       <c r="K56">
         <v>240</v>
       </c>
       <c r="L56" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>2.75</v>
+        <v>1</v>
       </c>
       <c r="S56">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -4868,10 +7310,22 @@
       <c r="AH56">
         <v>64.22499999999999</v>
       </c>
+      <c r="AI56">
+        <v>3.098222079716422</v>
+      </c>
+      <c r="AJ56">
+        <v>2.75</v>
+      </c>
+      <c r="AK56">
+        <v>2.45</v>
+      </c>
+      <c r="AL56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:38">
       <c r="A57" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B57">
         <v>40.310836</v>
@@ -4904,16 +7358,31 @@
         <v>479.1304347826087</v>
       </c>
       <c r="L57" t="s">
-        <v>88</v>
+        <v>92</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
       </c>
       <c r="R57">
-        <v>2.329545454545455</v>
+        <v>0</v>
       </c>
       <c r="S57">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="T57">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="U57">
         <v>94.90000000000001</v>
@@ -4957,10 +7426,22 @@
       <c r="AH57">
         <v>76.67</v>
       </c>
+      <c r="AI57">
+        <v>2.996734771135817</v>
+      </c>
+      <c r="AJ57">
+        <v>2.329545454545455</v>
+      </c>
+      <c r="AK57">
+        <v>1.35</v>
+      </c>
+      <c r="AL57">
+        <v>2.2</v>
+      </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:38">
       <c r="A58" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B58">
         <v>40.46348</v>
@@ -4993,7 +7474,7 @@
         <v>438.1547619047619</v>
       </c>
       <c r="L58" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M58">
         <v>12</v>
@@ -5002,22 +7483,22 @@
         <v>9</v>
       </c>
       <c r="O58">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P58">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q58">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R58">
-        <v>3.007459564974902</v>
+        <v>29</v>
       </c>
       <c r="S58">
-        <v>2.842857142857143</v>
+        <v>8.35</v>
       </c>
       <c r="T58">
-        <v>1.933333333333333</v>
+        <v>0.03486575639901457</v>
       </c>
       <c r="U58">
         <v>92.38500000000001</v>
@@ -5061,10 +7542,22 @@
       <c r="AH58">
         <v>50.7425</v>
       </c>
+      <c r="AI58">
+        <v>2.598751934598425</v>
+      </c>
+      <c r="AJ58">
+        <v>3.007459564974902</v>
+      </c>
+      <c r="AK58">
+        <v>2.842857142857143</v>
+      </c>
+      <c r="AL58">
+        <v>1.933333333333333</v>
+      </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:38">
       <c r="A59" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B59">
         <v>40.375736</v>
@@ -5097,7 +7590,7 @@
         <v>371.7105263157895</v>
       </c>
       <c r="L59" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M59">
         <v>1</v>
@@ -5105,17 +7598,23 @@
       <c r="N59">
         <v>1</v>
       </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
       <c r="P59">
-        <v>1</v>
+        <v>0.25</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
       </c>
       <c r="R59">
-        <v>2.229895104895105</v>
+        <v>3</v>
       </c>
       <c r="S59">
-        <v>2.05</v>
+        <v>0.2125</v>
       </c>
       <c r="T59">
-        <v>1.933333333333333</v>
+        <v>0.0008873021838072571</v>
       </c>
       <c r="U59">
         <v>91.66500000000001</v>
@@ -5159,10 +7658,22 @@
       <c r="AH59">
         <v>46.075</v>
       </c>
+      <c r="AI59">
+        <v>2.577357146953149</v>
+      </c>
+      <c r="AJ59">
+        <v>2.229895104895105</v>
+      </c>
+      <c r="AK59">
+        <v>2.05</v>
+      </c>
+      <c r="AL59">
+        <v>1.933333333333333</v>
+      </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:38">
       <c r="A60" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B60">
         <v>40.522823</v>
@@ -5195,16 +7706,31 @@
         <v>574.2068965517242</v>
       </c>
       <c r="L60" t="s">
-        <v>91</v>
+        <v>95</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>2.705579501915709</v>
+        <v>0</v>
       </c>
       <c r="S60">
-        <v>2.266666666666667</v>
+        <v>0</v>
       </c>
       <c r="T60">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="U60">
         <v>95.03999999999999</v>
@@ -5248,10 +7774,22 @@
       <c r="AH60">
         <v>77.255</v>
       </c>
+      <c r="AI60">
+        <v>3.854245376581072</v>
+      </c>
+      <c r="AJ60">
+        <v>2.705579501915709</v>
+      </c>
+      <c r="AK60">
+        <v>2.266666666666667</v>
+      </c>
+      <c r="AL60">
+        <v>2.65</v>
+      </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:38">
       <c r="A61" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B61">
         <v>40.407779</v>
@@ -5269,31 +7807,46 @@
         <v>17666.67</v>
       </c>
       <c r="G61">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H61">
-        <v>2.1</v>
+        <v>2.103448275862069</v>
       </c>
       <c r="I61">
-        <v>683.4166666666666</v>
+        <v>855.0857142857143</v>
       </c>
       <c r="J61">
         <v>1100</v>
       </c>
       <c r="K61">
-        <v>390.5238095238095</v>
+        <v>490.6229508196722</v>
       </c>
       <c r="L61" t="s">
-        <v>92</v>
+        <v>96</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
       </c>
       <c r="R61">
         <v>0</v>
       </c>
       <c r="S61">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="T61">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="U61">
         <v>97.09</v>
@@ -5337,10 +7890,22 @@
       <c r="AH61">
         <v>43.08</v>
       </c>
+      <c r="AI61">
+        <v>2.078822247481924</v>
+      </c>
+      <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>2.6</v>
+      </c>
+      <c r="AL61">
+        <v>2.2</v>
+      </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:38">
       <c r="A62" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B62">
         <v>40.382059</v>
@@ -5373,21 +7938,90 @@
         <v>1333.333333333333</v>
       </c>
       <c r="L62" t="s">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
       </c>
       <c r="R62">
         <v>0</v>
       </c>
       <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>94.2943036745001</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>85.8380742469101</v>
+      </c>
+      <c r="X62">
+        <v>5699.499194083693</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0.1150350893039983</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <v>64.25376443860371</v>
+      </c>
+      <c r="AD62">
+        <v>50.07596206108703</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
+      <c r="AF62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
+        <v>0</v>
+      </c>
+      <c r="AH62">
+        <v>64.44804289493577</v>
+      </c>
+      <c r="AI62">
+        <v>3.11285511124936</v>
+      </c>
+      <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
         <v>2.6</v>
       </c>
-      <c r="T62">
+      <c r="AL62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:38">
       <c r="A63" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B63">
         <v>40.565935</v>
@@ -5420,7 +8054,7 @@
         <v>726.6981132075472</v>
       </c>
       <c r="L63" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M63">
         <v>1</v>
@@ -5428,14 +8062,23 @@
       <c r="N63">
         <v>1</v>
       </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
       <c r="R63">
-        <v>2.847222222222222</v>
+        <v>1</v>
       </c>
       <c r="S63">
-        <v>1.95</v>
+        <v>0.2</v>
       </c>
       <c r="T63">
-        <v>2.683333333333334</v>
+        <v>0.0008351079377009478</v>
       </c>
       <c r="U63">
         <v>96.5275</v>
@@ -5479,10 +8122,22 @@
       <c r="AH63">
         <v>86.32250000000001</v>
       </c>
+      <c r="AI63">
+        <v>3.222547350600202</v>
+      </c>
+      <c r="AJ63">
+        <v>2.847222222222222</v>
+      </c>
+      <c r="AK63">
+        <v>1.95</v>
+      </c>
+      <c r="AL63">
+        <v>2.683333333333334</v>
+      </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:38">
       <c r="A64" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B64">
         <v>40.548049</v>
@@ -5515,22 +8170,31 @@
         <v>492</v>
       </c>
       <c r="L64" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M64">
         <v>1</v>
       </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
       <c r="O64">
+        <v>2</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
         <v>1</v>
       </c>
-      <c r="R64">
-        <v>3.411111111111111</v>
-      </c>
       <c r="S64">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="T64">
-        <v>0</v>
+        <v>0.005010647626205686</v>
       </c>
       <c r="U64">
         <v>93.78999999999999</v>
@@ -5574,10 +8238,22 @@
       <c r="AH64">
         <v>74.78999999999999</v>
       </c>
+      <c r="AI64">
+        <v>3.159002857177438</v>
+      </c>
+      <c r="AJ64">
+        <v>3.411111111111111</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
+      <c r="AL64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:38">
       <c r="A65" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B65">
         <v>40.41528</v>
@@ -5610,19 +8286,31 @@
         <v>498.4090909090909</v>
       </c>
       <c r="L65" t="s">
-        <v>96</v>
+        <v>100</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
       </c>
       <c r="P65">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
       </c>
       <c r="R65">
-        <v>2.75492125984252</v>
+        <v>4</v>
       </c>
       <c r="S65">
-        <v>2.216666666666667</v>
+        <v>0.025</v>
       </c>
       <c r="T65">
-        <v>1.7</v>
+        <v>0.0001043884922126185</v>
       </c>
       <c r="U65">
         <v>96.41499999999999</v>
@@ -5666,10 +8354,22 @@
       <c r="AH65">
         <v>63.57</v>
       </c>
+      <c r="AI65">
+        <v>2.400630035303059</v>
+      </c>
+      <c r="AJ65">
+        <v>2.75492125984252</v>
+      </c>
+      <c r="AK65">
+        <v>2.216666666666667</v>
+      </c>
+      <c r="AL65">
+        <v>1.7</v>
+      </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:38">
       <c r="A66" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B66">
         <v>40.426328</v>
@@ -5687,22 +8387,22 @@
         <v>49097.08</v>
       </c>
       <c r="G66">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H66">
-        <v>1.971698113207547</v>
+        <v>1.972222222222222</v>
       </c>
       <c r="I66">
-        <v>1114.448598130841</v>
+        <v>1115.880733944954</v>
       </c>
       <c r="J66">
-        <v>1025.619565217391</v>
+        <v>1021.709677419355</v>
       </c>
       <c r="K66">
-        <v>570.555023923445</v>
+        <v>571.037558685446</v>
       </c>
       <c r="L66" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M66">
         <v>5</v>
@@ -5711,16 +8411,22 @@
         <v>2</v>
       </c>
       <c r="O66">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
       </c>
       <c r="R66">
-        <v>3.333283470456245</v>
+        <v>8</v>
       </c>
       <c r="S66">
-        <v>2.95</v>
+        <v>4</v>
       </c>
       <c r="T66">
-        <v>4.275</v>
+        <v>0.01670215875401895</v>
       </c>
       <c r="U66">
         <v>93.74499999999999</v>
@@ -5764,10 +8470,22 @@
       <c r="AH66">
         <v>73.35571428571428</v>
       </c>
+      <c r="AI66">
+        <v>3.867791979218305</v>
+      </c>
+      <c r="AJ66">
+        <v>3.333283470456245</v>
+      </c>
+      <c r="AK66">
+        <v>2.95</v>
+      </c>
+      <c r="AL66">
+        <v>4.275</v>
+      </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:38">
       <c r="A67" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B67">
         <v>40.497284</v>
@@ -5785,22 +8503,22 @@
         <v>34883.33</v>
       </c>
       <c r="G67">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67">
-        <v>1.911111111111111</v>
+        <v>1.91304347826087</v>
       </c>
       <c r="I67">
-        <v>818.8888888888889</v>
+        <v>815.7608695652174</v>
       </c>
       <c r="J67">
         <v>1102.6</v>
       </c>
       <c r="K67">
-        <v>428.4883720930233</v>
+        <v>426.4204545454546</v>
       </c>
       <c r="L67" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M67">
         <v>2</v>
@@ -5809,19 +8527,22 @@
         <v>1</v>
       </c>
       <c r="O67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P67">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
       </c>
       <c r="R67">
-        <v>3.458333333333333</v>
+        <v>12</v>
       </c>
       <c r="S67">
-        <v>2.0875</v>
+        <v>1.425</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>0.005950144056119253</v>
       </c>
       <c r="U67">
         <v>95.20999999999999</v>
@@ -5865,10 +8586,22 @@
       <c r="AH67">
         <v>74.19</v>
       </c>
+      <c r="AI67">
+        <v>2.809362528939259</v>
+      </c>
+      <c r="AJ67">
+        <v>3.458333333333333</v>
+      </c>
+      <c r="AK67">
+        <v>2.0875</v>
+      </c>
+      <c r="AL67">
+        <v>2.75</v>
+      </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:38">
       <c r="A68" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B68">
         <v>40.393451</v>
@@ -5886,36 +8619,105 @@
         <v>17666.67</v>
       </c>
       <c r="G68">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H68">
-        <v>2.2</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="I68">
-        <v>777.9166666666666</v>
+        <v>781.8181818181819</v>
       </c>
       <c r="J68">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K68">
-        <v>424.3181818181818</v>
+        <v>430</v>
       </c>
       <c r="L68" t="s">
-        <v>99</v>
+        <v>103</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
       </c>
       <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>94.2943036745001</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>85.8380742469101</v>
+      </c>
+      <c r="X68">
+        <v>5699.499194083693</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0.1150350893039983</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+      <c r="AC68">
+        <v>64.25376443860371</v>
+      </c>
+      <c r="AD68">
+        <v>50.07596206108703</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
+      </c>
+      <c r="AF68">
+        <v>0</v>
+      </c>
+      <c r="AG68">
+        <v>0</v>
+      </c>
+      <c r="AH68">
+        <v>64.44804289493577</v>
+      </c>
+      <c r="AI68">
+        <v>3.11285511124936</v>
+      </c>
+      <c r="AJ68">
         <v>2.664473684210526</v>
       </c>
-      <c r="S68">
+      <c r="AK68">
         <v>1.35</v>
       </c>
-      <c r="T68">
+      <c r="AL68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:38">
       <c r="A69" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B69">
         <v>40.47441</v>
@@ -5939,16 +8741,16 @@
         <v>1.98989898989899</v>
       </c>
       <c r="I69">
-        <v>1227.491666666667</v>
+        <v>1227.075</v>
       </c>
       <c r="J69">
         <v>1226.210526315789</v>
       </c>
       <c r="K69">
-        <v>747.7106598984772</v>
+        <v>747.4568527918782</v>
       </c>
       <c r="L69" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M69">
         <v>108</v>
@@ -5957,22 +8759,22 @@
         <v>85</v>
       </c>
       <c r="O69">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="P69">
-        <v>114</v>
+        <v>28.5</v>
       </c>
       <c r="Q69">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R69">
-        <v>3.21947341878029</v>
+        <v>353</v>
       </c>
       <c r="S69">
-        <v>4.04047619047619</v>
+        <v>48.875</v>
       </c>
       <c r="T69">
-        <v>3.435714285714285</v>
+        <v>0.2040795022756691</v>
       </c>
       <c r="U69">
         <v>94.28333333333335</v>
@@ -6016,10 +8818,22 @@
       <c r="AH69">
         <v>37.73</v>
       </c>
+      <c r="AI69">
+        <v>1.945945042385268</v>
+      </c>
+      <c r="AJ69">
+        <v>3.21947341878029</v>
+      </c>
+      <c r="AK69">
+        <v>4.04047619047619</v>
+      </c>
+      <c r="AL69">
+        <v>3.435714285714285</v>
+      </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:38">
       <c r="A70" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B70">
         <v>40.504968</v>
@@ -6043,16 +8857,16 @@
         <v>1.91</v>
       </c>
       <c r="I70">
-        <v>770.2583333333333</v>
+        <v>770.4666666666667</v>
       </c>
       <c r="J70">
         <v>1045.590909090909</v>
       </c>
       <c r="K70">
-        <v>483.9319371727749</v>
+        <v>484.0628272251309</v>
       </c>
       <c r="L70" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M70">
         <v>2</v>
@@ -6060,17 +8874,23 @@
       <c r="N70">
         <v>2</v>
       </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
       <c r="Q70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R70">
-        <v>2.798772609819121</v>
+        <v>4</v>
       </c>
       <c r="S70">
-        <v>2.55</v>
+        <v>0.55</v>
       </c>
       <c r="T70">
-        <v>2.275</v>
+        <v>0.002296546828677607</v>
       </c>
       <c r="U70">
         <v>93.31333333333335</v>
@@ -6114,10 +8934,22 @@
       <c r="AH70">
         <v>62.31</v>
       </c>
+      <c r="AI70">
+        <v>3.034423073666038</v>
+      </c>
+      <c r="AJ70">
+        <v>2.798772609819121</v>
+      </c>
+      <c r="AK70">
+        <v>2.55</v>
+      </c>
+      <c r="AL70">
+        <v>2.275</v>
+      </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:38">
       <c r="A71" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B71">
         <v>40.426207</v>
@@ -6138,19 +8970,19 @@
         <v>120</v>
       </c>
       <c r="H71">
-        <v>2.102564102564103</v>
+        <v>2.110169491525424</v>
       </c>
       <c r="I71">
-        <v>1599.975</v>
+        <v>1611.558333333333</v>
       </c>
       <c r="J71">
-        <v>1189.87037037037</v>
+        <v>1189.945454545455</v>
       </c>
       <c r="K71">
-        <v>780.4756097560976</v>
+        <v>776.6546184738955</v>
       </c>
       <c r="L71" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M71">
         <v>290</v>
@@ -6159,22 +8991,22 @@
         <v>184</v>
       </c>
       <c r="O71">
-        <v>124</v>
+        <v>248</v>
       </c>
       <c r="P71">
-        <v>447</v>
+        <v>111.75</v>
       </c>
       <c r="Q71">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="R71">
-        <v>3.468730947319854</v>
+        <v>1412</v>
       </c>
       <c r="S71">
-        <v>4.773214285714285</v>
+        <v>193.4375</v>
       </c>
       <c r="T71">
-        <v>2.741666666666667</v>
+        <v>0.8077059584951354</v>
       </c>
       <c r="U71">
         <v>95.2</v>
@@ -6218,10 +9050,22 @@
       <c r="AH71">
         <v>53.49</v>
       </c>
+      <c r="AI71">
+        <v>2.185452773130556</v>
+      </c>
+      <c r="AJ71">
+        <v>3.468730947319854</v>
+      </c>
+      <c r="AK71">
+        <v>4.773214285714285</v>
+      </c>
+      <c r="AL71">
+        <v>2.741666666666667</v>
+      </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:38">
       <c r="A72" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B72">
         <v>40.456867</v>
@@ -6254,7 +9098,7 @@
         <v>355.1944444444445</v>
       </c>
       <c r="L72" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M72">
         <v>134</v>
@@ -6263,22 +9107,22 @@
         <v>107</v>
       </c>
       <c r="O72">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="P72">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="Q72">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="R72">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="S72">
-        <v>0</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="T72">
-        <v>0</v>
+        <v>0.2709925257839576</v>
       </c>
       <c r="U72">
         <v>91.56</v>
@@ -6322,10 +9166,22 @@
       <c r="AH72">
         <v>24.8</v>
       </c>
+      <c r="AI72">
+        <v>1.476601065087141</v>
+      </c>
+      <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>0</v>
+      </c>
+      <c r="AL72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:38">
       <c r="A73" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B73">
         <v>40.438093</v>
@@ -6346,19 +9202,19 @@
         <v>120</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>2.018348623853211</v>
       </c>
       <c r="I73">
-        <v>1343.873949579832</v>
+        <v>1341.201680672269</v>
       </c>
       <c r="J73">
-        <v>911.6666666666666</v>
+        <v>955.2</v>
       </c>
       <c r="K73">
-        <v>733.5825688073395</v>
+        <v>725.4681818181818</v>
       </c>
       <c r="L73" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M73">
         <v>80</v>
@@ -6367,22 +9223,22 @@
         <v>71</v>
       </c>
       <c r="O73">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P73">
-        <v>45</v>
+        <v>11.25</v>
       </c>
       <c r="Q73">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R73">
-        <v>3.402582417582417</v>
+        <v>203</v>
       </c>
       <c r="S73">
-        <v>2.75</v>
+        <v>27.2125</v>
       </c>
       <c r="T73">
-        <v>3.185714285714286</v>
+        <v>0.1136268737734352</v>
       </c>
       <c r="U73">
         <v>94.90666666666668</v>
@@ -6426,10 +9282,22 @@
       <c r="AH73">
         <v>63.81999999999999</v>
       </c>
+      <c r="AI73">
+        <v>2.362781698940373</v>
+      </c>
+      <c r="AJ73">
+        <v>3.402582417582417</v>
+      </c>
+      <c r="AK73">
+        <v>2.75</v>
+      </c>
+      <c r="AL73">
+        <v>3.185714285714286</v>
+      </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:38">
       <c r="A74" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B74">
         <v>40.472272</v>
@@ -6450,19 +9318,19 @@
         <v>120</v>
       </c>
       <c r="H74">
-        <v>1.79646017699115</v>
+        <v>1.787610619469026</v>
       </c>
       <c r="I74">
-        <v>1138.294117647059</v>
+        <v>1135.823529411765</v>
       </c>
       <c r="J74">
         <v>1036.95652173913</v>
       </c>
       <c r="K74">
-        <v>667.2758620689655</v>
+        <v>669.1237623762377</v>
       </c>
       <c r="L74" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M74">
         <v>333</v>
@@ -6471,22 +9339,22 @@
         <v>258</v>
       </c>
       <c r="O74">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="P74">
-        <v>528</v>
+        <v>132</v>
       </c>
       <c r="Q74">
-        <v>77</v>
+        <v>38.5</v>
       </c>
       <c r="R74">
-        <v>3.489397587747842</v>
+        <v>1571</v>
       </c>
       <c r="S74">
-        <v>3.292857142857143</v>
+        <v>167.175</v>
       </c>
       <c r="T74">
-        <v>4.311538461538461</v>
+        <v>0.6980458474257798</v>
       </c>
       <c r="U74">
         <v>94.06499999999998</v>
@@ -6530,10 +9398,22 @@
       <c r="AH74">
         <v>58.815</v>
       </c>
+      <c r="AI74">
+        <v>2.7089994673237</v>
+      </c>
+      <c r="AJ74">
+        <v>3.489397587747842</v>
+      </c>
+      <c r="AK74">
+        <v>3.292857142857143</v>
+      </c>
+      <c r="AL74">
+        <v>4.311538461538461</v>
+      </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:38">
       <c r="A75" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B75">
         <v>40.403792</v>
@@ -6566,7 +9446,7 @@
         <v>466.5145631067961</v>
       </c>
       <c r="L75" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M75">
         <v>176</v>
@@ -6575,22 +9455,22 @@
         <v>153</v>
       </c>
       <c r="O75">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="P75">
-        <v>194</v>
+        <v>48.5</v>
       </c>
       <c r="Q75">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="R75">
-        <v>2.613520408163265</v>
+        <v>556</v>
       </c>
       <c r="S75">
-        <v>2.383333333333333</v>
+        <v>64.15000000000001</v>
       </c>
       <c r="T75">
-        <v>2.275</v>
+        <v>0.267860871017579</v>
       </c>
       <c r="U75">
         <v>93.935</v>
@@ -6634,10 +9514,22 @@
       <c r="AH75">
         <v>55.42999999999999</v>
       </c>
+      <c r="AI75">
+        <v>2.401219114914166</v>
+      </c>
+      <c r="AJ75">
+        <v>2.613520408163265</v>
+      </c>
+      <c r="AK75">
+        <v>2.383333333333333</v>
+      </c>
+      <c r="AL75">
+        <v>2.275</v>
+      </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:38">
       <c r="A76" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B76">
         <v>40.453191</v>
@@ -6670,7 +9562,7 @@
         <v>555.5418326693227</v>
       </c>
       <c r="L76" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M76">
         <v>177</v>
@@ -6679,22 +9571,22 @@
         <v>139</v>
       </c>
       <c r="O76">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="P76">
-        <v>460</v>
+        <v>115</v>
       </c>
       <c r="Q76">
-        <v>29</v>
+        <v>14.5</v>
       </c>
       <c r="R76">
-        <v>3.701636904761905</v>
+        <v>947</v>
       </c>
       <c r="S76">
-        <v>2.45</v>
+        <v>93.32499999999999</v>
       </c>
       <c r="T76">
-        <v>2.65</v>
+        <v>0.3896822414297047</v>
       </c>
       <c r="U76">
         <v>92.336</v>
@@ -6738,10 +9630,22 @@
       <c r="AH76">
         <v>30.748</v>
       </c>
+      <c r="AI76">
+        <v>2.094209060660514</v>
+      </c>
+      <c r="AJ76">
+        <v>3.701636904761905</v>
+      </c>
+      <c r="AK76">
+        <v>2.45</v>
+      </c>
+      <c r="AL76">
+        <v>2.65</v>
+      </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:38">
       <c r="A77" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B77">
         <v>40.498847</v>
@@ -6774,22 +9678,31 @@
         <v>508.8258706467662</v>
       </c>
       <c r="L77" t="s">
-        <v>108</v>
+        <v>112</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
       </c>
       <c r="P77">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="Q77">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R77">
-        <v>2.561234817813765</v>
+        <v>8</v>
       </c>
       <c r="S77">
-        <v>3.031818181818182</v>
+        <v>0.1</v>
       </c>
       <c r="T77">
-        <v>2.275</v>
+        <v>0.0004175539688504739</v>
       </c>
       <c r="U77">
         <v>95.27500000000001</v>
@@ -6833,10 +9746,22 @@
       <c r="AH77">
         <v>67.48999999999999</v>
       </c>
+      <c r="AI77">
+        <v>3.829996754301801</v>
+      </c>
+      <c r="AJ77">
+        <v>2.561234817813765</v>
+      </c>
+      <c r="AK77">
+        <v>3.031818181818182</v>
+      </c>
+      <c r="AL77">
+        <v>2.275</v>
+      </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:38">
       <c r="A78" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B78">
         <v>40.406951</v>
@@ -6854,22 +9779,22 @@
         <v>17666.67</v>
       </c>
       <c r="G78">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H78">
-        <v>2.481927710843374</v>
+        <v>2.4875</v>
       </c>
       <c r="I78">
-        <v>905.9784946236559</v>
+        <v>907.8444444444444</v>
       </c>
       <c r="J78">
-        <v>1166.714285714286</v>
+        <v>1156.222222222222</v>
       </c>
       <c r="K78">
-        <v>409.0097087378641</v>
+        <v>410.5829145728643</v>
       </c>
       <c r="L78" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M78">
         <v>534</v>
@@ -6878,22 +9803,22 @@
         <v>445</v>
       </c>
       <c r="O78">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="P78">
-        <v>663</v>
+        <v>165.75</v>
       </c>
       <c r="Q78">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="R78">
-        <v>3.721368715083799</v>
+        <v>1810</v>
       </c>
       <c r="S78">
-        <v>1.35</v>
+        <v>234.0875</v>
       </c>
       <c r="T78">
-        <v>2.525</v>
+        <v>0.9774416468328531</v>
       </c>
       <c r="U78">
         <v>91.506</v>
@@ -6937,10 +9862,22 @@
       <c r="AH78">
         <v>43.43</v>
       </c>
+      <c r="AI78">
+        <v>2.708030648044198</v>
+      </c>
+      <c r="AJ78">
+        <v>3.721368715083799</v>
+      </c>
+      <c r="AK78">
+        <v>1.35</v>
+      </c>
+      <c r="AL78">
+        <v>2.525</v>
+      </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:38">
       <c r="A79" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B79">
         <v>40.430322</v>
@@ -6958,22 +9895,22 @@
         <v>75577.78</v>
       </c>
       <c r="G79">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H79">
-        <v>2.194174757281553</v>
+        <v>2.219047619047619</v>
       </c>
       <c r="I79">
-        <v>1000.669565217391</v>
+        <v>1003.863247863248</v>
       </c>
       <c r="J79">
-        <v>1235.788461538461</v>
+        <v>1269.740740740741</v>
       </c>
       <c r="K79">
-        <v>509.1902654867257</v>
+        <v>504.0858369098713</v>
       </c>
       <c r="L79" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M79">
         <v>139</v>
@@ -6982,22 +9919,22 @@
         <v>120</v>
       </c>
       <c r="O79">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="P79">
-        <v>185</v>
+        <v>46.25</v>
       </c>
       <c r="Q79">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="R79">
-        <v>2.685690423162583</v>
+        <v>503</v>
       </c>
       <c r="S79">
-        <v>2.9</v>
+        <v>61.0375</v>
       </c>
       <c r="T79">
-        <v>1.15</v>
+        <v>0.254864503737108</v>
       </c>
       <c r="U79">
         <v>92.38</v>
@@ -7041,10 +9978,22 @@
       <c r="AH79">
         <v>62.07</v>
       </c>
+      <c r="AI79">
+        <v>2.367993459674234</v>
+      </c>
+      <c r="AJ79">
+        <v>2.685690423162583</v>
+      </c>
+      <c r="AK79">
+        <v>2.9</v>
+      </c>
+      <c r="AL79">
+        <v>1.15</v>
+      </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:38">
       <c r="A80" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B80">
         <v>40.456939</v>
@@ -7065,19 +10014,19 @@
         <v>120</v>
       </c>
       <c r="H80">
-        <v>2.257425742574257</v>
+        <v>2.287128712871287</v>
       </c>
       <c r="I80">
-        <v>1062.55462184874</v>
+        <v>1069.840336134454</v>
       </c>
       <c r="J80">
-        <v>981.5050505050505</v>
+        <v>989.1030927835052</v>
       </c>
       <c r="K80">
-        <v>554.578947368421</v>
+        <v>551.1298701298701</v>
       </c>
       <c r="L80" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M80">
         <v>636</v>
@@ -7086,22 +10035,22 @@
         <v>466</v>
       </c>
       <c r="O80">
-        <v>203</v>
+        <v>406</v>
       </c>
       <c r="P80">
-        <v>1288</v>
+        <v>322</v>
       </c>
       <c r="Q80">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="R80">
-        <v>2.898297648297648</v>
+        <v>3147</v>
       </c>
       <c r="S80">
-        <v>3.9</v>
+        <v>358.3</v>
       </c>
       <c r="T80">
-        <v>2.75</v>
+        <v>1.496095870391248</v>
       </c>
       <c r="U80">
         <v>92.745</v>
@@ -7145,10 +10094,22 @@
       <c r="AH80">
         <v>34.94</v>
       </c>
+      <c r="AI80">
+        <v>1.983084970036562</v>
+      </c>
+      <c r="AJ80">
+        <v>2.898297648297648</v>
+      </c>
+      <c r="AK80">
+        <v>3.9</v>
+      </c>
+      <c r="AL80">
+        <v>2.75</v>
+      </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:38">
       <c r="A81" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B81">
         <v>40.444042</v>
@@ -7169,19 +10130,19 @@
         <v>120</v>
       </c>
       <c r="H81">
-        <v>2.938144329896907</v>
+        <v>3.01980198019802</v>
       </c>
       <c r="I81">
-        <v>1682.65</v>
+        <v>1688.958333333333</v>
       </c>
       <c r="J81">
-        <v>2202.416666666667</v>
+        <v>2425.4</v>
       </c>
       <c r="K81">
-        <v>708.4842105263158</v>
+        <v>664.5081967213115</v>
       </c>
       <c r="L81" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M81">
         <v>105</v>
@@ -7190,22 +10151,22 @@
         <v>82</v>
       </c>
       <c r="O81">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="P81">
-        <v>134</v>
+        <v>33.5</v>
       </c>
       <c r="Q81">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="R81">
-        <v>3.940534892457969</v>
+        <v>481</v>
       </c>
       <c r="S81">
-        <v>3.054166666666667</v>
+        <v>50.4</v>
       </c>
       <c r="T81">
-        <v>4.040909090909091</v>
+        <v>0.2104472003006388</v>
       </c>
       <c r="U81">
         <v>96.94499999999999</v>
@@ -7249,10 +10210,22 @@
       <c r="AH81">
         <v>60.985</v>
       </c>
+      <c r="AI81">
+        <v>2.84125005866093</v>
+      </c>
+      <c r="AJ81">
+        <v>3.940534892457969</v>
+      </c>
+      <c r="AK81">
+        <v>3.054166666666667</v>
+      </c>
+      <c r="AL81">
+        <v>4.040909090909091</v>
+      </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:38">
       <c r="A82" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B82">
         <v>40.486557</v>
@@ -7285,7 +10258,7 @@
         <v>430.7081339712919</v>
       </c>
       <c r="L82" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M82">
         <v>251</v>
@@ -7294,22 +10267,22 @@
         <v>198</v>
       </c>
       <c r="O82">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="P82">
-        <v>276</v>
+        <v>69</v>
       </c>
       <c r="Q82">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R82">
-        <v>3.125</v>
+        <v>723</v>
       </c>
       <c r="S82">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="T82">
-        <v>0</v>
+        <v>0.5010647626205686</v>
       </c>
       <c r="U82">
         <v>97.81999999999999</v>
@@ -7353,10 +10326,22 @@
       <c r="AH82">
         <v>21.05</v>
       </c>
+      <c r="AI82">
+        <v>2.168356622261808</v>
+      </c>
+      <c r="AJ82">
+        <v>3.125</v>
+      </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
+      <c r="AL82">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:38">
       <c r="A83" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B83">
         <v>40.501295</v>
@@ -7374,22 +10359,22 @@
         <v>90125.42</v>
       </c>
       <c r="G83">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H83">
-        <v>2.037037037037037</v>
+        <v>2.036363636363636</v>
       </c>
       <c r="I83">
-        <v>1064.240740740741</v>
+        <v>1064.890909090909</v>
       </c>
       <c r="J83">
         <v>1338.461538461539</v>
       </c>
       <c r="K83">
-        <v>522.4454545454546</v>
+        <v>522.9375</v>
       </c>
       <c r="L83" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M83">
         <v>1</v>
@@ -7397,17 +10382,23 @@
       <c r="N83">
         <v>1</v>
       </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
       <c r="P83">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
       </c>
       <c r="R83">
-        <v>2.743204804045512</v>
+        <v>37</v>
       </c>
       <c r="S83">
-        <v>2.225</v>
+        <v>0.225</v>
       </c>
       <c r="T83">
-        <v>2.8</v>
+        <v>0.0009394964299135663</v>
       </c>
       <c r="U83">
         <v>94.97</v>
@@ -7451,10 +10442,22 @@
       <c r="AH83">
         <v>93.94</v>
       </c>
+      <c r="AI83">
+        <v>3.306827375850896</v>
+      </c>
+      <c r="AJ83">
+        <v>2.743204804045512</v>
+      </c>
+      <c r="AK83">
+        <v>2.225</v>
+      </c>
+      <c r="AL83">
+        <v>2.8</v>
+      </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:38">
       <c r="A84" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B84">
         <v>40.402626</v>
@@ -7475,19 +10478,19 @@
         <v>120</v>
       </c>
       <c r="H84">
-        <v>1.803738317757009</v>
+        <v>1.822429906542056</v>
       </c>
       <c r="I84">
-        <v>918.109243697479</v>
+        <v>914.0336134453781</v>
       </c>
       <c r="J84">
-        <v>1163.193548387097</v>
+        <v>1157.2</v>
       </c>
       <c r="K84">
-        <v>566.0880829015545</v>
+        <v>557.7948717948718</v>
       </c>
       <c r="L84" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M84">
         <v>117</v>
@@ -7496,22 +10499,22 @@
         <v>94</v>
       </c>
       <c r="O84">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="P84">
-        <v>87</v>
+        <v>21.75</v>
       </c>
       <c r="Q84">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="R84">
-        <v>3.582539466521502</v>
+        <v>319</v>
       </c>
       <c r="S84">
-        <v>3.132142857142857</v>
+        <v>54.31250000000001</v>
       </c>
       <c r="T84">
-        <v>3.56875</v>
+        <v>0.2267839993319137</v>
       </c>
       <c r="U84">
         <v>93.22749999999999</v>
@@ -7555,10 +10558,22 @@
       <c r="AH84">
         <v>61.58500000000001</v>
       </c>
+      <c r="AI84">
+        <v>3.438634337186207</v>
+      </c>
+      <c r="AJ84">
+        <v>3.582539466521502</v>
+      </c>
+      <c r="AK84">
+        <v>3.132142857142857</v>
+      </c>
+      <c r="AL84">
+        <v>3.56875</v>
+      </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:38">
       <c r="A85" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B85">
         <v>40.430821</v>
@@ -7579,19 +10594,19 @@
         <v>120</v>
       </c>
       <c r="H85">
-        <v>1.758928571428571</v>
+        <v>1.763636363636364</v>
       </c>
       <c r="I85">
-        <v>1193.075</v>
+        <v>1196.575</v>
       </c>
       <c r="J85">
-        <v>964.4193548387096</v>
+        <v>973.7966101694915</v>
       </c>
       <c r="K85">
-        <v>726.746192893401</v>
+        <v>740.1494845360825</v>
       </c>
       <c r="L85" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M85">
         <v>61</v>
@@ -7600,22 +10615,22 @@
         <v>47</v>
       </c>
       <c r="O85">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="P85">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="Q85">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="R85">
-        <v>3.426171134873794</v>
+        <v>304</v>
       </c>
       <c r="S85">
-        <v>3.168181818181818</v>
+        <v>31.575</v>
       </c>
       <c r="T85">
-        <v>3.875</v>
+        <v>0.1318426656645371</v>
       </c>
       <c r="U85">
         <v>93.25666666666666</v>
@@ -7659,10 +10674,22 @@
       <c r="AH85">
         <v>59.90666666666666</v>
       </c>
+      <c r="AI85">
+        <v>3.644174693748088</v>
+      </c>
+      <c r="AJ85">
+        <v>3.426171134873794</v>
+      </c>
+      <c r="AK85">
+        <v>3.168181818181818</v>
+      </c>
+      <c r="AL85">
+        <v>3.875</v>
+      </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:38">
       <c r="A86" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B86">
         <v>40.42361</v>
@@ -7695,7 +10722,7 @@
         <v>597.4512195121952</v>
       </c>
       <c r="L86" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M86">
         <v>11</v>
@@ -7704,22 +10731,22 @@
         <v>10</v>
       </c>
       <c r="O86">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P86">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="Q86">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="R86">
-        <v>3.104114971050455</v>
+        <v>27</v>
       </c>
       <c r="S86">
-        <v>2.9</v>
+        <v>8.2875</v>
       </c>
       <c r="T86">
-        <v>1.65</v>
+        <v>0.03460478516848303</v>
       </c>
       <c r="U86">
         <v>92.56</v>
@@ -7763,10 +10790,22 @@
       <c r="AH86">
         <v>52.58</v>
       </c>
+      <c r="AI86">
+        <v>2.287962728137273</v>
+      </c>
+      <c r="AJ86">
+        <v>3.104114971050455</v>
+      </c>
+      <c r="AK86">
+        <v>2.9</v>
+      </c>
+      <c r="AL86">
+        <v>1.65</v>
+      </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:38">
       <c r="A87" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B87">
         <v>40.443184</v>
@@ -7799,7 +10838,7 @@
         <v>934.2352941176471</v>
       </c>
       <c r="L87" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M87">
         <v>2440</v>
@@ -7808,22 +10847,22 @@
         <v>1895</v>
       </c>
       <c r="O87">
-        <v>647</v>
+        <v>1294</v>
       </c>
       <c r="P87">
-        <v>1558</v>
+        <v>389.5</v>
       </c>
       <c r="Q87">
-        <v>301</v>
+        <v>150.5</v>
       </c>
       <c r="R87">
-        <v>3.580013192612137</v>
+        <v>8042</v>
       </c>
       <c r="S87">
-        <v>2.970833333333333</v>
+        <v>1197.45</v>
       </c>
       <c r="T87">
-        <v>2.275</v>
+        <v>5</v>
       </c>
       <c r="U87">
         <v>85.76000000000001</v>
@@ -7867,10 +10906,22 @@
       <c r="AH87">
         <v>18.2925</v>
       </c>
+      <c r="AI87">
+        <v>1.739748812581114</v>
+      </c>
+      <c r="AJ87">
+        <v>3.580013192612137</v>
+      </c>
+      <c r="AK87">
+        <v>2.970833333333333</v>
+      </c>
+      <c r="AL87">
+        <v>2.275</v>
+      </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:38">
       <c r="A88" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B88">
         <v>40.419506</v>
@@ -7903,7 +10954,7 @@
         <v>512.5588235294117</v>
       </c>
       <c r="L88" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M88">
         <v>134</v>
@@ -7912,22 +10963,22 @@
         <v>111</v>
       </c>
       <c r="O88">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="P88">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="Q88">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="R88">
-        <v>3.250457875457876</v>
+        <v>452</v>
       </c>
       <c r="S88">
-        <v>2.575</v>
+        <v>59.85</v>
       </c>
       <c r="T88">
-        <v>2.1</v>
+        <v>0.2499060503570086</v>
       </c>
       <c r="U88">
         <v>94.92</v>
@@ -7971,10 +11022,22 @@
       <c r="AH88">
         <v>69.7</v>
       </c>
+      <c r="AI88">
+        <v>2.555976458457501</v>
+      </c>
+      <c r="AJ88">
+        <v>3.250457875457876</v>
+      </c>
+      <c r="AK88">
+        <v>2.575</v>
+      </c>
+      <c r="AL88">
+        <v>2.1</v>
+      </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:38">
       <c r="A89" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B89">
         <v>40.435791</v>
@@ -8007,7 +11070,7 @@
         <v>539.2533333333333</v>
       </c>
       <c r="L89" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M89">
         <v>206</v>
@@ -8016,22 +11079,22 @@
         <v>153</v>
       </c>
       <c r="O89">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="P89">
-        <v>276</v>
+        <v>69</v>
       </c>
       <c r="Q89">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="R89">
-        <v>3.252118644067797</v>
+        <v>764</v>
       </c>
       <c r="S89">
-        <v>2.3</v>
+        <v>111.75</v>
       </c>
       <c r="T89">
-        <v>3</v>
+        <v>0.4666165601904045</v>
       </c>
       <c r="U89">
         <v>90.78</v>
@@ -8075,10 +11138,22 @@
       <c r="AH89">
         <v>40.955</v>
       </c>
+      <c r="AI89">
+        <v>2.519033313872075</v>
+      </c>
+      <c r="AJ89">
+        <v>3.252118644067797</v>
+      </c>
+      <c r="AK89">
+        <v>2.3</v>
+      </c>
+      <c r="AL89">
+        <v>3</v>
+      </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:38">
       <c r="A90" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B90">
         <v>40.447691</v>
@@ -8099,19 +11174,19 @@
         <v>120</v>
       </c>
       <c r="H90">
-        <v>1.403361344537815</v>
+        <v>1.411764705882353</v>
       </c>
       <c r="I90">
-        <v>1490.716666666667</v>
+        <v>1495.883333333333</v>
       </c>
       <c r="J90">
-        <v>866.3684210526316</v>
+        <v>868.8829787234042</v>
       </c>
       <c r="K90">
-        <v>1071.173652694611</v>
+        <v>1068.488095238095</v>
       </c>
       <c r="L90" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M90">
         <v>151</v>
@@ -8120,22 +11195,22 @@
         <v>97</v>
       </c>
       <c r="O90">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="P90">
-        <v>220</v>
+        <v>55</v>
       </c>
       <c r="Q90">
-        <v>27</v>
+        <v>13.5</v>
       </c>
       <c r="R90">
-        <v>4.175610566023892</v>
+        <v>973</v>
       </c>
       <c r="S90">
-        <v>4.358333333333333</v>
+        <v>96.17500000000001</v>
       </c>
       <c r="T90">
-        <v>5.309375</v>
+        <v>0.4015825295419433</v>
       </c>
       <c r="U90">
         <v>93.3725</v>
@@ -8179,10 +11254,22 @@
       <c r="AH90">
         <v>49.87</v>
       </c>
+      <c r="AI90">
+        <v>2.990410217811573</v>
+      </c>
+      <c r="AJ90">
+        <v>4.175610566023892</v>
+      </c>
+      <c r="AK90">
+        <v>4.358333333333333</v>
+      </c>
+      <c r="AL90">
+        <v>5.309375</v>
+      </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:38">
       <c r="A91" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B91">
         <v>40.505181</v>
@@ -8215,7 +11302,7 @@
         <v>417.1086956521739</v>
       </c>
       <c r="L91" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M91">
         <v>2</v>
@@ -8224,24 +11311,81 @@
         <v>1</v>
       </c>
       <c r="O91">
+        <v>2</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
         <v>1</v>
       </c>
-      <c r="Q91">
-        <v>2</v>
-      </c>
       <c r="R91">
+        <v>6</v>
+      </c>
+      <c r="S91">
+        <v>1.55</v>
+      </c>
+      <c r="T91">
+        <v>0.006472086517182346</v>
+      </c>
+      <c r="U91">
+        <v>94.2943036745001</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>85.8380742469101</v>
+      </c>
+      <c r="X91">
+        <v>5699.499194083693</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>0.1150350893039983</v>
+      </c>
+      <c r="AA91">
+        <v>0</v>
+      </c>
+      <c r="AB91">
+        <v>0</v>
+      </c>
+      <c r="AC91">
+        <v>64.25376443860371</v>
+      </c>
+      <c r="AD91">
+        <v>50.07596206108703</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
+      </c>
+      <c r="AF91">
+        <v>0</v>
+      </c>
+      <c r="AG91">
+        <v>0</v>
+      </c>
+      <c r="AH91">
+        <v>64.44804289493577</v>
+      </c>
+      <c r="AI91">
+        <v>3.11285511124936</v>
+      </c>
+      <c r="AJ91">
         <v>3.345496894409938</v>
       </c>
-      <c r="S91">
+      <c r="AK91">
         <v>2.016666666666667</v>
       </c>
-      <c r="T91">
+      <c r="AL91">
         <v>2.516666666666667</v>
       </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:38">
       <c r="A92" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B92">
         <v>40.464234</v>
@@ -8274,7 +11418,7 @@
         <v>724.0539419087137</v>
       </c>
       <c r="L92" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M92">
         <v>104</v>
@@ -8283,22 +11427,22 @@
         <v>84</v>
       </c>
       <c r="O92">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="P92">
-        <v>135</v>
+        <v>33.75</v>
       </c>
       <c r="Q92">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R92">
-        <v>3.680377506690974</v>
+        <v>428</v>
       </c>
       <c r="S92">
-        <v>3.758333333333333</v>
+        <v>44.5875</v>
       </c>
       <c r="T92">
-        <v>3.366666666666666</v>
+        <v>0.186176875861205</v>
       </c>
       <c r="U92">
         <v>91.56999999999999</v>
@@ -8342,10 +11486,22 @@
       <c r="AH92">
         <v>50</v>
       </c>
+      <c r="AI92">
+        <v>2.393861905521645</v>
+      </c>
+      <c r="AJ92">
+        <v>3.680377506690974</v>
+      </c>
+      <c r="AK92">
+        <v>3.758333333333333</v>
+      </c>
+      <c r="AL92">
+        <v>3.366666666666666</v>
+      </c>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:38">
       <c r="A93" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B93">
         <v>40.50668</v>
@@ -8378,7 +11534,7 @@
         <v>428.421052631579</v>
       </c>
       <c r="L93" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M93">
         <v>1</v>
@@ -8386,22 +11542,82 @@
       <c r="N93">
         <v>1</v>
       </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
       <c r="P93">
-        <v>1</v>
+        <v>0.25</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
       </c>
       <c r="R93">
+        <v>2</v>
+      </c>
+      <c r="S93">
+        <v>0.2125</v>
+      </c>
+      <c r="T93">
+        <v>0.0008873021838072571</v>
+      </c>
+      <c r="U93">
+        <v>94.2943036745001</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>85.8380742469101</v>
+      </c>
+      <c r="X93">
+        <v>5699.499194083693</v>
+      </c>
+      <c r="Y93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <v>0.1150350893039983</v>
+      </c>
+      <c r="AA93">
+        <v>0</v>
+      </c>
+      <c r="AB93">
+        <v>0</v>
+      </c>
+      <c r="AC93">
+        <v>64.25376443860371</v>
+      </c>
+      <c r="AD93">
+        <v>50.07596206108703</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
+      </c>
+      <c r="AF93">
+        <v>0</v>
+      </c>
+      <c r="AG93">
+        <v>0</v>
+      </c>
+      <c r="AH93">
+        <v>64.44804289493577</v>
+      </c>
+      <c r="AI93">
+        <v>3.11285511124936</v>
+      </c>
+      <c r="AJ93">
         <v>2.464285714285714</v>
       </c>
-      <c r="S93">
+      <c r="AK93">
         <v>1.85</v>
       </c>
-      <c r="T93">
+      <c r="AL93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:38">
       <c r="A94" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B94">
         <v>40.395053</v>
@@ -8422,19 +11638,19 @@
         <v>120</v>
       </c>
       <c r="H94">
-        <v>1.990909090909091</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>1284.588235294118</v>
+        <v>1285.638655462185</v>
       </c>
       <c r="J94">
         <v>1470.761904761905</v>
       </c>
       <c r="K94">
-        <v>698.0182648401826</v>
+        <v>695.4136363636363</v>
       </c>
       <c r="L94" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M94">
         <v>102</v>
@@ -8443,22 +11659,22 @@
         <v>86</v>
       </c>
       <c r="O94">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="P94">
-        <v>134</v>
+        <v>33.5</v>
       </c>
       <c r="Q94">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R94">
-        <v>3.056869369369369</v>
+        <v>442</v>
       </c>
       <c r="S94">
-        <v>2.2</v>
+        <v>42.425</v>
       </c>
       <c r="T94">
-        <v>1.95</v>
+        <v>0.1771472712848135</v>
       </c>
       <c r="U94">
         <v>93.375</v>
@@ -8502,10 +11718,22 @@
       <c r="AH94">
         <v>48.31</v>
       </c>
+      <c r="AI94">
+        <v>2.364851685188496</v>
+      </c>
+      <c r="AJ94">
+        <v>3.056869369369369</v>
+      </c>
+      <c r="AK94">
+        <v>2.2</v>
+      </c>
+      <c r="AL94">
+        <v>1.95</v>
+      </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:38">
       <c r="A95" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B95">
         <v>40.375703</v>
@@ -8538,7 +11766,7 @@
         <v>468.7155172413793</v>
       </c>
       <c r="L95" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M95">
         <v>50</v>
@@ -8547,22 +11775,22 @@
         <v>39</v>
       </c>
       <c r="O95">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="P95">
-        <v>34</v>
+        <v>8.5</v>
       </c>
       <c r="Q95">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R95">
-        <v>3.186224489795919</v>
+        <v>149</v>
       </c>
       <c r="S95">
-        <v>2.65</v>
+        <v>26.675</v>
       </c>
       <c r="T95">
-        <v>2.991666666666667</v>
+        <v>0.1113825211908639</v>
       </c>
       <c r="U95">
         <v>89.47666666666667</v>
@@ -8606,10 +11834,22 @@
       <c r="AH95">
         <v>62.61666666666667</v>
       </c>
+      <c r="AI95">
+        <v>2.852070097680994</v>
+      </c>
+      <c r="AJ95">
+        <v>3.186224489795919</v>
+      </c>
+      <c r="AK95">
+        <v>2.65</v>
+      </c>
+      <c r="AL95">
+        <v>2.991666666666667</v>
+      </c>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:38">
       <c r="A96" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B96">
         <v>40.370667</v>
@@ -8630,31 +11870,43 @@
         <v>120</v>
       </c>
       <c r="H96">
-        <v>1.852173913043478</v>
+        <v>1.860869565217391</v>
       </c>
       <c r="I96">
-        <v>1011.625</v>
+        <v>1018.75</v>
       </c>
       <c r="J96">
-        <v>1013.871794871795</v>
+        <v>1021.025</v>
       </c>
       <c r="K96">
-        <v>569.9295774647887</v>
+        <v>571.2616822429907</v>
       </c>
       <c r="L96" t="s">
-        <v>127</v>
+        <v>131</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
       </c>
       <c r="Q96">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R96">
-        <v>3.567300404244568</v>
+        <v>5</v>
       </c>
       <c r="S96">
-        <v>2.557142857142857</v>
+        <v>0.075</v>
       </c>
       <c r="T96">
-        <v>2.433333333333333</v>
+        <v>0.0003131654766378554</v>
       </c>
       <c r="U96">
         <v>96.27</v>
@@ -8698,10 +11950,22 @@
       <c r="AH96">
         <v>92.87800000000001</v>
       </c>
+      <c r="AI96">
+        <v>4.665024028796132</v>
+      </c>
+      <c r="AJ96">
+        <v>3.567300404244568</v>
+      </c>
+      <c r="AK96">
+        <v>2.557142857142857</v>
+      </c>
+      <c r="AL96">
+        <v>2.433333333333333</v>
+      </c>
     </row>
-    <row r="97" spans="1:34">
+    <row r="97" spans="1:38">
       <c r="A97" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B97">
         <v>40.520353</v>
@@ -8734,7 +11998,7 @@
         <v>747.8202247191011</v>
       </c>
       <c r="L97" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M97">
         <v>1</v>
@@ -8742,14 +12006,23 @@
       <c r="N97">
         <v>1</v>
       </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
       <c r="R97">
-        <v>4.125</v>
+        <v>5</v>
       </c>
       <c r="S97">
-        <v>2.35</v>
+        <v>0.2</v>
       </c>
       <c r="T97">
-        <v>2.025</v>
+        <v>0.0008351079377009478</v>
       </c>
       <c r="U97">
         <v>95.71000000000001</v>
@@ -8793,10 +12066,22 @@
       <c r="AH97">
         <v>87.38999999999999</v>
       </c>
+      <c r="AI97">
+        <v>4.228466133367064</v>
+      </c>
+      <c r="AJ97">
+        <v>4.125</v>
+      </c>
+      <c r="AK97">
+        <v>2.35</v>
+      </c>
+      <c r="AL97">
+        <v>2.025</v>
+      </c>
     </row>
-    <row r="98" spans="1:34">
+    <row r="98" spans="1:38">
       <c r="A98" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B98">
         <v>40.452517</v>
@@ -8817,19 +12102,19 @@
         <v>120</v>
       </c>
       <c r="H98">
-        <v>1.736842105263158</v>
+        <v>1.765217391304348</v>
       </c>
       <c r="I98">
-        <v>1509.766666666667</v>
+        <v>1522.266666666667</v>
       </c>
       <c r="J98">
         <v>1033.338709677419</v>
       </c>
       <c r="K98">
-        <v>915.010101010101</v>
+        <v>899.8620689655172</v>
       </c>
       <c r="L98" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M98">
         <v>33</v>
@@ -8838,22 +12123,22 @@
         <v>27</v>
       </c>
       <c r="O98">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P98">
-        <v>33</v>
+        <v>8.25</v>
       </c>
       <c r="Q98">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="R98">
-        <v>3.456980010315458</v>
+        <v>199</v>
       </c>
       <c r="S98">
-        <v>2.940909090909091</v>
+        <v>13.3875</v>
       </c>
       <c r="T98">
-        <v>2.85</v>
+        <v>0.05590003757985719</v>
       </c>
       <c r="U98">
         <v>96.23999999999999</v>
@@ -8897,10 +12182,22 @@
       <c r="AH98">
         <v>61.64</v>
       </c>
+      <c r="AI98">
+        <v>2.091985824612817</v>
+      </c>
+      <c r="AJ98">
+        <v>3.456980010315458</v>
+      </c>
+      <c r="AK98">
+        <v>2.940909090909091</v>
+      </c>
+      <c r="AL98">
+        <v>2.85</v>
+      </c>
     </row>
-    <row r="99" spans="1:34">
+    <row r="99" spans="1:38">
       <c r="A99" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B99">
         <v>40.460862</v>
@@ -8918,22 +12215,22 @@
         <v>49533.33</v>
       </c>
       <c r="G99">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H99">
-        <v>1.769230769230769</v>
+        <v>1.737864077669903</v>
       </c>
       <c r="I99">
-        <v>851.0512820512821</v>
+        <v>849.3534482758621</v>
       </c>
       <c r="J99">
-        <v>1214.176470588235</v>
+        <v>1192.606060606061</v>
       </c>
       <c r="K99">
-        <v>541.1576086956521</v>
+        <v>550.4189944134079</v>
       </c>
       <c r="L99" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M99">
         <v>81</v>
@@ -8942,22 +12239,22 @@
         <v>52</v>
       </c>
       <c r="O99">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="P99">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="Q99">
-        <v>47</v>
+        <v>23.5</v>
       </c>
       <c r="R99">
-        <v>3.176212121212121</v>
+        <v>422</v>
       </c>
       <c r="S99">
-        <v>2.383333333333333</v>
+        <v>56.675</v>
       </c>
       <c r="T99">
-        <v>2.7</v>
+        <v>0.2366487118460061</v>
       </c>
       <c r="U99">
         <v>94.18000000000001</v>
@@ -9001,10 +12298,22 @@
       <c r="AH99">
         <v>36.12</v>
       </c>
+      <c r="AI99">
+        <v>1.869278136525545</v>
+      </c>
+      <c r="AJ99">
+        <v>3.176212121212121</v>
+      </c>
+      <c r="AK99">
+        <v>2.383333333333333</v>
+      </c>
+      <c r="AL99">
+        <v>2.7</v>
+      </c>
     </row>
-    <row r="100" spans="1:34">
+    <row r="100" spans="1:38">
       <c r="A100" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B100">
         <v>40.36814</v>
@@ -9037,7 +12346,7 @@
         <v>500.9940119760479</v>
       </c>
       <c r="L100" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M100">
         <v>9</v>
@@ -9046,22 +12355,22 @@
         <v>8</v>
       </c>
       <c r="O100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P100">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="Q100">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R100">
-        <v>3.336693548387097</v>
+        <v>32</v>
       </c>
       <c r="S100">
-        <v>2.483333333333333</v>
+        <v>2.9125</v>
       </c>
       <c r="T100">
-        <v>1.95</v>
+        <v>0.01216125934277005</v>
       </c>
       <c r="U100">
         <v>96.18666666666667</v>
@@ -9105,10 +12414,22 @@
       <c r="AH100">
         <v>91.34333333333332</v>
       </c>
+      <c r="AI100">
+        <v>3.296056101934826</v>
+      </c>
+      <c r="AJ100">
+        <v>3.336693548387097</v>
+      </c>
+      <c r="AK100">
+        <v>2.483333333333333</v>
+      </c>
+      <c r="AL100">
+        <v>1.95</v>
+      </c>
     </row>
-    <row r="101" spans="1:34">
+    <row r="101" spans="1:38">
       <c r="A101" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B101">
         <v>40.459801</v>
@@ -9126,22 +12447,22 @@
         <v>39078</v>
       </c>
       <c r="G101">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H101">
-        <v>2.11864406779661</v>
+        <v>2.120689655172414</v>
       </c>
       <c r="I101">
-        <v>790.453125</v>
+        <v>791.6507936507936</v>
       </c>
       <c r="J101">
         <v>2285.333333333333</v>
       </c>
       <c r="K101">
-        <v>404.712</v>
+        <v>405.479674796748</v>
       </c>
       <c r="L101" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M101">
         <v>7</v>
@@ -9150,19 +12471,22 @@
         <v>4</v>
       </c>
       <c r="O101">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P101">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>3.311318456441239</v>
+        <v>27</v>
       </c>
       <c r="S101">
-        <v>2.844444444444445</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="T101">
-        <v>3.185714285714286</v>
+        <v>0.02380057622447701</v>
       </c>
       <c r="U101">
         <v>92.724</v>
@@ -9206,10 +12530,22 @@
       <c r="AH101">
         <v>45.3875</v>
       </c>
+      <c r="AI101">
+        <v>2.766542234500982</v>
+      </c>
+      <c r="AJ101">
+        <v>3.311318456441239</v>
+      </c>
+      <c r="AK101">
+        <v>2.844444444444445</v>
+      </c>
+      <c r="AL101">
+        <v>3.185714285714286</v>
+      </c>
     </row>
-    <row r="102" spans="1:34">
+    <row r="102" spans="1:38">
       <c r="A102" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B102">
         <v>40.347404</v>
@@ -9242,25 +12578,31 @@
         <v>564.9444444444445</v>
       </c>
       <c r="L102" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M102">
         <v>1</v>
       </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
       <c r="O102">
+        <v>2</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
         <v>1</v>
       </c>
-      <c r="Q102">
-        <v>2</v>
-      </c>
       <c r="R102">
-        <v>2.752597672485453</v>
+        <v>6</v>
       </c>
       <c r="S102">
-        <v>2.95</v>
+        <v>1.35</v>
       </c>
       <c r="T102">
-        <v>3.116666666666667</v>
+        <v>0.005636978579481398</v>
       </c>
       <c r="U102">
         <v>94.61833333333333</v>
@@ -9304,10 +12646,22 @@
       <c r="AH102">
         <v>77.06399999999999</v>
       </c>
+      <c r="AI102">
+        <v>3.857016550693082</v>
+      </c>
+      <c r="AJ102">
+        <v>2.752597672485453</v>
+      </c>
+      <c r="AK102">
+        <v>2.95</v>
+      </c>
+      <c r="AL102">
+        <v>3.116666666666667</v>
+      </c>
     </row>
-    <row r="103" spans="1:34">
+    <row r="103" spans="1:38">
       <c r="A103" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B103">
         <v>40.549607</v>
@@ -9340,25 +12694,31 @@
         <v>628.7989417989418</v>
       </c>
       <c r="L103" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M103">
         <v>1</v>
       </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
       <c r="O103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P103">
-        <v>1</v>
+        <v>0.25</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>3.083983073437292</v>
+        <v>6</v>
       </c>
       <c r="S103">
-        <v>3.167857142857143</v>
+        <v>1.2125</v>
       </c>
       <c r="T103">
-        <v>4.6</v>
+        <v>0.005062841872311995</v>
       </c>
       <c r="U103">
         <v>96.26272727272728</v>
@@ -9402,10 +12762,22 @@
       <c r="AH103">
         <v>86.62899999999999</v>
       </c>
+      <c r="AI103">
+        <v>4.063074632188057</v>
+      </c>
+      <c r="AJ103">
+        <v>3.083983073437292</v>
+      </c>
+      <c r="AK103">
+        <v>3.167857142857143</v>
+      </c>
+      <c r="AL103">
+        <v>4.6</v>
+      </c>
     </row>
-    <row r="104" spans="1:34">
+    <row r="104" spans="1:38">
       <c r="A104" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B104">
         <v>40.537201</v>
@@ -9438,7 +12810,7 @@
         <v>702.1938775510204</v>
       </c>
       <c r="L104" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M104">
         <v>2</v>
@@ -9447,19 +12819,22 @@
         <v>1</v>
       </c>
       <c r="O104">
+        <v>2</v>
+      </c>
+      <c r="P104">
         <v>1</v>
       </c>
-      <c r="P104">
-        <v>4</v>
+      <c r="Q104">
+        <v>0</v>
       </c>
       <c r="R104">
-        <v>3.334432507180087</v>
+        <v>40</v>
       </c>
       <c r="S104">
-        <v>2.4875</v>
+        <v>1.45</v>
       </c>
       <c r="T104">
-        <v>2.6</v>
+        <v>0.006054532548331872</v>
       </c>
       <c r="U104">
         <v>95.15600000000001</v>
@@ -9503,10 +12878,22 @@
       <c r="AH104">
         <v>90.61800000000001</v>
       </c>
+      <c r="AI104">
+        <v>5</v>
+      </c>
+      <c r="AJ104">
+        <v>3.334432507180087</v>
+      </c>
+      <c r="AK104">
+        <v>2.4875</v>
+      </c>
+      <c r="AL104">
+        <v>2.6</v>
+      </c>
     </row>
-    <row r="105" spans="1:34">
+    <row r="105" spans="1:38">
       <c r="A105" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B105">
         <v>40.483674</v>
@@ -9539,16 +12926,31 @@
         <v>349.7959183673469</v>
       </c>
       <c r="L105" t="s">
-        <v>136</v>
+        <v>140</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>3.145953757225433</v>
+        <v>1</v>
       </c>
       <c r="S105">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="T105">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="U105">
         <v>95.36833333333334</v>
@@ -9592,10 +12994,22 @@
       <c r="AH105">
         <v>84.34</v>
       </c>
+      <c r="AI105">
+        <v>4.346820700069443</v>
+      </c>
+      <c r="AJ105">
+        <v>3.145953757225433</v>
+      </c>
+      <c r="AK105">
+        <v>2.25</v>
+      </c>
+      <c r="AL105">
+        <v>2.2</v>
+      </c>
     </row>
-    <row r="106" spans="1:34">
+    <row r="106" spans="1:38">
       <c r="A106" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B106">
         <v>40.333518</v>
@@ -9628,22 +13042,31 @@
         <v>845.2325581395348</v>
       </c>
       <c r="L106" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M106">
         <v>1</v>
       </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
       <c r="O106">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
       </c>
       <c r="R106">
-        <v>2.573648382004736</v>
+        <v>2</v>
       </c>
       <c r="S106">
-        <v>1.8375</v>
+        <v>1.2</v>
       </c>
       <c r="T106">
-        <v>3.283333333333333</v>
+        <v>0.005010647626205686</v>
       </c>
       <c r="U106">
         <v>96.53666666666668</v>
@@ -9687,10 +13110,22 @@
       <c r="AH106">
         <v>90.88200000000001</v>
       </c>
+      <c r="AI106">
+        <v>4.489923974195034</v>
+      </c>
+      <c r="AJ106">
+        <v>2.573648382004736</v>
+      </c>
+      <c r="AK106">
+        <v>1.8375</v>
+      </c>
+      <c r="AL106">
+        <v>3.283333333333333</v>
+      </c>
     </row>
-    <row r="107" spans="1:34">
+    <row r="107" spans="1:38">
       <c r="A107" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B107">
         <v>40.375511</v>
@@ -9723,10 +13158,25 @@
         <v>568.452380952381</v>
       </c>
       <c r="L107" t="s">
-        <v>138</v>
+        <v>142</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S107">
         <v>0</v>
@@ -9776,10 +13226,22 @@
       <c r="AH107">
         <v>95.06333333333333</v>
       </c>
+      <c r="AI107">
+        <v>3.571479962453374</v>
+      </c>
+      <c r="AJ107">
+        <v>0</v>
+      </c>
+      <c r="AK107">
+        <v>0</v>
+      </c>
+      <c r="AL107">
+        <v>0</v>
+      </c>
     </row>
-    <row r="108" spans="1:34">
+    <row r="108" spans="1:38">
       <c r="A108" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B108">
         <v>40.443915</v>
@@ -9800,19 +13262,34 @@
         <v>120</v>
       </c>
       <c r="H108">
-        <v>3.035398230088496</v>
+        <v>3.043859649122807</v>
       </c>
       <c r="I108">
-        <v>1686.55</v>
+        <v>1695.716666666667</v>
       </c>
       <c r="J108">
         <v>2249</v>
       </c>
       <c r="K108">
-        <v>590.0466472303207</v>
+        <v>586.4149855907781</v>
       </c>
       <c r="L108" t="s">
-        <v>139</v>
+        <v>143</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
       </c>
       <c r="R108">
         <v>0</v>
@@ -9823,10 +13300,64 @@
       <c r="T108">
         <v>0</v>
       </c>
+      <c r="U108">
+        <v>94.2943036745001</v>
+      </c>
+      <c r="V108">
+        <v>0</v>
+      </c>
+      <c r="W108">
+        <v>85.8380742469101</v>
+      </c>
+      <c r="X108">
+        <v>5699.499194083693</v>
+      </c>
+      <c r="Y108">
+        <v>0</v>
+      </c>
+      <c r="Z108">
+        <v>0.1150350893039983</v>
+      </c>
+      <c r="AA108">
+        <v>0</v>
+      </c>
+      <c r="AB108">
+        <v>0</v>
+      </c>
+      <c r="AC108">
+        <v>64.25376443860371</v>
+      </c>
+      <c r="AD108">
+        <v>50.07596206108703</v>
+      </c>
+      <c r="AE108">
+        <v>0</v>
+      </c>
+      <c r="AF108">
+        <v>0</v>
+      </c>
+      <c r="AG108">
+        <v>0</v>
+      </c>
+      <c r="AH108">
+        <v>64.44804289493577</v>
+      </c>
+      <c r="AI108">
+        <v>3.11285511124936</v>
+      </c>
+      <c r="AJ108">
+        <v>0</v>
+      </c>
+      <c r="AK108">
+        <v>0</v>
+      </c>
+      <c r="AL108">
+        <v>0</v>
+      </c>
     </row>
-    <row r="109" spans="1:34">
+    <row r="109" spans="1:38">
       <c r="A109" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B109">
         <v>40.457329</v>
@@ -9859,7 +13390,22 @@
         <v>341.6666666666667</v>
       </c>
       <c r="L109" t="s">
-        <v>140</v>
+        <v>144</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
       </c>
       <c r="R109">
         <v>0</v>
@@ -9870,10 +13416,64 @@
       <c r="T109">
         <v>0</v>
       </c>
+      <c r="U109">
+        <v>94.2943036745001</v>
+      </c>
+      <c r="V109">
+        <v>0</v>
+      </c>
+      <c r="W109">
+        <v>85.8380742469101</v>
+      </c>
+      <c r="X109">
+        <v>5699.499194083693</v>
+      </c>
+      <c r="Y109">
+        <v>0</v>
+      </c>
+      <c r="Z109">
+        <v>0.1150350893039983</v>
+      </c>
+      <c r="AA109">
+        <v>0</v>
+      </c>
+      <c r="AB109">
+        <v>0</v>
+      </c>
+      <c r="AC109">
+        <v>64.25376443860371</v>
+      </c>
+      <c r="AD109">
+        <v>50.07596206108703</v>
+      </c>
+      <c r="AE109">
+        <v>0</v>
+      </c>
+      <c r="AF109">
+        <v>0</v>
+      </c>
+      <c r="AG109">
+        <v>0</v>
+      </c>
+      <c r="AH109">
+        <v>64.44804289493577</v>
+      </c>
+      <c r="AI109">
+        <v>3.11285511124936</v>
+      </c>
+      <c r="AJ109">
+        <v>0</v>
+      </c>
+      <c r="AK109">
+        <v>0</v>
+      </c>
+      <c r="AL109">
+        <v>0</v>
+      </c>
     </row>
-    <row r="110" spans="1:34">
+    <row r="110" spans="1:38">
       <c r="A110" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B110">
         <v>40.240216</v>
@@ -9891,31 +13491,46 @@
         <v>58208.33</v>
       </c>
       <c r="G110">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H110">
         <v>2</v>
       </c>
       <c r="I110">
-        <v>786.6666666666666</v>
+        <v>777.8571428571429</v>
       </c>
       <c r="J110">
         <v>1500</v>
       </c>
       <c r="K110">
-        <v>393.3333333333333</v>
+        <v>388.9285714285714</v>
       </c>
       <c r="L110" t="s">
-        <v>141</v>
+        <v>145</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
       </c>
       <c r="R110">
-        <v>2.208333333333333</v>
+        <v>0</v>
       </c>
       <c r="S110">
-        <v>1.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="T110">
-        <v>2.275</v>
+        <v>0</v>
       </c>
       <c r="U110">
         <v>94.02500000000001</v>
@@ -9959,10 +13574,22 @@
       <c r="AH110">
         <v>55.43</v>
       </c>
+      <c r="AI110">
+        <v>2.429890506181047</v>
+      </c>
+      <c r="AJ110">
+        <v>2.208333333333333</v>
+      </c>
+      <c r="AK110">
+        <v>1.466666666666667</v>
+      </c>
+      <c r="AL110">
+        <v>2.275</v>
+      </c>
     </row>
-    <row r="111" spans="1:34">
+    <row r="111" spans="1:38">
       <c r="A111" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B111">
         <v>40.318382</v>
@@ -9980,31 +13607,46 @@
         <v>17666.67</v>
       </c>
       <c r="G111">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H111">
         <v>1.75</v>
       </c>
       <c r="I111">
-        <v>623.1538461538462</v>
+        <v>624.7532467532468</v>
       </c>
       <c r="J111">
         <v>826.88</v>
       </c>
       <c r="K111">
-        <v>408.453781512605</v>
+        <v>404.2521008403361</v>
       </c>
       <c r="L111" t="s">
-        <v>142</v>
+        <v>146</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
       </c>
       <c r="R111">
-        <v>2.615820734341253</v>
+        <v>0</v>
       </c>
       <c r="S111">
-        <v>2.485714285714286</v>
+        <v>0</v>
       </c>
       <c r="T111">
-        <v>3.257142857142857</v>
+        <v>0</v>
       </c>
       <c r="U111">
         <v>96.17699999999999</v>
@@ -10048,10 +13690,22 @@
       <c r="AH111">
         <v>85.28555555555556</v>
       </c>
+      <c r="AI111">
+        <v>4.09364975318225</v>
+      </c>
+      <c r="AJ111">
+        <v>2.615820734341253</v>
+      </c>
+      <c r="AK111">
+        <v>2.485714285714286</v>
+      </c>
+      <c r="AL111">
+        <v>3.257142857142857</v>
+      </c>
     </row>
-    <row r="112" spans="1:34">
+    <row r="112" spans="1:38">
       <c r="A112" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B112">
         <v>40.460564</v>
@@ -10084,22 +13738,31 @@
         <v>516.8421052631579</v>
       </c>
       <c r="L112" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M112">
         <v>1</v>
       </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
       <c r="O112">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
       </c>
       <c r="R112">
-        <v>3.175135501355014</v>
+        <v>2</v>
       </c>
       <c r="S112">
-        <v>2.45</v>
+        <v>1.2</v>
       </c>
       <c r="T112">
-        <v>2.05</v>
+        <v>0.005010647626205686</v>
       </c>
       <c r="U112">
         <v>95.952</v>
@@ -10143,10 +13806,22 @@
       <c r="AH112">
         <v>86.364</v>
       </c>
+      <c r="AI112">
+        <v>4.224996658446333</v>
+      </c>
+      <c r="AJ112">
+        <v>3.175135501355014</v>
+      </c>
+      <c r="AK112">
+        <v>2.45</v>
+      </c>
+      <c r="AL112">
+        <v>2.05</v>
+      </c>
     </row>
-    <row r="113" spans="1:34">
+    <row r="113" spans="1:38">
       <c r="A113" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B113">
         <v>40.702748</v>
@@ -10179,16 +13854,31 @@
         <v>701.1904761904761</v>
       </c>
       <c r="L113" t="s">
-        <v>144</v>
+        <v>148</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
       </c>
       <c r="R113">
-        <v>2.89248549982941</v>
+        <v>3</v>
       </c>
       <c r="S113">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="T113">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="U113">
         <v>95.886</v>
@@ -10232,10 +13922,22 @@
       <c r="AH113">
         <v>84.03333333333333</v>
       </c>
+      <c r="AI113">
+        <v>3.996202851186394</v>
+      </c>
+      <c r="AJ113">
+        <v>2.89248549982941</v>
+      </c>
+      <c r="AK113">
+        <v>2.2</v>
+      </c>
+      <c r="AL113">
+        <v>1.65</v>
+      </c>
     </row>
-    <row r="114" spans="1:34">
+    <row r="114" spans="1:38">
       <c r="A114" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B114">
         <v>40.716859</v>
@@ -10268,16 +13970,31 @@
         <v>350</v>
       </c>
       <c r="L114" t="s">
-        <v>145</v>
+        <v>149</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
       </c>
       <c r="R114">
-        <v>2.7125</v>
+        <v>0</v>
       </c>
       <c r="S114">
-        <v>2.133333333333333</v>
+        <v>0</v>
       </c>
       <c r="T114">
-        <v>1.775</v>
+        <v>0</v>
       </c>
       <c r="U114">
         <v>95.63</v>
@@ -10321,10 +14038,22 @@
       <c r="AH114">
         <v>75.66333333333334</v>
       </c>
+      <c r="AI114">
+        <v>3.652618015167354</v>
+      </c>
+      <c r="AJ114">
+        <v>2.7125</v>
+      </c>
+      <c r="AK114">
+        <v>2.133333333333333</v>
+      </c>
+      <c r="AL114">
+        <v>1.775</v>
+      </c>
     </row>
-    <row r="115" spans="1:34">
+    <row r="115" spans="1:38">
       <c r="A115" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B115">
         <v>40.707082</v>
@@ -10357,15 +14086,84 @@
         <v>828.3333333333334</v>
       </c>
       <c r="L115" t="s">
-        <v>146</v>
+        <v>150</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
       </c>
       <c r="R115">
+        <v>0</v>
+      </c>
+      <c r="S115">
+        <v>0</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
+      </c>
+      <c r="U115">
+        <v>94.2943036745001</v>
+      </c>
+      <c r="V115">
+        <v>0</v>
+      </c>
+      <c r="W115">
+        <v>85.8380742469101</v>
+      </c>
+      <c r="X115">
+        <v>5699.499194083693</v>
+      </c>
+      <c r="Y115">
+        <v>0</v>
+      </c>
+      <c r="Z115">
+        <v>0.1150350893039983</v>
+      </c>
+      <c r="AA115">
+        <v>0</v>
+      </c>
+      <c r="AB115">
+        <v>0</v>
+      </c>
+      <c r="AC115">
+        <v>64.25376443860371</v>
+      </c>
+      <c r="AD115">
+        <v>50.07596206108703</v>
+      </c>
+      <c r="AE115">
+        <v>0</v>
+      </c>
+      <c r="AF115">
+        <v>0</v>
+      </c>
+      <c r="AG115">
+        <v>0</v>
+      </c>
+      <c r="AH115">
+        <v>64.44804289493577</v>
+      </c>
+      <c r="AI115">
+        <v>3.11285511124936</v>
+      </c>
+      <c r="AJ115">
         <v>1.875</v>
       </c>
-      <c r="S115">
+      <c r="AK115">
         <v>1.35</v>
       </c>
-      <c r="T115">
+      <c r="AL115">
         <v>0</v>
       </c>
     </row>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11">
-        <v>1.941176470588235</v>
+        <v>1.9375</v>
       </c>
       <c r="I11">
-        <v>553.8235294117648</v>
+        <v>538.4375</v>
       </c>
       <c r="J11">
         <v>1900</v>
       </c>
       <c r="K11">
-        <v>285.3030303030303</v>
+        <v>277.9032258064516</v>
       </c>
       <c r="L11" t="s">
         <v>46</v>
@@ -4446,19 +4446,19 @@
         <v>59697.22</v>
       </c>
       <c r="G32">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H32">
-        <v>2.151515151515151</v>
+        <v>2.149253731343284</v>
       </c>
       <c r="I32">
-        <v>1033.325</v>
+        <v>1029.20987654321</v>
       </c>
       <c r="J32">
-        <v>1035.642857142857</v>
+        <v>1031.6</v>
       </c>
       <c r="K32">
-        <v>582.1549295774648</v>
+        <v>578.9305555555555</v>
       </c>
       <c r="L32" t="s">
         <v>67</v>
@@ -9321,16 +9321,16 @@
         <v>120</v>
       </c>
       <c r="H74">
-        <v>2.009090909090909</v>
+        <v>2.018348623853211</v>
       </c>
       <c r="I74">
-        <v>1346.18487394958</v>
+        <v>1341.201680672269</v>
       </c>
       <c r="J74">
-        <v>974</v>
+        <v>955.2</v>
       </c>
       <c r="K74">
-        <v>724.868778280543</v>
+        <v>725.4681818181818</v>
       </c>
       <c r="L74" t="s">
         <v>109</v>
@@ -9898,19 +9898,19 @@
         <v>17666.67</v>
       </c>
       <c r="G79">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H79">
-        <v>2.4875</v>
+        <v>2.493827160493827</v>
       </c>
       <c r="I79">
-        <v>907.8444444444444</v>
+        <v>906.6593406593406</v>
       </c>
       <c r="J79">
         <v>1156.222222222222</v>
       </c>
       <c r="K79">
-        <v>410.5829145728643</v>
+        <v>408.4455445544555</v>
       </c>
       <c r="L79" t="s">
         <v>114</v>
@@ -11177,16 +11177,16 @@
         <v>120</v>
       </c>
       <c r="H90">
-        <v>1.964912280701754</v>
+        <v>1.973684210526316</v>
       </c>
       <c r="I90">
-        <v>1031.218487394958</v>
+        <v>1019.596638655462</v>
       </c>
       <c r="J90">
-        <v>1290.051724137931</v>
+        <v>1271.457627118644</v>
       </c>
       <c r="K90">
-        <v>547.8348214285714</v>
+        <v>539.2533333333333</v>
       </c>
       <c r="L90" t="s">
         <v>125</v>
@@ -12221,16 +12221,16 @@
         <v>120</v>
       </c>
       <c r="H99">
-        <v>1.765217391304348</v>
+        <v>1.773913043478261</v>
       </c>
       <c r="I99">
-        <v>1522.266666666667</v>
+        <v>1532.808333333333</v>
       </c>
       <c r="J99">
-        <v>1033.338709677419</v>
+        <v>1068.34375</v>
       </c>
       <c r="K99">
-        <v>899.8620689655172</v>
+        <v>901.6519607843137</v>
       </c>
       <c r="L99" t="s">
         <v>134</v>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -1240,16 +1240,16 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>94.2943036745001</v>
+        <v>94.29430367450013</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>85.8380742469101</v>
+        <v>85.83807424691008</v>
       </c>
       <c r="X4">
-        <v>5699.499194083693</v>
+        <v>5699.499194083694</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>64.25376443860371</v>
       </c>
       <c r="AD4">
-        <v>50.07596206108703</v>
+        <v>50.07596206108707</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>64.44804289493577</v>
+        <v>64.44804289493575</v>
       </c>
       <c r="AI4">
-        <v>3.11285511124936</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1356,16 +1356,16 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>94.2943036745001</v>
+        <v>94.29430367450013</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>85.8380742469101</v>
+        <v>85.83807424691008</v>
       </c>
       <c r="X5">
-        <v>5699.499194083693</v>
+        <v>5699.499194083694</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1383,7 +1383,7 @@
         <v>64.25376443860371</v>
       </c>
       <c r="AD5">
-        <v>50.07596206108703</v>
+        <v>50.07596206108707</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -1395,10 +1395,10 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>64.44804289493577</v>
+        <v>64.44804289493575</v>
       </c>
       <c r="AI5">
-        <v>3.11285511124936</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1820,16 +1820,16 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>94.2943036745001</v>
+        <v>94.29430367450013</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>85.8380742469101</v>
+        <v>85.83807424691008</v>
       </c>
       <c r="X9">
-        <v>5699.499194083693</v>
+        <v>5699.499194083694</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>64.25376443860371</v>
       </c>
       <c r="AD9">
-        <v>50.07596206108703</v>
+        <v>50.07596206108707</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -1859,10 +1859,10 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>64.44804289493577</v>
+        <v>64.44804289493575</v>
       </c>
       <c r="AI9">
-        <v>3.11285511124936</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -1936,16 +1936,16 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>94.2943036745001</v>
+        <v>94.29430367450013</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
-        <v>85.8380742469101</v>
+        <v>85.83807424691008</v>
       </c>
       <c r="X10">
-        <v>5699.499194083693</v>
+        <v>5699.499194083694</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1963,7 +1963,7 @@
         <v>64.25376443860371</v>
       </c>
       <c r="AD10">
-        <v>50.07596206108703</v>
+        <v>50.07596206108707</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -1975,10 +1975,10 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>64.44804289493577</v>
+        <v>64.44804289493575</v>
       </c>
       <c r="AI10">
-        <v>3.11285511124936</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ10">
         <v>3.125</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H11">
-        <v>1.9375</v>
+        <v>1.941176470588235</v>
       </c>
       <c r="I11">
-        <v>538.4375</v>
+        <v>553.8235294117648</v>
       </c>
       <c r="J11">
         <v>1900</v>
       </c>
       <c r="K11">
-        <v>277.9032258064516</v>
+        <v>285.3030303030303</v>
       </c>
       <c r="L11" t="s">
         <v>46</v>
@@ -2400,16 +2400,16 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>94.2943036745001</v>
+        <v>94.29430367450013</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
       <c r="W14">
-        <v>85.8380742469101</v>
+        <v>85.83807424691008</v>
       </c>
       <c r="X14">
-        <v>5699.499194083693</v>
+        <v>5699.499194083694</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -2427,7 +2427,7 @@
         <v>64.25376443860371</v>
       </c>
       <c r="AD14">
-        <v>50.07596206108703</v>
+        <v>50.07596206108707</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -2439,10 +2439,10 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>64.44804289493577</v>
+        <v>64.44804289493575</v>
       </c>
       <c r="AI14">
-        <v>3.11285511124936</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ14">
         <v>2.193965517241379</v>
@@ -2516,16 +2516,16 @@
         <v>5.219424610630924e-05</v>
       </c>
       <c r="U15">
-        <v>94.2943036745001</v>
+        <v>94.29430367450013</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15">
-        <v>85.8380742469101</v>
+        <v>85.83807424691008</v>
       </c>
       <c r="X15">
-        <v>5699.499194083693</v>
+        <v>5699.499194083694</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -2543,7 +2543,7 @@
         <v>64.25376443860371</v>
       </c>
       <c r="AD15">
-        <v>50.07596206108703</v>
+        <v>50.07596206108707</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -2555,10 +2555,10 @@
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>64.44804289493577</v>
+        <v>64.44804289493575</v>
       </c>
       <c r="AI15">
-        <v>3.11285511124936</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ15">
         <v>0</v>
@@ -2632,16 +2632,16 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>94.2943036745001</v>
+        <v>94.29430367450013</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
       <c r="W16">
-        <v>85.8380742469101</v>
+        <v>85.83807424691008</v>
       </c>
       <c r="X16">
-        <v>5699.499194083693</v>
+        <v>5699.499194083694</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -2659,7 +2659,7 @@
         <v>64.25376443860371</v>
       </c>
       <c r="AD16">
-        <v>50.07596206108703</v>
+        <v>50.07596206108707</v>
       </c>
       <c r="AE16">
         <v>0</v>
@@ -2671,10 +2671,10 @@
         <v>0</v>
       </c>
       <c r="AH16">
-        <v>64.44804289493577</v>
+        <v>64.44804289493575</v>
       </c>
       <c r="AI16">
-        <v>3.11285511124936</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ16">
         <v>2.625</v>
@@ -2748,16 +2748,16 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>94.2943036745001</v>
+        <v>94.29430367450013</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
       <c r="W17">
-        <v>85.8380742469101</v>
+        <v>85.83807424691008</v>
       </c>
       <c r="X17">
-        <v>5699.499194083693</v>
+        <v>5699.499194083694</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>64.25376443860371</v>
       </c>
       <c r="AD17">
-        <v>50.07596206108703</v>
+        <v>50.07596206108707</v>
       </c>
       <c r="AE17">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>0</v>
       </c>
       <c r="AH17">
-        <v>64.44804289493577</v>
+        <v>64.44804289493575</v>
       </c>
       <c r="AI17">
-        <v>3.11285511124936</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ17">
         <v>2.125</v>
@@ -2864,16 +2864,16 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>94.2943036745001</v>
+        <v>94.29430367450013</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18">
-        <v>85.8380742469101</v>
+        <v>85.83807424691008</v>
       </c>
       <c r="X18">
-        <v>5699.499194083693</v>
+        <v>5699.499194083694</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>64.25376443860371</v>
       </c>
       <c r="AD18">
-        <v>50.07596206108703</v>
+        <v>50.07596206108707</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -2903,10 +2903,10 @@
         <v>0</v>
       </c>
       <c r="AH18">
-        <v>64.44804289493577</v>
+        <v>64.44804289493575</v>
       </c>
       <c r="AI18">
-        <v>3.11285511124936</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ18">
         <v>0</v>
@@ -2980,16 +2980,16 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>94.2943036745001</v>
+        <v>94.29430367450013</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
       <c r="W19">
-        <v>85.8380742469101</v>
+        <v>85.83807424691008</v>
       </c>
       <c r="X19">
-        <v>5699.499194083693</v>
+        <v>5699.499194083694</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>64.25376443860371</v>
       </c>
       <c r="AD19">
-        <v>50.07596206108703</v>
+        <v>50.07596206108707</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -3019,10 +3019,10 @@
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>64.44804289493577</v>
+        <v>64.44804289493575</v>
       </c>
       <c r="AI19">
-        <v>3.11285511124936</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ19">
         <v>2.875</v>
@@ -3328,16 +3328,16 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>94.2943036745001</v>
+        <v>94.29430367450013</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
       <c r="W22">
-        <v>85.8380742469101</v>
+        <v>85.83807424691008</v>
       </c>
       <c r="X22">
-        <v>5699.499194083693</v>
+        <v>5699.499194083694</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -3355,7 +3355,7 @@
         <v>64.25376443860371</v>
       </c>
       <c r="AD22">
-        <v>50.07596206108703</v>
+        <v>50.07596206108707</v>
       </c>
       <c r="AE22">
         <v>0</v>
@@ -3367,10 +3367,10 @@
         <v>0</v>
       </c>
       <c r="AH22">
-        <v>64.44804289493577</v>
+        <v>64.44804289493575</v>
       </c>
       <c r="AI22">
-        <v>3.11285511124936</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ22">
         <v>2.625</v>
@@ -3444,16 +3444,16 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>94.2943036745001</v>
+        <v>94.29430367450013</v>
       </c>
       <c r="V23">
         <v>0</v>
       </c>
       <c r="W23">
-        <v>85.8380742469101</v>
+        <v>85.83807424691008</v>
       </c>
       <c r="X23">
-        <v>5699.499194083693</v>
+        <v>5699.499194083694</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>64.25376443860371</v>
       </c>
       <c r="AD23">
-        <v>50.07596206108703</v>
+        <v>50.07596206108707</v>
       </c>
       <c r="AE23">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="AH23">
-        <v>64.44804289493577</v>
+        <v>64.44804289493575</v>
       </c>
       <c r="AI23">
-        <v>3.11285511124936</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ23">
         <v>2.375</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>94.2943036745001</v>
+        <v>94.29430367450013</v>
       </c>
       <c r="V24">
         <v>0</v>
       </c>
       <c r="W24">
-        <v>85.8380742469101</v>
+        <v>85.83807424691008</v>
       </c>
       <c r="X24">
-        <v>5699.499194083693</v>
+        <v>5699.499194083694</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -3587,7 +3587,7 @@
         <v>64.25376443860371</v>
       </c>
       <c r="AD24">
-        <v>50.07596206108703</v>
+        <v>50.07596206108707</v>
       </c>
       <c r="AE24">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>0</v>
       </c>
       <c r="AH24">
-        <v>64.44804289493577</v>
+        <v>64.44804289493575</v>
       </c>
       <c r="AI24">
-        <v>3.11285511124936</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ24">
         <v>0</v>
@@ -3676,16 +3676,16 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>94.2943036745001</v>
+        <v>94.29430367450013</v>
       </c>
       <c r="V25">
         <v>0</v>
       </c>
       <c r="W25">
-        <v>85.8380742469101</v>
+        <v>85.83807424691008</v>
       </c>
       <c r="X25">
-        <v>5699.499194083693</v>
+        <v>5699.499194083694</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>64.25376443860371</v>
       </c>
       <c r="AD25">
-        <v>50.07596206108703</v>
+        <v>50.07596206108707</v>
       </c>
       <c r="AE25">
         <v>0</v>
@@ -3715,10 +3715,10 @@
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>64.44804289493577</v>
+        <v>64.44804289493575</v>
       </c>
       <c r="AI25">
-        <v>3.11285511124936</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ25">
         <v>0</v>
@@ -3792,16 +3792,16 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>94.2943036745001</v>
+        <v>94.29430367450013</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
       <c r="W26">
-        <v>85.8380742469101</v>
+        <v>85.83807424691008</v>
       </c>
       <c r="X26">
-        <v>5699.499194083693</v>
+        <v>5699.499194083694</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>64.25376443860371</v>
       </c>
       <c r="AD26">
-        <v>50.07596206108703</v>
+        <v>50.07596206108707</v>
       </c>
       <c r="AE26">
         <v>0</v>
@@ -3831,10 +3831,10 @@
         <v>0</v>
       </c>
       <c r="AH26">
-        <v>64.44804289493577</v>
+        <v>64.44804289493575</v>
       </c>
       <c r="AI26">
-        <v>3.11285511124936</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ26">
         <v>0</v>
@@ -4256,16 +4256,16 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>94.2943036745001</v>
+        <v>94.29430367450013</v>
       </c>
       <c r="V30">
         <v>0</v>
       </c>
       <c r="W30">
-        <v>85.8380742469101</v>
+        <v>85.83807424691008</v>
       </c>
       <c r="X30">
-        <v>5699.499194083693</v>
+        <v>5699.499194083694</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -4283,7 +4283,7 @@
         <v>64.25376443860371</v>
       </c>
       <c r="AD30">
-        <v>50.07596206108703</v>
+        <v>50.07596206108707</v>
       </c>
       <c r="AE30">
         <v>0</v>
@@ -4295,10 +4295,10 @@
         <v>0</v>
       </c>
       <c r="AH30">
-        <v>64.44804289493577</v>
+        <v>64.44804289493575</v>
       </c>
       <c r="AI30">
-        <v>3.11285511124936</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ30">
         <v>0</v>
@@ -4720,16 +4720,16 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <v>94.2943036745001</v>
+        <v>94.29430367450013</v>
       </c>
       <c r="V34">
         <v>0</v>
       </c>
       <c r="W34">
-        <v>85.8380742469101</v>
+        <v>85.83807424691008</v>
       </c>
       <c r="X34">
-        <v>5699.499194083693</v>
+        <v>5699.499194083694</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>64.25376443860371</v>
       </c>
       <c r="AD34">
-        <v>50.07596206108703</v>
+        <v>50.07596206108707</v>
       </c>
       <c r="AE34">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="AH34">
-        <v>64.44804289493577</v>
+        <v>64.44804289493575</v>
       </c>
       <c r="AI34">
-        <v>3.11285511124936</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ34">
         <v>2.875</v>
@@ -4836,16 +4836,16 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>94.2943036745001</v>
+        <v>94.29430367450013</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
       <c r="W35">
-        <v>85.8380742469101</v>
+        <v>85.83807424691008</v>
       </c>
       <c r="X35">
-        <v>5699.499194083693</v>
+        <v>5699.499194083694</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -4863,7 +4863,7 @@
         <v>64.25376443860371</v>
       </c>
       <c r="AD35">
-        <v>50.07596206108703</v>
+        <v>50.07596206108707</v>
       </c>
       <c r="AE35">
         <v>0</v>
@@ -4875,10 +4875,10 @@
         <v>0</v>
       </c>
       <c r="AH35">
-        <v>64.44804289493577</v>
+        <v>64.44804289493575</v>
       </c>
       <c r="AI35">
-        <v>3.11285511124936</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ35">
         <v>2.909883720930233</v>
@@ -4952,16 +4952,16 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>94.2943036745001</v>
+        <v>94.29430367450013</v>
       </c>
       <c r="V36">
         <v>0</v>
       </c>
       <c r="W36">
-        <v>85.8380742469101</v>
+        <v>85.83807424691008</v>
       </c>
       <c r="X36">
-        <v>5699.499194083693</v>
+        <v>5699.499194083694</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -4979,7 +4979,7 @@
         <v>64.25376443860371</v>
       </c>
       <c r="AD36">
-        <v>50.07596206108703</v>
+        <v>50.07596206108707</v>
       </c>
       <c r="AE36">
         <v>0</v>
@@ -4991,10 +4991,10 @@
         <v>0</v>
       </c>
       <c r="AH36">
-        <v>64.44804289493577</v>
+        <v>64.44804289493575</v>
       </c>
       <c r="AI36">
-        <v>3.11285511124936</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ36">
         <v>2.875</v>
@@ -5300,16 +5300,16 @@
         <v>0</v>
       </c>
       <c r="U39">
-        <v>94.2943036745001</v>
+        <v>94.29430367450013</v>
       </c>
       <c r="V39">
         <v>0</v>
       </c>
       <c r="W39">
-        <v>85.8380742469101</v>
+        <v>85.83807424691008</v>
       </c>
       <c r="X39">
-        <v>5699.499194083693</v>
+        <v>5699.499194083694</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -5327,7 +5327,7 @@
         <v>64.25376443860371</v>
       </c>
       <c r="AD39">
-        <v>50.07596206108703</v>
+        <v>50.07596206108707</v>
       </c>
       <c r="AE39">
         <v>0</v>
@@ -5339,10 +5339,10 @@
         <v>0</v>
       </c>
       <c r="AH39">
-        <v>64.44804289493577</v>
+        <v>64.44804289493575</v>
       </c>
       <c r="AI39">
-        <v>3.11285511124936</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ39">
         <v>2.684065934065934</v>
@@ -5416,16 +5416,16 @@
         <v>0</v>
       </c>
       <c r="U40">
-        <v>94.2943036745001</v>
+        <v>94.29430367450013</v>
       </c>
       <c r="V40">
         <v>0</v>
       </c>
       <c r="W40">
-        <v>85.8380742469101</v>
+        <v>85.83807424691008</v>
       </c>
       <c r="X40">
-        <v>5699.499194083693</v>
+        <v>5699.499194083694</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -5443,7 +5443,7 @@
         <v>64.25376443860371</v>
       </c>
       <c r="AD40">
-        <v>50.07596206108703</v>
+        <v>50.07596206108707</v>
       </c>
       <c r="AE40">
         <v>0</v>
@@ -5455,10 +5455,10 @@
         <v>0</v>
       </c>
       <c r="AH40">
-        <v>64.44804289493577</v>
+        <v>64.44804289493575</v>
       </c>
       <c r="AI40">
-        <v>3.11285511124936</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ40">
         <v>2.875</v>
@@ -5996,16 +5996,16 @@
         <v>0.01200467660445112</v>
       </c>
       <c r="U45">
-        <v>94.2943036745001</v>
+        <v>94.29430367450013</v>
       </c>
       <c r="V45">
         <v>0</v>
       </c>
       <c r="W45">
-        <v>85.8380742469101</v>
+        <v>85.83807424691008</v>
       </c>
       <c r="X45">
-        <v>5699.499194083693</v>
+        <v>5699.499194083694</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -6023,7 +6023,7 @@
         <v>64.25376443860371</v>
       </c>
       <c r="AD45">
-        <v>50.07596206108703</v>
+        <v>50.07596206108707</v>
       </c>
       <c r="AE45">
         <v>0</v>
@@ -6035,10 +6035,10 @@
         <v>0</v>
       </c>
       <c r="AH45">
-        <v>64.44804289493577</v>
+        <v>64.44804289493575</v>
       </c>
       <c r="AI45">
-        <v>3.11285511124936</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ45">
         <v>2.740994236311239</v>
@@ -6460,16 +6460,16 @@
         <v>0</v>
       </c>
       <c r="U49">
-        <v>94.2943036745001</v>
+        <v>94.29430367450013</v>
       </c>
       <c r="V49">
         <v>0</v>
       </c>
       <c r="W49">
-        <v>85.8380742469101</v>
+        <v>85.83807424691008</v>
       </c>
       <c r="X49">
-        <v>5699.499194083693</v>
+        <v>5699.499194083694</v>
       </c>
       <c r="Y49">
         <v>0</v>
@@ -6487,7 +6487,7 @@
         <v>64.25376443860371</v>
       </c>
       <c r="AD49">
-        <v>50.07596206108703</v>
+        <v>50.07596206108707</v>
       </c>
       <c r="AE49">
         <v>0</v>
@@ -6499,10 +6499,10 @@
         <v>0</v>
       </c>
       <c r="AH49">
-        <v>64.44804289493577</v>
+        <v>64.44804289493575</v>
       </c>
       <c r="AI49">
-        <v>3.11285511124936</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ49">
         <v>2.625</v>
@@ -7230,19 +7230,19 @@
         <v>17666.67</v>
       </c>
       <c r="G56">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H56">
-        <v>1.884615384615385</v>
+        <v>1.89873417721519</v>
       </c>
       <c r="I56">
-        <v>683.7160493827161</v>
+        <v>685.439024390244</v>
       </c>
       <c r="J56">
         <v>979.6896551724138</v>
       </c>
       <c r="K56">
-        <v>376.7414965986395</v>
+        <v>374.7066666666666</v>
       </c>
       <c r="L56" t="s">
         <v>91</v>
@@ -7462,19 +7462,19 @@
         <v>45697.22</v>
       </c>
       <c r="G58">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H58">
-        <v>1.916666666666667</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>734.6666666666666</v>
+        <v>740.3125</v>
       </c>
       <c r="J58">
         <v>925.7142857142857</v>
       </c>
       <c r="K58">
-        <v>479.1304347826087</v>
+        <v>455.5769230769231</v>
       </c>
       <c r="L58" t="s">
         <v>93</v>
@@ -7926,19 +7926,19 @@
         <v>17666.67</v>
       </c>
       <c r="G62">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H62">
-        <v>2.103448275862069</v>
+        <v>2.107142857142857</v>
       </c>
       <c r="I62">
-        <v>855.0857142857143</v>
+        <v>683.9117647058823</v>
       </c>
       <c r="J62">
         <v>1100</v>
       </c>
       <c r="K62">
-        <v>490.6229508196722</v>
+        <v>394.1186440677966</v>
       </c>
       <c r="L62" t="s">
         <v>97</v>
@@ -8084,16 +8084,16 @@
         <v>0</v>
       </c>
       <c r="U63">
-        <v>94.2943036745001</v>
+        <v>94.29430367450013</v>
       </c>
       <c r="V63">
         <v>0</v>
       </c>
       <c r="W63">
-        <v>85.8380742469101</v>
+        <v>85.83807424691008</v>
       </c>
       <c r="X63">
-        <v>5699.499194083693</v>
+        <v>5699.499194083694</v>
       </c>
       <c r="Y63">
         <v>0</v>
@@ -8111,7 +8111,7 @@
         <v>64.25376443860371</v>
       </c>
       <c r="AD63">
-        <v>50.07596206108703</v>
+        <v>50.07596206108707</v>
       </c>
       <c r="AE63">
         <v>0</v>
@@ -8123,10 +8123,10 @@
         <v>0</v>
       </c>
       <c r="AH63">
-        <v>64.44804289493577</v>
+        <v>64.44804289493575</v>
       </c>
       <c r="AI63">
-        <v>3.11285511124936</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ63">
         <v>0</v>
@@ -8780,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="U69">
-        <v>94.2943036745001</v>
+        <v>94.29430367450013</v>
       </c>
       <c r="V69">
         <v>0</v>
       </c>
       <c r="W69">
-        <v>85.8380742469101</v>
+        <v>85.83807424691008</v>
       </c>
       <c r="X69">
-        <v>5699.499194083693</v>
+        <v>5699.499194083694</v>
       </c>
       <c r="Y69">
         <v>0</v>
@@ -8807,7 +8807,7 @@
         <v>64.25376443860371</v>
       </c>
       <c r="AD69">
-        <v>50.07596206108703</v>
+        <v>50.07596206108707</v>
       </c>
       <c r="AE69">
         <v>0</v>
@@ -8819,10 +8819,10 @@
         <v>0</v>
       </c>
       <c r="AH69">
-        <v>64.44804289493577</v>
+        <v>64.44804289493575</v>
       </c>
       <c r="AI69">
-        <v>3.11285511124936</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ69">
         <v>2.664473684210526</v>
@@ -8857,16 +8857,16 @@
         <v>120</v>
       </c>
       <c r="H70">
-        <v>1.98989898989899</v>
+        <v>1.97979797979798</v>
       </c>
       <c r="I70">
-        <v>1227.075</v>
+        <v>1225.408333333333</v>
       </c>
       <c r="J70">
-        <v>1226.210526315789</v>
+        <v>1205.297297297297</v>
       </c>
       <c r="K70">
-        <v>747.4568527918782</v>
+        <v>750.25</v>
       </c>
       <c r="L70" t="s">
         <v>105</v>
@@ -9324,13 +9324,13 @@
         <v>2.018348623853211</v>
       </c>
       <c r="I74">
-        <v>1341.201680672269</v>
+        <v>1333.210084033613</v>
       </c>
       <c r="J74">
-        <v>955.2</v>
+        <v>1010.769230769231</v>
       </c>
       <c r="K74">
-        <v>725.4681818181818</v>
+        <v>721.1454545454545</v>
       </c>
       <c r="L74" t="s">
         <v>109</v>
@@ -10133,16 +10133,16 @@
         <v>120</v>
       </c>
       <c r="H81">
-        <v>2.287128712871287</v>
+        <v>2.297029702970297</v>
       </c>
       <c r="I81">
-        <v>1069.840336134454</v>
+        <v>1073.243697478992</v>
       </c>
       <c r="J81">
-        <v>989.1030927835052</v>
+        <v>1003.5</v>
       </c>
       <c r="K81">
-        <v>551.1298701298701</v>
+        <v>550.5</v>
       </c>
       <c r="L81" t="s">
         <v>116</v>
@@ -10713,16 +10713,16 @@
         <v>120</v>
       </c>
       <c r="H86">
-        <v>1.781818181818182</v>
+        <v>1.756756756756757</v>
       </c>
       <c r="I86">
-        <v>1201.908333333333</v>
+        <v>1199.366666666667</v>
       </c>
       <c r="J86">
-        <v>992.9491525423729</v>
+        <v>985.639344262295</v>
       </c>
       <c r="K86">
-        <v>735.8622448979592</v>
+        <v>738.0717948717949</v>
       </c>
       <c r="L86" t="s">
         <v>121</v>
@@ -11448,16 +11448,16 @@
         <v>0.006472086517182346</v>
       </c>
       <c r="U92">
-        <v>94.2943036745001</v>
+        <v>94.29430367450013</v>
       </c>
       <c r="V92">
         <v>0</v>
       </c>
       <c r="W92">
-        <v>85.8380742469101</v>
+        <v>85.83807424691008</v>
       </c>
       <c r="X92">
-        <v>5699.499194083693</v>
+        <v>5699.499194083694</v>
       </c>
       <c r="Y92">
         <v>0</v>
@@ -11475,7 +11475,7 @@
         <v>64.25376443860371</v>
       </c>
       <c r="AD92">
-        <v>50.07596206108703</v>
+        <v>50.07596206108707</v>
       </c>
       <c r="AE92">
         <v>0</v>
@@ -11487,10 +11487,10 @@
         <v>0</v>
       </c>
       <c r="AH92">
-        <v>64.44804289493577</v>
+        <v>64.44804289493575</v>
       </c>
       <c r="AI92">
-        <v>3.11285511124936</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ92">
         <v>3.345496894409938</v>
@@ -11680,16 +11680,16 @@
         <v>0.0008873021838072571</v>
       </c>
       <c r="U94">
-        <v>94.2943036745001</v>
+        <v>94.29430367450013</v>
       </c>
       <c r="V94">
         <v>0</v>
       </c>
       <c r="W94">
-        <v>85.8380742469101</v>
+        <v>85.83807424691008</v>
       </c>
       <c r="X94">
-        <v>5699.499194083693</v>
+        <v>5699.499194083694</v>
       </c>
       <c r="Y94">
         <v>0</v>
@@ -11707,7 +11707,7 @@
         <v>64.25376443860371</v>
       </c>
       <c r="AD94">
-        <v>50.07596206108703</v>
+        <v>50.07596206108707</v>
       </c>
       <c r="AE94">
         <v>0</v>
@@ -11719,10 +11719,10 @@
         <v>0</v>
       </c>
       <c r="AH94">
-        <v>64.44804289493577</v>
+        <v>64.44804289493575</v>
       </c>
       <c r="AI94">
-        <v>3.11285511124936</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ94">
         <v>2.464285714285714</v>
@@ -13420,16 +13420,16 @@
         <v>0</v>
       </c>
       <c r="U109">
-        <v>94.2943036745001</v>
+        <v>94.29430367450013</v>
       </c>
       <c r="V109">
         <v>0</v>
       </c>
       <c r="W109">
-        <v>85.8380742469101</v>
+        <v>85.83807424691008</v>
       </c>
       <c r="X109">
-        <v>5699.499194083693</v>
+        <v>5699.499194083694</v>
       </c>
       <c r="Y109">
         <v>0</v>
@@ -13447,7 +13447,7 @@
         <v>64.25376443860371</v>
       </c>
       <c r="AD109">
-        <v>50.07596206108703</v>
+        <v>50.07596206108707</v>
       </c>
       <c r="AE109">
         <v>0</v>
@@ -13459,10 +13459,10 @@
         <v>0</v>
       </c>
       <c r="AH109">
-        <v>64.44804289493577</v>
+        <v>64.44804289493575</v>
       </c>
       <c r="AI109">
-        <v>3.11285511124936</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ109">
         <v>0</v>
@@ -13536,16 +13536,16 @@
         <v>0</v>
       </c>
       <c r="U110">
-        <v>94.2943036745001</v>
+        <v>94.29430367450013</v>
       </c>
       <c r="V110">
         <v>0</v>
       </c>
       <c r="W110">
-        <v>85.8380742469101</v>
+        <v>85.83807424691008</v>
       </c>
       <c r="X110">
-        <v>5699.499194083693</v>
+        <v>5699.499194083694</v>
       </c>
       <c r="Y110">
         <v>0</v>
@@ -13563,7 +13563,7 @@
         <v>64.25376443860371</v>
       </c>
       <c r="AD110">
-        <v>50.07596206108703</v>
+        <v>50.07596206108707</v>
       </c>
       <c r="AE110">
         <v>0</v>
@@ -13575,10 +13575,10 @@
         <v>0</v>
       </c>
       <c r="AH110">
-        <v>64.44804289493577</v>
+        <v>64.44804289493575</v>
       </c>
       <c r="AI110">
-        <v>3.11285511124936</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ110">
         <v>0</v>
@@ -14232,16 +14232,16 @@
         <v>0</v>
       </c>
       <c r="U116">
-        <v>94.2943036745001</v>
+        <v>94.29430367450013</v>
       </c>
       <c r="V116">
         <v>0</v>
       </c>
       <c r="W116">
-        <v>85.8380742469101</v>
+        <v>85.83807424691008</v>
       </c>
       <c r="X116">
-        <v>5699.499194083693</v>
+        <v>5699.499194083694</v>
       </c>
       <c r="Y116">
         <v>0</v>
@@ -14259,7 +14259,7 @@
         <v>64.25376443860371</v>
       </c>
       <c r="AD116">
-        <v>50.07596206108703</v>
+        <v>50.07596206108707</v>
       </c>
       <c r="AE116">
         <v>0</v>
@@ -14271,10 +14271,10 @@
         <v>0</v>
       </c>
       <c r="AH116">
-        <v>64.44804289493577</v>
+        <v>64.44804289493575</v>
       </c>
       <c r="AI116">
-        <v>3.11285511124936</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ116">
         <v>1.875</v>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -1246,10 +1246,10 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>85.83807424691008</v>
+        <v>85.83807424691005</v>
       </c>
       <c r="X4">
-        <v>5699.499194083694</v>
+        <v>5699.499194083695</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>64.25376443860371</v>
+        <v>64.25376443860374</v>
       </c>
       <c r="AD4">
         <v>50.07596206108707</v>
@@ -1282,7 +1282,7 @@
         <v>64.44804289493575</v>
       </c>
       <c r="AI4">
-        <v>3.112855111249359</v>
+        <v>3.112855111249358</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1362,10 +1362,10 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>85.83807424691008</v>
+        <v>85.83807424691005</v>
       </c>
       <c r="X5">
-        <v>5699.499194083694</v>
+        <v>5699.499194083695</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>64.25376443860371</v>
+        <v>64.25376443860374</v>
       </c>
       <c r="AD5">
         <v>50.07596206108707</v>
@@ -1398,7 +1398,7 @@
         <v>64.44804289493575</v>
       </c>
       <c r="AI5">
-        <v>3.112855111249359</v>
+        <v>3.112855111249358</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1826,10 +1826,10 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>85.83807424691008</v>
+        <v>85.83807424691005</v>
       </c>
       <c r="X9">
-        <v>5699.499194083694</v>
+        <v>5699.499194083695</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>64.25376443860371</v>
+        <v>64.25376443860374</v>
       </c>
       <c r="AD9">
         <v>50.07596206108707</v>
@@ -1862,7 +1862,7 @@
         <v>64.44804289493575</v>
       </c>
       <c r="AI9">
-        <v>3.112855111249359</v>
+        <v>3.112855111249358</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -1942,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>85.83807424691008</v>
+        <v>85.83807424691005</v>
       </c>
       <c r="X10">
-        <v>5699.499194083694</v>
+        <v>5699.499194083695</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>64.25376443860371</v>
+        <v>64.25376443860374</v>
       </c>
       <c r="AD10">
         <v>50.07596206108707</v>
@@ -1978,7 +1978,7 @@
         <v>64.44804289493575</v>
       </c>
       <c r="AI10">
-        <v>3.112855111249359</v>
+        <v>3.112855111249358</v>
       </c>
       <c r="AJ10">
         <v>3.125</v>
@@ -2406,10 +2406,10 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>85.83807424691008</v>
+        <v>85.83807424691005</v>
       </c>
       <c r="X14">
-        <v>5699.499194083694</v>
+        <v>5699.499194083695</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="AC14">
-        <v>64.25376443860371</v>
+        <v>64.25376443860374</v>
       </c>
       <c r="AD14">
         <v>50.07596206108707</v>
@@ -2442,7 +2442,7 @@
         <v>64.44804289493575</v>
       </c>
       <c r="AI14">
-        <v>3.112855111249359</v>
+        <v>3.112855111249358</v>
       </c>
       <c r="AJ14">
         <v>2.193965517241379</v>
@@ -2522,10 +2522,10 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>85.83807424691008</v>
+        <v>85.83807424691005</v>
       </c>
       <c r="X15">
-        <v>5699.499194083694</v>
+        <v>5699.499194083695</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="AC15">
-        <v>64.25376443860371</v>
+        <v>64.25376443860374</v>
       </c>
       <c r="AD15">
         <v>50.07596206108707</v>
@@ -2558,7 +2558,7 @@
         <v>64.44804289493575</v>
       </c>
       <c r="AI15">
-        <v>3.112855111249359</v>
+        <v>3.112855111249358</v>
       </c>
       <c r="AJ15">
         <v>0</v>
@@ -2638,10 +2638,10 @@
         <v>0</v>
       </c>
       <c r="W16">
-        <v>85.83807424691008</v>
+        <v>85.83807424691005</v>
       </c>
       <c r="X16">
-        <v>5699.499194083694</v>
+        <v>5699.499194083695</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -2656,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="AC16">
-        <v>64.25376443860371</v>
+        <v>64.25376443860374</v>
       </c>
       <c r="AD16">
         <v>50.07596206108707</v>
@@ -2674,7 +2674,7 @@
         <v>64.44804289493575</v>
       </c>
       <c r="AI16">
-        <v>3.112855111249359</v>
+        <v>3.112855111249358</v>
       </c>
       <c r="AJ16">
         <v>2.625</v>
@@ -2754,10 +2754,10 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>85.83807424691008</v>
+        <v>85.83807424691005</v>
       </c>
       <c r="X17">
-        <v>5699.499194083694</v>
+        <v>5699.499194083695</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="AC17">
-        <v>64.25376443860371</v>
+        <v>64.25376443860374</v>
       </c>
       <c r="AD17">
         <v>50.07596206108707</v>
@@ -2790,7 +2790,7 @@
         <v>64.44804289493575</v>
       </c>
       <c r="AI17">
-        <v>3.112855111249359</v>
+        <v>3.112855111249358</v>
       </c>
       <c r="AJ17">
         <v>2.125</v>
@@ -2870,10 +2870,10 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>85.83807424691008</v>
+        <v>85.83807424691005</v>
       </c>
       <c r="X18">
-        <v>5699.499194083694</v>
+        <v>5699.499194083695</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="AC18">
-        <v>64.25376443860371</v>
+        <v>64.25376443860374</v>
       </c>
       <c r="AD18">
         <v>50.07596206108707</v>
@@ -2906,7 +2906,7 @@
         <v>64.44804289493575</v>
       </c>
       <c r="AI18">
-        <v>3.112855111249359</v>
+        <v>3.112855111249358</v>
       </c>
       <c r="AJ18">
         <v>0</v>
@@ -2986,10 +2986,10 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>85.83807424691008</v>
+        <v>85.83807424691005</v>
       </c>
       <c r="X19">
-        <v>5699.499194083694</v>
+        <v>5699.499194083695</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="AC19">
-        <v>64.25376443860371</v>
+        <v>64.25376443860374</v>
       </c>
       <c r="AD19">
         <v>50.07596206108707</v>
@@ -3022,7 +3022,7 @@
         <v>64.44804289493575</v>
       </c>
       <c r="AI19">
-        <v>3.112855111249359</v>
+        <v>3.112855111249358</v>
       </c>
       <c r="AJ19">
         <v>2.875</v>
@@ -3334,10 +3334,10 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>85.83807424691008</v>
+        <v>85.83807424691005</v>
       </c>
       <c r="X22">
-        <v>5699.499194083694</v>
+        <v>5699.499194083695</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="AC22">
-        <v>64.25376443860371</v>
+        <v>64.25376443860374</v>
       </c>
       <c r="AD22">
         <v>50.07596206108707</v>
@@ -3370,7 +3370,7 @@
         <v>64.44804289493575</v>
       </c>
       <c r="AI22">
-        <v>3.112855111249359</v>
+        <v>3.112855111249358</v>
       </c>
       <c r="AJ22">
         <v>2.625</v>
@@ -3450,10 +3450,10 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>85.83807424691008</v>
+        <v>85.83807424691005</v>
       </c>
       <c r="X23">
-        <v>5699.499194083694</v>
+        <v>5699.499194083695</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="AC23">
-        <v>64.25376443860371</v>
+        <v>64.25376443860374</v>
       </c>
       <c r="AD23">
         <v>50.07596206108707</v>
@@ -3486,7 +3486,7 @@
         <v>64.44804289493575</v>
       </c>
       <c r="AI23">
-        <v>3.112855111249359</v>
+        <v>3.112855111249358</v>
       </c>
       <c r="AJ23">
         <v>2.375</v>
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>85.83807424691008</v>
+        <v>85.83807424691005</v>
       </c>
       <c r="X24">
-        <v>5699.499194083694</v>
+        <v>5699.499194083695</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="AC24">
-        <v>64.25376443860371</v>
+        <v>64.25376443860374</v>
       </c>
       <c r="AD24">
         <v>50.07596206108707</v>
@@ -3602,7 +3602,7 @@
         <v>64.44804289493575</v>
       </c>
       <c r="AI24">
-        <v>3.112855111249359</v>
+        <v>3.112855111249358</v>
       </c>
       <c r="AJ24">
         <v>0</v>
@@ -3682,10 +3682,10 @@
         <v>0</v>
       </c>
       <c r="W25">
-        <v>85.83807424691008</v>
+        <v>85.83807424691005</v>
       </c>
       <c r="X25">
-        <v>5699.499194083694</v>
+        <v>5699.499194083695</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="AC25">
-        <v>64.25376443860371</v>
+        <v>64.25376443860374</v>
       </c>
       <c r="AD25">
         <v>50.07596206108707</v>
@@ -3718,7 +3718,7 @@
         <v>64.44804289493575</v>
       </c>
       <c r="AI25">
-        <v>3.112855111249359</v>
+        <v>3.112855111249358</v>
       </c>
       <c r="AJ25">
         <v>0</v>
@@ -3798,10 +3798,10 @@
         <v>0</v>
       </c>
       <c r="W26">
-        <v>85.83807424691008</v>
+        <v>85.83807424691005</v>
       </c>
       <c r="X26">
-        <v>5699.499194083694</v>
+        <v>5699.499194083695</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="AC26">
-        <v>64.25376443860371</v>
+        <v>64.25376443860374</v>
       </c>
       <c r="AD26">
         <v>50.07596206108707</v>
@@ -3834,7 +3834,7 @@
         <v>64.44804289493575</v>
       </c>
       <c r="AI26">
-        <v>3.112855111249359</v>
+        <v>3.112855111249358</v>
       </c>
       <c r="AJ26">
         <v>0</v>
@@ -4262,10 +4262,10 @@
         <v>0</v>
       </c>
       <c r="W30">
-        <v>85.83807424691008</v>
+        <v>85.83807424691005</v>
       </c>
       <c r="X30">
-        <v>5699.499194083694</v>
+        <v>5699.499194083695</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="AC30">
-        <v>64.25376443860371</v>
+        <v>64.25376443860374</v>
       </c>
       <c r="AD30">
         <v>50.07596206108707</v>
@@ -4298,7 +4298,7 @@
         <v>64.44804289493575</v>
       </c>
       <c r="AI30">
-        <v>3.112855111249359</v>
+        <v>3.112855111249358</v>
       </c>
       <c r="AJ30">
         <v>0</v>
@@ -4726,10 +4726,10 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>85.83807424691008</v>
+        <v>85.83807424691005</v>
       </c>
       <c r="X34">
-        <v>5699.499194083694</v>
+        <v>5699.499194083695</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="AC34">
-        <v>64.25376443860371</v>
+        <v>64.25376443860374</v>
       </c>
       <c r="AD34">
         <v>50.07596206108707</v>
@@ -4762,7 +4762,7 @@
         <v>64.44804289493575</v>
       </c>
       <c r="AI34">
-        <v>3.112855111249359</v>
+        <v>3.112855111249358</v>
       </c>
       <c r="AJ34">
         <v>2.875</v>
@@ -4842,10 +4842,10 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <v>85.83807424691008</v>
+        <v>85.83807424691005</v>
       </c>
       <c r="X35">
-        <v>5699.499194083694</v>
+        <v>5699.499194083695</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="AC35">
-        <v>64.25376443860371</v>
+        <v>64.25376443860374</v>
       </c>
       <c r="AD35">
         <v>50.07596206108707</v>
@@ -4878,7 +4878,7 @@
         <v>64.44804289493575</v>
       </c>
       <c r="AI35">
-        <v>3.112855111249359</v>
+        <v>3.112855111249358</v>
       </c>
       <c r="AJ35">
         <v>2.909883720930233</v>
@@ -4958,10 +4958,10 @@
         <v>0</v>
       </c>
       <c r="W36">
-        <v>85.83807424691008</v>
+        <v>85.83807424691005</v>
       </c>
       <c r="X36">
-        <v>5699.499194083694</v>
+        <v>5699.499194083695</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -4976,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="AC36">
-        <v>64.25376443860371</v>
+        <v>64.25376443860374</v>
       </c>
       <c r="AD36">
         <v>50.07596206108707</v>
@@ -4994,7 +4994,7 @@
         <v>64.44804289493575</v>
       </c>
       <c r="AI36">
-        <v>3.112855111249359</v>
+        <v>3.112855111249358</v>
       </c>
       <c r="AJ36">
         <v>2.875</v>
@@ -5306,10 +5306,10 @@
         <v>0</v>
       </c>
       <c r="W39">
-        <v>85.83807424691008</v>
+        <v>85.83807424691005</v>
       </c>
       <c r="X39">
-        <v>5699.499194083694</v>
+        <v>5699.499194083695</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -5324,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="AC39">
-        <v>64.25376443860371</v>
+        <v>64.25376443860374</v>
       </c>
       <c r="AD39">
         <v>50.07596206108707</v>
@@ -5342,7 +5342,7 @@
         <v>64.44804289493575</v>
       </c>
       <c r="AI39">
-        <v>3.112855111249359</v>
+        <v>3.112855111249358</v>
       </c>
       <c r="AJ39">
         <v>2.684065934065934</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="W40">
-        <v>85.83807424691008</v>
+        <v>85.83807424691005</v>
       </c>
       <c r="X40">
-        <v>5699.499194083694</v>
+        <v>5699.499194083695</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="AC40">
-        <v>64.25376443860371</v>
+        <v>64.25376443860374</v>
       </c>
       <c r="AD40">
         <v>50.07596206108707</v>
@@ -5458,7 +5458,7 @@
         <v>64.44804289493575</v>
       </c>
       <c r="AI40">
-        <v>3.112855111249359</v>
+        <v>3.112855111249358</v>
       </c>
       <c r="AJ40">
         <v>2.875</v>
@@ -6002,10 +6002,10 @@
         <v>0</v>
       </c>
       <c r="W45">
-        <v>85.83807424691008</v>
+        <v>85.83807424691005</v>
       </c>
       <c r="X45">
-        <v>5699.499194083694</v>
+        <v>5699.499194083695</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -6020,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="AC45">
-        <v>64.25376443860371</v>
+        <v>64.25376443860374</v>
       </c>
       <c r="AD45">
         <v>50.07596206108707</v>
@@ -6038,7 +6038,7 @@
         <v>64.44804289493575</v>
       </c>
       <c r="AI45">
-        <v>3.112855111249359</v>
+        <v>3.112855111249358</v>
       </c>
       <c r="AJ45">
         <v>2.740994236311239</v>
@@ -6466,10 +6466,10 @@
         <v>0</v>
       </c>
       <c r="W49">
-        <v>85.83807424691008</v>
+        <v>85.83807424691005</v>
       </c>
       <c r="X49">
-        <v>5699.499194083694</v>
+        <v>5699.499194083695</v>
       </c>
       <c r="Y49">
         <v>0</v>
@@ -6484,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="AC49">
-        <v>64.25376443860371</v>
+        <v>64.25376443860374</v>
       </c>
       <c r="AD49">
         <v>50.07596206108707</v>
@@ -6502,7 +6502,7 @@
         <v>64.44804289493575</v>
       </c>
       <c r="AI49">
-        <v>3.112855111249359</v>
+        <v>3.112855111249358</v>
       </c>
       <c r="AJ49">
         <v>2.625</v>
@@ -8090,10 +8090,10 @@
         <v>0</v>
       </c>
       <c r="W63">
-        <v>85.83807424691008</v>
+        <v>85.83807424691005</v>
       </c>
       <c r="X63">
-        <v>5699.499194083694</v>
+        <v>5699.499194083695</v>
       </c>
       <c r="Y63">
         <v>0</v>
@@ -8108,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="AC63">
-        <v>64.25376443860371</v>
+        <v>64.25376443860374</v>
       </c>
       <c r="AD63">
         <v>50.07596206108707</v>
@@ -8126,7 +8126,7 @@
         <v>64.44804289493575</v>
       </c>
       <c r="AI63">
-        <v>3.112855111249359</v>
+        <v>3.112855111249358</v>
       </c>
       <c r="AJ63">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="W69">
-        <v>85.83807424691008</v>
+        <v>85.83807424691005</v>
       </c>
       <c r="X69">
-        <v>5699.499194083694</v>
+        <v>5699.499194083695</v>
       </c>
       <c r="Y69">
         <v>0</v>
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="AC69">
-        <v>64.25376443860371</v>
+        <v>64.25376443860374</v>
       </c>
       <c r="AD69">
         <v>50.07596206108707</v>
@@ -8822,7 +8822,7 @@
         <v>64.44804289493575</v>
       </c>
       <c r="AI69">
-        <v>3.112855111249359</v>
+        <v>3.112855111249358</v>
       </c>
       <c r="AJ69">
         <v>2.664473684210526</v>
@@ -9321,16 +9321,16 @@
         <v>120</v>
       </c>
       <c r="H74">
-        <v>2.018348623853211</v>
+        <v>2.018518518518519</v>
       </c>
       <c r="I74">
-        <v>1333.210084033613</v>
+        <v>1324.35294117647</v>
       </c>
       <c r="J74">
-        <v>1010.769230769231</v>
+        <v>992</v>
       </c>
       <c r="K74">
-        <v>721.1454545454545</v>
+        <v>722.9266055045872</v>
       </c>
       <c r="L74" t="s">
         <v>109</v>
@@ -11454,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="W92">
-        <v>85.83807424691008</v>
+        <v>85.83807424691005</v>
       </c>
       <c r="X92">
-        <v>5699.499194083694</v>
+        <v>5699.499194083695</v>
       </c>
       <c r="Y92">
         <v>0</v>
@@ -11472,7 +11472,7 @@
         <v>0</v>
       </c>
       <c r="AC92">
-        <v>64.25376443860371</v>
+        <v>64.25376443860374</v>
       </c>
       <c r="AD92">
         <v>50.07596206108707</v>
@@ -11490,7 +11490,7 @@
         <v>64.44804289493575</v>
       </c>
       <c r="AI92">
-        <v>3.112855111249359</v>
+        <v>3.112855111249358</v>
       </c>
       <c r="AJ92">
         <v>3.345496894409938</v>
@@ -11686,10 +11686,10 @@
         <v>0</v>
       </c>
       <c r="W94">
-        <v>85.83807424691008</v>
+        <v>85.83807424691005</v>
       </c>
       <c r="X94">
-        <v>5699.499194083694</v>
+        <v>5699.499194083695</v>
       </c>
       <c r="Y94">
         <v>0</v>
@@ -11704,7 +11704,7 @@
         <v>0</v>
       </c>
       <c r="AC94">
-        <v>64.25376443860371</v>
+        <v>64.25376443860374</v>
       </c>
       <c r="AD94">
         <v>50.07596206108707</v>
@@ -11722,7 +11722,7 @@
         <v>64.44804289493575</v>
       </c>
       <c r="AI94">
-        <v>3.112855111249359</v>
+        <v>3.112855111249358</v>
       </c>
       <c r="AJ94">
         <v>2.464285714285714</v>
@@ -11757,16 +11757,16 @@
         <v>120</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>2.009090909090909</v>
       </c>
       <c r="I95">
-        <v>1285.638655462185</v>
+        <v>1268.529411764706</v>
       </c>
       <c r="J95">
         <v>1470.761904761905</v>
       </c>
       <c r="K95">
-        <v>695.4136363636363</v>
+        <v>683.0542986425339</v>
       </c>
       <c r="L95" t="s">
         <v>130</v>
@@ -12450,19 +12450,19 @@
         <v>54033.33</v>
       </c>
       <c r="G101">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H101">
-        <v>1.964705882352941</v>
+        <v>1.976744186046512</v>
       </c>
       <c r="I101">
-        <v>845.1111111111111</v>
+        <v>841.05</v>
       </c>
       <c r="J101">
         <v>957.5</v>
       </c>
       <c r="K101">
-        <v>500.9940119760479</v>
+        <v>494.7352941176471</v>
       </c>
       <c r="L101" t="s">
         <v>136</v>
@@ -13426,10 +13426,10 @@
         <v>0</v>
       </c>
       <c r="W109">
-        <v>85.83807424691008</v>
+        <v>85.83807424691005</v>
       </c>
       <c r="X109">
-        <v>5699.499194083694</v>
+        <v>5699.499194083695</v>
       </c>
       <c r="Y109">
         <v>0</v>
@@ -13444,7 +13444,7 @@
         <v>0</v>
       </c>
       <c r="AC109">
-        <v>64.25376443860371</v>
+        <v>64.25376443860374</v>
       </c>
       <c r="AD109">
         <v>50.07596206108707</v>
@@ -13462,7 +13462,7 @@
         <v>64.44804289493575</v>
       </c>
       <c r="AI109">
-        <v>3.112855111249359</v>
+        <v>3.112855111249358</v>
       </c>
       <c r="AJ109">
         <v>0</v>
@@ -13542,10 +13542,10 @@
         <v>0</v>
       </c>
       <c r="W110">
-        <v>85.83807424691008</v>
+        <v>85.83807424691005</v>
       </c>
       <c r="X110">
-        <v>5699.499194083694</v>
+        <v>5699.499194083695</v>
       </c>
       <c r="Y110">
         <v>0</v>
@@ -13560,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="AC110">
-        <v>64.25376443860371</v>
+        <v>64.25376443860374</v>
       </c>
       <c r="AD110">
         <v>50.07596206108707</v>
@@ -13578,7 +13578,7 @@
         <v>64.44804289493575</v>
       </c>
       <c r="AI110">
-        <v>3.112855111249359</v>
+        <v>3.112855111249358</v>
       </c>
       <c r="AJ110">
         <v>0</v>
@@ -14238,10 +14238,10 @@
         <v>0</v>
       </c>
       <c r="W116">
-        <v>85.83807424691008</v>
+        <v>85.83807424691005</v>
       </c>
       <c r="X116">
-        <v>5699.499194083694</v>
+        <v>5699.499194083695</v>
       </c>
       <c r="Y116">
         <v>0</v>
@@ -14256,7 +14256,7 @@
         <v>0</v>
       </c>
       <c r="AC116">
-        <v>64.25376443860371</v>
+        <v>64.25376443860374</v>
       </c>
       <c r="AD116">
         <v>50.07596206108707</v>
@@ -14274,7 +14274,7 @@
         <v>64.44804289493575</v>
       </c>
       <c r="AI116">
-        <v>3.112855111249359</v>
+        <v>3.112855111249358</v>
       </c>
       <c r="AJ116">
         <v>1.875</v>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -966,19 +966,19 @@
         <v>28272.22</v>
       </c>
       <c r="G2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2">
-        <v>1.833333333333333</v>
+        <v>1.772727272727273</v>
       </c>
       <c r="I2">
-        <v>633.5</v>
+        <v>619.8214285714286</v>
       </c>
       <c r="J2">
-        <v>1666.666666666667</v>
+        <v>1250</v>
       </c>
       <c r="K2">
-        <v>431.9318181818182</v>
+        <v>445</v>
       </c>
       <c r="L2" t="s">
         <v>37</v>
@@ -1198,19 +1198,19 @@
         <v>17666.67</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="I4">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>466.25</v>
+        <v>490</v>
       </c>
       <c r="L4" t="s">
         <v>39</v>
@@ -1240,22 +1240,22 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>94.29430367450013</v>
+        <v>94.2943036745001</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>85.83807424691005</v>
+        <v>85.83807424691007</v>
       </c>
       <c r="X4">
-        <v>5699.499194083695</v>
+        <v>5699.499194083693</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.1150350893039983</v>
+        <v>0.1150350893039982</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>64.25376443860374</v>
       </c>
       <c r="AD4">
-        <v>50.07596206108707</v>
+        <v>50.07596206108709</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>64.44804289493575</v>
+        <v>64.44804289493577</v>
       </c>
       <c r="AI4">
-        <v>3.112855111249358</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>17666.67</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>975</v>
+        <v>762.5</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>731.25</v>
+        <v>1525</v>
       </c>
       <c r="L5" t="s">
         <v>40</v>
@@ -1356,22 +1356,22 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>94.29430367450013</v>
+        <v>94.2943036745001</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>85.83807424691005</v>
+        <v>85.83807424691007</v>
       </c>
       <c r="X5">
-        <v>5699.499194083695</v>
+        <v>5699.499194083693</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.1150350893039983</v>
+        <v>0.1150350893039982</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1383,7 +1383,7 @@
         <v>64.25376443860374</v>
       </c>
       <c r="AD5">
-        <v>50.07596206108707</v>
+        <v>50.07596206108709</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -1395,10 +1395,10 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>64.44804289493575</v>
+        <v>64.44804289493577</v>
       </c>
       <c r="AI5">
-        <v>3.112855111249358</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1430,19 +1430,19 @@
         <v>26425</v>
       </c>
       <c r="G6">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H6">
-        <v>2.175</v>
+        <v>2.108108108108108</v>
       </c>
       <c r="I6">
-        <v>663.0666666666667</v>
+        <v>644.9512195121952</v>
       </c>
       <c r="J6">
-        <v>889.7777777777778</v>
+        <v>886.8571428571429</v>
       </c>
       <c r="K6">
-        <v>342.9655172413793</v>
+        <v>339.0128205128205</v>
       </c>
       <c r="L6" t="s">
         <v>41</v>
@@ -1546,19 +1546,19 @@
         <v>104162.5</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
       <c r="I7">
-        <v>2000</v>
+        <v>1966.666666666667</v>
       </c>
       <c r="J7">
         <v>2000</v>
       </c>
       <c r="K7">
-        <v>666.6666666666666</v>
+        <v>983.3333333333334</v>
       </c>
       <c r="L7" t="s">
         <v>42</v>
@@ -1662,19 +1662,19 @@
         <v>67602.08</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8">
-        <v>1.777777777777778</v>
+        <v>1.736842105263158</v>
       </c>
       <c r="I8">
-        <v>852.5</v>
+        <v>830</v>
       </c>
       <c r="J8">
-        <v>1178</v>
+        <v>1105.75</v>
       </c>
       <c r="K8">
-        <v>479.53125</v>
+        <v>477.8787878787879</v>
       </c>
       <c r="L8" t="s">
         <v>43</v>
@@ -1820,22 +1820,22 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>94.29430367450013</v>
+        <v>94.2943036745001</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>85.83807424691005</v>
+        <v>85.83807424691007</v>
       </c>
       <c r="X9">
-        <v>5699.499194083695</v>
+        <v>5699.499194083693</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.1150350893039983</v>
+        <v>0.1150350893039982</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>64.25376443860374</v>
       </c>
       <c r="AD9">
-        <v>50.07596206108707</v>
+        <v>50.07596206108709</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -1859,10 +1859,10 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>64.44804289493575</v>
+        <v>64.44804289493577</v>
       </c>
       <c r="AI9">
-        <v>3.112855111249358</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>94.29430367450013</v>
+        <v>94.2943036745001</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
-        <v>85.83807424691005</v>
+        <v>85.83807424691007</v>
       </c>
       <c r="X10">
-        <v>5699.499194083695</v>
+        <v>5699.499194083693</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.1150350893039983</v>
+        <v>0.1150350893039982</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1963,7 +1963,7 @@
         <v>64.25376443860374</v>
       </c>
       <c r="AD10">
-        <v>50.07596206108707</v>
+        <v>50.07596206108709</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -1975,10 +1975,10 @@
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>64.44804289493575</v>
+        <v>64.44804289493577</v>
       </c>
       <c r="AI10">
-        <v>3.112855111249358</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ10">
         <v>3.125</v>
@@ -2013,16 +2013,16 @@
         <v>18</v>
       </c>
       <c r="H11">
-        <v>1.941176470588235</v>
+        <v>2.117647058823529</v>
       </c>
       <c r="I11">
-        <v>553.8235294117648</v>
+        <v>580</v>
       </c>
       <c r="J11">
-        <v>1900</v>
+        <v>1590</v>
       </c>
       <c r="K11">
-        <v>285.3030303030303</v>
+        <v>273.8888888888889</v>
       </c>
       <c r="L11" t="s">
         <v>46</v>
@@ -2126,19 +2126,19 @@
         <v>63505.56</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>881</v>
+        <v>803.75</v>
       </c>
       <c r="J12">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K12">
-        <v>367.0833333333333</v>
+        <v>401.875</v>
       </c>
       <c r="L12" t="s">
         <v>47</v>
@@ -2242,19 +2242,19 @@
         <v>53279.17</v>
       </c>
       <c r="G13">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>2.021276595744681</v>
       </c>
       <c r="I13">
-        <v>718.2222222222222</v>
+        <v>729.3207547169811</v>
       </c>
       <c r="J13">
-        <v>881.0555555555555</v>
+        <v>881.4705882352941</v>
       </c>
       <c r="K13">
-        <v>412.5957446808511</v>
+        <v>406.8842105263158</v>
       </c>
       <c r="L13" t="s">
         <v>48</v>
@@ -2358,19 +2358,19 @@
         <v>69575</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H14">
         <v>3</v>
       </c>
       <c r="I14">
-        <v>1279</v>
+        <v>1361.25</v>
       </c>
       <c r="J14">
         <v>1240</v>
       </c>
       <c r="K14">
-        <v>426.3333333333333</v>
+        <v>453.75</v>
       </c>
       <c r="L14" t="s">
         <v>49</v>
@@ -2400,22 +2400,22 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>94.29430367450013</v>
+        <v>94.2943036745001</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
       <c r="W14">
-        <v>85.83807424691005</v>
+        <v>85.83807424691007</v>
       </c>
       <c r="X14">
-        <v>5699.499194083695</v>
+        <v>5699.499194083693</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0.1150350893039983</v>
+        <v>0.1150350893039982</v>
       </c>
       <c r="AA14">
         <v>0</v>
@@ -2427,7 +2427,7 @@
         <v>64.25376443860374</v>
       </c>
       <c r="AD14">
-        <v>50.07596206108707</v>
+        <v>50.07596206108709</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -2439,10 +2439,10 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>64.44804289493575</v>
+        <v>64.44804289493577</v>
       </c>
       <c r="AI14">
-        <v>3.112855111249358</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ14">
         <v>2.193965517241379</v>
@@ -2474,19 +2474,19 @@
         <v>17666.67</v>
       </c>
       <c r="G15">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H15">
-        <v>2.488888888888889</v>
+        <v>2.590909090909091</v>
       </c>
       <c r="I15">
-        <v>683.5769230769231</v>
+        <v>693.4285714285714</v>
       </c>
       <c r="J15">
-        <v>1368.857142857143</v>
+        <v>1407.375</v>
       </c>
       <c r="K15">
-        <v>317.375</v>
+        <v>298.0526315789473</v>
       </c>
       <c r="L15" t="s">
         <v>50</v>
@@ -2513,25 +2513,25 @@
         <v>0.0125</v>
       </c>
       <c r="T15">
-        <v>5.219424610630924e-05</v>
+        <v>5.20610989056757e-05</v>
       </c>
       <c r="U15">
-        <v>94.29430367450013</v>
+        <v>94.2943036745001</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
       <c r="W15">
-        <v>85.83807424691005</v>
+        <v>85.83807424691007</v>
       </c>
       <c r="X15">
-        <v>5699.499194083695</v>
+        <v>5699.499194083693</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0.1150350893039983</v>
+        <v>0.1150350893039982</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -2543,7 +2543,7 @@
         <v>64.25376443860374</v>
       </c>
       <c r="AD15">
-        <v>50.07596206108707</v>
+        <v>50.07596206108709</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -2555,10 +2555,10 @@
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>64.44804289493575</v>
+        <v>64.44804289493577</v>
       </c>
       <c r="AI15">
-        <v>3.112855111249358</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ15">
         <v>0</v>
@@ -2590,19 +2590,19 @@
         <v>17666.67</v>
       </c>
       <c r="G16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16">
-        <v>1.615384615384615</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="I16">
-        <v>504.6153846153846</v>
+        <v>500.8333333333333</v>
       </c>
       <c r="J16">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K16">
-        <v>312.3809523809524</v>
+        <v>300.5</v>
       </c>
       <c r="L16" t="s">
         <v>51</v>
@@ -2632,22 +2632,22 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>94.29430367450013</v>
+        <v>94.2943036745001</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
       <c r="W16">
-        <v>85.83807424691005</v>
+        <v>85.83807424691007</v>
       </c>
       <c r="X16">
-        <v>5699.499194083695</v>
+        <v>5699.499194083693</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0.1150350893039983</v>
+        <v>0.1150350893039982</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -2659,7 +2659,7 @@
         <v>64.25376443860374</v>
       </c>
       <c r="AD16">
-        <v>50.07596206108707</v>
+        <v>50.07596206108709</v>
       </c>
       <c r="AE16">
         <v>0</v>
@@ -2671,10 +2671,10 @@
         <v>0</v>
       </c>
       <c r="AH16">
-        <v>64.44804289493575</v>
+        <v>64.44804289493577</v>
       </c>
       <c r="AI16">
-        <v>3.112855111249358</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ16">
         <v>2.625</v>
@@ -2748,22 +2748,22 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>94.29430367450013</v>
+        <v>94.2943036745001</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
       <c r="W17">
-        <v>85.83807424691005</v>
+        <v>85.83807424691007</v>
       </c>
       <c r="X17">
-        <v>5699.499194083695</v>
+        <v>5699.499194083693</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0.1150350893039983</v>
+        <v>0.1150350893039982</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>64.25376443860374</v>
       </c>
       <c r="AD17">
-        <v>50.07596206108707</v>
+        <v>50.07596206108709</v>
       </c>
       <c r="AE17">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>0</v>
       </c>
       <c r="AH17">
-        <v>64.44804289493575</v>
+        <v>64.44804289493577</v>
       </c>
       <c r="AI17">
-        <v>3.112855111249358</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ17">
         <v>2.125</v>
@@ -2822,19 +2822,19 @@
         <v>23233.33</v>
       </c>
       <c r="G18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18">
-        <v>2.727272727272727</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="I18">
-        <v>850.8333333333334</v>
+        <v>827.6923076923077</v>
       </c>
       <c r="J18">
         <v>1030.666666666667</v>
       </c>
       <c r="K18">
-        <v>340.3333333333333</v>
+        <v>336.25</v>
       </c>
       <c r="L18" t="s">
         <v>53</v>
@@ -2864,22 +2864,22 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>94.29430367450013</v>
+        <v>94.2943036745001</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18">
-        <v>85.83807424691005</v>
+        <v>85.83807424691007</v>
       </c>
       <c r="X18">
-        <v>5699.499194083695</v>
+        <v>5699.499194083693</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0.1150350893039983</v>
+        <v>0.1150350893039982</v>
       </c>
       <c r="AA18">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>64.25376443860374</v>
       </c>
       <c r="AD18">
-        <v>50.07596206108707</v>
+        <v>50.07596206108709</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -2903,10 +2903,10 @@
         <v>0</v>
       </c>
       <c r="AH18">
-        <v>64.44804289493575</v>
+        <v>64.44804289493577</v>
       </c>
       <c r="AI18">
-        <v>3.112855111249358</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ18">
         <v>0</v>
@@ -2938,19 +2938,19 @@
         <v>26000</v>
       </c>
       <c r="G19">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H19">
-        <v>1.780487804878049</v>
+        <v>1.779220779220779</v>
       </c>
       <c r="I19">
-        <v>648.0340909090909</v>
+        <v>645.8072289156627</v>
       </c>
       <c r="J19">
-        <v>754.7619047619048</v>
+        <v>764.5833333333334</v>
       </c>
       <c r="K19">
-        <v>390.5958904109589</v>
+        <v>391.2554744525547</v>
       </c>
       <c r="L19" t="s">
         <v>54</v>
@@ -2980,22 +2980,22 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>94.29430367450013</v>
+        <v>94.2943036745001</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
       <c r="W19">
-        <v>85.83807424691005</v>
+        <v>85.83807424691007</v>
       </c>
       <c r="X19">
-        <v>5699.499194083695</v>
+        <v>5699.499194083693</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0.1150350893039983</v>
+        <v>0.1150350893039982</v>
       </c>
       <c r="AA19">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>64.25376443860374</v>
       </c>
       <c r="AD19">
-        <v>50.07596206108707</v>
+        <v>50.07596206108709</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -3019,10 +3019,10 @@
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>64.44804289493575</v>
+        <v>64.44804289493577</v>
       </c>
       <c r="AI19">
-        <v>3.112855111249358</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ19">
         <v>2.875</v>
@@ -3054,10 +3054,10 @@
         <v>44986.11</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>2.25</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="I20">
         <v>600</v>
@@ -3066,7 +3066,7 @@
         <v>1050</v>
       </c>
       <c r="K20">
-        <v>266.6666666666667</v>
+        <v>360</v>
       </c>
       <c r="L20" t="s">
         <v>55</v>
@@ -3173,16 +3173,16 @@
         <v>10</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1.777777777777778</v>
       </c>
       <c r="I21">
-        <v>988</v>
+        <v>916</v>
       </c>
       <c r="J21">
         <v>1101</v>
       </c>
       <c r="K21">
-        <v>548.8888888888889</v>
+        <v>572.5</v>
       </c>
       <c r="L21" t="s">
         <v>56</v>
@@ -3286,19 +3286,19 @@
         <v>17800</v>
       </c>
       <c r="G22">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H22">
-        <v>1.857142857142857</v>
+        <v>1.909090909090909</v>
       </c>
       <c r="I22">
-        <v>604.6</v>
+        <v>615.75</v>
       </c>
       <c r="J22">
-        <v>850</v>
+        <v>825</v>
       </c>
       <c r="K22">
-        <v>348.8076923076923</v>
+        <v>351.8571428571428</v>
       </c>
       <c r="L22" t="s">
         <v>57</v>
@@ -3328,22 +3328,22 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>94.29430367450013</v>
+        <v>94.2943036745001</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
       <c r="W22">
-        <v>85.83807424691005</v>
+        <v>85.83807424691007</v>
       </c>
       <c r="X22">
-        <v>5699.499194083695</v>
+        <v>5699.499194083693</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0.1150350893039983</v>
+        <v>0.1150350893039982</v>
       </c>
       <c r="AA22">
         <v>0</v>
@@ -3355,7 +3355,7 @@
         <v>64.25376443860374</v>
       </c>
       <c r="AD22">
-        <v>50.07596206108707</v>
+        <v>50.07596206108709</v>
       </c>
       <c r="AE22">
         <v>0</v>
@@ -3367,10 +3367,10 @@
         <v>0</v>
       </c>
       <c r="AH22">
-        <v>64.44804289493575</v>
+        <v>64.44804289493577</v>
       </c>
       <c r="AI22">
-        <v>3.112855111249358</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ22">
         <v>2.625</v>
@@ -3444,22 +3444,22 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>94.29430367450013</v>
+        <v>94.2943036745001</v>
       </c>
       <c r="V23">
         <v>0</v>
       </c>
       <c r="W23">
-        <v>85.83807424691005</v>
+        <v>85.83807424691007</v>
       </c>
       <c r="X23">
-        <v>5699.499194083695</v>
+        <v>5699.499194083693</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0.1150350893039983</v>
+        <v>0.1150350893039982</v>
       </c>
       <c r="AA23">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>64.25376443860374</v>
       </c>
       <c r="AD23">
-        <v>50.07596206108707</v>
+        <v>50.07596206108709</v>
       </c>
       <c r="AE23">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="AH23">
-        <v>64.44804289493575</v>
+        <v>64.44804289493577</v>
       </c>
       <c r="AI23">
-        <v>3.112855111249358</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ23">
         <v>2.375</v>
@@ -3560,22 +3560,22 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>94.29430367450013</v>
+        <v>94.2943036745001</v>
       </c>
       <c r="V24">
         <v>0</v>
       </c>
       <c r="W24">
-        <v>85.83807424691005</v>
+        <v>85.83807424691007</v>
       </c>
       <c r="X24">
-        <v>5699.499194083695</v>
+        <v>5699.499194083693</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0.1150350893039983</v>
+        <v>0.1150350893039982</v>
       </c>
       <c r="AA24">
         <v>0</v>
@@ -3587,7 +3587,7 @@
         <v>64.25376443860374</v>
       </c>
       <c r="AD24">
-        <v>50.07596206108707</v>
+        <v>50.07596206108709</v>
       </c>
       <c r="AE24">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>0</v>
       </c>
       <c r="AH24">
-        <v>64.44804289493575</v>
+        <v>64.44804289493577</v>
       </c>
       <c r="AI24">
-        <v>3.112855111249358</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ24">
         <v>0</v>
@@ -3634,19 +3634,19 @@
         <v>17666.67</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>1222.5</v>
+        <v>1233.333333333333</v>
       </c>
       <c r="J25">
-        <v>1375</v>
+        <v>1050</v>
       </c>
       <c r="K25">
-        <v>376.1538461538461</v>
+        <v>411.1111111111111</v>
       </c>
       <c r="L25" t="s">
         <v>60</v>
@@ -3676,22 +3676,22 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>94.29430367450013</v>
+        <v>94.2943036745001</v>
       </c>
       <c r="V25">
         <v>0</v>
       </c>
       <c r="W25">
-        <v>85.83807424691005</v>
+        <v>85.83807424691007</v>
       </c>
       <c r="X25">
-        <v>5699.499194083695</v>
+        <v>5699.499194083693</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0.1150350893039983</v>
+        <v>0.1150350893039982</v>
       </c>
       <c r="AA25">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>64.25376443860374</v>
       </c>
       <c r="AD25">
-        <v>50.07596206108707</v>
+        <v>50.07596206108709</v>
       </c>
       <c r="AE25">
         <v>0</v>
@@ -3715,10 +3715,10 @@
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>64.44804289493575</v>
+        <v>64.44804289493577</v>
       </c>
       <c r="AI25">
-        <v>3.112855111249358</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ25">
         <v>0</v>
@@ -3792,22 +3792,22 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>94.29430367450013</v>
+        <v>94.2943036745001</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
       <c r="W26">
-        <v>85.83807424691005</v>
+        <v>85.83807424691007</v>
       </c>
       <c r="X26">
-        <v>5699.499194083695</v>
+        <v>5699.499194083693</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0.1150350893039983</v>
+        <v>0.1150350893039982</v>
       </c>
       <c r="AA26">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>64.25376443860374</v>
       </c>
       <c r="AD26">
-        <v>50.07596206108707</v>
+        <v>50.07596206108709</v>
       </c>
       <c r="AE26">
         <v>0</v>
@@ -3831,10 +3831,10 @@
         <v>0</v>
       </c>
       <c r="AH26">
-        <v>64.44804289493575</v>
+        <v>64.44804289493577</v>
       </c>
       <c r="AI26">
-        <v>3.112855111249358</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ26">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>39558.33</v>
       </c>
       <c r="G27">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H27">
-        <v>1.642857142857143</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="I27">
-        <v>1244.705882352941</v>
+        <v>1250</v>
       </c>
       <c r="J27">
-        <v>924.2857142857143</v>
+        <v>944.2857142857143</v>
       </c>
       <c r="K27">
-        <v>920</v>
+        <v>900</v>
       </c>
       <c r="L27" t="s">
         <v>62</v>
@@ -4256,22 +4256,22 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>94.29430367450013</v>
+        <v>94.2943036745001</v>
       </c>
       <c r="V30">
         <v>0</v>
       </c>
       <c r="W30">
-        <v>85.83807424691005</v>
+        <v>85.83807424691007</v>
       </c>
       <c r="X30">
-        <v>5699.499194083695</v>
+        <v>5699.499194083693</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0.1150350893039983</v>
+        <v>0.1150350893039982</v>
       </c>
       <c r="AA30">
         <v>0</v>
@@ -4283,7 +4283,7 @@
         <v>64.25376443860374</v>
       </c>
       <c r="AD30">
-        <v>50.07596206108707</v>
+        <v>50.07596206108709</v>
       </c>
       <c r="AE30">
         <v>0</v>
@@ -4295,10 +4295,10 @@
         <v>0</v>
       </c>
       <c r="AH30">
-        <v>64.44804289493575</v>
+        <v>64.44804289493577</v>
       </c>
       <c r="AI30">
-        <v>3.112855111249358</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ30">
         <v>0</v>
@@ -4330,19 +4330,19 @@
         <v>39705.56</v>
       </c>
       <c r="G31">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H31">
-        <v>2.111111111111111</v>
+        <v>2.153846153846154</v>
       </c>
       <c r="I31">
-        <v>812.8571428571429</v>
+        <v>823.7037037037037</v>
       </c>
       <c r="J31">
-        <v>1085.555555555556</v>
+        <v>1146.25</v>
       </c>
       <c r="K31">
-        <v>399.2982456140351</v>
+        <v>397.1428571428572</v>
       </c>
       <c r="L31" t="s">
         <v>66</v>
@@ -4449,16 +4449,16 @@
         <v>83</v>
       </c>
       <c r="H32">
-        <v>2.149253731343284</v>
+        <v>2.144927536231884</v>
       </c>
       <c r="I32">
-        <v>1029.20987654321</v>
+        <v>1028.283950617284</v>
       </c>
       <c r="J32">
-        <v>1031.6</v>
+        <v>1033.764705882353</v>
       </c>
       <c r="K32">
-        <v>578.9305555555555</v>
+        <v>562.777027027027</v>
       </c>
       <c r="L32" t="s">
         <v>67</v>
@@ -4562,19 +4562,19 @@
         <v>66097.22</v>
       </c>
       <c r="G33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H33">
-        <v>2.222222222222222</v>
+        <v>1.9</v>
       </c>
       <c r="I33">
-        <v>741.7777777777778</v>
+        <v>828.5</v>
       </c>
       <c r="J33">
-        <v>1104</v>
+        <v>934.8333333333334</v>
       </c>
       <c r="K33">
-        <v>333.8</v>
+        <v>436.0526315789473</v>
       </c>
       <c r="L33" t="s">
         <v>68</v>
@@ -4601,7 +4601,7 @@
         <v>0.2</v>
       </c>
       <c r="T33">
-        <v>0.0008351079377009478</v>
+        <v>0.0008329775824908112</v>
       </c>
       <c r="U33">
         <v>95.23500000000001</v>
@@ -4720,22 +4720,22 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <v>94.29430367450013</v>
+        <v>94.2943036745001</v>
       </c>
       <c r="V34">
         <v>0</v>
       </c>
       <c r="W34">
-        <v>85.83807424691005</v>
+        <v>85.83807424691007</v>
       </c>
       <c r="X34">
-        <v>5699.499194083695</v>
+        <v>5699.499194083693</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0.1150350893039983</v>
+        <v>0.1150350893039982</v>
       </c>
       <c r="AA34">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>64.25376443860374</v>
       </c>
       <c r="AD34">
-        <v>50.07596206108707</v>
+        <v>50.07596206108709</v>
       </c>
       <c r="AE34">
         <v>0</v>
@@ -4759,10 +4759,10 @@
         <v>0</v>
       </c>
       <c r="AH34">
-        <v>64.44804289493575</v>
+        <v>64.44804289493577</v>
       </c>
       <c r="AI34">
-        <v>3.112855111249358</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ34">
         <v>2.875</v>
@@ -4794,19 +4794,19 @@
         <v>17666.67</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="I35">
-        <v>812.5</v>
+        <v>1041.666666666667</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="K35">
-        <v>406.25</v>
+        <v>390.625</v>
       </c>
       <c r="L35" t="s">
         <v>70</v>
@@ -4836,22 +4836,22 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>94.29430367450013</v>
+        <v>94.2943036745001</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
       <c r="W35">
-        <v>85.83807424691005</v>
+        <v>85.83807424691007</v>
       </c>
       <c r="X35">
-        <v>5699.499194083695</v>
+        <v>5699.499194083693</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>0.1150350893039983</v>
+        <v>0.1150350893039982</v>
       </c>
       <c r="AA35">
         <v>0</v>
@@ -4863,7 +4863,7 @@
         <v>64.25376443860374</v>
       </c>
       <c r="AD35">
-        <v>50.07596206108707</v>
+        <v>50.07596206108709</v>
       </c>
       <c r="AE35">
         <v>0</v>
@@ -4875,10 +4875,10 @@
         <v>0</v>
       </c>
       <c r="AH35">
-        <v>64.44804289493575</v>
+        <v>64.44804289493577</v>
       </c>
       <c r="AI35">
-        <v>3.112855111249358</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ35">
         <v>2.909883720930233</v>
@@ -4952,22 +4952,22 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>94.29430367450013</v>
+        <v>94.2943036745001</v>
       </c>
       <c r="V36">
         <v>0</v>
       </c>
       <c r="W36">
-        <v>85.83807424691005</v>
+        <v>85.83807424691007</v>
       </c>
       <c r="X36">
-        <v>5699.499194083695</v>
+        <v>5699.499194083693</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>0.1150350893039983</v>
+        <v>0.1150350893039982</v>
       </c>
       <c r="AA36">
         <v>0</v>
@@ -4979,7 +4979,7 @@
         <v>64.25376443860374</v>
       </c>
       <c r="AD36">
-        <v>50.07596206108707</v>
+        <v>50.07596206108709</v>
       </c>
       <c r="AE36">
         <v>0</v>
@@ -4991,10 +4991,10 @@
         <v>0</v>
       </c>
       <c r="AH36">
-        <v>64.44804289493575</v>
+        <v>64.44804289493577</v>
       </c>
       <c r="AI36">
-        <v>3.112855111249358</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ36">
         <v>2.875</v>
@@ -5026,19 +5026,19 @@
         <v>34255.56</v>
       </c>
       <c r="G37">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1.777777777777778</v>
       </c>
       <c r="I37">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="J37">
-        <v>855</v>
+        <v>818.75</v>
       </c>
       <c r="K37">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="L37" t="s">
         <v>72</v>
@@ -5142,19 +5142,19 @@
         <v>17666.67</v>
       </c>
       <c r="G38">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H38">
-        <v>2.363636363636364</v>
+        <v>2.4</v>
       </c>
       <c r="I38">
-        <v>711.3636363636364</v>
+        <v>712.5</v>
       </c>
       <c r="J38">
         <v>1200</v>
       </c>
       <c r="K38">
-        <v>300.9615384615385</v>
+        <v>296.875</v>
       </c>
       <c r="L38" t="s">
         <v>73</v>
@@ -5258,19 +5258,19 @@
         <v>17666.67</v>
       </c>
       <c r="G39">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H39">
-        <v>1.560975609756098</v>
+        <v>1.378378378378378</v>
       </c>
       <c r="I39">
-        <v>1568.095238095238</v>
+        <v>1536.315789473684</v>
       </c>
       <c r="J39">
-        <v>973.8857142857142</v>
+        <v>1005.342105263158</v>
       </c>
       <c r="K39">
-        <v>1029.0625</v>
+        <v>1144.705882352941</v>
       </c>
       <c r="L39" t="s">
         <v>74</v>
@@ -5300,22 +5300,22 @@
         <v>0</v>
       </c>
       <c r="U39">
-        <v>94.29430367450013</v>
+        <v>94.2943036745001</v>
       </c>
       <c r="V39">
         <v>0</v>
       </c>
       <c r="W39">
-        <v>85.83807424691005</v>
+        <v>85.83807424691007</v>
       </c>
       <c r="X39">
-        <v>5699.499194083695</v>
+        <v>5699.499194083693</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>0.1150350893039983</v>
+        <v>0.1150350893039982</v>
       </c>
       <c r="AA39">
         <v>0</v>
@@ -5327,7 +5327,7 @@
         <v>64.25376443860374</v>
       </c>
       <c r="AD39">
-        <v>50.07596206108707</v>
+        <v>50.07596206108709</v>
       </c>
       <c r="AE39">
         <v>0</v>
@@ -5339,10 +5339,10 @@
         <v>0</v>
       </c>
       <c r="AH39">
-        <v>64.44804289493575</v>
+        <v>64.44804289493577</v>
       </c>
       <c r="AI39">
-        <v>3.112855111249358</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ39">
         <v>2.684065934065934</v>
@@ -5374,19 +5374,19 @@
         <v>17666.67</v>
       </c>
       <c r="G40">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40">
-        <v>2.181818181818182</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="I40">
-        <v>718.9230769230769</v>
+        <v>702.9285714285714</v>
       </c>
       <c r="J40">
         <v>933.3333333333334</v>
       </c>
       <c r="K40">
-        <v>389.4166666666667</v>
+        <v>378.5</v>
       </c>
       <c r="L40" t="s">
         <v>75</v>
@@ -5416,22 +5416,22 @@
         <v>0</v>
       </c>
       <c r="U40">
-        <v>94.29430367450013</v>
+        <v>94.2943036745001</v>
       </c>
       <c r="V40">
         <v>0</v>
       </c>
       <c r="W40">
-        <v>85.83807424691005</v>
+        <v>85.83807424691007</v>
       </c>
       <c r="X40">
-        <v>5699.499194083695</v>
+        <v>5699.499194083693</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>0.1150350893039983</v>
+        <v>0.1150350893039982</v>
       </c>
       <c r="AA40">
         <v>0</v>
@@ -5443,7 +5443,7 @@
         <v>64.25376443860374</v>
       </c>
       <c r="AD40">
-        <v>50.07596206108707</v>
+        <v>50.07596206108709</v>
       </c>
       <c r="AE40">
         <v>0</v>
@@ -5455,10 +5455,10 @@
         <v>0</v>
       </c>
       <c r="AH40">
-        <v>64.44804289493575</v>
+        <v>64.44804289493577</v>
       </c>
       <c r="AI40">
-        <v>3.112855111249358</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ40">
         <v>2.875</v>
@@ -5490,19 +5490,19 @@
         <v>17666.67</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H41">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>522.5</v>
+        <v>533.3333333333334</v>
       </c>
       <c r="J41">
-        <v>1700</v>
+        <v>900</v>
       </c>
       <c r="K41">
-        <v>232.2222222222222</v>
+        <v>266.6666666666667</v>
       </c>
       <c r="L41" t="s">
         <v>76</v>
@@ -5606,19 +5606,19 @@
         <v>103765.42</v>
       </c>
       <c r="G42">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H42">
-        <v>1.788732394366197</v>
+        <v>1.676923076923077</v>
       </c>
       <c r="I42">
-        <v>1598.866666666667</v>
+        <v>1586.014492753623</v>
       </c>
       <c r="J42">
-        <v>1071.948275862069</v>
+        <v>1080.55</v>
       </c>
       <c r="K42">
-        <v>944.2125984251968</v>
+        <v>1003.990825688073</v>
       </c>
       <c r="L42" t="s">
         <v>77</v>
@@ -5645,7 +5645,7 @@
         <v>1.225</v>
       </c>
       <c r="T42">
-        <v>0.005115036118418305</v>
+        <v>0.005101987692756218</v>
       </c>
       <c r="U42">
         <v>95.218</v>
@@ -5841,16 +5841,16 @@
         <v>120</v>
       </c>
       <c r="H44">
-        <v>1.550847457627119</v>
+        <v>1.567796610169492</v>
       </c>
       <c r="I44">
-        <v>890.6416666666667</v>
+        <v>978.1</v>
       </c>
       <c r="J44">
-        <v>919.0697674418604</v>
+        <v>898.9830508474577</v>
       </c>
       <c r="K44">
-        <v>584.0273224043716</v>
+        <v>634.4432432432433</v>
       </c>
       <c r="L44" t="s">
         <v>79</v>
@@ -5877,7 +5877,7 @@
         <v>0.15</v>
       </c>
       <c r="T44">
-        <v>0.0006263309532757108</v>
+        <v>0.0006247331868681084</v>
       </c>
       <c r="U44">
         <v>96.05999999999999</v>
@@ -5954,19 +5954,19 @@
         <v>17666.67</v>
       </c>
       <c r="G45">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H45">
-        <v>2.357142857142857</v>
+        <v>2.5</v>
       </c>
       <c r="I45">
-        <v>710</v>
+        <v>730.4166666666666</v>
       </c>
       <c r="J45">
-        <v>1278.4</v>
+        <v>1323</v>
       </c>
       <c r="K45">
-        <v>322.7272727272727</v>
+        <v>292.1666666666667</v>
       </c>
       <c r="L45" t="s">
         <v>80</v>
@@ -5993,25 +5993,25 @@
         <v>2.875</v>
       </c>
       <c r="T45">
-        <v>0.01200467660445112</v>
+        <v>0.01197405274830541</v>
       </c>
       <c r="U45">
-        <v>94.29430367450013</v>
+        <v>94.2943036745001</v>
       </c>
       <c r="V45">
         <v>0</v>
       </c>
       <c r="W45">
-        <v>85.83807424691005</v>
+        <v>85.83807424691007</v>
       </c>
       <c r="X45">
-        <v>5699.499194083695</v>
+        <v>5699.499194083693</v>
       </c>
       <c r="Y45">
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>0.1150350893039983</v>
+        <v>0.1150350893039982</v>
       </c>
       <c r="AA45">
         <v>0</v>
@@ -6023,7 +6023,7 @@
         <v>64.25376443860374</v>
       </c>
       <c r="AD45">
-        <v>50.07596206108707</v>
+        <v>50.07596206108709</v>
       </c>
       <c r="AE45">
         <v>0</v>
@@ -6035,10 +6035,10 @@
         <v>0</v>
       </c>
       <c r="AH45">
-        <v>64.44804289493575</v>
+        <v>64.44804289493577</v>
       </c>
       <c r="AI45">
-        <v>3.112855111249358</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ45">
         <v>2.740994236311239</v>
@@ -6073,16 +6073,16 @@
         <v>120</v>
       </c>
       <c r="H46">
-        <v>2.723214285714286</v>
+        <v>2.754385964912281</v>
       </c>
       <c r="I46">
-        <v>594.6902654867257</v>
+        <v>640.2521739130435</v>
       </c>
       <c r="J46">
-        <v>1331.625</v>
+        <v>1420.3</v>
       </c>
       <c r="K46">
-        <v>220.327868852459</v>
+        <v>234.4872611464968</v>
       </c>
       <c r="L46" t="s">
         <v>81</v>
@@ -6109,7 +6109,7 @@
         <v>0.6250000000000001</v>
       </c>
       <c r="T46">
-        <v>0.002609712305315462</v>
+        <v>0.002603054945283785</v>
       </c>
       <c r="U46">
         <v>94.09999999999999</v>
@@ -6189,16 +6189,16 @@
         <v>120</v>
       </c>
       <c r="H47">
-        <v>1.583333333333333</v>
+        <v>1.574074074074074</v>
       </c>
       <c r="I47">
-        <v>849.8559322033898</v>
+        <v>860.4915254237288</v>
       </c>
       <c r="J47">
-        <v>944.9574468085107</v>
+        <v>947.2156862745098</v>
       </c>
       <c r="K47">
-        <v>586.4502923976609</v>
+        <v>597.2823529411764</v>
       </c>
       <c r="L47" t="s">
         <v>82</v>
@@ -6302,19 +6302,19 @@
         <v>17666.67</v>
       </c>
       <c r="G48">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H48">
-        <v>1.666666666666667</v>
+        <v>1.777777777777778</v>
       </c>
       <c r="I48">
-        <v>525.3181818181819</v>
+        <v>550.8620689655172</v>
       </c>
       <c r="J48">
-        <v>993.5</v>
+        <v>954.8</v>
       </c>
       <c r="K48">
-        <v>330.2</v>
+        <v>332.8125</v>
       </c>
       <c r="L48" t="s">
         <v>83</v>
@@ -6341,7 +6341,7 @@
         <v>1.275</v>
       </c>
       <c r="T48">
-        <v>0.005323813102843541</v>
+        <v>0.005310232088378921</v>
       </c>
       <c r="U48">
         <v>92</v>
@@ -6418,19 +6418,19 @@
         <v>17666.67</v>
       </c>
       <c r="G49">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H49">
-        <v>1.91304347826087</v>
+        <v>1.926829268292683</v>
       </c>
       <c r="I49">
-        <v>736.156862745098</v>
+        <v>733.2</v>
       </c>
       <c r="J49">
-        <v>884.75</v>
+        <v>847.25</v>
       </c>
       <c r="K49">
-        <v>426.6363636363636</v>
+        <v>417.6455696202532</v>
       </c>
       <c r="L49" t="s">
         <v>84</v>
@@ -6460,22 +6460,22 @@
         <v>0</v>
       </c>
       <c r="U49">
-        <v>94.29430367450013</v>
+        <v>94.2943036745001</v>
       </c>
       <c r="V49">
         <v>0</v>
       </c>
       <c r="W49">
-        <v>85.83807424691005</v>
+        <v>85.83807424691007</v>
       </c>
       <c r="X49">
-        <v>5699.499194083695</v>
+        <v>5699.499194083693</v>
       </c>
       <c r="Y49">
         <v>0</v>
       </c>
       <c r="Z49">
-        <v>0.1150350893039983</v>
+        <v>0.1150350893039982</v>
       </c>
       <c r="AA49">
         <v>0</v>
@@ -6487,7 +6487,7 @@
         <v>64.25376443860374</v>
       </c>
       <c r="AD49">
-        <v>50.07596206108707</v>
+        <v>50.07596206108709</v>
       </c>
       <c r="AE49">
         <v>0</v>
@@ -6499,10 +6499,10 @@
         <v>0</v>
       </c>
       <c r="AH49">
-        <v>64.44804289493575</v>
+        <v>64.44804289493577</v>
       </c>
       <c r="AI49">
-        <v>3.112855111249358</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ49">
         <v>2.625</v>
@@ -6573,7 +6573,7 @@
         <v>1.2</v>
       </c>
       <c r="T50">
-        <v>0.005010647626205686</v>
+        <v>0.004997865494944867</v>
       </c>
       <c r="U50">
         <v>95.65333333333332</v>
@@ -6650,19 +6650,19 @@
         <v>27695.83</v>
       </c>
       <c r="G51">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H51">
-        <v>2.205128205128205</v>
+        <v>2.292682926829268</v>
       </c>
       <c r="I51">
-        <v>803.5555555555555</v>
+        <v>824.0425531914893</v>
       </c>
       <c r="J51">
-        <v>1211.739130434783</v>
+        <v>1218.636363636364</v>
       </c>
       <c r="K51">
-        <v>420.4651162790698</v>
+        <v>412.0212765957447</v>
       </c>
       <c r="L51" t="s">
         <v>86</v>
@@ -6683,13 +6683,13 @@
         <v>2</v>
       </c>
       <c r="R51">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S51">
         <v>2.3625</v>
       </c>
       <c r="T51">
-        <v>0.009864712514092447</v>
+        <v>0.009839547693172707</v>
       </c>
       <c r="U51">
         <v>91.65599999999999</v>
@@ -6766,19 +6766,19 @@
         <v>38525</v>
       </c>
       <c r="G52">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H52">
-        <v>2.282051282051282</v>
+        <v>2.227272727272727</v>
       </c>
       <c r="I52">
-        <v>771.8409090909091</v>
+        <v>756.8775510204082</v>
       </c>
       <c r="J52">
-        <v>995.6666666666666</v>
+        <v>1018.571428571429</v>
       </c>
       <c r="K52">
-        <v>381.5842696629214</v>
+        <v>378.4387755102041</v>
       </c>
       <c r="L52" t="s">
         <v>87</v>
@@ -6805,7 +6805,7 @@
         <v>2.475</v>
       </c>
       <c r="T52">
-        <v>0.01033446072904923</v>
+        <v>0.01030809758332379</v>
       </c>
       <c r="U52">
         <v>92.63800000000001</v>
@@ -6882,19 +6882,19 @@
         <v>61794.44</v>
       </c>
       <c r="G53">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="I53">
-        <v>815.5555555555555</v>
+        <v>813.5</v>
       </c>
       <c r="J53">
-        <v>1008</v>
+        <v>968.5714285714286</v>
       </c>
       <c r="K53">
-        <v>407.7777777777778</v>
+        <v>387.3809523809524</v>
       </c>
       <c r="L53" t="s">
         <v>88</v>
@@ -6998,19 +6998,19 @@
         <v>61930.56</v>
       </c>
       <c r="G54">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H54">
-        <v>1.232876712328767</v>
+        <v>1.25</v>
       </c>
       <c r="I54">
-        <v>752.418918918919</v>
+        <v>749.7142857142857</v>
       </c>
       <c r="J54">
-        <v>749.5263157894736</v>
+        <v>790.0625</v>
       </c>
       <c r="K54">
-        <v>618.6555555555556</v>
+        <v>607.6631578947369</v>
       </c>
       <c r="L54" t="s">
         <v>89</v>
@@ -7114,19 +7114,19 @@
         <v>39241.67</v>
       </c>
       <c r="G55">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H55">
-        <v>2.435897435897436</v>
+        <v>2.48780487804878</v>
       </c>
       <c r="I55">
-        <v>822.2631578947369</v>
+        <v>824.609756097561</v>
       </c>
       <c r="J55">
-        <v>961.9411764705883</v>
+        <v>964.0555555555555</v>
       </c>
       <c r="K55">
-        <v>328.9052631578948</v>
+        <v>331.4607843137255</v>
       </c>
       <c r="L55" t="s">
         <v>90</v>
@@ -7230,19 +7230,19 @@
         <v>17666.67</v>
       </c>
       <c r="G56">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H56">
-        <v>1.89873417721519</v>
+        <v>1.890243902439024</v>
       </c>
       <c r="I56">
-        <v>685.439024390244</v>
+        <v>684.9883720930233</v>
       </c>
       <c r="J56">
-        <v>979.6896551724138</v>
+        <v>1014.846153846154</v>
       </c>
       <c r="K56">
-        <v>374.7066666666666</v>
+        <v>380.058064516129</v>
       </c>
       <c r="L56" t="s">
         <v>91</v>
@@ -7269,7 +7269,7 @@
         <v>1.6</v>
       </c>
       <c r="T56">
-        <v>0.006680863501607582</v>
+        <v>0.006663820659926489</v>
       </c>
       <c r="U56">
         <v>91.02333333333333</v>
@@ -7346,19 +7346,19 @@
         <v>24541.67</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H57">
-        <v>1.666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="I57">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="L57" t="s">
         <v>92</v>
@@ -7462,19 +7462,19 @@
         <v>45697.22</v>
       </c>
       <c r="G58">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="I58">
-        <v>740.3125</v>
+        <v>723.3333333333334</v>
       </c>
       <c r="J58">
-        <v>925.7142857142857</v>
+        <v>903.75</v>
       </c>
       <c r="K58">
-        <v>455.5769230769231</v>
+        <v>493.1818181818182</v>
       </c>
       <c r="L58" t="s">
         <v>93</v>
@@ -7581,16 +7581,16 @@
         <v>61</v>
       </c>
       <c r="H59">
-        <v>1.953488372093023</v>
+        <v>1.977272727272727</v>
       </c>
       <c r="I59">
-        <v>623.8135593220339</v>
+        <v>624.2372881355932</v>
       </c>
       <c r="J59">
-        <v>1228.5</v>
+        <v>1298.090909090909</v>
       </c>
       <c r="K59">
-        <v>438.1547619047619</v>
+        <v>423.3333333333333</v>
       </c>
       <c r="L59" t="s">
         <v>94</v>
@@ -7617,7 +7617,7 @@
         <v>8.35</v>
       </c>
       <c r="T59">
-        <v>0.03486575639901457</v>
+        <v>0.03477681406899136</v>
       </c>
       <c r="U59">
         <v>92.38500000000001</v>
@@ -7694,19 +7694,19 @@
         <v>28388.89</v>
       </c>
       <c r="G60">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H60">
-        <v>1.788235294117647</v>
+        <v>1.79746835443038</v>
       </c>
       <c r="I60">
-        <v>649.4252873563219</v>
+        <v>645.6219512195122</v>
       </c>
       <c r="J60">
-        <v>707.25</v>
+        <v>724.9375</v>
       </c>
       <c r="K60">
-        <v>371.7105263157895</v>
+        <v>372.8239436619718</v>
       </c>
       <c r="L60" t="s">
         <v>95</v>
@@ -7733,7 +7733,7 @@
         <v>0.2125</v>
       </c>
       <c r="T60">
-        <v>0.0008873021838072571</v>
+        <v>0.000885038681396487</v>
       </c>
       <c r="U60">
         <v>91.66500000000001</v>
@@ -7810,19 +7810,19 @@
         <v>74425</v>
       </c>
       <c r="G61">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H61">
-        <v>1.933333333333333</v>
+        <v>1.9375</v>
       </c>
       <c r="I61">
-        <v>1074.322580645161</v>
+        <v>1063.757575757576</v>
       </c>
       <c r="J61">
-        <v>1148.7</v>
+        <v>1090.583333333333</v>
       </c>
       <c r="K61">
-        <v>574.2068965517242</v>
+        <v>566.1935483870968</v>
       </c>
       <c r="L61" t="s">
         <v>96</v>
@@ -7929,16 +7929,16 @@
         <v>35</v>
       </c>
       <c r="H62">
-        <v>2.107142857142857</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="I62">
-        <v>683.9117647058823</v>
+        <v>683.5588235294117</v>
       </c>
       <c r="J62">
         <v>1100</v>
       </c>
       <c r="K62">
-        <v>394.1186440677966</v>
+        <v>387.35</v>
       </c>
       <c r="L62" t="s">
         <v>97</v>
@@ -8084,22 +8084,22 @@
         <v>0</v>
       </c>
       <c r="U63">
-        <v>94.29430367450013</v>
+        <v>94.2943036745001</v>
       </c>
       <c r="V63">
         <v>0</v>
       </c>
       <c r="W63">
-        <v>85.83807424691005</v>
+        <v>85.83807424691007</v>
       </c>
       <c r="X63">
-        <v>5699.499194083695</v>
+        <v>5699.499194083693</v>
       </c>
       <c r="Y63">
         <v>0</v>
       </c>
       <c r="Z63">
-        <v>0.1150350893039983</v>
+        <v>0.1150350893039982</v>
       </c>
       <c r="AA63">
         <v>0</v>
@@ -8111,7 +8111,7 @@
         <v>64.25376443860374</v>
       </c>
       <c r="AD63">
-        <v>50.07596206108707</v>
+        <v>50.07596206108709</v>
       </c>
       <c r="AE63">
         <v>0</v>
@@ -8123,10 +8123,10 @@
         <v>0</v>
       </c>
       <c r="AH63">
-        <v>64.44804289493575</v>
+        <v>64.44804289493577</v>
       </c>
       <c r="AI63">
-        <v>3.112855111249358</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ63">
         <v>0</v>
@@ -8158,19 +8158,19 @@
         <v>115510</v>
       </c>
       <c r="G64">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H64">
-        <v>2.038461538461538</v>
+        <v>2.04</v>
       </c>
       <c r="I64">
-        <v>1283.833333333333</v>
+        <v>1317.931034482759</v>
       </c>
       <c r="J64">
-        <v>1168.142857142857</v>
+        <v>1256.785714285714</v>
       </c>
       <c r="K64">
-        <v>726.6981132075472</v>
+        <v>749.4117647058823</v>
       </c>
       <c r="L64" t="s">
         <v>99</v>
@@ -8197,7 +8197,7 @@
         <v>0.2</v>
       </c>
       <c r="T64">
-        <v>0.0008351079377009478</v>
+        <v>0.0008329775824908112</v>
       </c>
       <c r="U64">
         <v>96.5275</v>
@@ -8313,7 +8313,7 @@
         <v>1.2</v>
       </c>
       <c r="T65">
-        <v>0.005010647626205686</v>
+        <v>0.004997865494944867</v>
       </c>
       <c r="U65">
         <v>93.78999999999999</v>
@@ -8393,16 +8393,16 @@
         <v>15</v>
       </c>
       <c r="H66">
-        <v>1.833333333333333</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="I66">
-        <v>783.2142857142857</v>
+        <v>777.1428571428571</v>
       </c>
       <c r="J66">
-        <v>950</v>
+        <v>897</v>
       </c>
       <c r="K66">
-        <v>498.4090909090909</v>
+        <v>544</v>
       </c>
       <c r="L66" t="s">
         <v>101</v>
@@ -8429,7 +8429,7 @@
         <v>0.025</v>
       </c>
       <c r="T66">
-        <v>0.0001043884922126185</v>
+        <v>0.0001041221978113514</v>
       </c>
       <c r="U66">
         <v>96.41499999999999</v>
@@ -8506,19 +8506,19 @@
         <v>49097.08</v>
       </c>
       <c r="G67">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H67">
-        <v>1.972222222222222</v>
+        <v>1.918181818181818</v>
       </c>
       <c r="I67">
-        <v>1115.880733944954</v>
+        <v>1103.354545454545</v>
       </c>
       <c r="J67">
-        <v>1021.709677419355</v>
+        <v>996.8421052631579</v>
       </c>
       <c r="K67">
-        <v>571.037558685446</v>
+        <v>575.2085308056872</v>
       </c>
       <c r="L67" t="s">
         <v>102</v>
@@ -8545,7 +8545,7 @@
         <v>4</v>
       </c>
       <c r="T67">
-        <v>0.01670215875401895</v>
+        <v>0.01665955164981622</v>
       </c>
       <c r="U67">
         <v>93.74499999999999</v>
@@ -8625,16 +8625,16 @@
         <v>47</v>
       </c>
       <c r="H68">
-        <v>1.91304347826087</v>
+        <v>1.891304347826087</v>
       </c>
       <c r="I68">
-        <v>815.7608695652174</v>
+        <v>814.3478260869565</v>
       </c>
       <c r="J68">
-        <v>1102.6</v>
+        <v>1064.8</v>
       </c>
       <c r="K68">
-        <v>426.4204545454546</v>
+        <v>430.5747126436781</v>
       </c>
       <c r="L68" t="s">
         <v>103</v>
@@ -8661,7 +8661,7 @@
         <v>1.425</v>
       </c>
       <c r="T68">
-        <v>0.005950144056119253</v>
+        <v>0.005934965275247029</v>
       </c>
       <c r="U68">
         <v>95.20999999999999</v>
@@ -8738,19 +8738,19 @@
         <v>17666.67</v>
       </c>
       <c r="G69">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H69">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="I69">
-        <v>777.9166666666666</v>
+        <v>785.5</v>
       </c>
       <c r="J69">
-        <v>1100</v>
+        <v>950</v>
       </c>
       <c r="K69">
-        <v>424.3181818181818</v>
+        <v>436.3888888888889</v>
       </c>
       <c r="L69" t="s">
         <v>104</v>
@@ -8780,22 +8780,22 @@
         <v>0</v>
       </c>
       <c r="U69">
-        <v>94.29430367450013</v>
+        <v>94.2943036745001</v>
       </c>
       <c r="V69">
         <v>0</v>
       </c>
       <c r="W69">
-        <v>85.83807424691005</v>
+        <v>85.83807424691007</v>
       </c>
       <c r="X69">
-        <v>5699.499194083695</v>
+        <v>5699.499194083693</v>
       </c>
       <c r="Y69">
         <v>0</v>
       </c>
       <c r="Z69">
-        <v>0.1150350893039983</v>
+        <v>0.1150350893039982</v>
       </c>
       <c r="AA69">
         <v>0</v>
@@ -8807,7 +8807,7 @@
         <v>64.25376443860374</v>
       </c>
       <c r="AD69">
-        <v>50.07596206108707</v>
+        <v>50.07596206108709</v>
       </c>
       <c r="AE69">
         <v>0</v>
@@ -8819,10 +8819,10 @@
         <v>0</v>
       </c>
       <c r="AH69">
-        <v>64.44804289493575</v>
+        <v>64.44804289493577</v>
       </c>
       <c r="AI69">
-        <v>3.112855111249358</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ69">
         <v>2.664473684210526</v>
@@ -8857,28 +8857,28 @@
         <v>120</v>
       </c>
       <c r="H70">
-        <v>1.97979797979798</v>
+        <v>1.922330097087379</v>
       </c>
       <c r="I70">
-        <v>1225.408333333333</v>
+        <v>1280.408333333333</v>
       </c>
       <c r="J70">
-        <v>1205.297297297297</v>
+        <v>1285.794871794872</v>
       </c>
       <c r="K70">
-        <v>750.25</v>
+        <v>776.0050505050505</v>
       </c>
       <c r="L70" t="s">
         <v>105</v>
       </c>
       <c r="M70">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N70">
         <v>85</v>
       </c>
       <c r="O70">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P70">
         <v>28.5</v>
@@ -8887,13 +8887,13 @@
         <v>3</v>
       </c>
       <c r="R70">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="S70">
-        <v>48.875</v>
+        <v>50.075</v>
       </c>
       <c r="T70">
-        <v>0.2040795022756691</v>
+        <v>0.2085567622161369</v>
       </c>
       <c r="U70">
         <v>94.28333333333335</v>
@@ -8973,16 +8973,16 @@
         <v>120</v>
       </c>
       <c r="H71">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="I71">
-        <v>770.4666666666667</v>
+        <v>764.5166666666667</v>
       </c>
       <c r="J71">
-        <v>1045.590909090909</v>
+        <v>995.9</v>
       </c>
       <c r="K71">
-        <v>484.0628272251309</v>
+        <v>504.0769230769231</v>
       </c>
       <c r="L71" t="s">
         <v>106</v>
@@ -9009,7 +9009,7 @@
         <v>0.55</v>
       </c>
       <c r="T71">
-        <v>0.002296546828677607</v>
+        <v>0.002290688351849731</v>
       </c>
       <c r="U71">
         <v>93.31333333333335</v>
@@ -9089,16 +9089,16 @@
         <v>120</v>
       </c>
       <c r="H72">
-        <v>2.110169491525424</v>
+        <v>1.789915966386555</v>
       </c>
       <c r="I72">
-        <v>1611.558333333333</v>
+        <v>1711.75</v>
       </c>
       <c r="J72">
-        <v>1189.945454545455</v>
+        <v>1146.058823529412</v>
       </c>
       <c r="K72">
-        <v>776.6546184738955</v>
+        <v>964.3661971830986</v>
       </c>
       <c r="L72" t="s">
         <v>107</v>
@@ -9125,7 +9125,7 @@
         <v>193.4375</v>
       </c>
       <c r="T72">
-        <v>0.8077059584951354</v>
+        <v>0.8056455055653313</v>
       </c>
       <c r="U72">
         <v>95.2</v>
@@ -9202,46 +9202,46 @@
         <v>27400</v>
       </c>
       <c r="G73">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="H73">
-        <v>2.440677966101695</v>
+        <v>2.431372549019608</v>
       </c>
       <c r="I73">
-        <v>799.1875</v>
+        <v>827.3773584905661</v>
       </c>
       <c r="J73">
-        <v>1110</v>
+        <v>1609.5</v>
       </c>
       <c r="K73">
-        <v>355.1944444444445</v>
+        <v>353.6370967741935</v>
       </c>
       <c r="L73" t="s">
         <v>108</v>
       </c>
       <c r="M73">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N73">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O73">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P73">
-        <v>33</v>
+        <v>33.25</v>
       </c>
       <c r="Q73">
         <v>7</v>
       </c>
       <c r="R73">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="S73">
-        <v>64.90000000000001</v>
+        <v>66.51249999999999</v>
       </c>
       <c r="T73">
-        <v>0.2709925257839576</v>
+        <v>0.2770171072771004</v>
       </c>
       <c r="U73">
         <v>91.56</v>
@@ -9324,13 +9324,13 @@
         <v>2.018518518518519</v>
       </c>
       <c r="I74">
-        <v>1324.35294117647</v>
+        <v>1330.067226890756</v>
       </c>
       <c r="J74">
-        <v>992</v>
+        <v>1065.828571428571</v>
       </c>
       <c r="K74">
-        <v>722.9266055045872</v>
+        <v>726.045871559633</v>
       </c>
       <c r="L74" t="s">
         <v>109</v>
@@ -9357,7 +9357,7 @@
         <v>27.2125</v>
       </c>
       <c r="T74">
-        <v>0.1136268737734352</v>
+        <v>0.113337012317656</v>
       </c>
       <c r="U74">
         <v>94.90666666666668</v>
@@ -9437,43 +9437,43 @@
         <v>120</v>
       </c>
       <c r="H75">
-        <v>1.787610619469026</v>
+        <v>1.730434782608696</v>
       </c>
       <c r="I75">
-        <v>1135.823529411765</v>
+        <v>1129.63025210084</v>
       </c>
       <c r="J75">
-        <v>1036.95652173913</v>
+        <v>1013.157894736842</v>
       </c>
       <c r="K75">
-        <v>669.1237623762377</v>
+        <v>675.5075376884422</v>
       </c>
       <c r="L75" t="s">
         <v>110</v>
       </c>
       <c r="M75">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N75">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O75">
         <v>172</v>
       </c>
       <c r="P75">
-        <v>132</v>
+        <v>132.75</v>
       </c>
       <c r="Q75">
         <v>38.5</v>
       </c>
       <c r="R75">
-        <v>1571</v>
+        <v>1577</v>
       </c>
       <c r="S75">
-        <v>167.175</v>
+        <v>167.4125</v>
       </c>
       <c r="T75">
-        <v>0.6980458474257798</v>
+        <v>0.6972542976437146</v>
       </c>
       <c r="U75">
         <v>94.06499999999998</v>
@@ -9550,28 +9550,28 @@
         <v>31070.83</v>
       </c>
       <c r="G76">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H76">
-        <v>2.452380952380953</v>
+        <v>2.447368421052631</v>
       </c>
       <c r="I76">
-        <v>906.6226415094339</v>
+        <v>848.2765957446809</v>
       </c>
       <c r="J76">
-        <v>1191.117647058823</v>
+        <v>1221.692307692308</v>
       </c>
       <c r="K76">
-        <v>466.5145631067961</v>
+        <v>428.6989247311828</v>
       </c>
       <c r="L76" t="s">
         <v>111</v>
       </c>
       <c r="M76">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N76">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O76">
         <v>50</v>
@@ -9583,13 +9583,13 @@
         <v>7.5</v>
       </c>
       <c r="R76">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="S76">
-        <v>64.15000000000001</v>
+        <v>64.34999999999999</v>
       </c>
       <c r="T76">
-        <v>0.267860871017579</v>
+        <v>0.2680105371664185</v>
       </c>
       <c r="U76">
         <v>93.935</v>
@@ -9669,43 +9669,43 @@
         <v>120</v>
       </c>
       <c r="H77">
-        <v>2.127118644067797</v>
+        <v>2.042016806722689</v>
       </c>
       <c r="I77">
-        <v>1162.008333333333</v>
+        <v>1110.025</v>
       </c>
       <c r="J77">
-        <v>1421.142857142857</v>
+        <v>1259.870967741935</v>
       </c>
       <c r="K77">
-        <v>555.5418326693227</v>
+        <v>548.1604938271605</v>
       </c>
       <c r="L77" t="s">
         <v>112</v>
       </c>
       <c r="M77">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N77">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O77">
         <v>96</v>
       </c>
       <c r="P77">
-        <v>115</v>
+        <v>115.5</v>
       </c>
       <c r="Q77">
         <v>14.5</v>
       </c>
       <c r="R77">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="S77">
-        <v>93.32499999999999</v>
+        <v>93.75</v>
       </c>
       <c r="T77">
-        <v>0.3896822414297047</v>
+        <v>0.3904582417925678</v>
       </c>
       <c r="U77">
         <v>92.336</v>
@@ -9788,13 +9788,13 @@
         <v>1.778761061946903</v>
       </c>
       <c r="I78">
-        <v>852.2833333333333</v>
+        <v>854.325</v>
       </c>
       <c r="J78">
-        <v>751.0679611650486</v>
+        <v>746.6666666666666</v>
       </c>
       <c r="K78">
-        <v>508.8258706467662</v>
+        <v>510.044776119403</v>
       </c>
       <c r="L78" t="s">
         <v>113</v>
@@ -9821,7 +9821,7 @@
         <v>0.1</v>
       </c>
       <c r="T78">
-        <v>0.0004175539688504739</v>
+        <v>0.0004164887912454056</v>
       </c>
       <c r="U78">
         <v>95.27500000000001</v>
@@ -9898,46 +9898,46 @@
         <v>17666.67</v>
       </c>
       <c r="G79">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H79">
-        <v>2.493827160493827</v>
+        <v>2.407407407407407</v>
       </c>
       <c r="I79">
-        <v>906.6593406593406</v>
+        <v>889.3118279569892</v>
       </c>
       <c r="J79">
-        <v>1156.222222222222</v>
+        <v>1143.5</v>
       </c>
       <c r="K79">
-        <v>408.4455445544555</v>
+        <v>424.1333333333333</v>
       </c>
       <c r="L79" t="s">
         <v>114</v>
       </c>
       <c r="M79">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N79">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O79">
         <v>220</v>
       </c>
       <c r="P79">
-        <v>165.75</v>
+        <v>166.75</v>
       </c>
       <c r="Q79">
         <v>32</v>
       </c>
       <c r="R79">
-        <v>1810</v>
+        <v>1821</v>
       </c>
       <c r="S79">
-        <v>234.0875</v>
+        <v>234.3375</v>
       </c>
       <c r="T79">
-        <v>0.9774416468328531</v>
+        <v>0.9759894211847024</v>
       </c>
       <c r="U79">
         <v>91.506</v>
@@ -10014,19 +10014,19 @@
         <v>75577.78</v>
       </c>
       <c r="G80">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H80">
-        <v>2.219047619047619</v>
+        <v>2.232323232323232</v>
       </c>
       <c r="I80">
-        <v>1003.863247863248</v>
+        <v>977.2767857142857</v>
       </c>
       <c r="J80">
-        <v>1269.740740740741</v>
+        <v>1247.078431372549</v>
       </c>
       <c r="K80">
-        <v>504.0858369098713</v>
+        <v>495.2714932126697</v>
       </c>
       <c r="L80" t="s">
         <v>115</v>
@@ -10047,13 +10047,13 @@
         <v>7.5</v>
       </c>
       <c r="R80">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="S80">
         <v>61.0375</v>
       </c>
       <c r="T80">
-        <v>0.254864503737108</v>
+        <v>0.2542143459564145</v>
       </c>
       <c r="U80">
         <v>92.38</v>
@@ -10133,43 +10133,43 @@
         <v>120</v>
       </c>
       <c r="H81">
-        <v>2.297029702970297</v>
+        <v>2.232323232323232</v>
       </c>
       <c r="I81">
-        <v>1073.243697478992</v>
+        <v>1040.521008403361</v>
       </c>
       <c r="J81">
-        <v>1003.5</v>
+        <v>950.070707070707</v>
       </c>
       <c r="K81">
-        <v>550.5</v>
+        <v>560.2805429864253</v>
       </c>
       <c r="L81" t="s">
         <v>116</v>
       </c>
       <c r="M81">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="N81">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="O81">
         <v>406</v>
       </c>
       <c r="P81">
-        <v>322</v>
+        <v>325.5</v>
       </c>
       <c r="Q81">
         <v>36</v>
       </c>
       <c r="R81">
-        <v>3147</v>
+        <v>3170</v>
       </c>
       <c r="S81">
-        <v>358.3</v>
+        <v>359.275</v>
       </c>
       <c r="T81">
-        <v>1.496095870391248</v>
+        <v>1.496340104746931</v>
       </c>
       <c r="U81">
         <v>92.745</v>
@@ -10249,43 +10249,43 @@
         <v>120</v>
       </c>
       <c r="H82">
-        <v>3.059405940594059</v>
+        <v>2.818181818181818</v>
       </c>
       <c r="I82">
-        <v>1707.666666666667</v>
+        <v>1413.908333333333</v>
       </c>
       <c r="J82">
-        <v>2525.4</v>
+        <v>1053.607142857143</v>
       </c>
       <c r="K82">
-        <v>663.1715210355987</v>
+        <v>684.1491935483871</v>
       </c>
       <c r="L82" t="s">
         <v>117</v>
       </c>
       <c r="M82">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N82">
         <v>82</v>
       </c>
       <c r="O82">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P82">
-        <v>33.5</v>
+        <v>33.75</v>
       </c>
       <c r="Q82">
         <v>7.5</v>
       </c>
       <c r="R82">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="S82">
-        <v>50.4</v>
+        <v>51.6125</v>
       </c>
       <c r="T82">
-        <v>0.2104472003006388</v>
+        <v>0.2149602773815349</v>
       </c>
       <c r="U82">
         <v>96.94499999999999</v>
@@ -10362,46 +10362,46 @@
         <v>41202.78</v>
       </c>
       <c r="G83">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H83">
-        <v>2.518072289156626</v>
+        <v>2.5375</v>
       </c>
       <c r="I83">
-        <v>1046.720930232558</v>
+        <v>1061.843373493976</v>
       </c>
       <c r="J83">
-        <v>1119.76</v>
+        <v>1118.186666666667</v>
       </c>
       <c r="K83">
-        <v>430.7081339712919</v>
+        <v>434.1527093596059</v>
       </c>
       <c r="L83" t="s">
         <v>118</v>
       </c>
       <c r="M83">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N83">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O83">
         <v>126</v>
       </c>
       <c r="P83">
-        <v>69</v>
+        <v>69.5</v>
       </c>
       <c r="Q83">
         <v>9</v>
       </c>
       <c r="R83">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="S83">
-        <v>120</v>
+        <v>120.425</v>
       </c>
       <c r="T83">
-        <v>0.5010647626205686</v>
+        <v>0.5015566268572796</v>
       </c>
       <c r="U83">
         <v>97.81999999999999</v>
@@ -10478,19 +10478,19 @@
         <v>90125.42</v>
       </c>
       <c r="G84">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H84">
-        <v>2.036363636363636</v>
+        <v>1.962264150943396</v>
       </c>
       <c r="I84">
-        <v>1064.890909090909</v>
+        <v>1008.849056603774</v>
       </c>
       <c r="J84">
-        <v>1338.461538461539</v>
+        <v>1250</v>
       </c>
       <c r="K84">
-        <v>522.9375</v>
+        <v>514.125</v>
       </c>
       <c r="L84" t="s">
         <v>119</v>
@@ -10517,7 +10517,7 @@
         <v>0.225</v>
       </c>
       <c r="T84">
-        <v>0.0009394964299135663</v>
+        <v>0.0009370997803021626</v>
       </c>
       <c r="U84">
         <v>94.97</v>
@@ -10597,16 +10597,16 @@
         <v>120</v>
       </c>
       <c r="H85">
-        <v>1.822429906542056</v>
+        <v>1.851485148514852</v>
       </c>
       <c r="I85">
-        <v>914.0336134453781</v>
+        <v>909.5546218487395</v>
       </c>
       <c r="J85">
-        <v>1157.2</v>
+        <v>1143.354838709677</v>
       </c>
       <c r="K85">
-        <v>557.7948717948718</v>
+        <v>578.807486631016</v>
       </c>
       <c r="L85" t="s">
         <v>120</v>
@@ -10621,19 +10621,19 @@
         <v>56</v>
       </c>
       <c r="P85">
-        <v>21.75</v>
+        <v>22.25</v>
       </c>
       <c r="Q85">
         <v>5.5</v>
       </c>
       <c r="R85">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="S85">
-        <v>54.31250000000001</v>
+        <v>54.33750000000001</v>
       </c>
       <c r="T85">
-        <v>0.2267839993319137</v>
+        <v>0.2263095969429723</v>
       </c>
       <c r="U85">
         <v>93.22749999999999</v>
@@ -10713,16 +10713,16 @@
         <v>120</v>
       </c>
       <c r="H86">
-        <v>1.756756756756757</v>
+        <v>1.388349514563107</v>
       </c>
       <c r="I86">
-        <v>1199.366666666667</v>
+        <v>1090.691666666667</v>
       </c>
       <c r="J86">
-        <v>985.639344262295</v>
+        <v>847.5102040816327</v>
       </c>
       <c r="K86">
-        <v>738.0717948717949</v>
+        <v>915.2657342657343</v>
       </c>
       <c r="L86" t="s">
         <v>121</v>
@@ -10743,13 +10743,13 @@
         <v>4.5</v>
       </c>
       <c r="R86">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="S86">
         <v>31.575</v>
       </c>
       <c r="T86">
-        <v>0.1318426656645371</v>
+        <v>0.1315063358357368</v>
       </c>
       <c r="U86">
         <v>93.25666666666666</v>
@@ -10829,16 +10829,16 @@
         <v>120</v>
       </c>
       <c r="H87">
-        <v>1.477477477477477</v>
+        <v>1.535714285714286</v>
       </c>
       <c r="I87">
-        <v>816.5166666666667</v>
+        <v>792.975</v>
       </c>
       <c r="J87">
-        <v>772.2191780821918</v>
+        <v>784.876923076923</v>
       </c>
       <c r="K87">
-        <v>597.4512195121952</v>
+        <v>553.2383720930233</v>
       </c>
       <c r="L87" t="s">
         <v>122</v>
@@ -10865,7 +10865,7 @@
         <v>8.2875</v>
       </c>
       <c r="T87">
-        <v>0.03460478516848303</v>
+        <v>0.03451650857446299</v>
       </c>
       <c r="U87">
         <v>92.56</v>
@@ -10945,40 +10945,40 @@
         <v>120</v>
       </c>
       <c r="H88">
-        <v>1.747663551401869</v>
+        <v>1.779816513761468</v>
       </c>
       <c r="I88">
-        <v>1455.85</v>
+        <v>1482.775</v>
       </c>
       <c r="J88">
-        <v>973.1666666666666</v>
+        <v>935.3917525773196</v>
       </c>
       <c r="K88">
-        <v>934.2352941176471</v>
+        <v>917.180412371134</v>
       </c>
       <c r="L88" t="s">
         <v>123</v>
       </c>
       <c r="M88">
-        <v>2440</v>
+        <v>2449</v>
       </c>
       <c r="N88">
-        <v>1895</v>
+        <v>1904</v>
       </c>
       <c r="O88">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="P88">
-        <v>389.5</v>
+        <v>390.75</v>
       </c>
       <c r="Q88">
         <v>150.5</v>
       </c>
       <c r="R88">
-        <v>8042</v>
+        <v>8081</v>
       </c>
       <c r="S88">
-        <v>1197.45</v>
+        <v>1200.5125</v>
       </c>
       <c r="T88">
         <v>5</v>
@@ -11058,28 +11058,28 @@
         <v>59925</v>
       </c>
       <c r="G89">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H89">
-        <v>2.193548387096774</v>
+        <v>2.111111111111111</v>
       </c>
       <c r="I89">
-        <v>1025.117647058823</v>
+        <v>1083</v>
       </c>
       <c r="J89">
-        <v>1297.722222222222</v>
+        <v>1303.470588235294</v>
       </c>
       <c r="K89">
-        <v>512.5588235294117</v>
+        <v>532</v>
       </c>
       <c r="L89" t="s">
         <v>124</v>
       </c>
       <c r="M89">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="N89">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O89">
         <v>58</v>
@@ -11088,16 +11088,16 @@
         <v>30</v>
       </c>
       <c r="Q89">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="R89">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="S89">
-        <v>59.85</v>
+        <v>60.675</v>
       </c>
       <c r="T89">
-        <v>0.2499060503570086</v>
+        <v>0.2527045740881498</v>
       </c>
       <c r="U89">
         <v>94.92</v>
@@ -11177,16 +11177,16 @@
         <v>120</v>
       </c>
       <c r="H90">
-        <v>1.973684210526316</v>
+        <v>1.9375</v>
       </c>
       <c r="I90">
-        <v>1019.596638655462</v>
+        <v>996.2773109243698</v>
       </c>
       <c r="J90">
-        <v>1271.457627118644</v>
+        <v>1141.357142857143</v>
       </c>
       <c r="K90">
-        <v>539.2533333333333</v>
+        <v>546.3456221198156</v>
       </c>
       <c r="L90" t="s">
         <v>125</v>
@@ -11201,19 +11201,19 @@
         <v>126</v>
       </c>
       <c r="P90">
-        <v>69</v>
+        <v>69.5</v>
       </c>
       <c r="Q90">
         <v>14</v>
       </c>
       <c r="R90">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="S90">
-        <v>111.75</v>
+        <v>111.775</v>
       </c>
       <c r="T90">
-        <v>0.4666165601904045</v>
+        <v>0.465530346414552</v>
       </c>
       <c r="U90">
         <v>90.78</v>
@@ -11293,16 +11293,16 @@
         <v>120</v>
       </c>
       <c r="H91">
-        <v>1.411764705882353</v>
+        <v>1.471153846153846</v>
       </c>
       <c r="I91">
-        <v>1495.883333333333</v>
+        <v>1444.508333333333</v>
       </c>
       <c r="J91">
-        <v>868.8829787234042</v>
+        <v>810.5967741935484</v>
       </c>
       <c r="K91">
-        <v>1068.488095238095</v>
+        <v>1132.947712418301</v>
       </c>
       <c r="L91" t="s">
         <v>126</v>
@@ -11317,19 +11317,19 @@
         <v>120</v>
       </c>
       <c r="P91">
-        <v>55</v>
+        <v>55.25</v>
       </c>
       <c r="Q91">
         <v>13.5</v>
       </c>
       <c r="R91">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="S91">
-        <v>96.17500000000001</v>
+        <v>96.18750000000001</v>
       </c>
       <c r="T91">
-        <v>0.4015825295419433</v>
+        <v>0.4006101560791746</v>
       </c>
       <c r="U91">
         <v>93.3725</v>
@@ -11406,19 +11406,19 @@
         <v>47977.78</v>
       </c>
       <c r="G92">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H92">
-        <v>2.090909090909091</v>
+        <v>2.043478260869565</v>
       </c>
       <c r="I92">
-        <v>834.2173913043479</v>
+        <v>835.0833333333334</v>
       </c>
       <c r="J92">
         <v>1174.166666666667</v>
       </c>
       <c r="K92">
-        <v>417.1086956521739</v>
+        <v>426.4255319148936</v>
       </c>
       <c r="L92" t="s">
         <v>127</v>
@@ -11445,25 +11445,25 @@
         <v>1.55</v>
       </c>
       <c r="T92">
-        <v>0.006472086517182346</v>
+        <v>0.006455576264303786</v>
       </c>
       <c r="U92">
-        <v>94.29430367450013</v>
+        <v>94.2943036745001</v>
       </c>
       <c r="V92">
         <v>0</v>
       </c>
       <c r="W92">
-        <v>85.83807424691005</v>
+        <v>85.83807424691007</v>
       </c>
       <c r="X92">
-        <v>5699.499194083695</v>
+        <v>5699.499194083693</v>
       </c>
       <c r="Y92">
         <v>0</v>
       </c>
       <c r="Z92">
-        <v>0.1150350893039983</v>
+        <v>0.1150350893039982</v>
       </c>
       <c r="AA92">
         <v>0</v>
@@ -11475,7 +11475,7 @@
         <v>64.25376443860374</v>
       </c>
       <c r="AD92">
-        <v>50.07596206108707</v>
+        <v>50.07596206108709</v>
       </c>
       <c r="AE92">
         <v>0</v>
@@ -11487,10 +11487,10 @@
         <v>0</v>
       </c>
       <c r="AH92">
-        <v>64.44804289493575</v>
+        <v>64.44804289493577</v>
       </c>
       <c r="AI92">
-        <v>3.112855111249358</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ92">
         <v>3.345496894409938</v>
@@ -11525,16 +11525,16 @@
         <v>120</v>
       </c>
       <c r="H93">
-        <v>2.114035087719298</v>
+        <v>2.078947368421053</v>
       </c>
       <c r="I93">
-        <v>1454.141666666667</v>
+        <v>1349.041666666667</v>
       </c>
       <c r="J93">
-        <v>936.0392156862745</v>
+        <v>881.74</v>
       </c>
       <c r="K93">
-        <v>724.0539419087137</v>
+        <v>683.0590717299579</v>
       </c>
       <c r="L93" t="s">
         <v>128</v>
@@ -11561,7 +11561,7 @@
         <v>44.5875</v>
       </c>
       <c r="T93">
-        <v>0.186176875861205</v>
+        <v>0.1857019397965452</v>
       </c>
       <c r="U93">
         <v>91.56999999999999</v>
@@ -11638,19 +11638,19 @@
         <v>17666.67</v>
       </c>
       <c r="G94">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H94">
-        <v>2.111111111111111</v>
+        <v>2.125</v>
       </c>
       <c r="I94">
-        <v>904.4444444444445</v>
+        <v>921.25</v>
       </c>
       <c r="J94">
-        <v>694.6666666666666</v>
+        <v>683.6</v>
       </c>
       <c r="K94">
-        <v>428.421052631579</v>
+        <v>433.5294117647059</v>
       </c>
       <c r="L94" t="s">
         <v>129</v>
@@ -11677,25 +11677,25 @@
         <v>0.2125</v>
       </c>
       <c r="T94">
-        <v>0.0008873021838072571</v>
+        <v>0.000885038681396487</v>
       </c>
       <c r="U94">
-        <v>94.29430367450013</v>
+        <v>94.2943036745001</v>
       </c>
       <c r="V94">
         <v>0</v>
       </c>
       <c r="W94">
-        <v>85.83807424691005</v>
+        <v>85.83807424691007</v>
       </c>
       <c r="X94">
-        <v>5699.499194083695</v>
+        <v>5699.499194083693</v>
       </c>
       <c r="Y94">
         <v>0</v>
       </c>
       <c r="Z94">
-        <v>0.1150350893039983</v>
+        <v>0.1150350893039982</v>
       </c>
       <c r="AA94">
         <v>0</v>
@@ -11707,7 +11707,7 @@
         <v>64.25376443860374</v>
       </c>
       <c r="AD94">
-        <v>50.07596206108707</v>
+        <v>50.07596206108709</v>
       </c>
       <c r="AE94">
         <v>0</v>
@@ -11719,10 +11719,10 @@
         <v>0</v>
       </c>
       <c r="AH94">
-        <v>64.44804289493575</v>
+        <v>64.44804289493577</v>
       </c>
       <c r="AI94">
-        <v>3.112855111249358</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ94">
         <v>2.464285714285714</v>
@@ -11757,25 +11757,25 @@
         <v>120</v>
       </c>
       <c r="H95">
-        <v>2.009090909090909</v>
+        <v>2.018348623853211</v>
       </c>
       <c r="I95">
-        <v>1268.529411764706</v>
+        <v>1281.016806722689</v>
       </c>
       <c r="J95">
-        <v>1470.761904761905</v>
+        <v>1405.166666666667</v>
       </c>
       <c r="K95">
-        <v>683.0542986425339</v>
+        <v>692.9136363636363</v>
       </c>
       <c r="L95" t="s">
         <v>130</v>
       </c>
       <c r="M95">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N95">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O95">
         <v>38</v>
@@ -11787,13 +11787,13 @@
         <v>5</v>
       </c>
       <c r="R95">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="S95">
-        <v>42.425</v>
+        <v>42.625</v>
       </c>
       <c r="T95">
-        <v>0.1771472712848135</v>
+        <v>0.1775283472683541</v>
       </c>
       <c r="U95">
         <v>93.375</v>
@@ -11870,19 +11870,19 @@
         <v>48133.33</v>
       </c>
       <c r="G96">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H96">
-        <v>1.870967741935484</v>
+        <v>1.791044776119403</v>
       </c>
       <c r="I96">
-        <v>799.5735294117648</v>
+        <v>773.7916666666666</v>
       </c>
       <c r="J96">
-        <v>871.8787878787879</v>
+        <v>779.1621621621622</v>
       </c>
       <c r="K96">
-        <v>468.7155172413793</v>
+        <v>464.275</v>
       </c>
       <c r="L96" t="s">
         <v>131</v>
@@ -11909,7 +11909,7 @@
         <v>26.675</v>
       </c>
       <c r="T96">
-        <v>0.1113825211908639</v>
+        <v>0.111098385064712</v>
       </c>
       <c r="U96">
         <v>89.47666666666667</v>
@@ -11986,19 +11986,19 @@
         <v>97137.5</v>
       </c>
       <c r="G97">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H97">
-        <v>1.860869565217391</v>
+        <v>1.962616822429907</v>
       </c>
       <c r="I97">
-        <v>1018.75</v>
+        <v>1038.743362831858</v>
       </c>
       <c r="J97">
-        <v>1021.025</v>
+        <v>1010.756097560976</v>
       </c>
       <c r="K97">
-        <v>571.2616822429907</v>
+        <v>558.9428571428572</v>
       </c>
       <c r="L97" t="s">
         <v>132</v>
@@ -12025,7 +12025,7 @@
         <v>0.075</v>
       </c>
       <c r="T97">
-        <v>0.0003131654766378554</v>
+        <v>0.0003123665934340542</v>
       </c>
       <c r="U97">
         <v>96.27</v>
@@ -12102,19 +12102,19 @@
         <v>60133.33</v>
       </c>
       <c r="G98">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H98">
-        <v>1.53448275862069</v>
+        <v>1.508474576271186</v>
       </c>
       <c r="I98">
-        <v>1073.483870967742</v>
+        <v>1078.295081967213</v>
       </c>
       <c r="J98">
-        <v>1022.818181818182</v>
+        <v>991.75</v>
       </c>
       <c r="K98">
-        <v>747.8202247191011</v>
+        <v>739.056179775281</v>
       </c>
       <c r="L98" t="s">
         <v>133</v>
@@ -12141,7 +12141,7 @@
         <v>0.2</v>
       </c>
       <c r="T98">
-        <v>0.0008351079377009478</v>
+        <v>0.0008329775824908112</v>
       </c>
       <c r="U98">
         <v>95.71000000000001</v>
@@ -12221,25 +12221,25 @@
         <v>120</v>
       </c>
       <c r="H99">
-        <v>1.773913043478261</v>
+        <v>1.613207547169811</v>
       </c>
       <c r="I99">
-        <v>1532.808333333333</v>
+        <v>1440.733333333333</v>
       </c>
       <c r="J99">
-        <v>1068.34375</v>
+        <v>1166.418181818182</v>
       </c>
       <c r="K99">
-        <v>901.6519607843137</v>
+        <v>1011.040935672515</v>
       </c>
       <c r="L99" t="s">
         <v>134</v>
       </c>
       <c r="M99">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N99">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O99">
         <v>12</v>
@@ -12251,13 +12251,13 @@
         <v>2.5</v>
       </c>
       <c r="R99">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="S99">
-        <v>13.3875</v>
+        <v>13.5875</v>
       </c>
       <c r="T99">
-        <v>0.05590003757985719</v>
+        <v>0.05659041451046949</v>
       </c>
       <c r="U99">
         <v>96.23999999999999</v>
@@ -12334,46 +12334,46 @@
         <v>49533.33</v>
       </c>
       <c r="G100">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H100">
-        <v>1.737864077669903</v>
+        <v>1.722222222222222</v>
       </c>
       <c r="I100">
-        <v>849.3534482758621</v>
+        <v>847.9495798319327</v>
       </c>
       <c r="J100">
         <v>1192.606060606061</v>
       </c>
       <c r="K100">
-        <v>550.4189944134079</v>
+        <v>542.505376344086</v>
       </c>
       <c r="L100" t="s">
         <v>135</v>
       </c>
       <c r="M100">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N100">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O100">
         <v>68</v>
       </c>
       <c r="P100">
-        <v>39</v>
+        <v>39.5</v>
       </c>
       <c r="Q100">
         <v>23.5</v>
       </c>
       <c r="R100">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="S100">
-        <v>56.675</v>
+        <v>56.9</v>
       </c>
       <c r="T100">
-        <v>0.2366487118460061</v>
+        <v>0.2369821222186358</v>
       </c>
       <c r="U100">
         <v>94.18000000000001</v>
@@ -12450,28 +12450,28 @@
         <v>54033.33</v>
       </c>
       <c r="G101">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H101">
-        <v>1.976744186046512</v>
+        <v>1.9625</v>
       </c>
       <c r="I101">
-        <v>841.05</v>
+        <v>848.7032967032967</v>
       </c>
       <c r="J101">
-        <v>957.5</v>
+        <v>972.8571428571429</v>
       </c>
       <c r="K101">
-        <v>494.7352941176471</v>
+        <v>491.9235668789809</v>
       </c>
       <c r="L101" t="s">
         <v>136</v>
       </c>
       <c r="M101">
+        <v>10</v>
+      </c>
+      <c r="N101">
         <v>9</v>
-      </c>
-      <c r="N101">
-        <v>8</v>
       </c>
       <c r="O101">
         <v>2</v>
@@ -12483,13 +12483,13 @@
         <v>0.5</v>
       </c>
       <c r="R101">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S101">
-        <v>2.9125</v>
+        <v>3.1125</v>
       </c>
       <c r="T101">
-        <v>0.01216125934277005</v>
+        <v>0.01296321362751325</v>
       </c>
       <c r="U101">
         <v>96.18666666666667</v>
@@ -12566,19 +12566,19 @@
         <v>39078</v>
       </c>
       <c r="G102">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H102">
-        <v>2.120689655172414</v>
+        <v>2.074074074074074</v>
       </c>
       <c r="I102">
-        <v>791.6507936507936</v>
+        <v>788.0666666666667</v>
       </c>
       <c r="J102">
-        <v>2285.333333333333</v>
+        <v>2285.666666666667</v>
       </c>
       <c r="K102">
-        <v>405.479674796748</v>
+        <v>422.1785714285714</v>
       </c>
       <c r="L102" t="s">
         <v>137</v>
@@ -12605,7 +12605,7 @@
         <v>5.699999999999999</v>
       </c>
       <c r="T102">
-        <v>0.02380057622447701</v>
+        <v>0.02373986110098811</v>
       </c>
       <c r="U102">
         <v>92.724</v>
@@ -12682,19 +12682,19 @@
         <v>58405.42</v>
       </c>
       <c r="G103">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1.813725490196078</v>
       </c>
       <c r="I103">
-        <v>910.6567164179105</v>
+        <v>780.375</v>
       </c>
       <c r="J103">
-        <v>911.4146341463414</v>
+        <v>678.3035714285714</v>
       </c>
       <c r="K103">
-        <v>564.9444444444445</v>
+        <v>506.1891891891892</v>
       </c>
       <c r="L103" t="s">
         <v>138</v>
@@ -12721,7 +12721,7 @@
         <v>1.35</v>
       </c>
       <c r="T103">
-        <v>0.005636978579481398</v>
+        <v>0.005622598681812975</v>
       </c>
       <c r="U103">
         <v>94.61833333333333</v>
@@ -12801,16 +12801,16 @@
         <v>120</v>
       </c>
       <c r="H104">
-        <v>1.629310344827586</v>
+        <v>1.6875</v>
       </c>
       <c r="I104">
-        <v>990.3583333333333</v>
+        <v>1050.7</v>
       </c>
       <c r="J104">
-        <v>861.578947368421</v>
+        <v>906.448275862069</v>
       </c>
       <c r="K104">
-        <v>628.7989417989418</v>
+        <v>667.1111111111111</v>
       </c>
       <c r="L104" t="s">
         <v>139</v>
@@ -12837,7 +12837,7 @@
         <v>1.2125</v>
       </c>
       <c r="T104">
-        <v>0.005062841872311995</v>
+        <v>0.005049926593850543</v>
       </c>
       <c r="U104">
         <v>96.26272727272728</v>
@@ -12914,19 +12914,19 @@
         <v>118141.25</v>
       </c>
       <c r="G105">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H105">
-        <v>3.266666666666667</v>
+        <v>3.290322580645161</v>
       </c>
       <c r="I105">
-        <v>2256.229508196721</v>
+        <v>2278.253968253968</v>
       </c>
       <c r="J105">
         <v>1820.555555555556</v>
       </c>
       <c r="K105">
-        <v>702.1938775510204</v>
+        <v>703.5784313725491</v>
       </c>
       <c r="L105" t="s">
         <v>140</v>
@@ -12947,13 +12947,13 @@
         <v>0</v>
       </c>
       <c r="R105">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S105">
         <v>1.45</v>
       </c>
       <c r="T105">
-        <v>0.006054532548331872</v>
+        <v>0.006039087473058381</v>
       </c>
       <c r="U105">
         <v>95.15600000000001</v>
@@ -13033,16 +13033,16 @@
         <v>21</v>
       </c>
       <c r="H106">
-        <v>2.578947368421053</v>
+        <v>2.611111111111111</v>
       </c>
       <c r="I106">
-        <v>816.1904761904761</v>
+        <v>827.952380952381</v>
       </c>
       <c r="J106">
         <v>1721.25</v>
       </c>
       <c r="K106">
-        <v>349.7959183673469</v>
+        <v>369.9361702127659</v>
       </c>
       <c r="L106" t="s">
         <v>141</v>
@@ -13149,16 +13149,16 @@
         <v>120</v>
       </c>
       <c r="H107">
-        <v>1.433333333333333</v>
+        <v>1.458333333333333</v>
       </c>
       <c r="I107">
-        <v>1211.5</v>
+        <v>1269.458333333333</v>
       </c>
       <c r="J107">
-        <v>849.1196581196581</v>
+        <v>867.982905982906</v>
       </c>
       <c r="K107">
-        <v>845.2325581395348</v>
+        <v>870.4857142857143</v>
       </c>
       <c r="L107" t="s">
         <v>142</v>
@@ -13185,7 +13185,7 @@
         <v>1.2</v>
       </c>
       <c r="T107">
-        <v>0.005010647626205686</v>
+        <v>0.004997865494944867</v>
       </c>
       <c r="U107">
         <v>96.53666666666668</v>
@@ -13262,19 +13262,19 @@
         <v>88862.92</v>
       </c>
       <c r="G108">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H108">
-        <v>2.470588235294118</v>
+        <v>2.533333333333333</v>
       </c>
       <c r="I108">
-        <v>1404.411764705882</v>
+        <v>1470</v>
       </c>
       <c r="J108">
-        <v>1805.727272727273</v>
+        <v>1891.3</v>
       </c>
       <c r="K108">
-        <v>568.452380952381</v>
+        <v>580.2631578947369</v>
       </c>
       <c r="L108" t="s">
         <v>143</v>
@@ -13381,16 +13381,16 @@
         <v>120</v>
       </c>
       <c r="H109">
-        <v>3.078947368421053</v>
+        <v>3</v>
       </c>
       <c r="I109">
-        <v>1714.55</v>
+        <v>1689.008333333333</v>
       </c>
       <c r="J109">
-        <v>2257.366666666667</v>
+        <v>2251.030303030303</v>
       </c>
       <c r="K109">
-        <v>586.1709401709402</v>
+        <v>603.2172619047619</v>
       </c>
       <c r="L109" t="s">
         <v>144</v>
@@ -13420,22 +13420,22 @@
         <v>0</v>
       </c>
       <c r="U109">
-        <v>94.29430367450013</v>
+        <v>94.2943036745001</v>
       </c>
       <c r="V109">
         <v>0</v>
       </c>
       <c r="W109">
-        <v>85.83807424691005</v>
+        <v>85.83807424691007</v>
       </c>
       <c r="X109">
-        <v>5699.499194083695</v>
+        <v>5699.499194083693</v>
       </c>
       <c r="Y109">
         <v>0</v>
       </c>
       <c r="Z109">
-        <v>0.1150350893039983</v>
+        <v>0.1150350893039982</v>
       </c>
       <c r="AA109">
         <v>0</v>
@@ -13447,7 +13447,7 @@
         <v>64.25376443860374</v>
       </c>
       <c r="AD109">
-        <v>50.07596206108707</v>
+        <v>50.07596206108709</v>
       </c>
       <c r="AE109">
         <v>0</v>
@@ -13459,10 +13459,10 @@
         <v>0</v>
       </c>
       <c r="AH109">
-        <v>64.44804289493575</v>
+        <v>64.44804289493577</v>
       </c>
       <c r="AI109">
-        <v>3.112855111249358</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ109">
         <v>0</v>
@@ -13536,22 +13536,22 @@
         <v>0</v>
       </c>
       <c r="U110">
-        <v>94.29430367450013</v>
+        <v>94.2943036745001</v>
       </c>
       <c r="V110">
         <v>0</v>
       </c>
       <c r="W110">
-        <v>85.83807424691005</v>
+        <v>85.83807424691007</v>
       </c>
       <c r="X110">
-        <v>5699.499194083695</v>
+        <v>5699.499194083693</v>
       </c>
       <c r="Y110">
         <v>0</v>
       </c>
       <c r="Z110">
-        <v>0.1150350893039983</v>
+        <v>0.1150350893039982</v>
       </c>
       <c r="AA110">
         <v>0</v>
@@ -13563,7 +13563,7 @@
         <v>64.25376443860374</v>
       </c>
       <c r="AD110">
-        <v>50.07596206108707</v>
+        <v>50.07596206108709</v>
       </c>
       <c r="AE110">
         <v>0</v>
@@ -13575,10 +13575,10 @@
         <v>0</v>
       </c>
       <c r="AH110">
-        <v>64.44804289493575</v>
+        <v>64.44804289493577</v>
       </c>
       <c r="AI110">
-        <v>3.112855111249358</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ110">
         <v>0</v>
@@ -13610,19 +13610,19 @@
         <v>58208.33</v>
       </c>
       <c r="G111">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H111">
         <v>2</v>
       </c>
       <c r="I111">
-        <v>777.8571428571429</v>
+        <v>815.8333333333334</v>
       </c>
       <c r="J111">
         <v>1500</v>
       </c>
       <c r="K111">
-        <v>388.9285714285714</v>
+        <v>407.9166666666667</v>
       </c>
       <c r="L111" t="s">
         <v>146</v>
@@ -13729,16 +13729,16 @@
         <v>77</v>
       </c>
       <c r="H112">
-        <v>1.75</v>
+        <v>1.764705882352941</v>
       </c>
       <c r="I112">
-        <v>624.7532467532468</v>
+        <v>622.5454545454545</v>
       </c>
       <c r="J112">
-        <v>826.88</v>
+        <v>828.156862745098</v>
       </c>
       <c r="K112">
-        <v>404.2521008403361</v>
+        <v>399.4666666666666</v>
       </c>
       <c r="L112" t="s">
         <v>147</v>
@@ -13842,19 +13842,19 @@
         <v>17666.67</v>
       </c>
       <c r="G113">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H113">
-        <v>2.714285714285714</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="I113">
-        <v>1402.857142857143</v>
+        <v>1504.166666666667</v>
       </c>
       <c r="J113">
-        <v>1710</v>
+        <v>1837.5</v>
       </c>
       <c r="K113">
-        <v>516.8421052631579</v>
+        <v>530.8823529411765</v>
       </c>
       <c r="L113" t="s">
         <v>148</v>
@@ -13881,7 +13881,7 @@
         <v>1.2</v>
       </c>
       <c r="T113">
-        <v>0.005010647626205686</v>
+        <v>0.004997865494944867</v>
       </c>
       <c r="U113">
         <v>95.952</v>
@@ -13958,19 +13958,19 @@
         <v>110845.83</v>
       </c>
       <c r="G114">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H114">
-        <v>2.333333333333333</v>
+        <v>2.2</v>
       </c>
       <c r="I114">
-        <v>1472.5</v>
+        <v>1415.909090909091</v>
       </c>
       <c r="J114">
         <v>2300</v>
       </c>
       <c r="K114">
-        <v>701.1904761904761</v>
+        <v>707.9545454545455</v>
       </c>
       <c r="L114" t="s">
         <v>149</v>
@@ -14074,19 +14074,19 @@
         <v>17666.67</v>
       </c>
       <c r="G115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H115">
         <v>2</v>
       </c>
       <c r="I115">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="J115">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="K115">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="L115" t="s">
         <v>150</v>
@@ -14190,19 +14190,19 @@
         <v>17666.67</v>
       </c>
       <c r="G116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I116">
-        <v>1242.5</v>
+        <v>1101.666666666667</v>
       </c>
       <c r="J116">
-        <v>1564</v>
+        <v>1875</v>
       </c>
       <c r="K116">
-        <v>828.3333333333334</v>
+        <v>472.1428571428572</v>
       </c>
       <c r="L116" t="s">
         <v>151</v>
@@ -14232,22 +14232,22 @@
         <v>0</v>
       </c>
       <c r="U116">
-        <v>94.29430367450013</v>
+        <v>94.2943036745001</v>
       </c>
       <c r="V116">
         <v>0</v>
       </c>
       <c r="W116">
-        <v>85.83807424691005</v>
+        <v>85.83807424691007</v>
       </c>
       <c r="X116">
-        <v>5699.499194083695</v>
+        <v>5699.499194083693</v>
       </c>
       <c r="Y116">
         <v>0</v>
       </c>
       <c r="Z116">
-        <v>0.1150350893039983</v>
+        <v>0.1150350893039982</v>
       </c>
       <c r="AA116">
         <v>0</v>
@@ -14259,7 +14259,7 @@
         <v>64.25376443860374</v>
       </c>
       <c r="AD116">
-        <v>50.07596206108707</v>
+        <v>50.07596206108709</v>
       </c>
       <c r="AE116">
         <v>0</v>
@@ -14271,10 +14271,10 @@
         <v>0</v>
       </c>
       <c r="AH116">
-        <v>64.44804289493575</v>
+        <v>64.44804289493577</v>
       </c>
       <c r="AI116">
-        <v>3.112855111249358</v>
+        <v>3.112855111249359</v>
       </c>
       <c r="AJ116">
         <v>1.875</v>
